--- a/src/main/resources/script/meta/micro-service-init-data.xlsx
+++ b/src/main/resources/script/meta/micro-service-init-data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7860" tabRatio="845" firstSheet="1" activeTab="2"/>
+    <workbookView windowHeight="14480" tabRatio="845" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -916,6 +916,12 @@
     <t>base-service.report.queryReportList</t>
   </si>
   <si>
+    <t>base-service.role-member.listUsersOnProjectLevel</t>
+  </si>
+  <si>
+    <t>base-service.report-project.queryReportList</t>
+  </si>
+  <si>
     <t>IAM_ROLE_PERMISSION</t>
   </si>
   <si>
@@ -1059,10 +1065,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="34">
     <font>
@@ -1140,6 +1146,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -1147,7 +1160,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1160,16 +1173,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1185,29 +1229,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1220,17 +1250,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1238,6 +1259,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -1252,13 +1281,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -1267,24 +1289,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1305,7 +1311,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1317,7 +1347,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1329,7 +1359,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1341,13 +1407,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1359,133 +1485,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1514,26 +1520,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1570,10 +1561,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1581,18 +1570,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1611,151 +1593,175 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1778,54 +1784,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2092,7 +2098,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="D7:O35"/>
   <sheetViews>
@@ -2100,27 +2106,27 @@
       <selection activeCell="D29" sqref="$A29:$XFD29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="9.2" customWidth="1"/>
-    <col min="2" max="2" width="9.6" customWidth="1"/>
+    <col min="1" max="1" width="9.19852941176471" customWidth="1"/>
+    <col min="2" max="2" width="9.60294117647059" customWidth="1"/>
     <col min="3" max="3" width="9" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
     <col min="5" max="5" width="9" customWidth="1"/>
-    <col min="6" max="6" width="49.2" customWidth="1"/>
-    <col min="7" max="7" width="37.2" customWidth="1"/>
+    <col min="6" max="6" width="49.1985294117647" customWidth="1"/>
+    <col min="7" max="7" width="37.1985294117647" customWidth="1"/>
     <col min="8" max="8" width="37" customWidth="1"/>
     <col min="9" max="9" width="19" customWidth="1"/>
-    <col min="10" max="10" width="19.8" customWidth="1"/>
+    <col min="10" max="10" width="19.8014705882353" customWidth="1"/>
     <col min="11" max="11" width="19" customWidth="1"/>
-    <col min="12" max="12" width="19.2" customWidth="1"/>
-    <col min="13" max="13" width="18.8" customWidth="1"/>
-    <col min="14" max="14" width="19.4" customWidth="1"/>
+    <col min="12" max="12" width="19.1985294117647" customWidth="1"/>
+    <col min="13" max="13" width="18.8014705882353" customWidth="1"/>
+    <col min="14" max="14" width="19.3970588235294" customWidth="1"/>
     <col min="15" max="15" width="19" customWidth="1"/>
     <col min="16" max="1025" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" customHeight="1" spans="4:15">
+    <row r="7" ht="12.75" customHeight="1" spans="4:15">
       <c r="D7" s="3" t="s">
         <v>0</v>
       </c>
@@ -2840,7 +2846,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="D7:Q38"/>
   <sheetViews>
@@ -2848,29 +2854,29 @@
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="6" customWidth="1"/>
-    <col min="3" max="3" width="4.8" customWidth="1"/>
-    <col min="4" max="4" width="19.4" customWidth="1"/>
+    <col min="3" max="3" width="4.80147058823529" customWidth="1"/>
+    <col min="4" max="4" width="19.3970588235294" customWidth="1"/>
     <col min="5" max="5" width="9" customWidth="1"/>
-    <col min="6" max="6" width="72.8" customWidth="1"/>
-    <col min="7" max="7" width="16.8" customWidth="1"/>
+    <col min="6" max="6" width="72.8014705882353" customWidth="1"/>
+    <col min="7" max="7" width="16.8014705882353" customWidth="1"/>
     <col min="8" max="8" width="36" customWidth="1"/>
-    <col min="9" max="9" width="63.8" customWidth="1"/>
-    <col min="10" max="10" width="18.6" customWidth="1"/>
-    <col min="11" max="11" width="54.8" customWidth="1"/>
-    <col min="12" max="12" width="19.2" customWidth="1"/>
-    <col min="13" max="13" width="14.6" customWidth="1"/>
-    <col min="14" max="14" width="26.4" customWidth="1"/>
+    <col min="9" max="9" width="63.8014705882353" customWidth="1"/>
+    <col min="10" max="10" width="18.6029411764706" customWidth="1"/>
+    <col min="11" max="11" width="54.8014705882353" customWidth="1"/>
+    <col min="12" max="12" width="19.1985294117647" customWidth="1"/>
+    <col min="13" max="13" width="14.6029411764706" customWidth="1"/>
+    <col min="14" max="14" width="26.3970588235294" customWidth="1"/>
     <col min="15" max="15" width="9" customWidth="1"/>
-    <col min="16" max="16" width="12.4" customWidth="1"/>
-    <col min="17" max="17" width="10.8" customWidth="1"/>
+    <col min="16" max="16" width="12.3970588235294" customWidth="1"/>
+    <col min="17" max="17" width="10.8014705882353" customWidth="1"/>
     <col min="18" max="1025" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" customHeight="1" spans="4:17">
+    <row r="7" ht="12.75" customHeight="1" spans="4:17">
       <c r="D7" s="3" t="s">
         <v>86</v>
       </c>
@@ -2914,7 +2920,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" ht="15" spans="4:15">
+    <row r="8" ht="17.6" spans="4:15">
       <c r="D8" s="5"/>
       <c r="F8" s="7" t="s">
         <v>96</v>
@@ -2943,7 +2949,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" ht="15" spans="6:15">
+    <row r="9" ht="17.6" spans="6:15">
       <c r="F9" s="7" t="s">
         <v>101</v>
       </c>
@@ -2975,7 +2981,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" ht="15" spans="6:15">
+    <row r="10" ht="17.6" spans="6:15">
       <c r="F10" s="7" t="s">
         <v>106</v>
       </c>
@@ -3007,7 +3013,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" ht="15" spans="6:15">
+    <row r="11" ht="17.6" spans="6:15">
       <c r="F11" s="7" t="s">
         <v>110</v>
       </c>
@@ -3035,7 +3041,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" ht="15" spans="6:15">
+    <row r="12" ht="17.6" spans="6:15">
       <c r="F12" s="7" t="s">
         <v>113</v>
       </c>
@@ -3067,7 +3073,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" ht="15" spans="6:15">
+    <row r="13" ht="17.6" spans="6:15">
       <c r="F13" s="7" t="s">
         <v>117</v>
       </c>
@@ -3099,7 +3105,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" ht="15" spans="6:15">
+    <row r="14" ht="17.6" spans="6:15">
       <c r="F14" s="7" t="s">
         <v>121</v>
       </c>
@@ -3129,7 +3135,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" ht="15" spans="6:15">
+    <row r="15" ht="18" spans="6:15">
       <c r="F15" s="7" t="s">
         <v>125</v>
       </c>
@@ -3159,7 +3165,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" ht="15" spans="6:15">
+    <row r="16" ht="17.6" spans="6:15">
       <c r="F16" s="7" t="s">
         <v>128</v>
       </c>
@@ -3189,7 +3195,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" ht="15" spans="6:15">
+    <row r="17" ht="17.6" spans="6:15">
       <c r="F17" s="7" t="s">
         <v>131</v>
       </c>
@@ -3219,7 +3225,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" ht="15" spans="6:15">
+    <row r="18" ht="17.6" spans="6:15">
       <c r="F18" s="7" t="s">
         <v>134</v>
       </c>
@@ -3249,7 +3255,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" ht="15" spans="6:15">
+    <row r="19" ht="17.6" spans="6:15">
       <c r="F19" s="8" t="s">
         <v>137</v>
       </c>
@@ -3277,7 +3283,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" ht="15" spans="6:15">
+    <row r="20" ht="17.6" spans="6:15">
       <c r="F20" s="8" t="s">
         <v>140</v>
       </c>
@@ -3309,7 +3315,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" ht="15" spans="6:15">
+    <row r="21" ht="17.6" spans="6:15">
       <c r="F21" s="8" t="s">
         <v>144</v>
       </c>
@@ -3341,7 +3347,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" ht="15" spans="6:15">
+    <row r="22" ht="17.6" spans="6:15">
       <c r="F22" s="8" t="s">
         <v>145</v>
       </c>
@@ -3373,7 +3379,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" ht="15" spans="6:15">
+    <row r="23" ht="17.6" spans="6:15">
       <c r="F23" s="8" t="s">
         <v>149</v>
       </c>
@@ -3405,7 +3411,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="24" ht="15" spans="6:15">
+    <row r="24" ht="17.6" spans="6:15">
       <c r="F24" s="8" t="s">
         <v>153</v>
       </c>
@@ -3433,7 +3439,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" ht="15" spans="6:15">
+    <row r="25" ht="17.6" spans="6:15">
       <c r="F25" s="8" t="s">
         <v>154</v>
       </c>
@@ -3465,7 +3471,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" ht="15" spans="6:15">
+    <row r="26" ht="17.6" spans="6:15">
       <c r="F26" s="8" t="s">
         <v>155</v>
       </c>
@@ -3497,7 +3503,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" ht="15" spans="6:15">
+    <row r="27" ht="17.6" spans="6:15">
       <c r="F27" s="8" t="s">
         <v>156</v>
       </c>
@@ -3527,7 +3533,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" ht="15" spans="6:15">
+    <row r="28" ht="17.6" spans="6:15">
       <c r="F28" s="10" t="s">
         <v>157</v>
       </c>
@@ -3557,7 +3563,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" ht="15" spans="6:15">
+    <row r="29" ht="17.6" spans="6:15">
       <c r="F29" s="10" t="s">
         <v>162</v>
       </c>
@@ -3589,7 +3595,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" ht="15" spans="6:15">
+    <row r="30" ht="17.6" spans="6:15">
       <c r="F30" s="10" t="s">
         <v>166</v>
       </c>
@@ -3621,7 +3627,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" ht="15" spans="6:15">
+    <row r="31" ht="17.6" spans="6:15">
       <c r="F31" s="10" t="s">
         <v>170</v>
       </c>
@@ -3653,7 +3659,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" ht="15" spans="6:15">
+    <row r="32" ht="17.6" spans="6:15">
       <c r="F32" s="11" t="s">
         <v>174</v>
       </c>
@@ -3683,7 +3689,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" ht="15" spans="6:15">
+    <row r="33" ht="17.6" spans="6:15">
       <c r="F33" s="11" t="s">
         <v>179</v>
       </c>
@@ -3715,7 +3721,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="34" ht="15" spans="6:15">
+    <row r="34" ht="17.6" spans="6:15">
       <c r="F34" s="11" t="s">
         <v>182</v>
       </c>
@@ -3743,7 +3749,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="35" ht="15" spans="6:15">
+    <row r="35" ht="17.6" spans="6:15">
       <c r="F35" s="11" t="s">
         <v>183</v>
       </c>
@@ -3775,7 +3781,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" ht="15" spans="6:15">
+    <row r="36" ht="17.6" spans="6:15">
       <c r="F36" s="11" t="s">
         <v>185</v>
       </c>
@@ -3805,7 +3811,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" ht="15" spans="6:15">
+    <row r="37" ht="17.6" spans="6:15">
       <c r="F37" s="11" t="s">
         <v>188</v>
       </c>
@@ -3831,7 +3837,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="38" ht="15" spans="6:15">
+    <row r="38" ht="17.6" spans="6:15">
       <c r="F38" s="11" t="s">
         <v>191</v>
       </c>
@@ -3874,25 +3880,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="D7:H127"/>
+  <dimension ref="D7:H129"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="G51" sqref="G51"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A107" workbookViewId="0">
+      <selection activeCell="G129" sqref="G129"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="3" width="9" customWidth="1"/>
-    <col min="4" max="4" width="23.8" customWidth="1"/>
+    <col min="4" max="4" width="23.8014705882353" customWidth="1"/>
     <col min="5" max="5" width="9" customWidth="1"/>
-    <col min="6" max="6" width="60.8" customWidth="1"/>
-    <col min="7" max="7" width="71.8" customWidth="1"/>
+    <col min="6" max="6" width="60.8014705882353" customWidth="1"/>
+    <col min="7" max="7" width="71.8014705882353" customWidth="1"/>
     <col min="8" max="1025" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" customHeight="1" spans="4:8">
+    <row r="7" ht="12.75" customHeight="1" spans="4:8">
       <c r="D7" s="3" t="s">
         <v>195</v>
       </c>
@@ -3909,7 +3915,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" ht="15" spans="4:7">
+    <row r="8" ht="17.6" spans="4:7">
       <c r="D8" s="5"/>
       <c r="F8" s="6" t="s">
         <v>101</v>
@@ -3918,7 +3924,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" ht="15" spans="6:7">
+    <row r="9" ht="17.6" spans="6:7">
       <c r="F9" s="6" t="s">
         <v>101</v>
       </c>
@@ -3926,7 +3932,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="10" ht="15" spans="6:7">
+    <row r="10" ht="17.6" spans="6:7">
       <c r="F10" s="6" t="s">
         <v>101</v>
       </c>
@@ -3934,7 +3940,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="11" ht="15" spans="6:7">
+    <row r="11" ht="17.6" spans="6:7">
       <c r="F11" s="6" t="s">
         <v>101</v>
       </c>
@@ -3942,7 +3948,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="12" ht="15" spans="6:7">
+    <row r="12" ht="17.6" spans="6:7">
       <c r="F12" s="6" t="s">
         <v>101</v>
       </c>
@@ -3950,7 +3956,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="13" ht="15" spans="6:7">
+    <row r="13" ht="17.6" spans="6:7">
       <c r="F13" s="6" t="s">
         <v>106</v>
       </c>
@@ -3958,7 +3964,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" ht="15" spans="6:7">
+    <row r="14" ht="17.6" spans="6:7">
       <c r="F14" s="6" t="s">
         <v>106</v>
       </c>
@@ -3966,7 +3972,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="15" ht="15" spans="6:7">
+    <row r="15" ht="17.6" spans="6:7">
       <c r="F15" s="6" t="s">
         <v>106</v>
       </c>
@@ -3974,7 +3980,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="16" ht="15" spans="6:7">
+    <row r="16" ht="17.6" spans="6:7">
       <c r="F16" s="6" t="s">
         <v>106</v>
       </c>
@@ -3982,7 +3988,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="17" ht="15" spans="6:7">
+    <row r="17" ht="17.6" spans="6:7">
       <c r="F17" s="6" t="s">
         <v>106</v>
       </c>
@@ -3990,7 +3996,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="18" ht="15" spans="6:7">
+    <row r="18" ht="17.6" spans="6:7">
       <c r="F18" s="6" t="s">
         <v>106</v>
       </c>
@@ -3998,7 +4004,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="19" ht="15" spans="6:7">
+    <row r="19" ht="17.6" spans="6:7">
       <c r="F19" s="6" t="s">
         <v>106</v>
       </c>
@@ -4006,7 +4012,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="20" ht="15" spans="6:7">
+    <row r="20" ht="17.6" spans="6:7">
       <c r="F20" s="6" t="s">
         <v>106</v>
       </c>
@@ -4014,7 +4020,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="21" ht="15" spans="6:7">
+    <row r="21" ht="17.6" spans="6:7">
       <c r="F21" s="6" t="s">
         <v>106</v>
       </c>
@@ -4022,7 +4028,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="22" ht="15" spans="6:7">
+    <row r="22" ht="17.6" spans="6:7">
       <c r="F22" s="6" t="s">
         <v>106</v>
       </c>
@@ -4030,7 +4036,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="23" ht="15" spans="6:7">
+    <row r="23" ht="17.6" spans="6:7">
       <c r="F23" s="6" t="s">
         <v>106</v>
       </c>
@@ -4038,7 +4044,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="24" ht="15" spans="6:7">
+    <row r="24" ht="17.6" spans="6:7">
       <c r="F24" s="6" t="s">
         <v>106</v>
       </c>
@@ -4046,7 +4052,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="25" ht="15" spans="6:7">
+    <row r="25" ht="17.6" spans="6:7">
       <c r="F25" s="6" t="s">
         <v>106</v>
       </c>
@@ -4054,7 +4060,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="26" ht="15" spans="6:7">
+    <row r="26" ht="17.6" spans="6:7">
       <c r="F26" s="6" t="s">
         <v>106</v>
       </c>
@@ -4062,7 +4068,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="27" ht="15" spans="6:7">
+    <row r="27" ht="17.6" spans="6:7">
       <c r="F27" s="6" t="s">
         <v>106</v>
       </c>
@@ -4070,7 +4076,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="28" ht="15" spans="6:7">
+    <row r="28" ht="17.6" spans="6:7">
       <c r="F28" s="6" t="s">
         <v>106</v>
       </c>
@@ -4078,7 +4084,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="29" ht="15" spans="6:7">
+    <row r="29" ht="17.6" spans="6:7">
       <c r="F29" s="6" t="s">
         <v>106</v>
       </c>
@@ -4086,7 +4092,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="30" ht="15" spans="6:7">
+    <row r="30" ht="17.6" spans="6:7">
       <c r="F30" s="6" t="s">
         <v>106</v>
       </c>
@@ -4094,7 +4100,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="31" ht="15" spans="6:7">
+    <row r="31" ht="17.6" spans="6:7">
       <c r="F31" s="6" t="s">
         <v>106</v>
       </c>
@@ -4102,7 +4108,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="32" ht="15" spans="6:7">
+    <row r="32" ht="17.6" spans="6:7">
       <c r="F32" s="6" t="s">
         <v>113</v>
       </c>
@@ -4110,7 +4116,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="33" ht="15" spans="6:7">
+    <row r="33" ht="17.6" spans="6:7">
       <c r="F33" s="6" t="s">
         <v>121</v>
       </c>
@@ -4118,7 +4124,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="34" ht="15" spans="6:7">
+    <row r="34" ht="17.6" spans="6:7">
       <c r="F34" s="6" t="s">
         <v>121</v>
       </c>
@@ -4126,7 +4132,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="35" ht="15" spans="6:7">
+    <row r="35" ht="17.6" spans="6:7">
       <c r="F35" s="6" t="s">
         <v>121</v>
       </c>
@@ -4134,7 +4140,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="36" ht="15" spans="6:7">
+    <row r="36" ht="17.6" spans="6:7">
       <c r="F36" s="6" t="s">
         <v>125</v>
       </c>
@@ -4142,7 +4148,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="37" ht="15" spans="6:7">
+    <row r="37" ht="17.6" spans="6:7">
       <c r="F37" s="6" t="s">
         <v>125</v>
       </c>
@@ -4150,7 +4156,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="38" ht="15" spans="6:7">
+    <row r="38" ht="17.6" spans="6:7">
       <c r="F38" s="6" t="s">
         <v>125</v>
       </c>
@@ -4158,7 +4164,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="39" ht="15" spans="6:7">
+    <row r="39" ht="17.6" spans="6:7">
       <c r="F39" s="6" t="s">
         <v>125</v>
       </c>
@@ -4166,7 +4172,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="40" ht="15" spans="6:7">
+    <row r="40" ht="17.6" spans="6:7">
       <c r="F40" s="6" t="s">
         <v>125</v>
       </c>
@@ -4174,7 +4180,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="41" ht="15" spans="6:7">
+    <row r="41" ht="17.6" spans="6:7">
       <c r="F41" s="6" t="s">
         <v>125</v>
       </c>
@@ -4182,7 +4188,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="42" ht="15" spans="6:7">
+    <row r="42" ht="17.6" spans="6:7">
       <c r="F42" s="6" t="s">
         <v>125</v>
       </c>
@@ -4190,7 +4196,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="43" ht="15" spans="6:7">
+    <row r="43" ht="17.6" spans="6:7">
       <c r="F43" s="6" t="s">
         <v>125</v>
       </c>
@@ -4198,7 +4204,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="44" ht="15" spans="6:7">
+    <row r="44" ht="17.6" spans="6:7">
       <c r="F44" s="6" t="s">
         <v>125</v>
       </c>
@@ -4206,7 +4212,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="45" ht="15" spans="6:7">
+    <row r="45" ht="17.6" spans="6:7">
       <c r="F45" s="6" t="s">
         <v>128</v>
       </c>
@@ -4214,7 +4220,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="46" ht="15" spans="6:7">
+    <row r="46" ht="17.6" spans="6:7">
       <c r="F46" s="6" t="s">
         <v>128</v>
       </c>
@@ -4222,7 +4228,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="47" ht="15" spans="6:7">
+    <row r="47" ht="17.6" spans="6:7">
       <c r="F47" s="6" t="s">
         <v>128</v>
       </c>
@@ -4230,7 +4236,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="48" ht="15" spans="6:7">
+    <row r="48" ht="17.6" spans="6:7">
       <c r="F48" s="6" t="s">
         <v>128</v>
       </c>
@@ -4238,7 +4244,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="49" ht="15" spans="6:7">
+    <row r="49" ht="17.6" spans="6:7">
       <c r="F49" s="6" t="s">
         <v>128</v>
       </c>
@@ -4246,7 +4252,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="50" ht="15" spans="6:7">
+    <row r="50" ht="17.6" spans="6:7">
       <c r="F50" s="6" t="s">
         <v>128</v>
       </c>
@@ -4254,7 +4260,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="51" ht="15" spans="6:7">
+    <row r="51" ht="17.6" spans="6:7">
       <c r="F51" s="6" t="s">
         <v>117</v>
       </c>
@@ -4262,7 +4268,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="52" ht="15" spans="6:7">
+    <row r="52" ht="17.6" spans="6:7">
       <c r="F52" s="6" t="s">
         <v>131</v>
       </c>
@@ -4270,7 +4276,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="53" ht="15" spans="6:7">
+    <row r="53" ht="17.6" spans="6:7">
       <c r="F53" s="6" t="s">
         <v>131</v>
       </c>
@@ -4278,7 +4284,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="54" ht="15" spans="6:7">
+    <row r="54" ht="17.6" spans="6:7">
       <c r="F54" s="6" t="s">
         <v>131</v>
       </c>
@@ -4286,7 +4292,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="55" ht="15" spans="6:7">
+    <row r="55" ht="17.6" spans="6:7">
       <c r="F55" s="6" t="s">
         <v>134</v>
       </c>
@@ -4294,7 +4300,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="56" ht="15" spans="6:7">
+    <row r="56" ht="17.6" spans="6:7">
       <c r="F56" s="6" t="s">
         <v>134</v>
       </c>
@@ -4302,7 +4308,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="57" ht="15" spans="6:7">
+    <row r="57" ht="17.6" spans="6:7">
       <c r="F57" s="6" t="s">
         <v>134</v>
       </c>
@@ -4310,7 +4316,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="58" ht="15" spans="6:7">
+    <row r="58" ht="17.6" spans="6:7">
       <c r="F58" s="6" t="s">
         <v>134</v>
       </c>
@@ -4318,7 +4324,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="59" ht="15" spans="6:7">
+    <row r="59" ht="17.6" spans="6:7">
       <c r="F59" s="6" t="s">
         <v>134</v>
       </c>
@@ -4326,7 +4332,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="60" ht="15" spans="6:7">
+    <row r="60" ht="17.6" spans="6:7">
       <c r="F60" s="6" t="s">
         <v>134</v>
       </c>
@@ -4334,7 +4340,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="61" ht="15" spans="6:7">
+    <row r="61" ht="17.6" spans="6:7">
       <c r="F61" s="6" t="s">
         <v>134</v>
       </c>
@@ -4342,7 +4348,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="62" ht="15" spans="6:7">
+    <row r="62" ht="17.6" spans="6:7">
       <c r="F62" s="6" t="s">
         <v>134</v>
       </c>
@@ -4350,7 +4356,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="63" ht="15" spans="6:7">
+    <row r="63" ht="17.6" spans="6:7">
       <c r="F63" s="6" t="s">
         <v>134</v>
       </c>
@@ -4358,7 +4364,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="64" ht="15" spans="6:7">
+    <row r="64" ht="17.6" spans="6:7">
       <c r="F64" s="6" t="s">
         <v>140</v>
       </c>
@@ -4366,7 +4372,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="65" ht="15" spans="6:7">
+    <row r="65" ht="17.6" spans="6:7">
       <c r="F65" s="6" t="s">
         <v>140</v>
       </c>
@@ -4374,7 +4380,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="66" ht="15" spans="6:7">
+    <row r="66" ht="17.6" spans="6:7">
       <c r="F66" s="6" t="s">
         <v>140</v>
       </c>
@@ -4382,7 +4388,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="67" ht="15" spans="6:7">
+    <row r="67" ht="17.6" spans="6:7">
       <c r="F67" s="6" t="s">
         <v>140</v>
       </c>
@@ -4390,7 +4396,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="68" ht="15" spans="6:7">
+    <row r="68" ht="17.6" spans="6:7">
       <c r="F68" s="6" t="s">
         <v>144</v>
       </c>
@@ -4398,7 +4404,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="69" ht="15" spans="6:7">
+    <row r="69" ht="17.6" spans="6:7">
       <c r="F69" s="6" t="s">
         <v>144</v>
       </c>
@@ -4406,7 +4412,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="70" ht="15" spans="6:7">
+    <row r="70" ht="17.6" spans="6:7">
       <c r="F70" s="6" t="s">
         <v>144</v>
       </c>
@@ -4414,7 +4420,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="71" ht="15" spans="6:7">
+    <row r="71" ht="17.6" spans="6:7">
       <c r="F71" s="6" t="s">
         <v>144</v>
       </c>
@@ -4422,7 +4428,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="72" ht="15" spans="6:7">
+    <row r="72" ht="17.6" spans="6:7">
       <c r="F72" s="6" t="s">
         <v>144</v>
       </c>
@@ -4430,7 +4436,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="73" ht="15" spans="6:7">
+    <row r="73" ht="17.6" spans="6:7">
       <c r="F73" s="6" t="s">
         <v>144</v>
       </c>
@@ -4438,7 +4444,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="74" ht="15" spans="6:7">
+    <row r="74" ht="17.6" spans="6:7">
       <c r="F74" s="6" t="s">
         <v>144</v>
       </c>
@@ -4446,7 +4452,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="75" ht="15" spans="6:7">
+    <row r="75" ht="17.6" spans="6:7">
       <c r="F75" s="6" t="s">
         <v>144</v>
       </c>
@@ -4454,7 +4460,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="76" ht="15" spans="6:7">
+    <row r="76" ht="17.6" spans="6:7">
       <c r="F76" s="6" t="s">
         <v>144</v>
       </c>
@@ -4462,7 +4468,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="77" ht="15" spans="6:7">
+    <row r="77" ht="17.6" spans="6:7">
       <c r="F77" s="6" t="s">
         <v>144</v>
       </c>
@@ -4470,7 +4476,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="78" ht="15" spans="6:7">
+    <row r="78" ht="17.6" spans="6:7">
       <c r="F78" s="6" t="s">
         <v>144</v>
       </c>
@@ -4478,7 +4484,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="79" ht="15" spans="6:7">
+    <row r="79" ht="17.6" spans="6:7">
       <c r="F79" s="6" t="s">
         <v>144</v>
       </c>
@@ -4486,7 +4492,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="80" ht="15" spans="6:7">
+    <row r="80" ht="17.6" spans="6:7">
       <c r="F80" s="6" t="s">
         <v>144</v>
       </c>
@@ -4494,7 +4500,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="81" ht="15" spans="6:7">
+    <row r="81" ht="17.6" spans="6:7">
       <c r="F81" s="6" t="s">
         <v>144</v>
       </c>
@@ -4502,7 +4508,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="82" ht="15" spans="6:7">
+    <row r="82" ht="17.6" spans="6:7">
       <c r="F82" s="6" t="s">
         <v>145</v>
       </c>
@@ -4510,7 +4516,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="83" ht="15" spans="6:7">
+    <row r="83" ht="17.6" spans="6:7">
       <c r="F83" s="6" t="s">
         <v>145</v>
       </c>
@@ -4518,7 +4524,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="84" ht="15" spans="6:7">
+    <row r="84" ht="17.6" spans="6:7">
       <c r="F84" s="6" t="s">
         <v>145</v>
       </c>
@@ -4526,7 +4532,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="85" ht="15" spans="6:7">
+    <row r="85" ht="17.6" spans="6:7">
       <c r="F85" s="6" t="s">
         <v>145</v>
       </c>
@@ -4534,7 +4540,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="86" ht="15" spans="6:7">
+    <row r="86" ht="17.6" spans="6:7">
       <c r="F86" s="6" t="s">
         <v>145</v>
       </c>
@@ -4542,7 +4548,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="87" ht="15" spans="6:7">
+    <row r="87" ht="17.6" spans="6:7">
       <c r="F87" s="6" t="s">
         <v>145</v>
       </c>
@@ -4550,7 +4556,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="88" ht="15" spans="6:7">
+    <row r="88" ht="17.6" spans="6:7">
       <c r="F88" s="6" t="s">
         <v>145</v>
       </c>
@@ -4558,7 +4564,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="89" ht="15" spans="6:7">
+    <row r="89" ht="17.6" spans="6:7">
       <c r="F89" s="6" t="s">
         <v>145</v>
       </c>
@@ -4566,7 +4572,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="90" ht="15" spans="6:7">
+    <row r="90" ht="17.6" spans="6:7">
       <c r="F90" s="6" t="s">
         <v>145</v>
       </c>
@@ -4574,7 +4580,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="91" ht="15" spans="6:7">
+    <row r="91" ht="17.6" spans="6:7">
       <c r="F91" s="6" t="s">
         <v>145</v>
       </c>
@@ -4582,7 +4588,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="92" ht="15" spans="6:7">
+    <row r="92" ht="17.6" spans="6:7">
       <c r="F92" s="6" t="s">
         <v>145</v>
       </c>
@@ -4590,7 +4596,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="93" ht="15" spans="6:7">
+    <row r="93" ht="17.6" spans="6:7">
       <c r="F93" s="6" t="s">
         <v>149</v>
       </c>
@@ -4598,7 +4604,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="94" ht="15" spans="6:7">
+    <row r="94" ht="17.6" spans="6:7">
       <c r="F94" s="6" t="s">
         <v>149</v>
       </c>
@@ -4606,7 +4612,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="95" ht="15" spans="6:7">
+    <row r="95" ht="17.6" spans="6:7">
       <c r="F95" s="6" t="s">
         <v>149</v>
       </c>
@@ -4614,7 +4620,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="96" ht="15" spans="6:7">
+    <row r="96" ht="17.6" spans="6:7">
       <c r="F96" s="6" t="s">
         <v>149</v>
       </c>
@@ -4622,7 +4628,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="97" ht="15" spans="6:7">
+    <row r="97" ht="17.6" spans="6:7">
       <c r="F97" s="6" t="s">
         <v>154</v>
       </c>
@@ -4630,7 +4636,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="98" ht="15" spans="6:7">
+    <row r="98" ht="17.6" spans="6:7">
       <c r="F98" s="6" t="s">
         <v>154</v>
       </c>
@@ -4638,7 +4644,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="99" ht="15" spans="6:7">
+    <row r="99" ht="17.6" spans="6:7">
       <c r="F99" s="6" t="s">
         <v>154</v>
       </c>
@@ -4646,7 +4652,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="100" ht="15" spans="6:7">
+    <row r="100" ht="17.6" spans="6:7">
       <c r="F100" s="6" t="s">
         <v>155</v>
       </c>
@@ -4654,7 +4660,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="101" ht="15" spans="6:7">
+    <row r="101" ht="17.6" spans="6:7">
       <c r="F101" s="6" t="s">
         <v>156</v>
       </c>
@@ -4662,7 +4668,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="102" ht="15" spans="6:7">
+    <row r="102" ht="17.6" spans="6:7">
       <c r="F102" s="6" t="s">
         <v>156</v>
       </c>
@@ -4670,7 +4676,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="103" ht="15" spans="6:7">
+    <row r="103" ht="17.6" spans="6:7">
       <c r="F103" s="6" t="s">
         <v>162</v>
       </c>
@@ -4678,7 +4684,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="104" ht="15" spans="6:7">
+    <row r="104" ht="17.6" spans="6:7">
       <c r="F104" s="6" t="s">
         <v>162</v>
       </c>
@@ -4686,7 +4692,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="105" ht="15" spans="6:7">
+    <row r="105" ht="17.6" spans="6:7">
       <c r="F105" s="6" t="s">
         <v>162</v>
       </c>
@@ -4694,7 +4700,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="106" ht="15" spans="6:7">
+    <row r="106" ht="17.6" spans="6:7">
       <c r="F106" s="6" t="s">
         <v>162</v>
       </c>
@@ -4702,7 +4708,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="107" ht="15" spans="6:7">
+    <row r="107" ht="17.6" spans="6:7">
       <c r="F107" s="6" t="s">
         <v>162</v>
       </c>
@@ -4710,7 +4716,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="108" ht="15" spans="6:7">
+    <row r="108" ht="17.6" spans="6:7">
       <c r="F108" s="6" t="s">
         <v>166</v>
       </c>
@@ -4718,7 +4724,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="109" ht="15" spans="6:7">
+    <row r="109" ht="17.6" spans="6:7">
       <c r="F109" s="6" t="s">
         <v>166</v>
       </c>
@@ -4726,7 +4732,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="110" ht="15" spans="6:7">
+    <row r="110" ht="17.6" spans="6:7">
       <c r="F110" s="6" t="s">
         <v>170</v>
       </c>
@@ -4734,7 +4740,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="111" ht="15" spans="6:7">
+    <row r="111" ht="17.6" spans="6:7">
       <c r="F111" s="6" t="s">
         <v>170</v>
       </c>
@@ -4742,7 +4748,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="112" ht="15" spans="6:7">
+    <row r="112" ht="17.6" spans="6:7">
       <c r="F112" s="6" t="s">
         <v>170</v>
       </c>
@@ -4750,7 +4756,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="113" ht="15" spans="6:7">
+    <row r="113" ht="17.6" spans="6:7">
       <c r="F113" s="6" t="s">
         <v>179</v>
       </c>
@@ -4758,7 +4764,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="114" ht="15" spans="6:7">
+    <row r="114" ht="17.6" spans="6:7">
       <c r="F114" s="6" t="s">
         <v>179</v>
       </c>
@@ -4766,7 +4772,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="115" ht="15" spans="6:7">
+    <row r="115" ht="17.6" spans="6:7">
       <c r="F115" s="6" t="s">
         <v>179</v>
       </c>
@@ -4774,7 +4780,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="116" ht="15" spans="6:7">
+    <row r="116" ht="17.6" spans="6:7">
       <c r="F116" s="6" t="s">
         <v>179</v>
       </c>
@@ -4782,7 +4788,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="117" ht="15" spans="6:7">
+    <row r="117" ht="17.6" spans="6:7">
       <c r="F117" s="6" t="s">
         <v>179</v>
       </c>
@@ -4790,7 +4796,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="118" ht="15" spans="6:7">
+    <row r="118" ht="17.6" spans="6:7">
       <c r="F118" s="6" t="s">
         <v>179</v>
       </c>
@@ -4798,7 +4804,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="119" ht="15" spans="6:7">
+    <row r="119" ht="17.6" spans="6:7">
       <c r="F119" s="6" t="s">
         <v>179</v>
       </c>
@@ -4806,7 +4812,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="120" ht="15" spans="6:7">
+    <row r="120" ht="17.6" spans="6:7">
       <c r="F120" s="6" t="s">
         <v>179</v>
       </c>
@@ -4814,7 +4820,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="121" ht="15" spans="6:7">
+    <row r="121" ht="17.6" spans="6:7">
       <c r="F121" s="6" t="s">
         <v>183</v>
       </c>
@@ -4822,7 +4828,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="122" ht="15" spans="6:7">
+    <row r="122" ht="17.6" spans="6:7">
       <c r="F122" s="6" t="s">
         <v>185</v>
       </c>
@@ -4830,7 +4836,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="123" ht="15" spans="6:7">
+    <row r="123" ht="17.6" spans="6:7">
       <c r="F123" s="6" t="s">
         <v>185</v>
       </c>
@@ -4838,7 +4844,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="124" ht="15" spans="6:7">
+    <row r="124" ht="17.6" spans="6:7">
       <c r="F124" s="6" t="s">
         <v>185</v>
       </c>
@@ -4846,7 +4852,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="125" ht="15" spans="6:7">
+    <row r="125" ht="17.6" spans="6:7">
       <c r="F125" s="6" t="s">
         <v>185</v>
       </c>
@@ -4854,7 +4860,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="126" ht="15" spans="6:7">
+    <row r="126" ht="17.6" spans="6:7">
       <c r="F126" s="6" t="s">
         <v>191</v>
       </c>
@@ -4862,12 +4868,28 @@
         <v>83</v>
       </c>
     </row>
-    <row r="127" ht="15" spans="6:7">
+    <row r="127" ht="17.6" spans="6:7">
       <c r="F127" s="6" t="s">
         <v>191</v>
       </c>
       <c r="G127" s="6" t="s">
         <v>291</v>
+      </c>
+    </row>
+    <row r="128" spans="6:7">
+      <c r="F128" t="s">
+        <v>179</v>
+      </c>
+      <c r="G128" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="129" spans="6:7">
+      <c r="F129" t="s">
+        <v>191</v>
+      </c>
+      <c r="G129" t="s">
+        <v>293</v>
       </c>
     </row>
   </sheetData>
@@ -4881,7 +4903,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="D7:G28"/>
   <sheetViews>
@@ -4889,194 +4911,194 @@
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="6.2" customWidth="1"/>
+    <col min="1" max="1" width="6.19852941176471" customWidth="1"/>
     <col min="2" max="2" width="5" customWidth="1"/>
-    <col min="3" max="3" width="7.2" customWidth="1"/>
-    <col min="4" max="4" width="25.8" customWidth="1"/>
-    <col min="5" max="5" width="7.2" customWidth="1"/>
-    <col min="6" max="6" width="42.8" customWidth="1"/>
-    <col min="7" max="7" width="52.8" customWidth="1"/>
+    <col min="3" max="3" width="7.19852941176471" customWidth="1"/>
+    <col min="4" max="4" width="25.8014705882353" customWidth="1"/>
+    <col min="5" max="5" width="7.19852941176471" customWidth="1"/>
+    <col min="6" max="6" width="42.8014705882353" customWidth="1"/>
+    <col min="7" max="7" width="52.8014705882353" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:7">
+    <row r="7" ht="15.2" spans="4:7">
       <c r="D7" s="3" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="8" ht="15.75" spans="6:7">
+    <row r="8" spans="6:7">
       <c r="F8" s="4" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" ht="15.75" spans="6:7">
+    <row r="9" spans="6:7">
       <c r="F9" s="4" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" ht="15.75" spans="6:7">
+    <row r="10" spans="6:7">
       <c r="F10" s="4" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" ht="15.75" spans="6:7">
+    <row r="11" spans="6:7">
       <c r="F11" s="4" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" ht="15.75" spans="6:7">
+    <row r="12" spans="6:7">
       <c r="F12" s="4" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="13" ht="15.75" spans="6:7">
+    <row r="13" spans="6:7">
       <c r="F13" s="4" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14" ht="15.75" spans="6:7">
+    <row r="14" spans="6:7">
       <c r="F14" s="4" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="15" ht="15.75" spans="6:7">
+    <row r="15" spans="6:7">
       <c r="F15" s="4" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="16" ht="15.75" spans="6:7">
+    <row r="16" spans="6:7">
       <c r="F16" s="4" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="17" ht="15.75" spans="6:7">
+    <row r="17" spans="6:7">
       <c r="F17" s="4" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="18" ht="15.75" spans="6:7">
+    <row r="18" spans="6:7">
       <c r="F18" s="4" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="19" ht="15.75" spans="6:7">
+    <row r="19" spans="6:7">
       <c r="F19" s="4" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="20" ht="15.75" spans="6:7">
+    <row r="20" spans="6:7">
       <c r="F20" s="4" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="G20" s="4" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="21" ht="15.75" spans="6:7">
+    <row r="21" spans="6:7">
       <c r="F21" s="4" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="G21" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="22" ht="15.75" spans="6:7">
+    <row r="22" spans="6:7">
       <c r="F22" s="4" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="23" ht="15.75" spans="6:7">
+    <row r="23" spans="6:7">
       <c r="F23" s="4" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="G23" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="24" ht="15.75" spans="6:7">
+    <row r="24" spans="6:7">
       <c r="F24" s="4" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="25" ht="15.75" spans="6:7">
+    <row r="25" spans="6:7">
       <c r="F25" s="4" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="26" ht="15.75" spans="6:7">
+    <row r="26" spans="6:7">
       <c r="F26" s="4" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="G26" s="4" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="27" ht="15.75" spans="6:7">
+    <row r="27" spans="6:7">
       <c r="F27" s="4" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="G27" s="4" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="28" ht="15.75" spans="6:7">
+    <row r="28" spans="6:7">
       <c r="F28" s="4" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="G28" s="4" t="s">
         <v>83</v>
@@ -5093,7 +5115,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="D6:I11"/>
   <sheetViews>
@@ -5101,33 +5123,33 @@
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="3" width="8.8" customWidth="1"/>
-    <col min="4" max="4" width="27.4" customWidth="1"/>
+    <col min="1" max="3" width="8.80147058823529" customWidth="1"/>
+    <col min="4" max="4" width="27.3970588235294" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="23.8" customWidth="1"/>
+    <col min="6" max="6" width="23.8014705882353" customWidth="1"/>
     <col min="7" max="7" width="48" customWidth="1"/>
-    <col min="8" max="8" width="24.8" customWidth="1"/>
-    <col min="9" max="1025" width="8.8" customWidth="1"/>
+    <col min="8" max="8" width="24.8014705882353" customWidth="1"/>
+    <col min="9" max="1025" width="8.80147058823529" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" ht="13.5"/>
+    <row r="6" ht="14.75"/>
     <row r="7" ht="19" customHeight="1" spans="4:9">
       <c r="D7" s="1" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>196</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>11</v>
@@ -5135,7 +5157,7 @@
     </row>
     <row r="8" spans="6:8">
       <c r="F8" s="2" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>179</v>
@@ -5146,7 +5168,7 @@
     </row>
     <row r="9" spans="6:8">
       <c r="F9" s="2" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>183</v>
@@ -5157,7 +5179,7 @@
     </row>
     <row r="10" spans="6:8">
       <c r="F10" s="2" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>185</v>
@@ -5168,7 +5190,7 @@
     </row>
     <row r="11" spans="6:8">
       <c r="F11" s="2" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>191</v>
@@ -5178,14 +5200,14 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511111111111111" footer="0.511111111111111"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.510416666666667" footer="0.510416666666667"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="D7:K8"/>
   <sheetViews>
@@ -5193,19 +5215,19 @@
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.2" defaultRowHeight="12.75" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9.19852941176471" defaultRowHeight="14" outlineLevelRow="7"/>
   <cols>
-    <col min="6" max="6" width="18.2" customWidth="1"/>
-    <col min="7" max="7" width="15.8" customWidth="1"/>
+    <col min="6" max="6" width="18.1985294117647" customWidth="1"/>
+    <col min="7" max="7" width="15.8014705882353" customWidth="1"/>
     <col min="8" max="8" width="18" customWidth="1"/>
-    <col min="9" max="9" width="36.4" customWidth="1"/>
-    <col min="10" max="10" width="15.2" customWidth="1"/>
-    <col min="11" max="11" width="11.2" customWidth="1"/>
+    <col min="9" max="9" width="36.3970588235294" customWidth="1"/>
+    <col min="10" max="10" width="15.1985294117647" customWidth="1"/>
+    <col min="11" max="11" width="11.1985294117647" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="4:11">
       <c r="D7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="E7" t="s">
         <v>1</v>
@@ -5220,33 +5242,33 @@
         <v>5</v>
       </c>
       <c r="I7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="J7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="K7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="8" spans="6:11">
       <c r="F8" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="G8" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="H8" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="I8" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="J8" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="K8" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
   </sheetData>
@@ -5256,7 +5278,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="D7:I11"/>
   <sheetViews>
@@ -5264,89 +5286,89 @@
       <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.2" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.19852941176471" defaultRowHeight="14"/>
   <cols>
-    <col min="4" max="4" width="21.4" customWidth="1"/>
+    <col min="4" max="4" width="21.3970588235294" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="13.2" customWidth="1"/>
-    <col min="7" max="7" width="25.4" customWidth="1"/>
-    <col min="8" max="9" width="18.2" customWidth="1"/>
+    <col min="6" max="6" width="13.1985294117647" customWidth="1"/>
+    <col min="7" max="7" width="25.3970588235294" customWidth="1"/>
+    <col min="8" max="9" width="18.1985294117647" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="4:9">
       <c r="D7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="E7" t="s">
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="G7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="H7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="I7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row r="8" spans="6:9">
       <c r="F8" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="H8" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="I8" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="9" spans="6:9">
       <c r="F9" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="H9" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="I9" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="10" spans="6:9">
       <c r="F10" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="H10" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="I10" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="11" spans="6:9">
       <c r="F11" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="H11" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="I11" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
   </sheetData>
@@ -5356,7 +5378,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="D7:L9"/>
   <sheetViews>
@@ -5364,85 +5386,85 @@
       <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.2" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.19852941176471" defaultRowHeight="14"/>
   <cols>
-    <col min="4" max="4" width="22.2" customWidth="1"/>
-    <col min="6" max="6" width="18.8" customWidth="1"/>
-    <col min="7" max="7" width="25.8" customWidth="1"/>
+    <col min="4" max="4" width="22.1985294117647" customWidth="1"/>
+    <col min="6" max="6" width="18.8014705882353" customWidth="1"/>
+    <col min="7" max="7" width="25.8014705882353" customWidth="1"/>
     <col min="8" max="8" width="36" customWidth="1"/>
-    <col min="9" max="9" width="22.2" customWidth="1"/>
-    <col min="10" max="10" width="25.8" customWidth="1"/>
-    <col min="11" max="11" width="19.8" customWidth="1"/>
+    <col min="9" max="9" width="22.1985294117647" customWidth="1"/>
+    <col min="10" max="10" width="25.8014705882353" customWidth="1"/>
+    <col min="11" max="11" width="19.8014705882353" customWidth="1"/>
     <col min="12" max="12" width="21" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="4:12">
       <c r="D7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="E7" t="s">
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="G7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="H7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="I7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="J7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="K7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="L7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="8" spans="6:11">
       <c r="F8" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="H8" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="I8" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="J8" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="K8" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="9" spans="6:12">
       <c r="F9" t="s">
+        <v>336</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9" t="s">
+        <v>337</v>
+      </c>
+      <c r="I9" t="s">
+        <v>338</v>
+      </c>
+      <c r="J9" t="s">
         <v>334</v>
       </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9" t="s">
-        <v>335</v>
-      </c>
-      <c r="I9" t="s">
-        <v>336</v>
-      </c>
-      <c r="J9" t="s">
-        <v>332</v>
-      </c>
       <c r="K9" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="L9">
         <v>0</v>

--- a/src/main/resources/script/meta/micro-service-init-data.xlsx
+++ b/src/main/resources/script/meta/micro-service-init-data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="14480" tabRatio="845" firstSheet="1" activeTab="2"/>
+    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="845"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="877" uniqueCount="379">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -240,6 +240,40 @@
   </si>
   <si>
     <t>Token管理路由</t>
+  </si>
+  <si>
+    <t>choerodon.route.site.lookup-config</t>
+  </si>
+  <si>
+    <t>/base/lookup-config</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
+        <charset val="134"/>
+      </rPr>
+      <t>快码维护路由</t>
+    </r>
+  </si>
+  <si>
+    <t>choerodon.route.site.lov-config</t>
+  </si>
+  <si>
+    <t>/base/lov-config</t>
+  </si>
+  <si>
+    <t>lov配置路由</t>
+  </si>
+  <si>
+    <t>choerodon.route.site.lang-config</t>
+  </si>
+  <si>
+    <t>/base/lang-config</t>
+  </si>
+  <si>
+    <t>描述维护路由</t>
   </si>
   <si>
     <t>choerodon.route.project.team-member</t>
@@ -562,6 +596,45 @@
     <t>token</t>
   </si>
   <si>
+    <t>choerodon.code.site.lookup-config</t>
+  </si>
+  <si>
+    <t>快码维护</t>
+  </si>
+  <si>
+    <t>Lookup Code Config</t>
+  </si>
+  <si>
+    <t>choerodon.code.site.operation</t>
+  </si>
+  <si>
+    <t>settings_ethernet</t>
+  </si>
+  <si>
+    <t>choerodon.code.site.lov-config</t>
+  </si>
+  <si>
+    <t>lov配置</t>
+  </si>
+  <si>
+    <t>LOV Config</t>
+  </si>
+  <si>
+    <t>gradient</t>
+  </si>
+  <si>
+    <t>choerodon.code.site.lang-config</t>
+  </si>
+  <si>
+    <t>描述维护</t>
+  </si>
+  <si>
+    <t>Lang Config</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
     <t>choerodon.code.project.cooperation</t>
   </si>
   <si>
@@ -920,6 +993,57 @@
   </si>
   <si>
     <t>base-service.report-project.queryReportList</t>
+  </si>
+  <si>
+    <t>base-service.lookup.list</t>
+  </si>
+  <si>
+    <t>base-service.lookup.create</t>
+  </si>
+  <si>
+    <t>base-service.lookup.queryById</t>
+  </si>
+  <si>
+    <t>base-service.lookup.update</t>
+  </si>
+  <si>
+    <t>base-service.lookup.delete</t>
+  </si>
+  <si>
+    <t>base-service.lov.queryByCode</t>
+  </si>
+  <si>
+    <t>base-service.lov.createLov</t>
+  </si>
+  <si>
+    <t>base-service.lov.queryApiByLevel</t>
+  </si>
+  <si>
+    <t>base-service.lov.queryLovList</t>
+  </si>
+  <si>
+    <t>base-service.lov.updateLov</t>
+  </si>
+  <si>
+    <t>base-service.lov.deleteLov</t>
+  </si>
+  <si>
+    <t>base-service.prompt.pagingQueryByOptions</t>
+  </si>
+  <si>
+    <t>base-service.prompt.create</t>
+  </si>
+  <si>
+    <t>base-service.prompt.update</t>
+  </si>
+  <si>
+    <t>base-service.prompt.delete</t>
+  </si>
+  <si>
+    <t>base-service.prompt.queryById</t>
+  </si>
+  <si>
+    <t>base-service.prompt.queryByCode</t>
   </si>
   <si>
     <t>IAM_ROLE_PERMISSION</t>
@@ -1066,11 +1190,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="34">
+  <fonts count="36">
     <font>
       <sz val="10"/>
       <name val="Droid Sans Fallback"/>
@@ -1133,6 +1257,11 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="13"/>
+      <name val="PingFang SC"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FF8F187C"/>
       <name val="PingFang SC"/>
@@ -1145,11 +1274,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="13"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1160,7 +1287,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1174,46 +1324,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1229,7 +1347,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1237,7 +1355,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1251,7 +1385,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1259,17 +1393,24 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1282,15 +1423,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1311,7 +1445,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1323,79 +1559,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1413,49 +1583,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1473,25 +1619,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1520,30 +1654,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1568,28 +1678,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1617,155 +1716,190 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
@@ -1781,57 +1915,59 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2098,35 +2234,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="D7:O35"/>
   <sheetViews>
-    <sheetView zoomScale="95" zoomScaleNormal="95" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D29" sqref="$A29:$XFD29"/>
+    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="M37" sqref="M37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="9.19852941176471" customWidth="1"/>
-    <col min="2" max="2" width="9.60294117647059" customWidth="1"/>
+    <col min="1" max="1" width="9.2" customWidth="1"/>
+    <col min="2" max="2" width="9.6" customWidth="1"/>
     <col min="3" max="3" width="9" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
     <col min="5" max="5" width="9" customWidth="1"/>
-    <col min="6" max="6" width="49.1985294117647" customWidth="1"/>
-    <col min="7" max="7" width="37.1985294117647" customWidth="1"/>
+    <col min="6" max="6" width="49.2" customWidth="1"/>
+    <col min="7" max="7" width="37.2" customWidth="1"/>
     <col min="8" max="8" width="37" customWidth="1"/>
     <col min="9" max="9" width="19" customWidth="1"/>
-    <col min="10" max="10" width="19.8014705882353" customWidth="1"/>
+    <col min="10" max="10" width="19.8" customWidth="1"/>
     <col min="11" max="11" width="19" customWidth="1"/>
-    <col min="12" max="12" width="19.1985294117647" customWidth="1"/>
-    <col min="13" max="13" width="18.8014705882353" customWidth="1"/>
-    <col min="14" max="14" width="19.3970588235294" customWidth="1"/>
+    <col min="12" max="12" width="19.2" customWidth="1"/>
+    <col min="13" max="13" width="18.8" customWidth="1"/>
+    <col min="14" max="14" width="19.4" customWidth="1"/>
     <col min="15" max="15" width="19" customWidth="1"/>
     <col min="16" max="1025" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" ht="12.75" customHeight="1" spans="4:15">
+    <row r="7" customHeight="1" spans="4:15">
       <c r="D7" s="3" t="s">
         <v>0</v>
       </c>
@@ -2716,7 +2852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="6:14">
+    <row r="27" customFormat="1" spans="6:14">
       <c r="F27" s="2" t="s">
         <v>73</v>
       </c>
@@ -2727,10 +2863,10 @@
         <v>14</v>
       </c>
       <c r="I27" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J27" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="J27" s="2" t="s">
-        <v>76</v>
       </c>
       <c r="K27" s="2" t="s">
         <v>17</v>
@@ -2745,21 +2881,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="6:14">
+    <row r="28" customFormat="1" spans="6:14">
       <c r="F28" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G28" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>78</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>14</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K28" s="2" t="s">
         <v>17</v>
@@ -2774,21 +2910,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="6:14">
+    <row r="29" customFormat="1" spans="6:14">
       <c r="F29" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G29" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>81</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>14</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K29" s="2" t="s">
         <v>17</v>
@@ -2805,16 +2941,16 @@
     </row>
     <row r="30" spans="6:14">
       <c r="F30" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G30" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>84</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>14</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="J30" s="2" t="s">
         <v>85</v>
@@ -2828,7 +2964,94 @@
       <c r="M30" s="2">
         <v>0</v>
       </c>
-      <c r="N30">
+      <c r="N30" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="6:14">
+      <c r="F31" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L31" s="2">
+        <v>0</v>
+      </c>
+      <c r="M31" s="2">
+        <v>0</v>
+      </c>
+      <c r="N31" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="6:14">
+      <c r="F32" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L32" s="2">
+        <v>0</v>
+      </c>
+      <c r="M32" s="2">
+        <v>0</v>
+      </c>
+      <c r="N32" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="6:14">
+      <c r="F33" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L33" s="2">
+        <v>0</v>
+      </c>
+      <c r="M33" s="2">
+        <v>0</v>
+      </c>
+      <c r="N33">
         <v>0</v>
       </c>
     </row>
@@ -2846,39 +3069,39 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="D7:Q38"/>
+  <dimension ref="D7:Q41"/>
   <sheetViews>
-    <sheetView zoomScale="86" zoomScaleNormal="86" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView zoomScale="86" zoomScaleNormal="86" topLeftCell="G5" workbookViewId="0">
+      <selection activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="6" customWidth="1"/>
-    <col min="3" max="3" width="4.80147058823529" customWidth="1"/>
-    <col min="4" max="4" width="19.3970588235294" customWidth="1"/>
+    <col min="3" max="3" width="4.8" customWidth="1"/>
+    <col min="4" max="4" width="19.4" customWidth="1"/>
     <col min="5" max="5" width="9" customWidth="1"/>
-    <col min="6" max="6" width="72.8014705882353" customWidth="1"/>
-    <col min="7" max="7" width="16.8014705882353" customWidth="1"/>
+    <col min="6" max="6" width="72.8" customWidth="1"/>
+    <col min="7" max="7" width="16.8" customWidth="1"/>
     <col min="8" max="8" width="36" customWidth="1"/>
-    <col min="9" max="9" width="63.8014705882353" customWidth="1"/>
-    <col min="10" max="10" width="18.6029411764706" customWidth="1"/>
-    <col min="11" max="11" width="54.8014705882353" customWidth="1"/>
-    <col min="12" max="12" width="19.1985294117647" customWidth="1"/>
-    <col min="13" max="13" width="14.6029411764706" customWidth="1"/>
-    <col min="14" max="14" width="26.3970588235294" customWidth="1"/>
+    <col min="9" max="9" width="63.8" customWidth="1"/>
+    <col min="10" max="10" width="18.6" customWidth="1"/>
+    <col min="11" max="11" width="54.8" customWidth="1"/>
+    <col min="12" max="12" width="19.2" customWidth="1"/>
+    <col min="13" max="13" width="14.6" customWidth="1"/>
+    <col min="14" max="14" width="26.4" customWidth="1"/>
     <col min="15" max="15" width="9" customWidth="1"/>
-    <col min="16" max="16" width="12.3970588235294" customWidth="1"/>
-    <col min="17" max="17" width="10.8014705882353" customWidth="1"/>
+    <col min="16" max="16" width="12.4" customWidth="1"/>
+    <col min="17" max="17" width="10.8" customWidth="1"/>
     <col min="18" max="1025" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" ht="12.75" customHeight="1" spans="4:17">
+    <row r="7" customHeight="1" spans="4:17">
       <c r="D7" s="3" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>1</v>
@@ -2887,77 +3110,77 @@
         <v>2</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="J7" s="3" t="s">
         <v>4</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="Q7" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" ht="17.6" spans="4:15">
+    <row r="8" ht="15" spans="4:15">
       <c r="D8" s="5"/>
       <c r="F8" s="7" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="I8" s="7"/>
       <c r="J8" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>15</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="N8" s="7"/>
       <c r="O8" s="7">
         <v>10</v>
       </c>
     </row>
-    <row r="9" ht="17.6" spans="6:15">
+    <row r="9" ht="15" spans="6:15">
       <c r="F9" s="7" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="I9" s="7" t="s">
         <v>12</v>
@@ -2966,30 +3189,30 @@
         <v>14</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="L9" s="7" t="s">
         <v>15</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="N9" s="7" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="O9" s="7">
         <v>10</v>
       </c>
     </row>
-    <row r="10" ht="17.6" spans="6:15">
+    <row r="10" ht="15" spans="6:15">
       <c r="F10" s="7" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="I10" s="7" t="s">
         <v>18</v>
@@ -2998,58 +3221,58 @@
         <v>14</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>15</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="N10" s="7" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="O10" s="7">
         <v>20</v>
       </c>
     </row>
-    <row r="11" ht="17.6" spans="6:15">
+    <row r="11" ht="15" spans="6:15">
       <c r="F11" s="7" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="I11" s="7"/>
       <c r="J11" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>15</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="N11" s="7"/>
       <c r="O11" s="7">
         <v>20</v>
       </c>
     </row>
-    <row r="12" ht="17.6" spans="6:15">
+    <row r="12" ht="15" spans="6:15">
       <c r="F12" s="7" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="I12" s="7" t="s">
         <v>21</v>
@@ -3058,30 +3281,30 @@
         <v>14</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>15</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="N12" s="7" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="O12" s="7">
         <v>10</v>
       </c>
     </row>
-    <row r="13" ht="17.6" spans="6:15">
+    <row r="13" ht="15" spans="6:15">
       <c r="F13" s="7" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="I13" s="7" t="s">
         <v>24</v>
@@ -3090,30 +3313,30 @@
         <v>14</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>15</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="N13" s="7" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="O13" s="7">
         <v>20</v>
       </c>
     </row>
-    <row r="14" ht="17.6" spans="6:15">
+    <row r="14" ht="15" spans="6:15">
       <c r="F14" s="7" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="I14" s="7" t="s">
         <v>27</v>
@@ -3122,28 +3345,28 @@
         <v>14</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>15</v>
       </c>
       <c r="M14" s="7" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="N14" s="7"/>
       <c r="O14" s="7">
         <v>10</v>
       </c>
     </row>
-    <row r="15" ht="18" spans="6:15">
+    <row r="15" ht="15" spans="6:15">
       <c r="F15" s="7" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="I15" s="7" t="s">
         <v>30</v>
@@ -3152,28 +3375,28 @@
         <v>14</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="L15" s="7" t="s">
         <v>15</v>
       </c>
       <c r="M15" s="7" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="N15" s="7"/>
       <c r="O15" s="7">
         <v>20</v>
       </c>
     </row>
-    <row r="16" ht="17.6" spans="6:15">
+    <row r="16" ht="15" spans="6:15">
       <c r="F16" s="7" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="I16" s="7" t="s">
         <v>33</v>
@@ -3182,28 +3405,28 @@
         <v>14</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>15</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="N16" s="7"/>
       <c r="O16" s="7">
         <v>30</v>
       </c>
     </row>
-    <row r="17" ht="17.6" spans="6:15">
+    <row r="17" ht="15" spans="6:15">
       <c r="F17" s="7" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="I17" s="7" t="s">
         <v>36</v>
@@ -3212,28 +3435,28 @@
         <v>14</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>15</v>
       </c>
       <c r="M17" s="7" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="N17" s="7"/>
       <c r="O17" s="7">
         <v>10</v>
       </c>
     </row>
-    <row r="18" ht="17.6" spans="6:15">
+    <row r="18" ht="15" spans="6:15">
       <c r="F18" s="7" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="I18" s="7" t="s">
         <v>39</v>
@@ -3242,56 +3465,56 @@
         <v>14</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>15</v>
       </c>
       <c r="M18" s="7" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="N18" s="7"/>
       <c r="O18" s="7">
         <v>20</v>
       </c>
     </row>
-    <row r="19" ht="17.6" spans="6:15">
+    <row r="19" ht="15" spans="6:15">
       <c r="F19" s="8" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8" t="s">
         <v>14</v>
       </c>
       <c r="K19" s="8" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="L19" s="8" t="s">
         <v>44</v>
       </c>
       <c r="M19" s="8" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="N19" s="8"/>
       <c r="O19" s="8">
         <v>10</v>
       </c>
     </row>
-    <row r="20" ht="17.6" spans="6:15">
+    <row r="20" ht="15" spans="6:15">
       <c r="F20" s="8" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="I20" s="8" t="s">
         <v>42</v>
@@ -3300,30 +3523,30 @@
         <v>14</v>
       </c>
       <c r="K20" s="8" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="L20" s="8" t="s">
         <v>44</v>
       </c>
       <c r="M20" s="8" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="N20" s="8" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="O20" s="8">
         <v>10</v>
       </c>
     </row>
-    <row r="21" ht="17.6" spans="6:15">
+    <row r="21" ht="15" spans="6:15">
       <c r="F21" s="8" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="I21" s="8" t="s">
         <v>46</v>
@@ -3332,30 +3555,30 @@
         <v>14</v>
       </c>
       <c r="K21" s="8" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="L21" s="8" t="s">
         <v>44</v>
       </c>
       <c r="M21" s="8" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="N21" s="8" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="O21" s="8">
         <v>40</v>
       </c>
     </row>
-    <row r="22" ht="17.6" spans="6:15">
+    <row r="22" ht="15" spans="6:15">
       <c r="F22" s="8" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="I22" s="8" t="s">
         <v>49</v>
@@ -3364,30 +3587,30 @@
         <v>14</v>
       </c>
       <c r="K22" s="8" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="L22" s="8" t="s">
         <v>44</v>
       </c>
       <c r="M22" s="8" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="N22" s="8" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="O22" s="8">
         <v>50</v>
       </c>
     </row>
-    <row r="23" ht="17.6" spans="6:15">
+    <row r="23" ht="15" spans="6:15">
       <c r="F23" s="8" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="I23" s="8" t="s">
         <v>52</v>
@@ -3396,58 +3619,58 @@
         <v>14</v>
       </c>
       <c r="K23" s="8" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="L23" s="8" t="s">
         <v>44</v>
       </c>
       <c r="M23" s="8" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="N23" s="8" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="O23" s="8">
         <v>60</v>
       </c>
     </row>
-    <row r="24" ht="17.6" spans="6:15">
+    <row r="24" ht="15" spans="6:15">
       <c r="F24" s="8" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="8" t="s">
         <v>14</v>
       </c>
       <c r="K24" s="8" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="L24" s="8" t="s">
         <v>44</v>
       </c>
       <c r="M24" s="8" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="N24" s="8"/>
       <c r="O24" s="8">
         <v>20</v>
       </c>
     </row>
-    <row r="25" ht="17.6" spans="6:15">
+    <row r="25" ht="15" spans="6:15">
       <c r="F25" s="8" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="I25" s="8" t="s">
         <v>55</v>
@@ -3456,30 +3679,30 @@
         <v>14</v>
       </c>
       <c r="K25" s="8" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="L25" s="8" t="s">
         <v>44</v>
       </c>
       <c r="M25" s="8" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="N25" s="8" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="O25" s="8">
         <v>10</v>
       </c>
     </row>
-    <row r="26" ht="17.6" spans="6:15">
+    <row r="26" ht="15" spans="6:15">
       <c r="F26" s="8" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="I26" s="8" t="s">
         <v>58</v>
@@ -3488,30 +3711,30 @@
         <v>14</v>
       </c>
       <c r="K26" s="8" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="L26" s="8" t="s">
         <v>44</v>
       </c>
       <c r="M26" s="8" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="N26" s="8" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="O26" s="8">
         <v>20</v>
       </c>
     </row>
-    <row r="27" ht="17.6" spans="6:15">
+    <row r="27" ht="15" spans="6:15">
       <c r="F27" s="8" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="I27" s="8" t="s">
         <v>61</v>
@@ -3520,58 +3743,58 @@
         <v>14</v>
       </c>
       <c r="K27" s="8" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="L27" s="8" t="s">
         <v>44</v>
       </c>
       <c r="M27" s="8" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="N27" s="8"/>
       <c r="O27" s="8">
         <v>10</v>
       </c>
     </row>
-    <row r="28" ht="17.6" spans="6:15">
+    <row r="28" ht="15" spans="6:15">
       <c r="F28" s="10" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="H28" s="10" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="I28" s="10"/>
       <c r="J28" s="10" t="s">
         <v>14</v>
       </c>
       <c r="K28" s="10" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="L28" s="10" t="s">
         <v>44</v>
       </c>
       <c r="M28" s="10" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="N28" s="10" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="O28" s="10">
         <v>10</v>
       </c>
     </row>
-    <row r="29" ht="17.6" spans="6:15">
+    <row r="29" ht="15" spans="6:15">
       <c r="F29" s="10" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="H29" s="10" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="I29" s="10" t="s">
         <v>64</v>
@@ -3580,30 +3803,30 @@
         <v>14</v>
       </c>
       <c r="K29" s="10" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="L29" s="10" t="s">
         <v>44</v>
       </c>
       <c r="M29" s="10" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="N29" s="10" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="O29" s="10">
         <v>10</v>
       </c>
     </row>
-    <row r="30" ht="17.6" spans="6:15">
+    <row r="30" ht="15" spans="6:15">
       <c r="F30" s="10" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="H30" s="10" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="I30" s="10" t="s">
         <v>67</v>
@@ -3612,30 +3835,30 @@
         <v>14</v>
       </c>
       <c r="K30" s="10" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="L30" s="10" t="s">
         <v>44</v>
       </c>
       <c r="M30" s="10" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="N30" s="10" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="O30" s="10">
         <v>20</v>
       </c>
     </row>
-    <row r="31" ht="17.6" spans="6:15">
+    <row r="31" ht="15" spans="6:15">
       <c r="F31" s="10" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="G31" s="10" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="H31" s="10" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="I31" s="10" t="s">
         <v>70</v>
@@ -3644,228 +3867,324 @@
         <v>14</v>
       </c>
       <c r="K31" s="10" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="L31" s="10" t="s">
         <v>44</v>
       </c>
       <c r="M31" s="10" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="N31" s="10" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="O31" s="10">
         <v>30</v>
       </c>
     </row>
-    <row r="32" ht="17.6" spans="6:15">
+    <row r="32" customFormat="1" ht="16.5" spans="6:15">
       <c r="F32" s="11" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="H32" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="I32" s="11"/>
+        <v>185</v>
+      </c>
+      <c r="I32" s="11" t="s">
+        <v>73</v>
+      </c>
       <c r="J32" s="11" t="s">
         <v>14</v>
       </c>
       <c r="K32" s="11" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="L32" s="11" t="s">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="M32" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="N32" s="11" t="s">
-        <v>178</v>
+        <v>113</v>
+      </c>
+      <c r="N32" s="14" t="s">
+        <v>187</v>
       </c>
       <c r="O32" s="11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" ht="17.6" spans="6:15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" customFormat="1" ht="16.5" spans="6:15">
       <c r="F33" s="11" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="H33" s="11" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="I33" s="11" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="J33" s="11" t="s">
         <v>14</v>
       </c>
       <c r="K33" s="11" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="L33" s="11" t="s">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="M33" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="N33" s="11" t="s">
-        <v>161</v>
+        <v>113</v>
+      </c>
+      <c r="N33" s="14" t="s">
+        <v>191</v>
       </c>
       <c r="O33" s="11">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="34" ht="17.6" spans="6:15">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" customFormat="1" ht="16.5" spans="6:15">
       <c r="F34" s="11" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>111</v>
+        <v>193</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="I34" s="11"/>
+        <v>194</v>
+      </c>
+      <c r="I34" s="11" t="s">
+        <v>79</v>
+      </c>
       <c r="J34" s="11" t="s">
         <v>14</v>
       </c>
       <c r="K34" s="11" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="L34" s="11" t="s">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="M34" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="N34" s="11"/>
+        <v>113</v>
+      </c>
+      <c r="N34" s="11" t="s">
+        <v>195</v>
+      </c>
       <c r="O34" s="11">
         <v>70</v>
       </c>
     </row>
-    <row r="35" ht="17.6" spans="6:15">
-      <c r="F35" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="G35" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="H35" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="I35" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="J35" s="11" t="s">
+    <row r="35" ht="15" spans="6:15">
+      <c r="F35" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="G35" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="H35" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="I35" s="12"/>
+      <c r="J35" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="K35" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="L35" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="M35" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="N35" s="11" t="s">
-        <v>184</v>
-      </c>
-      <c r="O35" s="11">
+      <c r="K35" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="L35" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="M35" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="N35" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="O35" s="12">
         <v>10</v>
       </c>
     </row>
-    <row r="36" ht="17.6" spans="6:15">
-      <c r="F36" s="11" t="s">
-        <v>185</v>
+    <row r="36" ht="15" spans="6:15">
+      <c r="F36" s="12" t="s">
+        <v>201</v>
       </c>
       <c r="G36" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="H36" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="I36" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="J36" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="H36" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="I36" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="J36" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="K36" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="L36" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="M36" s="11" t="s">
+      <c r="K36" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="L36" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="M36" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="N36" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="O36" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" ht="15" spans="6:15">
+      <c r="F37" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="G37" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="H37" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="I37" s="12"/>
+      <c r="J37" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="K37" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="L37" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="M37" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="N37" s="12"/>
+      <c r="O37" s="12">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="38" ht="15" spans="6:15">
+      <c r="F38" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="G38" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="H38" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="N36" s="11"/>
-      <c r="O36" s="11">
+      <c r="I38" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="J38" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="K38" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="L38" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="M38" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="N38" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="O38" s="12">
         <v>10</v>
       </c>
     </row>
-    <row r="37" ht="17.6" spans="6:15">
-      <c r="F37" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="G37" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="H37" s="11" t="s">
-        <v>190</v>
-      </c>
-      <c r="J37" s="11" t="s">
+    <row r="39" ht="15" spans="6:15">
+      <c r="F39" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="G39" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="H39" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="I39" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="J39" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="K37" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="L37" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="M37" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="O37" s="11">
+      <c r="K39" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="L39" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="M39" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="N39" s="12"/>
+      <c r="O39" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" ht="15" spans="6:15">
+      <c r="F40" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="G40" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="H40" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="J40" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="K40" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="L40" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="M40" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="O40" s="12">
         <v>60</v>
       </c>
     </row>
-    <row r="38" ht="17.6" spans="6:15">
-      <c r="F38" s="11" t="s">
-        <v>191</v>
-      </c>
-      <c r="G38" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="H38" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="I38" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="J38" s="11" t="s">
+    <row r="41" ht="15" spans="6:15">
+      <c r="F41" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="G41" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="H41" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="I41" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="J41" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="K38" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="L38" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="M38" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="N38" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="O38" s="11">
+      <c r="K41" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="L41" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="M41" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="N41" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="O41" s="12">
         <v>10</v>
       </c>
     </row>
@@ -3880,1016 +4199,1176 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="D7:H129"/>
+  <dimension ref="D7:H149"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A107" workbookViewId="0">
-      <selection activeCell="G129" sqref="G129"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A113" workbookViewId="0">
+      <selection activeCell="G147" sqref="G147"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="3" width="9" customWidth="1"/>
-    <col min="4" max="4" width="23.8014705882353" customWidth="1"/>
+    <col min="4" max="4" width="23.8" customWidth="1"/>
     <col min="5" max="5" width="9" customWidth="1"/>
-    <col min="6" max="6" width="60.8014705882353" customWidth="1"/>
-    <col min="7" max="7" width="71.8014705882353" customWidth="1"/>
+    <col min="6" max="6" width="60.8" customWidth="1"/>
+    <col min="7" max="7" width="71.8" customWidth="1"/>
     <col min="8" max="1025" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" ht="12.75" customHeight="1" spans="4:8">
+    <row r="7" customHeight="1" spans="4:8">
       <c r="D7" s="3" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>196</v>
+        <v>218</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>197</v>
+        <v>219</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" ht="17.6" spans="4:7">
+    <row r="8" ht="15" spans="4:7">
       <c r="D8" s="5"/>
       <c r="F8" s="6" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" ht="17.6" spans="6:7">
+    <row r="9" ht="15" spans="6:7">
       <c r="F9" s="6" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="10" ht="17.6" spans="6:7">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="10" ht="15" spans="6:7">
       <c r="F10" s="6" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="11" ht="17.6" spans="6:7">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="11" ht="15" spans="6:7">
       <c r="F11" s="6" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="12" ht="17.6" spans="6:7">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="12" ht="15" spans="6:7">
       <c r="F12" s="6" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="13" ht="17.6" spans="6:7">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="13" ht="15" spans="6:7">
       <c r="F13" s="6" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" ht="17.6" spans="6:7">
+    <row r="14" ht="15" spans="6:7">
       <c r="F14" s="6" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="15" ht="17.6" spans="6:7">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="15" ht="15" spans="6:7">
       <c r="F15" s="6" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="16" ht="17.6" spans="6:7">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="16" ht="15" spans="6:7">
       <c r="F16" s="6" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="17" ht="17.6" spans="6:7">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="17" ht="15" spans="6:7">
       <c r="F17" s="6" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="18" ht="17.6" spans="6:7">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="18" ht="15" spans="6:7">
       <c r="F18" s="6" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="19" ht="17.6" spans="6:7">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="19" ht="15" spans="6:7">
       <c r="F19" s="6" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="20" ht="17.6" spans="6:7">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="20" ht="15" spans="6:7">
       <c r="F20" s="6" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="21" ht="17.6" spans="6:7">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="21" ht="15" spans="6:7">
       <c r="F21" s="6" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="22" ht="17.6" spans="6:7">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="22" ht="15" spans="6:7">
       <c r="F22" s="6" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="23" ht="17.6" spans="6:7">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="23" ht="15" spans="6:7">
       <c r="F23" s="6" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="24" ht="17.6" spans="6:7">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="24" ht="15" spans="6:7">
       <c r="F24" s="6" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="25" ht="17.6" spans="6:7">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="25" ht="15" spans="6:7">
       <c r="F25" s="6" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="26" ht="17.6" spans="6:7">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="26" ht="15" spans="6:7">
       <c r="F26" s="6" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="27" ht="17.6" spans="6:7">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="27" ht="15" spans="6:7">
       <c r="F27" s="6" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="28" ht="17.6" spans="6:7">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="28" ht="15" spans="6:7">
       <c r="F28" s="6" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="29" ht="17.6" spans="6:7">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="29" ht="15" spans="6:7">
       <c r="F29" s="6" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="30" ht="17.6" spans="6:7">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="30" ht="15" spans="6:7">
       <c r="F30" s="6" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="31" ht="17.6" spans="6:7">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="31" ht="15" spans="6:7">
       <c r="F31" s="6" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="32" ht="17.6" spans="6:7">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="32" ht="15" spans="6:7">
       <c r="F32" s="6" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="G32" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="33" ht="17.6" spans="6:7">
+    <row r="33" ht="15" spans="6:7">
       <c r="F33" s="6" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="G33" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="34" ht="17.6" spans="6:7">
+    <row r="34" ht="15" spans="6:7">
       <c r="F34" s="6" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="35" ht="17.6" spans="6:7">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="35" ht="15" spans="6:7">
       <c r="F35" s="6" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="36" ht="17.6" spans="6:7">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="36" ht="15" spans="6:7">
       <c r="F36" s="6" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="G36" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="37" ht="17.6" spans="6:7">
+    <row r="37" ht="15" spans="6:7">
       <c r="F37" s="6" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="38" ht="17.6" spans="6:7">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="38" ht="15" spans="6:7">
       <c r="F38" s="6" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="39" ht="17.6" spans="6:7">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="39" ht="15" spans="6:7">
       <c r="F39" s="6" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="40" ht="17.6" spans="6:7">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="40" ht="15" spans="6:7">
       <c r="F40" s="6" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="41" ht="17.6" spans="6:7">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="41" ht="15" spans="6:7">
       <c r="F41" s="6" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="42" ht="17.6" spans="6:7">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="42" ht="15" spans="6:7">
       <c r="F42" s="6" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="43" ht="17.6" spans="6:7">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="43" ht="15" spans="6:7">
       <c r="F43" s="6" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="44" ht="17.6" spans="6:7">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="44" ht="15" spans="6:7">
       <c r="F44" s="6" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="45" ht="17.6" spans="6:7">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="45" ht="15" spans="6:7">
       <c r="F45" s="6" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="G45" s="6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="46" ht="17.6" spans="6:7">
+    <row r="46" ht="15" spans="6:7">
       <c r="F46" s="6" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="47" ht="17.6" spans="6:7">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="47" ht="15" spans="6:7">
       <c r="F47" s="6" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="48" ht="17.6" spans="6:7">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="48" ht="15" spans="6:7">
       <c r="F48" s="6" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="49" ht="17.6" spans="6:7">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="49" ht="15" spans="6:7">
       <c r="F49" s="6" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="50" ht="17.6" spans="6:7">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="50" ht="15" spans="6:7">
       <c r="F50" s="6" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="51" ht="17.6" spans="6:7">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="51" ht="15" spans="6:7">
       <c r="F51" s="6" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="G51" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="52" ht="17.6" spans="6:7">
+    <row r="52" ht="15" spans="6:7">
       <c r="F52" s="6" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="G52" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="53" ht="17.6" spans="6:7">
+    <row r="53" ht="15" spans="6:7">
       <c r="F53" s="6" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="54" ht="17.6" spans="6:7">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="54" ht="15" spans="6:7">
       <c r="F54" s="6" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="55" ht="17.6" spans="6:7">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="55" ht="15" spans="6:7">
       <c r="F55" s="6" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="G55" s="6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="56" ht="17.6" spans="6:7">
+    <row r="56" ht="15" spans="6:7">
       <c r="F56" s="6" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="G56" s="6" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="57" ht="17.6" spans="6:7">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="57" ht="15" spans="6:7">
       <c r="F57" s="6" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="58" ht="17.6" spans="6:7">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="58" ht="15" spans="6:7">
       <c r="F58" s="6" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="G58" s="6" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="59" ht="17.6" spans="6:7">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="59" ht="15" spans="6:7">
       <c r="F59" s="6" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="60" ht="17.6" spans="6:7">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="60" ht="15" spans="6:7">
       <c r="F60" s="6" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="61" ht="17.6" spans="6:7">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="61" ht="15" spans="6:7">
       <c r="F61" s="6" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="62" ht="17.6" spans="6:7">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="62" ht="15" spans="6:7">
       <c r="F62" s="6" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="63" ht="17.6" spans="6:7">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="63" ht="15" spans="6:7">
       <c r="F63" s="6" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="G63" s="6" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="64" ht="17.6" spans="6:7">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="64" ht="15" spans="6:7">
       <c r="F64" s="6" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="G64" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="65" ht="17.6" spans="6:7">
+    <row r="65" ht="15" spans="6:7">
       <c r="F65" s="6" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="66" ht="17.6" spans="6:7">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="66" ht="15" spans="6:7">
       <c r="F66" s="6" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="67" ht="17.6" spans="6:7">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="67" ht="15" spans="6:7">
       <c r="F67" s="6" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="68" ht="17.6" spans="6:7">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="68" ht="15" spans="6:7">
       <c r="F68" s="6" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="G68" s="6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="69" ht="17.6" spans="6:7">
+    <row r="69" ht="15" spans="6:7">
       <c r="F69" s="6" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="70" ht="17.6" spans="6:7">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="70" ht="15" spans="6:7">
       <c r="F70" s="6" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="71" ht="17.6" spans="6:7">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="71" ht="15" spans="6:7">
       <c r="F71" s="6" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="72" ht="17.6" spans="6:7">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="72" ht="15" spans="6:7">
       <c r="F72" s="6" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="G72" s="6" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="73" ht="17.6" spans="6:7">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="73" ht="15" spans="6:7">
       <c r="F73" s="6" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="74" ht="17.6" spans="6:7">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="74" ht="15" spans="6:7">
       <c r="F74" s="6" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="G74" s="6" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="75" ht="17.6" spans="6:7">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="75" ht="15" spans="6:7">
       <c r="F75" s="6" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="G75" s="6" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="76" ht="17.6" spans="6:7">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="76" ht="15" spans="6:7">
       <c r="F76" s="6" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="G76" s="6" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="77" ht="17.6" spans="6:7">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="77" ht="15" spans="6:7">
       <c r="F77" s="6" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="G77" s="6" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="78" ht="17.6" spans="6:7">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="78" ht="15" spans="6:7">
       <c r="F78" s="6" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="G78" s="6" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="79" ht="17.6" spans="6:7">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="79" ht="15" spans="6:7">
       <c r="F79" s="6" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="G79" s="6" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="80" ht="17.6" spans="6:7">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="80" ht="15" spans="6:7">
       <c r="F80" s="6" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="G80" s="6" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="81" ht="17.6" spans="6:7">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="81" ht="15" spans="6:7">
       <c r="F81" s="6" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="G81" s="6" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="82" ht="17.6" spans="6:7">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="82" ht="15" spans="6:7">
       <c r="F82" s="6" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="G82" s="6" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="83" ht="17.6" spans="6:7">
+    <row r="83" ht="15" spans="6:7">
       <c r="F83" s="6" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="G83" s="6" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="84" ht="17.6" spans="6:7">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="84" ht="15" spans="6:7">
       <c r="F84" s="6" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="G84" s="6" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="85" ht="17.6" spans="6:7">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="85" ht="15" spans="6:7">
       <c r="F85" s="6" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="G85" s="6" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="86" ht="17.6" spans="6:7">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="86" ht="15" spans="6:7">
       <c r="F86" s="6" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="G86" s="6" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="87" ht="17.6" spans="6:7">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="87" ht="15" spans="6:7">
       <c r="F87" s="6" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="G87" s="6" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="88" ht="17.6" spans="6:7">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="88" ht="15" spans="6:7">
       <c r="F88" s="6" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="G88" s="6" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="89" ht="17.6" spans="6:7">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="89" ht="15" spans="6:7">
       <c r="F89" s="6" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="G89" s="6" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="90" ht="17.6" spans="6:7">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="90" ht="15" spans="6:7">
       <c r="F90" s="6" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="G90" s="6" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="91" ht="17.6" spans="6:7">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="91" ht="15" spans="6:7">
       <c r="F91" s="6" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="G91" s="6" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="92" ht="17.6" spans="6:7">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="92" ht="15" spans="6:7">
       <c r="F92" s="6" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="G92" s="6" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="93" ht="17.6" spans="6:7">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="93" ht="15" spans="6:7">
       <c r="F93" s="6" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="G93" s="6" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="94" ht="17.6" spans="6:7">
+    <row r="94" ht="15" spans="6:7">
       <c r="F94" s="6" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="G94" s="6" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="95" ht="17.6" spans="6:7">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="95" ht="15" spans="6:7">
       <c r="F95" s="6" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="G95" s="6" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="96" ht="17.6" spans="6:7">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="96" ht="15" spans="6:7">
       <c r="F96" s="6" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="G96" s="6" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="97" ht="17.6" spans="6:7">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="97" ht="15" spans="6:7">
       <c r="F97" s="6" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="G97" s="6" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="98" ht="17.6" spans="6:7">
+    <row r="98" ht="15" spans="6:7">
       <c r="F98" s="6" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="G98" s="6" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="99" ht="17.6" spans="6:7">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="99" ht="15" spans="6:7">
       <c r="F99" s="6" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="G99" s="6" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="100" ht="17.6" spans="6:7">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="100" ht="15" spans="6:7">
       <c r="F100" s="6" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="G100" s="6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="101" ht="17.6" spans="6:7">
+    <row r="101" ht="15" spans="6:7">
       <c r="F101" s="6" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="G101" s="6" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="102" ht="17.6" spans="6:7">
+    <row r="102" ht="15" spans="6:7">
       <c r="F102" s="6" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="G102" s="6" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="103" ht="17.6" spans="6:7">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="103" ht="15" spans="6:7">
       <c r="F103" s="6" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="G103" s="6" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="104" ht="17.6" spans="6:7">
+    <row r="104" ht="15" spans="6:7">
       <c r="F104" s="6" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="G104" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="105" ht="17.6" spans="6:7">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="105" ht="15" spans="6:7">
       <c r="F105" s="6" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="G105" s="6" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="106" ht="17.6" spans="6:7">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="106" ht="15" spans="6:7">
       <c r="F106" s="6" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="G106" s="6" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="107" ht="17.6" spans="6:7">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="107" ht="15" spans="6:7">
       <c r="F107" s="6" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="G107" s="6" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="108" ht="17.6" spans="6:7">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="108" ht="15" spans="6:7">
       <c r="F108" s="6" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="G108" s="6" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="109" ht="17.6" spans="6:7">
+    <row r="109" ht="15" spans="6:7">
       <c r="F109" s="6" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="G109" s="6" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="110" ht="17.6" spans="6:7">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="110" ht="15" spans="6:7">
       <c r="F110" s="6" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="G110" s="6" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="111" ht="17.6" spans="6:7">
+    <row r="111" ht="15" spans="6:7">
       <c r="F111" s="6" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="G111" s="6" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="112" ht="17.6" spans="6:7">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="112" ht="15" spans="6:7">
       <c r="F112" s="6" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="G112" s="6" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="113" ht="17.6" spans="6:7">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="113" ht="15" spans="6:7">
       <c r="F113" s="6" t="s">
-        <v>179</v>
+        <v>201</v>
       </c>
       <c r="G113" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="114" ht="15" spans="6:7">
+      <c r="F114" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="G114" s="6" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="115" ht="15" spans="6:7">
+      <c r="F115" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="G115" s="6" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="116" ht="15" spans="6:7">
+      <c r="F116" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="G116" s="6" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="117" ht="15" spans="6:7">
+      <c r="F117" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="G117" s="6" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="118" ht="15" spans="6:7">
+      <c r="F118" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="G118" s="6" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="119" ht="15" spans="6:7">
+      <c r="F119" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="G119" s="6" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="120" ht="15" spans="6:7">
+      <c r="F120" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="G120" s="6" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="121" ht="15" spans="6:7">
+      <c r="F121" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="G121" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="122" ht="15" spans="6:7">
+      <c r="F122" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="G122" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="123" ht="15" spans="6:7">
+      <c r="F123" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="G123" s="6" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="124" ht="15" spans="6:7">
+      <c r="F124" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="G124" s="6" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="125" ht="15" spans="6:7">
+      <c r="F125" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="G125" s="6" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="126" ht="15" spans="6:7">
+      <c r="F126" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="G126" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="127" ht="15" spans="6:7">
+      <c r="F127" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="G127" s="6" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="128" ht="15" spans="6:7">
+      <c r="F128" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="G128" s="6" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="129" ht="15" spans="6:7">
+      <c r="F129" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="G129" s="6" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="130" customFormat="1" ht="15" spans="6:7">
+      <c r="F130" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="G130" s="6" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="114" ht="17.6" spans="6:7">
-      <c r="F114" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="G114" s="6" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="115" ht="17.6" spans="6:7">
-      <c r="F115" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="G115" s="6" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="116" ht="17.6" spans="6:7">
-      <c r="F116" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="G116" s="6" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="117" ht="17.6" spans="6:7">
-      <c r="F117" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="G117" s="6" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="118" ht="17.6" spans="6:7">
-      <c r="F118" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="G118" s="6" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="119" ht="17.6" spans="6:7">
-      <c r="F119" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="G119" s="6" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="120" ht="17.6" spans="6:7">
-      <c r="F120" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="G120" s="6" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="121" ht="17.6" spans="6:7">
-      <c r="F121" s="6" t="s">
+    <row r="131" customFormat="1" ht="15" spans="6:7">
+      <c r="F131" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="G121" s="6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="122" ht="17.6" spans="6:7">
-      <c r="F122" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="G122" s="6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="123" ht="17.6" spans="6:7">
-      <c r="F123" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="G123" s="6" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="124" ht="17.6" spans="6:7">
-      <c r="F124" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="G124" s="6" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="125" ht="17.6" spans="6:7">
-      <c r="F125" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="G125" s="6" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="126" ht="17.6" spans="6:7">
-      <c r="F126" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="G126" s="6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="127" ht="17.6" spans="6:7">
-      <c r="F127" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="G127" s="6" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="128" spans="6:7">
-      <c r="F128" t="s">
-        <v>179</v>
-      </c>
-      <c r="G128" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="129" spans="6:7">
-      <c r="F129" t="s">
-        <v>191</v>
-      </c>
-      <c r="G129" t="s">
-        <v>293</v>
+      <c r="G131" s="6" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="132" customFormat="1" ht="15" spans="6:7">
+      <c r="F132" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="G132" s="6" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="133" customFormat="1" ht="15" spans="6:7">
+      <c r="F133" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="G133" s="6" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="134" customFormat="1" ht="15" spans="6:7">
+      <c r="F134" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="G134" s="6" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="135" customFormat="1" ht="15" spans="6:7">
+      <c r="F135" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="G135" s="6" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="136" customFormat="1" ht="15" spans="6:7">
+      <c r="F136" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="G136" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="137" customFormat="1" ht="15" spans="6:7">
+      <c r="F137" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="G137" s="6" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="138" customFormat="1" ht="15" spans="6:7">
+      <c r="F138" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="G138" s="6" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="139" customFormat="1" ht="15" spans="6:7">
+      <c r="F139" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="G139" s="6" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="140" customFormat="1" ht="15" spans="6:7">
+      <c r="F140" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="G140" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="141" customFormat="1" ht="15" spans="6:7">
+      <c r="F141" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="G141" s="6" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="142" customFormat="1" ht="15" spans="6:7">
+      <c r="F142" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="G142" s="6" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="143" customFormat="1" ht="15" spans="6:7">
+      <c r="F143" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="G143" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="144" customFormat="1" ht="15" spans="6:7">
+      <c r="F144" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="G144" s="6" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="145" customFormat="1" ht="15" spans="6:7">
+      <c r="F145" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="G145" s="6" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="146" customFormat="1" ht="15" spans="6:7">
+      <c r="F146" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="G146" s="6" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="147" customFormat="1" ht="15" spans="6:7">
+      <c r="F147" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="G147" s="6" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="148" customFormat="1" ht="15" spans="6:7">
+      <c r="F148" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="G148" s="6" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="149" customFormat="1" ht="15" spans="6:7">
+      <c r="F149" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="G149" s="6" t="s">
+        <v>332</v>
       </c>
     </row>
   </sheetData>
@@ -4903,205 +5382,229 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="D7:G28"/>
+  <dimension ref="D7:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="6.19852941176471" customWidth="1"/>
+    <col min="1" max="1" width="6.2" customWidth="1"/>
     <col min="2" max="2" width="5" customWidth="1"/>
-    <col min="3" max="3" width="7.19852941176471" customWidth="1"/>
-    <col min="4" max="4" width="25.8014705882353" customWidth="1"/>
-    <col min="5" max="5" width="7.19852941176471" customWidth="1"/>
-    <col min="6" max="6" width="42.8014705882353" customWidth="1"/>
-    <col min="7" max="7" width="52.8014705882353" customWidth="1"/>
+    <col min="3" max="3" width="7.2" customWidth="1"/>
+    <col min="4" max="4" width="25.8" customWidth="1"/>
+    <col min="5" max="5" width="7.2" customWidth="1"/>
+    <col min="6" max="6" width="42.8" customWidth="1"/>
+    <col min="7" max="7" width="52.8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" ht="15.2" spans="4:7">
+    <row r="7" spans="4:7">
       <c r="D7" s="3" t="s">
-        <v>294</v>
+        <v>333</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>295</v>
+        <v>334</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="8" spans="6:7">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="8" ht="15.75" spans="6:7">
       <c r="F8" s="4" t="s">
-        <v>296</v>
+        <v>335</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="6:7">
+    <row r="9" ht="15.75" spans="6:7">
       <c r="F9" s="4" t="s">
-        <v>296</v>
+        <v>335</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="6:7">
+    <row r="10" ht="15.75" spans="6:7">
       <c r="F10" s="4" t="s">
-        <v>296</v>
+        <v>335</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="6:7">
+    <row r="11" ht="15.75" spans="6:7">
       <c r="F11" s="4" t="s">
-        <v>296</v>
+        <v>335</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="6:7">
+    <row r="12" ht="15.75" spans="6:7">
       <c r="F12" s="4" t="s">
-        <v>296</v>
+        <v>335</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="6:7">
+    <row r="13" ht="15.75" spans="6:7">
       <c r="F13" s="4" t="s">
-        <v>296</v>
+        <v>335</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="6:7">
+    <row r="14" ht="15.75" spans="6:7">
       <c r="F14" s="4" t="s">
-        <v>296</v>
+        <v>335</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="6:7">
+    <row r="15" ht="15.75" spans="6:7">
       <c r="F15" s="4" t="s">
-        <v>296</v>
+        <v>335</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="6:7">
+    <row r="16" ht="15.75" spans="6:7">
       <c r="F16" s="4" t="s">
-        <v>296</v>
+        <v>335</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="6:7">
+    <row r="17" ht="15.75" spans="6:7">
       <c r="F17" s="4" t="s">
-        <v>297</v>
+        <v>336</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="6:7">
+    <row r="18" ht="15.75" spans="6:7">
       <c r="F18" s="4" t="s">
-        <v>297</v>
+        <v>336</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="6:7">
+    <row r="19" ht="15.75" spans="6:7">
       <c r="F19" s="4" t="s">
-        <v>297</v>
+        <v>336</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="6:7">
+    <row r="20" ht="15.75" spans="6:7">
       <c r="F20" s="4" t="s">
-        <v>297</v>
+        <v>336</v>
       </c>
       <c r="G20" s="4" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="6:7">
+    <row r="21" ht="15.75" spans="6:7">
       <c r="F21" s="4" t="s">
-        <v>297</v>
+        <v>336</v>
       </c>
       <c r="G21" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="6:7">
+    <row r="22" ht="15.75" spans="6:7">
       <c r="F22" s="4" t="s">
-        <v>297</v>
+        <v>336</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="6:7">
+    <row r="23" ht="15.75" spans="6:7">
       <c r="F23" s="4" t="s">
-        <v>297</v>
+        <v>336</v>
       </c>
       <c r="G23" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="24" spans="6:7">
+    <row r="24" ht="15.75" spans="6:7">
       <c r="F24" s="4" t="s">
-        <v>298</v>
+        <v>336</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="25" spans="6:7">
+    <row r="25" ht="15.75" spans="6:7">
       <c r="F25" s="4" t="s">
-        <v>298</v>
+        <v>336</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="26" spans="6:7">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="26" ht="15.75" spans="6:7">
       <c r="F26" s="4" t="s">
-        <v>298</v>
+        <v>336</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="27" spans="6:7">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="27" ht="15.75" spans="6:7">
       <c r="F27" s="4" t="s">
-        <v>298</v>
+        <v>337</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="28" spans="6:7">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="28" ht="15.75" spans="6:7">
       <c r="F28" s="4" t="s">
-        <v>299</v>
+        <v>337</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>83</v>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" ht="15.75" spans="6:7">
+      <c r="F29" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="30" ht="15.75" spans="6:7">
+      <c r="F30" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="31" ht="15.75" spans="6:7">
+      <c r="F31" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -5115,7 +5618,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="D6:I11"/>
   <sheetViews>
@@ -5123,33 +5626,33 @@
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="3" width="8.80147058823529" customWidth="1"/>
-    <col min="4" max="4" width="27.3970588235294" customWidth="1"/>
+    <col min="1" max="3" width="8.8" customWidth="1"/>
+    <col min="4" max="4" width="27.4" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="23.8014705882353" customWidth="1"/>
+    <col min="6" max="6" width="23.8" customWidth="1"/>
     <col min="7" max="7" width="48" customWidth="1"/>
-    <col min="8" max="8" width="24.8014705882353" customWidth="1"/>
-    <col min="9" max="1025" width="8.80147058823529" customWidth="1"/>
+    <col min="8" max="8" width="24.8" customWidth="1"/>
+    <col min="9" max="1025" width="8.8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" ht="14.75"/>
+    <row r="6" ht="13.5"/>
     <row r="7" ht="19" customHeight="1" spans="4:9">
       <c r="D7" s="1" t="s">
-        <v>300</v>
+        <v>339</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>301</v>
+        <v>340</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>196</v>
+        <v>218</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>302</v>
+        <v>341</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>11</v>
@@ -5157,46 +5660,46 @@
     </row>
     <row r="8" spans="6:8">
       <c r="F8" s="2" t="s">
-        <v>303</v>
+        <v>342</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>179</v>
+        <v>201</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="6:8">
       <c r="F9" s="2" t="s">
-        <v>303</v>
+        <v>342</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>183</v>
+        <v>205</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="6:8">
       <c r="F10" s="2" t="s">
-        <v>303</v>
+        <v>342</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>185</v>
+        <v>207</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="6:8">
       <c r="F11" s="2" t="s">
-        <v>303</v>
+        <v>342</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>191</v>
+        <v>213</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -5207,7 +5710,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="D7:K8"/>
   <sheetViews>
@@ -5215,19 +5718,19 @@
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.19852941176471" defaultRowHeight="14" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9.2" defaultRowHeight="12.75" outlineLevelRow="7"/>
   <cols>
-    <col min="6" max="6" width="18.1985294117647" customWidth="1"/>
-    <col min="7" max="7" width="15.8014705882353" customWidth="1"/>
+    <col min="6" max="6" width="18.2" customWidth="1"/>
+    <col min="7" max="7" width="15.8" customWidth="1"/>
     <col min="8" max="8" width="18" customWidth="1"/>
-    <col min="9" max="9" width="36.3970588235294" customWidth="1"/>
-    <col min="10" max="10" width="15.1985294117647" customWidth="1"/>
-    <col min="11" max="11" width="11.1985294117647" customWidth="1"/>
+    <col min="9" max="9" width="36.4" customWidth="1"/>
+    <col min="10" max="10" width="15.2" customWidth="1"/>
+    <col min="11" max="11" width="11.2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="4:11">
       <c r="D7" t="s">
-        <v>304</v>
+        <v>343</v>
       </c>
       <c r="E7" t="s">
         <v>1</v>
@@ -5242,33 +5745,33 @@
         <v>5</v>
       </c>
       <c r="I7" t="s">
-        <v>305</v>
+        <v>344</v>
       </c>
       <c r="J7" t="s">
-        <v>306</v>
+        <v>345</v>
       </c>
       <c r="K7" t="s">
-        <v>307</v>
+        <v>346</v>
       </c>
     </row>
     <row r="8" spans="6:11">
       <c r="F8" t="s">
-        <v>308</v>
+        <v>347</v>
       </c>
       <c r="G8" t="s">
-        <v>309</v>
+        <v>348</v>
       </c>
       <c r="H8" t="s">
-        <v>310</v>
+        <v>349</v>
       </c>
       <c r="I8" t="s">
-        <v>311</v>
+        <v>350</v>
       </c>
       <c r="J8" t="s">
-        <v>312</v>
+        <v>351</v>
       </c>
       <c r="K8" t="s">
-        <v>313</v>
+        <v>352</v>
       </c>
     </row>
   </sheetData>
@@ -5278,7 +5781,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="D7:I11"/>
   <sheetViews>
@@ -5286,89 +5789,89 @@
       <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.19852941176471" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9.2" defaultRowHeight="12.75"/>
   <cols>
-    <col min="4" max="4" width="21.3970588235294" customWidth="1"/>
+    <col min="4" max="4" width="21.4" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="13.1985294117647" customWidth="1"/>
-    <col min="7" max="7" width="25.3970588235294" customWidth="1"/>
-    <col min="8" max="9" width="18.1985294117647" customWidth="1"/>
+    <col min="6" max="6" width="13.2" customWidth="1"/>
+    <col min="7" max="7" width="25.4" customWidth="1"/>
+    <col min="8" max="9" width="18.2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="4:9">
       <c r="D7" t="s">
-        <v>314</v>
+        <v>353</v>
       </c>
       <c r="E7" t="s">
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>315</v>
+        <v>354</v>
       </c>
       <c r="G7" t="s">
-        <v>316</v>
+        <v>355</v>
       </c>
       <c r="H7" t="s">
-        <v>317</v>
+        <v>356</v>
       </c>
       <c r="I7" t="s">
-        <v>318</v>
+        <v>357</v>
       </c>
     </row>
     <row r="8" spans="6:9">
       <c r="F8" t="s">
-        <v>308</v>
+        <v>347</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="H8" t="s">
-        <v>319</v>
+        <v>358</v>
       </c>
       <c r="I8" t="s">
-        <v>312</v>
+        <v>351</v>
       </c>
     </row>
     <row r="9" spans="6:9">
       <c r="F9" t="s">
-        <v>308</v>
+        <v>347</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="H9" t="s">
-        <v>320</v>
+        <v>359</v>
       </c>
       <c r="I9" t="s">
-        <v>321</v>
+        <v>360</v>
       </c>
     </row>
     <row r="10" spans="6:9">
       <c r="F10" t="s">
-        <v>308</v>
+        <v>347</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="H10" t="s">
-        <v>322</v>
+        <v>361</v>
       </c>
       <c r="I10" t="s">
-        <v>323</v>
+        <v>362</v>
       </c>
     </row>
     <row r="11" spans="6:9">
       <c r="F11" t="s">
-        <v>308</v>
+        <v>347</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="H11" t="s">
-        <v>324</v>
+        <v>363</v>
       </c>
       <c r="I11" t="s">
-        <v>313</v>
+        <v>352</v>
       </c>
     </row>
   </sheetData>
@@ -5378,7 +5881,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="D7:L9"/>
   <sheetViews>
@@ -5386,85 +5889,85 @@
       <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.19852941176471" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9.2" defaultRowHeight="12.75"/>
   <cols>
-    <col min="4" max="4" width="22.1985294117647" customWidth="1"/>
-    <col min="6" max="6" width="18.8014705882353" customWidth="1"/>
-    <col min="7" max="7" width="25.8014705882353" customWidth="1"/>
+    <col min="4" max="4" width="22.2" customWidth="1"/>
+    <col min="6" max="6" width="18.8" customWidth="1"/>
+    <col min="7" max="7" width="25.8" customWidth="1"/>
     <col min="8" max="8" width="36" customWidth="1"/>
-    <col min="9" max="9" width="22.1985294117647" customWidth="1"/>
-    <col min="10" max="10" width="25.8014705882353" customWidth="1"/>
-    <col min="11" max="11" width="19.8014705882353" customWidth="1"/>
+    <col min="9" max="9" width="22.2" customWidth="1"/>
+    <col min="10" max="10" width="25.8" customWidth="1"/>
+    <col min="11" max="11" width="19.8" customWidth="1"/>
     <col min="12" max="12" width="21" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="4:12">
       <c r="D7" t="s">
-        <v>325</v>
+        <v>364</v>
       </c>
       <c r="E7" t="s">
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>315</v>
+        <v>354</v>
       </c>
       <c r="G7" t="s">
-        <v>326</v>
+        <v>365</v>
       </c>
       <c r="H7" t="s">
-        <v>327</v>
+        <v>366</v>
       </c>
       <c r="I7" t="s">
-        <v>328</v>
+        <v>367</v>
       </c>
       <c r="J7" t="s">
-        <v>329</v>
+        <v>368</v>
       </c>
       <c r="K7" t="s">
-        <v>330</v>
+        <v>369</v>
       </c>
       <c r="L7" t="s">
-        <v>331</v>
+        <v>370</v>
       </c>
     </row>
     <row r="8" spans="6:11">
       <c r="F8" t="s">
-        <v>308</v>
+        <v>347</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="H8" t="s">
-        <v>332</v>
+        <v>371</v>
       </c>
       <c r="I8" t="s">
-        <v>333</v>
+        <v>372</v>
       </c>
       <c r="J8" t="s">
-        <v>334</v>
+        <v>373</v>
       </c>
       <c r="K8" t="s">
-        <v>335</v>
+        <v>374</v>
       </c>
     </row>
     <row r="9" spans="6:12">
       <c r="F9" t="s">
-        <v>336</v>
+        <v>375</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>337</v>
+        <v>376</v>
       </c>
       <c r="I9" t="s">
-        <v>338</v>
+        <v>377</v>
       </c>
       <c r="J9" t="s">
-        <v>334</v>
+        <v>373</v>
       </c>
       <c r="K9" t="s">
-        <v>339</v>
+        <v>378</v>
       </c>
       <c r="L9">
         <v>0</v>

--- a/src/main/resources/script/meta/micro-service-init-data.xlsx
+++ b/src/main/resources/script/meta/micro-service-init-data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="845"/>
+    <workbookView windowWidth="19815" windowHeight="7860" tabRatio="845" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="877" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="379">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -1280,22 +1280,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1324,6 +1316,44 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -1331,7 +1361,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1354,14 +1384,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
@@ -1377,15 +1399,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1394,37 +1425,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1445,19 +1445,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1475,13 +1577,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1493,13 +1595,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1517,115 +1625,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1654,17 +1654,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1674,6 +1668,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1693,21 +1702,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1717,22 +1711,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1751,151 +1740,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2238,7 +2238,7 @@
   <sheetPr/>
   <dimension ref="D7:O35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" topLeftCell="H1" workbookViewId="0">
+    <sheetView zoomScale="95" zoomScaleNormal="95" topLeftCell="H7" workbookViewId="0">
       <selection activeCell="M37" sqref="M37"/>
     </sheetView>
   </sheetViews>
@@ -3071,10 +3071,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="D7:Q41"/>
+  <dimension ref="D7:Q42"/>
   <sheetViews>
-    <sheetView zoomScale="86" zoomScaleNormal="86" topLeftCell="G5" workbookViewId="0">
-      <selection activeCell="H46" sqref="H46"/>
+    <sheetView zoomScale="86" zoomScaleNormal="86" topLeftCell="I22" workbookViewId="0">
+      <selection activeCell="Q39" sqref="Q39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -4040,7 +4040,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="37" ht="15" spans="6:15">
+    <row r="37" ht="15" spans="6:17">
       <c r="F37" s="12" t="s">
         <v>204</v>
       </c>
@@ -4067,124 +4067,156 @@
       <c r="O37" s="12">
         <v>70</v>
       </c>
-    </row>
-    <row r="38" ht="15" spans="6:15">
+      <c r="P37"/>
+      <c r="Q37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" customFormat="1" ht="15" spans="6:15">
       <c r="F38" s="12" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G38" s="12" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H38" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="I38" s="12" t="s">
-        <v>86</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="I38" s="12"/>
       <c r="J38" s="12" t="s">
         <v>14</v>
       </c>
       <c r="K38" s="12" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="L38" s="12" t="s">
         <v>84</v>
       </c>
       <c r="M38" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="N38" s="12" t="s">
-        <v>206</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="N38" s="12"/>
       <c r="O38" s="12">
-        <v>10</v>
+        <v>80</v>
       </c>
     </row>
     <row r="39" ht="15" spans="6:15">
       <c r="F39" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="G39" s="13" t="s">
-        <v>208</v>
+        <v>205</v>
+      </c>
+      <c r="G39" s="12" t="s">
+        <v>123</v>
       </c>
       <c r="H39" s="12" t="s">
-        <v>209</v>
+        <v>124</v>
       </c>
       <c r="I39" s="12" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J39" s="12" t="s">
         <v>14</v>
       </c>
       <c r="K39" s="12" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="L39" s="12" t="s">
         <v>84</v>
       </c>
       <c r="M39" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="N39" s="12"/>
+        <v>113</v>
+      </c>
+      <c r="N39" s="12" t="s">
+        <v>206</v>
+      </c>
       <c r="O39" s="12">
         <v>10</v>
       </c>
     </row>
     <row r="40" ht="15" spans="6:15">
       <c r="F40" s="12" t="s">
-        <v>210</v>
-      </c>
-      <c r="G40" s="12" t="s">
-        <v>211</v>
+        <v>207</v>
+      </c>
+      <c r="G40" s="13" t="s">
+        <v>208</v>
       </c>
       <c r="H40" s="12" t="s">
-        <v>212</v>
+        <v>209</v>
+      </c>
+      <c r="I40" s="12" t="s">
+        <v>89</v>
       </c>
       <c r="J40" s="12" t="s">
         <v>14</v>
       </c>
       <c r="K40" s="12" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="L40" s="12" t="s">
         <v>84</v>
       </c>
       <c r="M40" s="12" t="s">
-        <v>109</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="N40" s="12"/>
       <c r="O40" s="12">
-        <v>60</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41" ht="15" spans="6:15">
       <c r="F41" s="12" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="G41" s="12" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="H41" s="12" t="s">
-        <v>215</v>
-      </c>
-      <c r="I41" s="12" t="s">
-        <v>92</v>
+        <v>212</v>
       </c>
       <c r="J41" s="12" t="s">
         <v>14</v>
       </c>
       <c r="K41" s="12" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="L41" s="12" t="s">
         <v>84</v>
       </c>
       <c r="M41" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="O41" s="12">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="42" ht="15" spans="6:15">
+      <c r="F42" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="G42" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="H42" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="I42" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="J42" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="K42" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="L42" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="M42" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="N41" s="12" t="s">
+      <c r="N42" s="12" t="s">
         <v>216</v>
       </c>
-      <c r="O41" s="12">
+      <c r="O42" s="12">
         <v>10</v>
       </c>
     </row>
@@ -4203,7 +4235,7 @@
   <sheetPr/>
   <dimension ref="D7:H149"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A113" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A104" workbookViewId="0">
       <selection activeCell="G147" sqref="G147"/>
     </sheetView>
   </sheetViews>
@@ -5622,8 +5654,8 @@
   <sheetPr/>
   <dimension ref="D6:I11"/>
   <sheetViews>
-    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>

--- a/src/main/resources/script/meta/micro-service-init-data.xlsx
+++ b/src/main/resources/script/meta/micro-service-init-data.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="970" uniqueCount="384">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -1076,6 +1076,21 @@
     <t>GENERAL</t>
   </si>
   <si>
+    <t>PROGRAM</t>
+  </si>
+  <si>
+    <t>DEFAULT</t>
+  </si>
+  <si>
+    <t>organization_project</t>
+  </si>
+  <si>
+    <t>OFFICIAL</t>
+  </si>
+  <si>
+    <t>choerodon.code.organization.security-token</t>
+  </si>
+  <si>
     <t>FD_LOV</t>
   </si>
   <si>
@@ -1189,9 +1204,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="36">
@@ -1213,6 +1228,11 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="Droid Sans Fallback"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="DejaVu Sans"/>
       <charset val="134"/>
     </font>
@@ -1220,11 +1240,6 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="DengXian"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Droid Sans Fallback"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1280,6 +1295,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -1287,7 +1316,60 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1308,30 +1390,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1339,6 +1407,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -1353,28 +1429,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -1383,48 +1437,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1445,7 +1460,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1457,7 +1472,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1469,31 +1496,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1505,13 +1526,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1523,61 +1562,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1595,13 +1598,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1613,19 +1616,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1663,54 +1678,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1741,6 +1708,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1751,16 +1733,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1769,133 +1784,133 @@
     <xf numFmtId="41" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1905,8 +1920,8 @@
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2238,7 +2253,7 @@
   <sheetPr/>
   <dimension ref="D7:O35"/>
   <sheetViews>
-    <sheetView zoomScale="95" zoomScaleNormal="95" topLeftCell="H7" workbookViewId="0">
+    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
       <selection activeCell="M37" sqref="M37"/>
     </sheetView>
   </sheetViews>
@@ -2263,45 +2278,45 @@
   </cols>
   <sheetData>
     <row r="7" customHeight="1" spans="4:15">
-      <c r="D7" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7" s="3" t="s">
+      <c r="D7" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="I7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="J7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="K7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L7" s="3" t="s">
+      <c r="L7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="M7" s="3" t="s">
+      <c r="M7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="N7" s="3" t="s">
+      <c r="N7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="O7" s="3" t="s">
+      <c r="O7" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="4:14">
-      <c r="D8" s="5"/>
+      <c r="D8" s="3"/>
       <c r="F8" s="2" t="s">
         <v>12</v>
       </c>
@@ -3071,10 +3086,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="D7:Q42"/>
+  <dimension ref="D7:Q41"/>
   <sheetViews>
-    <sheetView zoomScale="86" zoomScaleNormal="86" topLeftCell="I22" workbookViewId="0">
-      <selection activeCell="Q39" sqref="Q39"/>
+    <sheetView zoomScale="86" zoomScaleNormal="86" topLeftCell="B19" workbookViewId="0">
+      <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -3100,34 +3115,34 @@
   </cols>
   <sheetData>
     <row r="7" customHeight="1" spans="4:17">
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="I7" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="J7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="K7" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="L7" s="3" t="s">
+      <c r="L7" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="M7" s="3" t="s">
+      <c r="M7" s="4" t="s">
         <v>101</v>
       </c>
       <c r="N7" s="2" t="s">
@@ -3136,15 +3151,15 @@
       <c r="O7" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="P7" s="3" t="s">
+      <c r="P7" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="Q7" s="3" t="s">
+      <c r="Q7" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" ht="15" spans="4:15">
-      <c r="D8" s="5"/>
+      <c r="D8" s="3"/>
       <c r="F8" s="7" t="s">
         <v>105</v>
       </c>
@@ -4040,7 +4055,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="37" ht="15" spans="6:17">
+    <row r="37" customFormat="1" ht="15" spans="6:15">
       <c r="F37" s="12" t="s">
         <v>204</v>
       </c>
@@ -4065,158 +4080,126 @@
       </c>
       <c r="N37" s="12"/>
       <c r="O37" s="12">
-        <v>70</v>
-      </c>
-      <c r="P37"/>
-      <c r="Q37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" customFormat="1" ht="15" spans="6:15">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="38" ht="15" spans="6:15">
       <c r="F38" s="12" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G38" s="12" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="H38" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="I38" s="12"/>
+        <v>124</v>
+      </c>
+      <c r="I38" s="12" t="s">
+        <v>86</v>
+      </c>
       <c r="J38" s="12" t="s">
         <v>14</v>
       </c>
       <c r="K38" s="12" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="L38" s="12" t="s">
         <v>84</v>
       </c>
       <c r="M38" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="N38" s="12"/>
+        <v>113</v>
+      </c>
+      <c r="N38" s="12" t="s">
+        <v>206</v>
+      </c>
       <c r="O38" s="12">
-        <v>80</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" ht="15" spans="6:15">
       <c r="F39" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="G39" s="12" t="s">
-        <v>123</v>
+        <v>207</v>
+      </c>
+      <c r="G39" s="13" t="s">
+        <v>208</v>
       </c>
       <c r="H39" s="12" t="s">
-        <v>124</v>
+        <v>209</v>
       </c>
       <c r="I39" s="12" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="J39" s="12" t="s">
         <v>14</v>
       </c>
       <c r="K39" s="12" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L39" s="12" t="s">
         <v>84</v>
       </c>
       <c r="M39" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="N39" s="12" t="s">
-        <v>206</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="N39" s="12"/>
       <c r="O39" s="12">
         <v>10</v>
       </c>
     </row>
     <row r="40" ht="15" spans="6:15">
       <c r="F40" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="G40" s="13" t="s">
-        <v>208</v>
+        <v>210</v>
+      </c>
+      <c r="G40" s="12" t="s">
+        <v>211</v>
       </c>
       <c r="H40" s="12" t="s">
-        <v>209</v>
-      </c>
-      <c r="I40" s="12" t="s">
-        <v>89</v>
+        <v>212</v>
       </c>
       <c r="J40" s="12" t="s">
         <v>14</v>
       </c>
       <c r="K40" s="12" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="L40" s="12" t="s">
         <v>84</v>
       </c>
       <c r="M40" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="N40" s="12"/>
+        <v>109</v>
+      </c>
       <c r="O40" s="12">
-        <v>10</v>
+        <v>60</v>
       </c>
     </row>
     <row r="41" ht="15" spans="6:15">
       <c r="F41" s="12" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="G41" s="12" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="H41" s="12" t="s">
-        <v>212</v>
+        <v>215</v>
+      </c>
+      <c r="I41" s="12" t="s">
+        <v>92</v>
       </c>
       <c r="J41" s="12" t="s">
         <v>14</v>
       </c>
       <c r="K41" s="12" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="L41" s="12" t="s">
         <v>84</v>
       </c>
       <c r="M41" s="12" t="s">
-        <v>109</v>
+        <v>113</v>
+      </c>
+      <c r="N41" s="12" t="s">
+        <v>216</v>
       </c>
       <c r="O41" s="12">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="42" ht="15" spans="6:15">
-      <c r="F42" s="12" t="s">
-        <v>213</v>
-      </c>
-      <c r="G42" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="H42" s="12" t="s">
-        <v>215</v>
-      </c>
-      <c r="I42" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="J42" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="K42" s="12" t="s">
-        <v>210</v>
-      </c>
-      <c r="L42" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="M42" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="N42" s="12" t="s">
-        <v>216</v>
-      </c>
-      <c r="O42" s="12">
         <v>10</v>
       </c>
     </row>
@@ -4250,24 +4233,24 @@
   </cols>
   <sheetData>
     <row r="7" customHeight="1" spans="4:8">
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" ht="15" spans="4:7">
-      <c r="D8" s="5"/>
+      <c r="D8" s="3"/>
       <c r="F8" s="6" t="s">
         <v>110</v>
       </c>
@@ -5434,208 +5417,208 @@
   </cols>
   <sheetData>
     <row r="7" spans="4:7">
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="4" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="8" ht="15.75" spans="6:7">
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" ht="15.75" spans="6:7">
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="10" ht="15.75" spans="6:7">
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="5" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="11" ht="15.75" spans="6:7">
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G11" s="5" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="12" ht="15.75" spans="6:7">
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G12" s="5" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="13" ht="15.75" spans="6:7">
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="G13" s="5" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="14" ht="15.75" spans="6:7">
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="G14" s="5" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="15" ht="15.75" spans="6:7">
-      <c r="F15" s="4" t="s">
+      <c r="F15" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="G15" s="5" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="16" ht="15.75" spans="6:7">
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="G16" s="5" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="17" ht="15.75" spans="6:7">
-      <c r="F17" s="4" t="s">
+      <c r="F17" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="G17" s="5" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="18" ht="15.75" spans="6:7">
-      <c r="F18" s="4" t="s">
+      <c r="F18" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="G18" s="4" t="s">
+      <c r="G18" s="5" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="19" ht="15.75" spans="6:7">
-      <c r="F19" s="4" t="s">
+      <c r="F19" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="G19" s="4" t="s">
+      <c r="G19" s="5" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="20" ht="15.75" spans="6:7">
-      <c r="F20" s="4" t="s">
+      <c r="F20" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="G20" s="4" t="s">
+      <c r="G20" s="5" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="21" ht="15.75" spans="6:7">
-      <c r="F21" s="4" t="s">
+      <c r="F21" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="G21" s="4" t="s">
+      <c r="G21" s="5" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="22" ht="15.75" spans="6:7">
-      <c r="F22" s="4" t="s">
+      <c r="F22" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="G22" s="4" t="s">
+      <c r="G22" s="5" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="23" ht="15.75" spans="6:7">
-      <c r="F23" s="4" t="s">
+      <c r="F23" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="G23" s="4" t="s">
+      <c r="G23" s="5" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="24" ht="15.75" spans="6:7">
-      <c r="F24" s="4" t="s">
+      <c r="F24" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="G24" s="4" t="s">
+      <c r="G24" s="5" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="25" ht="15.75" spans="6:7">
-      <c r="F25" s="4" t="s">
+      <c r="F25" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="G25" s="4" t="s">
+      <c r="G25" s="5" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="26" ht="15.75" spans="6:7">
-      <c r="F26" s="4" t="s">
+      <c r="F26" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="G26" s="4" t="s">
+      <c r="G26" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="27" ht="15.75" spans="6:7">
-      <c r="F27" s="4" t="s">
+      <c r="F27" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="G27" s="4" t="s">
+      <c r="G27" s="5" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="28" ht="15.75" spans="6:7">
-      <c r="F28" s="4" t="s">
+      <c r="F28" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="G28" s="4" t="s">
+      <c r="G28" s="5" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="29" ht="15.75" spans="6:7">
-      <c r="F29" s="4" t="s">
+      <c r="F29" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="G29" s="4" t="s">
+      <c r="G29" s="5" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="30" ht="15.75" spans="6:7">
-      <c r="F30" s="4" t="s">
+      <c r="F30" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="G30" s="4" t="s">
+      <c r="G30" s="5" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="31" ht="15.75" spans="6:7">
-      <c r="F31" s="4" t="s">
+      <c r="F31" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="G31" s="4" t="s">
+      <c r="G31" s="5" t="s">
         <v>92</v>
       </c>
     </row>
@@ -5652,10 +5635,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="D6:I11"/>
+  <dimension ref="D6:I42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A15" sqref="$A15:$XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -5686,7 +5669,7 @@
       <c r="H7" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="I7" s="4" t="s">
         <v>11</v>
       </c>
     </row>
@@ -5732,6 +5715,349 @@
       </c>
       <c r="H11" s="2" t="s">
         <v>84</v>
+      </c>
+    </row>
+    <row r="12" customFormat="1" spans="6:8">
+      <c r="F12" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" customFormat="1" spans="6:8">
+      <c r="F13" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" customFormat="1" spans="6:8">
+      <c r="F14" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" customFormat="1" spans="6:8">
+      <c r="F15" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="16" customFormat="1" spans="6:8">
+      <c r="F16" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="17" customFormat="1" spans="6:8">
+      <c r="F17" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="18" customFormat="1" spans="6:8">
+      <c r="F18" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="19" customFormat="1" spans="6:8">
+      <c r="F19" t="s">
+        <v>346</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="20" customFormat="1" spans="6:8">
+      <c r="F20" t="s">
+        <v>346</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="21" customFormat="1" spans="6:8">
+      <c r="F21" t="s">
+        <v>346</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="22" customFormat="1" spans="6:8">
+      <c r="F22" t="s">
+        <v>346</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="23" customFormat="1" spans="4:8">
+      <c r="D23" s="2"/>
+      <c r="E23"/>
+      <c r="F23" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" customFormat="1" spans="6:8">
+      <c r="F24" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" customFormat="1" spans="6:8">
+      <c r="F25" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" customFormat="1" spans="6:8">
+      <c r="F26" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" customFormat="1" spans="6:8">
+      <c r="F27" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" customFormat="1" spans="6:8">
+      <c r="F28" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" customFormat="1" spans="6:8">
+      <c r="F29" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" customFormat="1" spans="6:8">
+      <c r="F30" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" customFormat="1" spans="6:8">
+      <c r="F31" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" customFormat="1" spans="6:8">
+      <c r="F32" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" customFormat="1" spans="6:8">
+      <c r="F33" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" customFormat="1" spans="6:8">
+      <c r="F34" t="s">
+        <v>346</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" customFormat="1" spans="6:8">
+      <c r="F35" t="s">
+        <v>346</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" customFormat="1" spans="6:8">
+      <c r="F36" t="s">
+        <v>346</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" customFormat="1" spans="6:8">
+      <c r="F37" t="s">
+        <v>346</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" customFormat="1" spans="6:8">
+      <c r="F38" t="s">
+        <v>346</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" customFormat="1" spans="6:8">
+      <c r="F39" t="s">
+        <v>346</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" customFormat="1" spans="6:8">
+      <c r="F40" t="s">
+        <v>346</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" customFormat="1" spans="6:8">
+      <c r="F41" t="s">
+        <v>346</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" customFormat="1" spans="6:8">
+      <c r="F42" t="s">
+        <v>346</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -5762,7 +6088,7 @@
   <sheetData>
     <row r="7" spans="4:11">
       <c r="D7" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="E7" t="s">
         <v>1</v>
@@ -5777,33 +6103,33 @@
         <v>5</v>
       </c>
       <c r="I7" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="J7" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="K7" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
     </row>
     <row r="8" spans="6:11">
       <c r="F8" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="G8" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="H8" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="I8" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="J8" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="K8" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
     </row>
   </sheetData>
@@ -5832,78 +6158,78 @@
   <sheetData>
     <row r="7" spans="4:9">
       <c r="D7" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="E7" t="s">
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="G7" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="H7" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="I7" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
     </row>
     <row r="8" spans="6:9">
       <c r="F8" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="H8" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="I8" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
     </row>
     <row r="9" spans="6:9">
       <c r="F9" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="H9" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="I9" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
     </row>
     <row r="10" spans="6:9">
       <c r="F10" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="H10" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="I10" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
     </row>
     <row r="11" spans="6:9">
       <c r="F11" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="H11" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="I11" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
     </row>
   </sheetData>
@@ -5935,71 +6261,71 @@
   <sheetData>
     <row r="7" spans="4:12">
       <c r="D7" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="E7" t="s">
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="G7" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="H7" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="I7" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="J7" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="K7" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="L7" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
     </row>
     <row r="8" spans="6:11">
       <c r="F8" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="H8" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="I8" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="J8" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="K8" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
     </row>
     <row r="9" spans="6:12">
       <c r="F9" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="I9" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="J9" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="K9" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="L9">
         <v>0</v>

--- a/src/main/resources/script/meta/micro-service-init-data.xlsx
+++ b/src/main/resources/script/meta/micro-service-init-data.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22228"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\base-service-openSource-0113\base-service\src\main\resources\script\meta\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4ABBC0C-E886-428E-99F0-E8F7B9A78947}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="7860" tabRatio="845" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="845" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
@@ -21,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="970" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="971" uniqueCount="387">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -141,9 +147,6 @@
   </si>
   <si>
     <t>choerodon.route.organization.security-client</t>
-  </si>
-  <si>
-    <t>/base/org-safe/client</t>
   </si>
   <si>
     <t>客户端路由</t>
@@ -440,7 +443,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="PingFang SC"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>ldap</t>
     </r>
@@ -449,6 +452,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>设置</t>
@@ -1198,18 +1202,27 @@
   <si>
     <t>Number</t>
   </si>
+  <si>
+    <t>/base/client</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>menu_item</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>airplay</t>
+  </si>
+  <si>
+    <t>choerodon.code.organization.setting</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="36">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="17">
     <font>
       <sz val="10"/>
       <name val="Droid Sans Fallback"/>
@@ -1219,12 +1232,12 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="DejaVu Sans"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1234,418 +1247,90 @@
     <font>
       <sz val="10"/>
       <name val="DejaVu Sans"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="DengXian"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="PingFang SC"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="PingFang SC"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF5B9BD5"/>
       <name val="PingFang SC"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF5B9BD5"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFFC000"/>
       <name val="PingFang SC"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="13"/>
       <name val="PingFang SC"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF8F187C"/>
       <name val="PingFang SC"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF8F187C"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="13"/>
       <name val="Helvetica"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1668,251 +1353,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1933,61 +1376,17 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2245,39 +1644,39 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="D7:O35"/>
   <sheetViews>
-    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="M37" sqref="M37"/>
+    <sheetView topLeftCell="A4" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="9.2" customWidth="1"/>
-    <col min="2" max="2" width="9.6" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" customWidth="1"/>
     <col min="3" max="3" width="9" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
     <col min="5" max="5" width="9" customWidth="1"/>
-    <col min="6" max="6" width="49.2" customWidth="1"/>
-    <col min="7" max="7" width="37.2" customWidth="1"/>
+    <col min="6" max="6" width="49.140625" customWidth="1"/>
+    <col min="7" max="7" width="37.140625" customWidth="1"/>
     <col min="8" max="8" width="37" customWidth="1"/>
     <col min="9" max="9" width="19" customWidth="1"/>
-    <col min="10" max="10" width="19.8" customWidth="1"/>
+    <col min="10" max="10" width="19.85546875" customWidth="1"/>
     <col min="11" max="11" width="19" customWidth="1"/>
-    <col min="12" max="12" width="19.2" customWidth="1"/>
-    <col min="13" max="13" width="18.8" customWidth="1"/>
-    <col min="14" max="14" width="19.4" customWidth="1"/>
+    <col min="12" max="12" width="19.140625" customWidth="1"/>
+    <col min="13" max="13" width="18.85546875" customWidth="1"/>
+    <col min="14" max="14" width="19.42578125" customWidth="1"/>
     <col min="15" max="15" width="19" customWidth="1"/>
     <col min="16" max="1025" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" customHeight="1" spans="4:15">
+    <row r="7" spans="4:15" ht="12.75" customHeight="1">
       <c r="D7" s="4" t="s">
         <v>0</v>
       </c>
@@ -2315,7 +1714,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="4:14">
+    <row r="8" spans="4:15" ht="12.75">
       <c r="D8" s="3"/>
       <c r="F8" s="2" t="s">
         <v>12</v>
@@ -2345,7 +1744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="6:14">
+    <row r="9" spans="4:15" ht="12.75">
       <c r="F9" s="2" t="s">
         <v>18</v>
       </c>
@@ -2374,7 +1773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="6:14">
+    <row r="10" spans="4:15" ht="12.75">
       <c r="F10" s="2" t="s">
         <v>21</v>
       </c>
@@ -2403,7 +1802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="6:14">
+    <row r="11" spans="4:15" ht="12.75">
       <c r="F11" s="2" t="s">
         <v>24</v>
       </c>
@@ -2432,7 +1831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="6:14">
+    <row r="12" spans="4:15" ht="12.75">
       <c r="F12" s="2" t="s">
         <v>27</v>
       </c>
@@ -2461,7 +1860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="6:14">
+    <row r="13" spans="4:15" ht="12.75">
       <c r="F13" s="2" t="s">
         <v>30</v>
       </c>
@@ -2490,7 +1889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="6:14">
+    <row r="14" spans="4:15" ht="12.75">
       <c r="F14" s="2" t="s">
         <v>33</v>
       </c>
@@ -2519,7 +1918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="6:14">
+    <row r="15" spans="4:15" ht="12.75">
       <c r="F15" s="2" t="s">
         <v>36</v>
       </c>
@@ -2548,12 +1947,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="6:14">
+    <row r="16" spans="4:15" ht="12.75">
       <c r="F16" s="2" t="s">
         <v>39</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>40</v>
+        <v>383</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>14</v>
@@ -2562,7 +1961,7 @@
         <v>15</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>17</v>
@@ -2577,21 +1976,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="6:14">
+    <row r="17" spans="6:14" ht="12.75">
       <c r="F17" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G17" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="H17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I17" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H17" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I17" s="2" t="s">
+      <c r="J17" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="K17" s="2" t="s">
         <v>17</v>
@@ -2606,21 +2005,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="6:14">
+    <row r="18" spans="6:14" ht="12.75">
       <c r="F18" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G18" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="H18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J18" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="K18" s="2" t="s">
         <v>17</v>
@@ -2635,21 +2034,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="6:14">
+    <row r="19" spans="6:14" ht="12.75">
       <c r="F19" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G19" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="H19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J19" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="K19" s="2" t="s">
         <v>17</v>
@@ -2664,21 +2063,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="6:14">
+    <row r="20" spans="6:14" ht="12.75">
       <c r="F20" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G20" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="H20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J20" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="K20" s="2" t="s">
         <v>17</v>
@@ -2693,21 +2092,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="6:14">
+    <row r="21" spans="6:14" ht="12.75">
       <c r="F21" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G21" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="H21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J21" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="K21" s="2" t="s">
         <v>17</v>
@@ -2722,21 +2121,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="6:14">
+    <row r="22" spans="6:14" ht="12.75">
       <c r="F22" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G22" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="H22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J22" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="K22" s="2" t="s">
         <v>17</v>
@@ -2751,21 +2150,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="6:14">
+    <row r="23" spans="6:14" ht="12.75">
       <c r="F23" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G23" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="G23" s="2" t="s">
+      <c r="H23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J23" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="K23" s="2" t="s">
         <v>17</v>
@@ -2780,21 +2179,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="6:14">
+    <row r="24" spans="6:14" ht="12.75">
       <c r="F24" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G24" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="G24" s="2" t="s">
+      <c r="H24" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J24" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="K24" s="2" t="s">
         <v>17</v>
@@ -2809,21 +2208,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="6:14">
+    <row r="25" spans="6:14" ht="12.75">
       <c r="F25" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G25" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="G25" s="2" t="s">
+      <c r="H25" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J25" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>69</v>
       </c>
       <c r="K25" s="2" t="s">
         <v>17</v>
@@ -2838,21 +2237,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="6:14">
+    <row r="26" spans="6:14" ht="12.75">
       <c r="F26" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G26" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="G26" s="2" t="s">
+      <c r="H26" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J26" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="J26" s="2" t="s">
-        <v>72</v>
       </c>
       <c r="K26" s="2" t="s">
         <v>17</v>
@@ -2867,21 +2266,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" customFormat="1" spans="6:14">
+    <row r="27" spans="6:14" ht="12.75">
       <c r="F27" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G27" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="G27" s="2" t="s">
+      <c r="H27" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J27" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="J27" s="2" t="s">
-        <v>75</v>
       </c>
       <c r="K27" s="2" t="s">
         <v>17</v>
@@ -2896,21 +2295,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" customFormat="1" spans="6:14">
+    <row r="28" spans="6:14" ht="12.75">
       <c r="F28" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G28" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="G28" s="2" t="s">
+      <c r="H28" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J28" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="J28" s="2" t="s">
-        <v>78</v>
       </c>
       <c r="K28" s="2" t="s">
         <v>17</v>
@@ -2925,21 +2324,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" customFormat="1" spans="6:14">
+    <row r="29" spans="6:14" ht="12.75">
       <c r="F29" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G29" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="G29" s="2" t="s">
+      <c r="H29" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J29" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="J29" s="2" t="s">
-        <v>81</v>
       </c>
       <c r="K29" s="2" t="s">
         <v>17</v>
@@ -2954,21 +2353,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="6:14">
+    <row r="30" spans="6:14" ht="12.75">
       <c r="F30" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G30" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="G30" s="2" t="s">
+      <c r="H30" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I30" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="H30" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I30" s="2" t="s">
+      <c r="J30" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="J30" s="2" t="s">
-        <v>85</v>
       </c>
       <c r="K30" s="2" t="s">
         <v>17</v>
@@ -2983,21 +2382,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="6:14">
+    <row r="31" spans="6:14" ht="12.75">
       <c r="F31" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G31" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="G31" s="2" t="s">
+      <c r="H31" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="J31" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="J31" s="2" t="s">
-        <v>88</v>
       </c>
       <c r="K31" s="2" t="s">
         <v>17</v>
@@ -3012,21 +2411,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="6:14">
+    <row r="32" spans="6:14" ht="12.75">
       <c r="F32" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G32" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="G32" s="2" t="s">
+      <c r="H32" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="J32" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="J32" s="2" t="s">
-        <v>91</v>
       </c>
       <c r="K32" s="2" t="s">
         <v>17</v>
@@ -3041,21 +2440,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="6:14">
+    <row r="33" spans="6:14" ht="12.75">
       <c r="F33" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G33" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="G33" s="2" t="s">
+      <c r="H33" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="J33" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I33" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="J33" s="2" t="s">
-        <v>94</v>
       </c>
       <c r="K33" s="2" t="s">
         <v>17</v>
@@ -3070,12 +2469,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="7:7">
+    <row r="35" spans="6:14" ht="12.75">
       <c r="G35" s="2"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="16" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,常规"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,常规"&amp;12 Page &amp;P</oddFooter>
@@ -3084,39 +2484,38 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="D7:Q41"/>
   <sheetViews>
-    <sheetView zoomScale="86" zoomScaleNormal="86" topLeftCell="B19" workbookViewId="0">
-      <selection activeCell="F46" sqref="F46"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="6" customWidth="1"/>
-    <col min="3" max="3" width="4.8" customWidth="1"/>
-    <col min="4" max="4" width="19.4" customWidth="1"/>
+    <col min="3" max="3" width="4.85546875" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" customWidth="1"/>
     <col min="5" max="5" width="9" customWidth="1"/>
-    <col min="6" max="6" width="72.8" customWidth="1"/>
-    <col min="7" max="7" width="16.8" customWidth="1"/>
+    <col min="6" max="6" width="72.85546875" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" customWidth="1"/>
     <col min="8" max="8" width="36" customWidth="1"/>
-    <col min="9" max="9" width="63.8" customWidth="1"/>
-    <col min="10" max="10" width="18.6" customWidth="1"/>
-    <col min="11" max="11" width="54.8" customWidth="1"/>
-    <col min="12" max="12" width="19.2" customWidth="1"/>
-    <col min="13" max="13" width="14.6" customWidth="1"/>
-    <col min="14" max="14" width="26.4" customWidth="1"/>
+    <col min="9" max="9" width="63.85546875" customWidth="1"/>
+    <col min="10" max="10" width="18.5703125" customWidth="1"/>
+    <col min="11" max="11" width="54.85546875" customWidth="1"/>
+    <col min="12" max="12" width="19.140625" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" customWidth="1"/>
+    <col min="14" max="14" width="26.42578125" customWidth="1"/>
     <col min="15" max="15" width="9" customWidth="1"/>
-    <col min="16" max="16" width="12.4" customWidth="1"/>
-    <col min="17" max="17" width="10.8" customWidth="1"/>
+    <col min="16" max="16" width="12.42578125" customWidth="1"/>
+    <col min="17" max="17" width="10.85546875" customWidth="1"/>
     <col min="18" max="1025" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" customHeight="1" spans="4:17">
+    <row r="7" spans="4:17" ht="12.75" customHeight="1">
       <c r="D7" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>1</v>
@@ -3125,77 +2524,77 @@
         <v>2</v>
       </c>
       <c r="G7" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="H7" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="I7" s="4" t="s">
         <v>97</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>98</v>
       </c>
       <c r="J7" s="4" t="s">
         <v>4</v>
       </c>
       <c r="K7" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="L7" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="L7" s="4" t="s">
+      <c r="M7" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="M7" s="4" t="s">
+      <c r="N7" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="N7" s="2" t="s">
+      <c r="O7" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="O7" s="2" t="s">
+      <c r="P7" s="4" t="s">
         <v>103</v>
-      </c>
-      <c r="P7" s="4" t="s">
-        <v>104</v>
       </c>
       <c r="Q7" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" ht="15" spans="4:15">
+    <row r="8" spans="4:17" ht="15.75">
       <c r="D8" s="3"/>
       <c r="F8" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="H8" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="I8" s="7"/>
       <c r="J8" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>15</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N8" s="7"/>
       <c r="O8" s="7">
         <v>10</v>
       </c>
     </row>
-    <row r="9" ht="15" spans="6:15">
+    <row r="9" spans="4:17" ht="15.75">
       <c r="F9" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="H9" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="I9" s="7" t="s">
         <v>12</v>
@@ -3204,30 +2603,30 @@
         <v>14</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L9" s="7" t="s">
         <v>15</v>
       </c>
       <c r="M9" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="N9" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="N9" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="O9" s="7">
         <v>10</v>
       </c>
     </row>
-    <row r="10" ht="15" spans="6:15">
+    <row r="10" spans="4:17" ht="15.75">
       <c r="F10" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="H10" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="I10" s="7" t="s">
         <v>18</v>
@@ -3236,58 +2635,58 @@
         <v>14</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>15</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="N10" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O10" s="7">
         <v>20</v>
       </c>
     </row>
-    <row r="11" ht="15" spans="6:15">
+    <row r="11" spans="4:17" ht="15.75">
       <c r="F11" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="H11" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="I11" s="7"/>
       <c r="J11" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>15</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N11" s="7"/>
       <c r="O11" s="7">
         <v>20</v>
       </c>
     </row>
-    <row r="12" ht="15" spans="6:15">
+    <row r="12" spans="4:17" ht="15.75">
       <c r="F12" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="H12" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="I12" s="7" t="s">
         <v>21</v>
@@ -3296,30 +2695,30 @@
         <v>14</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>15</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="N12" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O12" s="7">
         <v>10</v>
       </c>
     </row>
-    <row r="13" ht="15" spans="6:15">
+    <row r="13" spans="4:17" ht="15.75">
       <c r="F13" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="H13" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="I13" s="7" t="s">
         <v>24</v>
@@ -3328,30 +2727,30 @@
         <v>14</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>119</v>
+        <v>386</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>15</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>113</v>
+        <v>384</v>
       </c>
       <c r="N13" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O13" s="7">
         <v>20</v>
       </c>
     </row>
-    <row r="14" ht="15" spans="6:15">
+    <row r="14" spans="4:17" ht="15.75">
       <c r="F14" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="H14" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="I14" s="7" t="s">
         <v>27</v>
@@ -3360,28 +2759,28 @@
         <v>14</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>15</v>
       </c>
       <c r="M14" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N14" s="7"/>
       <c r="O14" s="7">
         <v>10</v>
       </c>
     </row>
-    <row r="15" ht="15" spans="6:15">
+    <row r="15" spans="4:17" ht="15.75">
       <c r="F15" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="H15" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="I15" s="7" t="s">
         <v>30</v>
@@ -3390,28 +2789,28 @@
         <v>14</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L15" s="7" t="s">
         <v>15</v>
       </c>
       <c r="M15" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N15" s="7"/>
       <c r="O15" s="7">
         <v>20</v>
       </c>
     </row>
-    <row r="16" ht="15" spans="6:15">
+    <row r="16" spans="4:17" ht="15.75">
       <c r="F16" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="I16" s="7" t="s">
         <v>33</v>
@@ -3420,28 +2819,28 @@
         <v>14</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>15</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N16" s="7"/>
       <c r="O16" s="7">
         <v>30</v>
       </c>
     </row>
-    <row r="17" ht="15" spans="6:15">
+    <row r="17" spans="6:15" ht="15.75">
       <c r="F17" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="I17" s="7" t="s">
         <v>36</v>
@@ -3450,28 +2849,28 @@
         <v>14</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>15</v>
       </c>
       <c r="M17" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N17" s="7"/>
       <c r="O17" s="7">
         <v>10</v>
       </c>
     </row>
-    <row r="18" ht="15" spans="6:15">
+    <row r="18" spans="6:15" ht="15.75">
       <c r="F18" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="H18" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="I18" s="7" t="s">
         <v>39</v>
@@ -3480,732 +2879,735 @@
         <v>14</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>126</v>
+        <v>386</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>15</v>
       </c>
       <c r="M18" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="N18" s="7"/>
+        <v>112</v>
+      </c>
+      <c r="N18" s="7" t="s">
+        <v>385</v>
+      </c>
       <c r="O18" s="7">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" ht="15" spans="6:15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="6:15" ht="15.75">
       <c r="F19" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="H19" s="8" t="s">
         <v>146</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="H19" s="8" t="s">
-        <v>147</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8" t="s">
         <v>14</v>
       </c>
       <c r="K19" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L19" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M19" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N19" s="8"/>
       <c r="O19" s="8">
         <v>10</v>
       </c>
     </row>
-    <row r="20" ht="15" spans="6:15">
+    <row r="20" spans="6:15" ht="15.75">
       <c r="F20" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="G20" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="G20" s="8" t="s">
+      <c r="H20" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="H20" s="8" t="s">
+      <c r="I20" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="J20" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="K20" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="L20" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="M20" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="N20" s="8" t="s">
         <v>151</v>
-      </c>
-      <c r="I20" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="J20" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="K20" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="L20" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="M20" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="N20" s="8" t="s">
-        <v>152</v>
       </c>
       <c r="O20" s="8">
         <v>10</v>
       </c>
     </row>
-    <row r="21" ht="15" spans="6:15">
+    <row r="21" spans="6:15" ht="15.75">
       <c r="F21" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G21" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="H21" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="H21" s="8" t="s">
+      <c r="I21" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="J21" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="K21" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="L21" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="M21" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="N21" s="8" t="s">
         <v>117</v>
-      </c>
-      <c r="I21" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="J21" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="K21" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="L21" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="M21" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="N21" s="8" t="s">
-        <v>118</v>
       </c>
       <c r="O21" s="8">
         <v>40</v>
       </c>
     </row>
-    <row r="22" ht="15" spans="6:15">
+    <row r="22" spans="6:15" ht="15.75">
       <c r="F22" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="G22" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="G22" s="9" t="s">
+      <c r="H22" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="H22" s="8" t="s">
+      <c r="I22" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="K22" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="L22" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="M22" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="N22" s="8" t="s">
         <v>156</v>
-      </c>
-      <c r="I22" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="J22" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="K22" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="L22" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="M22" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="N22" s="8" t="s">
-        <v>157</v>
       </c>
       <c r="O22" s="8">
         <v>50</v>
       </c>
     </row>
-    <row r="23" ht="15" spans="6:15">
+    <row r="23" spans="6:15" ht="15.75">
       <c r="F23" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="G23" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="G23" s="8" t="s">
+      <c r="H23" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="H23" s="8" t="s">
+      <c r="I23" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="J23" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="K23" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="L23" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="M23" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="N23" s="8" t="s">
         <v>160</v>
-      </c>
-      <c r="I23" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="J23" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="K23" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="L23" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="M23" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="N23" s="8" t="s">
-        <v>161</v>
       </c>
       <c r="O23" s="8">
         <v>60</v>
       </c>
     </row>
-    <row r="24" ht="15" spans="6:15">
+    <row r="24" spans="6:15" ht="15.75">
       <c r="F24" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G24" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="H24" s="8" t="s">
         <v>120</v>
-      </c>
-      <c r="H24" s="8" t="s">
-        <v>121</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="8" t="s">
         <v>14</v>
       </c>
       <c r="K24" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L24" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M24" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N24" s="8"/>
       <c r="O24" s="8">
         <v>20</v>
       </c>
     </row>
-    <row r="25" ht="15" spans="6:15">
+    <row r="25" spans="6:15" ht="15.75">
       <c r="F25" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G25" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="H25" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="H25" s="8" t="s">
+      <c r="I25" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="J25" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="K25" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="L25" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="M25" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="N25" s="8" t="s">
         <v>124</v>
-      </c>
-      <c r="I25" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="J25" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="K25" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="L25" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="M25" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="N25" s="8" t="s">
-        <v>125</v>
       </c>
       <c r="O25" s="8">
         <v>10</v>
       </c>
     </row>
-    <row r="26" ht="15" spans="6:15">
+    <row r="26" spans="6:15" ht="15.75">
       <c r="F26" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G26" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="H26" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="H26" s="8" t="s">
+      <c r="I26" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="J26" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="K26" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="L26" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="M26" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="N26" s="8" t="s">
         <v>128</v>
-      </c>
-      <c r="I26" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="J26" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="K26" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="L26" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="M26" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="N26" s="8" t="s">
-        <v>129</v>
       </c>
       <c r="O26" s="8">
         <v>20</v>
       </c>
     </row>
-    <row r="27" ht="15" spans="6:15">
+    <row r="27" spans="6:15" ht="15.75">
       <c r="F27" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G27" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="H27" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="H27" s="8" t="s">
-        <v>142</v>
-      </c>
       <c r="I27" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J27" s="8" t="s">
         <v>14</v>
       </c>
       <c r="K27" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L27" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M27" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N27" s="8"/>
       <c r="O27" s="8">
         <v>10</v>
       </c>
     </row>
-    <row r="28" ht="15" spans="6:15">
+    <row r="28" spans="6:15" ht="15.75">
       <c r="F28" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="G28" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="G28" s="10" t="s">
+      <c r="H28" s="10" t="s">
         <v>167</v>
-      </c>
-      <c r="H28" s="10" t="s">
-        <v>168</v>
       </c>
       <c r="I28" s="10"/>
       <c r="J28" s="10" t="s">
         <v>14</v>
       </c>
       <c r="K28" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="L28" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="M28" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="N28" s="10" t="s">
         <v>169</v>
-      </c>
-      <c r="L28" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="M28" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="N28" s="10" t="s">
-        <v>170</v>
       </c>
       <c r="O28" s="10">
         <v>10</v>
       </c>
     </row>
-    <row r="29" ht="15" spans="6:15">
+    <row r="29" spans="6:15" ht="15.75">
       <c r="F29" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="G29" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="G29" s="10" t="s">
+      <c r="H29" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="H29" s="10" t="s">
+      <c r="I29" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="J29" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="K29" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="L29" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="M29" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="N29" s="10" t="s">
         <v>173</v>
-      </c>
-      <c r="I29" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="J29" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="K29" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="L29" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="M29" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="N29" s="10" t="s">
-        <v>174</v>
       </c>
       <c r="O29" s="10">
         <v>10</v>
       </c>
     </row>
-    <row r="30" ht="15" spans="6:15">
+    <row r="30" spans="6:15" ht="15.75">
       <c r="F30" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="G30" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="G30" s="10" t="s">
+      <c r="H30" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="H30" s="10" t="s">
+      <c r="I30" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="J30" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="K30" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="L30" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="M30" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="N30" s="10" t="s">
         <v>177</v>
-      </c>
-      <c r="I30" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="J30" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="K30" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="L30" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="M30" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="N30" s="10" t="s">
-        <v>178</v>
       </c>
       <c r="O30" s="10">
         <v>20</v>
       </c>
     </row>
-    <row r="31" ht="15" spans="6:15">
+    <row r="31" spans="6:15" ht="15.75">
       <c r="F31" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="G31" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="G31" s="10" t="s">
+      <c r="H31" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="H31" s="10" t="s">
+      <c r="I31" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="J31" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="K31" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="L31" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="M31" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="N31" s="10" t="s">
         <v>181</v>
-      </c>
-      <c r="I31" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="J31" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="K31" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="L31" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="M31" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="N31" s="10" t="s">
-        <v>182</v>
       </c>
       <c r="O31" s="10">
         <v>30</v>
       </c>
     </row>
-    <row r="32" customFormat="1" ht="16.5" spans="6:15">
+    <row r="32" spans="6:15" ht="16.5">
       <c r="F32" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="G32" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="G32" s="11" t="s">
+      <c r="H32" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="H32" s="11" t="s">
+      <c r="I32" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="J32" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K32" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="I32" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="J32" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="K32" s="11" t="s">
+      <c r="L32" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="M32" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="N32" s="14" t="s">
         <v>186</v>
-      </c>
-      <c r="L32" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="M32" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="N32" s="14" t="s">
-        <v>187</v>
       </c>
       <c r="O32" s="11">
         <v>50</v>
       </c>
     </row>
-    <row r="33" customFormat="1" ht="16.5" spans="6:15">
+    <row r="33" spans="6:15" ht="16.5">
       <c r="F33" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="G33" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="G33" s="11" t="s">
+      <c r="H33" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="H33" s="11" t="s">
+      <c r="I33" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="J33" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K33" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="L33" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="M33" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="N33" s="14" t="s">
         <v>190</v>
-      </c>
-      <c r="I33" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="J33" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="K33" s="11" t="s">
-        <v>186</v>
-      </c>
-      <c r="L33" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="M33" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="N33" s="14" t="s">
-        <v>191</v>
       </c>
       <c r="O33" s="11">
         <v>60</v>
       </c>
     </row>
-    <row r="34" customFormat="1" ht="16.5" spans="6:15">
+    <row r="34" spans="6:15" ht="16.5">
       <c r="F34" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="G34" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="G34" s="11" t="s">
+      <c r="H34" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="H34" s="11" t="s">
+      <c r="I34" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="J34" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K34" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="L34" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="M34" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="N34" s="11" t="s">
         <v>194</v>
-      </c>
-      <c r="I34" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="J34" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="K34" s="11" t="s">
-        <v>186</v>
-      </c>
-      <c r="L34" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="M34" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="N34" s="11" t="s">
-        <v>195</v>
       </c>
       <c r="O34" s="11">
         <v>70</v>
       </c>
     </row>
-    <row r="35" ht="15" spans="6:15">
+    <row r="35" spans="6:15" ht="15.75">
       <c r="F35" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="G35" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="G35" s="12" t="s">
+      <c r="H35" s="12" t="s">
         <v>197</v>
-      </c>
-      <c r="H35" s="12" t="s">
-        <v>198</v>
       </c>
       <c r="I35" s="12"/>
       <c r="J35" s="12" t="s">
         <v>14</v>
       </c>
       <c r="K35" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="L35" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="M35" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="N35" s="12" t="s">
         <v>199</v>
-      </c>
-      <c r="L35" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="M35" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="N35" s="12" t="s">
-        <v>200</v>
       </c>
       <c r="O35" s="12">
         <v>10</v>
       </c>
     </row>
-    <row r="36" ht="15" spans="6:15">
+    <row r="36" spans="6:15" ht="15.75">
       <c r="F36" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="G36" s="12" t="s">
         <v>201</v>
       </c>
-      <c r="G36" s="12" t="s">
+      <c r="H36" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="H36" s="12" t="s">
-        <v>203</v>
-      </c>
       <c r="I36" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J36" s="12" t="s">
         <v>14</v>
       </c>
       <c r="K36" s="12" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="L36" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M36" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="N36" s="12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O36" s="12">
         <v>20</v>
       </c>
     </row>
-    <row r="37" customFormat="1" ht="15" spans="6:15">
+    <row r="37" spans="6:15" ht="15.75">
       <c r="F37" s="12" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G37" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="H37" s="12" t="s">
         <v>120</v>
-      </c>
-      <c r="H37" s="12" t="s">
-        <v>121</v>
       </c>
       <c r="I37" s="12"/>
       <c r="J37" s="12" t="s">
         <v>14</v>
       </c>
       <c r="K37" s="12" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="L37" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M37" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N37" s="12"/>
       <c r="O37" s="12">
         <v>80</v>
       </c>
     </row>
-    <row r="38" ht="15" spans="6:15">
+    <row r="38" spans="6:15" ht="15.75">
       <c r="F38" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="G38" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="H38" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="I38" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="J38" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="K38" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="L38" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="M38" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="N38" s="12" t="s">
         <v>205</v>
-      </c>
-      <c r="G38" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="H38" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="I38" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="J38" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="K38" s="12" t="s">
-        <v>204</v>
-      </c>
-      <c r="L38" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="M38" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="N38" s="12" t="s">
-        <v>206</v>
       </c>
       <c r="O38" s="12">
         <v>10</v>
       </c>
     </row>
-    <row r="39" ht="15" spans="6:15">
+    <row r="39" spans="6:15" ht="15.75">
       <c r="F39" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="G39" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="G39" s="13" t="s">
+      <c r="H39" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="H39" s="12" t="s">
-        <v>209</v>
-      </c>
       <c r="I39" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J39" s="12" t="s">
         <v>14</v>
       </c>
       <c r="K39" s="12" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="L39" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M39" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N39" s="12"/>
       <c r="O39" s="12">
         <v>10</v>
       </c>
     </row>
-    <row r="40" ht="15" spans="6:15">
+    <row r="40" spans="6:15" ht="15.75">
       <c r="F40" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="G40" s="12" t="s">
         <v>210</v>
       </c>
-      <c r="G40" s="12" t="s">
+      <c r="H40" s="12" t="s">
         <v>211</v>
       </c>
-      <c r="H40" s="12" t="s">
-        <v>212</v>
-      </c>
       <c r="J40" s="12" t="s">
         <v>14</v>
       </c>
       <c r="K40" s="12" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="L40" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M40" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O40" s="12">
         <v>60</v>
       </c>
     </row>
-    <row r="41" ht="15" spans="6:15">
+    <row r="41" spans="6:15" ht="15.75">
       <c r="F41" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="G41" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="G41" s="12" t="s">
+      <c r="H41" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="H41" s="12" t="s">
+      <c r="I41" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="J41" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="K41" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="L41" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="M41" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="N41" s="12" t="s">
         <v>215</v>
-      </c>
-      <c r="I41" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="J41" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="K41" s="12" t="s">
-        <v>210</v>
-      </c>
-      <c r="L41" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="M41" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="N41" s="12" t="s">
-        <v>216</v>
       </c>
       <c r="O41" s="12">
         <v>10</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="16" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,常规"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,常规"&amp;12 Page &amp;P</oddFooter>
@@ -4214,1181 +3616,1181 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="D7:H149"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A104" workbookViewId="0">
+    <sheetView topLeftCell="A104" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G147" sqref="G147"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
     <col min="1" max="3" width="9" customWidth="1"/>
-    <col min="4" max="4" width="23.8" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" customWidth="1"/>
     <col min="5" max="5" width="9" customWidth="1"/>
-    <col min="6" max="6" width="60.8" customWidth="1"/>
-    <col min="7" max="7" width="71.8" customWidth="1"/>
+    <col min="6" max="6" width="60.85546875" customWidth="1"/>
+    <col min="7" max="7" width="71.85546875" customWidth="1"/>
     <col min="8" max="1025" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" customHeight="1" spans="4:8">
+    <row r="7" spans="4:8" ht="12.75" customHeight="1">
       <c r="D7" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>218</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>219</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" ht="15" spans="4:7">
+    <row r="8" spans="4:8" ht="15.75">
       <c r="D8" s="3"/>
       <c r="F8" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" ht="15" spans="6:7">
+    <row r="9" spans="4:8" ht="15.75">
       <c r="F9" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G9" s="6" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="10" spans="4:8" ht="15.75">
+      <c r="F10" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="G10" s="6" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="10" ht="15" spans="6:7">
-      <c r="F10" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="G10" s="6" t="s">
+    <row r="11" spans="4:8" ht="15.75">
+      <c r="F11" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="G11" s="6" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="11" ht="15" spans="6:7">
-      <c r="F11" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="G11" s="6" t="s">
+    <row r="12" spans="4:8" ht="15.75">
+      <c r="F12" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="G12" s="6" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="12" ht="15" spans="6:7">
-      <c r="F12" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="13" ht="15" spans="6:7">
+    <row r="13" spans="4:8" ht="15.75">
       <c r="F13" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" ht="15" spans="6:7">
+    <row r="14" spans="4:8" ht="15.75">
       <c r="F14" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G14" s="6" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="15" spans="4:8" ht="15.75">
+      <c r="F15" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="G15" s="6" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="15" ht="15" spans="6:7">
-      <c r="F15" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="G15" s="6" t="s">
+    <row r="16" spans="4:8" ht="15.75">
+      <c r="F16" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="17" spans="6:7" ht="15.75">
+      <c r="F17" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="G17" s="6" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="16" ht="15" spans="6:7">
-      <c r="F16" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="17" ht="15" spans="6:7">
-      <c r="F17" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="G17" s="6" t="s">
+    <row r="18" spans="6:7" ht="15.75">
+      <c r="F18" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="G18" s="6" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="18" ht="15" spans="6:7">
-      <c r="F18" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="G18" s="6" t="s">
+    <row r="19" spans="6:7" ht="15.75">
+      <c r="F19" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="G19" s="6" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="19" ht="15" spans="6:7">
-      <c r="F19" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="G19" s="6" t="s">
+    <row r="20" spans="6:7" ht="15.75">
+      <c r="F20" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="G20" s="6" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="20" ht="15" spans="6:7">
-      <c r="F20" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="G20" s="6" t="s">
+    <row r="21" spans="6:7" ht="15.75">
+      <c r="F21" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="G21" s="6" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="21" ht="15" spans="6:7">
-      <c r="F21" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="G21" s="6" t="s">
+    <row r="22" spans="6:7" ht="15.75">
+      <c r="F22" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="G22" s="6" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="22" ht="15" spans="6:7">
-      <c r="F22" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="G22" s="6" t="s">
+    <row r="23" spans="6:7" ht="15.75">
+      <c r="F23" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="G23" s="6" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="23" ht="15" spans="6:7">
-      <c r="F23" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="G23" s="6" t="s">
+    <row r="24" spans="6:7" ht="15.75">
+      <c r="F24" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="G24" s="6" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="24" ht="15" spans="6:7">
-      <c r="F24" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="G24" s="6" t="s">
+    <row r="25" spans="6:7" ht="15.75">
+      <c r="F25" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="G25" s="6" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="25" ht="15" spans="6:7">
-      <c r="F25" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="G25" s="6" t="s">
+    <row r="26" spans="6:7" ht="15.75">
+      <c r="F26" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="G26" s="6" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="26" ht="15" spans="6:7">
-      <c r="F26" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="G26" s="6" t="s">
+    <row r="27" spans="6:7" ht="15.75">
+      <c r="F27" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="G27" s="6" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="27" ht="15" spans="6:7">
-      <c r="F27" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="G27" s="6" t="s">
+    <row r="28" spans="6:7" ht="15.75">
+      <c r="F28" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="G28" s="6" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="28" ht="15" spans="6:7">
-      <c r="F28" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="G28" s="6" t="s">
+    <row r="29" spans="6:7" ht="15.75">
+      <c r="F29" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="G29" s="6" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="29" ht="15" spans="6:7">
-      <c r="F29" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="G29" s="6" t="s">
+    <row r="30" spans="6:7" ht="15.75">
+      <c r="F30" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="G30" s="6" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="30" ht="15" spans="6:7">
-      <c r="F30" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="G30" s="6" t="s">
+    <row r="31" spans="6:7" ht="15.75">
+      <c r="F31" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="G31" s="6" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="31" ht="15" spans="6:7">
-      <c r="F31" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="G31" s="6" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="32" ht="15" spans="6:7">
+    <row r="32" spans="6:7" ht="15.75">
       <c r="F32" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G32" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="33" ht="15" spans="6:7">
+    <row r="33" spans="6:7" ht="15.75">
       <c r="F33" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G33" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="34" ht="15" spans="6:7">
+    <row r="34" spans="6:7" ht="15.75">
       <c r="F34" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G34" s="6" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="35" spans="6:7" ht="15.75">
+      <c r="F35" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="G35" s="6" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="35" ht="15" spans="6:7">
-      <c r="F35" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="G35" s="6" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="36" ht="15" spans="6:7">
+    <row r="36" spans="6:7" ht="15.75">
       <c r="F36" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G36" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="37" ht="15" spans="6:7">
+    <row r="37" spans="6:7" ht="15.75">
       <c r="F37" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G37" s="6" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="38" spans="6:7" ht="15.75">
+      <c r="F38" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="G38" s="6" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="38" ht="15" spans="6:7">
-      <c r="F38" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="G38" s="6" t="s">
+    <row r="39" spans="6:7" ht="15.75">
+      <c r="F39" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="G39" s="6" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="39" ht="15" spans="6:7">
-      <c r="F39" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="G39" s="6" t="s">
+    <row r="40" spans="6:7" ht="15.75">
+      <c r="F40" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="G40" s="6" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="40" ht="15" spans="6:7">
-      <c r="F40" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="G40" s="6" t="s">
+    <row r="41" spans="6:7" ht="15.75">
+      <c r="F41" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="G41" s="6" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="41" ht="15" spans="6:7">
-      <c r="F41" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="G41" s="6" t="s">
+    <row r="42" spans="6:7" ht="15.75">
+      <c r="F42" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="G42" s="6" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="42" ht="15" spans="6:7">
-      <c r="F42" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="G42" s="6" t="s">
+    <row r="43" spans="6:7" ht="15.75">
+      <c r="F43" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="G43" s="6" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="43" ht="15" spans="6:7">
-      <c r="F43" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="G43" s="6" t="s">
+    <row r="44" spans="6:7" ht="15.75">
+      <c r="F44" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="G44" s="6" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="44" ht="15" spans="6:7">
-      <c r="F44" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="G44" s="6" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="45" ht="15" spans="6:7">
+    <row r="45" spans="6:7" ht="15.75">
       <c r="F45" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G45" s="6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="46" ht="15" spans="6:7">
+    <row r="46" spans="6:7" ht="15.75">
       <c r="F46" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G46" s="6" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="47" spans="6:7" ht="15.75">
+      <c r="F47" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="G47" s="6" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="47" ht="15" spans="6:7">
-      <c r="F47" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="G47" s="6" t="s">
+    <row r="48" spans="6:7" ht="15.75">
+      <c r="F48" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="G48" s="6" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="48" ht="15" spans="6:7">
-      <c r="F48" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="G48" s="6" t="s">
+    <row r="49" spans="6:7" ht="15.75">
+      <c r="F49" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="G49" s="6" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="49" ht="15" spans="6:7">
-      <c r="F49" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="G49" s="6" t="s">
+    <row r="50" spans="6:7" ht="15.75">
+      <c r="F50" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="G50" s="6" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="50" ht="15" spans="6:7">
-      <c r="F50" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="G50" s="6" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="51" ht="15" spans="6:7">
+    <row r="51" spans="6:7" ht="15.75">
       <c r="F51" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G51" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="52" ht="15" spans="6:7">
+    <row r="52" spans="6:7" ht="15.75">
       <c r="F52" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G52" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="53" ht="15" spans="6:7">
+    <row r="53" spans="6:7" ht="15.75">
       <c r="F53" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="54" ht="15" spans="6:7">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="54" spans="6:7" ht="15.75">
       <c r="F54" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="55" ht="15" spans="6:7">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="55" spans="6:7" ht="15.75">
       <c r="F55" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G55" s="6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="56" ht="15" spans="6:7">
+    <row r="56" spans="6:7" ht="15.75">
       <c r="F56" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G56" s="6" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="57" spans="6:7" ht="15.75">
+      <c r="F57" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="G57" s="6" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="57" ht="15" spans="6:7">
-      <c r="F57" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="G57" s="6" t="s">
+    <row r="58" spans="6:7" ht="15.75">
+      <c r="F58" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="G58" s="6" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="58" ht="15" spans="6:7">
-      <c r="F58" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="G58" s="6" t="s">
+    <row r="59" spans="6:7" ht="15.75">
+      <c r="F59" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="G59" s="6" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="59" ht="15" spans="6:7">
-      <c r="F59" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="G59" s="6" t="s">
+    <row r="60" spans="6:7" ht="15.75">
+      <c r="F60" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="G60" s="6" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="60" ht="15" spans="6:7">
-      <c r="F60" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="G60" s="6" t="s">
+    <row r="61" spans="6:7" ht="15.75">
+      <c r="F61" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="G61" s="6" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="61" ht="15" spans="6:7">
-      <c r="F61" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="G61" s="6" t="s">
+    <row r="62" spans="6:7" ht="15.75">
+      <c r="F62" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="G62" s="6" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="62" ht="15" spans="6:7">
-      <c r="F62" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="G62" s="6" t="s">
+    <row r="63" spans="6:7" ht="15.75">
+      <c r="F63" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="G63" s="6" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="63" ht="15" spans="6:7">
-      <c r="F63" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="G63" s="6" t="s">
+    <row r="64" spans="6:7" ht="15.75">
+      <c r="F64" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="G64" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="65" spans="6:7" ht="15.75">
+      <c r="F65" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="G65" s="6" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="64" ht="15" spans="6:7">
-      <c r="F64" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="G64" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="65" ht="15" spans="6:7">
-      <c r="F65" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="G65" s="6" t="s">
+    <row r="66" spans="6:7" ht="15.75">
+      <c r="F66" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="G66" s="6" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="66" ht="15" spans="6:7">
-      <c r="F66" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="G66" s="6" t="s">
+    <row r="67" spans="6:7" ht="15.75">
+      <c r="F67" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="G67" s="6" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="67" ht="15" spans="6:7">
-      <c r="F67" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="G67" s="6" t="s">
+    <row r="68" spans="6:7" ht="15.75">
+      <c r="F68" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="G68" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="69" spans="6:7" ht="15.75">
+      <c r="F69" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="G69" s="6" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="68" ht="15" spans="6:7">
-      <c r="F68" s="6" t="s">
+    <row r="70" spans="6:7" ht="15.75">
+      <c r="F70" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="G70" s="6" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="71" spans="6:7" ht="15.75">
+      <c r="F71" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="G71" s="6" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="72" spans="6:7" ht="15.75">
+      <c r="F72" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="G72" s="6" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="73" spans="6:7" ht="15.75">
+      <c r="F73" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="G73" s="6" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="74" spans="6:7" ht="15.75">
+      <c r="F74" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="G74" s="6" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="75" spans="6:7" ht="15.75">
+      <c r="F75" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="G75" s="6" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="76" spans="6:7" ht="15.75">
+      <c r="F76" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="G76" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="77" spans="6:7" ht="15.75">
+      <c r="F77" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="G77" s="6" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="78" spans="6:7" ht="15.75">
+      <c r="F78" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="G78" s="6" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="79" spans="6:7" ht="15.75">
+      <c r="F79" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="G79" s="6" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="80" spans="6:7" ht="15.75">
+      <c r="F80" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="G80" s="6" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="81" spans="6:7" ht="15.75">
+      <c r="F81" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="G81" s="6" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="82" spans="6:7" ht="15.75">
+      <c r="F82" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="G68" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="69" ht="15" spans="6:7">
-      <c r="F69" s="6" t="s">
+      <c r="G82" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="83" spans="6:7" ht="15.75">
+      <c r="F83" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="G69" s="6" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="70" ht="15" spans="6:7">
-      <c r="F70" s="6" t="s">
+      <c r="G83" s="6" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="84" spans="6:7" ht="15.75">
+      <c r="F84" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="G70" s="6" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="71" ht="15" spans="6:7">
-      <c r="F71" s="6" t="s">
+      <c r="G84" s="6" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="85" spans="6:7" ht="15.75">
+      <c r="F85" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="G71" s="6" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="72" ht="15" spans="6:7">
-      <c r="F72" s="6" t="s">
+      <c r="G85" s="6" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="86" spans="6:7" ht="15.75">
+      <c r="F86" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="G72" s="6" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="73" ht="15" spans="6:7">
-      <c r="F73" s="6" t="s">
+      <c r="G86" s="6" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="87" spans="6:7" ht="15.75">
+      <c r="F87" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="G73" s="6" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="74" ht="15" spans="6:7">
-      <c r="F74" s="6" t="s">
+      <c r="G87" s="6" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="88" spans="6:7" ht="15.75">
+      <c r="F88" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="G74" s="6" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="75" ht="15" spans="6:7">
-      <c r="F75" s="6" t="s">
+      <c r="G88" s="6" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="89" spans="6:7" ht="15.75">
+      <c r="F89" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="G75" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="76" ht="15" spans="6:7">
-      <c r="F76" s="6" t="s">
+      <c r="G89" s="6" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="90" spans="6:7" ht="15.75">
+      <c r="F90" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="G76" s="6" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="77" ht="15" spans="6:7">
-      <c r="F77" s="6" t="s">
+      <c r="G90" s="6" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="91" spans="6:7" ht="15.75">
+      <c r="F91" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="G77" s="6" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="78" ht="15" spans="6:7">
-      <c r="F78" s="6" t="s">
+      <c r="G91" s="6" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="92" spans="6:7" ht="15.75">
+      <c r="F92" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="G78" s="6" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="79" ht="15" spans="6:7">
-      <c r="F79" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="G79" s="6" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="80" ht="15" spans="6:7">
-      <c r="F80" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="G80" s="6" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="81" ht="15" spans="6:7">
-      <c r="F81" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="G81" s="6" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="82" ht="15" spans="6:7">
-      <c r="F82" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="G82" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="83" ht="15" spans="6:7">
-      <c r="F83" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="G83" s="6" t="s">
+      <c r="G92" s="6" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="93" spans="6:7" ht="15.75">
+      <c r="F93" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="G93" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="94" spans="6:7" ht="15.75">
+      <c r="F94" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="G94" s="6" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="95" spans="6:7" ht="15.75">
+      <c r="F95" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="G95" s="6" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="96" spans="6:7" ht="15.75">
+      <c r="F96" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="G96" s="6" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="84" ht="15" spans="6:7">
-      <c r="F84" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="G84" s="6" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="85" ht="15" spans="6:7">
-      <c r="F85" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="G85" s="6" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="86" ht="15" spans="6:7">
-      <c r="F86" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="G86" s="6" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="87" ht="15" spans="6:7">
-      <c r="F87" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="G87" s="6" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="88" ht="15" spans="6:7">
-      <c r="F88" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="G88" s="6" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="89" ht="15" spans="6:7">
-      <c r="F89" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="G89" s="6" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="90" ht="15" spans="6:7">
-      <c r="F90" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="G90" s="6" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="91" ht="15" spans="6:7">
-      <c r="F91" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="G91" s="6" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="92" ht="15" spans="6:7">
-      <c r="F92" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="G92" s="6" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="93" ht="15" spans="6:7">
-      <c r="F93" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="G93" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="94" ht="15" spans="6:7">
-      <c r="F94" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="G94" s="6" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="95" ht="15" spans="6:7">
-      <c r="F95" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="G95" s="6" t="s">
+    <row r="97" spans="6:7" ht="15.75">
+      <c r="F97" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="G97" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="98" spans="6:7" ht="15.75">
+      <c r="F98" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="G98" s="6" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="96" ht="15" spans="6:7">
-      <c r="F96" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="G96" s="6" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="97" ht="15" spans="6:7">
-      <c r="F97" s="6" t="s">
+    <row r="99" spans="6:7" ht="15.75">
+      <c r="F99" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="G99" s="6" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="100" spans="6:7" ht="15.75">
+      <c r="F100" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="G97" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="98" ht="15" spans="6:7">
-      <c r="F98" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="G98" s="6" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="99" ht="15" spans="6:7">
-      <c r="F99" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="G99" s="6" t="s">
+      <c r="G100" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="101" spans="6:7" ht="15.75">
+      <c r="F101" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="G101" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="102" spans="6:7" ht="15.75">
+      <c r="F102" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="G102" s="6" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="100" ht="15" spans="6:7">
-      <c r="F100" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="G100" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="101" ht="15" spans="6:7">
-      <c r="F101" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="G101" s="6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="102" ht="15" spans="6:7">
-      <c r="F102" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="G102" s="6" t="s">
+    <row r="103" spans="6:7" ht="15.75">
+      <c r="F103" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="G103" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="104" spans="6:7" ht="15.75">
+      <c r="F104" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="G104" s="6" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="103" ht="15" spans="6:7">
-      <c r="F103" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="G103" s="6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="104" ht="15" spans="6:7">
-      <c r="F104" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="G104" s="6" t="s">
+    <row r="105" spans="6:7" ht="15.75">
+      <c r="F105" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="G105" s="6" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="105" ht="15" spans="6:7">
-      <c r="F105" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="G105" s="6" t="s">
+    <row r="106" spans="6:7" ht="15.75">
+      <c r="F106" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="G106" s="6" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="106" ht="15" spans="6:7">
-      <c r="F106" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="G106" s="6" t="s">
+    <row r="107" spans="6:7" ht="15.75">
+      <c r="F107" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="G107" s="6" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="107" ht="15" spans="6:7">
-      <c r="F107" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="G107" s="6" t="s">
+    <row r="108" spans="6:7" ht="15.75">
+      <c r="F108" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="G108" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="109" spans="6:7" ht="15.75">
+      <c r="F109" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="G109" s="6" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="108" ht="15" spans="6:7">
-      <c r="F108" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="G108" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="109" ht="15" spans="6:7">
-      <c r="F109" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="G109" s="6" t="s">
+    <row r="110" spans="6:7" ht="15.75">
+      <c r="F110" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="G110" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="111" spans="6:7" ht="15.75">
+      <c r="F111" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="G111" s="6" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="110" ht="15" spans="6:7">
-      <c r="F110" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="G110" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="111" ht="15" spans="6:7">
-      <c r="F111" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="G111" s="6" t="s">
+    <row r="112" spans="6:7" ht="15.75">
+      <c r="F112" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="G112" s="6" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="112" ht="15" spans="6:7">
-      <c r="F112" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="G112" s="6" t="s">
+    <row r="113" spans="6:7" ht="15.75">
+      <c r="F113" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="G113" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="114" spans="6:7" ht="15.75">
+      <c r="F114" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="G114" s="6" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="113" ht="15" spans="6:7">
-      <c r="F113" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="G113" s="6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="114" ht="15" spans="6:7">
-      <c r="F114" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="G114" s="6" t="s">
+    <row r="115" spans="6:7" ht="15.75">
+      <c r="F115" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="G115" s="6" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="115" ht="15" spans="6:7">
-      <c r="F115" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="G115" s="6" t="s">
+    <row r="116" spans="6:7" ht="15.75">
+      <c r="F116" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="G116" s="6" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="116" ht="15" spans="6:7">
-      <c r="F116" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="G116" s="6" t="s">
+    <row r="117" spans="6:7" ht="15.75">
+      <c r="F117" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="G117" s="6" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="117" ht="15" spans="6:7">
-      <c r="F117" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="G117" s="6" t="s">
+    <row r="118" spans="6:7" ht="15.75">
+      <c r="F118" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="G118" s="6" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="118" ht="15" spans="6:7">
-      <c r="F118" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="G118" s="6" t="s">
+    <row r="119" spans="6:7" ht="15.75">
+      <c r="F119" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="G119" s="6" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="119" ht="15" spans="6:7">
-      <c r="F119" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="G119" s="6" t="s">
+    <row r="120" spans="6:7" ht="15.75">
+      <c r="F120" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="G120" s="6" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="120" ht="15" spans="6:7">
-      <c r="F120" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="G120" s="6" t="s">
+    <row r="121" spans="6:7" ht="15.75">
+      <c r="F121" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="G121" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="122" spans="6:7" ht="15.75">
+      <c r="F122" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="G122" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="123" spans="6:7" ht="15.75">
+      <c r="F123" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="G123" s="6" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="121" ht="15" spans="6:7">
-      <c r="F121" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="G121" s="6" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="122" ht="15" spans="6:7">
-      <c r="F122" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="G122" s="6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="123" ht="15" spans="6:7">
-      <c r="F123" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="G123" s="6" t="s">
+    <row r="124" spans="6:7" ht="15.75">
+      <c r="F124" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="G124" s="6" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="124" ht="15" spans="6:7">
-      <c r="F124" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="G124" s="6" t="s">
+    <row r="125" spans="6:7" ht="15.75">
+      <c r="F125" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="G125" s="6" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="125" ht="15" spans="6:7">
-      <c r="F125" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="G125" s="6" t="s">
+    <row r="126" spans="6:7" ht="15.75">
+      <c r="F126" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="G126" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="127" spans="6:7" ht="15.75">
+      <c r="F127" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="G127" s="6" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="126" ht="15" spans="6:7">
-      <c r="F126" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="G126" s="6" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="127" ht="15" spans="6:7">
-      <c r="F127" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="G127" s="6" t="s">
+    <row r="128" spans="6:7" ht="15.75">
+      <c r="F128" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="G128" s="6" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="128" ht="15" spans="6:7">
-      <c r="F128" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="G128" s="6" t="s">
+    <row r="129" spans="6:7" ht="15.75">
+      <c r="F129" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="G129" s="6" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="129" ht="15" spans="6:7">
-      <c r="F129" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="G129" s="6" t="s">
+    <row r="130" spans="6:7" ht="15.75">
+      <c r="F130" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="G130" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="131" spans="6:7" ht="15.75">
+      <c r="F131" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="G131" s="6" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="130" customFormat="1" ht="15" spans="6:7">
-      <c r="F130" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="G130" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="131" customFormat="1" ht="15" spans="6:7">
-      <c r="F131" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="G131" s="6" t="s">
+    <row r="132" spans="6:7" ht="15.75">
+      <c r="F132" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="G132" s="6" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="132" customFormat="1" ht="15" spans="6:7">
-      <c r="F132" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="G132" s="6" t="s">
+    <row r="133" spans="6:7" ht="15.75">
+      <c r="F133" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="G133" s="6" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="133" customFormat="1" ht="15" spans="6:7">
-      <c r="F133" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="G133" s="6" t="s">
+    <row r="134" spans="6:7" ht="15.75">
+      <c r="F134" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="G134" s="6" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="134" customFormat="1" ht="15" spans="6:7">
-      <c r="F134" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="G134" s="6" t="s">
+    <row r="135" spans="6:7" ht="15.75">
+      <c r="F135" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="G135" s="6" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="135" customFormat="1" ht="15" spans="6:7">
-      <c r="F135" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="G135" s="6" t="s">
+    <row r="136" spans="6:7" ht="15.75">
+      <c r="F136" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="G136" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="137" spans="6:7" ht="15.75">
+      <c r="F137" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="G137" s="6" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="136" customFormat="1" ht="15" spans="6:7">
-      <c r="F136" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="G136" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="137" customFormat="1" ht="15" spans="6:7">
-      <c r="F137" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="G137" s="6" t="s">
+    <row r="138" spans="6:7" ht="15.75">
+      <c r="F138" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="G138" s="6" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="138" customFormat="1" ht="15" spans="6:7">
-      <c r="F138" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="G138" s="6" t="s">
+    <row r="139" spans="6:7" ht="15.75">
+      <c r="F139" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="G139" s="6" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="139" customFormat="1" ht="15" spans="6:7">
-      <c r="F139" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="G139" s="6" t="s">
+    <row r="140" spans="6:7" ht="15.75">
+      <c r="F140" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="G140" s="6" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="140" customFormat="1" ht="15" spans="6:7">
-      <c r="F140" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="G140" s="6" t="s">
+    <row r="141" spans="6:7" ht="15.75">
+      <c r="F141" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="G141" s="6" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="141" customFormat="1" ht="15" spans="6:7">
-      <c r="F141" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="G141" s="6" t="s">
+    <row r="142" spans="6:7" ht="15.75">
+      <c r="F142" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="G142" s="6" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="142" customFormat="1" ht="15" spans="6:7">
-      <c r="F142" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="G142" s="6" t="s">
+    <row r="143" spans="6:7" ht="15.75">
+      <c r="F143" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="G143" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="144" spans="6:7" ht="15.75">
+      <c r="F144" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="G144" s="6" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="143" customFormat="1" ht="15" spans="6:7">
-      <c r="F143" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="G143" s="6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="144" customFormat="1" ht="15" spans="6:7">
-      <c r="F144" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="G144" s="6" t="s">
+    <row r="145" spans="6:7" ht="15.75">
+      <c r="F145" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="G145" s="6" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="145" customFormat="1" ht="15" spans="6:7">
-      <c r="F145" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="G145" s="6" t="s">
+    <row r="146" spans="6:7" ht="15.75">
+      <c r="F146" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="G146" s="6" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="146" customFormat="1" ht="15" spans="6:7">
-      <c r="F146" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="G146" s="6" t="s">
+    <row r="147" spans="6:7" ht="15.75">
+      <c r="F147" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="G147" s="6" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="147" customFormat="1" ht="15" spans="6:7">
-      <c r="F147" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="G147" s="6" t="s">
+    <row r="148" spans="6:7" ht="15.75">
+      <c r="F148" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="G148" s="6" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="148" customFormat="1" ht="15" spans="6:7">
-      <c r="F148" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="G148" s="6" t="s">
+    <row r="149" spans="6:7" ht="15.75">
+      <c r="F149" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="G149" s="6" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="149" customFormat="1" ht="15" spans="6:7">
-      <c r="F149" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="G149" s="6" t="s">
-        <v>332</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="16" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,常规"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,常规"&amp;12 Page &amp;P</oddFooter>
@@ -5397,233 +4799,233 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="D7:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="6.2" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
     <col min="2" max="2" width="5" customWidth="1"/>
-    <col min="3" max="3" width="7.2" customWidth="1"/>
-    <col min="4" max="4" width="25.8" customWidth="1"/>
-    <col min="5" max="5" width="7.2" customWidth="1"/>
-    <col min="6" max="6" width="42.8" customWidth="1"/>
-    <col min="7" max="7" width="52.8" customWidth="1"/>
+    <col min="3" max="3" width="7.140625" customWidth="1"/>
+    <col min="4" max="4" width="25.85546875" customWidth="1"/>
+    <col min="5" max="5" width="7.140625" customWidth="1"/>
+    <col min="6" max="6" width="42.85546875" customWidth="1"/>
+    <col min="7" max="7" width="52.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:7">
+    <row r="7" spans="4:7" ht="12.75">
       <c r="D7" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="8" spans="4:7" ht="15.75">
+      <c r="F8" s="5" t="s">
         <v>334</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="8" ht="15.75" spans="6:7">
-      <c r="F8" s="5" t="s">
-        <v>335</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" ht="15.75" spans="6:7">
+    <row r="9" spans="4:7" ht="15.75">
       <c r="F9" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" ht="15.75" spans="6:7">
+    <row r="10" spans="4:7" ht="15.75">
       <c r="F10" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" ht="15.75" spans="6:7">
+    <row r="11" spans="4:7" ht="15.75">
       <c r="F11" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" ht="15.75" spans="6:7">
+    <row r="12" spans="4:7" ht="15.75">
       <c r="F12" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="13" ht="15.75" spans="6:7">
+    <row r="13" spans="4:7" ht="15.75">
       <c r="F13" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14" ht="15.75" spans="6:7">
+    <row r="14" spans="4:7" ht="15.75">
       <c r="F14" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="15" ht="15.75" spans="6:7">
+    <row r="15" spans="4:7" ht="15.75">
       <c r="F15" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G15" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="16" ht="15.75" spans="6:7">
+    <row r="16" spans="4:7" ht="15.75">
       <c r="F16" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="17" ht="15.75" spans="6:7">
+    <row r="17" spans="6:7" ht="15.75">
       <c r="F17" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="6:7" ht="15.75">
+      <c r="F18" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="6:7" ht="15.75">
+      <c r="F19" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="6:7" ht="15.75">
+      <c r="F20" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="6:7" ht="15.75">
+      <c r="F21" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="6:7" ht="15.75">
+      <c r="F22" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="6:7" ht="15.75">
+      <c r="F23" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="6:7" ht="15.75">
+      <c r="F24" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="6:7" ht="15.75">
+      <c r="F25" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="6:7" ht="15.75">
+      <c r="F26" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="27" spans="6:7" ht="15.75">
+      <c r="F27" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="G17" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" ht="15.75" spans="6:7">
-      <c r="F18" s="5" t="s">
+      <c r="G27" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="28" spans="6:7" ht="15.75">
+      <c r="F28" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="G18" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="19" ht="15.75" spans="6:7">
-      <c r="F19" s="5" t="s">
+      <c r="G28" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="29" spans="6:7" ht="15.75">
+      <c r="F29" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="G19" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" ht="15.75" spans="6:7">
-      <c r="F20" s="5" t="s">
+      <c r="G29" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="30" spans="6:7" ht="15.75">
+      <c r="F30" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="G20" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="21" ht="15.75" spans="6:7">
-      <c r="F21" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="22" ht="15.75" spans="6:7">
-      <c r="F22" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="23" ht="15.75" spans="6:7">
-      <c r="F23" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="24" ht="15.75" spans="6:7">
-      <c r="F24" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="25" ht="15.75" spans="6:7">
-      <c r="F25" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="26" ht="15.75" spans="6:7">
-      <c r="F26" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="27" ht="15.75" spans="6:7">
-      <c r="F27" s="5" t="s">
+      <c r="G30" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="31" spans="6:7" ht="15.75">
+      <c r="F31" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="G27" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="28" ht="15.75" spans="6:7">
-      <c r="F28" s="5" t="s">
-        <v>337</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="29" ht="15.75" spans="6:7">
-      <c r="F29" s="5" t="s">
-        <v>337</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="30" ht="15.75" spans="6:7">
-      <c r="F30" s="5" t="s">
-        <v>337</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="31" ht="15.75" spans="6:7">
-      <c r="F31" s="5" t="s">
-        <v>338</v>
-      </c>
       <c r="G31" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <phoneticPr fontId="16" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,标准"&amp;12&amp;A</oddHeader>
@@ -5633,462 +5035,458 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="D6:I42"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="D7:I42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A15" sqref="$A15:$XFD15"/>
+    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="3" width="8.8" customWidth="1"/>
-    <col min="4" max="4" width="27.4" customWidth="1"/>
+    <col min="1" max="3" width="8.85546875" customWidth="1"/>
+    <col min="4" max="4" width="27.42578125" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="23.8" customWidth="1"/>
+    <col min="6" max="6" width="23.85546875" customWidth="1"/>
     <col min="7" max="7" width="48" customWidth="1"/>
-    <col min="8" max="8" width="24.8" customWidth="1"/>
-    <col min="9" max="1025" width="8.8" customWidth="1"/>
+    <col min="8" max="8" width="24.85546875" customWidth="1"/>
+    <col min="9" max="1025" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" ht="13.5"/>
-    <row r="7" ht="19" customHeight="1" spans="4:9">
+    <row r="7" spans="4:9" ht="18.95" customHeight="1">
       <c r="D7" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>340</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>341</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="6:8">
+    <row r="8" spans="4:9" ht="12.75">
       <c r="F8" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="4:9" ht="12.75">
+      <c r="F9" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="4:9" ht="12.75">
+      <c r="F10" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="4:9" ht="12.75">
+      <c r="F11" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="4:9" ht="12.75">
+      <c r="F12" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="9" spans="6:8">
-      <c r="F9" s="2" t="s">
+      <c r="G12" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="4:9" ht="12.75">
+      <c r="F13" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="10" spans="6:8">
-      <c r="F10" s="2" t="s">
+      <c r="G13" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="4:9" ht="12.75">
+      <c r="F14" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="11" spans="6:8">
-      <c r="F11" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="12" customFormat="1" spans="6:8">
-      <c r="F12" s="2" t="s">
+      <c r="G14" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="4:9" ht="12.75">
+      <c r="F15" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="G12" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="13" customFormat="1" spans="6:8">
-      <c r="F13" s="2" t="s">
+      <c r="G15" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="16" spans="4:9" ht="12.75">
+      <c r="F16" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="G13" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="14" customFormat="1" spans="6:8">
-      <c r="F14" s="2" t="s">
+      <c r="G16" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="17" spans="4:8" ht="12.75">
+      <c r="F17" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="15" customFormat="1" spans="6:8">
-      <c r="F15" s="2" t="s">
+      <c r="G17" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="H17" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="G15" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="H15" s="2" t="s">
+    </row>
+    <row r="18" spans="4:8" ht="12.75">
+      <c r="F18" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="19" spans="4:8" ht="12.75">
+      <c r="F19" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="16" customFormat="1" spans="6:8">
-      <c r="F16" s="2" t="s">
+      <c r="G19" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="H19" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="G16" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="H16" s="2" t="s">
+    </row>
+    <row r="20" spans="4:8" ht="12.75">
+      <c r="F20" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="17" customFormat="1" spans="6:8">
-      <c r="F17" s="2" t="s">
+      <c r="G20" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="H20" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="G17" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="H17" s="2" t="s">
+    </row>
+    <row r="21" spans="4:8" ht="12.75">
+      <c r="F21" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="18" customFormat="1" spans="6:8">
-      <c r="F18" s="2" t="s">
+      <c r="G21" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="H21" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="G18" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="H18" s="2" t="s">
+    </row>
+    <row r="22" spans="4:8" ht="12.75">
+      <c r="F22" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="19" customFormat="1" spans="6:8">
-      <c r="F19" t="s">
-        <v>346</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="20" customFormat="1" spans="6:8">
-      <c r="F20" t="s">
-        <v>346</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="21" customFormat="1" spans="6:8">
-      <c r="F21" t="s">
-        <v>346</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="22" customFormat="1" spans="6:8">
-      <c r="F22" t="s">
-        <v>346</v>
-      </c>
       <c r="G22" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="23" customFormat="1" spans="4:8">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="23" spans="4:8" ht="12.75">
       <c r="D23" s="2"/>
-      <c r="E23"/>
       <c r="F23" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="24" customFormat="1" spans="6:8">
+    <row r="24" spans="4:8" ht="12.75">
       <c r="F24" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="25" customFormat="1" spans="6:8">
+    <row r="25" spans="4:8" ht="12.75">
       <c r="F25" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="26" customFormat="1" spans="6:8">
+    <row r="26" spans="4:8" ht="12.75">
       <c r="F26" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="27" customFormat="1" spans="6:8">
+    <row r="27" spans="4:8" ht="12.75">
       <c r="F27" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="28" customFormat="1" spans="6:8">
+    <row r="28" spans="4:8" ht="12.75">
       <c r="F28" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="29" customFormat="1" spans="6:8">
+    <row r="29" spans="4:8" ht="12.75">
       <c r="F29" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="30" customFormat="1" spans="6:8">
+    <row r="30" spans="4:8" ht="12.75">
       <c r="F30" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="31" customFormat="1" spans="6:8">
+    <row r="31" spans="4:8" ht="12.75">
       <c r="F31" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="32" customFormat="1" spans="6:8">
+    <row r="32" spans="4:8" ht="12.75">
       <c r="F32" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="33" customFormat="1" spans="6:8">
+    <row r="33" spans="6:8" ht="12.75">
       <c r="F33" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="34" customFormat="1" spans="6:8">
+    <row r="34" spans="6:8" ht="12.75">
       <c r="F34" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="35" customFormat="1" spans="6:8">
+    <row r="35" spans="6:8" ht="12.75">
       <c r="F35" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H35" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="36" customFormat="1" spans="6:8">
+    <row r="36" spans="6:8" ht="12.75">
       <c r="F36" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H36" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="37" customFormat="1" spans="6:8">
+    <row r="37" spans="6:8" ht="12.75">
       <c r="F37" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H37" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="38" customFormat="1" spans="6:8">
+    <row r="38" spans="6:8" ht="12.75">
       <c r="F38" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="39" customFormat="1" spans="6:8">
+    <row r="39" spans="6:8" ht="12.75">
       <c r="F39" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H39" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="40" customFormat="1" spans="6:8">
+    <row r="40" spans="6:8" ht="12.75">
       <c r="F40" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H40" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="41" customFormat="1" spans="6:8">
+    <row r="41" spans="6:8" ht="12.75">
       <c r="F41" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H41" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="42" customFormat="1" spans="6:8">
+    <row r="42" spans="6:8" ht="12.75">
       <c r="F42" t="s">
+        <v>345</v>
+      </c>
+      <c r="G42" s="2" t="s">
         <v>346</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>347</v>
       </c>
       <c r="H42" s="2" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.510416666666667" footer="0.510416666666667"/>
+  <phoneticPr fontId="16" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51041666666666696" footer="0.51041666666666696"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="D7:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.2" defaultRowHeight="12.75" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12"/>
   <cols>
-    <col min="6" max="6" width="18.2" customWidth="1"/>
-    <col min="7" max="7" width="15.8" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" customWidth="1"/>
     <col min="8" max="8" width="18" customWidth="1"/>
-    <col min="9" max="9" width="36.4" customWidth="1"/>
-    <col min="10" max="10" width="15.2" customWidth="1"/>
-    <col min="11" max="11" width="11.2" customWidth="1"/>
+    <col min="9" max="9" width="36.42578125" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" customWidth="1"/>
+    <col min="11" max="11" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="4:11">
       <c r="D7" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E7" t="s">
         <v>1</v>
@@ -6103,237 +5501,235 @@
         <v>5</v>
       </c>
       <c r="I7" t="s">
+        <v>348</v>
+      </c>
+      <c r="J7" t="s">
         <v>349</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>350</v>
       </c>
-      <c r="K7" t="s">
+    </row>
+    <row r="8" spans="4:11">
+      <c r="F8" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="8" spans="6:11">
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>352</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>353</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>354</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>355</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>356</v>
       </c>
-      <c r="K8" t="s">
-        <v>357</v>
-      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="D7:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.2" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12"/>
   <cols>
-    <col min="4" max="4" width="21.4" customWidth="1"/>
+    <col min="4" max="4" width="21.42578125" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="13.2" customWidth="1"/>
-    <col min="7" max="7" width="25.4" customWidth="1"/>
-    <col min="8" max="9" width="18.2" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" customWidth="1"/>
+    <col min="7" max="7" width="25.42578125" customWidth="1"/>
+    <col min="8" max="9" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="4:9">
       <c r="D7" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E7" t="s">
         <v>1</v>
       </c>
       <c r="F7" t="s">
+        <v>358</v>
+      </c>
+      <c r="G7" t="s">
         <v>359</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>360</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>361</v>
       </c>
-      <c r="I7" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="8" spans="6:9">
+    </row>
+    <row r="8" spans="4:9">
       <c r="F8" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="H8" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I8" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="9" spans="6:9">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="9" spans="4:9">
       <c r="F9" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="H9" t="s">
+        <v>363</v>
+      </c>
+      <c r="I9" t="s">
         <v>364</v>
       </c>
-      <c r="I9" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="10" spans="6:9">
+    </row>
+    <row r="10" spans="4:9">
       <c r="F10" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="H10" t="s">
+        <v>365</v>
+      </c>
+      <c r="I10" t="s">
         <v>366</v>
       </c>
-      <c r="I10" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="11" spans="6:9">
+    </row>
+    <row r="11" spans="4:9">
       <c r="F11" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="H11" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="I11" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="D7:L9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.2" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12"/>
   <cols>
-    <col min="4" max="4" width="22.2" customWidth="1"/>
-    <col min="6" max="6" width="18.8" customWidth="1"/>
-    <col min="7" max="7" width="25.8" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" customWidth="1"/>
+    <col min="7" max="7" width="25.85546875" customWidth="1"/>
     <col min="8" max="8" width="36" customWidth="1"/>
-    <col min="9" max="9" width="22.2" customWidth="1"/>
-    <col min="10" max="10" width="25.8" customWidth="1"/>
-    <col min="11" max="11" width="19.8" customWidth="1"/>
+    <col min="9" max="9" width="22.140625" customWidth="1"/>
+    <col min="10" max="10" width="25.85546875" customWidth="1"/>
+    <col min="11" max="11" width="19.85546875" customWidth="1"/>
     <col min="12" max="12" width="21" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="4:12">
       <c r="D7" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E7" t="s">
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G7" t="s">
+        <v>369</v>
+      </c>
+      <c r="H7" t="s">
         <v>370</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>371</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>372</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>373</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>374</v>
       </c>
-      <c r="L7" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="8" spans="6:11">
+    </row>
+    <row r="8" spans="4:12">
       <c r="F8" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="H8" t="s">
+        <v>375</v>
+      </c>
+      <c r="I8" t="s">
         <v>376</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>377</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>378</v>
       </c>
-      <c r="K8" t="s">
+    </row>
+    <row r="9" spans="4:12">
+      <c r="F9" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="9" spans="6:12">
-      <c r="F9" t="s">
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9" t="s">
         <v>380</v>
       </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>381</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
+        <v>377</v>
+      </c>
+      <c r="K9" t="s">
         <v>382</v>
       </c>
-      <c r="J9" t="s">
-        <v>378</v>
-      </c>
-      <c r="K9" t="s">
-        <v>383</v>
-      </c>
       <c r="L9">
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/resources/script/meta/micro-service-init-data.xlsx
+++ b/src/main/resources/script/meta/micro-service-init-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\base-service-openSource-0113\base-service\src\main\resources\script\meta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4ABBC0C-E886-428E-99F0-E8F7B9A78947}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A292C658-6906-4409-A075-BAF72FADD0A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="845" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="971" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="387">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -2485,10 +2485,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="D7:Q41"/>
+  <dimension ref="D7:Q42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -2832,7 +2832,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="6:15" ht="15.75">
+    <row r="17" spans="6:17" ht="15.75">
       <c r="F17" s="7" t="s">
         <v>139</v>
       </c>
@@ -2862,7 +2862,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="6:15" ht="15.75">
+    <row r="18" spans="6:17" ht="15.75">
       <c r="F18" s="7" t="s">
         <v>142</v>
       </c>
@@ -2893,79 +2893,82 @@
       <c r="O18" s="7">
         <v>30</v>
       </c>
-    </row>
-    <row r="19" spans="6:15" ht="15.75">
-      <c r="F19" s="8" t="s">
+      <c r="Q18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="6:17" ht="15.75">
+      <c r="F19" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M19" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="N19" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="O19" s="7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="6:17" ht="15.75">
+      <c r="F20" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="G19" s="8" t="s">
+      <c r="G20" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="H19" s="8" t="s">
+      <c r="H20" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="K19" s="8" t="s">
+      <c r="I20" s="8"/>
+      <c r="J20" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="K20" s="8" t="s">
         <v>147</v>
-      </c>
-      <c r="L19" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="M19" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="N19" s="8"/>
-      <c r="O19" s="8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="6:15" ht="15.75">
-      <c r="F20" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="H20" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="I20" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="J20" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="K20" s="8" t="s">
-        <v>145</v>
       </c>
       <c r="L20" s="8" t="s">
         <v>43</v>
       </c>
       <c r="M20" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="N20" s="8" t="s">
-        <v>151</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="N20" s="8"/>
       <c r="O20" s="8">
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="6:15" ht="15.75">
+    <row r="21" spans="6:17" ht="15.75">
       <c r="F21" s="8" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>115</v>
+        <v>149</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>116</v>
+        <v>150</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="J21" s="8" t="s">
         <v>14</v>
@@ -2980,24 +2983,24 @@
         <v>112</v>
       </c>
       <c r="N21" s="8" t="s">
-        <v>117</v>
+        <v>151</v>
       </c>
       <c r="O21" s="8">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="6:15" ht="15.75">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="6:17" ht="15.75">
       <c r="F22" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="G22" s="9" t="s">
-        <v>154</v>
+        <v>152</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>115</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>155</v>
+        <v>116</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J22" s="8" t="s">
         <v>14</v>
@@ -3012,24 +3015,24 @@
         <v>112</v>
       </c>
       <c r="N22" s="8" t="s">
-        <v>156</v>
+        <v>117</v>
       </c>
       <c r="O22" s="8">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="23" spans="6:15" ht="15.75">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="6:17" ht="15.75">
       <c r="F23" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>158</v>
+        <v>153</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>154</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J23" s="8" t="s">
         <v>14</v>
@@ -3044,84 +3047,84 @@
         <v>112</v>
       </c>
       <c r="N23" s="8" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="O23" s="8">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="24" spans="6:15" ht="15.75">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="6:17" ht="15.75">
       <c r="F24" s="8" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>119</v>
+        <v>158</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="I24" s="8"/>
+        <v>159</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>51</v>
+      </c>
       <c r="J24" s="8" t="s">
         <v>14</v>
       </c>
       <c r="K24" s="8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="L24" s="8" t="s">
         <v>43</v>
       </c>
       <c r="M24" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="N24" s="8"/>
+        <v>112</v>
+      </c>
+      <c r="N24" s="8" t="s">
+        <v>160</v>
+      </c>
       <c r="O24" s="8">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="6:15" ht="15.75">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="6:17" ht="15.75">
       <c r="F25" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="I25" s="8" t="s">
-        <v>54</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="I25" s="8"/>
       <c r="J25" s="8" t="s">
         <v>14</v>
       </c>
       <c r="K25" s="8" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="L25" s="8" t="s">
         <v>43</v>
       </c>
       <c r="M25" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="N25" s="8" t="s">
-        <v>124</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="N25" s="8"/>
       <c r="O25" s="8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="6:15" ht="15.75">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="6:17" ht="15.75">
       <c r="F26" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="I26" s="8" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="J26" s="8" t="s">
         <v>14</v>
@@ -3136,116 +3139,116 @@
         <v>112</v>
       </c>
       <c r="N26" s="8" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="O26" s="8">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="6:15" ht="15.75">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="6:17" ht="15.75">
       <c r="F27" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="I27" s="8" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="J27" s="8" t="s">
         <v>14</v>
       </c>
       <c r="K27" s="8" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="L27" s="8" t="s">
         <v>43</v>
       </c>
       <c r="M27" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="N27" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="O27" s="8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="6:17" ht="15.75">
+      <c r="F28" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="I28" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="J28" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="K28" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="L28" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="M28" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="N27" s="8"/>
-      <c r="O27" s="8">
+      <c r="N28" s="8"/>
+      <c r="O28" s="8">
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="6:15" ht="15.75">
-      <c r="F28" s="10" t="s">
+    <row r="29" spans="6:17" ht="15.75">
+      <c r="F29" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="G28" s="10" t="s">
+      <c r="G29" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="H28" s="10" t="s">
+      <c r="H29" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="K28" s="10" t="s">
+      <c r="I29" s="10"/>
+      <c r="J29" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="K29" s="10" t="s">
         <v>168</v>
-      </c>
-      <c r="L28" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="M28" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="N28" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="O28" s="10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="6:15" ht="15.75">
-      <c r="F29" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="G29" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="H29" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="I29" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="J29" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="K29" s="10" t="s">
-        <v>165</v>
       </c>
       <c r="L29" s="10" t="s">
         <v>43</v>
       </c>
       <c r="M29" s="10" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="N29" s="10" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="O29" s="10">
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="6:15" ht="15.75">
+    <row r="30" spans="6:17" ht="15.75">
       <c r="F30" s="10" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="H30" s="10" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="I30" s="10" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J30" s="10" t="s">
         <v>14</v>
@@ -3260,24 +3263,24 @@
         <v>112</v>
       </c>
       <c r="N30" s="10" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="O30" s="10">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="31" spans="6:15" ht="15.75">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="6:17" ht="15.75">
       <c r="F31" s="10" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G31" s="10" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="H31" s="10" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="I31" s="10" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="J31" s="10" t="s">
         <v>14</v>
@@ -3292,56 +3295,56 @@
         <v>112</v>
       </c>
       <c r="N31" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="O31" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="6:17" ht="15.75">
+      <c r="F32" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="G32" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="H32" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="I32" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="J32" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="K32" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="L32" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="M32" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="N32" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="O31" s="10">
+      <c r="O32" s="10">
         <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="6:15" ht="16.5">
-      <c r="F32" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="G32" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="H32" s="11" t="s">
-        <v>184</v>
-      </c>
-      <c r="I32" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="J32" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="K32" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="L32" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="M32" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="N32" s="14" t="s">
-        <v>186</v>
-      </c>
-      <c r="O32" s="11">
-        <v>50</v>
       </c>
     </row>
     <row r="33" spans="6:15" ht="16.5">
       <c r="F33" s="11" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="H33" s="11" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="I33" s="11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="J33" s="11" t="s">
         <v>14</v>
@@ -3356,24 +3359,24 @@
         <v>112</v>
       </c>
       <c r="N33" s="14" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="O33" s="11">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="6:15" ht="16.5">
       <c r="F34" s="11" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="I34" s="11" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="J34" s="11" t="s">
         <v>14</v>
@@ -3387,220 +3390,252 @@
       <c r="M34" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="N34" s="11" t="s">
+      <c r="N34" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="O34" s="11">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="6:15" ht="16.5">
+      <c r="F35" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="G35" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="H35" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="I35" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="J35" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K35" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="L35" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="M35" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="N35" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="O34" s="11">
+      <c r="O35" s="11">
         <v>70</v>
-      </c>
-    </row>
-    <row r="35" spans="6:15" ht="15.75">
-      <c r="F35" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="G35" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="H35" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="I35" s="12"/>
-      <c r="J35" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="K35" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="L35" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="M35" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="N35" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="O35" s="12">
-        <v>10</v>
       </c>
     </row>
     <row r="36" spans="6:15" ht="15.75">
       <c r="F36" s="12" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="G36" s="12" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="H36" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="I36" s="12" t="s">
-        <v>81</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="I36" s="12"/>
       <c r="J36" s="12" t="s">
         <v>14</v>
       </c>
       <c r="K36" s="12" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="L36" s="12" t="s">
         <v>83</v>
       </c>
       <c r="M36" s="12" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="N36" s="12" t="s">
-        <v>169</v>
+        <v>199</v>
       </c>
       <c r="O36" s="12">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="6:15" ht="15.75">
       <c r="F37" s="12" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="G37" s="12" t="s">
-        <v>119</v>
+        <v>201</v>
       </c>
       <c r="H37" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="I37" s="12"/>
+        <v>202</v>
+      </c>
+      <c r="I37" s="12" t="s">
+        <v>81</v>
+      </c>
       <c r="J37" s="12" t="s">
         <v>14</v>
       </c>
       <c r="K37" s="12" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="L37" s="12" t="s">
         <v>83</v>
       </c>
       <c r="M37" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="N37" s="12"/>
+        <v>112</v>
+      </c>
+      <c r="N37" s="12" t="s">
+        <v>169</v>
+      </c>
       <c r="O37" s="12">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" spans="6:15" ht="15.75">
       <c r="F38" s="12" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G38" s="12" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="H38" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="I38" s="12" t="s">
-        <v>85</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="I38" s="12"/>
       <c r="J38" s="12" t="s">
         <v>14</v>
       </c>
       <c r="K38" s="12" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="L38" s="12" t="s">
         <v>83</v>
       </c>
       <c r="M38" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="N38" s="12" t="s">
-        <v>205</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="N38" s="12"/>
       <c r="O38" s="12">
-        <v>10</v>
+        <v>80</v>
       </c>
     </row>
     <row r="39" spans="6:15" ht="15.75">
       <c r="F39" s="12" t="s">
-        <v>206</v>
-      </c>
-      <c r="G39" s="13" t="s">
-        <v>207</v>
+        <v>204</v>
+      </c>
+      <c r="G39" s="12" t="s">
+        <v>122</v>
       </c>
       <c r="H39" s="12" t="s">
-        <v>208</v>
+        <v>123</v>
       </c>
       <c r="I39" s="12" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="J39" s="12" t="s">
         <v>14</v>
       </c>
       <c r="K39" s="12" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="L39" s="12" t="s">
         <v>83</v>
       </c>
       <c r="M39" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="N39" s="12"/>
+        <v>112</v>
+      </c>
+      <c r="N39" s="12" t="s">
+        <v>205</v>
+      </c>
       <c r="O39" s="12">
         <v>10</v>
       </c>
     </row>
     <row r="40" spans="6:15" ht="15.75">
       <c r="F40" s="12" t="s">
-        <v>209</v>
-      </c>
-      <c r="G40" s="12" t="s">
-        <v>210</v>
+        <v>206</v>
+      </c>
+      <c r="G40" s="13" t="s">
+        <v>207</v>
       </c>
       <c r="H40" s="12" t="s">
-        <v>211</v>
+        <v>208</v>
+      </c>
+      <c r="I40" s="12" t="s">
+        <v>88</v>
       </c>
       <c r="J40" s="12" t="s">
         <v>14</v>
       </c>
       <c r="K40" s="12" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="L40" s="12" t="s">
         <v>83</v>
       </c>
       <c r="M40" s="12" t="s">
-        <v>108</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="N40" s="12"/>
       <c r="O40" s="12">
-        <v>60</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="6:15" ht="15.75">
       <c r="F41" s="12" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G41" s="12" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="H41" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="I41" s="12" t="s">
-        <v>91</v>
+        <v>211</v>
       </c>
       <c r="J41" s="12" t="s">
         <v>14</v>
       </c>
       <c r="K41" s="12" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="L41" s="12" t="s">
         <v>83</v>
       </c>
       <c r="M41" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="O41" s="12">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="42" spans="6:15" ht="15.75">
+      <c r="F42" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="G42" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="H42" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="I42" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="J42" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="K42" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="L42" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="M42" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="N41" s="12" t="s">
+      <c r="N42" s="12" t="s">
         <v>215</v>
       </c>
-      <c r="O41" s="12">
+      <c r="O42" s="12">
         <v>10</v>
       </c>
     </row>

--- a/src/main/resources/script/meta/micro-service-init-data.xlsx
+++ b/src/main/resources/script/meta/micro-service-init-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\base-service-openSource-0113\base-service\src\main\resources\script\meta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A292C658-6906-4409-A075-BAF72FADD0A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B7B6D03-24B1-46E4-96C3-60035F453367}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="845" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="845" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="390">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -1215,6 +1215,17 @@
   </si>
   <si>
     <t>choerodon.code.organization.setting</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.code.organization.security-client</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.code.organization.client</t>
+  </si>
+  <si>
+    <t>choerodon.code.organization.client</t>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
 </sst>
@@ -1652,7 +1663,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="D7:O35"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
@@ -2487,8 +2498,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="D7:Q42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
+    <sheetView topLeftCell="A2" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -2864,7 +2875,7 @@
     </row>
     <row r="18" spans="6:17" ht="15.75">
       <c r="F18" s="7" t="s">
-        <v>142</v>
+        <v>387</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>143</v>
@@ -2899,7 +2910,7 @@
     </row>
     <row r="19" spans="6:17" ht="15.75">
       <c r="F19" s="7" t="s">
-        <v>142</v>
+        <v>389</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>143</v>
@@ -3654,8 +3665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="D7:H149"/>
   <sheetViews>
-    <sheetView topLeftCell="A104" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G147" sqref="G147"/>
+    <sheetView topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -4064,7 +4075,7 @@
     </row>
     <row r="55" spans="6:7" ht="15.75">
       <c r="F55" s="6" t="s">
-        <v>142</v>
+        <v>388</v>
       </c>
       <c r="G55" s="6" t="s">
         <v>39</v>
@@ -4072,7 +4083,7 @@
     </row>
     <row r="56" spans="6:7" ht="15.75">
       <c r="F56" s="6" t="s">
-        <v>142</v>
+        <v>388</v>
       </c>
       <c r="G56" s="6" t="s">
         <v>256</v>
@@ -4080,7 +4091,7 @@
     </row>
     <row r="57" spans="6:7" ht="15.75">
       <c r="F57" s="6" t="s">
-        <v>142</v>
+        <v>388</v>
       </c>
       <c r="G57" s="6" t="s">
         <v>257</v>
@@ -4088,7 +4099,7 @@
     </row>
     <row r="58" spans="6:7" ht="15.75">
       <c r="F58" s="6" t="s">
-        <v>142</v>
+        <v>388</v>
       </c>
       <c r="G58" s="6" t="s">
         <v>258</v>
@@ -4096,7 +4107,7 @@
     </row>
     <row r="59" spans="6:7" ht="15.75">
       <c r="F59" s="6" t="s">
-        <v>142</v>
+        <v>388</v>
       </c>
       <c r="G59" s="6" t="s">
         <v>259</v>
@@ -4104,7 +4115,7 @@
     </row>
     <row r="60" spans="6:7" ht="15.75">
       <c r="F60" s="6" t="s">
-        <v>142</v>
+        <v>388</v>
       </c>
       <c r="G60" s="6" t="s">
         <v>260</v>
@@ -4112,7 +4123,7 @@
     </row>
     <row r="61" spans="6:7" ht="15.75">
       <c r="F61" s="6" t="s">
-        <v>142</v>
+        <v>388</v>
       </c>
       <c r="G61" s="6" t="s">
         <v>261</v>
@@ -4120,7 +4131,7 @@
     </row>
     <row r="62" spans="6:7" ht="15.75">
       <c r="F62" s="6" t="s">
-        <v>142</v>
+        <v>388</v>
       </c>
       <c r="G62" s="6" t="s">
         <v>262</v>
@@ -4128,7 +4139,7 @@
     </row>
     <row r="63" spans="6:7" ht="15.75">
       <c r="F63" s="6" t="s">
-        <v>142</v>
+        <v>388</v>
       </c>
       <c r="G63" s="6" t="s">
         <v>263</v>
@@ -4837,7 +4848,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="D7:G31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
@@ -5073,7 +5084,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="D7:I42"/>
   <sheetViews>
-    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
       <selection activeCell="A15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
@@ -5674,8 +5685,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="D7:L9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12"/>

--- a/src/main/resources/script/meta/micro-service-init-data.xlsx
+++ b/src/main/resources/script/meta/micro-service-init-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\base-service-openSource-0113\base-service\src\main\resources\script\meta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B7B6D03-24B1-46E4-96C3-60035F453367}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EA49A60-C744-4876-B261-A0ADFA01E9AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="845" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="845" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="983" uniqueCount="392">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -1226,6 +1226,14 @@
   </si>
   <si>
     <t>choerodon.code.organization.client</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.code.organization.client</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.code.organization.security-client</t>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
 </sst>
@@ -2498,8 +2506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="D7:Q42"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView topLeftCell="F2" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -3665,8 +3673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="D7:H149"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F55" sqref="F55"/>
+    <sheetView topLeftCell="A44" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F59" sqref="F59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -4075,7 +4083,7 @@
     </row>
     <row r="55" spans="6:7" ht="15.75">
       <c r="F55" s="6" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="G55" s="6" t="s">
         <v>39</v>
@@ -5082,10 +5090,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="D7:I42"/>
+  <dimension ref="D7:I43"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD15"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="K45" sqref="K45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -5395,7 +5403,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="6:8" ht="12.75">
+    <row r="33" spans="6:9" ht="12.75">
       <c r="F33" s="3" t="s">
         <v>345</v>
       </c>
@@ -5406,7 +5414,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="6:8" ht="12.75">
+    <row r="34" spans="6:9" ht="12.75">
       <c r="F34" t="s">
         <v>345</v>
       </c>
@@ -5417,7 +5425,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="6:8" ht="12.75">
+    <row r="35" spans="6:9" ht="12.75">
       <c r="F35" t="s">
         <v>345</v>
       </c>
@@ -5428,7 +5436,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="6:8" ht="12.75">
+    <row r="36" spans="6:9" ht="12.75">
       <c r="F36" t="s">
         <v>345</v>
       </c>
@@ -5439,7 +5447,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="6:8" ht="12.75">
+    <row r="37" spans="6:9" ht="12.75">
       <c r="F37" t="s">
         <v>345</v>
       </c>
@@ -5450,7 +5458,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="6:8" ht="12.75">
+    <row r="38" spans="6:9" ht="12.75">
       <c r="F38" t="s">
         <v>345</v>
       </c>
@@ -5461,7 +5469,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="6:8" ht="12.75">
+    <row r="39" spans="6:9" ht="12.75">
       <c r="F39" t="s">
         <v>345</v>
       </c>
@@ -5472,7 +5480,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="6:8" ht="12.75">
+    <row r="40" spans="6:9" ht="12.75">
       <c r="F40" t="s">
         <v>345</v>
       </c>
@@ -5483,25 +5491,39 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="6:8" ht="12.75">
+    <row r="41" spans="6:9" ht="12.75">
       <c r="F41" t="s">
         <v>345</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>142</v>
+        <v>391</v>
       </c>
       <c r="H41" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="42" spans="6:8" ht="12.75">
+      <c r="I41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="6:9" ht="12.75">
       <c r="F42" t="s">
         <v>345</v>
       </c>
       <c r="G42" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="6:9" ht="12.75">
+      <c r="F43" t="s">
+        <v>345</v>
+      </c>
+      <c r="G43" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="H42" s="2" t="s">
+      <c r="H43" s="2" t="s">
         <v>15</v>
       </c>
     </row>
@@ -5685,7 +5707,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="D7:L9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>

--- a/src/main/resources/script/meta/micro-service-init-data.xlsx
+++ b/src/main/resources/script/meta/micro-service-init-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\base-service-openSource-0113\base-service\src\main\resources\script\meta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EA49A60-C744-4876-B261-A0ADFA01E9AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D159775-C222-49E7-9407-BEECB77EE9DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="845" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="983" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="986" uniqueCount="396">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -480,9 +480,6 @@
     <t>Password Policy</t>
   </si>
   <si>
-    <t>choerodon.code.organization.security-client</t>
-  </si>
-  <si>
     <t>客户端</t>
   </si>
   <si>
@@ -1234,6 +1231,26 @@
   </si>
   <si>
     <t>choerodon.code.organization.security-client</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.code.organization.security-client</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>OFFICIAL</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>PROGRAM</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.code.organization.security</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.code.organization.client</t>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
 </sst>
@@ -1971,7 +1988,7 @@
         <v>39</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>14</v>
@@ -2746,13 +2763,13 @@
         <v>14</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>15</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="N13" s="7" t="s">
         <v>128</v>
@@ -2883,13 +2900,13 @@
     </row>
     <row r="18" spans="6:17" ht="15.75">
       <c r="F18" s="7" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G18" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H18" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="I18" s="7" t="s">
         <v>39</v>
@@ -2898,7 +2915,7 @@
         <v>14</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>15</v>
@@ -2907,7 +2924,7 @@
         <v>112</v>
       </c>
       <c r="N18" s="7" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="O18" s="7">
         <v>30</v>
@@ -2918,13 +2935,13 @@
     </row>
     <row r="19" spans="6:17" ht="15.75">
       <c r="F19" s="7" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G19" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H19" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="H19" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="I19" s="7" t="s">
         <v>39</v>
@@ -2933,7 +2950,7 @@
         <v>14</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>15</v>
@@ -2942,7 +2959,7 @@
         <v>112</v>
       </c>
       <c r="N19" s="7" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="O19" s="7">
         <v>30</v>
@@ -2950,20 +2967,20 @@
     </row>
     <row r="20" spans="6:17" ht="15.75">
       <c r="F20" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G20" s="8" t="s">
         <v>105</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="8" t="s">
         <v>14</v>
       </c>
       <c r="K20" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L20" s="8" t="s">
         <v>43</v>
@@ -2978,13 +2995,13 @@
     </row>
     <row r="21" spans="6:17" ht="15.75">
       <c r="F21" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="G21" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="G21" s="8" t="s">
+      <c r="H21" s="8" t="s">
         <v>149</v>
-      </c>
-      <c r="H21" s="8" t="s">
-        <v>150</v>
       </c>
       <c r="I21" s="8" t="s">
         <v>41</v>
@@ -2993,7 +3010,7 @@
         <v>14</v>
       </c>
       <c r="K21" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L21" s="8" t="s">
         <v>43</v>
@@ -3002,7 +3019,7 @@
         <v>112</v>
       </c>
       <c r="N21" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O21" s="8">
         <v>10</v>
@@ -3010,7 +3027,7 @@
     </row>
     <row r="22" spans="6:17" ht="15.75">
       <c r="F22" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G22" s="8" t="s">
         <v>115</v>
@@ -3025,7 +3042,7 @@
         <v>14</v>
       </c>
       <c r="K22" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L22" s="8" t="s">
         <v>43</v>
@@ -3042,13 +3059,13 @@
     </row>
     <row r="23" spans="6:17" ht="15.75">
       <c r="F23" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="G23" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="G23" s="9" t="s">
+      <c r="H23" s="8" t="s">
         <v>154</v>
-      </c>
-      <c r="H23" s="8" t="s">
-        <v>155</v>
       </c>
       <c r="I23" s="8" t="s">
         <v>48</v>
@@ -3057,7 +3074,7 @@
         <v>14</v>
       </c>
       <c r="K23" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L23" s="8" t="s">
         <v>43</v>
@@ -3066,7 +3083,7 @@
         <v>112</v>
       </c>
       <c r="N23" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O23" s="8">
         <v>50</v>
@@ -3074,13 +3091,13 @@
     </row>
     <row r="24" spans="6:17" ht="15.75">
       <c r="F24" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="G24" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="G24" s="8" t="s">
+      <c r="H24" s="8" t="s">
         <v>158</v>
-      </c>
-      <c r="H24" s="8" t="s">
-        <v>159</v>
       </c>
       <c r="I24" s="8" t="s">
         <v>51</v>
@@ -3089,7 +3106,7 @@
         <v>14</v>
       </c>
       <c r="K24" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L24" s="8" t="s">
         <v>43</v>
@@ -3098,7 +3115,7 @@
         <v>112</v>
       </c>
       <c r="N24" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O24" s="8">
         <v>60</v>
@@ -3106,7 +3123,7 @@
     </row>
     <row r="25" spans="6:17" ht="15.75">
       <c r="F25" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G25" s="8" t="s">
         <v>119</v>
@@ -3119,7 +3136,7 @@
         <v>14</v>
       </c>
       <c r="K25" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L25" s="8" t="s">
         <v>43</v>
@@ -3134,7 +3151,7 @@
     </row>
     <row r="26" spans="6:17" ht="15.75">
       <c r="F26" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G26" s="8" t="s">
         <v>122</v>
@@ -3149,7 +3166,7 @@
         <v>14</v>
       </c>
       <c r="K26" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L26" s="8" t="s">
         <v>43</v>
@@ -3166,7 +3183,7 @@
     </row>
     <row r="27" spans="6:17" ht="15.75">
       <c r="F27" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G27" s="8" t="s">
         <v>126</v>
@@ -3181,7 +3198,7 @@
         <v>14</v>
       </c>
       <c r="K27" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L27" s="8" t="s">
         <v>43</v>
@@ -3198,7 +3215,7 @@
     </row>
     <row r="28" spans="6:17" ht="15.75">
       <c r="F28" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G28" s="8" t="s">
         <v>140</v>
@@ -3213,7 +3230,7 @@
         <v>14</v>
       </c>
       <c r="K28" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L28" s="8" t="s">
         <v>43</v>
@@ -3228,20 +3245,20 @@
     </row>
     <row r="29" spans="6:17" ht="15.75">
       <c r="F29" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="G29" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="G29" s="10" t="s">
+      <c r="H29" s="10" t="s">
         <v>166</v>
-      </c>
-      <c r="H29" s="10" t="s">
-        <v>167</v>
       </c>
       <c r="I29" s="10"/>
       <c r="J29" s="10" t="s">
         <v>14</v>
       </c>
       <c r="K29" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="L29" s="10" t="s">
         <v>43</v>
@@ -3250,7 +3267,7 @@
         <v>108</v>
       </c>
       <c r="N29" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O29" s="10">
         <v>10</v>
@@ -3258,13 +3275,13 @@
     </row>
     <row r="30" spans="6:17" ht="15.75">
       <c r="F30" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="G30" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="G30" s="10" t="s">
+      <c r="H30" s="10" t="s">
         <v>171</v>
-      </c>
-      <c r="H30" s="10" t="s">
-        <v>172</v>
       </c>
       <c r="I30" s="10" t="s">
         <v>63</v>
@@ -3273,7 +3290,7 @@
         <v>14</v>
       </c>
       <c r="K30" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L30" s="10" t="s">
         <v>43</v>
@@ -3282,7 +3299,7 @@
         <v>112</v>
       </c>
       <c r="N30" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O30" s="10">
         <v>10</v>
@@ -3290,13 +3307,13 @@
     </row>
     <row r="31" spans="6:17" ht="15.75">
       <c r="F31" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="G31" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="G31" s="10" t="s">
+      <c r="H31" s="10" t="s">
         <v>175</v>
-      </c>
-      <c r="H31" s="10" t="s">
-        <v>176</v>
       </c>
       <c r="I31" s="10" t="s">
         <v>66</v>
@@ -3305,7 +3322,7 @@
         <v>14</v>
       </c>
       <c r="K31" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L31" s="10" t="s">
         <v>43</v>
@@ -3314,7 +3331,7 @@
         <v>112</v>
       </c>
       <c r="N31" s="10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O31" s="10">
         <v>20</v>
@@ -3322,13 +3339,13 @@
     </row>
     <row r="32" spans="6:17" ht="15.75">
       <c r="F32" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="G32" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="G32" s="10" t="s">
+      <c r="H32" s="10" t="s">
         <v>179</v>
-      </c>
-      <c r="H32" s="10" t="s">
-        <v>180</v>
       </c>
       <c r="I32" s="10" t="s">
         <v>69</v>
@@ -3337,7 +3354,7 @@
         <v>14</v>
       </c>
       <c r="K32" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L32" s="10" t="s">
         <v>43</v>
@@ -3346,7 +3363,7 @@
         <v>112</v>
       </c>
       <c r="N32" s="10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O32" s="10">
         <v>30</v>
@@ -3354,13 +3371,13 @@
     </row>
     <row r="33" spans="6:15" ht="16.5">
       <c r="F33" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="G33" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="G33" s="11" t="s">
+      <c r="H33" s="11" t="s">
         <v>183</v>
-      </c>
-      <c r="H33" s="11" t="s">
-        <v>184</v>
       </c>
       <c r="I33" s="11" t="s">
         <v>72</v>
@@ -3369,7 +3386,7 @@
         <v>14</v>
       </c>
       <c r="K33" s="11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L33" s="11" t="s">
         <v>43</v>
@@ -3378,7 +3395,7 @@
         <v>112</v>
       </c>
       <c r="N33" s="14" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O33" s="11">
         <v>50</v>
@@ -3386,13 +3403,13 @@
     </row>
     <row r="34" spans="6:15" ht="16.5">
       <c r="F34" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="G34" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="G34" s="11" t="s">
+      <c r="H34" s="11" t="s">
         <v>188</v>
-      </c>
-      <c r="H34" s="11" t="s">
-        <v>189</v>
       </c>
       <c r="I34" s="11" t="s">
         <v>75</v>
@@ -3401,7 +3418,7 @@
         <v>14</v>
       </c>
       <c r="K34" s="11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L34" s="11" t="s">
         <v>43</v>
@@ -3410,7 +3427,7 @@
         <v>112</v>
       </c>
       <c r="N34" s="14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O34" s="11">
         <v>60</v>
@@ -3418,13 +3435,13 @@
     </row>
     <row r="35" spans="6:15" ht="16.5">
       <c r="F35" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="G35" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="G35" s="11" t="s">
+      <c r="H35" s="11" t="s">
         <v>192</v>
-      </c>
-      <c r="H35" s="11" t="s">
-        <v>193</v>
       </c>
       <c r="I35" s="11" t="s">
         <v>78</v>
@@ -3433,7 +3450,7 @@
         <v>14</v>
       </c>
       <c r="K35" s="11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L35" s="11" t="s">
         <v>43</v>
@@ -3442,7 +3459,7 @@
         <v>112</v>
       </c>
       <c r="N35" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O35" s="11">
         <v>70</v>
@@ -3450,20 +3467,20 @@
     </row>
     <row r="36" spans="6:15" ht="15.75">
       <c r="F36" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="G36" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="G36" s="12" t="s">
+      <c r="H36" s="12" t="s">
         <v>196</v>
-      </c>
-      <c r="H36" s="12" t="s">
-        <v>197</v>
       </c>
       <c r="I36" s="12"/>
       <c r="J36" s="12" t="s">
         <v>14</v>
       </c>
       <c r="K36" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="L36" s="12" t="s">
         <v>83</v>
@@ -3472,7 +3489,7 @@
         <v>108</v>
       </c>
       <c r="N36" s="12" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="O36" s="12">
         <v>10</v>
@@ -3480,13 +3497,13 @@
     </row>
     <row r="37" spans="6:15" ht="15.75">
       <c r="F37" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="G37" s="12" t="s">
         <v>200</v>
       </c>
-      <c r="G37" s="12" t="s">
+      <c r="H37" s="12" t="s">
         <v>201</v>
-      </c>
-      <c r="H37" s="12" t="s">
-        <v>202</v>
       </c>
       <c r="I37" s="12" t="s">
         <v>81</v>
@@ -3495,7 +3512,7 @@
         <v>14</v>
       </c>
       <c r="K37" s="12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L37" s="12" t="s">
         <v>83</v>
@@ -3504,7 +3521,7 @@
         <v>112</v>
       </c>
       <c r="N37" s="12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O37" s="12">
         <v>20</v>
@@ -3512,7 +3529,7 @@
     </row>
     <row r="38" spans="6:15" ht="15.75">
       <c r="F38" s="12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G38" s="12" t="s">
         <v>119</v>
@@ -3525,7 +3542,7 @@
         <v>14</v>
       </c>
       <c r="K38" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="L38" s="12" t="s">
         <v>83</v>
@@ -3540,7 +3557,7 @@
     </row>
     <row r="39" spans="6:15" ht="15.75">
       <c r="F39" s="12" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G39" s="12" t="s">
         <v>122</v>
@@ -3555,7 +3572,7 @@
         <v>14</v>
       </c>
       <c r="K39" s="12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L39" s="12" t="s">
         <v>83</v>
@@ -3564,7 +3581,7 @@
         <v>112</v>
       </c>
       <c r="N39" s="12" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O39" s="12">
         <v>10</v>
@@ -3572,13 +3589,13 @@
     </row>
     <row r="40" spans="6:15" ht="15.75">
       <c r="F40" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="G40" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="G40" s="13" t="s">
+      <c r="H40" s="12" t="s">
         <v>207</v>
-      </c>
-      <c r="H40" s="12" t="s">
-        <v>208</v>
       </c>
       <c r="I40" s="12" t="s">
         <v>88</v>
@@ -3587,7 +3604,7 @@
         <v>14</v>
       </c>
       <c r="K40" s="12" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="L40" s="12" t="s">
         <v>83</v>
@@ -3602,19 +3619,19 @@
     </row>
     <row r="41" spans="6:15" ht="15.75">
       <c r="F41" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="G41" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="G41" s="12" t="s">
+      <c r="H41" s="12" t="s">
         <v>210</v>
       </c>
-      <c r="H41" s="12" t="s">
-        <v>211</v>
-      </c>
       <c r="J41" s="12" t="s">
         <v>14</v>
       </c>
       <c r="K41" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="L41" s="12" t="s">
         <v>83</v>
@@ -3628,13 +3645,13 @@
     </row>
     <row r="42" spans="6:15" ht="15.75">
       <c r="F42" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="G42" s="12" t="s">
         <v>212</v>
       </c>
-      <c r="G42" s="12" t="s">
+      <c r="H42" s="12" t="s">
         <v>213</v>
-      </c>
-      <c r="H42" s="12" t="s">
-        <v>214</v>
       </c>
       <c r="I42" s="12" t="s">
         <v>91</v>
@@ -3643,7 +3660,7 @@
         <v>14</v>
       </c>
       <c r="K42" s="12" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L42" s="12" t="s">
         <v>83</v>
@@ -3652,7 +3669,7 @@
         <v>112</v>
       </c>
       <c r="N42" s="12" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="O42" s="12">
         <v>10</v>
@@ -3689,16 +3706,16 @@
   <sheetData>
     <row r="7" spans="4:8" ht="12.75" customHeight="1">
       <c r="D7" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>217</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>218</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>11</v>
@@ -3718,7 +3735,7 @@
         <v>109</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="10" spans="4:8" ht="15.75">
@@ -3726,7 +3743,7 @@
         <v>109</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="11" spans="4:8" ht="15.75">
@@ -3734,7 +3751,7 @@
         <v>109</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="12" spans="4:8" ht="15.75">
@@ -3742,7 +3759,7 @@
         <v>109</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="13" spans="4:8" ht="15.75">
@@ -3758,7 +3775,7 @@
         <v>114</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="15" spans="4:8" ht="15.75">
@@ -3766,7 +3783,7 @@
         <v>114</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="16" spans="4:8" ht="15.75">
@@ -3774,7 +3791,7 @@
         <v>114</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="17" spans="6:7" ht="15.75">
@@ -3782,7 +3799,7 @@
         <v>114</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="18" spans="6:7" ht="15.75">
@@ -3790,7 +3807,7 @@
         <v>114</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="19" spans="6:7" ht="15.75">
@@ -3798,7 +3815,7 @@
         <v>114</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="20" spans="6:7" ht="15.75">
@@ -3806,7 +3823,7 @@
         <v>114</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="21" spans="6:7" ht="15.75">
@@ -3814,7 +3831,7 @@
         <v>114</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="22" spans="6:7" ht="15.75">
@@ -3822,7 +3839,7 @@
         <v>114</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="23" spans="6:7" ht="15.75">
@@ -3830,7 +3847,7 @@
         <v>114</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="24" spans="6:7" ht="15.75">
@@ -3838,7 +3855,7 @@
         <v>114</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="25" spans="6:7" ht="15.75">
@@ -3846,7 +3863,7 @@
         <v>114</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="26" spans="6:7" ht="15.75">
@@ -3854,7 +3871,7 @@
         <v>114</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="27" spans="6:7" ht="15.75">
@@ -3862,7 +3879,7 @@
         <v>114</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="28" spans="6:7" ht="15.75">
@@ -3870,7 +3887,7 @@
         <v>114</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="29" spans="6:7" ht="15.75">
@@ -3878,7 +3895,7 @@
         <v>114</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="30" spans="6:7" ht="15.75">
@@ -3886,7 +3903,7 @@
         <v>114</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="31" spans="6:7" ht="15.75">
@@ -3894,7 +3911,7 @@
         <v>114</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="32" spans="6:7" ht="15.75">
@@ -3918,7 +3935,7 @@
         <v>129</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="35" spans="6:7" ht="15.75">
@@ -3926,7 +3943,7 @@
         <v>129</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="36" spans="6:7" ht="15.75">
@@ -3942,7 +3959,7 @@
         <v>133</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="38" spans="6:7" ht="15.75">
@@ -3950,7 +3967,7 @@
         <v>133</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="39" spans="6:7" ht="15.75">
@@ -3958,7 +3975,7 @@
         <v>133</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="40" spans="6:7" ht="15.75">
@@ -3966,7 +3983,7 @@
         <v>133</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="41" spans="6:7" ht="15.75">
@@ -3974,7 +3991,7 @@
         <v>133</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="42" spans="6:7" ht="15.75">
@@ -3982,7 +3999,7 @@
         <v>133</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="43" spans="6:7" ht="15.75">
@@ -3990,7 +4007,7 @@
         <v>133</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="44" spans="6:7" ht="15.75">
@@ -3998,7 +4015,7 @@
         <v>133</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="45" spans="6:7" ht="15.75">
@@ -4014,7 +4031,7 @@
         <v>136</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="47" spans="6:7" ht="15.75">
@@ -4022,7 +4039,7 @@
         <v>136</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="48" spans="6:7" ht="15.75">
@@ -4030,7 +4047,7 @@
         <v>136</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="49" spans="6:7" ht="15.75">
@@ -4038,7 +4055,7 @@
         <v>136</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="50" spans="6:7" ht="15.75">
@@ -4046,7 +4063,7 @@
         <v>136</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="51" spans="6:7" ht="15.75">
@@ -4070,7 +4087,7 @@
         <v>139</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="54" spans="6:7" ht="15.75">
@@ -4078,12 +4095,12 @@
         <v>139</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="55" spans="6:7" ht="15.75">
       <c r="F55" s="6" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G55" s="6" t="s">
         <v>39</v>
@@ -4091,71 +4108,71 @@
     </row>
     <row r="56" spans="6:7" ht="15.75">
       <c r="F56" s="6" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G56" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="57" spans="6:7" ht="15.75">
       <c r="F57" s="6" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="58" spans="6:7" ht="15.75">
       <c r="F58" s="6" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G58" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="59" spans="6:7" ht="15.75">
       <c r="F59" s="6" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="60" spans="6:7" ht="15.75">
       <c r="F60" s="6" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="61" spans="6:7" ht="15.75">
       <c r="F61" s="6" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="62" spans="6:7" ht="15.75">
       <c r="F62" s="6" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="63" spans="6:7" ht="15.75">
       <c r="F63" s="6" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G63" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="64" spans="6:7" ht="15.75">
       <c r="F64" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G64" s="6" t="s">
         <v>41</v>
@@ -4163,31 +4180,31 @@
     </row>
     <row r="65" spans="6:7" ht="15.75">
       <c r="F65" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="66" spans="6:7" ht="15.75">
       <c r="F66" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="67" spans="6:7" ht="15.75">
       <c r="F67" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="68" spans="6:7" ht="15.75">
       <c r="F68" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G68" s="6" t="s">
         <v>45</v>
@@ -4195,111 +4212,111 @@
     </row>
     <row r="69" spans="6:7" ht="15.75">
       <c r="F69" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="70" spans="6:7" ht="15.75">
       <c r="F70" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="71" spans="6:7" ht="15.75">
       <c r="F71" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="72" spans="6:7" ht="15.75">
       <c r="F72" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G72" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="73" spans="6:7" ht="15.75">
       <c r="F73" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="74" spans="6:7" ht="15.75">
       <c r="F74" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G74" s="6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="75" spans="6:7" ht="15.75">
       <c r="F75" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G75" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="76" spans="6:7" ht="15.75">
       <c r="F76" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G76" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="77" spans="6:7" ht="15.75">
       <c r="F77" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G77" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="78" spans="6:7" ht="15.75">
       <c r="F78" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G78" s="6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="79" spans="6:7" ht="15.75">
       <c r="F79" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G79" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="80" spans="6:7" ht="15.75">
       <c r="F80" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G80" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="81" spans="6:7" ht="15.75">
       <c r="F81" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G81" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="82" spans="6:7" ht="15.75">
       <c r="F82" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G82" s="6" t="s">
         <v>48</v>
@@ -4307,87 +4324,87 @@
     </row>
     <row r="83" spans="6:7" ht="15.75">
       <c r="F83" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G83" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="84" spans="6:7" ht="15.75">
       <c r="F84" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G84" s="6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="85" spans="6:7" ht="15.75">
       <c r="F85" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G85" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="86" spans="6:7" ht="15.75">
       <c r="F86" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G86" s="6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="87" spans="6:7" ht="15.75">
       <c r="F87" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G87" s="6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="88" spans="6:7" ht="15.75">
       <c r="F88" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G88" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="89" spans="6:7" ht="15.75">
       <c r="F89" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G89" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="90" spans="6:7" ht="15.75">
       <c r="F90" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G90" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="91" spans="6:7" ht="15.75">
       <c r="F91" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G91" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="92" spans="6:7" ht="15.75">
       <c r="F92" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G92" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="93" spans="6:7" ht="15.75">
       <c r="F93" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G93" s="6" t="s">
         <v>51</v>
@@ -4395,31 +4412,31 @@
     </row>
     <row r="94" spans="6:7" ht="15.75">
       <c r="F94" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G94" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="95" spans="6:7" ht="15.75">
       <c r="F95" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G95" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="96" spans="6:7" ht="15.75">
       <c r="F96" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G96" s="6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="97" spans="6:7" ht="15.75">
       <c r="F97" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G97" s="6" t="s">
         <v>54</v>
@@ -4427,23 +4444,23 @@
     </row>
     <row r="98" spans="6:7" ht="15.75">
       <c r="F98" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G98" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="99" spans="6:7" ht="15.75">
       <c r="F99" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G99" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="100" spans="6:7" ht="15.75">
       <c r="F100" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G100" s="6" t="s">
         <v>57</v>
@@ -4451,7 +4468,7 @@
     </row>
     <row r="101" spans="6:7" ht="15.75">
       <c r="F101" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G101" s="6" t="s">
         <v>60</v>
@@ -4459,15 +4476,15 @@
     </row>
     <row r="102" spans="6:7" ht="15.75">
       <c r="F102" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G102" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="103" spans="6:7" ht="15.75">
       <c r="F103" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G103" s="6" t="s">
         <v>63</v>
@@ -4475,39 +4492,39 @@
     </row>
     <row r="104" spans="6:7" ht="15.75">
       <c r="F104" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G104" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="105" spans="6:7" ht="15.75">
       <c r="F105" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G105" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="106" spans="6:7" ht="15.75">
       <c r="F106" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G106" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="107" spans="6:7" ht="15.75">
       <c r="F107" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G107" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="108" spans="6:7" ht="15.75">
       <c r="F108" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G108" s="6" t="s">
         <v>66</v>
@@ -4515,15 +4532,15 @@
     </row>
     <row r="109" spans="6:7" ht="15.75">
       <c r="F109" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G109" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="110" spans="6:7" ht="15.75">
       <c r="F110" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G110" s="6" t="s">
         <v>69</v>
@@ -4531,23 +4548,23 @@
     </row>
     <row r="111" spans="6:7" ht="15.75">
       <c r="F111" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G111" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="112" spans="6:7" ht="15.75">
       <c r="F112" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G112" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="113" spans="6:7" ht="15.75">
       <c r="F113" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G113" s="6" t="s">
         <v>81</v>
@@ -4555,63 +4572,63 @@
     </row>
     <row r="114" spans="6:7" ht="15.75">
       <c r="F114" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G114" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="115" spans="6:7" ht="15.75">
       <c r="F115" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G115" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="116" spans="6:7" ht="15.75">
       <c r="F116" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G116" s="6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="117" spans="6:7" ht="15.75">
       <c r="F117" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G117" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="118" spans="6:7" ht="15.75">
       <c r="F118" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G118" s="6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="119" spans="6:7" ht="15.75">
       <c r="F119" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G119" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="120" spans="6:7" ht="15.75">
       <c r="F120" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G120" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="121" spans="6:7" ht="15.75">
       <c r="F121" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G121" s="6" t="s">
         <v>85</v>
@@ -4619,7 +4636,7 @@
     </row>
     <row r="122" spans="6:7" ht="15.75">
       <c r="F122" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G122" s="6" t="s">
         <v>88</v>
@@ -4627,31 +4644,31 @@
     </row>
     <row r="123" spans="6:7" ht="15.75">
       <c r="F123" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G123" s="6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="124" spans="6:7" ht="15.75">
       <c r="F124" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G124" s="6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="125" spans="6:7" ht="15.75">
       <c r="F125" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G125" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="126" spans="6:7" ht="15.75">
       <c r="F126" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G126" s="6" t="s">
         <v>91</v>
@@ -4659,31 +4676,31 @@
     </row>
     <row r="127" spans="6:7" ht="15.75">
       <c r="F127" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G127" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="128" spans="6:7" ht="15.75">
       <c r="F128" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G128" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="129" spans="6:7" ht="15.75">
       <c r="F129" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G129" s="6" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="130" spans="6:7" ht="15.75">
       <c r="F130" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G130" s="6" t="s">
         <v>72</v>
@@ -4691,47 +4708,47 @@
     </row>
     <row r="131" spans="6:7" ht="15.75">
       <c r="F131" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G131" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="132" spans="6:7" ht="15.75">
       <c r="F132" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G132" s="6" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="133" spans="6:7" ht="15.75">
       <c r="F133" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G133" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="134" spans="6:7" ht="15.75">
       <c r="F134" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G134" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="135" spans="6:7" ht="15.75">
       <c r="F135" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G135" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="136" spans="6:7" ht="15.75">
       <c r="F136" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G136" s="6" t="s">
         <v>75</v>
@@ -4739,55 +4756,55 @@
     </row>
     <row r="137" spans="6:7" ht="15.75">
       <c r="F137" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G137" s="6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="138" spans="6:7" ht="15.75">
       <c r="F138" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G138" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="139" spans="6:7" ht="15.75">
       <c r="F139" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G139" s="6" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="140" spans="6:7" ht="15.75">
       <c r="F140" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G140" s="6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="141" spans="6:7" ht="15.75">
       <c r="F141" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G141" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="142" spans="6:7" ht="15.75">
       <c r="F142" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G142" s="6" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="143" spans="6:7" ht="15.75">
       <c r="F143" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G143" s="6" t="s">
         <v>78</v>
@@ -4795,50 +4812,50 @@
     </row>
     <row r="144" spans="6:7" ht="15.75">
       <c r="F144" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G144" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="145" spans="6:7" ht="15.75">
       <c r="F145" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G145" s="6" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="146" spans="6:7" ht="15.75">
       <c r="F146" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G146" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="147" spans="6:7" ht="15.75">
       <c r="F147" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G147" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="148" spans="6:7" ht="15.75">
       <c r="F148" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G148" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="149" spans="6:7" ht="15.75">
       <c r="F149" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G149" s="6" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
   </sheetData>
@@ -4873,21 +4890,21 @@
   <sheetData>
     <row r="7" spans="4:7" ht="12.75">
       <c r="D7" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="8" spans="4:7" ht="15.75">
       <c r="F8" s="5" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>12</v>
@@ -4895,7 +4912,7 @@
     </row>
     <row r="9" spans="4:7" ht="15.75">
       <c r="F9" s="5" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>18</v>
@@ -4903,7 +4920,7 @@
     </row>
     <row r="10" spans="4:7" ht="15.75">
       <c r="F10" s="5" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>21</v>
@@ -4911,7 +4928,7 @@
     </row>
     <row r="11" spans="4:7" ht="15.75">
       <c r="F11" s="5" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>24</v>
@@ -4919,7 +4936,7 @@
     </row>
     <row r="12" spans="4:7" ht="15.75">
       <c r="F12" s="5" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>27</v>
@@ -4927,7 +4944,7 @@
     </row>
     <row r="13" spans="4:7" ht="15.75">
       <c r="F13" s="5" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>30</v>
@@ -4935,7 +4952,7 @@
     </row>
     <row r="14" spans="4:7" ht="15.75">
       <c r="F14" s="5" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>33</v>
@@ -4943,7 +4960,7 @@
     </row>
     <row r="15" spans="4:7" ht="15.75">
       <c r="F15" s="5" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G15" s="5" t="s">
         <v>36</v>
@@ -4951,7 +4968,7 @@
     </row>
     <row r="16" spans="4:7" ht="15.75">
       <c r="F16" s="5" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>39</v>
@@ -4959,7 +4976,7 @@
     </row>
     <row r="17" spans="6:7" ht="15.75">
       <c r="F17" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>41</v>
@@ -4967,7 +4984,7 @@
     </row>
     <row r="18" spans="6:7" ht="15.75">
       <c r="F18" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G18" s="5" t="s">
         <v>45</v>
@@ -4975,7 +4992,7 @@
     </row>
     <row r="19" spans="6:7" ht="15.75">
       <c r="F19" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G19" s="5" t="s">
         <v>48</v>
@@ -4983,7 +5000,7 @@
     </row>
     <row r="20" spans="6:7" ht="15.75">
       <c r="F20" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G20" s="5" t="s">
         <v>51</v>
@@ -4991,7 +5008,7 @@
     </row>
     <row r="21" spans="6:7" ht="15.75">
       <c r="F21" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G21" s="5" t="s">
         <v>54</v>
@@ -4999,7 +5016,7 @@
     </row>
     <row r="22" spans="6:7" ht="15.75">
       <c r="F22" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G22" s="5" t="s">
         <v>57</v>
@@ -5007,7 +5024,7 @@
     </row>
     <row r="23" spans="6:7" ht="15.75">
       <c r="F23" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G23" s="5" t="s">
         <v>60</v>
@@ -5015,7 +5032,7 @@
     </row>
     <row r="24" spans="6:7" ht="15.75">
       <c r="F24" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G24" s="5" t="s">
         <v>72</v>
@@ -5023,7 +5040,7 @@
     </row>
     <row r="25" spans="6:7" ht="15.75">
       <c r="F25" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G25" s="5" t="s">
         <v>75</v>
@@ -5031,7 +5048,7 @@
     </row>
     <row r="26" spans="6:7" ht="15.75">
       <c r="F26" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G26" s="5" t="s">
         <v>78</v>
@@ -5039,7 +5056,7 @@
     </row>
     <row r="27" spans="6:7" ht="15.75">
       <c r="F27" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G27" s="5" t="s">
         <v>81</v>
@@ -5047,7 +5064,7 @@
     </row>
     <row r="28" spans="6:7" ht="15.75">
       <c r="F28" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G28" s="5" t="s">
         <v>85</v>
@@ -5055,7 +5072,7 @@
     </row>
     <row r="29" spans="6:7" ht="15.75">
       <c r="F29" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G29" s="5" t="s">
         <v>88</v>
@@ -5063,7 +5080,7 @@
     </row>
     <row r="30" spans="6:7" ht="15.75">
       <c r="F30" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G30" s="5" t="s">
         <v>91</v>
@@ -5071,7 +5088,7 @@
     </row>
     <row r="31" spans="6:7" ht="15.75">
       <c r="F31" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G31" s="5" t="s">
         <v>91</v>
@@ -5090,10 +5107,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="D7:I43"/>
+  <dimension ref="D7:I44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="K45" sqref="K45"/>
+    <sheetView tabSelected="1" topLeftCell="E19" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -5109,19 +5126,19 @@
   <sheetData>
     <row r="7" spans="4:9" ht="18.95" customHeight="1">
       <c r="D7" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>339</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>340</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>11</v>
@@ -5129,10 +5146,10 @@
     </row>
     <row r="8" spans="4:9" ht="12.75">
       <c r="F8" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>83</v>
@@ -5140,10 +5157,10 @@
     </row>
     <row r="9" spans="4:9" ht="12.75">
       <c r="F9" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>83</v>
@@ -5151,10 +5168,10 @@
     </row>
     <row r="10" spans="4:9" ht="12.75">
       <c r="F10" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>83</v>
@@ -5162,10 +5179,10 @@
     </row>
     <row r="11" spans="4:9" ht="12.75">
       <c r="F11" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>83</v>
@@ -5173,10 +5190,10 @@
     </row>
     <row r="12" spans="4:9" ht="12.75">
       <c r="F12" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>83</v>
@@ -5184,10 +5201,10 @@
     </row>
     <row r="13" spans="4:9" ht="12.75">
       <c r="F13" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>83</v>
@@ -5195,10 +5212,10 @@
     </row>
     <row r="14" spans="4:9" ht="12.75">
       <c r="F14" s="2" t="s">
-        <v>342</v>
+        <v>393</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>83</v>
@@ -5206,96 +5223,96 @@
     </row>
     <row r="15" spans="4:9" ht="12.75">
       <c r="F15" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="H15" s="2" t="s">
         <v>343</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="16" spans="4:9" ht="12.75">
       <c r="F16" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="H16" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="G16" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="H16" s="2" t="s">
+    </row>
+    <row r="17" spans="4:9" ht="12.75">
+      <c r="F17" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="18" spans="4:9" ht="12.75">
+      <c r="F18" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="19" spans="4:9" ht="12.75">
+      <c r="F19" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="17" spans="4:8" ht="12.75">
-      <c r="F17" s="2" t="s">
+      <c r="G19" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="H19" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="G17" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="H17" s="2" t="s">
+    </row>
+    <row r="20" spans="4:9" ht="12.75">
+      <c r="F20" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="21" spans="4:9" ht="12.75">
+      <c r="F21" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="18" spans="4:8" ht="12.75">
-      <c r="F18" s="2" t="s">
+      <c r="G21" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="H21" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="G18" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="H18" s="2" t="s">
+    </row>
+    <row r="22" spans="4:9" ht="12.75">
+      <c r="F22" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="19" spans="4:8" ht="12.75">
-      <c r="F19" t="s">
-        <v>345</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="20" spans="4:8" ht="12.75">
-      <c r="F20" t="s">
-        <v>345</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="21" spans="4:8" ht="12.75">
-      <c r="F21" t="s">
-        <v>345</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="22" spans="4:8" ht="12.75">
-      <c r="F22" t="s">
-        <v>345</v>
-      </c>
       <c r="G22" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="23" spans="4:8" ht="12.75">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="23" spans="4:9" ht="12.75">
       <c r="D23" s="2"/>
       <c r="F23" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>109</v>
@@ -5304,9 +5321,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="4:8" ht="12.75">
+    <row r="24" spans="4:9" ht="12.75">
       <c r="F24" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>114</v>
@@ -5315,9 +5332,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="4:8" ht="12.75">
+    <row r="25" spans="4:9" ht="12.75">
       <c r="F25" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>121</v>
@@ -5326,100 +5343,103 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="4:8" ht="12.75">
+    <row r="26" spans="4:9" ht="12.75">
       <c r="F26" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>125</v>
+        <v>394</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="4:8" ht="12.75">
+    <row r="27" spans="4:9" ht="12.75">
       <c r="F27" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>129</v>
+        <v>395</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="4:8" ht="12.75">
+    <row r="28" spans="4:9" ht="12.75">
       <c r="F28" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="4:8" ht="12.75">
+    <row r="29" spans="4:9" ht="12.75">
       <c r="F29" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="4:8" ht="12.75">
+    <row r="30" spans="4:9" ht="12.75">
       <c r="F30" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="4:8" ht="12.75">
+    <row r="31" spans="4:9" ht="12.75">
       <c r="F31" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="4:8" ht="12.75">
+    <row r="32" spans="4:9" ht="12.75">
       <c r="F32" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>346</v>
+        <v>391</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
     </row>
     <row r="33" spans="6:9" ht="12.75">
-      <c r="F33" s="3" t="s">
+      <c r="F33" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="G33" s="2" t="s">
         <v>345</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>109</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="34" spans="6:9" ht="12.75">
-      <c r="F34" t="s">
-        <v>345</v>
+      <c r="F34" s="3" t="s">
+        <v>344</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>15</v>
@@ -5427,10 +5447,10 @@
     </row>
     <row r="35" spans="6:9" ht="12.75">
       <c r="F35" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="H35" s="2" t="s">
         <v>15</v>
@@ -5438,10 +5458,10 @@
     </row>
     <row r="36" spans="6:9" ht="12.75">
       <c r="F36" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="H36" s="2" t="s">
         <v>15</v>
@@ -5449,10 +5469,10 @@
     </row>
     <row r="37" spans="6:9" ht="12.75">
       <c r="F37" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="H37" s="2" t="s">
         <v>15</v>
@@ -5460,10 +5480,10 @@
     </row>
     <row r="38" spans="6:9" ht="12.75">
       <c r="F38" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>15</v>
@@ -5471,10 +5491,10 @@
     </row>
     <row r="39" spans="6:9" ht="12.75">
       <c r="F39" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="H39" s="2" t="s">
         <v>15</v>
@@ -5482,10 +5502,10 @@
     </row>
     <row r="40" spans="6:9" ht="12.75">
       <c r="F40" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H40" s="2" t="s">
         <v>15</v>
@@ -5493,21 +5513,18 @@
     </row>
     <row r="41" spans="6:9" ht="12.75">
       <c r="F41" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>391</v>
+        <v>139</v>
       </c>
       <c r="H41" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I41">
-        <v>1</v>
-      </c>
     </row>
     <row r="42" spans="6:9" ht="12.75">
       <c r="F42" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>390</v>
@@ -5515,15 +5532,29 @@
       <c r="H42" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="I42">
+        <v>1</v>
+      </c>
     </row>
     <row r="43" spans="6:9" ht="12.75">
       <c r="F43" t="s">
+        <v>344</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="6:9" ht="12.75">
+      <c r="F44" t="s">
+        <v>344</v>
+      </c>
+      <c r="G44" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="G43" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="H43" s="2" t="s">
+      <c r="H44" s="2" t="s">
         <v>15</v>
       </c>
     </row>
@@ -5554,7 +5585,7 @@
   <sheetData>
     <row r="7" spans="4:11">
       <c r="D7" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E7" t="s">
         <v>1</v>
@@ -5569,33 +5600,33 @@
         <v>5</v>
       </c>
       <c r="I7" t="s">
+        <v>347</v>
+      </c>
+      <c r="J7" t="s">
         <v>348</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>349</v>
-      </c>
-      <c r="K7" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="8" spans="4:11">
       <c r="F8" t="s">
+        <v>350</v>
+      </c>
+      <c r="G8" t="s">
         <v>351</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>352</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>353</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>354</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>355</v>
-      </c>
-      <c r="K8" t="s">
-        <v>356</v>
       </c>
     </row>
   </sheetData>
@@ -5623,78 +5654,78 @@
   <sheetData>
     <row r="7" spans="4:9">
       <c r="D7" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E7" t="s">
         <v>1</v>
       </c>
       <c r="F7" t="s">
+        <v>357</v>
+      </c>
+      <c r="G7" t="s">
         <v>358</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>359</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>360</v>
-      </c>
-      <c r="I7" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="8" spans="4:9">
       <c r="F8" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="H8" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="I8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="9" spans="4:9">
       <c r="F9" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="H9" t="s">
+        <v>362</v>
+      </c>
+      <c r="I9" t="s">
         <v>363</v>
-      </c>
-      <c r="I9" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="10" spans="4:9">
       <c r="F10" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="H10" t="s">
+        <v>364</v>
+      </c>
+      <c r="I10" t="s">
         <v>365</v>
-      </c>
-      <c r="I10" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="11" spans="4:9">
       <c r="F11" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="H11" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="I11" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
   </sheetData>
@@ -5725,71 +5756,71 @@
   <sheetData>
     <row r="7" spans="4:12">
       <c r="D7" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E7" t="s">
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G7" t="s">
+        <v>368</v>
+      </c>
+      <c r="H7" t="s">
         <v>369</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>370</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>371</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>372</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>373</v>
-      </c>
-      <c r="L7" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="8" spans="4:12">
       <c r="F8" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="H8" t="s">
+        <v>374</v>
+      </c>
+      <c r="I8" t="s">
         <v>375</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>376</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>377</v>
-      </c>
-      <c r="K8" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="9" spans="4:12">
       <c r="F9" t="s">
+        <v>378</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9" t="s">
         <v>379</v>
       </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>380</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
+        <v>376</v>
+      </c>
+      <c r="K9" t="s">
         <v>381</v>
-      </c>
-      <c r="J9" t="s">
-        <v>377</v>
-      </c>
-      <c r="K9" t="s">
-        <v>382</v>
       </c>
       <c r="L9">
         <v>0</v>

--- a/src/main/resources/script/meta/micro-service-init-data.xlsx
+++ b/src/main/resources/script/meta/micro-service-init-data.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22228"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\base-service-openSource-0113\base-service\src\main\resources\script\meta\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D159775-C222-49E7-9407-BEECB77EE9DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="845" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="19815" windowHeight="7860" tabRatio="845" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
@@ -27,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="986" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="987" uniqueCount="387">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -147,6 +141,9 @@
   </si>
   <si>
     <t>choerodon.route.organization.security-client</t>
+  </si>
+  <si>
+    <t>/base/client</t>
   </si>
   <si>
     <t>客户端路由</t>
@@ -443,7 +440,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="PingFang SC"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>ldap</t>
     </r>
@@ -452,7 +449,6 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>设置</t>
@@ -480,12 +476,21 @@
     <t>Password Policy</t>
   </si>
   <si>
+    <t>choerodon.code.organization.security-client</t>
+  </si>
+  <si>
     <t>客户端</t>
   </si>
   <si>
     <t>Client</t>
   </si>
   <si>
+    <t>airplay</t>
+  </si>
+  <si>
+    <t>choerodon.code.organization.client</t>
+  </si>
+  <si>
     <t>choerodon.code.site.manager</t>
   </si>
   <si>
@@ -708,6 +713,9 @@
     <t>#PERMISSION_CODE</t>
   </si>
   <si>
+    <t>REQUIRED</t>
+  </si>
+  <si>
     <t>base-service.organization-administrator.createOrgAdministrator</t>
   </si>
   <si>
@@ -1198,67 +1206,19 @@
   </si>
   <si>
     <t>Number</t>
-  </si>
-  <si>
-    <t>/base/client</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>menu_item</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>airplay</t>
-  </si>
-  <si>
-    <t>choerodon.code.organization.setting</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>choerodon.code.organization.security-client</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>choerodon.code.organization.client</t>
-  </si>
-  <si>
-    <t>choerodon.code.organization.client</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>choerodon.code.organization.client</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>choerodon.code.organization.security-client</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>choerodon.code.organization.security-client</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>OFFICIAL</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>PROGRAM</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>choerodon.code.organization.security</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>choerodon.code.organization.client</t>
-    <phoneticPr fontId="16" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="36">
     <font>
       <sz val="10"/>
       <name val="Droid Sans Fallback"/>
@@ -1268,12 +1228,12 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="DejaVu Sans"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1283,90 +1243,418 @@
     <font>
       <sz val="10"/>
       <name val="DejaVu Sans"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="DengXian"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="PingFang SC"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="PingFang SC"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF5B9BD5"/>
       <name val="PingFang SC"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF5B9BD5"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFFC000"/>
       <name val="PingFang SC"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="13"/>
       <name val="PingFang SC"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF8F187C"/>
       <name val="PingFang SC"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF8F187C"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="13"/>
       <name val="Helvetica"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1389,9 +1677,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1412,17 +1942,61 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1680,39 +2254,39 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="D7:O35"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+    <sheetView zoomScale="95" zoomScaleNormal="95" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" customWidth="1"/>
+    <col min="1" max="1" width="9.14285714285714" customWidth="1"/>
+    <col min="2" max="2" width="9.57142857142857" customWidth="1"/>
     <col min="3" max="3" width="9" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
     <col min="5" max="5" width="9" customWidth="1"/>
-    <col min="6" max="6" width="49.140625" customWidth="1"/>
-    <col min="7" max="7" width="37.140625" customWidth="1"/>
+    <col min="6" max="6" width="49.1428571428571" customWidth="1"/>
+    <col min="7" max="7" width="37.1428571428571" customWidth="1"/>
     <col min="8" max="8" width="37" customWidth="1"/>
     <col min="9" max="9" width="19" customWidth="1"/>
-    <col min="10" max="10" width="19.85546875" customWidth="1"/>
+    <col min="10" max="10" width="19.8571428571429" customWidth="1"/>
     <col min="11" max="11" width="19" customWidth="1"/>
-    <col min="12" max="12" width="19.140625" customWidth="1"/>
-    <col min="13" max="13" width="18.85546875" customWidth="1"/>
-    <col min="14" max="14" width="19.42578125" customWidth="1"/>
+    <col min="12" max="12" width="19.1428571428571" customWidth="1"/>
+    <col min="13" max="13" width="18.8571428571429" customWidth="1"/>
+    <col min="14" max="14" width="19.4285714285714" customWidth="1"/>
     <col min="15" max="15" width="19" customWidth="1"/>
     <col min="16" max="1025" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:15" ht="12.75" customHeight="1">
+    <row r="7" customHeight="1" spans="4:15">
       <c r="D7" s="4" t="s">
         <v>0</v>
       </c>
@@ -1750,7 +2324,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="4:15" ht="12.75">
+    <row r="8" spans="4:14">
       <c r="D8" s="3"/>
       <c r="F8" s="2" t="s">
         <v>12</v>
@@ -1780,7 +2354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="4:15" ht="12.75">
+    <row r="9" spans="6:14">
       <c r="F9" s="2" t="s">
         <v>18</v>
       </c>
@@ -1809,7 +2383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="4:15" ht="12.75">
+    <row r="10" spans="6:14">
       <c r="F10" s="2" t="s">
         <v>21</v>
       </c>
@@ -1838,7 +2412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="4:15" ht="12.75">
+    <row r="11" spans="6:14">
       <c r="F11" s="2" t="s">
         <v>24</v>
       </c>
@@ -1867,7 +2441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="4:15" ht="12.75">
+    <row r="12" spans="6:14">
       <c r="F12" s="2" t="s">
         <v>27</v>
       </c>
@@ -1896,7 +2470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="4:15" ht="12.75">
+    <row r="13" spans="6:14">
       <c r="F13" s="2" t="s">
         <v>30</v>
       </c>
@@ -1925,7 +2499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="4:15" ht="12.75">
+    <row r="14" spans="6:14">
       <c r="F14" s="2" t="s">
         <v>33</v>
       </c>
@@ -1954,7 +2528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="4:15" ht="12.75">
+    <row r="15" spans="6:14">
       <c r="F15" s="2" t="s">
         <v>36</v>
       </c>
@@ -1983,12 +2557,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="4:15" ht="12.75">
+    <row r="16" spans="6:14">
       <c r="F16" s="2" t="s">
         <v>39</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>382</v>
+        <v>40</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>14</v>
@@ -1997,7 +2571,7 @@
         <v>15</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>17</v>
@@ -2012,21 +2586,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="6:14" ht="12.75">
+    <row r="17" spans="6:14">
       <c r="F17" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>14</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K17" s="2" t="s">
         <v>17</v>
@@ -2041,21 +2615,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="6:14" ht="12.75">
+    <row r="18" spans="6:14">
       <c r="F18" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>14</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K18" s="2" t="s">
         <v>17</v>
@@ -2070,21 +2644,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="6:14" ht="12.75">
+    <row r="19" spans="6:14">
       <c r="F19" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>14</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K19" s="2" t="s">
         <v>17</v>
@@ -2099,21 +2673,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="6:14" ht="12.75">
+    <row r="20" spans="6:14">
       <c r="F20" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>14</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K20" s="2" t="s">
         <v>17</v>
@@ -2128,21 +2702,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="6:14" ht="12.75">
+    <row r="21" spans="6:14">
       <c r="F21" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>14</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K21" s="2" t="s">
         <v>17</v>
@@ -2157,21 +2731,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="6:14" ht="12.75">
+    <row r="22" spans="6:14">
       <c r="F22" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>14</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K22" s="2" t="s">
         <v>17</v>
@@ -2186,21 +2760,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="6:14" ht="12.75">
+    <row r="23" spans="6:14">
       <c r="F23" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>14</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K23" s="2" t="s">
         <v>17</v>
@@ -2215,21 +2789,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="6:14" ht="12.75">
+    <row r="24" spans="6:14">
       <c r="F24" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>14</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K24" s="2" t="s">
         <v>17</v>
@@ -2244,21 +2818,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="6:14" ht="12.75">
+    <row r="25" spans="6:14">
       <c r="F25" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>14</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K25" s="2" t="s">
         <v>17</v>
@@ -2273,21 +2847,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="6:14" ht="12.75">
+    <row r="26" spans="6:14">
       <c r="F26" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>14</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K26" s="2" t="s">
         <v>17</v>
@@ -2302,21 +2876,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="6:14" ht="12.75">
+    <row r="27" spans="6:14">
       <c r="F27" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>14</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K27" s="2" t="s">
         <v>17</v>
@@ -2331,21 +2905,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="6:14" ht="12.75">
+    <row r="28" spans="6:14">
       <c r="F28" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>14</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K28" s="2" t="s">
         <v>17</v>
@@ -2360,21 +2934,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="6:14" ht="12.75">
+    <row r="29" spans="6:14">
       <c r="F29" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>14</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K29" s="2" t="s">
         <v>17</v>
@@ -2389,21 +2963,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="6:14" ht="12.75">
+    <row r="30" spans="6:14">
       <c r="F30" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>14</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K30" s="2" t="s">
         <v>17</v>
@@ -2418,21 +2992,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="6:14" ht="12.75">
+    <row r="31" spans="6:14">
       <c r="F31" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>14</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K31" s="2" t="s">
         <v>17</v>
@@ -2447,21 +3021,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="6:14" ht="12.75">
+    <row r="32" spans="6:14">
       <c r="F32" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>14</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K32" s="2" t="s">
         <v>17</v>
@@ -2476,21 +3050,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="6:14" ht="12.75">
+    <row r="33" spans="6:14">
       <c r="F33" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>14</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K33" s="2" t="s">
         <v>17</v>
@@ -2505,13 +3079,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="6:14" ht="12.75">
+    <row r="35" spans="7:7">
       <c r="G35" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="16" type="noConversion"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,常规"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,常规"&amp;12 Page &amp;P</oddFooter>
@@ -2520,38 +3093,39 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="D7:Q42"/>
   <sheetViews>
-    <sheetView topLeftCell="F2" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView zoomScale="86" zoomScaleNormal="86" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="6" customWidth="1"/>
-    <col min="3" max="3" width="4.85546875" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" customWidth="1"/>
+    <col min="3" max="3" width="4.85714285714286" customWidth="1"/>
+    <col min="4" max="4" width="19.4285714285714" customWidth="1"/>
     <col min="5" max="5" width="9" customWidth="1"/>
-    <col min="6" max="6" width="72.85546875" customWidth="1"/>
-    <col min="7" max="7" width="16.85546875" customWidth="1"/>
+    <col min="6" max="6" width="72.8571428571429" customWidth="1"/>
+    <col min="7" max="7" width="16.8571428571429" customWidth="1"/>
     <col min="8" max="8" width="36" customWidth="1"/>
-    <col min="9" max="9" width="63.85546875" customWidth="1"/>
-    <col min="10" max="10" width="18.5703125" customWidth="1"/>
-    <col min="11" max="11" width="54.85546875" customWidth="1"/>
-    <col min="12" max="12" width="19.140625" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" customWidth="1"/>
-    <col min="14" max="14" width="26.42578125" customWidth="1"/>
+    <col min="9" max="9" width="63.8571428571429" customWidth="1"/>
+    <col min="10" max="10" width="18.5714285714286" customWidth="1"/>
+    <col min="11" max="11" width="54.8571428571429" customWidth="1"/>
+    <col min="12" max="12" width="19.1428571428571" customWidth="1"/>
+    <col min="13" max="13" width="14.5714285714286" customWidth="1"/>
+    <col min="14" max="14" width="26.4285714285714" customWidth="1"/>
     <col min="15" max="15" width="9" customWidth="1"/>
-    <col min="16" max="16" width="12.42578125" customWidth="1"/>
-    <col min="17" max="17" width="10.85546875" customWidth="1"/>
+    <col min="16" max="16" width="12.4285714285714" customWidth="1"/>
+    <col min="17" max="17" width="10.8571428571429" customWidth="1"/>
     <col min="18" max="1025" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:17" ht="12.75" customHeight="1">
+    <row r="7" customHeight="1" spans="4:17">
       <c r="D7" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>1</v>
@@ -2560,77 +3134,77 @@
         <v>2</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J7" s="4" t="s">
         <v>4</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q7" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="4:17" ht="15.75">
+    <row r="8" ht="14.25" spans="4:15">
       <c r="D8" s="3"/>
       <c r="F8" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I8" s="7"/>
       <c r="J8" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>15</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N8" s="7"/>
       <c r="O8" s="7">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="4:17" ht="15.75">
+    <row r="9" ht="14.25" spans="6:15">
       <c r="F9" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I9" s="7" t="s">
         <v>12</v>
@@ -2639,30 +3213,30 @@
         <v>14</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L9" s="7" t="s">
         <v>15</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="N9" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O9" s="7">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="4:17" ht="15.75">
+    <row r="10" ht="14.25" spans="6:15">
       <c r="F10" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I10" s="7" t="s">
         <v>18</v>
@@ -2671,58 +3245,58 @@
         <v>14</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>15</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="N10" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O10" s="7">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="4:17" ht="15.75">
+    <row r="11" ht="14.25" spans="6:15">
       <c r="F11" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I11" s="7"/>
       <c r="J11" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>15</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N11" s="7"/>
       <c r="O11" s="7">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="4:17" ht="15.75">
+    <row r="12" ht="14.25" spans="6:15">
       <c r="F12" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I12" s="7" t="s">
         <v>21</v>
@@ -2731,30 +3305,30 @@
         <v>14</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>15</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="N12" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O12" s="7">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="4:17" ht="15.75">
+    <row r="13" ht="14.25" spans="6:15">
       <c r="F13" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I13" s="7" t="s">
         <v>24</v>
@@ -2763,30 +3337,30 @@
         <v>14</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>385</v>
+        <v>119</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>15</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>383</v>
+        <v>113</v>
       </c>
       <c r="N13" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O13" s="7">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="4:17" ht="15.75">
+    <row r="14" ht="14.25" spans="6:15">
       <c r="F14" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I14" s="7" t="s">
         <v>27</v>
@@ -2795,28 +3369,28 @@
         <v>14</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>15</v>
       </c>
       <c r="M14" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N14" s="7"/>
       <c r="O14" s="7">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="4:17" ht="15.75">
+    <row r="15" ht="14.25" spans="6:15">
       <c r="F15" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I15" s="7" t="s">
         <v>30</v>
@@ -2825,28 +3399,28 @@
         <v>14</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L15" s="7" t="s">
         <v>15</v>
       </c>
       <c r="M15" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N15" s="7"/>
       <c r="O15" s="7">
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="4:17" ht="15.75">
+    <row r="16" ht="14.25" spans="6:15">
       <c r="F16" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I16" s="7" t="s">
         <v>33</v>
@@ -2855,28 +3429,28 @@
         <v>14</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>15</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N16" s="7"/>
       <c r="O16" s="7">
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="6:17" ht="15.75">
+    <row r="17" ht="14.25" spans="6:15">
       <c r="F17" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I17" s="7" t="s">
         <v>36</v>
@@ -2885,28 +3459,28 @@
         <v>14</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>15</v>
       </c>
       <c r="M17" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N17" s="7"/>
       <c r="O17" s="7">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="6:17" ht="15.75">
+    <row r="18" ht="14.25" spans="6:17">
       <c r="F18" s="7" t="s">
-        <v>386</v>
+        <v>143</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I18" s="7" t="s">
         <v>39</v>
@@ -2915,16 +3489,16 @@
         <v>14</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>385</v>
+        <v>119</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>15</v>
       </c>
       <c r="M18" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="N18" s="7" t="s">
-        <v>384</v>
+        <v>146</v>
       </c>
       <c r="O18" s="7">
         <v>30</v>
@@ -2933,15 +3507,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="6:17" ht="15.75">
+    <row r="19" ht="14.25" spans="6:15">
       <c r="F19" s="7" t="s">
-        <v>388</v>
+        <v>147</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I19" s="7" t="s">
         <v>39</v>
@@ -2950,735 +3524,734 @@
         <v>14</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>385</v>
+        <v>119</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>15</v>
       </c>
       <c r="M19" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="N19" s="7" t="s">
-        <v>384</v>
+        <v>146</v>
       </c>
       <c r="O19" s="7">
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="6:17" ht="15.75">
+    <row r="20" ht="14.25" spans="6:15">
       <c r="F20" s="8" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="8" t="s">
         <v>14</v>
       </c>
       <c r="K20" s="8" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="L20" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M20" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N20" s="8"/>
       <c r="O20" s="8">
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="6:17" ht="15.75">
+    <row r="21" ht="14.25" spans="6:15">
       <c r="F21" s="8" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J21" s="8" t="s">
         <v>14</v>
       </c>
       <c r="K21" s="8" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="L21" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M21" s="8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="N21" s="8" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="O21" s="8">
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="6:17" ht="15.75">
+    <row r="22" ht="14.25" spans="6:15">
       <c r="F22" s="8" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J22" s="8" t="s">
         <v>14</v>
       </c>
       <c r="K22" s="8" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="L22" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M22" s="8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="N22" s="8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O22" s="8">
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="6:17" ht="15.75">
+    <row r="23" ht="14.25" spans="6:15">
       <c r="F23" s="8" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J23" s="8" t="s">
         <v>14</v>
       </c>
       <c r="K23" s="8" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="L23" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M23" s="8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="N23" s="8" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="O23" s="8">
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="6:17" ht="15.75">
+    <row r="24" ht="14.25" spans="6:15">
       <c r="F24" s="8" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J24" s="8" t="s">
         <v>14</v>
       </c>
       <c r="K24" s="8" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="L24" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M24" s="8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="N24" s="8" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="O24" s="8">
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="6:17" ht="15.75">
+    <row r="25" ht="14.25" spans="6:15">
       <c r="F25" s="8" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I25" s="8"/>
       <c r="J25" s="8" t="s">
         <v>14</v>
       </c>
       <c r="K25" s="8" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="L25" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M25" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N25" s="8"/>
       <c r="O25" s="8">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="6:17" ht="15.75">
+    <row r="26" ht="14.25" spans="6:15">
       <c r="F26" s="8" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I26" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J26" s="8" t="s">
         <v>14</v>
       </c>
       <c r="K26" s="8" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="L26" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M26" s="8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="N26" s="8" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O26" s="8">
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="6:17" ht="15.75">
+    <row r="27" ht="14.25" spans="6:15">
       <c r="F27" s="8" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I27" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J27" s="8" t="s">
         <v>14</v>
       </c>
       <c r="K27" s="8" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="L27" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M27" s="8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="N27" s="8" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O27" s="8">
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="6:17" ht="15.75">
+    <row r="28" ht="14.25" spans="6:15">
       <c r="F28" s="8" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I28" s="8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J28" s="8" t="s">
         <v>14</v>
       </c>
       <c r="K28" s="8" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="L28" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M28" s="8" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N28" s="8"/>
       <c r="O28" s="8">
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="6:17" ht="15.75">
+    <row r="29" ht="14.25" spans="6:15">
       <c r="F29" s="10" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="H29" s="10" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="I29" s="10"/>
       <c r="J29" s="10" t="s">
         <v>14</v>
       </c>
       <c r="K29" s="10" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="L29" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M29" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N29" s="10" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="O29" s="10">
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="6:17" ht="15.75">
+    <row r="30" ht="14.25" spans="6:15">
       <c r="F30" s="10" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="H30" s="10" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="I30" s="10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J30" s="10" t="s">
         <v>14</v>
       </c>
       <c r="K30" s="10" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="L30" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M30" s="10" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="N30" s="10" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="O30" s="10">
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="6:17" ht="15.75">
+    <row r="31" ht="14.25" spans="6:15">
       <c r="F31" s="10" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="G31" s="10" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="H31" s="10" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="I31" s="10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J31" s="10" t="s">
         <v>14</v>
       </c>
       <c r="K31" s="10" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="L31" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M31" s="10" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="N31" s="10" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="O31" s="10">
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="6:17" ht="15.75">
+    <row r="32" ht="14.25" spans="6:15">
       <c r="F32" s="10" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="H32" s="10" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="I32" s="10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J32" s="10" t="s">
         <v>14</v>
       </c>
       <c r="K32" s="10" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="L32" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M32" s="10" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="N32" s="10" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="O32" s="10">
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="6:15" ht="16.5">
+    <row r="33" ht="16.5" spans="6:15">
       <c r="F33" s="11" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="H33" s="11" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="I33" s="11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J33" s="11" t="s">
         <v>14</v>
       </c>
       <c r="K33" s="11" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="L33" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M33" s="11" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="N33" s="14" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="O33" s="11">
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="6:15" ht="16.5">
+    <row r="34" ht="16.5" spans="6:15">
       <c r="F34" s="11" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="I34" s="11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J34" s="11" t="s">
         <v>14</v>
       </c>
       <c r="K34" s="11" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="L34" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M34" s="11" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="N34" s="14" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="O34" s="11">
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="6:15" ht="16.5">
+    <row r="35" ht="15" spans="6:15">
       <c r="F35" s="11" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="H35" s="11" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="I35" s="11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J35" s="11" t="s">
         <v>14</v>
       </c>
       <c r="K35" s="11" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="L35" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M35" s="11" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="N35" s="11" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="O35" s="11">
         <v>70</v>
       </c>
     </row>
-    <row r="36" spans="6:15" ht="15.75">
+    <row r="36" ht="14.25" spans="6:15">
       <c r="F36" s="12" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="G36" s="12" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="H36" s="12" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="I36" s="12"/>
       <c r="J36" s="12" t="s">
         <v>14</v>
       </c>
       <c r="K36" s="12" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="L36" s="12" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M36" s="12" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N36" s="12" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="O36" s="12">
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="6:15" ht="15.75">
+    <row r="37" ht="14.25" spans="6:15">
       <c r="F37" s="12" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="G37" s="12" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="H37" s="12" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="I37" s="12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J37" s="12" t="s">
         <v>14</v>
       </c>
       <c r="K37" s="12" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="L37" s="12" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M37" s="12" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="N37" s="12" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="O37" s="12">
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="6:15" ht="15.75">
+    <row r="38" ht="14.25" spans="6:15">
       <c r="F38" s="12" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="G38" s="12" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H38" s="12" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I38" s="12"/>
       <c r="J38" s="12" t="s">
         <v>14</v>
       </c>
       <c r="K38" s="12" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="L38" s="12" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M38" s="12" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N38" s="12"/>
       <c r="O38" s="12">
         <v>80</v>
       </c>
     </row>
-    <row r="39" spans="6:15" ht="15.75">
+    <row r="39" ht="14.25" spans="6:15">
       <c r="F39" s="12" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="G39" s="12" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H39" s="12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I39" s="12" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J39" s="12" t="s">
         <v>14</v>
       </c>
       <c r="K39" s="12" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="L39" s="12" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M39" s="12" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="N39" s="12" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="O39" s="12">
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="6:15" ht="15.75">
+    <row r="40" ht="14.25" spans="6:15">
       <c r="F40" s="12" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="G40" s="13" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="H40" s="12" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="I40" s="12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J40" s="12" t="s">
         <v>14</v>
       </c>
       <c r="K40" s="12" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="L40" s="12" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M40" s="12" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N40" s="12"/>
       <c r="O40" s="12">
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="6:15" ht="15.75">
+    <row r="41" ht="14.25" spans="6:15">
       <c r="F41" s="12" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="G41" s="12" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="H41" s="12" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="J41" s="12" t="s">
         <v>14</v>
       </c>
       <c r="K41" s="12" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="L41" s="12" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M41" s="12" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O41" s="12">
         <v>60</v>
       </c>
     </row>
-    <row r="42" spans="6:15" ht="15.75">
+    <row r="42" ht="14.25" spans="6:15">
       <c r="F42" s="12" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="G42" s="12" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="H42" s="12" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="I42" s="12" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J42" s="12" t="s">
         <v>14</v>
       </c>
       <c r="K42" s="12" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="L42" s="12" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M42" s="12" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="N42" s="12" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="O42" s="12">
         <v>10</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="16" type="noConversion"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,常规"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,常规"&amp;12 Page &amp;P</oddFooter>
@@ -3687,1181 +4260,1610 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="D7:H149"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="D7:I149"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F59" sqref="F59"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I141" sqref="I141"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="3" width="9" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" customWidth="1"/>
+    <col min="4" max="4" width="23.8571428571429" customWidth="1"/>
     <col min="5" max="5" width="9" customWidth="1"/>
-    <col min="6" max="6" width="60.85546875" customWidth="1"/>
-    <col min="7" max="7" width="71.85546875" customWidth="1"/>
+    <col min="6" max="6" width="60.8571428571429" customWidth="1"/>
+    <col min="7" max="7" width="71.8571428571429" customWidth="1"/>
     <col min="8" max="1025" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:8" ht="12.75" customHeight="1">
+    <row r="7" customHeight="1" spans="4:9">
       <c r="D7" s="4" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="4:8" ht="15.75">
+      <c r="I7" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="8" ht="14.25" spans="4:9">
       <c r="D8" s="3"/>
       <c r="F8" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="4:8" ht="15.75">
+      <c r="I8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" ht="14.25" spans="6:9">
       <c r="F9" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="10" spans="4:8" ht="15.75">
+        <v>223</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" ht="14.25" spans="6:9">
       <c r="F10" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="11" spans="4:8" ht="15.75">
+        <v>224</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" ht="14.25" spans="6:9">
       <c r="F11" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="12" spans="4:8" ht="15.75">
+        <v>225</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" ht="14.25" spans="6:9">
       <c r="F12" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="13" spans="4:8" ht="15.75">
+        <v>226</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" ht="14.25" spans="6:9">
       <c r="F13" s="6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="14" spans="4:8" ht="15.75">
+      <c r="I13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" ht="14.25" spans="6:9">
       <c r="F14" s="6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="15" spans="4:8" ht="15.75">
+        <v>227</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" ht="14.25" spans="6:9">
       <c r="F15" s="6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="16" spans="4:8" ht="15.75">
+        <v>228</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" ht="14.25" spans="6:9">
       <c r="F16" s="6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="17" spans="6:7" ht="15.75">
+        <v>225</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" ht="14.25" spans="6:9">
       <c r="F17" s="6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="18" spans="6:7" ht="15.75">
+        <v>229</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" ht="14.25" spans="6:9">
       <c r="F18" s="6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="19" spans="6:7" ht="15.75">
+        <v>230</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" ht="14.25" spans="6:9">
       <c r="F19" s="6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="20" spans="6:7" ht="15.75">
+        <v>231</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" ht="14.25" spans="6:9">
       <c r="F20" s="6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="21" spans="6:7" ht="15.75">
+        <v>232</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" ht="14.25" spans="6:9">
       <c r="F21" s="6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="22" spans="6:7" ht="15.75">
+        <v>233</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" ht="14.25" spans="6:9">
       <c r="F22" s="6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="23" spans="6:7" ht="15.75">
+        <v>234</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" ht="14.25" spans="6:9">
       <c r="F23" s="6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="24" spans="6:7" ht="15.75">
+        <v>235</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" ht="14.25" spans="6:9">
       <c r="F24" s="6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="25" spans="6:7" ht="15.75">
+        <v>236</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" ht="14.25" spans="6:9">
       <c r="F25" s="6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="26" spans="6:7" ht="15.75">
+        <v>237</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" ht="14.25" spans="6:9">
       <c r="F26" s="6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="27" spans="6:7" ht="15.75">
+        <v>238</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" ht="14.25" spans="6:9">
       <c r="F27" s="6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="28" spans="6:7" ht="15.75">
+        <v>239</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" ht="14.25" spans="6:9">
       <c r="F28" s="6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="29" spans="6:7" ht="15.75">
+        <v>240</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" ht="14.25" spans="6:9">
       <c r="F29" s="6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="30" spans="6:7" ht="15.75">
+        <v>241</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" ht="14.25" spans="6:9">
       <c r="F30" s="6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="31" spans="6:7" ht="15.75">
+        <v>242</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" ht="14.25" spans="6:9">
       <c r="F31" s="6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="32" spans="6:7" ht="15.75">
+        <v>243</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" ht="14.25" spans="6:9">
       <c r="F32" s="6" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G32" s="6" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="33" spans="6:7" ht="15.75">
+      <c r="I32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" ht="14.25" spans="6:9">
       <c r="F33" s="6" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G33" s="6" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="34" spans="6:7" ht="15.75">
+      <c r="I33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" ht="14.25" spans="6:9">
       <c r="F34" s="6" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="35" spans="6:7" ht="15.75">
+        <v>244</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" ht="14.25" spans="6:9">
       <c r="F35" s="6" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="36" spans="6:7" ht="15.75">
+        <v>245</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" ht="14.25" spans="6:9">
       <c r="F36" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G36" s="6" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="37" spans="6:7" ht="15.75">
+      <c r="I36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" ht="14.25" spans="6:9">
       <c r="F37" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="38" spans="6:7" ht="15.75">
+        <v>246</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" ht="14.25" spans="6:9">
       <c r="F38" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="39" spans="6:7" ht="15.75">
+        <v>247</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" ht="14.25" spans="6:9">
       <c r="F39" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="40" spans="6:7" ht="15.75">
+        <v>248</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" ht="14.25" spans="6:9">
       <c r="F40" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="41" spans="6:7" ht="15.75">
+        <v>249</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" ht="14.25" spans="6:9">
       <c r="F41" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="42" spans="6:7" ht="15.75">
+        <v>250</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" ht="14.25" spans="6:9">
       <c r="F42" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="43" spans="6:7" ht="15.75">
+        <v>251</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" ht="14.25" spans="6:9">
       <c r="F43" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="44" spans="6:7" ht="15.75">
+        <v>252</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" ht="14.25" spans="6:9">
       <c r="F44" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="45" spans="6:7" ht="15.75">
+        <v>253</v>
+      </c>
+      <c r="I44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" ht="14.25" spans="6:9">
       <c r="F45" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G45" s="6" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="46" spans="6:7" ht="15.75">
+      <c r="I45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" ht="14.25" spans="6:9">
       <c r="F46" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="47" spans="6:7" ht="15.75">
+        <v>254</v>
+      </c>
+      <c r="I46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" ht="14.25" spans="6:9">
       <c r="F47" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="48" spans="6:7" ht="15.75">
+        <v>255</v>
+      </c>
+      <c r="I47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" ht="14.25" spans="6:9">
       <c r="F48" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="49" spans="6:7" ht="15.75">
+        <v>256</v>
+      </c>
+      <c r="I48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" ht="14.25" spans="6:9">
       <c r="F49" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="50" spans="6:7" ht="15.75">
+        <v>257</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" ht="14.25" spans="6:9">
       <c r="F50" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="51" spans="6:7" ht="15.75">
+        <v>258</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" ht="14.25" spans="6:9">
       <c r="F51" s="6" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G51" s="6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="52" spans="6:7" ht="15.75">
+      <c r="I51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" ht="14.25" spans="6:9">
       <c r="F52" s="6" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G52" s="6" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="53" spans="6:7" ht="15.75">
+      <c r="I52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" ht="14.25" spans="6:9">
       <c r="F53" s="6" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="54" spans="6:7" ht="15.75">
+        <v>234</v>
+      </c>
+      <c r="I53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" ht="14.25" spans="6:9">
       <c r="F54" s="6" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="55" spans="6:7" ht="15.75">
+        <v>259</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" ht="14.25" spans="6:9">
       <c r="F55" s="6" t="s">
-        <v>389</v>
+        <v>147</v>
       </c>
       <c r="G55" s="6" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="56" spans="6:7" ht="15.75">
+      <c r="I55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" ht="14.25" spans="6:9">
       <c r="F56" s="6" t="s">
-        <v>387</v>
+        <v>147</v>
       </c>
       <c r="G56" s="6" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="57" spans="6:7" ht="15.75">
+        <v>260</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" ht="14.25" spans="6:9">
       <c r="F57" s="6" t="s">
-        <v>387</v>
+        <v>147</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="58" spans="6:7" ht="15.75">
+        <v>261</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" ht="14.25" spans="6:9">
       <c r="F58" s="6" t="s">
-        <v>387</v>
+        <v>147</v>
       </c>
       <c r="G58" s="6" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="59" spans="6:7" ht="15.75">
+        <v>262</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" ht="14.25" spans="6:9">
       <c r="F59" s="6" t="s">
-        <v>387</v>
+        <v>147</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="60" spans="6:7" ht="15.75">
+        <v>263</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" ht="14.25" spans="6:9">
       <c r="F60" s="6" t="s">
-        <v>387</v>
+        <v>147</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="61" spans="6:7" ht="15.75">
+        <v>264</v>
+      </c>
+      <c r="I60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" ht="14.25" spans="6:9">
       <c r="F61" s="6" t="s">
-        <v>387</v>
+        <v>147</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="62" spans="6:7" ht="15.75">
+        <v>265</v>
+      </c>
+      <c r="I61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" ht="14.25" spans="6:9">
       <c r="F62" s="6" t="s">
-        <v>387</v>
+        <v>147</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="63" spans="6:7" ht="15.75">
+        <v>266</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" ht="14.25" spans="6:9">
       <c r="F63" s="6" t="s">
-        <v>387</v>
+        <v>147</v>
       </c>
       <c r="G63" s="6" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="64" spans="6:7" ht="15.75">
+        <v>267</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" ht="14.25" spans="6:9">
       <c r="F64" s="6" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="G64" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="65" spans="6:7" ht="15.75">
+        <v>42</v>
+      </c>
+      <c r="I64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" ht="14.25" spans="6:9">
       <c r="F65" s="6" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="66" spans="6:7" ht="15.75">
+        <v>268</v>
+      </c>
+      <c r="I65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" ht="14.25" spans="6:9">
       <c r="F66" s="6" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="67" spans="6:7" ht="15.75">
+        <v>269</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" ht="14.25" spans="6:9">
       <c r="F67" s="6" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="68" spans="6:7" ht="15.75">
+        <v>270</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" ht="14.25" spans="6:9">
       <c r="F68" s="6" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="G68" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="69" spans="6:7" ht="15.75">
+        <v>46</v>
+      </c>
+      <c r="I68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" ht="14.25" spans="6:9">
       <c r="F69" s="6" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="70" spans="6:7" ht="15.75">
+        <v>271</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" ht="14.25" spans="6:9">
       <c r="F70" s="6" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="71" spans="6:7" ht="15.75">
+        <v>272</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" ht="14.25" spans="6:9">
       <c r="F71" s="6" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="72" spans="6:7" ht="15.75">
+        <v>273</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" ht="14.25" spans="6:9">
       <c r="F72" s="6" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="G72" s="6" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="73" spans="6:7" ht="15.75">
+        <v>274</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" ht="14.25" spans="6:9">
       <c r="F73" s="6" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="74" spans="6:7" ht="15.75">
+        <v>275</v>
+      </c>
+      <c r="I73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" ht="14.25" spans="6:9">
       <c r="F74" s="6" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="G74" s="6" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="75" spans="6:7" ht="15.75">
+        <v>276</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" ht="14.25" spans="6:9">
       <c r="F75" s="6" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="G75" s="6" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="76" spans="6:7" ht="15.75">
+        <v>277</v>
+      </c>
+      <c r="I75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" ht="14.25" spans="6:9">
       <c r="F76" s="6" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="G76" s="6" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="77" spans="6:7" ht="15.75">
+        <v>278</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" ht="14.25" spans="6:9">
       <c r="F77" s="6" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="G77" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="78" spans="6:7" ht="15.75">
+        <v>279</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" ht="14.25" spans="6:9">
       <c r="F78" s="6" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="G78" s="6" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="79" spans="6:7" ht="15.75">
+        <v>280</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" ht="14.25" spans="6:9">
       <c r="F79" s="6" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="G79" s="6" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="80" spans="6:7" ht="15.75">
+        <v>281</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" ht="14.25" spans="6:9">
       <c r="F80" s="6" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="G80" s="6" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="81" spans="6:7" ht="15.75">
+        <v>282</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" ht="14.25" spans="6:9">
       <c r="F81" s="6" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="G81" s="6" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="82" spans="6:7" ht="15.75">
+        <v>283</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" ht="14.25" spans="6:9">
       <c r="F82" s="6" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="G82" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="83" spans="6:7" ht="15.75">
+        <v>49</v>
+      </c>
+      <c r="I82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" ht="14.25" spans="6:9">
       <c r="F83" s="6" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="G83" s="6" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="84" spans="6:7" ht="15.75">
+        <v>284</v>
+      </c>
+      <c r="I83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" ht="14.25" spans="6:9">
       <c r="F84" s="6" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="G84" s="6" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="85" spans="6:7" ht="15.75">
+        <v>285</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" ht="14.25" spans="6:9">
       <c r="F85" s="6" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="G85" s="6" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="86" spans="6:7" ht="15.75">
+        <v>286</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" ht="14.25" spans="6:9">
       <c r="F86" s="6" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="G86" s="6" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="87" spans="6:7" ht="15.75">
+        <v>287</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" ht="14.25" spans="6:9">
       <c r="F87" s="6" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="G87" s="6" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="88" spans="6:7" ht="15.75">
+        <v>288</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" ht="14.25" spans="6:9">
       <c r="F88" s="6" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="G88" s="6" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="89" spans="6:7" ht="15.75">
+        <v>289</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" ht="14.25" spans="6:9">
       <c r="F89" s="6" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="G89" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="I89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" ht="14.25" spans="6:9">
+      <c r="F90" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="G90" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" ht="14.25" spans="6:9">
+      <c r="F91" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="G91" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" ht="14.25" spans="6:9">
+      <c r="F92" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="G92" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" ht="14.25" spans="6:9">
+      <c r="F93" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="G93" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="I93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" ht="14.25" spans="6:9">
+      <c r="F94" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="G94" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="I94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" ht="14.25" spans="6:9">
+      <c r="F95" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="G95" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="I95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" ht="14.25" spans="6:9">
+      <c r="F96" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="G96" s="6" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="90" spans="6:7" ht="15.75">
-      <c r="F90" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="G90" s="6" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="91" spans="6:7" ht="15.75">
-      <c r="F91" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="G91" s="6" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="92" spans="6:7" ht="15.75">
-      <c r="F92" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="G92" s="6" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="93" spans="6:7" ht="15.75">
-      <c r="F93" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="G93" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="94" spans="6:7" ht="15.75">
-      <c r="F94" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="G94" s="6" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="95" spans="6:7" ht="15.75">
-      <c r="F95" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="G95" s="6" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="96" spans="6:7" ht="15.75">
-      <c r="F96" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="G96" s="6" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="97" spans="6:7" ht="15.75">
+      <c r="I96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" ht="14.25" spans="6:9">
       <c r="F97" s="6" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="G97" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="98" spans="6:7" ht="15.75">
+        <v>55</v>
+      </c>
+      <c r="I97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" ht="14.25" spans="6:9">
       <c r="F98" s="6" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="G98" s="6" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="99" spans="6:7" ht="15.75">
+        <v>296</v>
+      </c>
+      <c r="I98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" ht="14.25" spans="6:9">
       <c r="F99" s="6" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="G99" s="6" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="100" spans="6:7" ht="15.75">
+        <v>297</v>
+      </c>
+      <c r="I99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" ht="14.25" spans="6:9">
       <c r="F100" s="6" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="G100" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="101" spans="6:7" ht="15.75">
+        <v>58</v>
+      </c>
+      <c r="I100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" ht="14.25" spans="6:9">
       <c r="F101" s="6" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="G101" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="102" spans="6:7" ht="15.75">
+        <v>61</v>
+      </c>
+      <c r="I101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" ht="14.25" spans="6:9">
       <c r="F102" s="6" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="G102" s="6" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="103" spans="6:7" ht="15.75">
+        <v>298</v>
+      </c>
+      <c r="I102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" ht="14.25" spans="6:9">
       <c r="F103" s="6" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="G103" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="104" spans="6:7" ht="15.75">
+        <v>64</v>
+      </c>
+      <c r="I103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" ht="14.25" spans="6:9">
       <c r="F104" s="6" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="G104" s="6" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="105" spans="6:7" ht="15.75">
+        <v>299</v>
+      </c>
+      <c r="I104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" ht="14.25" spans="6:9">
       <c r="F105" s="6" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="G105" s="6" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="106" spans="6:7" ht="15.75">
+        <v>300</v>
+      </c>
+      <c r="I105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" ht="14.25" spans="6:9">
       <c r="F106" s="6" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="G106" s="6" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="107" spans="6:7" ht="15.75">
+        <v>301</v>
+      </c>
+      <c r="I106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" ht="14.25" spans="6:9">
       <c r="F107" s="6" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="G107" s="6" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="108" spans="6:7" ht="15.75">
+        <v>302</v>
+      </c>
+      <c r="I107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" ht="14.25" spans="6:9">
       <c r="F108" s="6" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="G108" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="109" spans="6:7" ht="15.75">
+        <v>67</v>
+      </c>
+      <c r="I108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" ht="14.25" spans="6:9">
       <c r="F109" s="6" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="G109" s="6" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="110" spans="6:7" ht="15.75">
+        <v>303</v>
+      </c>
+      <c r="I109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" ht="14.25" spans="6:9">
       <c r="F110" s="6" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="G110" s="6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="111" spans="6:7" ht="15.75">
+        <v>70</v>
+      </c>
+      <c r="I110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" ht="14.25" spans="6:9">
       <c r="F111" s="6" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="G111" s="6" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="112" spans="6:7" ht="15.75">
+        <v>304</v>
+      </c>
+      <c r="I111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" ht="14.25" spans="6:9">
       <c r="F112" s="6" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="G112" s="6" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="113" spans="6:7" ht="15.75">
+        <v>305</v>
+      </c>
+      <c r="I112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" ht="14.25" spans="6:9">
       <c r="F113" s="6" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="G113" s="6" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="114" spans="6:7" ht="15.75">
+        <v>82</v>
+      </c>
+      <c r="I113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" ht="14.25" spans="6:9">
       <c r="F114" s="6" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="G114" s="6" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="115" spans="6:7" ht="15.75">
+        <v>306</v>
+      </c>
+      <c r="I114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" ht="14.25" spans="6:9">
       <c r="F115" s="6" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="G115" s="6" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="116" spans="6:7" ht="15.75">
+        <v>307</v>
+      </c>
+      <c r="I115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" ht="14.25" spans="6:9">
       <c r="F116" s="6" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="G116" s="6" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="117" spans="6:7" ht="15.75">
+        <v>308</v>
+      </c>
+      <c r="I116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" ht="14.25" spans="6:9">
       <c r="F117" s="6" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="G117" s="6" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="118" spans="6:7" ht="15.75">
+        <v>309</v>
+      </c>
+      <c r="I117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" ht="14.25" spans="6:9">
       <c r="F118" s="6" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="G118" s="6" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="119" spans="6:7" ht="15.75">
+        <v>310</v>
+      </c>
+      <c r="I118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" ht="14.25" spans="6:9">
       <c r="F119" s="6" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="G119" s="6" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="120" spans="6:7" ht="15.75">
+        <v>311</v>
+      </c>
+      <c r="I119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" ht="14.25" spans="6:9">
       <c r="F120" s="6" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="G120" s="6" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="121" spans="6:7" ht="15.75">
+        <v>312</v>
+      </c>
+      <c r="I120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" ht="14.25" spans="6:9">
       <c r="F121" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="G121" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="I121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" ht="14.25" spans="6:9">
+      <c r="F122" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="G122" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="I122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" ht="14.25" spans="6:9">
+      <c r="F123" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="G123" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="I123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" ht="14.25" spans="6:9">
+      <c r="F124" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="G124" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="I124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" ht="14.25" spans="6:9">
+      <c r="F125" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="G125" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="I125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" ht="14.25" spans="6:9">
+      <c r="F126" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="G126" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="I126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" ht="14.25" spans="6:9">
+      <c r="F127" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="G127" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="I127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" ht="14.25" spans="6:9">
+      <c r="F128" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="G121" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="122" spans="6:7" ht="15.75">
-      <c r="F122" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="G122" s="6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="123" spans="6:7" ht="15.75">
-      <c r="F123" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="G123" s="6" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="124" spans="6:7" ht="15.75">
-      <c r="F124" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="G124" s="6" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="125" spans="6:7" ht="15.75">
-      <c r="F125" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="G125" s="6" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="126" spans="6:7" ht="15.75">
-      <c r="F126" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="G126" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="127" spans="6:7" ht="15.75">
-      <c r="F127" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="G127" s="6" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="128" spans="6:7" ht="15.75">
-      <c r="F128" s="6" t="s">
-        <v>199</v>
-      </c>
       <c r="G128" s="6" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="129" spans="6:7" ht="15.75">
+        <v>317</v>
+      </c>
+      <c r="I128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" ht="14.25" spans="6:9">
       <c r="F129" s="6" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="G129" s="6" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="130" spans="6:7" ht="15.75">
+        <v>318</v>
+      </c>
+      <c r="I129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" ht="14.25" spans="6:9">
       <c r="F130" s="6" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="G130" s="6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="131" spans="6:7" ht="15.75">
+        <v>73</v>
+      </c>
+      <c r="I130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" ht="14.25" spans="6:9">
       <c r="F131" s="6" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="G131" s="6" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="132" spans="6:7" ht="15.75">
+        <v>319</v>
+      </c>
+      <c r="I131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" ht="14.25" spans="6:9">
       <c r="F132" s="6" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="G132" s="6" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="133" spans="6:7" ht="15.75">
+        <v>320</v>
+      </c>
+      <c r="I132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" ht="14.25" spans="6:9">
       <c r="F133" s="6" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="G133" s="6" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="134" spans="6:7" ht="15.75">
+        <v>321</v>
+      </c>
+      <c r="I133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" ht="14.25" spans="6:9">
       <c r="F134" s="6" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="G134" s="6" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="135" spans="6:7" ht="15.75">
+        <v>322</v>
+      </c>
+      <c r="I134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" ht="14.25" spans="6:9">
       <c r="F135" s="6" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="G135" s="6" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="136" spans="6:7" ht="15.75">
+        <v>323</v>
+      </c>
+      <c r="I135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" ht="14.25" spans="6:9">
       <c r="F136" s="6" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="G136" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="137" spans="6:7" ht="15.75">
+        <v>76</v>
+      </c>
+      <c r="I136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" ht="14.25" spans="6:9">
       <c r="F137" s="6" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="G137" s="6" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="138" spans="6:7" ht="15.75">
+        <v>324</v>
+      </c>
+      <c r="I137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" ht="14.25" spans="6:9">
       <c r="F138" s="6" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="G138" s="6" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="139" spans="6:7" ht="15.75">
+        <v>325</v>
+      </c>
+      <c r="I138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" ht="14.25" spans="6:9">
       <c r="F139" s="6" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="G139" s="6" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="140" spans="6:7" ht="15.75">
+        <v>326</v>
+      </c>
+      <c r="I139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" ht="14.25" spans="6:9">
       <c r="F140" s="6" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="G140" s="6" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="141" spans="6:7" ht="15.75">
+        <v>327</v>
+      </c>
+      <c r="I140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" ht="14.25" spans="6:9">
       <c r="F141" s="6" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="G141" s="6" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="142" spans="6:7" ht="15.75">
+        <v>328</v>
+      </c>
+      <c r="I141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" ht="14.25" spans="6:9">
       <c r="F142" s="6" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="G142" s="6" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="143" spans="6:7" ht="15.75">
+        <v>329</v>
+      </c>
+      <c r="I142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" ht="14.25" spans="6:9">
       <c r="F143" s="6" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="G143" s="6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="144" spans="6:7" ht="15.75">
+        <v>79</v>
+      </c>
+      <c r="I143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" ht="14.25" spans="6:9">
       <c r="F144" s="6" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="G144" s="6" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="145" spans="6:7" ht="15.75">
+        <v>330</v>
+      </c>
+      <c r="I144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" ht="14.25" spans="6:9">
       <c r="F145" s="6" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="G145" s="6" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="146" spans="6:7" ht="15.75">
+        <v>331</v>
+      </c>
+      <c r="I145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" ht="14.25" spans="6:9">
       <c r="F146" s="6" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="G146" s="6" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="147" spans="6:7" ht="15.75">
+        <v>332</v>
+      </c>
+      <c r="I146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" ht="14.25" spans="6:9">
       <c r="F147" s="6" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="G147" s="6" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="148" spans="6:7" ht="15.75">
+        <v>333</v>
+      </c>
+      <c r="I147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" ht="14.25" spans="6:9">
       <c r="F148" s="6" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="G148" s="6" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="149" spans="6:7" ht="15.75">
+        <v>334</v>
+      </c>
+      <c r="I148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" ht="14.25" spans="6:9">
       <c r="F149" s="6" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="G149" s="6" t="s">
-        <v>330</v>
+        <v>335</v>
+      </c>
+      <c r="I149">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="16" type="noConversion"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,常规"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,常规"&amp;12 Page &amp;P</oddFooter>
@@ -4870,233 +5872,233 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="D7:G31"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="1" max="1" width="6.14285714285714" customWidth="1"/>
     <col min="2" max="2" width="5" customWidth="1"/>
-    <col min="3" max="3" width="7.140625" customWidth="1"/>
-    <col min="4" max="4" width="25.85546875" customWidth="1"/>
-    <col min="5" max="5" width="7.140625" customWidth="1"/>
-    <col min="6" max="6" width="42.85546875" customWidth="1"/>
-    <col min="7" max="7" width="52.85546875" customWidth="1"/>
+    <col min="3" max="3" width="7.14285714285714" customWidth="1"/>
+    <col min="4" max="4" width="25.8571428571429" customWidth="1"/>
+    <col min="5" max="5" width="7.14285714285714" customWidth="1"/>
+    <col min="6" max="6" width="42.8571428571429" customWidth="1"/>
+    <col min="7" max="7" width="52.8571428571429" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:7" ht="12.75">
+    <row r="7" spans="4:7">
       <c r="D7" s="4" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="8" spans="4:7" ht="15.75">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="8" ht="15.75" spans="6:7">
       <c r="F8" s="5" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="4:7" ht="15.75">
+    <row r="9" ht="15.75" spans="6:7">
       <c r="F9" s="5" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="4:7" ht="15.75">
+    <row r="10" ht="15.75" spans="6:7">
       <c r="F10" s="5" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="4:7" ht="15.75">
+    <row r="11" ht="15.75" spans="6:7">
       <c r="F11" s="5" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="4:7" ht="15.75">
+    <row r="12" ht="15.75" spans="6:7">
       <c r="F12" s="5" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="4:7" ht="15.75">
+    <row r="13" ht="15.75" spans="6:7">
       <c r="F13" s="5" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="4:7" ht="15.75">
+    <row r="14" ht="15.75" spans="6:7">
       <c r="F14" s="5" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="4:7" ht="15.75">
+    <row r="15" ht="15.75" spans="6:7">
       <c r="F15" s="5" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="G15" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="4:7" ht="15.75">
+    <row r="16" ht="15.75" spans="6:7">
       <c r="F16" s="5" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="6:7" ht="15.75">
+    <row r="17" ht="15.75" spans="6:7">
       <c r="F17" s="5" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="6:7" ht="15.75">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" ht="15.75" spans="6:7">
       <c r="F18" s="5" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="6:7" ht="15.75">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" ht="15.75" spans="6:7">
       <c r="F19" s="5" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="6:7" ht="15.75">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" ht="15.75" spans="6:7">
       <c r="F20" s="5" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" spans="6:7" ht="15.75">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" ht="15.75" spans="6:7">
       <c r="F21" s="5" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="22" spans="6:7" ht="15.75">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" ht="15.75" spans="6:7">
       <c r="F22" s="5" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="23" spans="6:7" ht="15.75">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" ht="15.75" spans="6:7">
       <c r="F23" s="5" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="24" spans="6:7" ht="15.75">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" ht="15.75" spans="6:7">
       <c r="F24" s="5" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="25" spans="6:7" ht="15.75">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" ht="15.75" spans="6:7">
       <c r="F25" s="5" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="26" spans="6:7" ht="15.75">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="26" ht="15.75" spans="6:7">
       <c r="F26" s="5" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="27" spans="6:7" ht="15.75">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="27" ht="15.75" spans="6:7">
       <c r="F27" s="5" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="28" spans="6:7" ht="15.75">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="28" ht="15.75" spans="6:7">
       <c r="F28" s="5" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="29" spans="6:7" ht="15.75">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" ht="15.75" spans="6:7">
       <c r="F29" s="5" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="30" spans="6:7" ht="15.75">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="30" ht="15.75" spans="6:7">
       <c r="F30" s="5" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="31" spans="6:7" ht="15.75">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="31" ht="15.75" spans="6:7">
       <c r="F31" s="5" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="16" type="noConversion"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,标准"&amp;12&amp;A</oddHeader>
@@ -5106,315 +6108,317 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="D7:I44"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="D6:I44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E19" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+    <sheetView zoomScale="95" zoomScaleNormal="95" topLeftCell="E5" workbookViewId="0">
       <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="3" width="8.85546875" customWidth="1"/>
-    <col min="4" max="4" width="27.42578125" customWidth="1"/>
+    <col min="1" max="3" width="8.85714285714286" customWidth="1"/>
+    <col min="4" max="4" width="27.4285714285714" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="23.85546875" customWidth="1"/>
+    <col min="6" max="6" width="23.8571428571429" customWidth="1"/>
     <col min="7" max="7" width="48" customWidth="1"/>
-    <col min="8" max="8" width="24.85546875" customWidth="1"/>
-    <col min="9" max="1025" width="8.85546875" customWidth="1"/>
+    <col min="8" max="8" width="24.8571428571429" customWidth="1"/>
+    <col min="9" max="1025" width="8.85714285714286" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:9" ht="18.95" customHeight="1">
+    <row r="6" ht="13.5"/>
+    <row r="7" ht="18.95" customHeight="1" spans="4:9">
       <c r="D7" s="1" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="4:9" ht="12.75">
+    <row r="8" spans="6:8">
       <c r="F8" s="2" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="9" spans="4:9" ht="12.75">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="6:8">
       <c r="F9" s="2" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="G9" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="6:8">
+      <c r="F10" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="6:8">
+      <c r="F11" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="6:8">
+      <c r="F12" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="H9" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="10" spans="4:9" ht="12.75">
-      <c r="F10" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="11" spans="4:9" ht="12.75">
-      <c r="F11" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="12" spans="4:9" ht="12.75">
-      <c r="F12" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>199</v>
-      </c>
       <c r="H12" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="13" spans="4:9" ht="12.75">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="6:8">
       <c r="F13" s="2" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="G13" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="6:8">
+      <c r="F14" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="6:8">
+      <c r="F15" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="G15" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="H13" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="14" spans="4:9" ht="12.75">
-      <c r="F14" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="15" spans="4:9" ht="12.75">
-      <c r="F15" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>199</v>
-      </c>
       <c r="H15" s="2" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="16" spans="4:9" ht="12.75">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="16" spans="6:8">
       <c r="F16" s="2" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="G16" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="17" spans="6:8">
+      <c r="F17" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="18" spans="6:8">
+      <c r="F18" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="19" spans="6:8">
+      <c r="F19" t="s">
+        <v>349</v>
+      </c>
+      <c r="G19" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="H16" s="2" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="17" spans="4:9" ht="12.75">
-      <c r="F17" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="18" spans="4:9" ht="12.75">
-      <c r="F18" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="19" spans="4:9" ht="12.75">
-      <c r="F19" t="s">
-        <v>344</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>199</v>
-      </c>
       <c r="H19" s="2" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="20" spans="4:9" ht="12.75">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="20" spans="6:8">
       <c r="F20" s="3" t="s">
-        <v>392</v>
+        <v>349</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="21" spans="4:9" ht="12.75">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="21" spans="6:8">
       <c r="F21" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="22" spans="4:9" ht="12.75">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="22" spans="6:8">
       <c r="F22" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="23" spans="4:9" ht="12.75">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="23" spans="4:8">
       <c r="D23" s="2"/>
       <c r="F23" s="2" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="4:9" ht="12.75">
+    <row r="24" spans="6:8">
       <c r="F24" s="2" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="4:9" ht="12.75">
+    <row r="25" spans="6:8">
       <c r="F25" s="2" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="4:9" ht="12.75">
+    <row r="26" spans="6:8">
       <c r="F26" s="2" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>394</v>
+        <v>126</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="4:9" ht="12.75">
+    <row r="27" spans="6:8">
       <c r="F27" s="2" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>395</v>
+        <v>147</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="4:9" ht="12.75">
+    <row r="28" spans="6:8">
       <c r="F28" s="2" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="4:9" ht="12.75">
+    <row r="29" spans="6:8">
       <c r="F29" s="2" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="4:9" ht="12.75">
+    <row r="30" spans="6:8">
       <c r="F30" s="2" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="4:9" ht="12.75">
+    <row r="31" spans="6:8">
       <c r="F31" s="2" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="4:9" ht="12.75">
+    <row r="32" spans="6:9">
       <c r="F32" s="2" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>391</v>
+        <v>143</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>15</v>
@@ -5423,111 +6427,111 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="6:9" ht="12.75">
+    <row r="33" spans="6:8">
       <c r="F33" s="2" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="6:9" ht="12.75">
+    <row r="34" spans="6:8">
       <c r="F34" s="3" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="6:9" ht="12.75">
+    <row r="35" spans="6:8">
       <c r="F35" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H35" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="6:9" ht="12.75">
+    <row r="36" spans="6:8">
       <c r="F36" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H36" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="6:9" ht="12.75">
+    <row r="37" spans="6:8">
       <c r="F37" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H37" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="6:9" ht="12.75">
+    <row r="38" spans="6:8">
       <c r="F38" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="6:9" ht="12.75">
+    <row r="39" spans="6:8">
       <c r="F39" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H39" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="6:9" ht="12.75">
+    <row r="40" spans="6:8">
       <c r="F40" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H40" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="6:9" ht="12.75">
+    <row r="41" spans="6:8">
       <c r="F41" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H41" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="6:9" ht="12.75">
+    <row r="42" spans="6:9">
       <c r="F42" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>390</v>
+        <v>143</v>
       </c>
       <c r="H42" s="2" t="s">
         <v>15</v>
@@ -5536,56 +6540,57 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="6:9" ht="12.75">
+    <row r="43" spans="6:8">
       <c r="F43" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>388</v>
+        <v>147</v>
       </c>
       <c r="H43" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="6:9" ht="12.75">
+    <row r="44" spans="6:8">
       <c r="F44" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="H44" s="2" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="16" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51041666666666696" footer="0.51041666666666696"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.510416666666667" footer="0.510416666666667"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="D7:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelRow="7"/>
   <cols>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.1428571428571" customWidth="1"/>
+    <col min="7" max="7" width="15.8571428571429" customWidth="1"/>
     <col min="8" max="8" width="18" customWidth="1"/>
-    <col min="9" max="9" width="36.42578125" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" customWidth="1"/>
-    <col min="11" max="11" width="11.140625" customWidth="1"/>
+    <col min="9" max="9" width="36.4285714285714" customWidth="1"/>
+    <col min="10" max="10" width="15.1428571428571" customWidth="1"/>
+    <col min="11" max="11" width="11.1428571428571" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="4:11">
       <c r="D7" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="E7" t="s">
         <v>1</v>
@@ -5600,235 +6605,237 @@
         <v>5</v>
       </c>
       <c r="I7" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="J7" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="K7" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="8" spans="4:11">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="8" spans="6:11">
       <c r="F8" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="G8" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="H8" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="I8" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="J8" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="K8" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="D7:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
   <cols>
-    <col min="4" max="4" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="21.4285714285714" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" customWidth="1"/>
-    <col min="7" max="7" width="25.42578125" customWidth="1"/>
-    <col min="8" max="9" width="18.140625" customWidth="1"/>
+    <col min="6" max="6" width="13.1428571428571" customWidth="1"/>
+    <col min="7" max="7" width="25.4285714285714" customWidth="1"/>
+    <col min="8" max="9" width="18.1428571428571" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="4:9">
       <c r="D7" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="E7" t="s">
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="G7" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="H7" t="s">
+        <v>364</v>
+      </c>
+      <c r="I7" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="8" spans="6:9">
+      <c r="F8" t="s">
+        <v>355</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8" t="s">
+        <v>366</v>
+      </c>
+      <c r="I8" t="s">
         <v>359</v>
       </c>
-      <c r="I7" t="s">
+    </row>
+    <row r="9" spans="6:9">
+      <c r="F9" t="s">
+        <v>355</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9" t="s">
+        <v>367</v>
+      </c>
+      <c r="I9" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="10" spans="6:9">
+      <c r="F10" t="s">
+        <v>355</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10" t="s">
+        <v>369</v>
+      </c>
+      <c r="I10" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="11" spans="6:9">
+      <c r="F11" t="s">
+        <v>355</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11" t="s">
+        <v>371</v>
+      </c>
+      <c r="I11" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="8" spans="4:9">
-      <c r="F8" t="s">
-        <v>350</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8" t="s">
-        <v>361</v>
-      </c>
-      <c r="I8" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="9" spans="4:9">
-      <c r="F9" t="s">
-        <v>350</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="H9" t="s">
-        <v>362</v>
-      </c>
-      <c r="I9" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="10" spans="4:9">
-      <c r="F10" t="s">
-        <v>350</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="H10" t="s">
-        <v>364</v>
-      </c>
-      <c r="I10" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="11" spans="4:9">
-      <c r="F11" t="s">
-        <v>350</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="H11" t="s">
-        <v>366</v>
-      </c>
-      <c r="I11" t="s">
-        <v>355</v>
-      </c>
-    </row>
   </sheetData>
-  <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="D7:L9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
   <cols>
-    <col min="4" max="4" width="22.140625" customWidth="1"/>
-    <col min="6" max="6" width="18.85546875" customWidth="1"/>
-    <col min="7" max="7" width="25.85546875" customWidth="1"/>
+    <col min="4" max="4" width="22.1428571428571" customWidth="1"/>
+    <col min="6" max="6" width="18.8571428571429" customWidth="1"/>
+    <col min="7" max="7" width="25.8571428571429" customWidth="1"/>
     <col min="8" max="8" width="36" customWidth="1"/>
-    <col min="9" max="9" width="22.140625" customWidth="1"/>
-    <col min="10" max="10" width="25.85546875" customWidth="1"/>
-    <col min="11" max="11" width="19.85546875" customWidth="1"/>
+    <col min="9" max="9" width="22.1428571428571" customWidth="1"/>
+    <col min="10" max="10" width="25.8571428571429" customWidth="1"/>
+    <col min="11" max="11" width="19.8571428571429" customWidth="1"/>
     <col min="12" max="12" width="21" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="4:12">
       <c r="D7" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="E7" t="s">
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="G7" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="H7" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="I7" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="J7" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="K7" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="L7" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="8" spans="4:12">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="8" spans="6:11">
       <c r="F8" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="H8" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="I8" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="J8" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="K8" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="9" spans="4:12">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="9" spans="6:12">
       <c r="F9" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="I9" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="J9" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="K9" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/src/main/resources/script/meta/micro-service-init-data.xlsx
+++ b/src/main/resources/script/meta/micro-service-init-data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="7860" tabRatio="845" activeTab="2"/>
+    <workbookView windowWidth="19815" windowHeight="7860" tabRatio="845" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
@@ -701,7 +701,7 @@
     <t>Chart</t>
   </si>
   <si>
-    <t>bar_chart</t>
+    <t>poll</t>
   </si>
   <si>
     <t>IAM_MENU_PERMISSION</t>
@@ -1214,9 +1214,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="36">
     <font>
@@ -1304,22 +1304,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1347,14 +1346,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
@@ -1362,8 +1353,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1374,6 +1382,45 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1394,61 +1441,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1469,19 +1469,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1499,19 +1589,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1523,133 +1649,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1678,6 +1678,39 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1695,8 +1728,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1713,15 +1748,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1744,34 +1770,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1781,10 +1781,10 @@
     <xf numFmtId="42" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1793,133 +1793,133 @@
     <xf numFmtId="41" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3097,8 +3097,8 @@
   <sheetPr/>
   <dimension ref="D7:Q42"/>
   <sheetViews>
-    <sheetView zoomScale="86" zoomScaleNormal="86" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" topLeftCell="J22" workbookViewId="0">
+      <selection activeCell="N45" sqref="N45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -3167,7 +3167,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" ht="14.25" spans="4:15">
+    <row r="8" ht="15" spans="4:15">
       <c r="D8" s="3"/>
       <c r="F8" s="7" t="s">
         <v>105</v>
@@ -3196,7 +3196,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" ht="14.25" spans="6:15">
+    <row r="9" ht="15" spans="6:15">
       <c r="F9" s="7" t="s">
         <v>110</v>
       </c>
@@ -3228,7 +3228,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" ht="14.25" spans="6:15">
+    <row r="10" ht="15" spans="6:15">
       <c r="F10" s="7" t="s">
         <v>115</v>
       </c>
@@ -3260,7 +3260,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" ht="14.25" spans="6:15">
+    <row r="11" ht="15" spans="6:15">
       <c r="F11" s="7" t="s">
         <v>119</v>
       </c>
@@ -3288,7 +3288,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" ht="14.25" spans="6:15">
+    <row r="12" ht="15" spans="6:15">
       <c r="F12" s="7" t="s">
         <v>122</v>
       </c>
@@ -3320,7 +3320,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" ht="14.25" spans="6:15">
+    <row r="13" ht="15" spans="6:15">
       <c r="F13" s="7" t="s">
         <v>126</v>
       </c>
@@ -3352,7 +3352,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" ht="14.25" spans="6:15">
+    <row r="14" ht="15" spans="6:15">
       <c r="F14" s="7" t="s">
         <v>130</v>
       </c>
@@ -3382,7 +3382,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" ht="14.25" spans="6:15">
+    <row r="15" ht="15" spans="6:15">
       <c r="F15" s="7" t="s">
         <v>134</v>
       </c>
@@ -3412,7 +3412,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" ht="14.25" spans="6:15">
+    <row r="16" ht="15" spans="6:15">
       <c r="F16" s="7" t="s">
         <v>137</v>
       </c>
@@ -3442,7 +3442,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" ht="14.25" spans="6:15">
+    <row r="17" ht="15" spans="6:15">
       <c r="F17" s="7" t="s">
         <v>140</v>
       </c>
@@ -3472,7 +3472,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" ht="14.25" spans="6:17">
+    <row r="18" ht="15" spans="6:17">
       <c r="F18" s="7" t="s">
         <v>143</v>
       </c>
@@ -3507,7 +3507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" ht="14.25" spans="6:15">
+    <row r="19" ht="15" spans="6:15">
       <c r="F19" s="7" t="s">
         <v>147</v>
       </c>
@@ -3539,7 +3539,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" ht="14.25" spans="6:15">
+    <row r="20" ht="15" spans="6:15">
       <c r="F20" s="8" t="s">
         <v>148</v>
       </c>
@@ -3567,7 +3567,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" ht="14.25" spans="6:15">
+    <row r="21" ht="15" spans="6:15">
       <c r="F21" s="8" t="s">
         <v>151</v>
       </c>
@@ -3599,7 +3599,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" ht="14.25" spans="6:15">
+    <row r="22" ht="15" spans="6:15">
       <c r="F22" s="8" t="s">
         <v>155</v>
       </c>
@@ -3631,7 +3631,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" ht="14.25" spans="6:15">
+    <row r="23" ht="15" spans="6:15">
       <c r="F23" s="8" t="s">
         <v>156</v>
       </c>
@@ -3663,7 +3663,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" ht="14.25" spans="6:15">
+    <row r="24" ht="15" spans="6:15">
       <c r="F24" s="8" t="s">
         <v>160</v>
       </c>
@@ -3695,7 +3695,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" ht="14.25" spans="6:15">
+    <row r="25" ht="15" spans="6:15">
       <c r="F25" s="8" t="s">
         <v>164</v>
       </c>
@@ -3723,7 +3723,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" ht="14.25" spans="6:15">
+    <row r="26" ht="15" spans="6:15">
       <c r="F26" s="8" t="s">
         <v>165</v>
       </c>
@@ -3755,7 +3755,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" ht="14.25" spans="6:15">
+    <row r="27" ht="15" spans="6:15">
       <c r="F27" s="8" t="s">
         <v>166</v>
       </c>
@@ -3787,7 +3787,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" ht="14.25" spans="6:15">
+    <row r="28" ht="15" spans="6:15">
       <c r="F28" s="8" t="s">
         <v>167</v>
       </c>
@@ -3817,7 +3817,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" ht="14.25" spans="6:15">
+    <row r="29" ht="15" spans="6:15">
       <c r="F29" s="10" t="s">
         <v>168</v>
       </c>
@@ -3847,7 +3847,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" ht="14.25" spans="6:15">
+    <row r="30" ht="15" spans="6:15">
       <c r="F30" s="10" t="s">
         <v>173</v>
       </c>
@@ -3879,7 +3879,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" ht="14.25" spans="6:15">
+    <row r="31" ht="15" spans="6:15">
       <c r="F31" s="10" t="s">
         <v>177</v>
       </c>
@@ -3911,7 +3911,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" ht="14.25" spans="6:15">
+    <row r="32" ht="15" spans="6:15">
       <c r="F32" s="10" t="s">
         <v>181</v>
       </c>
@@ -4007,7 +4007,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="35" ht="15" spans="6:15">
+    <row r="35" ht="16.5" spans="6:15">
       <c r="F35" s="11" t="s">
         <v>194</v>
       </c>
@@ -4039,7 +4039,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="36" ht="14.25" spans="6:15">
+    <row r="36" ht="15" spans="6:15">
       <c r="F36" s="12" t="s">
         <v>198</v>
       </c>
@@ -4069,7 +4069,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" ht="14.25" spans="6:15">
+    <row r="37" ht="15" spans="6:15">
       <c r="F37" s="12" t="s">
         <v>203</v>
       </c>
@@ -4101,7 +4101,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" ht="14.25" spans="6:15">
+    <row r="38" ht="15" spans="6:15">
       <c r="F38" s="12" t="s">
         <v>206</v>
       </c>
@@ -4129,7 +4129,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="39" ht="14.25" spans="6:15">
+    <row r="39" ht="15" spans="6:15">
       <c r="F39" s="12" t="s">
         <v>207</v>
       </c>
@@ -4161,7 +4161,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" ht="14.25" spans="6:15">
+    <row r="40" ht="15" spans="6:15">
       <c r="F40" s="12" t="s">
         <v>209</v>
       </c>
@@ -4191,7 +4191,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" ht="14.25" spans="6:15">
+    <row r="41" ht="15" spans="6:15">
       <c r="F41" s="12" t="s">
         <v>212</v>
       </c>
@@ -4217,7 +4217,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="42" ht="14.25" spans="6:15">
+    <row r="42" ht="15" spans="6:15">
       <c r="F42" s="12" t="s">
         <v>215</v>
       </c>
@@ -4264,7 +4264,7 @@
   <sheetPr/>
   <dimension ref="D7:I149"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="I141" sqref="I141"/>
     </sheetView>
   </sheetViews>
@@ -4298,7 +4298,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="8" ht="14.25" spans="4:9">
+    <row r="8" ht="15" spans="4:9">
       <c r="D8" s="3"/>
       <c r="F8" s="6" t="s">
         <v>110</v>
@@ -4310,7 +4310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" ht="14.25" spans="6:9">
+    <row r="9" ht="15" spans="6:9">
       <c r="F9" s="6" t="s">
         <v>110</v>
       </c>
@@ -4321,7 +4321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" ht="14.25" spans="6:9">
+    <row r="10" ht="15" spans="6:9">
       <c r="F10" s="6" t="s">
         <v>110</v>
       </c>
@@ -4332,7 +4332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" ht="14.25" spans="6:9">
+    <row r="11" ht="15" spans="6:9">
       <c r="F11" s="6" t="s">
         <v>110</v>
       </c>
@@ -4343,7 +4343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" ht="14.25" spans="6:9">
+    <row r="12" ht="15" spans="6:9">
       <c r="F12" s="6" t="s">
         <v>110</v>
       </c>
@@ -4354,7 +4354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" ht="14.25" spans="6:9">
+    <row r="13" ht="15" spans="6:9">
       <c r="F13" s="6" t="s">
         <v>115</v>
       </c>
@@ -4365,7 +4365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" ht="14.25" spans="6:9">
+    <row r="14" ht="15" spans="6:9">
       <c r="F14" s="6" t="s">
         <v>115</v>
       </c>
@@ -4376,7 +4376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" ht="14.25" spans="6:9">
+    <row r="15" ht="15" spans="6:9">
       <c r="F15" s="6" t="s">
         <v>115</v>
       </c>
@@ -4387,7 +4387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" ht="14.25" spans="6:9">
+    <row r="16" ht="15" spans="6:9">
       <c r="F16" s="6" t="s">
         <v>115</v>
       </c>
@@ -4398,7 +4398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" ht="14.25" spans="6:9">
+    <row r="17" ht="15" spans="6:9">
       <c r="F17" s="6" t="s">
         <v>115</v>
       </c>
@@ -4409,7 +4409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" ht="14.25" spans="6:9">
+    <row r="18" ht="15" spans="6:9">
       <c r="F18" s="6" t="s">
         <v>115</v>
       </c>
@@ -4420,7 +4420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" ht="14.25" spans="6:9">
+    <row r="19" ht="15" spans="6:9">
       <c r="F19" s="6" t="s">
         <v>115</v>
       </c>
@@ -4431,7 +4431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" ht="14.25" spans="6:9">
+    <row r="20" ht="15" spans="6:9">
       <c r="F20" s="6" t="s">
         <v>115</v>
       </c>
@@ -4442,7 +4442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" ht="14.25" spans="6:9">
+    <row r="21" ht="15" spans="6:9">
       <c r="F21" s="6" t="s">
         <v>115</v>
       </c>
@@ -4453,7 +4453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" ht="14.25" spans="6:9">
+    <row r="22" ht="15" spans="6:9">
       <c r="F22" s="6" t="s">
         <v>115</v>
       </c>
@@ -4464,7 +4464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" ht="14.25" spans="6:9">
+    <row r="23" ht="15" spans="6:9">
       <c r="F23" s="6" t="s">
         <v>115</v>
       </c>
@@ -4475,7 +4475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" ht="14.25" spans="6:9">
+    <row r="24" ht="15" spans="6:9">
       <c r="F24" s="6" t="s">
         <v>115</v>
       </c>
@@ -4486,7 +4486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" ht="14.25" spans="6:9">
+    <row r="25" ht="15" spans="6:9">
       <c r="F25" s="6" t="s">
         <v>115</v>
       </c>
@@ -4497,7 +4497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" ht="14.25" spans="6:9">
+    <row r="26" ht="15" spans="6:9">
       <c r="F26" s="6" t="s">
         <v>115</v>
       </c>
@@ -4508,7 +4508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" ht="14.25" spans="6:9">
+    <row r="27" ht="15" spans="6:9">
       <c r="F27" s="6" t="s">
         <v>115</v>
       </c>
@@ -4519,7 +4519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" ht="14.25" spans="6:9">
+    <row r="28" ht="15" spans="6:9">
       <c r="F28" s="6" t="s">
         <v>115</v>
       </c>
@@ -4530,7 +4530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" ht="14.25" spans="6:9">
+    <row r="29" ht="15" spans="6:9">
       <c r="F29" s="6" t="s">
         <v>115</v>
       </c>
@@ -4541,7 +4541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" ht="14.25" spans="6:9">
+    <row r="30" ht="15" spans="6:9">
       <c r="F30" s="6" t="s">
         <v>115</v>
       </c>
@@ -4552,7 +4552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" ht="14.25" spans="6:9">
+    <row r="31" ht="15" spans="6:9">
       <c r="F31" s="6" t="s">
         <v>115</v>
       </c>
@@ -4563,7 +4563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" ht="14.25" spans="6:9">
+    <row r="32" ht="15" spans="6:9">
       <c r="F32" s="6" t="s">
         <v>122</v>
       </c>
@@ -4574,7 +4574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" ht="14.25" spans="6:9">
+    <row r="33" ht="15" spans="6:9">
       <c r="F33" s="6" t="s">
         <v>130</v>
       </c>
@@ -4585,7 +4585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" ht="14.25" spans="6:9">
+    <row r="34" ht="15" spans="6:9">
       <c r="F34" s="6" t="s">
         <v>130</v>
       </c>
@@ -4596,7 +4596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" ht="14.25" spans="6:9">
+    <row r="35" ht="15" spans="6:9">
       <c r="F35" s="6" t="s">
         <v>130</v>
       </c>
@@ -4607,7 +4607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" ht="14.25" spans="6:9">
+    <row r="36" ht="15" spans="6:9">
       <c r="F36" s="6" t="s">
         <v>134</v>
       </c>
@@ -4618,7 +4618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" ht="14.25" spans="6:9">
+    <row r="37" ht="15" spans="6:9">
       <c r="F37" s="6" t="s">
         <v>134</v>
       </c>
@@ -4629,7 +4629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" ht="14.25" spans="6:9">
+    <row r="38" ht="15" spans="6:9">
       <c r="F38" s="6" t="s">
         <v>134</v>
       </c>
@@ -4640,7 +4640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" ht="14.25" spans="6:9">
+    <row r="39" ht="15" spans="6:9">
       <c r="F39" s="6" t="s">
         <v>134</v>
       </c>
@@ -4651,7 +4651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" ht="14.25" spans="6:9">
+    <row r="40" ht="15" spans="6:9">
       <c r="F40" s="6" t="s">
         <v>134</v>
       </c>
@@ -4662,7 +4662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" ht="14.25" spans="6:9">
+    <row r="41" ht="15" spans="6:9">
       <c r="F41" s="6" t="s">
         <v>134</v>
       </c>
@@ -4673,7 +4673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" ht="14.25" spans="6:9">
+    <row r="42" ht="15" spans="6:9">
       <c r="F42" s="6" t="s">
         <v>134</v>
       </c>
@@ -4684,7 +4684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" ht="14.25" spans="6:9">
+    <row r="43" ht="15" spans="6:9">
       <c r="F43" s="6" t="s">
         <v>134</v>
       </c>
@@ -4695,7 +4695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" ht="14.25" spans="6:9">
+    <row r="44" ht="15" spans="6:9">
       <c r="F44" s="6" t="s">
         <v>134</v>
       </c>
@@ -4706,7 +4706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" ht="14.25" spans="6:9">
+    <row r="45" ht="15" spans="6:9">
       <c r="F45" s="6" t="s">
         <v>137</v>
       </c>
@@ -4717,7 +4717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" ht="14.25" spans="6:9">
+    <row r="46" ht="15" spans="6:9">
       <c r="F46" s="6" t="s">
         <v>137</v>
       </c>
@@ -4728,7 +4728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" ht="14.25" spans="6:9">
+    <row r="47" ht="15" spans="6:9">
       <c r="F47" s="6" t="s">
         <v>137</v>
       </c>
@@ -4739,7 +4739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" ht="14.25" spans="6:9">
+    <row r="48" ht="15" spans="6:9">
       <c r="F48" s="6" t="s">
         <v>137</v>
       </c>
@@ -4750,7 +4750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" ht="14.25" spans="6:9">
+    <row r="49" ht="15" spans="6:9">
       <c r="F49" s="6" t="s">
         <v>137</v>
       </c>
@@ -4761,7 +4761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" ht="14.25" spans="6:9">
+    <row r="50" ht="15" spans="6:9">
       <c r="F50" s="6" t="s">
         <v>137</v>
       </c>
@@ -4772,7 +4772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" ht="14.25" spans="6:9">
+    <row r="51" ht="15" spans="6:9">
       <c r="F51" s="6" t="s">
         <v>126</v>
       </c>
@@ -4783,7 +4783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" ht="14.25" spans="6:9">
+    <row r="52" ht="15" spans="6:9">
       <c r="F52" s="6" t="s">
         <v>140</v>
       </c>
@@ -4794,7 +4794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" ht="14.25" spans="6:9">
+    <row r="53" ht="15" spans="6:9">
       <c r="F53" s="6" t="s">
         <v>140</v>
       </c>
@@ -4805,7 +4805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" ht="14.25" spans="6:9">
+    <row r="54" ht="15" spans="6:9">
       <c r="F54" s="6" t="s">
         <v>140</v>
       </c>
@@ -4816,7 +4816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" ht="14.25" spans="6:9">
+    <row r="55" ht="15" spans="6:9">
       <c r="F55" s="6" t="s">
         <v>147</v>
       </c>
@@ -4827,7 +4827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" ht="14.25" spans="6:9">
+    <row r="56" ht="15" spans="6:9">
       <c r="F56" s="6" t="s">
         <v>147</v>
       </c>
@@ -4838,7 +4838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" ht="14.25" spans="6:9">
+    <row r="57" ht="15" spans="6:9">
       <c r="F57" s="6" t="s">
         <v>147</v>
       </c>
@@ -4849,7 +4849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" ht="14.25" spans="6:9">
+    <row r="58" ht="15" spans="6:9">
       <c r="F58" s="6" t="s">
         <v>147</v>
       </c>
@@ -4860,7 +4860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" ht="14.25" spans="6:9">
+    <row r="59" ht="15" spans="6:9">
       <c r="F59" s="6" t="s">
         <v>147</v>
       </c>
@@ -4871,7 +4871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" ht="14.25" spans="6:9">
+    <row r="60" ht="15" spans="6:9">
       <c r="F60" s="6" t="s">
         <v>147</v>
       </c>
@@ -4882,7 +4882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" ht="14.25" spans="6:9">
+    <row r="61" ht="15" spans="6:9">
       <c r="F61" s="6" t="s">
         <v>147</v>
       </c>
@@ -4893,7 +4893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" ht="14.25" spans="6:9">
+    <row r="62" ht="15" spans="6:9">
       <c r="F62" s="6" t="s">
         <v>147</v>
       </c>
@@ -4904,7 +4904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" ht="14.25" spans="6:9">
+    <row r="63" ht="15" spans="6:9">
       <c r="F63" s="6" t="s">
         <v>147</v>
       </c>
@@ -4915,7 +4915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" ht="14.25" spans="6:9">
+    <row r="64" ht="15" spans="6:9">
       <c r="F64" s="6" t="s">
         <v>151</v>
       </c>
@@ -4926,7 +4926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" ht="14.25" spans="6:9">
+    <row r="65" ht="15" spans="6:9">
       <c r="F65" s="6" t="s">
         <v>151</v>
       </c>
@@ -4937,7 +4937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" ht="14.25" spans="6:9">
+    <row r="66" ht="15" spans="6:9">
       <c r="F66" s="6" t="s">
         <v>151</v>
       </c>
@@ -4948,7 +4948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" ht="14.25" spans="6:9">
+    <row r="67" ht="15" spans="6:9">
       <c r="F67" s="6" t="s">
         <v>151</v>
       </c>
@@ -4959,7 +4959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" ht="14.25" spans="6:9">
+    <row r="68" ht="15" spans="6:9">
       <c r="F68" s="6" t="s">
         <v>155</v>
       </c>
@@ -4970,7 +4970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" ht="14.25" spans="6:9">
+    <row r="69" ht="15" spans="6:9">
       <c r="F69" s="6" t="s">
         <v>155</v>
       </c>
@@ -4981,7 +4981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" ht="14.25" spans="6:9">
+    <row r="70" ht="15" spans="6:9">
       <c r="F70" s="6" t="s">
         <v>155</v>
       </c>
@@ -4992,7 +4992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" ht="14.25" spans="6:9">
+    <row r="71" ht="15" spans="6:9">
       <c r="F71" s="6" t="s">
         <v>155</v>
       </c>
@@ -5003,7 +5003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" ht="14.25" spans="6:9">
+    <row r="72" ht="15" spans="6:9">
       <c r="F72" s="6" t="s">
         <v>155</v>
       </c>
@@ -5014,7 +5014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" ht="14.25" spans="6:9">
+    <row r="73" ht="15" spans="6:9">
       <c r="F73" s="6" t="s">
         <v>155</v>
       </c>
@@ -5025,7 +5025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" ht="14.25" spans="6:9">
+    <row r="74" ht="15" spans="6:9">
       <c r="F74" s="6" t="s">
         <v>155</v>
       </c>
@@ -5036,7 +5036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" ht="14.25" spans="6:9">
+    <row r="75" ht="15" spans="6:9">
       <c r="F75" s="6" t="s">
         <v>155</v>
       </c>
@@ -5047,7 +5047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" ht="14.25" spans="6:9">
+    <row r="76" ht="15" spans="6:9">
       <c r="F76" s="6" t="s">
         <v>155</v>
       </c>
@@ -5058,7 +5058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" ht="14.25" spans="6:9">
+    <row r="77" ht="15" spans="6:9">
       <c r="F77" s="6" t="s">
         <v>155</v>
       </c>
@@ -5069,7 +5069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" ht="14.25" spans="6:9">
+    <row r="78" ht="15" spans="6:9">
       <c r="F78" s="6" t="s">
         <v>155</v>
       </c>
@@ -5080,7 +5080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" ht="14.25" spans="6:9">
+    <row r="79" ht="15" spans="6:9">
       <c r="F79" s="6" t="s">
         <v>155</v>
       </c>
@@ -5091,7 +5091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" ht="14.25" spans="6:9">
+    <row r="80" ht="15" spans="6:9">
       <c r="F80" s="6" t="s">
         <v>155</v>
       </c>
@@ -5102,7 +5102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" ht="14.25" spans="6:9">
+    <row r="81" ht="15" spans="6:9">
       <c r="F81" s="6" t="s">
         <v>155</v>
       </c>
@@ -5113,7 +5113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" ht="14.25" spans="6:9">
+    <row r="82" ht="15" spans="6:9">
       <c r="F82" s="6" t="s">
         <v>156</v>
       </c>
@@ -5124,7 +5124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" ht="14.25" spans="6:9">
+    <row r="83" ht="15" spans="6:9">
       <c r="F83" s="6" t="s">
         <v>156</v>
       </c>
@@ -5135,7 +5135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" ht="14.25" spans="6:9">
+    <row r="84" ht="15" spans="6:9">
       <c r="F84" s="6" t="s">
         <v>156</v>
       </c>
@@ -5146,7 +5146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" ht="14.25" spans="6:9">
+    <row r="85" ht="15" spans="6:9">
       <c r="F85" s="6" t="s">
         <v>156</v>
       </c>
@@ -5157,7 +5157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" ht="14.25" spans="6:9">
+    <row r="86" ht="15" spans="6:9">
       <c r="F86" s="6" t="s">
         <v>156</v>
       </c>
@@ -5168,7 +5168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" ht="14.25" spans="6:9">
+    <row r="87" ht="15" spans="6:9">
       <c r="F87" s="6" t="s">
         <v>156</v>
       </c>
@@ -5179,7 +5179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" ht="14.25" spans="6:9">
+    <row r="88" ht="15" spans="6:9">
       <c r="F88" s="6" t="s">
         <v>156</v>
       </c>
@@ -5190,7 +5190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" ht="14.25" spans="6:9">
+    <row r="89" ht="15" spans="6:9">
       <c r="F89" s="6" t="s">
         <v>156</v>
       </c>
@@ -5201,7 +5201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" ht="14.25" spans="6:9">
+    <row r="90" ht="15" spans="6:9">
       <c r="F90" s="6" t="s">
         <v>156</v>
       </c>
@@ -5212,7 +5212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" ht="14.25" spans="6:9">
+    <row r="91" ht="15" spans="6:9">
       <c r="F91" s="6" t="s">
         <v>156</v>
       </c>
@@ -5223,7 +5223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" ht="14.25" spans="6:9">
+    <row r="92" ht="15" spans="6:9">
       <c r="F92" s="6" t="s">
         <v>156</v>
       </c>
@@ -5234,7 +5234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" ht="14.25" spans="6:9">
+    <row r="93" ht="15" spans="6:9">
       <c r="F93" s="6" t="s">
         <v>160</v>
       </c>
@@ -5245,7 +5245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" ht="14.25" spans="6:9">
+    <row r="94" ht="15" spans="6:9">
       <c r="F94" s="6" t="s">
         <v>160</v>
       </c>
@@ -5256,7 +5256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" ht="14.25" spans="6:9">
+    <row r="95" ht="15" spans="6:9">
       <c r="F95" s="6" t="s">
         <v>160</v>
       </c>
@@ -5267,7 +5267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" ht="14.25" spans="6:9">
+    <row r="96" ht="15" spans="6:9">
       <c r="F96" s="6" t="s">
         <v>160</v>
       </c>
@@ -5278,7 +5278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" ht="14.25" spans="6:9">
+    <row r="97" ht="15" spans="6:9">
       <c r="F97" s="6" t="s">
         <v>165</v>
       </c>
@@ -5289,7 +5289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" ht="14.25" spans="6:9">
+    <row r="98" ht="15" spans="6:9">
       <c r="F98" s="6" t="s">
         <v>165</v>
       </c>
@@ -5300,7 +5300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" ht="14.25" spans="6:9">
+    <row r="99" ht="15" spans="6:9">
       <c r="F99" s="6" t="s">
         <v>165</v>
       </c>
@@ -5311,7 +5311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" ht="14.25" spans="6:9">
+    <row r="100" ht="15" spans="6:9">
       <c r="F100" s="6" t="s">
         <v>166</v>
       </c>
@@ -5322,7 +5322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" ht="14.25" spans="6:9">
+    <row r="101" ht="15" spans="6:9">
       <c r="F101" s="6" t="s">
         <v>167</v>
       </c>
@@ -5333,7 +5333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" ht="14.25" spans="6:9">
+    <row r="102" ht="15" spans="6:9">
       <c r="F102" s="6" t="s">
         <v>167</v>
       </c>
@@ -5344,7 +5344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" ht="14.25" spans="6:9">
+    <row r="103" ht="15" spans="6:9">
       <c r="F103" s="6" t="s">
         <v>173</v>
       </c>
@@ -5355,7 +5355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" ht="14.25" spans="6:9">
+    <row r="104" ht="15" spans="6:9">
       <c r="F104" s="6" t="s">
         <v>173</v>
       </c>
@@ -5366,7 +5366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" ht="14.25" spans="6:9">
+    <row r="105" ht="15" spans="6:9">
       <c r="F105" s="6" t="s">
         <v>173</v>
       </c>
@@ -5377,7 +5377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" ht="14.25" spans="6:9">
+    <row r="106" ht="15" spans="6:9">
       <c r="F106" s="6" t="s">
         <v>173</v>
       </c>
@@ -5388,7 +5388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" ht="14.25" spans="6:9">
+    <row r="107" ht="15" spans="6:9">
       <c r="F107" s="6" t="s">
         <v>173</v>
       </c>
@@ -5399,7 +5399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" ht="14.25" spans="6:9">
+    <row r="108" ht="15" spans="6:9">
       <c r="F108" s="6" t="s">
         <v>177</v>
       </c>
@@ -5410,7 +5410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" ht="14.25" spans="6:9">
+    <row r="109" ht="15" spans="6:9">
       <c r="F109" s="6" t="s">
         <v>177</v>
       </c>
@@ -5421,7 +5421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" ht="14.25" spans="6:9">
+    <row r="110" ht="15" spans="6:9">
       <c r="F110" s="6" t="s">
         <v>181</v>
       </c>
@@ -5432,7 +5432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" ht="14.25" spans="6:9">
+    <row r="111" ht="15" spans="6:9">
       <c r="F111" s="6" t="s">
         <v>181</v>
       </c>
@@ -5443,7 +5443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" ht="14.25" spans="6:9">
+    <row r="112" ht="15" spans="6:9">
       <c r="F112" s="6" t="s">
         <v>181</v>
       </c>
@@ -5454,7 +5454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" ht="14.25" spans="6:9">
+    <row r="113" ht="15" spans="6:9">
       <c r="F113" s="6" t="s">
         <v>203</v>
       </c>
@@ -5465,7 +5465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" ht="14.25" spans="6:9">
+    <row r="114" ht="15" spans="6:9">
       <c r="F114" s="6" t="s">
         <v>203</v>
       </c>
@@ -5476,7 +5476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" ht="14.25" spans="6:9">
+    <row r="115" ht="15" spans="6:9">
       <c r="F115" s="6" t="s">
         <v>203</v>
       </c>
@@ -5487,7 +5487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" ht="14.25" spans="6:9">
+    <row r="116" ht="15" spans="6:9">
       <c r="F116" s="6" t="s">
         <v>203</v>
       </c>
@@ -5498,7 +5498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" ht="14.25" spans="6:9">
+    <row r="117" ht="15" spans="6:9">
       <c r="F117" s="6" t="s">
         <v>203</v>
       </c>
@@ -5509,7 +5509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" ht="14.25" spans="6:9">
+    <row r="118" ht="15" spans="6:9">
       <c r="F118" s="6" t="s">
         <v>203</v>
       </c>
@@ -5520,7 +5520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" ht="14.25" spans="6:9">
+    <row r="119" ht="15" spans="6:9">
       <c r="F119" s="6" t="s">
         <v>203</v>
       </c>
@@ -5531,7 +5531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" ht="14.25" spans="6:9">
+    <row r="120" ht="15" spans="6:9">
       <c r="F120" s="6" t="s">
         <v>203</v>
       </c>
@@ -5542,7 +5542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" ht="14.25" spans="6:9">
+    <row r="121" ht="15" spans="6:9">
       <c r="F121" s="6" t="s">
         <v>207</v>
       </c>
@@ -5553,7 +5553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" ht="14.25" spans="6:9">
+    <row r="122" ht="15" spans="6:9">
       <c r="F122" s="6" t="s">
         <v>209</v>
       </c>
@@ -5564,7 +5564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" ht="14.25" spans="6:9">
+    <row r="123" ht="15" spans="6:9">
       <c r="F123" s="6" t="s">
         <v>209</v>
       </c>
@@ -5575,7 +5575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" ht="14.25" spans="6:9">
+    <row r="124" ht="15" spans="6:9">
       <c r="F124" s="6" t="s">
         <v>209</v>
       </c>
@@ -5586,7 +5586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" ht="14.25" spans="6:9">
+    <row r="125" ht="15" spans="6:9">
       <c r="F125" s="6" t="s">
         <v>209</v>
       </c>
@@ -5597,7 +5597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" ht="14.25" spans="6:9">
+    <row r="126" ht="15" spans="6:9">
       <c r="F126" s="6" t="s">
         <v>215</v>
       </c>
@@ -5608,7 +5608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" ht="14.25" spans="6:9">
+    <row r="127" ht="15" spans="6:9">
       <c r="F127" s="6" t="s">
         <v>215</v>
       </c>
@@ -5619,7 +5619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" ht="14.25" spans="6:9">
+    <row r="128" ht="15" spans="6:9">
       <c r="F128" s="6" t="s">
         <v>203</v>
       </c>
@@ -5630,7 +5630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" ht="14.25" spans="6:9">
+    <row r="129" ht="15" spans="6:9">
       <c r="F129" s="6" t="s">
         <v>215</v>
       </c>
@@ -5641,7 +5641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" ht="14.25" spans="6:9">
+    <row r="130" ht="15" spans="6:9">
       <c r="F130" s="6" t="s">
         <v>185</v>
       </c>
@@ -5652,7 +5652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" ht="14.25" spans="6:9">
+    <row r="131" ht="15" spans="6:9">
       <c r="F131" s="6" t="s">
         <v>185</v>
       </c>
@@ -5663,7 +5663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" ht="14.25" spans="6:9">
+    <row r="132" ht="15" spans="6:9">
       <c r="F132" s="6" t="s">
         <v>185</v>
       </c>
@@ -5674,7 +5674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" ht="14.25" spans="6:9">
+    <row r="133" ht="15" spans="6:9">
       <c r="F133" s="6" t="s">
         <v>185</v>
       </c>
@@ -5685,7 +5685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" ht="14.25" spans="6:9">
+    <row r="134" ht="15" spans="6:9">
       <c r="F134" s="6" t="s">
         <v>185</v>
       </c>
@@ -5696,7 +5696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" ht="14.25" spans="6:9">
+    <row r="135" ht="15" spans="6:9">
       <c r="F135" s="6" t="s">
         <v>185</v>
       </c>
@@ -5707,7 +5707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" ht="14.25" spans="6:9">
+    <row r="136" ht="15" spans="6:9">
       <c r="F136" s="6" t="s">
         <v>190</v>
       </c>
@@ -5718,7 +5718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" ht="14.25" spans="6:9">
+    <row r="137" ht="15" spans="6:9">
       <c r="F137" s="6" t="s">
         <v>190</v>
       </c>
@@ -5729,7 +5729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" ht="14.25" spans="6:9">
+    <row r="138" ht="15" spans="6:9">
       <c r="F138" s="6" t="s">
         <v>190</v>
       </c>
@@ -5740,7 +5740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" ht="14.25" spans="6:9">
+    <row r="139" ht="15" spans="6:9">
       <c r="F139" s="6" t="s">
         <v>190</v>
       </c>
@@ -5751,7 +5751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" ht="14.25" spans="6:9">
+    <row r="140" ht="15" spans="6:9">
       <c r="F140" s="6" t="s">
         <v>190</v>
       </c>
@@ -5762,7 +5762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" ht="14.25" spans="6:9">
+    <row r="141" ht="15" spans="6:9">
       <c r="F141" s="6" t="s">
         <v>190</v>
       </c>
@@ -5773,7 +5773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" ht="14.25" spans="6:9">
+    <row r="142" ht="15" spans="6:9">
       <c r="F142" s="6" t="s">
         <v>190</v>
       </c>
@@ -5784,7 +5784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" ht="14.25" spans="6:9">
+    <row r="143" ht="15" spans="6:9">
       <c r="F143" s="6" t="s">
         <v>194</v>
       </c>
@@ -5795,7 +5795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" ht="14.25" spans="6:9">
+    <row r="144" ht="15" spans="6:9">
       <c r="F144" s="6" t="s">
         <v>194</v>
       </c>
@@ -5806,7 +5806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" ht="14.25" spans="6:9">
+    <row r="145" ht="15" spans="6:9">
       <c r="F145" s="6" t="s">
         <v>194</v>
       </c>
@@ -5817,7 +5817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" ht="14.25" spans="6:9">
+    <row r="146" ht="15" spans="6:9">
       <c r="F146" s="6" t="s">
         <v>194</v>
       </c>
@@ -5828,7 +5828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" ht="14.25" spans="6:9">
+    <row r="147" ht="15" spans="6:9">
       <c r="F147" s="6" t="s">
         <v>194</v>
       </c>
@@ -5839,7 +5839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" ht="14.25" spans="6:9">
+    <row r="148" ht="15" spans="6:9">
       <c r="F148" s="6" t="s">
         <v>194</v>
       </c>
@@ -5850,7 +5850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" ht="14.25" spans="6:9">
+    <row r="149" ht="15" spans="6:9">
       <c r="F149" s="6" t="s">
         <v>194</v>
       </c>

--- a/src/main/resources/script/meta/micro-service-init-data.xlsx
+++ b/src/main/resources/script/meta/micro-service-init-data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="7860" tabRatio="845" activeTab="1"/>
+    <workbookView windowWidth="19815" windowHeight="7860" tabRatio="845" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="987" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="989" uniqueCount="388">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -986,6 +986,9 @@
     <t>base-service.role-member.import2MemberRoleOnProject</t>
   </si>
   <si>
+    <t>base-service.role-member.assignUsersRolesOnProjectLevel</t>
+  </si>
+  <si>
     <t>base-service.project.disable-project</t>
   </si>
   <si>
@@ -1214,9 +1217,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="36">
     <font>
@@ -1304,13 +1307,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -1318,7 +1314,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1353,6 +1349,66 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -1377,14 +1433,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -1402,53 +1450,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1469,13 +1472,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1487,7 +1508,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1499,67 +1640,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1571,85 +1652,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1681,8 +1684,32 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1691,7 +1718,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1711,21 +1753,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1733,21 +1760,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1766,160 +1778,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3097,8 +3100,8 @@
   <sheetPr/>
   <dimension ref="D7:Q42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" topLeftCell="J22" workbookViewId="0">
-      <selection activeCell="N45" sqref="N45"/>
+    <sheetView zoomScale="86" zoomScaleNormal="86" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -4262,10 +4265,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="D7:I149"/>
+  <dimension ref="D7:I150"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I141" sqref="I141"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="A102" workbookViewId="0">
+      <selection activeCell="G118" sqref="G118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -5544,21 +5547,21 @@
     </row>
     <row r="121" ht="15" spans="6:9">
       <c r="F121" s="6" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="G121" s="6" t="s">
-        <v>86</v>
+        <v>313</v>
       </c>
       <c r="I121">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" ht="15" spans="6:9">
       <c r="F122" s="6" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G122" s="6" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="I122">
         <v>1</v>
@@ -5569,10 +5572,10 @@
         <v>209</v>
       </c>
       <c r="G123" s="6" t="s">
-        <v>313</v>
+        <v>89</v>
       </c>
       <c r="I123">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" ht="15" spans="6:9">
@@ -5583,7 +5586,7 @@
         <v>314</v>
       </c>
       <c r="I124">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" ht="15" spans="6:9">
@@ -5594,18 +5597,18 @@
         <v>315</v>
       </c>
       <c r="I125">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" ht="15" spans="6:9">
       <c r="F126" s="6" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="G126" s="6" t="s">
-        <v>92</v>
+        <v>316</v>
       </c>
       <c r="I126">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" ht="15" spans="6:9">
@@ -5613,7 +5616,7 @@
         <v>215</v>
       </c>
       <c r="G127" s="6" t="s">
-        <v>316</v>
+        <v>92</v>
       </c>
       <c r="I127">
         <v>1</v>
@@ -5621,7 +5624,7 @@
     </row>
     <row r="128" ht="15" spans="6:9">
       <c r="F128" s="6" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="G128" s="6" t="s">
         <v>317</v>
@@ -5632,7 +5635,7 @@
     </row>
     <row r="129" ht="15" spans="6:9">
       <c r="F129" s="6" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="G129" s="6" t="s">
         <v>318</v>
@@ -5643,10 +5646,10 @@
     </row>
     <row r="130" ht="15" spans="6:9">
       <c r="F130" s="6" t="s">
-        <v>185</v>
+        <v>215</v>
       </c>
       <c r="G130" s="6" t="s">
-        <v>73</v>
+        <v>319</v>
       </c>
       <c r="I130">
         <v>1</v>
@@ -5657,7 +5660,7 @@
         <v>185</v>
       </c>
       <c r="G131" s="6" t="s">
-        <v>319</v>
+        <v>73</v>
       </c>
       <c r="I131">
         <v>1</v>
@@ -5671,7 +5674,7 @@
         <v>320</v>
       </c>
       <c r="I132">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" ht="15" spans="6:9">
@@ -5709,13 +5712,13 @@
     </row>
     <row r="136" ht="15" spans="6:9">
       <c r="F136" s="6" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="G136" s="6" t="s">
-        <v>76</v>
+        <v>324</v>
       </c>
       <c r="I136">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" ht="15" spans="6:9">
@@ -5723,10 +5726,10 @@
         <v>190</v>
       </c>
       <c r="G137" s="6" t="s">
-        <v>324</v>
+        <v>76</v>
       </c>
       <c r="I137">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" ht="15" spans="6:9">
@@ -5748,7 +5751,7 @@
         <v>326</v>
       </c>
       <c r="I139">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" ht="15" spans="6:9">
@@ -5770,7 +5773,7 @@
         <v>328</v>
       </c>
       <c r="I141">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" ht="15" spans="6:9">
@@ -5786,13 +5789,13 @@
     </row>
     <row r="143" ht="15" spans="6:9">
       <c r="F143" s="6" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="G143" s="6" t="s">
-        <v>79</v>
+        <v>330</v>
       </c>
       <c r="I143">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" ht="15" spans="6:9">
@@ -5800,7 +5803,7 @@
         <v>194</v>
       </c>
       <c r="G144" s="6" t="s">
-        <v>330</v>
+        <v>79</v>
       </c>
       <c r="I144">
         <v>1</v>
@@ -5814,7 +5817,7 @@
         <v>331</v>
       </c>
       <c r="I145">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" ht="15" spans="6:9">
@@ -5858,6 +5861,17 @@
         <v>335</v>
       </c>
       <c r="I149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" ht="15" spans="6:9">
+      <c r="F150" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="G150" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="I150">
         <v>0</v>
       </c>
     </row>
@@ -5893,13 +5907,13 @@
   <sheetData>
     <row r="7" spans="4:7">
       <c r="D7" s="4" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>221</v>
@@ -5907,7 +5921,7 @@
     </row>
     <row r="8" ht="15.75" spans="6:7">
       <c r="F8" s="5" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>12</v>
@@ -5915,7 +5929,7 @@
     </row>
     <row r="9" ht="15.75" spans="6:7">
       <c r="F9" s="5" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>18</v>
@@ -5923,7 +5937,7 @@
     </row>
     <row r="10" ht="15.75" spans="6:7">
       <c r="F10" s="5" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>21</v>
@@ -5931,7 +5945,7 @@
     </row>
     <row r="11" ht="15.75" spans="6:7">
       <c r="F11" s="5" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>24</v>
@@ -5939,7 +5953,7 @@
     </row>
     <row r="12" ht="15.75" spans="6:7">
       <c r="F12" s="5" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>27</v>
@@ -5947,7 +5961,7 @@
     </row>
     <row r="13" ht="15.75" spans="6:7">
       <c r="F13" s="5" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>30</v>
@@ -5955,7 +5969,7 @@
     </row>
     <row r="14" ht="15.75" spans="6:7">
       <c r="F14" s="5" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>33</v>
@@ -5963,7 +5977,7 @@
     </row>
     <row r="15" ht="15.75" spans="6:7">
       <c r="F15" s="5" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="G15" s="5" t="s">
         <v>36</v>
@@ -5971,7 +5985,7 @@
     </row>
     <row r="16" ht="15.75" spans="6:7">
       <c r="F16" s="5" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>39</v>
@@ -5979,7 +5993,7 @@
     </row>
     <row r="17" ht="15.75" spans="6:7">
       <c r="F17" s="5" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>42</v>
@@ -5987,7 +6001,7 @@
     </row>
     <row r="18" ht="15.75" spans="6:7">
       <c r="F18" s="5" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="G18" s="5" t="s">
         <v>46</v>
@@ -5995,7 +6009,7 @@
     </row>
     <row r="19" ht="15.75" spans="6:7">
       <c r="F19" s="5" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="G19" s="5" t="s">
         <v>49</v>
@@ -6003,7 +6017,7 @@
     </row>
     <row r="20" ht="15.75" spans="6:7">
       <c r="F20" s="5" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="G20" s="5" t="s">
         <v>52</v>
@@ -6011,7 +6025,7 @@
     </row>
     <row r="21" ht="15.75" spans="6:7">
       <c r="F21" s="5" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="G21" s="5" t="s">
         <v>55</v>
@@ -6019,7 +6033,7 @@
     </row>
     <row r="22" ht="15.75" spans="6:7">
       <c r="F22" s="5" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="G22" s="5" t="s">
         <v>58</v>
@@ -6027,7 +6041,7 @@
     </row>
     <row r="23" ht="15.75" spans="6:7">
       <c r="F23" s="5" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="G23" s="5" t="s">
         <v>61</v>
@@ -6035,7 +6049,7 @@
     </row>
     <row r="24" ht="15.75" spans="6:7">
       <c r="F24" s="5" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="G24" s="5" t="s">
         <v>73</v>
@@ -6043,7 +6057,7 @@
     </row>
     <row r="25" ht="15.75" spans="6:7">
       <c r="F25" s="5" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="G25" s="5" t="s">
         <v>76</v>
@@ -6051,7 +6065,7 @@
     </row>
     <row r="26" ht="15.75" spans="6:7">
       <c r="F26" s="5" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="G26" s="5" t="s">
         <v>79</v>
@@ -6059,7 +6073,7 @@
     </row>
     <row r="27" ht="15.75" spans="6:7">
       <c r="F27" s="5" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="G27" s="5" t="s">
         <v>82</v>
@@ -6067,7 +6081,7 @@
     </row>
     <row r="28" ht="15.75" spans="6:7">
       <c r="F28" s="5" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="G28" s="5" t="s">
         <v>86</v>
@@ -6075,7 +6089,7 @@
     </row>
     <row r="29" ht="15.75" spans="6:7">
       <c r="F29" s="5" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="G29" s="5" t="s">
         <v>89</v>
@@ -6083,7 +6097,7 @@
     </row>
     <row r="30" ht="15.75" spans="6:7">
       <c r="F30" s="5" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="G30" s="5" t="s">
         <v>92</v>
@@ -6091,7 +6105,7 @@
     </row>
     <row r="31" ht="15.75" spans="6:7">
       <c r="F31" s="5" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="G31" s="5" t="s">
         <v>92</v>
@@ -6130,19 +6144,19 @@
     <row r="6" ht="13.5"/>
     <row r="7" ht="18.95" customHeight="1" spans="4:9">
       <c r="D7" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>220</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>11</v>
@@ -6150,7 +6164,7 @@
     </row>
     <row r="8" spans="6:8">
       <c r="F8" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>203</v>
@@ -6161,7 +6175,7 @@
     </row>
     <row r="9" spans="6:8">
       <c r="F9" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>207</v>
@@ -6172,7 +6186,7 @@
     </row>
     <row r="10" spans="6:8">
       <c r="F10" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>209</v>
@@ -6183,7 +6197,7 @@
     </row>
     <row r="11" spans="6:8">
       <c r="F11" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>215</v>
@@ -6194,7 +6208,7 @@
     </row>
     <row r="12" spans="6:8">
       <c r="F12" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>203</v>
@@ -6205,7 +6219,7 @@
     </row>
     <row r="13" spans="6:8">
       <c r="F13" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>207</v>
@@ -6216,7 +6230,7 @@
     </row>
     <row r="14" spans="6:8">
       <c r="F14" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>209</v>
@@ -6227,96 +6241,96 @@
     </row>
     <row r="15" spans="6:8">
       <c r="F15" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>203</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="16" spans="6:8">
       <c r="F16" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>207</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="17" spans="6:8">
       <c r="F17" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>209</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="18" spans="6:8">
       <c r="F18" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>215</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="19" spans="6:8">
       <c r="F19" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>203</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="20" spans="6:8">
       <c r="F20" s="3" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>207</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="21" spans="6:8">
       <c r="F21" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>209</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="22" spans="6:8">
       <c r="F22" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>215</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="23" spans="4:8">
       <c r="D23" s="2"/>
       <c r="F23" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>110</v>
@@ -6327,7 +6341,7 @@
     </row>
     <row r="24" spans="6:8">
       <c r="F24" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>115</v>
@@ -6338,7 +6352,7 @@
     </row>
     <row r="25" spans="6:8">
       <c r="F25" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>122</v>
@@ -6349,7 +6363,7 @@
     </row>
     <row r="26" spans="6:8">
       <c r="F26" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>126</v>
@@ -6360,7 +6374,7 @@
     </row>
     <row r="27" spans="6:8">
       <c r="F27" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>147</v>
@@ -6371,7 +6385,7 @@
     </row>
     <row r="28" spans="6:8">
       <c r="F28" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>130</v>
@@ -6382,7 +6396,7 @@
     </row>
     <row r="29" spans="6:8">
       <c r="F29" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>134</v>
@@ -6393,7 +6407,7 @@
     </row>
     <row r="30" spans="6:8">
       <c r="F30" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>137</v>
@@ -6404,7 +6418,7 @@
     </row>
     <row r="31" spans="6:8">
       <c r="F31" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>140</v>
@@ -6415,7 +6429,7 @@
     </row>
     <row r="32" spans="6:9">
       <c r="F32" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>143</v>
@@ -6429,10 +6443,10 @@
     </row>
     <row r="33" spans="6:8">
       <c r="F33" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>15</v>
@@ -6440,7 +6454,7 @@
     </row>
     <row r="34" spans="6:8">
       <c r="F34" s="3" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>110</v>
@@ -6451,7 +6465,7 @@
     </row>
     <row r="35" spans="6:8">
       <c r="F35" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>115</v>
@@ -6462,7 +6476,7 @@
     </row>
     <row r="36" spans="6:8">
       <c r="F36" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>122</v>
@@ -6473,7 +6487,7 @@
     </row>
     <row r="37" spans="6:8">
       <c r="F37" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>126</v>
@@ -6484,7 +6498,7 @@
     </row>
     <row r="38" spans="6:8">
       <c r="F38" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>130</v>
@@ -6495,7 +6509,7 @@
     </row>
     <row r="39" spans="6:8">
       <c r="F39" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>134</v>
@@ -6506,7 +6520,7 @@
     </row>
     <row r="40" spans="6:8">
       <c r="F40" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>137</v>
@@ -6517,7 +6531,7 @@
     </row>
     <row r="41" spans="6:8">
       <c r="F41" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>140</v>
@@ -6528,7 +6542,7 @@
     </row>
     <row r="42" spans="6:9">
       <c r="F42" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>143</v>
@@ -6542,7 +6556,7 @@
     </row>
     <row r="43" spans="6:8">
       <c r="F43" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>147</v>
@@ -6553,10 +6567,10 @@
     </row>
     <row r="44" spans="6:8">
       <c r="F44" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H44" s="2" t="s">
         <v>15</v>
@@ -6590,7 +6604,7 @@
   <sheetData>
     <row r="7" spans="4:11">
       <c r="D7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E7" t="s">
         <v>1</v>
@@ -6605,33 +6619,33 @@
         <v>5</v>
       </c>
       <c r="I7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="J7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="K7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="8" spans="6:11">
       <c r="F8" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="G8" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="H8" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="I8" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="J8" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="K8" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
   </sheetData>
@@ -6660,78 +6674,78 @@
   <sheetData>
     <row r="7" spans="4:9">
       <c r="D7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E7" t="s">
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="G7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H7" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="I7" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="8" spans="6:9">
       <c r="F8" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="H8" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="I8" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="9" spans="6:9">
       <c r="F9" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="H9" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="I9" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="10" spans="6:9">
       <c r="F10" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="H10" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="I10" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="11" spans="6:9">
       <c r="F11" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="H11" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="I11" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
   </sheetData>
@@ -6763,71 +6777,71 @@
   <sheetData>
     <row r="7" spans="4:12">
       <c r="D7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E7" t="s">
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="G7" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="I7" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="J7" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="K7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="L7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="8" spans="6:11">
       <c r="F8" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="H8" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="I8" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="J8" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="K8" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="9" spans="6:12">
       <c r="F9" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="I9" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="J9" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="K9" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="L9">
         <v>0</v>

--- a/src/main/resources/script/meta/micro-service-init-data.xlsx
+++ b/src/main/resources/script/meta/micro-service-init-data.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="989" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="991" uniqueCount="389">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -1058,6 +1058,9 @@
     <t>base-service.prompt.queryByCode</t>
   </si>
   <si>
+    <t>base-service.instance.listAll</t>
+  </si>
+  <si>
     <t>IAM_ROLE_PERMISSION</t>
   </si>
   <si>
@@ -1217,9 +1220,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="36">
     <font>
@@ -1313,13 +1316,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -1343,6 +1339,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -1357,7 +1360,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1371,8 +1374,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1397,29 +1409,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1451,7 +1440,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1472,7 +1475,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1484,115 +1631,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1604,55 +1655,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1690,11 +1693,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1714,30 +1723,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1749,17 +1734,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1778,151 +1752,180 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2265,8 +2268,8 @@
   <sheetPr/>
   <dimension ref="D7:O35"/>
   <sheetViews>
-    <sheetView zoomScale="95" zoomScaleNormal="95" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView zoomScale="95" zoomScaleNormal="95" topLeftCell="C7" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -3100,7 +3103,7 @@
   <sheetPr/>
   <dimension ref="D7:Q42"/>
   <sheetViews>
-    <sheetView zoomScale="86" zoomScaleNormal="86" topLeftCell="A19" workbookViewId="0">
+    <sheetView zoomScale="86" zoomScaleNormal="86" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
@@ -4265,10 +4268,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="D7:I150"/>
+  <dimension ref="D7:I151"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="A102" workbookViewId="0">
-      <selection activeCell="G118" sqref="G118"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="A132" workbookViewId="0">
+      <selection activeCell="A151" sqref="$A151:$XFD151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -5873,6 +5876,17 @@
       </c>
       <c r="I150">
         <v>0</v>
+      </c>
+    </row>
+    <row r="151" ht="15" spans="6:9">
+      <c r="F151" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="G151" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="I151">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -5907,13 +5921,13 @@
   <sheetData>
     <row r="7" spans="4:7">
       <c r="D7" s="4" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>221</v>
@@ -5921,7 +5935,7 @@
     </row>
     <row r="8" ht="15.75" spans="6:7">
       <c r="F8" s="5" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>12</v>
@@ -5929,7 +5943,7 @@
     </row>
     <row r="9" ht="15.75" spans="6:7">
       <c r="F9" s="5" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>18</v>
@@ -5937,7 +5951,7 @@
     </row>
     <row r="10" ht="15.75" spans="6:7">
       <c r="F10" s="5" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>21</v>
@@ -5945,7 +5959,7 @@
     </row>
     <row r="11" ht="15.75" spans="6:7">
       <c r="F11" s="5" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>24</v>
@@ -5953,7 +5967,7 @@
     </row>
     <row r="12" ht="15.75" spans="6:7">
       <c r="F12" s="5" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>27</v>
@@ -5961,7 +5975,7 @@
     </row>
     <row r="13" ht="15.75" spans="6:7">
       <c r="F13" s="5" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>30</v>
@@ -5969,7 +5983,7 @@
     </row>
     <row r="14" ht="15.75" spans="6:7">
       <c r="F14" s="5" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>33</v>
@@ -5977,7 +5991,7 @@
     </row>
     <row r="15" ht="15.75" spans="6:7">
       <c r="F15" s="5" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="G15" s="5" t="s">
         <v>36</v>
@@ -5985,7 +5999,7 @@
     </row>
     <row r="16" ht="15.75" spans="6:7">
       <c r="F16" s="5" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>39</v>
@@ -5993,7 +6007,7 @@
     </row>
     <row r="17" ht="15.75" spans="6:7">
       <c r="F17" s="5" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>42</v>
@@ -6001,7 +6015,7 @@
     </row>
     <row r="18" ht="15.75" spans="6:7">
       <c r="F18" s="5" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="G18" s="5" t="s">
         <v>46</v>
@@ -6009,7 +6023,7 @@
     </row>
     <row r="19" ht="15.75" spans="6:7">
       <c r="F19" s="5" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="G19" s="5" t="s">
         <v>49</v>
@@ -6017,7 +6031,7 @@
     </row>
     <row r="20" ht="15.75" spans="6:7">
       <c r="F20" s="5" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="G20" s="5" t="s">
         <v>52</v>
@@ -6025,7 +6039,7 @@
     </row>
     <row r="21" ht="15.75" spans="6:7">
       <c r="F21" s="5" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="G21" s="5" t="s">
         <v>55</v>
@@ -6033,7 +6047,7 @@
     </row>
     <row r="22" ht="15.75" spans="6:7">
       <c r="F22" s="5" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="G22" s="5" t="s">
         <v>58</v>
@@ -6041,7 +6055,7 @@
     </row>
     <row r="23" ht="15.75" spans="6:7">
       <c r="F23" s="5" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="G23" s="5" t="s">
         <v>61</v>
@@ -6049,7 +6063,7 @@
     </row>
     <row r="24" ht="15.75" spans="6:7">
       <c r="F24" s="5" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="G24" s="5" t="s">
         <v>73</v>
@@ -6057,7 +6071,7 @@
     </row>
     <row r="25" ht="15.75" spans="6:7">
       <c r="F25" s="5" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="G25" s="5" t="s">
         <v>76</v>
@@ -6065,7 +6079,7 @@
     </row>
     <row r="26" ht="15.75" spans="6:7">
       <c r="F26" s="5" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="G26" s="5" t="s">
         <v>79</v>
@@ -6073,7 +6087,7 @@
     </row>
     <row r="27" ht="15.75" spans="6:7">
       <c r="F27" s="5" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="G27" s="5" t="s">
         <v>82</v>
@@ -6081,7 +6095,7 @@
     </row>
     <row r="28" ht="15.75" spans="6:7">
       <c r="F28" s="5" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="G28" s="5" t="s">
         <v>86</v>
@@ -6089,7 +6103,7 @@
     </row>
     <row r="29" ht="15.75" spans="6:7">
       <c r="F29" s="5" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="G29" s="5" t="s">
         <v>89</v>
@@ -6097,7 +6111,7 @@
     </row>
     <row r="30" ht="15.75" spans="6:7">
       <c r="F30" s="5" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="G30" s="5" t="s">
         <v>92</v>
@@ -6105,7 +6119,7 @@
     </row>
     <row r="31" ht="15.75" spans="6:7">
       <c r="F31" s="5" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="G31" s="5" t="s">
         <v>92</v>
@@ -6144,19 +6158,19 @@
     <row r="6" ht="13.5"/>
     <row r="7" ht="18.95" customHeight="1" spans="4:9">
       <c r="D7" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>220</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>11</v>
@@ -6164,7 +6178,7 @@
     </row>
     <row r="8" spans="6:8">
       <c r="F8" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>203</v>
@@ -6175,7 +6189,7 @@
     </row>
     <row r="9" spans="6:8">
       <c r="F9" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>207</v>
@@ -6186,7 +6200,7 @@
     </row>
     <row r="10" spans="6:8">
       <c r="F10" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>209</v>
@@ -6197,7 +6211,7 @@
     </row>
     <row r="11" spans="6:8">
       <c r="F11" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>215</v>
@@ -6208,7 +6222,7 @@
     </row>
     <row r="12" spans="6:8">
       <c r="F12" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>203</v>
@@ -6219,7 +6233,7 @@
     </row>
     <row r="13" spans="6:8">
       <c r="F13" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>207</v>
@@ -6230,7 +6244,7 @@
     </row>
     <row r="14" spans="6:8">
       <c r="F14" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>209</v>
@@ -6241,96 +6255,96 @@
     </row>
     <row r="15" spans="6:8">
       <c r="F15" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>203</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="16" spans="6:8">
       <c r="F16" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>207</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="17" spans="6:8">
       <c r="F17" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>209</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="18" spans="6:8">
       <c r="F18" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>215</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="19" spans="6:8">
       <c r="F19" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>203</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="20" spans="6:8">
       <c r="F20" s="3" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>207</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="21" spans="6:8">
       <c r="F21" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>209</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="22" spans="6:8">
       <c r="F22" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>215</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="23" spans="4:8">
       <c r="D23" s="2"/>
       <c r="F23" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>110</v>
@@ -6341,7 +6355,7 @@
     </row>
     <row r="24" spans="6:8">
       <c r="F24" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>115</v>
@@ -6352,7 +6366,7 @@
     </row>
     <row r="25" spans="6:8">
       <c r="F25" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>122</v>
@@ -6363,7 +6377,7 @@
     </row>
     <row r="26" spans="6:8">
       <c r="F26" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>126</v>
@@ -6374,7 +6388,7 @@
     </row>
     <row r="27" spans="6:8">
       <c r="F27" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>147</v>
@@ -6385,7 +6399,7 @@
     </row>
     <row r="28" spans="6:8">
       <c r="F28" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>130</v>
@@ -6396,7 +6410,7 @@
     </row>
     <row r="29" spans="6:8">
       <c r="F29" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>134</v>
@@ -6407,7 +6421,7 @@
     </row>
     <row r="30" spans="6:8">
       <c r="F30" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>137</v>
@@ -6418,7 +6432,7 @@
     </row>
     <row r="31" spans="6:8">
       <c r="F31" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>140</v>
@@ -6429,7 +6443,7 @@
     </row>
     <row r="32" spans="6:9">
       <c r="F32" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>143</v>
@@ -6443,10 +6457,10 @@
     </row>
     <row r="33" spans="6:8">
       <c r="F33" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>15</v>
@@ -6454,7 +6468,7 @@
     </row>
     <row r="34" spans="6:8">
       <c r="F34" s="3" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>110</v>
@@ -6465,7 +6479,7 @@
     </row>
     <row r="35" spans="6:8">
       <c r="F35" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>115</v>
@@ -6476,7 +6490,7 @@
     </row>
     <row r="36" spans="6:8">
       <c r="F36" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>122</v>
@@ -6487,7 +6501,7 @@
     </row>
     <row r="37" spans="6:8">
       <c r="F37" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>126</v>
@@ -6498,7 +6512,7 @@
     </row>
     <row r="38" spans="6:8">
       <c r="F38" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>130</v>
@@ -6509,7 +6523,7 @@
     </row>
     <row r="39" spans="6:8">
       <c r="F39" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>134</v>
@@ -6520,7 +6534,7 @@
     </row>
     <row r="40" spans="6:8">
       <c r="F40" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>137</v>
@@ -6531,7 +6545,7 @@
     </row>
     <row r="41" spans="6:8">
       <c r="F41" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>140</v>
@@ -6542,7 +6556,7 @@
     </row>
     <row r="42" spans="6:9">
       <c r="F42" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>143</v>
@@ -6556,7 +6570,7 @@
     </row>
     <row r="43" spans="6:8">
       <c r="F43" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>147</v>
@@ -6567,10 +6581,10 @@
     </row>
     <row r="44" spans="6:8">
       <c r="F44" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H44" s="2" t="s">
         <v>15</v>
@@ -6604,7 +6618,7 @@
   <sheetData>
     <row r="7" spans="4:11">
       <c r="D7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E7" t="s">
         <v>1</v>
@@ -6619,33 +6633,33 @@
         <v>5</v>
       </c>
       <c r="I7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="J7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="K7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="8" spans="6:11">
       <c r="F8" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="G8" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H8" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="I8" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="J8" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="K8" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
   </sheetData>
@@ -6674,78 +6688,78 @@
   <sheetData>
     <row r="7" spans="4:9">
       <c r="D7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E7" t="s">
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="G7" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H7" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="I7" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="8" spans="6:9">
       <c r="F8" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="H8" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="I8" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="9" spans="6:9">
       <c r="F9" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="H9" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="I9" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="10" spans="6:9">
       <c r="F10" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="H10" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="I10" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="11" spans="6:9">
       <c r="F11" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="H11" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="I11" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
   </sheetData>
@@ -6777,71 +6791,71 @@
   <sheetData>
     <row r="7" spans="4:12">
       <c r="D7" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E7" t="s">
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="G7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H7" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="I7" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="J7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="K7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="L7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="8" spans="6:11">
       <c r="F8" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="H8" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="I8" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="J8" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="K8" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="9" spans="6:12">
       <c r="F9" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="I9" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="J9" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="K9" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="L9">
         <v>0</v>

--- a/src/main/resources/script/meta/micro-service-init-data.xlsx
+++ b/src/main/resources/script/meta/micro-service-init-data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="7860" tabRatio="845" activeTab="2"/>
+    <workbookView windowWidth="19815" windowHeight="7860" tabRatio="845" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="991" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1089" uniqueCount="401">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -147,6 +147,15 @@
   </si>
   <si>
     <t>客户端路由</t>
+  </si>
+  <si>
+    <t>choerodon.route.organization.overview</t>
+  </si>
+  <si>
+    <t>/base/org-overview</t>
+  </si>
+  <si>
+    <t>组织概览路由</t>
   </si>
   <si>
     <t>choerodon.route.iam.root-user</t>
@@ -274,6 +283,15 @@
   </si>
   <si>
     <t>描述维护路由</t>
+  </si>
+  <si>
+    <t>choerodon.route.site.overview</t>
+  </si>
+  <si>
+    <t>/base/platform-overview</t>
+  </si>
+  <si>
+    <t>平台概览路由</t>
   </si>
   <si>
     <t>choerodon.route.project.team-member</t>
@@ -491,6 +509,18 @@
     <t>choerodon.code.organization.client</t>
   </si>
   <si>
+    <t>choerodon.code.organization.overview</t>
+  </si>
+  <si>
+    <t>组织概览</t>
+  </si>
+  <si>
+    <t>Organization Overview</t>
+  </si>
+  <si>
+    <t>poll</t>
+  </si>
+  <si>
     <t>choerodon.code.site.manager</t>
   </si>
   <si>
@@ -539,6 +569,15 @@
     <t>view_list</t>
   </si>
   <si>
+    <t>choerodon.code.site.overview</t>
+  </si>
+  <si>
+    <t>平台概览</t>
+  </si>
+  <si>
+    <t>Platform overview</t>
+  </si>
+  <si>
     <t>choerodon.code.site.setting</t>
   </si>
   <si>
@@ -699,9 +738,6 @@
   </si>
   <si>
     <t>Chart</t>
-  </si>
-  <si>
-    <t>poll</t>
   </si>
   <si>
     <t>IAM_MENU_PERMISSION</t>
@@ -1220,11 +1256,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="36">
+  <fonts count="37">
     <font>
       <sz val="10"/>
       <name val="Droid Sans Fallback"/>
@@ -1270,6 +1306,12 @@
     </font>
     <font>
       <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FF5B9BD5"/>
       <name val="PingFang SC"/>
       <charset val="134"/>
@@ -1309,6 +1351,11 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -1316,18 +1363,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1352,31 +1407,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1391,10 +1424,70 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1413,58 +1506,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -1475,13 +1516,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1499,7 +1576,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1511,7 +1606,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1523,121 +1654,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1655,7 +1672,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1684,11 +1725,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1708,32 +1779,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1756,19 +1808,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1776,160 +1817,160 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
@@ -1947,6 +1988,8 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2266,10 +2309,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="D7:O35"/>
+  <dimension ref="D7:O37"/>
   <sheetViews>
-    <sheetView zoomScale="95" zoomScaleNormal="95" topLeftCell="C7" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView zoomScale="95" zoomScaleNormal="95" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -2603,10 +2646,10 @@
         <v>14</v>
       </c>
       <c r="I17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J17" s="16" t="s">
         <v>44</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="K17" s="2" t="s">
         <v>17</v>
@@ -2623,16 +2666,16 @@
     </row>
     <row r="18" spans="6:14">
       <c r="F18" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G18" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>14</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>48</v>
@@ -2661,7 +2704,7 @@
         <v>14</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J19" s="2" t="s">
         <v>51</v>
@@ -2690,7 +2733,7 @@
         <v>14</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J20" s="2" t="s">
         <v>54</v>
@@ -2719,7 +2762,7 @@
         <v>14</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J21" s="2" t="s">
         <v>57</v>
@@ -2748,7 +2791,7 @@
         <v>14</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J22" s="2" t="s">
         <v>60</v>
@@ -2777,7 +2820,7 @@
         <v>14</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J23" s="2" t="s">
         <v>63</v>
@@ -2806,7 +2849,7 @@
         <v>14</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J24" s="2" t="s">
         <v>66</v>
@@ -2818,7 +2861,7 @@
         <v>0</v>
       </c>
       <c r="M24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N24" s="2">
         <v>0</v>
@@ -2835,7 +2878,7 @@
         <v>14</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J25" s="2" t="s">
         <v>69</v>
@@ -2864,7 +2907,7 @@
         <v>14</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J26" s="2" t="s">
         <v>72</v>
@@ -2893,7 +2936,7 @@
         <v>14</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J27" s="2" t="s">
         <v>75</v>
@@ -2905,7 +2948,7 @@
         <v>0</v>
       </c>
       <c r="M27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N27" s="2">
         <v>0</v>
@@ -2922,7 +2965,7 @@
         <v>14</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J28" s="2" t="s">
         <v>78</v>
@@ -2951,7 +2994,7 @@
         <v>14</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J29" s="2" t="s">
         <v>81</v>
@@ -2980,10 +3023,10 @@
         <v>14</v>
       </c>
       <c r="I30" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J30" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="J30" s="2" t="s">
-        <v>85</v>
       </c>
       <c r="K30" s="2" t="s">
         <v>17</v>
@@ -3000,19 +3043,19 @@
     </row>
     <row r="31" spans="6:14">
       <c r="F31" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G31" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>87</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>14</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="J31" s="2" t="s">
-        <v>88</v>
+        <v>47</v>
+      </c>
+      <c r="J31" s="16" t="s">
+        <v>87</v>
       </c>
       <c r="K31" s="2" t="s">
         <v>17</v>
@@ -3029,16 +3072,16 @@
     </row>
     <row r="32" spans="6:14">
       <c r="F32" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G32" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>90</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>14</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="J32" s="2" t="s">
         <v>91</v>
@@ -3067,7 +3110,7 @@
         <v>14</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="J33" s="2" t="s">
         <v>94</v>
@@ -3081,12 +3124,70 @@
       <c r="M33" s="2">
         <v>0</v>
       </c>
-      <c r="N33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="7:7">
-      <c r="G35" s="2"/>
+      <c r="N33" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="6:14">
+      <c r="F34" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L34" s="2">
+        <v>0</v>
+      </c>
+      <c r="M34" s="2">
+        <v>0</v>
+      </c>
+      <c r="N34" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="6:14">
+      <c r="F35" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L35" s="2">
+        <v>0</v>
+      </c>
+      <c r="M35" s="2">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="7:7">
+      <c r="G37" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -3101,10 +3202,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="D7:Q42"/>
+  <dimension ref="D7:Q50"/>
   <sheetViews>
-    <sheetView zoomScale="86" zoomScaleNormal="86" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+    <sheetView zoomScale="86" zoomScaleNormal="86" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -3131,7 +3232,7 @@
   <sheetData>
     <row r="7" customHeight="1" spans="4:17">
       <c r="D7" s="4" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>1</v>
@@ -3140,34 +3241,34 @@
         <v>2</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="J7" s="4" t="s">
         <v>4</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="Q7" s="4" t="s">
         <v>11</v>
@@ -3176,41 +3277,41 @@
     <row r="8" ht="15" spans="4:15">
       <c r="D8" s="3"/>
       <c r="F8" s="7" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="I8" s="7"/>
       <c r="J8" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>15</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="N8" s="7"/>
       <c r="O8" s="7">
         <v>10</v>
       </c>
     </row>
-    <row r="9" ht="15" spans="6:15">
+    <row r="9" ht="15" spans="6:17">
       <c r="F9" s="7" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="I9" s="7" t="s">
         <v>12</v>
@@ -3219,30 +3320,33 @@
         <v>14</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="L9" s="7" t="s">
         <v>15</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="N9" s="7" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="O9" s="7">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" ht="15" spans="6:15">
+      <c r="Q9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" ht="15" spans="6:17">
       <c r="F10" s="7" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="I10" s="7" t="s">
         <v>18</v>
@@ -3251,201 +3355,208 @@
         <v>14</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>15</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="N10" s="7" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="O10" s="7">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" ht="15" spans="6:15">
+      <c r="Q10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" customFormat="1" ht="15" spans="6:15">
       <c r="F11" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="I11" s="7"/>
+        <v>118</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="J11" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>15</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="N11" s="7"/>
+        <v>119</v>
+      </c>
+      <c r="N11" s="7" t="s">
+        <v>120</v>
+      </c>
       <c r="O11" s="7">
         <v>20</v>
       </c>
     </row>
-    <row r="12" ht="15" spans="6:15">
+    <row r="12" customFormat="1" ht="15" spans="6:15">
       <c r="F12" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="H12" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="H12" s="7" t="s">
-        <v>124</v>
-      </c>
       <c r="I12" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>15</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="N12" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O12" s="7">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" ht="15" spans="6:15">
       <c r="F13" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="H13" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="H13" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>24</v>
-      </c>
+      <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>15</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="N13" s="7" t="s">
-        <v>129</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="N13" s="7"/>
       <c r="O13" s="7">
         <v>20</v>
       </c>
     </row>
     <row r="14" ht="15" spans="6:15">
       <c r="F14" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="H14" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>132</v>
-      </c>
       <c r="I14" s="7" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>15</v>
       </c>
       <c r="M14" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="N14" s="7"/>
+        <v>119</v>
+      </c>
+      <c r="N14" s="7" t="s">
+        <v>131</v>
+      </c>
       <c r="O14" s="7">
         <v>10</v>
       </c>
     </row>
     <row r="15" ht="15" spans="6:15">
       <c r="F15" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="H15" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="G15" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>136</v>
-      </c>
       <c r="I15" s="7" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="L15" s="7" t="s">
         <v>15</v>
       </c>
       <c r="M15" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="N15" s="7"/>
+        <v>119</v>
+      </c>
+      <c r="N15" s="7" t="s">
+        <v>135</v>
+      </c>
       <c r="O15" s="7">
         <v>20</v>
       </c>
     </row>
     <row r="16" ht="15" spans="6:15">
       <c r="F16" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="H16" s="7" t="s">
-        <v>139</v>
-      </c>
       <c r="I16" s="7" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>15</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="N16" s="7"/>
       <c r="O16" s="7">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" ht="15" spans="6:15">
@@ -3459,26 +3570,26 @@
         <v>142</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>15</v>
       </c>
       <c r="M17" s="7" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="N17" s="7"/>
       <c r="O17" s="7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" ht="15" spans="6:17">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" ht="15" spans="6:15">
       <c r="F18" s="7" t="s">
         <v>143</v>
       </c>
@@ -3489,723 +3600,742 @@
         <v>145</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>15</v>
       </c>
       <c r="M18" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="N18" s="7" t="s">
-        <v>146</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="N18" s="7"/>
       <c r="O18" s="7">
         <v>30</v>
       </c>
-      <c r="Q18">
-        <v>1</v>
-      </c>
     </row>
     <row r="19" ht="15" spans="6:15">
       <c r="F19" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="G19" s="7" t="s">
-        <v>144</v>
-      </c>
       <c r="H19" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>15</v>
       </c>
       <c r="M19" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="N19" s="7" t="s">
-        <v>146</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="N19" s="7"/>
       <c r="O19" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" ht="15" spans="6:17">
+      <c r="F20" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M20" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="N20" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="O20" s="7">
         <v>30</v>
       </c>
-    </row>
-    <row r="20" ht="15" spans="6:15">
-      <c r="F20" s="8" t="s">
+      <c r="Q20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" ht="15" spans="6:15">
+      <c r="F21" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M21" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="N21" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="O21" s="7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" ht="15" spans="6:15">
+      <c r="F22" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M22" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="N22" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="O22" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" ht="15" spans="6:15">
+      <c r="F23" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="K23" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="L23" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="M23" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="N23" s="9"/>
+      <c r="O23" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" ht="15" spans="6:17">
+      <c r="F24" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="I24" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="J24" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="K24" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="L24" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="M24" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="N24" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="O24" s="9">
+        <v>10</v>
+      </c>
+      <c r="Q24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" ht="15" spans="6:17">
+      <c r="F25" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="I25" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="J25" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="K25" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="L25" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="M25" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="N25" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="O25" s="9">
+        <v>40</v>
+      </c>
+      <c r="Q25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" ht="15" spans="6:17">
+      <c r="F26" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="G26" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="I26" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="J26" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="K26" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="L26" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="M26" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="N26" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="O26" s="9">
+        <v>50</v>
+      </c>
+      <c r="Q26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" ht="15" spans="6:17">
+      <c r="F27" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="I27" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="J27" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="K27" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="L27" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="M27" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="N27" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="O27" s="9">
+        <v>60</v>
+      </c>
+      <c r="Q27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" customFormat="1" ht="15" spans="6:15">
+      <c r="F28" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="I28" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="J28" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="K28" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="L28" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="M28" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="N28" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="O28" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" customFormat="1" ht="15" spans="6:15">
+      <c r="F29" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="H29" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="I29" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="J29" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="K29" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="L29" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="M29" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="N29" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="O29" s="9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" customFormat="1" ht="15" spans="6:15">
+      <c r="F30" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="H30" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="I30" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="J30" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="K30" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="L30" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="M30" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="N30" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="O30" s="9">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" customFormat="1" ht="15" spans="6:15">
+      <c r="F31" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="G31" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="H31" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="I31" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="J31" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="K31" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="L31" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="M31" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="N31" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="O31" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" customFormat="1" ht="15" spans="6:15">
+      <c r="F32" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="H32" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="I32" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="J32" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="K32" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="L32" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="M32" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="N32" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="O32" s="9">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" ht="15" spans="6:15">
+      <c r="F33" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="H33" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="K33" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="L33" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="M33" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="N33" s="9"/>
+      <c r="O33" s="9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" ht="15" spans="6:15">
+      <c r="F34" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="H34" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="I34" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="J34" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="K34" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="L34" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="M34" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="N34" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="O34" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" ht="15" spans="6:15">
+      <c r="F35" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="G35" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="H35" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="I35" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="J35" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="K35" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="L35" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="M35" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="N35" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="O35" s="9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" ht="15" spans="6:15">
+      <c r="F36" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="H36" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="G20" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="H20" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8" t="s">
+      <c r="I36" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="J36" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="K20" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="L20" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="M20" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="N20" s="8"/>
-      <c r="O20" s="8">
+      <c r="K36" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="L36" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="M36" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="N36" s="9"/>
+      <c r="O36" s="9">
         <v>10</v>
       </c>
     </row>
-    <row r="21" ht="15" spans="6:15">
-      <c r="F21" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="H21" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="I21" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="J21" s="8" t="s">
+    <row r="37" ht="15" spans="6:15">
+      <c r="F37" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="G37" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="H37" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="K21" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="L21" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="M21" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="N21" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="O21" s="8">
+      <c r="K37" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="L37" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="M37" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="N37" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="O37" s="11">
         <v>10</v>
       </c>
     </row>
-    <row r="22" ht="15" spans="6:15">
-      <c r="F22" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="H22" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="I22" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="J22" s="8" t="s">
+    <row r="38" ht="15" spans="6:15">
+      <c r="F38" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="G38" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="H38" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="I38" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="J38" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="K22" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="L22" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="M22" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="N22" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="O22" s="8">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" ht="15" spans="6:15">
-      <c r="F23" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="G23" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="H23" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="I23" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="J23" s="8" t="s">
+      <c r="K38" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="L38" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="M38" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="N38" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="O38" s="11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" ht="15" spans="6:15">
+      <c r="F39" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="G39" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="H39" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="I39" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="J39" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="K23" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="L23" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="M23" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="N23" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="O23" s="8">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="24" ht="15" spans="6:15">
-      <c r="F24" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="G24" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="H24" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="I24" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="J24" s="8" t="s">
+      <c r="K39" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="L39" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="M39" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="N39" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="O39" s="11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" ht="15" spans="6:15">
+      <c r="F40" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="G40" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="H40" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="I40" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="J40" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="K24" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="L24" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="M24" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="N24" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="O24" s="8">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="25" ht="15" spans="6:15">
-      <c r="F25" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="G25" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="H25" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="K25" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="L25" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="M25" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="N25" s="8"/>
-      <c r="O25" s="8">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" ht="15" spans="6:15">
-      <c r="F26" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="G26" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="H26" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="I26" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="J26" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="K26" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="L26" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="M26" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="N26" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="O26" s="8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" ht="15" spans="6:15">
-      <c r="F27" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="G27" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="H27" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="I27" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="J27" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="K27" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="L27" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="M27" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="N27" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="O27" s="8">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="28" ht="15" spans="6:15">
-      <c r="F28" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="G28" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="H28" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="I28" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="J28" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="K28" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="L28" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="M28" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="N28" s="8"/>
-      <c r="O28" s="8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" ht="15" spans="6:15">
-      <c r="F29" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="G29" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="H29" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="K29" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="L29" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="M29" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="N29" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="O29" s="10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" ht="15" spans="6:15">
-      <c r="F30" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="G30" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="H30" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="I30" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="J30" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="K30" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="L30" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="M30" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="N30" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="O30" s="10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" ht="15" spans="6:15">
-      <c r="F31" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="G31" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="H31" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="I31" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="J31" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="K31" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="L31" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="M31" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="N31" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="O31" s="10">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="32" ht="15" spans="6:15">
-      <c r="F32" s="10" t="s">
+      <c r="K40" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="G32" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="H32" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="I32" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="J32" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="K32" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="L32" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="M32" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="N32" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="O32" s="10">
+      <c r="L40" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="M40" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="N40" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="O40" s="11">
         <v>30</v>
       </c>
     </row>
-    <row r="33" ht="16.5" spans="6:15">
-      <c r="F33" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="G33" s="11" t="s">
-        <v>186</v>
-      </c>
-      <c r="H33" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="I33" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="J33" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="K33" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="L33" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="M33" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="N33" s="14" t="s">
-        <v>189</v>
-      </c>
-      <c r="O33" s="11">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="34" ht="16.5" spans="6:15">
-      <c r="F34" s="11" t="s">
-        <v>190</v>
-      </c>
-      <c r="G34" s="11" t="s">
-        <v>191</v>
-      </c>
-      <c r="H34" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="I34" s="11" t="s">
+    <row r="41" ht="16.5" spans="6:15">
+      <c r="F41" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="G41" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="H41" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="I41" s="12" t="s">
         <v>76</v>
-      </c>
-      <c r="J34" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="K34" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="L34" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="M34" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="N34" s="14" t="s">
-        <v>193</v>
-      </c>
-      <c r="O34" s="11">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="35" ht="16.5" spans="6:15">
-      <c r="F35" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="G35" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="H35" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="I35" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="J35" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="K35" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="L35" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="M35" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="N35" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="O35" s="11">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="36" ht="15" spans="6:15">
-      <c r="F36" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="G36" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="H36" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="I36" s="12"/>
-      <c r="J36" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="K36" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="L36" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="M36" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="N36" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="O36" s="12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" ht="15" spans="6:15">
-      <c r="F37" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="G37" s="12" t="s">
-        <v>204</v>
-      </c>
-      <c r="H37" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="I37" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="J37" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="K37" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="L37" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="M37" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="N37" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="O37" s="12">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="38" ht="15" spans="6:15">
-      <c r="F38" s="12" t="s">
-        <v>206</v>
-      </c>
-      <c r="G38" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="H38" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="I38" s="12"/>
-      <c r="J38" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="K38" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="L38" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="M38" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="N38" s="12"/>
-      <c r="O38" s="12">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="39" ht="15" spans="6:15">
-      <c r="F39" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="G39" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="H39" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="I39" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="J39" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="K39" s="12" t="s">
-        <v>206</v>
-      </c>
-      <c r="L39" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="M39" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="N39" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="O39" s="12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="40" ht="15" spans="6:15">
-      <c r="F40" s="12" t="s">
-        <v>209</v>
-      </c>
-      <c r="G40" s="13" t="s">
-        <v>210</v>
-      </c>
-      <c r="H40" s="12" t="s">
-        <v>211</v>
-      </c>
-      <c r="I40" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="J40" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="K40" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="L40" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="M40" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="N40" s="12"/>
-      <c r="O40" s="12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="41" ht="15" spans="6:15">
-      <c r="F41" s="12" t="s">
-        <v>212</v>
-      </c>
-      <c r="G41" s="12" t="s">
-        <v>213</v>
-      </c>
-      <c r="H41" s="12" t="s">
-        <v>214</v>
       </c>
       <c r="J41" s="12" t="s">
         <v>14</v>
@@ -4214,44 +4344,289 @@
         <v>201</v>
       </c>
       <c r="L41" s="12" t="s">
-        <v>84</v>
+        <v>47</v>
       </c>
       <c r="M41" s="12" t="s">
-        <v>109</v>
+        <v>119</v>
+      </c>
+      <c r="N41" s="15" t="s">
+        <v>202</v>
       </c>
       <c r="O41" s="12">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="42" ht="15" spans="6:15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" ht="16.5" spans="6:15">
       <c r="F42" s="12" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="G42" s="12" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="H42" s="12" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="I42" s="12" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="J42" s="12" t="s">
         <v>14</v>
       </c>
       <c r="K42" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="L42" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="M42" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="N42" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="O42" s="12">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="43" ht="16.5" spans="6:15">
+      <c r="F43" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="G43" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="H43" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="I43" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="J43" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="K43" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="L43" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="M43" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="N43" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="O43" s="12">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="44" ht="15" spans="6:15">
+      <c r="F44" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="G44" s="13" t="s">
         <v>212</v>
       </c>
-      <c r="L42" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="M42" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="N42" s="12" t="s">
+      <c r="H44" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="I44" s="13"/>
+      <c r="J44" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="K44" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="L44" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="M44" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="N44" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="O44" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" ht="15" spans="6:15">
+      <c r="F45" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="G45" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="H45" s="13" t="s">
         <v>218</v>
       </c>
-      <c r="O42" s="12">
+      <c r="I45" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="J45" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="K45" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="L45" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="M45" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="N45" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="O45" s="13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" ht="15" spans="6:15">
+      <c r="F46" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="G46" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="H46" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="I46" s="13"/>
+      <c r="J46" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="K46" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="L46" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="M46" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="N46" s="13"/>
+      <c r="O46" s="13">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="47" ht="15" spans="6:15">
+      <c r="F47" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="G47" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="H47" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="I47" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="J47" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="K47" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="L47" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="M47" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="N47" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="O47" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" ht="15" spans="6:15">
+      <c r="F48" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="G48" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="H48" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="I48" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="J48" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="K48" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="L48" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="M48" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="N48" s="13"/>
+      <c r="O48" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" ht="15" spans="6:15">
+      <c r="F49" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="G49" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="H49" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="J49" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="K49" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="L49" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="M49" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="O49" s="13">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="50" ht="15" spans="6:15">
+      <c r="F50" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="G50" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="H50" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="I50" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="J50" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="K50" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="L50" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="M50" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="N50" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="O50" s="13">
         <v>10</v>
       </c>
     </row>
@@ -4268,10 +4643,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="D7:I151"/>
+  <dimension ref="D7:I153"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="A132" workbookViewId="0">
-      <selection activeCell="A151" sqref="$A151:$XFD151"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" topLeftCell="A132" workbookViewId="0">
+      <selection activeCell="F160" sqref="F160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -4286,28 +4661,28 @@
   <sheetData>
     <row r="7" customHeight="1" spans="4:9">
       <c r="D7" s="4" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I7" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
     </row>
     <row r="8" ht="15" spans="4:9">
       <c r="D8" s="3"/>
       <c r="F8" s="6" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>12</v>
@@ -4318,10 +4693,10 @@
     </row>
     <row r="9" ht="15" spans="6:9">
       <c r="F9" s="6" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -4329,10 +4704,10 @@
     </row>
     <row r="10" ht="15" spans="6:9">
       <c r="F10" s="6" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -4340,10 +4715,10 @@
     </row>
     <row r="11" ht="15" spans="6:9">
       <c r="F11" s="6" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -4351,10 +4726,10 @@
     </row>
     <row r="12" ht="15" spans="6:9">
       <c r="F12" s="6" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -4362,7 +4737,7 @@
     </row>
     <row r="13" ht="15" spans="6:9">
       <c r="F13" s="6" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>18</v>
@@ -4373,10 +4748,10 @@
     </row>
     <row r="14" ht="15" spans="6:9">
       <c r="F14" s="6" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -4384,10 +4759,10 @@
     </row>
     <row r="15" ht="15" spans="6:9">
       <c r="F15" s="6" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -4395,10 +4770,10 @@
     </row>
     <row r="16" ht="15" spans="6:9">
       <c r="F16" s="6" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -4406,10 +4781,10 @@
     </row>
     <row r="17" ht="15" spans="6:9">
       <c r="F17" s="6" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -4417,10 +4792,10 @@
     </row>
     <row r="18" ht="15" spans="6:9">
       <c r="F18" s="6" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -4428,10 +4803,10 @@
     </row>
     <row r="19" ht="15" spans="6:9">
       <c r="F19" s="6" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -4439,10 +4814,10 @@
     </row>
     <row r="20" ht="15" spans="6:9">
       <c r="F20" s="6" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -4450,10 +4825,10 @@
     </row>
     <row r="21" ht="15" spans="6:9">
       <c r="F21" s="6" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -4461,10 +4836,10 @@
     </row>
     <row r="22" ht="15" spans="6:9">
       <c r="F22" s="6" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="I22">
         <v>1</v>
@@ -4472,10 +4847,10 @@
     </row>
     <row r="23" ht="15" spans="6:9">
       <c r="F23" s="6" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
       <c r="I23">
         <v>1</v>
@@ -4483,10 +4858,10 @@
     </row>
     <row r="24" ht="15" spans="6:9">
       <c r="F24" s="6" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="I24">
         <v>1</v>
@@ -4494,10 +4869,10 @@
     </row>
     <row r="25" ht="15" spans="6:9">
       <c r="F25" s="6" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -4505,10 +4880,10 @@
     </row>
     <row r="26" ht="15" spans="6:9">
       <c r="F26" s="6" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -4516,10 +4891,10 @@
     </row>
     <row r="27" ht="15" spans="6:9">
       <c r="F27" s="6" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -4527,10 +4902,10 @@
     </row>
     <row r="28" ht="15" spans="6:9">
       <c r="F28" s="6" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -4538,10 +4913,10 @@
     </row>
     <row r="29" ht="15" spans="6:9">
       <c r="F29" s="6" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -4549,10 +4924,10 @@
     </row>
     <row r="30" ht="15" spans="6:9">
       <c r="F30" s="6" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="I30">
         <v>0</v>
@@ -4560,10 +4935,10 @@
     </row>
     <row r="31" ht="15" spans="6:9">
       <c r="F31" s="6" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -4571,7 +4946,7 @@
     </row>
     <row r="32" ht="15" spans="6:9">
       <c r="F32" s="6" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="G32" s="6" t="s">
         <v>21</v>
@@ -4582,7 +4957,7 @@
     </row>
     <row r="33" ht="15" spans="6:9">
       <c r="F33" s="6" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="G33" s="6" t="s">
         <v>27</v>
@@ -4593,10 +4968,10 @@
     </row>
     <row r="34" ht="15" spans="6:9">
       <c r="F34" s="6" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -4604,10 +4979,10 @@
     </row>
     <row r="35" ht="15" spans="6:9">
       <c r="F35" s="6" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="I35">
         <v>1</v>
@@ -4615,7 +4990,7 @@
     </row>
     <row r="36" ht="15" spans="6:9">
       <c r="F36" s="6" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="G36" s="6" t="s">
         <v>30</v>
@@ -4626,10 +5001,10 @@
     </row>
     <row r="37" ht="15" spans="6:9">
       <c r="F37" s="6" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="I37">
         <v>1</v>
@@ -4637,10 +5012,10 @@
     </row>
     <row r="38" ht="15" spans="6:9">
       <c r="F38" s="6" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="I38">
         <v>0</v>
@@ -4648,10 +5023,10 @@
     </row>
     <row r="39" ht="15" spans="6:9">
       <c r="F39" s="6" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="I39">
         <v>0</v>
@@ -4659,10 +5034,10 @@
     </row>
     <row r="40" ht="15" spans="6:9">
       <c r="F40" s="6" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="I40">
         <v>0</v>
@@ -4670,10 +5045,10 @@
     </row>
     <row r="41" ht="15" spans="6:9">
       <c r="F41" s="6" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="I41">
         <v>0</v>
@@ -4681,10 +5056,10 @@
     </row>
     <row r="42" ht="15" spans="6:9">
       <c r="F42" s="6" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="I42">
         <v>0</v>
@@ -4692,10 +5067,10 @@
     </row>
     <row r="43" ht="15" spans="6:9">
       <c r="F43" s="6" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="I43">
         <v>0</v>
@@ -4703,10 +5078,10 @@
     </row>
     <row r="44" ht="15" spans="6:9">
       <c r="F44" s="6" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="I44">
         <v>1</v>
@@ -4714,7 +5089,7 @@
     </row>
     <row r="45" ht="15" spans="6:9">
       <c r="F45" s="6" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="G45" s="6" t="s">
         <v>33</v>
@@ -4725,10 +5100,10 @@
     </row>
     <row r="46" ht="15" spans="6:9">
       <c r="F46" s="6" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="I46">
         <v>1</v>
@@ -4736,10 +5111,10 @@
     </row>
     <row r="47" ht="15" spans="6:9">
       <c r="F47" s="6" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="I47">
         <v>1</v>
@@ -4747,10 +5122,10 @@
     </row>
     <row r="48" ht="15" spans="6:9">
       <c r="F48" s="6" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="I48">
         <v>1</v>
@@ -4758,10 +5133,10 @@
     </row>
     <row r="49" ht="15" spans="6:9">
       <c r="F49" s="6" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="I49">
         <v>0</v>
@@ -4769,10 +5144,10 @@
     </row>
     <row r="50" ht="15" spans="6:9">
       <c r="F50" s="6" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="I50">
         <v>0</v>
@@ -4780,7 +5155,7 @@
     </row>
     <row r="51" ht="15" spans="6:9">
       <c r="F51" s="6" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="G51" s="6" t="s">
         <v>24</v>
@@ -4791,7 +5166,7 @@
     </row>
     <row r="52" ht="15" spans="6:9">
       <c r="F52" s="6" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="G52" s="6" t="s">
         <v>36</v>
@@ -4802,10 +5177,10 @@
     </row>
     <row r="53" ht="15" spans="6:9">
       <c r="F53" s="6" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="I53">
         <v>1</v>
@@ -4813,10 +5188,10 @@
     </row>
     <row r="54" ht="15" spans="6:9">
       <c r="F54" s="6" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="I54">
         <v>0</v>
@@ -4824,7 +5199,7 @@
     </row>
     <row r="55" ht="15" spans="6:9">
       <c r="F55" s="6" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="G55" s="6" t="s">
         <v>39</v>
@@ -4835,10 +5210,10 @@
     </row>
     <row r="56" ht="15" spans="6:9">
       <c r="F56" s="6" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="G56" s="6" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="I56">
         <v>0</v>
@@ -4846,10 +5221,10 @@
     </row>
     <row r="57" ht="15" spans="6:9">
       <c r="F57" s="6" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="I57">
         <v>0</v>
@@ -4857,10 +5232,10 @@
     </row>
     <row r="58" ht="15" spans="6:9">
       <c r="F58" s="6" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="G58" s="6" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="I58">
         <v>0</v>
@@ -4868,10 +5243,10 @@
     </row>
     <row r="59" ht="15" spans="6:9">
       <c r="F59" s="6" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="I59">
         <v>0</v>
@@ -4879,10 +5254,10 @@
     </row>
     <row r="60" ht="15" spans="6:9">
       <c r="F60" s="6" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="I60">
         <v>1</v>
@@ -4890,10 +5265,10 @@
     </row>
     <row r="61" ht="15" spans="6:9">
       <c r="F61" s="6" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="I61">
         <v>1</v>
@@ -4901,10 +5276,10 @@
     </row>
     <row r="62" ht="15" spans="6:9">
       <c r="F62" s="6" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="I62">
         <v>0</v>
@@ -4912,10 +5287,10 @@
     </row>
     <row r="63" ht="15" spans="6:9">
       <c r="F63" s="6" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="G63" s="6" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="I63">
         <v>0</v>
@@ -4923,10 +5298,10 @@
     </row>
     <row r="64" ht="15" spans="6:9">
       <c r="F64" s="6" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="G64" s="6" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I64">
         <v>1</v>
@@ -4934,10 +5309,10 @@
     </row>
     <row r="65" ht="15" spans="6:9">
       <c r="F65" s="6" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="I65">
         <v>1</v>
@@ -4945,10 +5320,10 @@
     </row>
     <row r="66" ht="15" spans="6:9">
       <c r="F66" s="6" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="I66">
         <v>0</v>
@@ -4956,10 +5331,10 @@
     </row>
     <row r="67" ht="15" spans="6:9">
       <c r="F67" s="6" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="I67">
         <v>0</v>
@@ -4967,10 +5342,10 @@
     </row>
     <row r="68" ht="15" spans="6:9">
       <c r="F68" s="6" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="G68" s="6" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I68">
         <v>1</v>
@@ -4978,10 +5353,10 @@
     </row>
     <row r="69" ht="15" spans="6:9">
       <c r="F69" s="6" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="I69">
         <v>0</v>
@@ -4989,10 +5364,10 @@
     </row>
     <row r="70" ht="15" spans="6:9">
       <c r="F70" s="6" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="I70">
         <v>0</v>
@@ -5000,10 +5375,10 @@
     </row>
     <row r="71" ht="15" spans="6:9">
       <c r="F71" s="6" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="I71">
         <v>0</v>
@@ -5011,10 +5386,10 @@
     </row>
     <row r="72" ht="15" spans="6:9">
       <c r="F72" s="6" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="G72" s="6" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="I72">
         <v>0</v>
@@ -5022,10 +5397,10 @@
     </row>
     <row r="73" ht="15" spans="6:9">
       <c r="F73" s="6" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="I73">
         <v>1</v>
@@ -5033,10 +5408,10 @@
     </row>
     <row r="74" ht="15" spans="6:9">
       <c r="F74" s="6" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="G74" s="6" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="I74">
         <v>0</v>
@@ -5044,10 +5419,10 @@
     </row>
     <row r="75" ht="15" spans="6:9">
       <c r="F75" s="6" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="G75" s="6" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="I75">
         <v>1</v>
@@ -5055,10 +5430,10 @@
     </row>
     <row r="76" ht="15" spans="6:9">
       <c r="F76" s="6" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="G76" s="6" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="I76">
         <v>0</v>
@@ -5066,10 +5441,10 @@
     </row>
     <row r="77" ht="15" spans="6:9">
       <c r="F77" s="6" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="G77" s="6" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="I77">
         <v>0</v>
@@ -5077,10 +5452,10 @@
     </row>
     <row r="78" ht="15" spans="6:9">
       <c r="F78" s="6" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="G78" s="6" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="I78">
         <v>0</v>
@@ -5088,10 +5463,10 @@
     </row>
     <row r="79" ht="15" spans="6:9">
       <c r="F79" s="6" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="G79" s="6" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="I79">
         <v>0</v>
@@ -5099,10 +5474,10 @@
     </row>
     <row r="80" ht="15" spans="6:9">
       <c r="F80" s="6" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="G80" s="6" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="I80">
         <v>0</v>
@@ -5110,10 +5485,10 @@
     </row>
     <row r="81" ht="15" spans="6:9">
       <c r="F81" s="6" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="G81" s="6" t="s">
-        <v>283</v>
+        <v>295</v>
       </c>
       <c r="I81">
         <v>0</v>
@@ -5121,10 +5496,10 @@
     </row>
     <row r="82" ht="15" spans="6:9">
       <c r="F82" s="6" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="G82" s="6" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="I82">
         <v>1</v>
@@ -5132,10 +5507,10 @@
     </row>
     <row r="83" ht="15" spans="6:9">
       <c r="F83" s="6" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="G83" s="6" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
       <c r="I83">
         <v>1</v>
@@ -5143,10 +5518,10 @@
     </row>
     <row r="84" ht="15" spans="6:9">
       <c r="F84" s="6" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="G84" s="6" t="s">
-        <v>285</v>
+        <v>297</v>
       </c>
       <c r="I84">
         <v>0</v>
@@ -5154,10 +5529,10 @@
     </row>
     <row r="85" ht="15" spans="6:9">
       <c r="F85" s="6" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="G85" s="6" t="s">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="I85">
         <v>0</v>
@@ -5165,10 +5540,10 @@
     </row>
     <row r="86" ht="15" spans="6:9">
       <c r="F86" s="6" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="G86" s="6" t="s">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="I86">
         <v>0</v>
@@ -5176,10 +5551,10 @@
     </row>
     <row r="87" ht="15" spans="6:9">
       <c r="F87" s="6" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="G87" s="6" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="I87">
         <v>0</v>
@@ -5187,10 +5562,10 @@
     </row>
     <row r="88" ht="15" spans="6:9">
       <c r="F88" s="6" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="G88" s="6" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
       <c r="I88">
         <v>0</v>
@@ -5198,10 +5573,10 @@
     </row>
     <row r="89" ht="15" spans="6:9">
       <c r="F89" s="6" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="G89" s="6" t="s">
-        <v>290</v>
+        <v>302</v>
       </c>
       <c r="I89">
         <v>1</v>
@@ -5209,10 +5584,10 @@
     </row>
     <row r="90" ht="15" spans="6:9">
       <c r="F90" s="6" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="G90" s="6" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="I90">
         <v>0</v>
@@ -5220,10 +5595,10 @@
     </row>
     <row r="91" ht="15" spans="6:9">
       <c r="F91" s="6" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="G91" s="6" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="I91">
         <v>0</v>
@@ -5231,10 +5606,10 @@
     </row>
     <row r="92" ht="15" spans="6:9">
       <c r="F92" s="6" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="G92" s="6" t="s">
-        <v>293</v>
+        <v>305</v>
       </c>
       <c r="I92">
         <v>0</v>
@@ -5242,10 +5617,10 @@
     </row>
     <row r="93" ht="15" spans="6:9">
       <c r="F93" s="6" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="G93" s="6" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="I93">
         <v>1</v>
@@ -5253,10 +5628,10 @@
     </row>
     <row r="94" ht="15" spans="6:9">
       <c r="F94" s="6" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="G94" s="6" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="I94">
         <v>1</v>
@@ -5264,10 +5639,10 @@
     </row>
     <row r="95" ht="15" spans="6:9">
       <c r="F95" s="6" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="G95" s="6" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="I95">
         <v>1</v>
@@ -5275,10 +5650,10 @@
     </row>
     <row r="96" ht="15" spans="6:9">
       <c r="F96" s="6" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="G96" s="6" t="s">
-        <v>285</v>
+        <v>297</v>
       </c>
       <c r="I96">
         <v>1</v>
@@ -5286,10 +5661,10 @@
     </row>
     <row r="97" ht="15" spans="6:9">
       <c r="F97" s="6" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="G97" s="6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I97">
         <v>1</v>
@@ -5297,10 +5672,10 @@
     </row>
     <row r="98" ht="15" spans="6:9">
       <c r="F98" s="6" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="G98" s="6" t="s">
-        <v>296</v>
+        <v>308</v>
       </c>
       <c r="I98">
         <v>1</v>
@@ -5308,10 +5683,10 @@
     </row>
     <row r="99" ht="15" spans="6:9">
       <c r="F99" s="6" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="G99" s="6" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="I99">
         <v>1</v>
@@ -5319,10 +5694,10 @@
     </row>
     <row r="100" ht="15" spans="6:9">
       <c r="F100" s="6" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="G100" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I100">
         <v>1</v>
@@ -5330,10 +5705,10 @@
     </row>
     <row r="101" ht="15" spans="6:9">
       <c r="F101" s="6" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="G101" s="6" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I101">
         <v>1</v>
@@ -5341,10 +5716,10 @@
     </row>
     <row r="102" ht="15" spans="6:9">
       <c r="F102" s="6" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="G102" s="6" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="I102">
         <v>1</v>
@@ -5352,10 +5727,10 @@
     </row>
     <row r="103" ht="15" spans="6:9">
       <c r="F103" s="6" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="G103" s="6" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="I103">
         <v>1</v>
@@ -5363,10 +5738,10 @@
     </row>
     <row r="104" ht="15" spans="6:9">
       <c r="F104" s="6" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="G104" s="6" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
       <c r="I104">
         <v>1</v>
@@ -5374,10 +5749,10 @@
     </row>
     <row r="105" ht="15" spans="6:9">
       <c r="F105" s="6" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="G105" s="6" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="I105">
         <v>0</v>
@@ -5385,10 +5760,10 @@
     </row>
     <row r="106" ht="15" spans="6:9">
       <c r="F106" s="6" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="G106" s="6" t="s">
-        <v>301</v>
+        <v>313</v>
       </c>
       <c r="I106">
         <v>0</v>
@@ -5396,10 +5771,10 @@
     </row>
     <row r="107" ht="15" spans="6:9">
       <c r="F107" s="6" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="G107" s="6" t="s">
-        <v>302</v>
+        <v>314</v>
       </c>
       <c r="I107">
         <v>0</v>
@@ -5407,10 +5782,10 @@
     </row>
     <row r="108" ht="15" spans="6:9">
       <c r="F108" s="6" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="G108" s="6" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I108">
         <v>1</v>
@@ -5418,10 +5793,10 @@
     </row>
     <row r="109" ht="15" spans="6:9">
       <c r="F109" s="6" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="G109" s="6" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
       <c r="I109">
         <v>1</v>
@@ -5429,10 +5804,10 @@
     </row>
     <row r="110" ht="15" spans="6:9">
       <c r="F110" s="6" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="G110" s="6" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I110">
         <v>1</v>
@@ -5440,10 +5815,10 @@
     </row>
     <row r="111" ht="15" spans="6:9">
       <c r="F111" s="6" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="G111" s="6" t="s">
-        <v>304</v>
+        <v>316</v>
       </c>
       <c r="I111">
         <v>1</v>
@@ -5451,10 +5826,10 @@
     </row>
     <row r="112" ht="15" spans="6:9">
       <c r="F112" s="6" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="G112" s="6" t="s">
-        <v>305</v>
+        <v>317</v>
       </c>
       <c r="I112">
         <v>0</v>
@@ -5462,10 +5837,10 @@
     </row>
     <row r="113" ht="15" spans="6:9">
       <c r="F113" s="6" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="G113" s="6" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="I113">
         <v>1</v>
@@ -5473,10 +5848,10 @@
     </row>
     <row r="114" ht="15" spans="6:9">
       <c r="F114" s="6" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="G114" s="6" t="s">
-        <v>306</v>
+        <v>318</v>
       </c>
       <c r="I114">
         <v>1</v>
@@ -5484,10 +5859,10 @@
     </row>
     <row r="115" ht="15" spans="6:9">
       <c r="F115" s="6" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="G115" s="6" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="I115">
         <v>1</v>
@@ -5495,10 +5870,10 @@
     </row>
     <row r="116" ht="15" spans="6:9">
       <c r="F116" s="6" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="G116" s="6" t="s">
-        <v>308</v>
+        <v>320</v>
       </c>
       <c r="I116">
         <v>1</v>
@@ -5506,10 +5881,10 @@
     </row>
     <row r="117" ht="15" spans="6:9">
       <c r="F117" s="6" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="G117" s="6" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="I117">
         <v>0</v>
@@ -5517,10 +5892,10 @@
     </row>
     <row r="118" ht="15" spans="6:9">
       <c r="F118" s="6" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="G118" s="6" t="s">
-        <v>310</v>
+        <v>322</v>
       </c>
       <c r="I118">
         <v>0</v>
@@ -5528,10 +5903,10 @@
     </row>
     <row r="119" ht="15" spans="6:9">
       <c r="F119" s="6" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="G119" s="6" t="s">
-        <v>311</v>
+        <v>323</v>
       </c>
       <c r="I119">
         <v>0</v>
@@ -5539,10 +5914,10 @@
     </row>
     <row r="120" ht="15" spans="6:9">
       <c r="F120" s="6" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="G120" s="6" t="s">
-        <v>312</v>
+        <v>324</v>
       </c>
       <c r="I120">
         <v>0</v>
@@ -5550,10 +5925,10 @@
     </row>
     <row r="121" ht="15" spans="6:9">
       <c r="F121" s="6" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="G121" s="6" t="s">
-        <v>313</v>
+        <v>325</v>
       </c>
       <c r="I121">
         <v>0</v>
@@ -5561,10 +5936,10 @@
     </row>
     <row r="122" ht="15" spans="6:9">
       <c r="F122" s="6" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="G122" s="6" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="I122">
         <v>1</v>
@@ -5572,10 +5947,10 @@
     </row>
     <row r="123" ht="15" spans="6:9">
       <c r="F123" s="6" t="s">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="G123" s="6" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="I123">
         <v>1</v>
@@ -5583,10 +5958,10 @@
     </row>
     <row r="124" ht="15" spans="6:9">
       <c r="F124" s="6" t="s">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="G124" s="6" t="s">
-        <v>314</v>
+        <v>326</v>
       </c>
       <c r="I124">
         <v>0</v>
@@ -5594,10 +5969,10 @@
     </row>
     <row r="125" ht="15" spans="6:9">
       <c r="F125" s="6" t="s">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="G125" s="6" t="s">
-        <v>315</v>
+        <v>327</v>
       </c>
       <c r="I125">
         <v>1</v>
@@ -5605,10 +5980,10 @@
     </row>
     <row r="126" ht="15" spans="6:9">
       <c r="F126" s="6" t="s">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="G126" s="6" t="s">
-        <v>316</v>
+        <v>328</v>
       </c>
       <c r="I126">
         <v>0</v>
@@ -5616,10 +5991,10 @@
     </row>
     <row r="127" ht="15" spans="6:9">
       <c r="F127" s="6" t="s">
-        <v>215</v>
+        <v>228</v>
       </c>
       <c r="G127" s="6" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="I127">
         <v>1</v>
@@ -5627,10 +6002,10 @@
     </row>
     <row r="128" ht="15" spans="6:9">
       <c r="F128" s="6" t="s">
-        <v>215</v>
+        <v>228</v>
       </c>
       <c r="G128" s="6" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="I128">
         <v>1</v>
@@ -5638,10 +6013,10 @@
     </row>
     <row r="129" ht="15" spans="6:9">
       <c r="F129" s="6" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="G129" s="6" t="s">
-        <v>318</v>
+        <v>330</v>
       </c>
       <c r="I129">
         <v>1</v>
@@ -5649,10 +6024,10 @@
     </row>
     <row r="130" ht="15" spans="6:9">
       <c r="F130" s="6" t="s">
-        <v>215</v>
+        <v>228</v>
       </c>
       <c r="G130" s="6" t="s">
-        <v>319</v>
+        <v>331</v>
       </c>
       <c r="I130">
         <v>1</v>
@@ -5660,10 +6035,10 @@
     </row>
     <row r="131" ht="15" spans="6:9">
       <c r="F131" s="6" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="G131" s="6" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I131">
         <v>1</v>
@@ -5671,10 +6046,10 @@
     </row>
     <row r="132" ht="15" spans="6:9">
       <c r="F132" s="6" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="G132" s="6" t="s">
-        <v>320</v>
+        <v>332</v>
       </c>
       <c r="I132">
         <v>1</v>
@@ -5682,10 +6057,10 @@
     </row>
     <row r="133" ht="15" spans="6:9">
       <c r="F133" s="6" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="G133" s="6" t="s">
-        <v>321</v>
+        <v>333</v>
       </c>
       <c r="I133">
         <v>0</v>
@@ -5693,10 +6068,10 @@
     </row>
     <row r="134" ht="15" spans="6:9">
       <c r="F134" s="6" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="G134" s="6" t="s">
-        <v>322</v>
+        <v>334</v>
       </c>
       <c r="I134">
         <v>0</v>
@@ -5704,10 +6079,10 @@
     </row>
     <row r="135" ht="15" spans="6:9">
       <c r="F135" s="6" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="G135" s="6" t="s">
-        <v>323</v>
+        <v>335</v>
       </c>
       <c r="I135">
         <v>0</v>
@@ -5715,10 +6090,10 @@
     </row>
     <row r="136" ht="15" spans="6:9">
       <c r="F136" s="6" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="G136" s="6" t="s">
-        <v>324</v>
+        <v>336</v>
       </c>
       <c r="I136">
         <v>0</v>
@@ -5726,10 +6101,10 @@
     </row>
     <row r="137" ht="15" spans="6:9">
       <c r="F137" s="6" t="s">
-        <v>190</v>
+        <v>203</v>
       </c>
       <c r="G137" s="6" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I137">
         <v>1</v>
@@ -5737,10 +6112,10 @@
     </row>
     <row r="138" ht="15" spans="6:9">
       <c r="F138" s="6" t="s">
-        <v>190</v>
+        <v>203</v>
       </c>
       <c r="G138" s="6" t="s">
-        <v>325</v>
+        <v>337</v>
       </c>
       <c r="I138">
         <v>0</v>
@@ -5748,10 +6123,10 @@
     </row>
     <row r="139" ht="15" spans="6:9">
       <c r="F139" s="6" t="s">
-        <v>190</v>
+        <v>203</v>
       </c>
       <c r="G139" s="6" t="s">
-        <v>326</v>
+        <v>338</v>
       </c>
       <c r="I139">
         <v>0</v>
@@ -5759,10 +6134,10 @@
     </row>
     <row r="140" ht="15" spans="6:9">
       <c r="F140" s="6" t="s">
-        <v>190</v>
+        <v>203</v>
       </c>
       <c r="G140" s="6" t="s">
-        <v>327</v>
+        <v>339</v>
       </c>
       <c r="I140">
         <v>1</v>
@@ -5770,10 +6145,10 @@
     </row>
     <row r="141" ht="15" spans="6:9">
       <c r="F141" s="6" t="s">
-        <v>190</v>
+        <v>203</v>
       </c>
       <c r="G141" s="6" t="s">
-        <v>328</v>
+        <v>340</v>
       </c>
       <c r="I141">
         <v>1</v>
@@ -5781,10 +6156,10 @@
     </row>
     <row r="142" ht="15" spans="6:9">
       <c r="F142" s="6" t="s">
-        <v>190</v>
+        <v>203</v>
       </c>
       <c r="G142" s="6" t="s">
-        <v>329</v>
+        <v>341</v>
       </c>
       <c r="I142">
         <v>0</v>
@@ -5792,10 +6167,10 @@
     </row>
     <row r="143" ht="15" spans="6:9">
       <c r="F143" s="6" t="s">
-        <v>190</v>
+        <v>203</v>
       </c>
       <c r="G143" s="6" t="s">
-        <v>330</v>
+        <v>342</v>
       </c>
       <c r="I143">
         <v>0</v>
@@ -5803,10 +6178,10 @@
     </row>
     <row r="144" ht="15" spans="6:9">
       <c r="F144" s="6" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="G144" s="6" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I144">
         <v>1</v>
@@ -5814,10 +6189,10 @@
     </row>
     <row r="145" ht="15" spans="6:9">
       <c r="F145" s="6" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="G145" s="6" t="s">
-        <v>331</v>
+        <v>343</v>
       </c>
       <c r="I145">
         <v>1</v>
@@ -5825,10 +6200,10 @@
     </row>
     <row r="146" ht="15" spans="6:9">
       <c r="F146" s="6" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="G146" s="6" t="s">
-        <v>332</v>
+        <v>344</v>
       </c>
       <c r="I146">
         <v>0</v>
@@ -5836,10 +6211,10 @@
     </row>
     <row r="147" ht="15" spans="6:9">
       <c r="F147" s="6" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="G147" s="6" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="I147">
         <v>0</v>
@@ -5847,10 +6222,10 @@
     </row>
     <row r="148" ht="15" spans="6:9">
       <c r="F148" s="6" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="G148" s="6" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
       <c r="I148">
         <v>0</v>
@@ -5858,10 +6233,10 @@
     </row>
     <row r="149" ht="15" spans="6:9">
       <c r="F149" s="6" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="G149" s="6" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="I149">
         <v>0</v>
@@ -5869,10 +6244,10 @@
     </row>
     <row r="150" ht="15" spans="6:9">
       <c r="F150" s="6" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="G150" s="6" t="s">
-        <v>336</v>
+        <v>348</v>
       </c>
       <c r="I150">
         <v>0</v>
@@ -5880,12 +6255,34 @@
     </row>
     <row r="151" ht="15" spans="6:9">
       <c r="F151" s="6" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="G151" s="6" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="I151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" ht="15" spans="6:9">
+      <c r="F152" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="G152" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" ht="15" spans="6:9">
+      <c r="F153" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="G153" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="I153">
         <v>1</v>
       </c>
     </row>
@@ -5902,10 +6299,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="D7:G31"/>
+  <dimension ref="D7:G33"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A28" sqref="$A28:$XFD28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="6"/>
@@ -5921,21 +6318,21 @@
   <sheetData>
     <row r="7" spans="4:7">
       <c r="D7" s="4" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>339</v>
+        <v>351</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
     </row>
     <row r="8" ht="15.75" spans="6:7">
       <c r="F8" s="5" t="s">
-        <v>340</v>
+        <v>352</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>12</v>
@@ -5943,7 +6340,7 @@
     </row>
     <row r="9" ht="15.75" spans="6:7">
       <c r="F9" s="5" t="s">
-        <v>340</v>
+        <v>352</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>18</v>
@@ -5951,7 +6348,7 @@
     </row>
     <row r="10" ht="15.75" spans="6:7">
       <c r="F10" s="5" t="s">
-        <v>340</v>
+        <v>352</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>21</v>
@@ -5959,7 +6356,7 @@
     </row>
     <row r="11" ht="15.75" spans="6:7">
       <c r="F11" s="5" t="s">
-        <v>340</v>
+        <v>352</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>24</v>
@@ -5967,7 +6364,7 @@
     </row>
     <row r="12" ht="15.75" spans="6:7">
       <c r="F12" s="5" t="s">
-        <v>340</v>
+        <v>352</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>27</v>
@@ -5975,7 +6372,7 @@
     </row>
     <row r="13" ht="15.75" spans="6:7">
       <c r="F13" s="5" t="s">
-        <v>340</v>
+        <v>352</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>30</v>
@@ -5983,7 +6380,7 @@
     </row>
     <row r="14" ht="15.75" spans="6:7">
       <c r="F14" s="5" t="s">
-        <v>340</v>
+        <v>352</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>33</v>
@@ -5991,7 +6388,7 @@
     </row>
     <row r="15" ht="15.75" spans="6:7">
       <c r="F15" s="5" t="s">
-        <v>340</v>
+        <v>352</v>
       </c>
       <c r="G15" s="5" t="s">
         <v>36</v>
@@ -5999,7 +6396,7 @@
     </row>
     <row r="16" ht="15.75" spans="6:7">
       <c r="F16" s="5" t="s">
-        <v>340</v>
+        <v>352</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>39</v>
@@ -6007,7 +6404,7 @@
     </row>
     <row r="17" ht="15.75" spans="6:7">
       <c r="F17" s="5" t="s">
-        <v>341</v>
+        <v>352</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>42</v>
@@ -6015,15 +6412,15 @@
     </row>
     <row r="18" ht="15.75" spans="6:7">
       <c r="F18" s="5" t="s">
-        <v>341</v>
+        <v>353</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" ht="15.75" spans="6:7">
       <c r="F19" s="5" t="s">
-        <v>341</v>
+        <v>353</v>
       </c>
       <c r="G19" s="5" t="s">
         <v>49</v>
@@ -6031,7 +6428,7 @@
     </row>
     <row r="20" ht="15.75" spans="6:7">
       <c r="F20" s="5" t="s">
-        <v>341</v>
+        <v>353</v>
       </c>
       <c r="G20" s="5" t="s">
         <v>52</v>
@@ -6039,7 +6436,7 @@
     </row>
     <row r="21" ht="15.75" spans="6:7">
       <c r="F21" s="5" t="s">
-        <v>341</v>
+        <v>353</v>
       </c>
       <c r="G21" s="5" t="s">
         <v>55</v>
@@ -6047,7 +6444,7 @@
     </row>
     <row r="22" ht="15.75" spans="6:7">
       <c r="F22" s="5" t="s">
-        <v>341</v>
+        <v>353</v>
       </c>
       <c r="G22" s="5" t="s">
         <v>58</v>
@@ -6055,7 +6452,7 @@
     </row>
     <row r="23" ht="15.75" spans="6:7">
       <c r="F23" s="5" t="s">
-        <v>341</v>
+        <v>353</v>
       </c>
       <c r="G23" s="5" t="s">
         <v>61</v>
@@ -6063,15 +6460,15 @@
     </row>
     <row r="24" ht="15.75" spans="6:7">
       <c r="F24" s="5" t="s">
-        <v>341</v>
+        <v>353</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" ht="15.75" spans="6:7">
       <c r="F25" s="5" t="s">
-        <v>341</v>
+        <v>353</v>
       </c>
       <c r="G25" s="5" t="s">
         <v>76</v>
@@ -6079,7 +6476,7 @@
     </row>
     <row r="26" ht="15.75" spans="6:7">
       <c r="F26" s="5" t="s">
-        <v>341</v>
+        <v>353</v>
       </c>
       <c r="G26" s="5" t="s">
         <v>79</v>
@@ -6087,7 +6484,7 @@
     </row>
     <row r="27" ht="15.75" spans="6:7">
       <c r="F27" s="5" t="s">
-        <v>342</v>
+        <v>353</v>
       </c>
       <c r="G27" s="5" t="s">
         <v>82</v>
@@ -6095,23 +6492,23 @@
     </row>
     <row r="28" ht="15.75" spans="6:7">
       <c r="F28" s="5" t="s">
-        <v>342</v>
+        <v>353</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29" ht="15.75" spans="6:7">
       <c r="F29" s="5" t="s">
-        <v>342</v>
+        <v>354</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="30" ht="15.75" spans="6:7">
       <c r="F30" s="5" t="s">
-        <v>342</v>
+        <v>354</v>
       </c>
       <c r="G30" s="5" t="s">
         <v>92</v>
@@ -6119,10 +6516,26 @@
     </row>
     <row r="31" ht="15.75" spans="6:7">
       <c r="F31" s="5" t="s">
-        <v>343</v>
+        <v>354</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>92</v>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="32" ht="15.75" spans="6:7">
+      <c r="F32" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="33" ht="15.75" spans="6:7">
+      <c r="F33" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -6138,10 +6551,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="D6:I44"/>
+  <dimension ref="D6:I46"/>
   <sheetViews>
-    <sheetView zoomScale="95" zoomScaleNormal="95" topLeftCell="E5" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+    <sheetView zoomScale="95" zoomScaleNormal="95" topLeftCell="C3" workbookViewId="0">
+      <selection activeCell="C46" sqref="$A46:$XFD46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -6158,19 +6571,19 @@
     <row r="6" ht="13.5"/>
     <row r="7" ht="18.95" customHeight="1" spans="4:9">
       <c r="D7" s="1" t="s">
-        <v>344</v>
+        <v>356</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>345</v>
+        <v>357</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>11</v>
@@ -6178,176 +6591,176 @@
     </row>
     <row r="8" spans="6:8">
       <c r="F8" s="2" t="s">
-        <v>347</v>
+        <v>359</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="6:8">
       <c r="F9" s="2" t="s">
-        <v>347</v>
+        <v>359</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="6:8">
       <c r="F10" s="2" t="s">
-        <v>347</v>
+        <v>359</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="6:8">
       <c r="F11" s="2" t="s">
-        <v>347</v>
+        <v>359</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>215</v>
+        <v>228</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="6:8">
       <c r="F12" s="2" t="s">
-        <v>348</v>
+        <v>360</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="6:8">
       <c r="F13" s="2" t="s">
-        <v>348</v>
+        <v>360</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="6:8">
       <c r="F14" s="2" t="s">
-        <v>348</v>
+        <v>360</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="6:8">
       <c r="F15" s="2" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
     </row>
     <row r="16" spans="6:8">
       <c r="F16" s="2" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
     </row>
     <row r="17" spans="6:8">
       <c r="F17" s="2" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
     </row>
     <row r="18" spans="6:8">
       <c r="F18" s="2" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>215</v>
+        <v>228</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
     </row>
     <row r="19" spans="6:8">
       <c r="F19" t="s">
-        <v>351</v>
+        <v>363</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
     </row>
     <row r="20" spans="6:8">
       <c r="F20" s="3" t="s">
-        <v>351</v>
+        <v>363</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
     </row>
     <row r="21" spans="6:8">
       <c r="F21" t="s">
-        <v>351</v>
+        <v>363</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
     </row>
     <row r="22" spans="6:8">
       <c r="F22" t="s">
-        <v>351</v>
+        <v>363</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>215</v>
+        <v>228</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
     </row>
     <row r="23" spans="4:8">
       <c r="D23" s="2"/>
       <c r="F23" s="2" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>15</v>
@@ -6355,10 +6768,10 @@
     </row>
     <row r="24" spans="6:8">
       <c r="F24" s="2" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>15</v>
@@ -6366,10 +6779,10 @@
     </row>
     <row r="25" spans="6:8">
       <c r="F25" s="2" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>15</v>
@@ -6377,10 +6790,10 @@
     </row>
     <row r="26" spans="6:8">
       <c r="F26" s="2" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>15</v>
@@ -6388,10 +6801,10 @@
     </row>
     <row r="27" spans="6:8">
       <c r="F27" s="2" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>15</v>
@@ -6399,10 +6812,10 @@
     </row>
     <row r="28" spans="6:8">
       <c r="F28" s="2" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>15</v>
@@ -6410,10 +6823,10 @@
     </row>
     <row r="29" spans="6:8">
       <c r="F29" s="2" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>15</v>
@@ -6421,10 +6834,10 @@
     </row>
     <row r="30" spans="6:8">
       <c r="F30" s="2" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>15</v>
@@ -6432,10 +6845,10 @@
     </row>
     <row r="31" spans="6:8">
       <c r="F31" s="2" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>15</v>
@@ -6443,10 +6856,10 @@
     </row>
     <row r="32" spans="6:9">
       <c r="F32" s="2" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>15</v>
@@ -6457,32 +6870,32 @@
     </row>
     <row r="33" spans="6:8">
       <c r="F33" s="2" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>352</v>
+        <v>364</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="34" spans="6:8">
-      <c r="F34" s="3" t="s">
-        <v>351</v>
+      <c r="F34" s="2" t="s">
+        <v>361</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>110</v>
+        <v>154</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="35" spans="6:8">
-      <c r="F35" t="s">
-        <v>351</v>
+      <c r="F35" s="3" t="s">
+        <v>363</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H35" s="2" t="s">
         <v>15</v>
@@ -6490,10 +6903,10 @@
     </row>
     <row r="36" spans="6:8">
       <c r="F36" t="s">
-        <v>351</v>
+        <v>363</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H36" s="2" t="s">
         <v>15</v>
@@ -6501,10 +6914,10 @@
     </row>
     <row r="37" spans="6:8">
       <c r="F37" t="s">
-        <v>351</v>
+        <v>363</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H37" s="2" t="s">
         <v>15</v>
@@ -6512,10 +6925,10 @@
     </row>
     <row r="38" spans="6:8">
       <c r="F38" t="s">
-        <v>351</v>
+        <v>363</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>15</v>
@@ -6523,10 +6936,10 @@
     </row>
     <row r="39" spans="6:8">
       <c r="F39" t="s">
-        <v>351</v>
+        <v>363</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H39" s="2" t="s">
         <v>15</v>
@@ -6534,10 +6947,10 @@
     </row>
     <row r="40" spans="6:8">
       <c r="F40" t="s">
-        <v>351</v>
+        <v>363</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="H40" s="2" t="s">
         <v>15</v>
@@ -6545,48 +6958,70 @@
     </row>
     <row r="41" spans="6:8">
       <c r="F41" t="s">
-        <v>351</v>
+        <v>363</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="H41" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="6:9">
+    <row r="42" spans="6:8">
       <c r="F42" t="s">
-        <v>351</v>
+        <v>363</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="H42" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="6:8">
+    </row>
+    <row r="43" spans="6:9">
       <c r="F43" t="s">
-        <v>351</v>
+        <v>363</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="H43" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="I43">
+        <v>1</v>
+      </c>
     </row>
     <row r="44" spans="6:8">
       <c r="F44" t="s">
-        <v>351</v>
+        <v>363</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>352</v>
+        <v>153</v>
       </c>
       <c r="H44" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="6:8">
+      <c r="F45" t="s">
+        <v>363</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" customFormat="1" spans="6:8">
+      <c r="F46" t="s">
+        <v>363</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="H46" s="2" t="s">
         <v>15</v>
       </c>
     </row>
@@ -6603,7 +7038,7 @@
   <dimension ref="D7:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelRow="7"/>
@@ -6618,7 +7053,7 @@
   <sheetData>
     <row r="7" spans="4:11">
       <c r="D7" t="s">
-        <v>353</v>
+        <v>365</v>
       </c>
       <c r="E7" t="s">
         <v>1</v>
@@ -6633,33 +7068,33 @@
         <v>5</v>
       </c>
       <c r="I7" t="s">
-        <v>354</v>
+        <v>366</v>
       </c>
       <c r="J7" t="s">
-        <v>355</v>
+        <v>367</v>
       </c>
       <c r="K7" t="s">
-        <v>356</v>
+        <v>368</v>
       </c>
     </row>
     <row r="8" spans="6:11">
       <c r="F8" t="s">
-        <v>357</v>
+        <v>369</v>
       </c>
       <c r="G8" t="s">
-        <v>358</v>
+        <v>370</v>
       </c>
       <c r="H8" t="s">
-        <v>359</v>
+        <v>371</v>
       </c>
       <c r="I8" t="s">
-        <v>360</v>
+        <v>372</v>
       </c>
       <c r="J8" t="s">
-        <v>361</v>
+        <v>373</v>
       </c>
       <c r="K8" t="s">
-        <v>362</v>
+        <v>374</v>
       </c>
     </row>
   </sheetData>
@@ -6673,8 +7108,8 @@
   <sheetPr/>
   <dimension ref="D7:I11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
@@ -6688,78 +7123,78 @@
   <sheetData>
     <row r="7" spans="4:9">
       <c r="D7" t="s">
-        <v>363</v>
+        <v>375</v>
       </c>
       <c r="E7" t="s">
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="G7" t="s">
-        <v>365</v>
+        <v>377</v>
       </c>
       <c r="H7" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
       <c r="I7" t="s">
-        <v>367</v>
+        <v>379</v>
       </c>
     </row>
     <row r="8" spans="6:9">
       <c r="F8" t="s">
-        <v>357</v>
+        <v>369</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="H8" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
       <c r="I8" t="s">
-        <v>361</v>
+        <v>373</v>
       </c>
     </row>
     <row r="9" spans="6:9">
       <c r="F9" t="s">
-        <v>357</v>
+        <v>369</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="H9" t="s">
-        <v>369</v>
+        <v>381</v>
       </c>
       <c r="I9" t="s">
-        <v>370</v>
+        <v>382</v>
       </c>
     </row>
     <row r="10" spans="6:9">
       <c r="F10" t="s">
-        <v>357</v>
+        <v>369</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="H10" t="s">
-        <v>371</v>
+        <v>383</v>
       </c>
       <c r="I10" t="s">
-        <v>372</v>
+        <v>384</v>
       </c>
     </row>
     <row r="11" spans="6:9">
       <c r="F11" t="s">
-        <v>357</v>
+        <v>369</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="H11" t="s">
-        <v>373</v>
+        <v>385</v>
       </c>
       <c r="I11" t="s">
-        <v>362</v>
+        <v>374</v>
       </c>
     </row>
   </sheetData>
@@ -6774,7 +7209,7 @@
   <dimension ref="D7:L9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
@@ -6791,71 +7226,71 @@
   <sheetData>
     <row r="7" spans="4:12">
       <c r="D7" t="s">
-        <v>374</v>
+        <v>386</v>
       </c>
       <c r="E7" t="s">
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="G7" t="s">
-        <v>375</v>
+        <v>387</v>
       </c>
       <c r="H7" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
       <c r="I7" t="s">
-        <v>377</v>
+        <v>389</v>
       </c>
       <c r="J7" t="s">
-        <v>378</v>
+        <v>390</v>
       </c>
       <c r="K7" t="s">
-        <v>379</v>
+        <v>391</v>
       </c>
       <c r="L7" t="s">
-        <v>380</v>
+        <v>392</v>
       </c>
     </row>
     <row r="8" spans="6:11">
       <c r="F8" t="s">
-        <v>357</v>
+        <v>369</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="H8" t="s">
-        <v>381</v>
+        <v>393</v>
       </c>
       <c r="I8" t="s">
-        <v>382</v>
+        <v>394</v>
       </c>
       <c r="J8" t="s">
-        <v>383</v>
+        <v>395</v>
       </c>
       <c r="K8" t="s">
-        <v>384</v>
+        <v>396</v>
       </c>
     </row>
     <row r="9" spans="6:12">
       <c r="F9" t="s">
-        <v>385</v>
+        <v>397</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>386</v>
+        <v>398</v>
       </c>
       <c r="I9" t="s">
-        <v>387</v>
+        <v>399</v>
       </c>
       <c r="J9" t="s">
-        <v>383</v>
+        <v>395</v>
       </c>
       <c r="K9" t="s">
-        <v>388</v>
+        <v>400</v>
       </c>
       <c r="L9">
         <v>0</v>

--- a/src/main/resources/script/meta/micro-service-init-data.xlsx
+++ b/src/main/resources/script/meta/micro-service-init-data.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10613"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhenghaotian/Documents/RandD/base-service/src/main/resources/script/meta/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6FD5877-F6A2-A347-85AF-786F7B3FEBCC}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="7860" tabRatio="845" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" tabRatio="845" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
@@ -21,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1089" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1107" uniqueCount="412">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -261,7 +267,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Droid Sans Fallback"/>
-        <charset val="134"/>
       </rPr>
       <t>快码维护路由</t>
     </r>
@@ -458,6 +463,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="PingFang SC"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>ldap</t>
@@ -467,6 +473,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>设置</t>
@@ -1249,18 +1256,48 @@
   <si>
     <t>Number</t>
   </si>
+  <si>
+    <t>devops-service.devops-organization.clusterOverview</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.code.organization.overview</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>base-service.organization.projectOverview</t>
+  </si>
+  <si>
+    <t>base-service.organization-user.countByDate</t>
+  </si>
+  <si>
+    <t>base-service.organization-project.listProjectsWithLimit</t>
+  </si>
+  <si>
+    <t>base-service.organization-project.countDeployRecords</t>
+  </si>
+  <si>
+    <t>asgard-service.saga-instance-org.statisticsFailureList</t>
+  </si>
+  <si>
+    <t>asgard-service.saga-instance-org.statisticsFailure</t>
+  </si>
+  <si>
+    <t>base-service.organization.appServerOverview</t>
+  </si>
+  <si>
+    <t>base-service.operate-log.listMoreOperateLog</t>
+  </si>
+  <si>
+    <t>choerodon.code.site.overview</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="37">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="20">
     <font>
       <sz val="10"/>
       <name val="Droid Sans Fallback"/>
@@ -1270,438 +1307,129 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="DejaVu Sans"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Droid Sans Fallback"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="DejaVu Sans"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="DengXian"/>
+      <family val="4"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="PingFang SC"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="PingFang SC"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF5B9BD5"/>
       <name val="PingFang SC"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF5B9BD5"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFFC000"/>
       <name val="PingFang SC"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="13"/>
       <name val="PingFang SC"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF8F187C"/>
       <name val="PingFang SC"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF8F187C"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="13"/>
       <name val="Helvetica"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="14"/>
+      <name val="PingFang SC"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="PingFang SC"/>
+      <family val="2"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1724,253 +1452,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
@@ -1990,62 +1476,20 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2303,39 +1747,39 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="D7:O37"/>
   <sheetViews>
-    <sheetView zoomScale="95" zoomScaleNormal="95" topLeftCell="A9" workbookViewId="0">
+    <sheetView topLeftCell="A9" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
       <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="9.14285714285714" customWidth="1"/>
-    <col min="2" max="2" width="9.57142857142857" customWidth="1"/>
+    <col min="1" max="1" width="9.19921875" customWidth="1"/>
+    <col min="2" max="2" width="9.59765625" customWidth="1"/>
     <col min="3" max="3" width="9" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
     <col min="5" max="5" width="9" customWidth="1"/>
-    <col min="6" max="6" width="49.1428571428571" customWidth="1"/>
-    <col min="7" max="7" width="37.1428571428571" customWidth="1"/>
+    <col min="6" max="6" width="49.19921875" customWidth="1"/>
+    <col min="7" max="7" width="37.19921875" customWidth="1"/>
     <col min="8" max="8" width="37" customWidth="1"/>
     <col min="9" max="9" width="19" customWidth="1"/>
-    <col min="10" max="10" width="19.8571428571429" customWidth="1"/>
+    <col min="10" max="10" width="19.796875" customWidth="1"/>
     <col min="11" max="11" width="19" customWidth="1"/>
-    <col min="12" max="12" width="19.1428571428571" customWidth="1"/>
-    <col min="13" max="13" width="18.8571428571429" customWidth="1"/>
-    <col min="14" max="14" width="19.4285714285714" customWidth="1"/>
+    <col min="12" max="12" width="19.19921875" customWidth="1"/>
+    <col min="13" max="13" width="18.796875" customWidth="1"/>
+    <col min="14" max="14" width="19.3984375" customWidth="1"/>
     <col min="15" max="15" width="19" customWidth="1"/>
     <col min="16" max="1025" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" customHeight="1" spans="4:15">
+    <row r="7" spans="4:15" ht="12.75" customHeight="1">
       <c r="D7" s="4" t="s">
         <v>0</v>
       </c>
@@ -2373,7 +1817,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="4:14">
+    <row r="8" spans="4:15">
       <c r="D8" s="3"/>
       <c r="F8" s="2" t="s">
         <v>12</v>
@@ -2403,7 +1847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="6:14">
+    <row r="9" spans="4:15">
       <c r="F9" s="2" t="s">
         <v>18</v>
       </c>
@@ -2432,7 +1876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="6:14">
+    <row r="10" spans="4:15">
       <c r="F10" s="2" t="s">
         <v>21</v>
       </c>
@@ -2461,7 +1905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="6:14">
+    <row r="11" spans="4:15">
       <c r="F11" s="2" t="s">
         <v>24</v>
       </c>
@@ -2490,7 +1934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="6:14">
+    <row r="12" spans="4:15">
       <c r="F12" s="2" t="s">
         <v>27</v>
       </c>
@@ -2519,7 +1963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="6:14">
+    <row r="13" spans="4:15">
       <c r="F13" s="2" t="s">
         <v>30</v>
       </c>
@@ -2548,7 +1992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="6:14">
+    <row r="14" spans="4:15">
       <c r="F14" s="2" t="s">
         <v>33</v>
       </c>
@@ -2577,7 +2021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="6:14">
+    <row r="15" spans="4:15">
       <c r="F15" s="2" t="s">
         <v>36</v>
       </c>
@@ -2606,7 +2050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="6:14">
+    <row r="16" spans="4:15">
       <c r="F16" s="2" t="s">
         <v>39</v>
       </c>
@@ -2635,7 +2079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="6:14">
+    <row r="17" spans="6:14" ht="14">
       <c r="F17" s="2" t="s">
         <v>42</v>
       </c>
@@ -3041,7 +2485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="6:14">
+    <row r="31" spans="6:14" ht="14">
       <c r="F31" s="2" t="s">
         <v>85</v>
       </c>
@@ -3186,12 +2630,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="7:7">
+    <row r="37" spans="6:14">
       <c r="G37" s="2"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="17" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,常规"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,常规"&amp;12 Page &amp;P</oddFooter>
@@ -3200,37 +2645,36 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="D7:Q50"/>
   <sheetViews>
-    <sheetView zoomScale="86" zoomScaleNormal="86" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A25" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
       <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="6" customWidth="1"/>
-    <col min="3" max="3" width="4.85714285714286" customWidth="1"/>
-    <col min="4" max="4" width="19.4285714285714" customWidth="1"/>
+    <col min="3" max="3" width="4.796875" customWidth="1"/>
+    <col min="4" max="4" width="19.3984375" customWidth="1"/>
     <col min="5" max="5" width="9" customWidth="1"/>
-    <col min="6" max="6" width="72.8571428571429" customWidth="1"/>
-    <col min="7" max="7" width="16.8571428571429" customWidth="1"/>
+    <col min="6" max="6" width="72.796875" customWidth="1"/>
+    <col min="7" max="7" width="16.796875" customWidth="1"/>
     <col min="8" max="8" width="36" customWidth="1"/>
-    <col min="9" max="9" width="63.8571428571429" customWidth="1"/>
-    <col min="10" max="10" width="18.5714285714286" customWidth="1"/>
-    <col min="11" max="11" width="54.8571428571429" customWidth="1"/>
-    <col min="12" max="12" width="19.1428571428571" customWidth="1"/>
-    <col min="13" max="13" width="14.5714285714286" customWidth="1"/>
-    <col min="14" max="14" width="26.4285714285714" customWidth="1"/>
+    <col min="9" max="9" width="63.796875" customWidth="1"/>
+    <col min="10" max="10" width="18.59765625" customWidth="1"/>
+    <col min="11" max="11" width="54.796875" customWidth="1"/>
+    <col min="12" max="12" width="19.19921875" customWidth="1"/>
+    <col min="13" max="13" width="14.59765625" customWidth="1"/>
+    <col min="14" max="14" width="26.3984375" customWidth="1"/>
     <col min="15" max="15" width="9" customWidth="1"/>
-    <col min="16" max="16" width="12.4285714285714" customWidth="1"/>
-    <col min="17" max="17" width="10.8571428571429" customWidth="1"/>
+    <col min="16" max="16" width="12.3984375" customWidth="1"/>
+    <col min="17" max="17" width="10.796875" customWidth="1"/>
     <col min="18" max="1025" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" customHeight="1" spans="4:17">
+    <row r="7" spans="4:17" ht="12.75" customHeight="1">
       <c r="D7" s="4" t="s">
         <v>101</v>
       </c>
@@ -3274,7 +2718,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" ht="15" spans="4:15">
+    <row r="8" spans="4:17" ht="19">
       <c r="D8" s="3"/>
       <c r="F8" s="7" t="s">
         <v>111</v>
@@ -3303,7 +2747,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" ht="15" spans="6:17">
+    <row r="9" spans="4:17" ht="19">
       <c r="F9" s="7" t="s">
         <v>116</v>
       </c>
@@ -3338,7 +2782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" ht="15" spans="6:17">
+    <row r="10" spans="4:17" ht="19">
       <c r="F10" s="7" t="s">
         <v>121</v>
       </c>
@@ -3373,7 +2817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" customFormat="1" ht="15" spans="6:15">
+    <row r="11" spans="4:17" ht="19">
       <c r="F11" s="7" t="s">
         <v>116</v>
       </c>
@@ -3405,7 +2849,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" customFormat="1" ht="15" spans="6:15">
+    <row r="12" spans="4:17" ht="19">
       <c r="F12" s="7" t="s">
         <v>121</v>
       </c>
@@ -3437,7 +2881,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" ht="15" spans="6:15">
+    <row r="13" spans="4:17" ht="19">
       <c r="F13" s="7" t="s">
         <v>125</v>
       </c>
@@ -3465,7 +2909,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" ht="15" spans="6:15">
+    <row r="14" spans="4:17" ht="19">
       <c r="F14" s="7" t="s">
         <v>128</v>
       </c>
@@ -3497,7 +2941,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" ht="15" spans="6:15">
+    <row r="15" spans="4:17" ht="19">
       <c r="F15" s="7" t="s">
         <v>132</v>
       </c>
@@ -3529,7 +2973,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" ht="15" spans="6:15">
+    <row r="16" spans="4:17" ht="19">
       <c r="F16" s="7" t="s">
         <v>136</v>
       </c>
@@ -3559,7 +3003,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" ht="15" spans="6:15">
+    <row r="17" spans="6:17" ht="19">
       <c r="F17" s="7" t="s">
         <v>140</v>
       </c>
@@ -3589,7 +3033,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" ht="15" spans="6:15">
+    <row r="18" spans="6:17" ht="19">
       <c r="F18" s="7" t="s">
         <v>143</v>
       </c>
@@ -3619,7 +3063,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" ht="15" spans="6:15">
+    <row r="19" spans="6:17" ht="19">
       <c r="F19" s="7" t="s">
         <v>146</v>
       </c>
@@ -3649,7 +3093,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" ht="15" spans="6:17">
+    <row r="20" spans="6:17" ht="19">
       <c r="F20" s="7" t="s">
         <v>149</v>
       </c>
@@ -3684,7 +3128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" ht="15" spans="6:15">
+    <row r="21" spans="6:17" ht="19">
       <c r="F21" s="7" t="s">
         <v>153</v>
       </c>
@@ -3716,7 +3160,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" ht="15" spans="6:15">
+    <row r="22" spans="6:17" ht="19">
       <c r="F22" s="7" t="s">
         <v>154</v>
       </c>
@@ -3748,7 +3192,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" ht="15" spans="6:15">
+    <row r="23" spans="6:17" ht="19">
       <c r="F23" s="9" t="s">
         <v>158</v>
       </c>
@@ -3776,7 +3220,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" ht="15" spans="6:17">
+    <row r="24" spans="6:17" ht="19">
       <c r="F24" s="9" t="s">
         <v>161</v>
       </c>
@@ -3811,7 +3255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" ht="15" spans="6:17">
+    <row r="25" spans="6:17" ht="19">
       <c r="F25" s="9" t="s">
         <v>165</v>
       </c>
@@ -3846,7 +3290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" ht="15" spans="6:17">
+    <row r="26" spans="6:17" ht="19">
       <c r="F26" s="9" t="s">
         <v>166</v>
       </c>
@@ -3881,7 +3325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" ht="15" spans="6:17">
+    <row r="27" spans="6:17" ht="19">
       <c r="F27" s="9" t="s">
         <v>170</v>
       </c>
@@ -3916,7 +3360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" customFormat="1" ht="15" spans="6:15">
+    <row r="28" spans="6:17" ht="19">
       <c r="F28" s="9" t="s">
         <v>174</v>
       </c>
@@ -3948,7 +3392,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" customFormat="1" ht="15" spans="6:15">
+    <row r="29" spans="6:17" ht="19">
       <c r="F29" s="9" t="s">
         <v>161</v>
       </c>
@@ -3980,7 +3424,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" customFormat="1" ht="15" spans="6:15">
+    <row r="30" spans="6:17" ht="19">
       <c r="F30" s="9" t="s">
         <v>165</v>
       </c>
@@ -4012,7 +3456,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" customFormat="1" ht="15" spans="6:15">
+    <row r="31" spans="6:17" ht="19">
       <c r="F31" s="9" t="s">
         <v>166</v>
       </c>
@@ -4044,7 +3488,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="32" customFormat="1" ht="15" spans="6:15">
+    <row r="32" spans="6:17" ht="19">
       <c r="F32" s="9" t="s">
         <v>170</v>
       </c>
@@ -4076,7 +3520,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="33" ht="15" spans="6:15">
+    <row r="33" spans="6:15" ht="19">
       <c r="F33" s="9" t="s">
         <v>177</v>
       </c>
@@ -4104,7 +3548,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="34" ht="15" spans="6:15">
+    <row r="34" spans="6:15" ht="19">
       <c r="F34" s="9" t="s">
         <v>178</v>
       </c>
@@ -4136,7 +3580,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" ht="15" spans="6:15">
+    <row r="35" spans="6:15" ht="19">
       <c r="F35" s="9" t="s">
         <v>179</v>
       </c>
@@ -4168,7 +3612,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" ht="15" spans="6:15">
+    <row r="36" spans="6:15" ht="19">
       <c r="F36" s="9" t="s">
         <v>180</v>
       </c>
@@ -4198,7 +3642,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" ht="15" spans="6:15">
+    <row r="37" spans="6:15" ht="19">
       <c r="F37" s="11" t="s">
         <v>181</v>
       </c>
@@ -4228,7 +3672,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" ht="15" spans="6:15">
+    <row r="38" spans="6:15" ht="19">
       <c r="F38" s="11" t="s">
         <v>186</v>
       </c>
@@ -4260,7 +3704,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" ht="15" spans="6:15">
+    <row r="39" spans="6:15" ht="19">
       <c r="F39" s="11" t="s">
         <v>190</v>
       </c>
@@ -4292,7 +3736,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="40" ht="15" spans="6:15">
+    <row r="40" spans="6:15" ht="19">
       <c r="F40" s="11" t="s">
         <v>194</v>
       </c>
@@ -4324,7 +3768,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="41" ht="16.5" spans="6:15">
+    <row r="41" spans="6:15" ht="20">
       <c r="F41" s="12" t="s">
         <v>198</v>
       </c>
@@ -4356,7 +3800,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="42" ht="16.5" spans="6:15">
+    <row r="42" spans="6:15" ht="20">
       <c r="F42" s="12" t="s">
         <v>203</v>
       </c>
@@ -4388,7 +3832,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="43" ht="16.5" spans="6:15">
+    <row r="43" spans="6:15" ht="20">
       <c r="F43" s="12" t="s">
         <v>207</v>
       </c>
@@ -4420,7 +3864,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="44" ht="15" spans="6:15">
+    <row r="44" spans="6:15" ht="19">
       <c r="F44" s="13" t="s">
         <v>211</v>
       </c>
@@ -4450,7 +3894,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" ht="15" spans="6:15">
+    <row r="45" spans="6:15" ht="19">
       <c r="F45" s="13" t="s">
         <v>216</v>
       </c>
@@ -4482,7 +3926,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="46" ht="15" spans="6:15">
+    <row r="46" spans="6:15" ht="19">
       <c r="F46" s="13" t="s">
         <v>219</v>
       </c>
@@ -4510,7 +3954,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="47" ht="15" spans="6:15">
+    <row r="47" spans="6:15" ht="19">
       <c r="F47" s="13" t="s">
         <v>220</v>
       </c>
@@ -4542,7 +3986,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" ht="15" spans="6:15">
+    <row r="48" spans="6:15" ht="19">
       <c r="F48" s="13" t="s">
         <v>222</v>
       </c>
@@ -4572,7 +4016,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" ht="15" spans="6:15">
+    <row r="49" spans="6:15" ht="19">
       <c r="F49" s="13" t="s">
         <v>225</v>
       </c>
@@ -4598,7 +4042,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="50" ht="15" spans="6:15">
+    <row r="50" spans="6:15" ht="19">
       <c r="F50" s="13" t="s">
         <v>228</v>
       </c>
@@ -4631,8 +4075,9 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="17" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,常规"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,常规"&amp;12 Page &amp;P</oddFooter>
@@ -4641,25 +4086,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="D7:I153"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="D7:I162"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" topLeftCell="A132" workbookViewId="0">
-      <selection activeCell="F160" sqref="F160"/>
+    <sheetView tabSelected="1" topLeftCell="A126" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F162" sqref="F162"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="3" width="9" customWidth="1"/>
-    <col min="4" max="4" width="23.8571428571429" customWidth="1"/>
+    <col min="4" max="4" width="23.796875" customWidth="1"/>
     <col min="5" max="5" width="9" customWidth="1"/>
-    <col min="6" max="6" width="60.8571428571429" customWidth="1"/>
-    <col min="7" max="7" width="71.8571428571429" customWidth="1"/>
+    <col min="6" max="6" width="60.796875" customWidth="1"/>
+    <col min="7" max="7" width="71.796875" customWidth="1"/>
     <col min="8" max="1025" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" customHeight="1" spans="4:9">
+    <row r="7" spans="4:9" ht="12.75" customHeight="1">
       <c r="D7" s="4" t="s">
         <v>231</v>
       </c>
@@ -4679,7 +4123,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="8" ht="15" spans="4:9">
+    <row r="8" spans="4:9" ht="19">
       <c r="D8" s="3"/>
       <c r="F8" s="6" t="s">
         <v>116</v>
@@ -4691,7 +4135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" ht="15" spans="6:9">
+    <row r="9" spans="4:9" ht="19">
       <c r="F9" s="6" t="s">
         <v>116</v>
       </c>
@@ -4702,7 +4146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" ht="15" spans="6:9">
+    <row r="10" spans="4:9" ht="19">
       <c r="F10" s="6" t="s">
         <v>116</v>
       </c>
@@ -4713,7 +4157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" ht="15" spans="6:9">
+    <row r="11" spans="4:9" ht="19">
       <c r="F11" s="6" t="s">
         <v>116</v>
       </c>
@@ -4724,7 +4168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" ht="15" spans="6:9">
+    <row r="12" spans="4:9" ht="19">
       <c r="F12" s="6" t="s">
         <v>116</v>
       </c>
@@ -4735,7 +4179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" ht="15" spans="6:9">
+    <row r="13" spans="4:9" ht="19">
       <c r="F13" s="6" t="s">
         <v>121</v>
       </c>
@@ -4746,7 +4190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" ht="15" spans="6:9">
+    <row r="14" spans="4:9" ht="19">
       <c r="F14" s="6" t="s">
         <v>121</v>
       </c>
@@ -4757,7 +4201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" ht="15" spans="6:9">
+    <row r="15" spans="4:9" ht="19">
       <c r="F15" s="6" t="s">
         <v>121</v>
       </c>
@@ -4768,7 +4212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" ht="15" spans="6:9">
+    <row r="16" spans="4:9" ht="19">
       <c r="F16" s="6" t="s">
         <v>121</v>
       </c>
@@ -4779,7 +4223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" ht="15" spans="6:9">
+    <row r="17" spans="6:9" ht="19">
       <c r="F17" s="6" t="s">
         <v>121</v>
       </c>
@@ -4790,7 +4234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" ht="15" spans="6:9">
+    <row r="18" spans="6:9" ht="19">
       <c r="F18" s="6" t="s">
         <v>121</v>
       </c>
@@ -4801,7 +4245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" ht="15" spans="6:9">
+    <row r="19" spans="6:9" ht="19">
       <c r="F19" s="6" t="s">
         <v>121</v>
       </c>
@@ -4812,7 +4256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" ht="15" spans="6:9">
+    <row r="20" spans="6:9" ht="19">
       <c r="F20" s="6" t="s">
         <v>121</v>
       </c>
@@ -4823,7 +4267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" ht="15" spans="6:9">
+    <row r="21" spans="6:9" ht="19">
       <c r="F21" s="6" t="s">
         <v>121</v>
       </c>
@@ -4834,7 +4278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" ht="15" spans="6:9">
+    <row r="22" spans="6:9" ht="19">
       <c r="F22" s="6" t="s">
         <v>121</v>
       </c>
@@ -4845,7 +4289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" ht="15" spans="6:9">
+    <row r="23" spans="6:9" ht="19">
       <c r="F23" s="6" t="s">
         <v>121</v>
       </c>
@@ -4856,7 +4300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" ht="15" spans="6:9">
+    <row r="24" spans="6:9" ht="19">
       <c r="F24" s="6" t="s">
         <v>121</v>
       </c>
@@ -4867,7 +4311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" ht="15" spans="6:9">
+    <row r="25" spans="6:9" ht="19">
       <c r="F25" s="6" t="s">
         <v>121</v>
       </c>
@@ -4878,7 +4322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" ht="15" spans="6:9">
+    <row r="26" spans="6:9" ht="19">
       <c r="F26" s="6" t="s">
         <v>121</v>
       </c>
@@ -4889,7 +4333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" ht="15" spans="6:9">
+    <row r="27" spans="6:9" ht="19">
       <c r="F27" s="6" t="s">
         <v>121</v>
       </c>
@@ -4900,7 +4344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" ht="15" spans="6:9">
+    <row r="28" spans="6:9" ht="19">
       <c r="F28" s="6" t="s">
         <v>121</v>
       </c>
@@ -4911,7 +4355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" ht="15" spans="6:9">
+    <row r="29" spans="6:9" ht="19">
       <c r="F29" s="6" t="s">
         <v>121</v>
       </c>
@@ -4922,7 +4366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" ht="15" spans="6:9">
+    <row r="30" spans="6:9" ht="19">
       <c r="F30" s="6" t="s">
         <v>121</v>
       </c>
@@ -4933,7 +4377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" ht="15" spans="6:9">
+    <row r="31" spans="6:9" ht="19">
       <c r="F31" s="6" t="s">
         <v>121</v>
       </c>
@@ -4944,7 +4388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" ht="15" spans="6:9">
+    <row r="32" spans="6:9" ht="19">
       <c r="F32" s="6" t="s">
         <v>128</v>
       </c>
@@ -4955,7 +4399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" ht="15" spans="6:9">
+    <row r="33" spans="6:9" ht="19">
       <c r="F33" s="6" t="s">
         <v>136</v>
       </c>
@@ -4966,7 +4410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" ht="15" spans="6:9">
+    <row r="34" spans="6:9" ht="19">
       <c r="F34" s="6" t="s">
         <v>136</v>
       </c>
@@ -4977,7 +4421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" ht="15" spans="6:9">
+    <row r="35" spans="6:9" ht="19">
       <c r="F35" s="6" t="s">
         <v>136</v>
       </c>
@@ -4988,7 +4432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" ht="15" spans="6:9">
+    <row r="36" spans="6:9" ht="19">
       <c r="F36" s="6" t="s">
         <v>140</v>
       </c>
@@ -4999,7 +4443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" ht="15" spans="6:9">
+    <row r="37" spans="6:9" ht="19">
       <c r="F37" s="6" t="s">
         <v>140</v>
       </c>
@@ -5010,7 +4454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" ht="15" spans="6:9">
+    <row r="38" spans="6:9" ht="19">
       <c r="F38" s="6" t="s">
         <v>140</v>
       </c>
@@ -5021,7 +4465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" ht="15" spans="6:9">
+    <row r="39" spans="6:9" ht="19">
       <c r="F39" s="6" t="s">
         <v>140</v>
       </c>
@@ -5032,7 +4476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" ht="15" spans="6:9">
+    <row r="40" spans="6:9" ht="19">
       <c r="F40" s="6" t="s">
         <v>140</v>
       </c>
@@ -5043,7 +4487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" ht="15" spans="6:9">
+    <row r="41" spans="6:9" ht="19">
       <c r="F41" s="6" t="s">
         <v>140</v>
       </c>
@@ -5054,7 +4498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" ht="15" spans="6:9">
+    <row r="42" spans="6:9" ht="19">
       <c r="F42" s="6" t="s">
         <v>140</v>
       </c>
@@ -5065,7 +4509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" ht="15" spans="6:9">
+    <row r="43" spans="6:9" ht="19">
       <c r="F43" s="6" t="s">
         <v>140</v>
       </c>
@@ -5076,7 +4520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" ht="15" spans="6:9">
+    <row r="44" spans="6:9" ht="19">
       <c r="F44" s="6" t="s">
         <v>140</v>
       </c>
@@ -5087,7 +4531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" ht="15" spans="6:9">
+    <row r="45" spans="6:9" ht="19">
       <c r="F45" s="6" t="s">
         <v>143</v>
       </c>
@@ -5098,7 +4542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" ht="15" spans="6:9">
+    <row r="46" spans="6:9" ht="19">
       <c r="F46" s="6" t="s">
         <v>143</v>
       </c>
@@ -5109,7 +4553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" ht="15" spans="6:9">
+    <row r="47" spans="6:9" ht="19">
       <c r="F47" s="6" t="s">
         <v>143</v>
       </c>
@@ -5120,7 +4564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" ht="15" spans="6:9">
+    <row r="48" spans="6:9" ht="19">
       <c r="F48" s="6" t="s">
         <v>143</v>
       </c>
@@ -5131,7 +4575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" ht="15" spans="6:9">
+    <row r="49" spans="6:9" ht="19">
       <c r="F49" s="6" t="s">
         <v>143</v>
       </c>
@@ -5142,7 +4586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" ht="15" spans="6:9">
+    <row r="50" spans="6:9" ht="19">
       <c r="F50" s="6" t="s">
         <v>143</v>
       </c>
@@ -5153,7 +4597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" ht="15" spans="6:9">
+    <row r="51" spans="6:9" ht="19">
       <c r="F51" s="6" t="s">
         <v>132</v>
       </c>
@@ -5164,7 +4608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" ht="15" spans="6:9">
+    <row r="52" spans="6:9" ht="19">
       <c r="F52" s="6" t="s">
         <v>146</v>
       </c>
@@ -5175,7 +4619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" ht="15" spans="6:9">
+    <row r="53" spans="6:9" ht="19">
       <c r="F53" s="6" t="s">
         <v>146</v>
       </c>
@@ -5186,7 +4630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" ht="15" spans="6:9">
+    <row r="54" spans="6:9" ht="19">
       <c r="F54" s="6" t="s">
         <v>146</v>
       </c>
@@ -5197,7 +4641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" ht="15" spans="6:9">
+    <row r="55" spans="6:9" ht="19">
       <c r="F55" s="6" t="s">
         <v>153</v>
       </c>
@@ -5208,7 +4652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" ht="15" spans="6:9">
+    <row r="56" spans="6:9" ht="19">
       <c r="F56" s="6" t="s">
         <v>153</v>
       </c>
@@ -5219,7 +4663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" ht="15" spans="6:9">
+    <row r="57" spans="6:9" ht="19">
       <c r="F57" s="6" t="s">
         <v>153</v>
       </c>
@@ -5230,7 +4674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" ht="15" spans="6:9">
+    <row r="58" spans="6:9" ht="19">
       <c r="F58" s="6" t="s">
         <v>153</v>
       </c>
@@ -5241,7 +4685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" ht="15" spans="6:9">
+    <row r="59" spans="6:9" ht="19">
       <c r="F59" s="6" t="s">
         <v>153</v>
       </c>
@@ -5252,7 +4696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" ht="15" spans="6:9">
+    <row r="60" spans="6:9" ht="19">
       <c r="F60" s="6" t="s">
         <v>153</v>
       </c>
@@ -5263,7 +4707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" ht="15" spans="6:9">
+    <row r="61" spans="6:9" ht="19">
       <c r="F61" s="6" t="s">
         <v>153</v>
       </c>
@@ -5274,7 +4718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" ht="15" spans="6:9">
+    <row r="62" spans="6:9" ht="19">
       <c r="F62" s="6" t="s">
         <v>153</v>
       </c>
@@ -5285,7 +4729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" ht="15" spans="6:9">
+    <row r="63" spans="6:9" ht="19">
       <c r="F63" s="6" t="s">
         <v>153</v>
       </c>
@@ -5296,7 +4740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" ht="15" spans="6:9">
+    <row r="64" spans="6:9" ht="19">
       <c r="F64" s="6" t="s">
         <v>161</v>
       </c>
@@ -5307,7 +4751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" ht="15" spans="6:9">
+    <row r="65" spans="6:9" ht="19">
       <c r="F65" s="6" t="s">
         <v>161</v>
       </c>
@@ -5318,7 +4762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" ht="15" spans="6:9">
+    <row r="66" spans="6:9" ht="19">
       <c r="F66" s="6" t="s">
         <v>161</v>
       </c>
@@ -5329,7 +4773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" ht="15" spans="6:9">
+    <row r="67" spans="6:9" ht="19">
       <c r="F67" s="6" t="s">
         <v>161</v>
       </c>
@@ -5340,7 +4784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" ht="15" spans="6:9">
+    <row r="68" spans="6:9" ht="19">
       <c r="F68" s="6" t="s">
         <v>165</v>
       </c>
@@ -5351,7 +4795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" ht="15" spans="6:9">
+    <row r="69" spans="6:9" ht="19">
       <c r="F69" s="6" t="s">
         <v>165</v>
       </c>
@@ -5362,7 +4806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" ht="15" spans="6:9">
+    <row r="70" spans="6:9" ht="19">
       <c r="F70" s="6" t="s">
         <v>165</v>
       </c>
@@ -5373,7 +4817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" ht="15" spans="6:9">
+    <row r="71" spans="6:9" ht="19">
       <c r="F71" s="6" t="s">
         <v>165</v>
       </c>
@@ -5384,7 +4828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" ht="15" spans="6:9">
+    <row r="72" spans="6:9" ht="19">
       <c r="F72" s="6" t="s">
         <v>165</v>
       </c>
@@ -5395,7 +4839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" ht="15" spans="6:9">
+    <row r="73" spans="6:9" ht="19">
       <c r="F73" s="6" t="s">
         <v>165</v>
       </c>
@@ -5406,7 +4850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" ht="15" spans="6:9">
+    <row r="74" spans="6:9" ht="19">
       <c r="F74" s="6" t="s">
         <v>165</v>
       </c>
@@ -5417,7 +4861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" ht="15" spans="6:9">
+    <row r="75" spans="6:9" ht="19">
       <c r="F75" s="6" t="s">
         <v>165</v>
       </c>
@@ -5428,7 +4872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" ht="15" spans="6:9">
+    <row r="76" spans="6:9" ht="19">
       <c r="F76" s="6" t="s">
         <v>165</v>
       </c>
@@ -5439,7 +4883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" ht="15" spans="6:9">
+    <row r="77" spans="6:9" ht="19">
       <c r="F77" s="6" t="s">
         <v>165</v>
       </c>
@@ -5450,7 +4894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" ht="15" spans="6:9">
+    <row r="78" spans="6:9" ht="19">
       <c r="F78" s="6" t="s">
         <v>165</v>
       </c>
@@ -5461,7 +4905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" ht="15" spans="6:9">
+    <row r="79" spans="6:9" ht="19">
       <c r="F79" s="6" t="s">
         <v>165</v>
       </c>
@@ -5472,7 +4916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" ht="15" spans="6:9">
+    <row r="80" spans="6:9" ht="19">
       <c r="F80" s="6" t="s">
         <v>165</v>
       </c>
@@ -5483,7 +4927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" ht="15" spans="6:9">
+    <row r="81" spans="6:9" ht="19">
       <c r="F81" s="6" t="s">
         <v>165</v>
       </c>
@@ -5494,7 +4938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" ht="15" spans="6:9">
+    <row r="82" spans="6:9" ht="19">
       <c r="F82" s="6" t="s">
         <v>166</v>
       </c>
@@ -5505,7 +4949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" ht="15" spans="6:9">
+    <row r="83" spans="6:9" ht="19">
       <c r="F83" s="6" t="s">
         <v>166</v>
       </c>
@@ -5516,7 +4960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" ht="15" spans="6:9">
+    <row r="84" spans="6:9" ht="19">
       <c r="F84" s="6" t="s">
         <v>166</v>
       </c>
@@ -5527,7 +4971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" ht="15" spans="6:9">
+    <row r="85" spans="6:9" ht="19">
       <c r="F85" s="6" t="s">
         <v>166</v>
       </c>
@@ -5538,7 +4982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" ht="15" spans="6:9">
+    <row r="86" spans="6:9" ht="19">
       <c r="F86" s="6" t="s">
         <v>166</v>
       </c>
@@ -5549,7 +4993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" ht="15" spans="6:9">
+    <row r="87" spans="6:9" ht="19">
       <c r="F87" s="6" t="s">
         <v>166</v>
       </c>
@@ -5560,7 +5004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" ht="15" spans="6:9">
+    <row r="88" spans="6:9" ht="19">
       <c r="F88" s="6" t="s">
         <v>166</v>
       </c>
@@ -5571,7 +5015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" ht="15" spans="6:9">
+    <row r="89" spans="6:9" ht="19">
       <c r="F89" s="6" t="s">
         <v>166</v>
       </c>
@@ -5582,7 +5026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" ht="15" spans="6:9">
+    <row r="90" spans="6:9" ht="19">
       <c r="F90" s="6" t="s">
         <v>166</v>
       </c>
@@ -5593,7 +5037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" ht="15" spans="6:9">
+    <row r="91" spans="6:9" ht="19">
       <c r="F91" s="6" t="s">
         <v>166</v>
       </c>
@@ -5604,7 +5048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" ht="15" spans="6:9">
+    <row r="92" spans="6:9" ht="19">
       <c r="F92" s="6" t="s">
         <v>166</v>
       </c>
@@ -5615,7 +5059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" ht="15" spans="6:9">
+    <row r="93" spans="6:9" ht="19">
       <c r="F93" s="6" t="s">
         <v>170</v>
       </c>
@@ -5626,7 +5070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" ht="15" spans="6:9">
+    <row r="94" spans="6:9" ht="19">
       <c r="F94" s="6" t="s">
         <v>170</v>
       </c>
@@ -5637,7 +5081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" ht="15" spans="6:9">
+    <row r="95" spans="6:9" ht="19">
       <c r="F95" s="6" t="s">
         <v>170</v>
       </c>
@@ -5648,7 +5092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" ht="15" spans="6:9">
+    <row r="96" spans="6:9" ht="19">
       <c r="F96" s="6" t="s">
         <v>170</v>
       </c>
@@ -5659,7 +5103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" ht="15" spans="6:9">
+    <row r="97" spans="6:9" ht="19">
       <c r="F97" s="6" t="s">
         <v>178</v>
       </c>
@@ -5670,7 +5114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" ht="15" spans="6:9">
+    <row r="98" spans="6:9" ht="19">
       <c r="F98" s="6" t="s">
         <v>178</v>
       </c>
@@ -5681,7 +5125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" ht="15" spans="6:9">
+    <row r="99" spans="6:9" ht="19">
       <c r="F99" s="6" t="s">
         <v>178</v>
       </c>
@@ -5692,7 +5136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" ht="15" spans="6:9">
+    <row r="100" spans="6:9" ht="19">
       <c r="F100" s="6" t="s">
         <v>179</v>
       </c>
@@ -5703,7 +5147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" ht="15" spans="6:9">
+    <row r="101" spans="6:9" ht="19">
       <c r="F101" s="6" t="s">
         <v>180</v>
       </c>
@@ -5714,7 +5158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" ht="15" spans="6:9">
+    <row r="102" spans="6:9" ht="19">
       <c r="F102" s="6" t="s">
         <v>180</v>
       </c>
@@ -5725,7 +5169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" ht="15" spans="6:9">
+    <row r="103" spans="6:9" ht="19">
       <c r="F103" s="6" t="s">
         <v>186</v>
       </c>
@@ -5736,7 +5180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" ht="15" spans="6:9">
+    <row r="104" spans="6:9" ht="19">
       <c r="F104" s="6" t="s">
         <v>186</v>
       </c>
@@ -5747,7 +5191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" ht="15" spans="6:9">
+    <row r="105" spans="6:9" ht="19">
       <c r="F105" s="6" t="s">
         <v>186</v>
       </c>
@@ -5758,7 +5202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" ht="15" spans="6:9">
+    <row r="106" spans="6:9" ht="19">
       <c r="F106" s="6" t="s">
         <v>186</v>
       </c>
@@ -5769,7 +5213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" ht="15" spans="6:9">
+    <row r="107" spans="6:9" ht="19">
       <c r="F107" s="6" t="s">
         <v>186</v>
       </c>
@@ -5780,7 +5224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" ht="15" spans="6:9">
+    <row r="108" spans="6:9" ht="19">
       <c r="F108" s="6" t="s">
         <v>190</v>
       </c>
@@ -5791,7 +5235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" ht="15" spans="6:9">
+    <row r="109" spans="6:9" ht="19">
       <c r="F109" s="6" t="s">
         <v>190</v>
       </c>
@@ -5802,7 +5246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" ht="15" spans="6:9">
+    <row r="110" spans="6:9" ht="19">
       <c r="F110" s="6" t="s">
         <v>194</v>
       </c>
@@ -5813,7 +5257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" ht="15" spans="6:9">
+    <row r="111" spans="6:9" ht="19">
       <c r="F111" s="6" t="s">
         <v>194</v>
       </c>
@@ -5824,7 +5268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" ht="15" spans="6:9">
+    <row r="112" spans="6:9" ht="19">
       <c r="F112" s="6" t="s">
         <v>194</v>
       </c>
@@ -5835,7 +5279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" ht="15" spans="6:9">
+    <row r="113" spans="6:9" ht="19">
       <c r="F113" s="6" t="s">
         <v>216</v>
       </c>
@@ -5846,7 +5290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" ht="15" spans="6:9">
+    <row r="114" spans="6:9" ht="19">
       <c r="F114" s="6" t="s">
         <v>216</v>
       </c>
@@ -5857,7 +5301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" ht="15" spans="6:9">
+    <row r="115" spans="6:9" ht="19">
       <c r="F115" s="6" t="s">
         <v>216</v>
       </c>
@@ -5868,7 +5312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" ht="15" spans="6:9">
+    <row r="116" spans="6:9" ht="19">
       <c r="F116" s="6" t="s">
         <v>216</v>
       </c>
@@ -5879,7 +5323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" ht="15" spans="6:9">
+    <row r="117" spans="6:9" ht="19">
       <c r="F117" s="6" t="s">
         <v>216</v>
       </c>
@@ -5890,7 +5334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" ht="15" spans="6:9">
+    <row r="118" spans="6:9" ht="19">
       <c r="F118" s="6" t="s">
         <v>216</v>
       </c>
@@ -5901,7 +5345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" ht="15" spans="6:9">
+    <row r="119" spans="6:9" ht="19">
       <c r="F119" s="6" t="s">
         <v>216</v>
       </c>
@@ -5912,7 +5356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" ht="15" spans="6:9">
+    <row r="120" spans="6:9" ht="19">
       <c r="F120" s="6" t="s">
         <v>216</v>
       </c>
@@ -5923,7 +5367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" ht="15" spans="6:9">
+    <row r="121" spans="6:9" ht="19">
       <c r="F121" s="6" t="s">
         <v>216</v>
       </c>
@@ -5934,7 +5378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" ht="15" spans="6:9">
+    <row r="122" spans="6:9" ht="19">
       <c r="F122" s="6" t="s">
         <v>220</v>
       </c>
@@ -5945,7 +5389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" ht="15" spans="6:9">
+    <row r="123" spans="6:9" ht="19">
       <c r="F123" s="6" t="s">
         <v>222</v>
       </c>
@@ -5956,7 +5400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" ht="15" spans="6:9">
+    <row r="124" spans="6:9" ht="19">
       <c r="F124" s="6" t="s">
         <v>222</v>
       </c>
@@ -5967,7 +5411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" ht="15" spans="6:9">
+    <row r="125" spans="6:9" ht="19">
       <c r="F125" s="6" t="s">
         <v>222</v>
       </c>
@@ -5978,7 +5422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" ht="15" spans="6:9">
+    <row r="126" spans="6:9" ht="19">
       <c r="F126" s="6" t="s">
         <v>222</v>
       </c>
@@ -5989,7 +5433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" ht="15" spans="6:9">
+    <row r="127" spans="6:9" ht="19">
       <c r="F127" s="6" t="s">
         <v>228</v>
       </c>
@@ -6000,7 +5444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" ht="15" spans="6:9">
+    <row r="128" spans="6:9" ht="19">
       <c r="F128" s="6" t="s">
         <v>228</v>
       </c>
@@ -6011,7 +5455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" ht="15" spans="6:9">
+    <row r="129" spans="6:9" ht="19">
       <c r="F129" s="6" t="s">
         <v>216</v>
       </c>
@@ -6022,7 +5466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" ht="15" spans="6:9">
+    <row r="130" spans="6:9" ht="19">
       <c r="F130" s="6" t="s">
         <v>228</v>
       </c>
@@ -6033,7 +5477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" ht="15" spans="6:9">
+    <row r="131" spans="6:9" ht="19">
       <c r="F131" s="6" t="s">
         <v>198</v>
       </c>
@@ -6044,7 +5488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" ht="15" spans="6:9">
+    <row r="132" spans="6:9" ht="19">
       <c r="F132" s="6" t="s">
         <v>198</v>
       </c>
@@ -6055,7 +5499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" ht="15" spans="6:9">
+    <row r="133" spans="6:9" ht="19">
       <c r="F133" s="6" t="s">
         <v>198</v>
       </c>
@@ -6066,7 +5510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" ht="15" spans="6:9">
+    <row r="134" spans="6:9" ht="19">
       <c r="F134" s="6" t="s">
         <v>198</v>
       </c>
@@ -6077,7 +5521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" ht="15" spans="6:9">
+    <row r="135" spans="6:9" ht="19">
       <c r="F135" s="6" t="s">
         <v>198</v>
       </c>
@@ -6088,7 +5532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" ht="15" spans="6:9">
+    <row r="136" spans="6:9" ht="19">
       <c r="F136" s="6" t="s">
         <v>198</v>
       </c>
@@ -6099,7 +5543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" ht="15" spans="6:9">
+    <row r="137" spans="6:9" ht="19">
       <c r="F137" s="6" t="s">
         <v>203</v>
       </c>
@@ -6110,7 +5554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" ht="15" spans="6:9">
+    <row r="138" spans="6:9" ht="19">
       <c r="F138" s="6" t="s">
         <v>203</v>
       </c>
@@ -6121,7 +5565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" ht="15" spans="6:9">
+    <row r="139" spans="6:9" ht="19">
       <c r="F139" s="6" t="s">
         <v>203</v>
       </c>
@@ -6132,7 +5576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" ht="15" spans="6:9">
+    <row r="140" spans="6:9" ht="19">
       <c r="F140" s="6" t="s">
         <v>203</v>
       </c>
@@ -6143,7 +5587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" ht="15" spans="6:9">
+    <row r="141" spans="6:9" ht="19">
       <c r="F141" s="6" t="s">
         <v>203</v>
       </c>
@@ -6154,7 +5598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" ht="15" spans="6:9">
+    <row r="142" spans="6:9" ht="19">
       <c r="F142" s="6" t="s">
         <v>203</v>
       </c>
@@ -6165,7 +5609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" ht="15" spans="6:9">
+    <row r="143" spans="6:9" ht="19">
       <c r="F143" s="6" t="s">
         <v>203</v>
       </c>
@@ -6176,7 +5620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" ht="15" spans="6:9">
+    <row r="144" spans="6:9" ht="19">
       <c r="F144" s="6" t="s">
         <v>207</v>
       </c>
@@ -6187,7 +5631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" ht="15" spans="6:9">
+    <row r="145" spans="6:9" ht="19">
       <c r="F145" s="6" t="s">
         <v>207</v>
       </c>
@@ -6198,7 +5642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" ht="15" spans="6:9">
+    <row r="146" spans="6:9" ht="19">
       <c r="F146" s="6" t="s">
         <v>207</v>
       </c>
@@ -6209,7 +5653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" ht="15" spans="6:9">
+    <row r="147" spans="6:9" ht="19">
       <c r="F147" s="6" t="s">
         <v>207</v>
       </c>
@@ -6220,7 +5664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" ht="15" spans="6:9">
+    <row r="148" spans="6:9" ht="19">
       <c r="F148" s="6" t="s">
         <v>207</v>
       </c>
@@ -6231,7 +5675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" ht="15" spans="6:9">
+    <row r="149" spans="6:9" ht="19">
       <c r="F149" s="6" t="s">
         <v>207</v>
       </c>
@@ -6242,7 +5686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" ht="15" spans="6:9">
+    <row r="150" spans="6:9" ht="19">
       <c r="F150" s="6" t="s">
         <v>207</v>
       </c>
@@ -6253,7 +5697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" ht="15" spans="6:9">
+    <row r="151" spans="6:9" ht="19">
       <c r="F151" s="6" t="s">
         <v>207</v>
       </c>
@@ -6264,9 +5708,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" ht="15" spans="6:9">
+    <row r="152" spans="6:9" ht="19">
       <c r="F152" s="6" t="s">
-        <v>154</v>
+        <v>402</v>
       </c>
       <c r="G152" s="6" t="s">
         <v>42</v>
@@ -6275,20 +5719,120 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" ht="15" spans="6:9">
+    <row r="153" spans="6:9" ht="19">
       <c r="F153" s="6" t="s">
-        <v>174</v>
+        <v>154</v>
       </c>
       <c r="G153" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="I153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="6:9" ht="22">
+      <c r="F154" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="G154" s="17" t="s">
+        <v>403</v>
+      </c>
+      <c r="I154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="6:9" ht="22">
+      <c r="F155" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="G155" s="17" t="s">
+        <v>404</v>
+      </c>
+      <c r="I155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="6:9" ht="22">
+      <c r="F156" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="G156" s="18" t="s">
+        <v>405</v>
+      </c>
+      <c r="I156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="6:9" ht="22">
+      <c r="F157" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="G157" s="17" t="s">
+        <v>406</v>
+      </c>
+      <c r="I157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="6:9" ht="22">
+      <c r="F158" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="G158" s="17" t="s">
+        <v>407</v>
+      </c>
+      <c r="I158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="6:9" ht="22">
+      <c r="F159" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="G159" s="17" t="s">
+        <v>408</v>
+      </c>
+      <c r="I159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="6:9" ht="22">
+      <c r="F160" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="G160" s="18" t="s">
+        <v>409</v>
+      </c>
+      <c r="I160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="6:9" ht="22">
+      <c r="F161" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="G161" s="18" t="s">
+        <v>410</v>
+      </c>
+      <c r="I161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="6:9" ht="19">
+      <c r="F162" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="G162" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="I153">
+      <c r="I162">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="17" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,常规"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,常规"&amp;12 Page &amp;P</oddFooter>
@@ -6297,23 +5841,22 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="D7:G33"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A28" sqref="$A28:$XFD28"/>
+      <selection activeCell="A28" sqref="A28:XFD28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="6.14285714285714" customWidth="1"/>
+    <col min="1" max="1" width="6.19921875" customWidth="1"/>
     <col min="2" max="2" width="5" customWidth="1"/>
-    <col min="3" max="3" width="7.14285714285714" customWidth="1"/>
-    <col min="4" max="4" width="25.8571428571429" customWidth="1"/>
-    <col min="5" max="5" width="7.14285714285714" customWidth="1"/>
-    <col min="6" max="6" width="42.8571428571429" customWidth="1"/>
-    <col min="7" max="7" width="52.8571428571429" customWidth="1"/>
+    <col min="3" max="3" width="7.19921875" customWidth="1"/>
+    <col min="4" max="4" width="25.796875" customWidth="1"/>
+    <col min="5" max="5" width="7.19921875" customWidth="1"/>
+    <col min="6" max="6" width="42.796875" customWidth="1"/>
+    <col min="7" max="7" width="52.796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="4:7">
@@ -6330,7 +5873,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="8" ht="15.75" spans="6:7">
+    <row r="8" spans="4:7" ht="16">
       <c r="F8" s="5" t="s">
         <v>352</v>
       </c>
@@ -6338,7 +5881,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" ht="15.75" spans="6:7">
+    <row r="9" spans="4:7" ht="16">
       <c r="F9" s="5" t="s">
         <v>352</v>
       </c>
@@ -6346,7 +5889,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" ht="15.75" spans="6:7">
+    <row r="10" spans="4:7" ht="16">
       <c r="F10" s="5" t="s">
         <v>352</v>
       </c>
@@ -6354,7 +5897,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" ht="15.75" spans="6:7">
+    <row r="11" spans="4:7" ht="16">
       <c r="F11" s="5" t="s">
         <v>352</v>
       </c>
@@ -6362,7 +5905,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" ht="15.75" spans="6:7">
+    <row r="12" spans="4:7" ht="16">
       <c r="F12" s="5" t="s">
         <v>352</v>
       </c>
@@ -6370,7 +5913,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" ht="15.75" spans="6:7">
+    <row r="13" spans="4:7" ht="16">
       <c r="F13" s="5" t="s">
         <v>352</v>
       </c>
@@ -6378,7 +5921,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" ht="15.75" spans="6:7">
+    <row r="14" spans="4:7" ht="16">
       <c r="F14" s="5" t="s">
         <v>352</v>
       </c>
@@ -6386,7 +5929,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" ht="15.75" spans="6:7">
+    <row r="15" spans="4:7" ht="16">
       <c r="F15" s="5" t="s">
         <v>352</v>
       </c>
@@ -6394,7 +5937,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" ht="15.75" spans="6:7">
+    <row r="16" spans="4:7" ht="16">
       <c r="F16" s="5" t="s">
         <v>352</v>
       </c>
@@ -6402,7 +5945,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" ht="15.75" spans="6:7">
+    <row r="17" spans="6:7" ht="16">
       <c r="F17" s="5" t="s">
         <v>352</v>
       </c>
@@ -6410,7 +5953,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" ht="15.75" spans="6:7">
+    <row r="18" spans="6:7" ht="16">
       <c r="F18" s="5" t="s">
         <v>353</v>
       </c>
@@ -6418,7 +5961,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" ht="15.75" spans="6:7">
+    <row r="19" spans="6:7" ht="16">
       <c r="F19" s="5" t="s">
         <v>353</v>
       </c>
@@ -6426,7 +5969,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" ht="15.75" spans="6:7">
+    <row r="20" spans="6:7" ht="16">
       <c r="F20" s="5" t="s">
         <v>353</v>
       </c>
@@ -6434,7 +5977,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="21" ht="15.75" spans="6:7">
+    <row r="21" spans="6:7" ht="16">
       <c r="F21" s="5" t="s">
         <v>353</v>
       </c>
@@ -6442,7 +5985,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="22" ht="15.75" spans="6:7">
+    <row r="22" spans="6:7" ht="16">
       <c r="F22" s="5" t="s">
         <v>353</v>
       </c>
@@ -6450,7 +5993,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="23" ht="15.75" spans="6:7">
+    <row r="23" spans="6:7" ht="16">
       <c r="F23" s="5" t="s">
         <v>353</v>
       </c>
@@ -6458,7 +6001,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="24" ht="15.75" spans="6:7">
+    <row r="24" spans="6:7" ht="16">
       <c r="F24" s="5" t="s">
         <v>353</v>
       </c>
@@ -6466,7 +6009,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="25" ht="15.75" spans="6:7">
+    <row r="25" spans="6:7" ht="16">
       <c r="F25" s="5" t="s">
         <v>353</v>
       </c>
@@ -6474,7 +6017,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="26" ht="15.75" spans="6:7">
+    <row r="26" spans="6:7" ht="16">
       <c r="F26" s="5" t="s">
         <v>353</v>
       </c>
@@ -6482,7 +6025,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="27" ht="15.75" spans="6:7">
+    <row r="27" spans="6:7" ht="16">
       <c r="F27" s="5" t="s">
         <v>353</v>
       </c>
@@ -6490,7 +6033,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="28" ht="15.75" spans="6:7">
+    <row r="28" spans="6:7" ht="16">
       <c r="F28" s="5" t="s">
         <v>353</v>
       </c>
@@ -6498,7 +6041,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="29" ht="15.75" spans="6:7">
+    <row r="29" spans="6:7" ht="16">
       <c r="F29" s="5" t="s">
         <v>354</v>
       </c>
@@ -6506,7 +6049,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="30" ht="15.75" spans="6:7">
+    <row r="30" spans="6:7" ht="16">
       <c r="F30" s="5" t="s">
         <v>354</v>
       </c>
@@ -6514,7 +6057,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="31" ht="15.75" spans="6:7">
+    <row r="31" spans="6:7" ht="16">
       <c r="F31" s="5" t="s">
         <v>354</v>
       </c>
@@ -6522,7 +6065,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="32" ht="15.75" spans="6:7">
+    <row r="32" spans="6:7" ht="16">
       <c r="F32" s="5" t="s">
         <v>354</v>
       </c>
@@ -6530,7 +6073,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="33" ht="15.75" spans="6:7">
+    <row r="33" spans="6:7" ht="16">
       <c r="F33" s="5" t="s">
         <v>355</v>
       </c>
@@ -6539,7 +6082,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <phoneticPr fontId="17" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,标准"&amp;12&amp;A</oddHeader>
@@ -6549,27 +6093,25 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="D6:I46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="D7:I46"/>
   <sheetViews>
-    <sheetView zoomScale="95" zoomScaleNormal="95" topLeftCell="C3" workbookViewId="0">
-      <selection activeCell="C46" sqref="$A46:$XFD46"/>
+    <sheetView topLeftCell="C3" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="C46" sqref="A46:XFD46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="3" width="8.85714285714286" customWidth="1"/>
-    <col min="4" max="4" width="27.4285714285714" customWidth="1"/>
+    <col min="1" max="3" width="8.796875" customWidth="1"/>
+    <col min="4" max="4" width="27.3984375" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="23.8571428571429" customWidth="1"/>
+    <col min="6" max="6" width="23.796875" customWidth="1"/>
     <col min="7" max="7" width="48" customWidth="1"/>
-    <col min="8" max="8" width="24.8571428571429" customWidth="1"/>
-    <col min="9" max="1025" width="8.85714285714286" customWidth="1"/>
+    <col min="8" max="8" width="24.796875" customWidth="1"/>
+    <col min="9" max="1025" width="8.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" ht="13.5"/>
-    <row r="7" ht="18.95" customHeight="1" spans="4:9">
+    <row r="7" spans="4:9" ht="19" customHeight="1">
       <c r="D7" s="1" t="s">
         <v>356</v>
       </c>
@@ -6589,7 +6131,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="6:8">
+    <row r="8" spans="4:9">
       <c r="F8" s="2" t="s">
         <v>359</v>
       </c>
@@ -6600,7 +6142,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="6:8">
+    <row r="9" spans="4:9">
       <c r="F9" s="2" t="s">
         <v>359</v>
       </c>
@@ -6611,7 +6153,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="6:8">
+    <row r="10" spans="4:9">
       <c r="F10" s="2" t="s">
         <v>359</v>
       </c>
@@ -6622,7 +6164,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="6:8">
+    <row r="11" spans="4:9">
       <c r="F11" s="2" t="s">
         <v>359</v>
       </c>
@@ -6633,7 +6175,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="6:8">
+    <row r="12" spans="4:9">
       <c r="F12" s="2" t="s">
         <v>360</v>
       </c>
@@ -6644,7 +6186,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="6:8">
+    <row r="13" spans="4:9">
       <c r="F13" s="2" t="s">
         <v>360</v>
       </c>
@@ -6655,7 +6197,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="6:8">
+    <row r="14" spans="4:9">
       <c r="F14" s="2" t="s">
         <v>360</v>
       </c>
@@ -6666,7 +6208,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="15" spans="6:8">
+    <row r="15" spans="4:9">
       <c r="F15" s="2" t="s">
         <v>361</v>
       </c>
@@ -6677,7 +6219,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="16" spans="6:8">
+    <row r="16" spans="4:9">
       <c r="F16" s="2" t="s">
         <v>361</v>
       </c>
@@ -6688,7 +6230,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="17" spans="6:8">
+    <row r="17" spans="4:9">
       <c r="F17" s="2" t="s">
         <v>361</v>
       </c>
@@ -6699,7 +6241,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="18" spans="6:8">
+    <row r="18" spans="4:9">
       <c r="F18" s="2" t="s">
         <v>361</v>
       </c>
@@ -6710,7 +6252,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="19" spans="6:8">
+    <row r="19" spans="4:9">
       <c r="F19" t="s">
         <v>363</v>
       </c>
@@ -6721,7 +6263,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="20" spans="6:8">
+    <row r="20" spans="4:9">
       <c r="F20" s="3" t="s">
         <v>363</v>
       </c>
@@ -6732,7 +6274,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="21" spans="6:8">
+    <row r="21" spans="4:9">
       <c r="F21" t="s">
         <v>363</v>
       </c>
@@ -6743,7 +6285,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="22" spans="6:8">
+    <row r="22" spans="4:9">
       <c r="F22" t="s">
         <v>363</v>
       </c>
@@ -6754,7 +6296,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="23" spans="4:8">
+    <row r="23" spans="4:9">
       <c r="D23" s="2"/>
       <c r="F23" s="2" t="s">
         <v>361</v>
@@ -6766,7 +6308,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="6:8">
+    <row r="24" spans="4:9">
       <c r="F24" s="2" t="s">
         <v>361</v>
       </c>
@@ -6777,7 +6319,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="6:8">
+    <row r="25" spans="4:9">
       <c r="F25" s="2" t="s">
         <v>361</v>
       </c>
@@ -6788,7 +6330,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="6:8">
+    <row r="26" spans="4:9">
       <c r="F26" s="2" t="s">
         <v>361</v>
       </c>
@@ -6799,7 +6341,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="6:8">
+    <row r="27" spans="4:9">
       <c r="F27" s="2" t="s">
         <v>361</v>
       </c>
@@ -6810,7 +6352,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="6:8">
+    <row r="28" spans="4:9">
       <c r="F28" s="2" t="s">
         <v>361</v>
       </c>
@@ -6821,7 +6363,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="6:8">
+    <row r="29" spans="4:9">
       <c r="F29" s="2" t="s">
         <v>361</v>
       </c>
@@ -6832,7 +6374,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="6:8">
+    <row r="30" spans="4:9">
       <c r="F30" s="2" t="s">
         <v>361</v>
       </c>
@@ -6843,7 +6385,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="6:8">
+    <row r="31" spans="4:9">
       <c r="F31" s="2" t="s">
         <v>361</v>
       </c>
@@ -6854,7 +6396,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="6:9">
+    <row r="32" spans="4:9">
       <c r="F32" s="2" t="s">
         <v>361</v>
       </c>
@@ -6868,7 +6410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="6:8">
+    <row r="33" spans="6:9">
       <c r="F33" s="2" t="s">
         <v>361</v>
       </c>
@@ -6879,7 +6421,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="6:8">
+    <row r="34" spans="6:9">
       <c r="F34" s="2" t="s">
         <v>361</v>
       </c>
@@ -6890,7 +6432,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="6:8">
+    <row r="35" spans="6:9">
       <c r="F35" s="3" t="s">
         <v>363</v>
       </c>
@@ -6901,7 +6443,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="6:8">
+    <row r="36" spans="6:9">
       <c r="F36" t="s">
         <v>363</v>
       </c>
@@ -6912,7 +6454,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="6:8">
+    <row r="37" spans="6:9">
       <c r="F37" t="s">
         <v>363</v>
       </c>
@@ -6923,7 +6465,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="6:8">
+    <row r="38" spans="6:9">
       <c r="F38" t="s">
         <v>363</v>
       </c>
@@ -6934,7 +6476,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="6:8">
+    <row r="39" spans="6:9">
       <c r="F39" t="s">
         <v>363</v>
       </c>
@@ -6945,7 +6487,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="6:8">
+    <row r="40" spans="6:9">
       <c r="F40" t="s">
         <v>363</v>
       </c>
@@ -6956,7 +6498,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="6:8">
+    <row r="41" spans="6:9">
       <c r="F41" t="s">
         <v>363</v>
       </c>
@@ -6967,7 +6509,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="6:8">
+    <row r="42" spans="6:9">
       <c r="F42" t="s">
         <v>363</v>
       </c>
@@ -6992,7 +6534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="6:8">
+    <row r="44" spans="6:9">
       <c r="F44" t="s">
         <v>363</v>
       </c>
@@ -7003,7 +6545,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="6:8">
+    <row r="45" spans="6:9">
       <c r="F45" t="s">
         <v>363</v>
       </c>
@@ -7014,7 +6556,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" customFormat="1" spans="6:8">
+    <row r="46" spans="6:9">
       <c r="F46" t="s">
         <v>363</v>
       </c>
@@ -7026,29 +6568,28 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.510416666666667" footer="0.510416666666667"/>
+  <phoneticPr fontId="17" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51041666666666696" footer="0.51041666666666696"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="D7:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelRow="7"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="13"/>
   <cols>
-    <col min="6" max="6" width="18.1428571428571" customWidth="1"/>
-    <col min="7" max="7" width="15.8571428571429" customWidth="1"/>
+    <col min="6" max="6" width="18.19921875" customWidth="1"/>
+    <col min="7" max="7" width="15.796875" customWidth="1"/>
     <col min="8" max="8" width="18" customWidth="1"/>
-    <col min="9" max="9" width="36.4285714285714" customWidth="1"/>
-    <col min="10" max="10" width="15.1428571428571" customWidth="1"/>
-    <col min="11" max="11" width="11.1428571428571" customWidth="1"/>
+    <col min="9" max="9" width="36.3984375" customWidth="1"/>
+    <col min="10" max="10" width="15.19921875" customWidth="1"/>
+    <col min="11" max="11" width="11.19921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="4:11">
@@ -7077,7 +6618,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="8" spans="6:11">
+    <row r="8" spans="4:11">
       <c r="F8" t="s">
         <v>369</v>
       </c>
@@ -7098,27 +6639,26 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="D7:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="13"/>
   <cols>
-    <col min="4" max="4" width="21.4285714285714" customWidth="1"/>
+    <col min="4" max="4" width="21.3984375" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="13.1428571428571" customWidth="1"/>
-    <col min="7" max="7" width="25.4285714285714" customWidth="1"/>
-    <col min="8" max="9" width="18.1428571428571" customWidth="1"/>
+    <col min="6" max="6" width="13.19921875" customWidth="1"/>
+    <col min="7" max="7" width="25.3984375" customWidth="1"/>
+    <col min="8" max="9" width="18.19921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="4:9">
@@ -7141,7 +6681,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="8" spans="6:9">
+    <row r="8" spans="4:9">
       <c r="F8" t="s">
         <v>369</v>
       </c>
@@ -7155,7 +6695,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="9" spans="6:9">
+    <row r="9" spans="4:9">
       <c r="F9" t="s">
         <v>369</v>
       </c>
@@ -7169,7 +6709,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="10" spans="6:9">
+    <row r="10" spans="4:9">
       <c r="F10" t="s">
         <v>369</v>
       </c>
@@ -7183,7 +6723,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="11" spans="6:9">
+    <row r="11" spans="4:9">
       <c r="F11" t="s">
         <v>369</v>
       </c>
@@ -7198,29 +6738,28 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="D7:L9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="13"/>
   <cols>
-    <col min="4" max="4" width="22.1428571428571" customWidth="1"/>
-    <col min="6" max="6" width="18.8571428571429" customWidth="1"/>
-    <col min="7" max="7" width="25.8571428571429" customWidth="1"/>
+    <col min="4" max="4" width="22.19921875" customWidth="1"/>
+    <col min="6" max="6" width="18.796875" customWidth="1"/>
+    <col min="7" max="7" width="25.796875" customWidth="1"/>
     <col min="8" max="8" width="36" customWidth="1"/>
-    <col min="9" max="9" width="22.1428571428571" customWidth="1"/>
-    <col min="10" max="10" width="25.8571428571429" customWidth="1"/>
-    <col min="11" max="11" width="19.8571428571429" customWidth="1"/>
+    <col min="9" max="9" width="22.19921875" customWidth="1"/>
+    <col min="10" max="10" width="25.796875" customWidth="1"/>
+    <col min="11" max="11" width="19.796875" customWidth="1"/>
     <col min="12" max="12" width="21" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7253,7 +6792,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="8" spans="6:11">
+    <row r="8" spans="4:12">
       <c r="F8" t="s">
         <v>369</v>
       </c>
@@ -7273,7 +6812,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="9" spans="6:12">
+    <row r="9" spans="4:12">
       <c r="F9" t="s">
         <v>397</v>
       </c>
@@ -7297,8 +6836,8 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/src/main/resources/script/meta/micro-service-init-data.xlsx
+++ b/src/main/resources/script/meta/micro-service-init-data.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10613"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhenghaotian/Documents/RandD/base-service/src/main/resources/script/meta/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6FD5877-F6A2-A347-85AF-786F7B3FEBCC}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" tabRatio="845" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="22056" windowHeight="10020" tabRatio="845" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
@@ -27,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1107" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1121" uniqueCount="416">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -267,6 +261,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Droid Sans Fallback"/>
+        <charset val="134"/>
       </rPr>
       <t>快码维护路由</t>
     </r>
@@ -463,7 +458,6 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="PingFang SC"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>ldap</t>
@@ -473,7 +467,6 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>设置</t>
@@ -1104,6 +1097,51 @@
     <t>base-service.instance.listAll</t>
   </si>
   <si>
+    <t>devops-service.devops-organization.clusterOverview</t>
+  </si>
+  <si>
+    <t>base-service.organization.projectOverview</t>
+  </si>
+  <si>
+    <t>base-service.organization-user.countByDate</t>
+  </si>
+  <si>
+    <t>base-service.organization-project.listProjectsWithLimit</t>
+  </si>
+  <si>
+    <t>base-service.organization-project.countDeployRecords</t>
+  </si>
+  <si>
+    <t>asgard-service.saga-instance-org.statisticsFailureList</t>
+  </si>
+  <si>
+    <t>asgard-service.saga-instance-org.statisticsFailure</t>
+  </si>
+  <si>
+    <t>base-service.organization.appServerOverview</t>
+  </si>
+  <si>
+    <t>base-service.operate-log.listMoreOperateLog</t>
+  </si>
+  <si>
+    <t>notify-service.online-count.getCurrentCount</t>
+  </si>
+  <si>
+    <t>notify-service.online-count.getCurrentCountPerHour</t>
+  </si>
+  <si>
+    <t>notify-service.system-announcement.pagingQueryCompleted</t>
+  </si>
+  <si>
+    <t>notify-service.mailend-record.countByDate</t>
+  </si>
+  <si>
+    <t>base-service.user.countByDate</t>
+  </si>
+  <si>
+    <t>asgard-service.saga-instance.statisticsFailureList</t>
+  </si>
+  <si>
     <t>IAM_ROLE_PERMISSION</t>
   </si>
   <si>
@@ -1255,49 +1293,19 @@
   </si>
   <si>
     <t>Number</t>
-  </si>
-  <si>
-    <t>devops-service.devops-organization.clusterOverview</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>choerodon.code.organization.overview</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>base-service.organization.projectOverview</t>
-  </si>
-  <si>
-    <t>base-service.organization-user.countByDate</t>
-  </si>
-  <si>
-    <t>base-service.organization-project.listProjectsWithLimit</t>
-  </si>
-  <si>
-    <t>base-service.organization-project.countDeployRecords</t>
-  </si>
-  <si>
-    <t>asgard-service.saga-instance-org.statisticsFailureList</t>
-  </si>
-  <si>
-    <t>asgard-service.saga-instance-org.statisticsFailure</t>
-  </si>
-  <si>
-    <t>base-service.organization.appServerOverview</t>
-  </si>
-  <si>
-    <t>base-service.operate-log.listMoreOperateLog</t>
-  </si>
-  <si>
-    <t>choerodon.code.site.overview</t>
-    <phoneticPr fontId="17" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="39">
     <font>
       <sz val="10"/>
       <name val="Droid Sans Fallback"/>
@@ -1307,129 +1315,449 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="DejaVu Sans"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Droid Sans Fallback"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="DejaVu Sans"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="DengXian"/>
-      <family val="4"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="PingFang SC"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="PingFang SC"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="PingFang SC"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="PingFang SC"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF5B9BD5"/>
       <name val="PingFang SC"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF5B9BD5"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFFC000"/>
       <name val="PingFang SC"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="13"/>
       <name val="PingFang SC"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF8F187C"/>
       <name val="PingFang SC"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF8F187C"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="13"/>
       <name val="Helvetica"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
-      <name val="PingFang SC"/>
-      <family val="2"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="PingFang SC"/>
-      <family val="2"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1452,9 +1780,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1476,20 +2046,64 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1747,39 +2361,39 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="D7:O37"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+    <sheetView zoomScale="95" zoomScaleNormal="95" topLeftCell="A9" workbookViewId="0">
       <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="9.19921875" customWidth="1"/>
-    <col min="2" max="2" width="9.59765625" customWidth="1"/>
+    <col min="1" max="1" width="9.2037037037037" customWidth="1"/>
+    <col min="2" max="2" width="9.60185185185185" customWidth="1"/>
     <col min="3" max="3" width="9" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
     <col min="5" max="5" width="9" customWidth="1"/>
-    <col min="6" max="6" width="49.19921875" customWidth="1"/>
-    <col min="7" max="7" width="37.19921875" customWidth="1"/>
+    <col min="6" max="6" width="49.2037037037037" customWidth="1"/>
+    <col min="7" max="7" width="37.2037037037037" customWidth="1"/>
     <col min="8" max="8" width="37" customWidth="1"/>
     <col min="9" max="9" width="19" customWidth="1"/>
-    <col min="10" max="10" width="19.796875" customWidth="1"/>
+    <col min="10" max="10" width="19.7962962962963" customWidth="1"/>
     <col min="11" max="11" width="19" customWidth="1"/>
-    <col min="12" max="12" width="19.19921875" customWidth="1"/>
-    <col min="13" max="13" width="18.796875" customWidth="1"/>
-    <col min="14" max="14" width="19.3984375" customWidth="1"/>
+    <col min="12" max="12" width="19.2037037037037" customWidth="1"/>
+    <col min="13" max="13" width="18.7962962962963" customWidth="1"/>
+    <col min="14" max="14" width="19.3981481481481" customWidth="1"/>
     <col min="15" max="15" width="19" customWidth="1"/>
     <col min="16" max="1025" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:15" ht="12.75" customHeight="1">
+    <row r="7" ht="12.75" customHeight="1" spans="4:15">
       <c r="D7" s="4" t="s">
         <v>0</v>
       </c>
@@ -1817,7 +2431,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="4:15">
+    <row r="8" spans="4:14">
       <c r="D8" s="3"/>
       <c r="F8" s="2" t="s">
         <v>12</v>
@@ -1847,7 +2461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="4:15">
+    <row r="9" spans="6:14">
       <c r="F9" s="2" t="s">
         <v>18</v>
       </c>
@@ -1876,7 +2490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="4:15">
+    <row r="10" spans="6:14">
       <c r="F10" s="2" t="s">
         <v>21</v>
       </c>
@@ -1905,7 +2519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="4:15">
+    <row r="11" spans="6:14">
       <c r="F11" s="2" t="s">
         <v>24</v>
       </c>
@@ -1934,7 +2548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="4:15">
+    <row r="12" spans="6:14">
       <c r="F12" s="2" t="s">
         <v>27</v>
       </c>
@@ -1963,7 +2577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="4:15">
+    <row r="13" spans="6:14">
       <c r="F13" s="2" t="s">
         <v>30</v>
       </c>
@@ -1992,7 +2606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="4:15">
+    <row r="14" spans="6:14">
       <c r="F14" s="2" t="s">
         <v>33</v>
       </c>
@@ -2021,7 +2635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="4:15">
+    <row r="15" spans="6:14">
       <c r="F15" s="2" t="s">
         <v>36</v>
       </c>
@@ -2050,7 +2664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="4:15">
+    <row r="16" spans="6:14">
       <c r="F16" s="2" t="s">
         <v>39</v>
       </c>
@@ -2079,7 +2693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="6:14" ht="14">
+    <row r="17" spans="6:14">
       <c r="F17" s="2" t="s">
         <v>42</v>
       </c>
@@ -2092,7 +2706,7 @@
       <c r="I17" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J17" s="16" t="s">
+      <c r="J17" s="18" t="s">
         <v>44</v>
       </c>
       <c r="K17" s="2" t="s">
@@ -2485,7 +3099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="6:14" ht="14">
+    <row r="31" spans="6:14">
       <c r="F31" s="2" t="s">
         <v>85</v>
       </c>
@@ -2498,7 +3112,7 @@
       <c r="I31" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="J31" s="16" t="s">
+      <c r="J31" s="18" t="s">
         <v>87</v>
       </c>
       <c r="K31" s="2" t="s">
@@ -2630,13 +3244,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="6:14">
+    <row r="37" spans="7:7">
       <c r="G37" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="17" type="noConversion"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,常规"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,常规"&amp;12 Page &amp;P</oddFooter>
@@ -2645,36 +3258,37 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="D7:Q50"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+    <sheetView zoomScale="86" zoomScaleNormal="86" topLeftCell="A25" workbookViewId="0">
       <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="6" customWidth="1"/>
-    <col min="3" max="3" width="4.796875" customWidth="1"/>
-    <col min="4" max="4" width="19.3984375" customWidth="1"/>
+    <col min="3" max="3" width="4.7962962962963" customWidth="1"/>
+    <col min="4" max="4" width="19.3981481481481" customWidth="1"/>
     <col min="5" max="5" width="9" customWidth="1"/>
-    <col min="6" max="6" width="72.796875" customWidth="1"/>
-    <col min="7" max="7" width="16.796875" customWidth="1"/>
+    <col min="6" max="6" width="72.7962962962963" customWidth="1"/>
+    <col min="7" max="7" width="16.7962962962963" customWidth="1"/>
     <col min="8" max="8" width="36" customWidth="1"/>
-    <col min="9" max="9" width="63.796875" customWidth="1"/>
-    <col min="10" max="10" width="18.59765625" customWidth="1"/>
-    <col min="11" max="11" width="54.796875" customWidth="1"/>
-    <col min="12" max="12" width="19.19921875" customWidth="1"/>
-    <col min="13" max="13" width="14.59765625" customWidth="1"/>
-    <col min="14" max="14" width="26.3984375" customWidth="1"/>
+    <col min="9" max="9" width="63.7962962962963" customWidth="1"/>
+    <col min="10" max="10" width="18.6018518518519" customWidth="1"/>
+    <col min="11" max="11" width="54.7962962962963" customWidth="1"/>
+    <col min="12" max="12" width="19.2037037037037" customWidth="1"/>
+    <col min="13" max="13" width="14.6018518518519" customWidth="1"/>
+    <col min="14" max="14" width="26.3981481481481" customWidth="1"/>
     <col min="15" max="15" width="9" customWidth="1"/>
-    <col min="16" max="16" width="12.3984375" customWidth="1"/>
-    <col min="17" max="17" width="10.796875" customWidth="1"/>
+    <col min="16" max="16" width="12.3981481481481" customWidth="1"/>
+    <col min="17" max="17" width="10.7962962962963" customWidth="1"/>
     <col min="18" max="1025" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:17" ht="12.75" customHeight="1">
+    <row r="7" ht="12.75" customHeight="1" spans="4:17">
       <c r="D7" s="4" t="s">
         <v>101</v>
       </c>
@@ -2718,1366 +3332,1365 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="4:17" ht="19">
+    <row r="8" ht="15.6" spans="4:15">
       <c r="D8" s="3"/>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7" t="s">
+      <c r="I8" s="9"/>
+      <c r="J8" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="K8" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="L8" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="M8" s="7" t="s">
+      <c r="M8" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7">
+      <c r="N8" s="9"/>
+      <c r="O8" s="9">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="4:17" ht="19">
-      <c r="F9" s="7" t="s">
+    <row r="9" ht="15.6" spans="6:17">
+      <c r="F9" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="H9" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="I9" s="7" t="s">
+      <c r="I9" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="J9" s="7" t="s">
+      <c r="J9" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="K9" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="L9" s="7" t="s">
+      <c r="L9" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="M9" s="7" t="s">
+      <c r="M9" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="N9" s="7" t="s">
+      <c r="N9" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="O9" s="7">
+      <c r="O9" s="9">
         <v>10</v>
       </c>
       <c r="Q9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="4:17" ht="19">
-      <c r="F10" s="7" t="s">
+    <row r="10" ht="15.6" spans="6:17">
+      <c r="F10" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="H10" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="I10" s="7" t="s">
+      <c r="I10" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="J10" s="7" t="s">
+      <c r="J10" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="K10" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="L10" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="M10" s="7" t="s">
+      <c r="M10" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="N10" s="7" t="s">
+      <c r="N10" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="O10" s="7">
+      <c r="O10" s="9">
         <v>20</v>
       </c>
       <c r="Q10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="4:17" ht="19">
-      <c r="F11" s="7" t="s">
+    <row r="11" ht="15.6" spans="6:15">
+      <c r="F11" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G11" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="H11" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="I11" s="7" t="s">
+      <c r="I11" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="J11" s="7" t="s">
+      <c r="J11" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="K11" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="L11" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="M11" s="7" t="s">
+      <c r="M11" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="N11" s="7" t="s">
+      <c r="N11" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="O11" s="7">
+      <c r="O11" s="9">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="4:17" ht="19">
-      <c r="F12" s="7" t="s">
+    <row r="12" ht="15.6" spans="6:15">
+      <c r="F12" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="G12" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="H12" s="7" t="s">
+      <c r="H12" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="I12" s="7" t="s">
+      <c r="I12" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="J12" s="7" t="s">
+      <c r="J12" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="K12" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="L12" s="7" t="s">
+      <c r="L12" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="M12" s="7" t="s">
+      <c r="M12" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="N12" s="7" t="s">
+      <c r="N12" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="O12" s="7">
+      <c r="O12" s="9">
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="4:17" ht="19">
-      <c r="F13" s="7" t="s">
+    <row r="13" ht="15.6" spans="6:15">
+      <c r="F13" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="G13" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="H13" s="7" t="s">
+      <c r="H13" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7" t="s">
+      <c r="I13" s="9"/>
+      <c r="J13" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="K13" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="L13" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="M13" s="7" t="s">
+      <c r="M13" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7">
+      <c r="N13" s="9"/>
+      <c r="O13" s="9">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="4:17" ht="19">
-      <c r="F14" s="7" t="s">
+    <row r="14" ht="15.6" spans="6:15">
+      <c r="F14" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="G14" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="H14" s="7" t="s">
+      <c r="H14" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="I14" s="7" t="s">
+      <c r="I14" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="J14" s="7" t="s">
+      <c r="J14" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="K14" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="L14" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="M14" s="7" t="s">
+      <c r="M14" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="N14" s="7" t="s">
+      <c r="N14" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="O14" s="7">
+      <c r="O14" s="9">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="4:17" ht="19">
-      <c r="F15" s="7" t="s">
+    <row r="15" ht="15.6" spans="6:15">
+      <c r="F15" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="G15" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="H15" s="7" t="s">
+      <c r="H15" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="I15" s="7" t="s">
+      <c r="I15" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="J15" s="7" t="s">
+      <c r="J15" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="K15" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="L15" s="7" t="s">
+      <c r="L15" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="M15" s="7" t="s">
+      <c r="M15" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="N15" s="7" t="s">
+      <c r="N15" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="O15" s="7">
+      <c r="O15" s="9">
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="4:17" ht="19">
-      <c r="F16" s="7" t="s">
+    <row r="16" ht="15.6" spans="6:15">
+      <c r="F16" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="G16" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="H16" s="7" t="s">
+      <c r="H16" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="I16" s="7" t="s">
+      <c r="I16" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="J16" s="7" t="s">
+      <c r="J16" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="K16" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="L16" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="M16" s="7" t="s">
+      <c r="M16" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7">
+      <c r="N16" s="9"/>
+      <c r="O16" s="9">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="6:17" ht="19">
-      <c r="F17" s="7" t="s">
+    <row r="17" ht="15.6" spans="6:15">
+      <c r="F17" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="G17" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="H17" s="7" t="s">
+      <c r="H17" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="I17" s="7" t="s">
+      <c r="I17" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="J17" s="7" t="s">
+      <c r="J17" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="K17" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="L17" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="M17" s="7" t="s">
+      <c r="M17" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7">
+      <c r="N17" s="9"/>
+      <c r="O17" s="9">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="6:17" ht="19">
-      <c r="F18" s="7" t="s">
+    <row r="18" ht="15.6" spans="6:15">
+      <c r="F18" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="G18" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="H18" s="7" t="s">
+      <c r="H18" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="I18" s="7" t="s">
+      <c r="I18" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="J18" s="7" t="s">
+      <c r="J18" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="K18" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="L18" s="7" t="s">
+      <c r="L18" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="M18" s="7" t="s">
+      <c r="M18" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="N18" s="7"/>
-      <c r="O18" s="7">
+      <c r="N18" s="9"/>
+      <c r="O18" s="9">
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="6:17" ht="19">
-      <c r="F19" s="7" t="s">
+    <row r="19" ht="15.6" spans="6:15">
+      <c r="F19" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="G19" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="H19" s="7" t="s">
+      <c r="H19" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="I19" s="7" t="s">
+      <c r="I19" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="J19" s="7" t="s">
+      <c r="J19" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="K19" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="L19" s="7" t="s">
+      <c r="L19" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="M19" s="7" t="s">
+      <c r="M19" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="N19" s="7"/>
-      <c r="O19" s="7">
+      <c r="N19" s="9"/>
+      <c r="O19" s="9">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="6:17" ht="19">
-      <c r="F20" s="7" t="s">
+    <row r="20" ht="15.6" spans="6:17">
+      <c r="F20" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="G20" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="H20" s="7" t="s">
+      <c r="H20" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="I20" s="7" t="s">
+      <c r="I20" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="J20" s="7" t="s">
+      <c r="J20" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="K20" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="L20" s="7" t="s">
+      <c r="L20" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="M20" s="7" t="s">
+      <c r="M20" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="N20" s="7" t="s">
+      <c r="N20" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="O20" s="7">
+      <c r="O20" s="9">
         <v>30</v>
       </c>
       <c r="Q20">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="6:17" ht="19">
-      <c r="F21" s="7" t="s">
+    <row r="21" ht="15.6" spans="6:15">
+      <c r="F21" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="G21" s="7" t="s">
+      <c r="G21" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="H21" s="7" t="s">
+      <c r="H21" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="I21" s="7" t="s">
+      <c r="I21" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="J21" s="7" t="s">
+      <c r="J21" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="K21" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="L21" s="7" t="s">
+      <c r="L21" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="M21" s="7" t="s">
+      <c r="M21" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="N21" s="7" t="s">
+      <c r="N21" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="O21" s="7">
+      <c r="O21" s="9">
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="6:17" ht="19">
-      <c r="F22" s="7" t="s">
+    <row r="22" ht="15.6" spans="6:15">
+      <c r="F22" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="G22" s="8" t="s">
+      <c r="G22" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="H22" s="7" t="s">
+      <c r="H22" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="I22" s="7" t="s">
+      <c r="I22" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="J22" s="7" t="s">
+      <c r="J22" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="K22" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="L22" s="7" t="s">
+      <c r="L22" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="M22" s="7" t="s">
+      <c r="M22" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="N22" s="7" t="s">
+      <c r="N22" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="O22" s="7">
+      <c r="O22" s="9">
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="6:17" ht="19">
-      <c r="F23" s="9" t="s">
+    <row r="23" ht="15.6" spans="6:15">
+      <c r="F23" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="G23" s="9" t="s">
+      <c r="G23" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="H23" s="9" t="s">
+      <c r="H23" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9" t="s">
+      <c r="I23" s="11"/>
+      <c r="J23" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="K23" s="9" t="s">
+      <c r="K23" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="L23" s="9" t="s">
+      <c r="L23" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="M23" s="9" t="s">
+      <c r="M23" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="N23" s="9"/>
-      <c r="O23" s="9">
+      <c r="N23" s="11"/>
+      <c r="O23" s="11">
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="6:17" ht="19">
-      <c r="F24" s="9" t="s">
+    <row r="24" ht="15.6" spans="6:17">
+      <c r="F24" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="G24" s="9" t="s">
+      <c r="G24" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="H24" s="9" t="s">
+      <c r="H24" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="I24" s="9" t="s">
+      <c r="I24" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="J24" s="9" t="s">
+      <c r="J24" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="K24" s="9" t="s">
+      <c r="K24" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="L24" s="9" t="s">
+      <c r="L24" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="M24" s="9" t="s">
+      <c r="M24" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="N24" s="9" t="s">
+      <c r="N24" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="O24" s="9">
+      <c r="O24" s="11">
         <v>10</v>
       </c>
       <c r="Q24">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="6:17" ht="19">
-      <c r="F25" s="9" t="s">
+    <row r="25" ht="15.6" spans="6:17">
+      <c r="F25" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="G25" s="9" t="s">
+      <c r="G25" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="H25" s="9" t="s">
+      <c r="H25" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="I25" s="9" t="s">
+      <c r="I25" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="J25" s="9" t="s">
+      <c r="J25" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="K25" s="9" t="s">
+      <c r="K25" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="L25" s="9" t="s">
+      <c r="L25" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="M25" s="9" t="s">
+      <c r="M25" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="N25" s="9" t="s">
+      <c r="N25" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="O25" s="9">
+      <c r="O25" s="11">
         <v>40</v>
       </c>
       <c r="Q25">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="6:17" ht="19">
-      <c r="F26" s="9" t="s">
+    <row r="26" ht="15.6" spans="6:17">
+      <c r="F26" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="G26" s="10" t="s">
+      <c r="G26" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="H26" s="9" t="s">
+      <c r="H26" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="I26" s="9" t="s">
+      <c r="I26" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="J26" s="9" t="s">
+      <c r="J26" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="K26" s="9" t="s">
+      <c r="K26" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="L26" s="9" t="s">
+      <c r="L26" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="M26" s="9" t="s">
+      <c r="M26" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="N26" s="9" t="s">
+      <c r="N26" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="O26" s="9">
+      <c r="O26" s="11">
         <v>50</v>
       </c>
       <c r="Q26">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="6:17" ht="19">
-      <c r="F27" s="9" t="s">
+    <row r="27" ht="15.6" spans="6:17">
+      <c r="F27" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="G27" s="9" t="s">
+      <c r="G27" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="H27" s="9" t="s">
+      <c r="H27" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="I27" s="9" t="s">
+      <c r="I27" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="J27" s="9" t="s">
+      <c r="J27" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="K27" s="9" t="s">
+      <c r="K27" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="L27" s="9" t="s">
+      <c r="L27" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="M27" s="9" t="s">
+      <c r="M27" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="N27" s="9" t="s">
+      <c r="N27" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="O27" s="9">
+      <c r="O27" s="11">
         <v>60</v>
       </c>
       <c r="Q27">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="6:17" ht="19">
-      <c r="F28" s="9" t="s">
+    <row r="28" ht="15.6" spans="6:15">
+      <c r="F28" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="G28" s="10" t="s">
+      <c r="G28" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="H28" s="9" t="s">
+      <c r="H28" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="I28" s="9" t="s">
+      <c r="I28" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="J28" s="9" t="s">
+      <c r="J28" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="K28" s="9" t="s">
+      <c r="K28" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="L28" s="9" t="s">
+      <c r="L28" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="M28" s="9" t="s">
+      <c r="M28" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="N28" s="9" t="s">
+      <c r="N28" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="O28" s="9">
+      <c r="O28" s="11">
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="6:17" ht="19">
-      <c r="F29" s="9" t="s">
+    <row r="29" ht="15.6" spans="6:15">
+      <c r="F29" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="G29" s="9" t="s">
+      <c r="G29" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="H29" s="9" t="s">
+      <c r="H29" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="I29" s="9" t="s">
+      <c r="I29" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="J29" s="9" t="s">
+      <c r="J29" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="K29" s="9" t="s">
+      <c r="K29" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="L29" s="9" t="s">
+      <c r="L29" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="M29" s="9" t="s">
+      <c r="M29" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="N29" s="9" t="s">
+      <c r="N29" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="O29" s="9">
+      <c r="O29" s="11">
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="6:17" ht="19">
-      <c r="F30" s="9" t="s">
+    <row r="30" ht="15.6" spans="6:15">
+      <c r="F30" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="G30" s="9" t="s">
+      <c r="G30" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="H30" s="9" t="s">
+      <c r="H30" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="I30" s="9" t="s">
+      <c r="I30" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="J30" s="9" t="s">
+      <c r="J30" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="K30" s="9" t="s">
+      <c r="K30" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="L30" s="9" t="s">
+      <c r="L30" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="M30" s="9" t="s">
+      <c r="M30" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="N30" s="9" t="s">
+      <c r="N30" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="O30" s="9">
+      <c r="O30" s="11">
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="6:17" ht="19">
-      <c r="F31" s="9" t="s">
+    <row r="31" ht="15.6" spans="6:15">
+      <c r="F31" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="G31" s="10" t="s">
+      <c r="G31" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="H31" s="9" t="s">
+      <c r="H31" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="I31" s="9" t="s">
+      <c r="I31" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="J31" s="9" t="s">
+      <c r="J31" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="K31" s="9" t="s">
+      <c r="K31" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="L31" s="9" t="s">
+      <c r="L31" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="M31" s="9" t="s">
+      <c r="M31" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="N31" s="9" t="s">
+      <c r="N31" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="O31" s="9">
+      <c r="O31" s="11">
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="6:17" ht="19">
-      <c r="F32" s="9" t="s">
+    <row r="32" ht="15.6" spans="6:15">
+      <c r="F32" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="G32" s="9" t="s">
+      <c r="G32" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="H32" s="9" t="s">
+      <c r="H32" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="I32" s="9" t="s">
+      <c r="I32" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="J32" s="9" t="s">
+      <c r="J32" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="K32" s="9" t="s">
+      <c r="K32" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="L32" s="9" t="s">
+      <c r="L32" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="M32" s="9" t="s">
+      <c r="M32" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="N32" s="9" t="s">
+      <c r="N32" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="O32" s="9">
+      <c r="O32" s="11">
         <v>70</v>
       </c>
     </row>
-    <row r="33" spans="6:15" ht="19">
-      <c r="F33" s="9" t="s">
+    <row r="33" ht="15.6" spans="6:15">
+      <c r="F33" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="G33" s="9" t="s">
+      <c r="G33" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="H33" s="9" t="s">
+      <c r="H33" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="I33" s="9"/>
-      <c r="J33" s="9" t="s">
+      <c r="I33" s="11"/>
+      <c r="J33" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="K33" s="9" t="s">
+      <c r="K33" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="L33" s="9" t="s">
+      <c r="L33" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="M33" s="9" t="s">
+      <c r="M33" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="N33" s="9"/>
-      <c r="O33" s="9">
+      <c r="N33" s="11"/>
+      <c r="O33" s="11">
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="6:15" ht="19">
-      <c r="F34" s="9" t="s">
+    <row r="34" ht="15.6" spans="6:15">
+      <c r="F34" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="G34" s="9" t="s">
+      <c r="G34" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="H34" s="9" t="s">
+      <c r="H34" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="I34" s="9" t="s">
+      <c r="I34" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="J34" s="9" t="s">
+      <c r="J34" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="K34" s="9" t="s">
+      <c r="K34" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="L34" s="9" t="s">
+      <c r="L34" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="M34" s="9" t="s">
+      <c r="M34" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="N34" s="9" t="s">
+      <c r="N34" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="O34" s="9">
+      <c r="O34" s="11">
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="6:15" ht="19">
-      <c r="F35" s="9" t="s">
+    <row r="35" ht="15.6" spans="6:15">
+      <c r="F35" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="G35" s="9" t="s">
+      <c r="G35" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="H35" s="9" t="s">
+      <c r="H35" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="I35" s="9" t="s">
+      <c r="I35" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="J35" s="9" t="s">
+      <c r="J35" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="K35" s="9" t="s">
+      <c r="K35" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="L35" s="9" t="s">
+      <c r="L35" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="M35" s="9" t="s">
+      <c r="M35" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="N35" s="9" t="s">
+      <c r="N35" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="O35" s="9">
+      <c r="O35" s="11">
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="6:15" ht="19">
-      <c r="F36" s="9" t="s">
+    <row r="36" ht="15.6" spans="6:15">
+      <c r="F36" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="G36" s="9" t="s">
+      <c r="G36" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="H36" s="9" t="s">
+      <c r="H36" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="I36" s="9" t="s">
+      <c r="I36" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="J36" s="9" t="s">
+      <c r="J36" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="K36" s="9" t="s">
+      <c r="K36" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="L36" s="9" t="s">
+      <c r="L36" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="M36" s="9" t="s">
+      <c r="M36" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="N36" s="9"/>
-      <c r="O36" s="9">
+      <c r="N36" s="11"/>
+      <c r="O36" s="11">
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="6:15" ht="19">
-      <c r="F37" s="11" t="s">
+    <row r="37" ht="15.6" spans="6:15">
+      <c r="F37" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="G37" s="11" t="s">
+      <c r="G37" s="13" t="s">
         <v>182</v>
       </c>
-      <c r="H37" s="11" t="s">
+      <c r="H37" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="I37" s="11"/>
-      <c r="J37" s="11" t="s">
+      <c r="I37" s="13"/>
+      <c r="J37" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="K37" s="11" t="s">
+      <c r="K37" s="13" t="s">
         <v>184</v>
       </c>
-      <c r="L37" s="11" t="s">
+      <c r="L37" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="M37" s="11" t="s">
+      <c r="M37" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="N37" s="11" t="s">
+      <c r="N37" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="O37" s="11">
+      <c r="O37" s="13">
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="6:15" ht="19">
-      <c r="F38" s="11" t="s">
+    <row r="38" ht="15.6" spans="6:15">
+      <c r="F38" s="13" t="s">
         <v>186</v>
       </c>
-      <c r="G38" s="11" t="s">
+      <c r="G38" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="H38" s="11" t="s">
+      <c r="H38" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="I38" s="11" t="s">
+      <c r="I38" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="J38" s="11" t="s">
+      <c r="J38" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="K38" s="11" t="s">
+      <c r="K38" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="L38" s="11" t="s">
+      <c r="L38" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="M38" s="11" t="s">
+      <c r="M38" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="N38" s="11" t="s">
+      <c r="N38" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="O38" s="11">
+      <c r="O38" s="13">
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="6:15" ht="19">
-      <c r="F39" s="11" t="s">
+    <row r="39" ht="15.6" spans="6:15">
+      <c r="F39" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="G39" s="11" t="s">
+      <c r="G39" s="13" t="s">
         <v>191</v>
       </c>
-      <c r="H39" s="11" t="s">
+      <c r="H39" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="I39" s="11" t="s">
+      <c r="I39" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="J39" s="11" t="s">
+      <c r="J39" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="K39" s="11" t="s">
+      <c r="K39" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="L39" s="11" t="s">
+      <c r="L39" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="M39" s="11" t="s">
+      <c r="M39" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="N39" s="11" t="s">
+      <c r="N39" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="O39" s="11">
+      <c r="O39" s="13">
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="6:15" ht="19">
-      <c r="F40" s="11" t="s">
+    <row r="40" ht="15.6" spans="6:15">
+      <c r="F40" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="G40" s="11" t="s">
+      <c r="G40" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="H40" s="11" t="s">
+      <c r="H40" s="13" t="s">
         <v>196</v>
       </c>
-      <c r="I40" s="11" t="s">
+      <c r="I40" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="J40" s="11" t="s">
+      <c r="J40" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="K40" s="11" t="s">
+      <c r="K40" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="L40" s="11" t="s">
+      <c r="L40" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="M40" s="11" t="s">
+      <c r="M40" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="N40" s="11" t="s">
+      <c r="N40" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="O40" s="11">
+      <c r="O40" s="13">
         <v>30</v>
       </c>
     </row>
-    <row r="41" spans="6:15" ht="20">
-      <c r="F41" s="12" t="s">
+    <row r="41" ht="16.8" spans="6:15">
+      <c r="F41" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="G41" s="12" t="s">
+      <c r="G41" s="14" t="s">
         <v>199</v>
       </c>
-      <c r="H41" s="12" t="s">
+      <c r="H41" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="I41" s="12" t="s">
+      <c r="I41" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="J41" s="12" t="s">
+      <c r="J41" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="K41" s="12" t="s">
+      <c r="K41" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="L41" s="12" t="s">
+      <c r="L41" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="M41" s="12" t="s">
+      <c r="M41" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="N41" s="15" t="s">
+      <c r="N41" s="17" t="s">
         <v>202</v>
       </c>
-      <c r="O41" s="12">
+      <c r="O41" s="14">
         <v>50</v>
       </c>
     </row>
-    <row r="42" spans="6:15" ht="20">
-      <c r="F42" s="12" t="s">
+    <row r="42" ht="16.8" spans="6:15">
+      <c r="F42" s="14" t="s">
         <v>203</v>
       </c>
-      <c r="G42" s="12" t="s">
+      <c r="G42" s="14" t="s">
         <v>204</v>
       </c>
-      <c r="H42" s="12" t="s">
+      <c r="H42" s="14" t="s">
         <v>205</v>
       </c>
-      <c r="I42" s="12" t="s">
+      <c r="I42" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="J42" s="12" t="s">
+      <c r="J42" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="K42" s="12" t="s">
+      <c r="K42" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="L42" s="12" t="s">
+      <c r="L42" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="M42" s="12" t="s">
+      <c r="M42" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="N42" s="15" t="s">
+      <c r="N42" s="17" t="s">
         <v>206</v>
       </c>
-      <c r="O42" s="12">
+      <c r="O42" s="14">
         <v>60</v>
       </c>
     </row>
-    <row r="43" spans="6:15" ht="20">
-      <c r="F43" s="12" t="s">
+    <row r="43" ht="16.8" spans="6:15">
+      <c r="F43" s="14" t="s">
         <v>207</v>
       </c>
-      <c r="G43" s="12" t="s">
+      <c r="G43" s="14" t="s">
         <v>208</v>
       </c>
-      <c r="H43" s="12" t="s">
+      <c r="H43" s="14" t="s">
         <v>209</v>
       </c>
-      <c r="I43" s="12" t="s">
+      <c r="I43" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="J43" s="12" t="s">
+      <c r="J43" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="K43" s="12" t="s">
+      <c r="K43" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="L43" s="12" t="s">
+      <c r="L43" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="M43" s="12" t="s">
+      <c r="M43" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="N43" s="12" t="s">
+      <c r="N43" s="14" t="s">
         <v>210</v>
       </c>
-      <c r="O43" s="12">
+      <c r="O43" s="14">
         <v>70</v>
       </c>
     </row>
-    <row r="44" spans="6:15" ht="19">
-      <c r="F44" s="13" t="s">
+    <row r="44" ht="15.6" spans="6:15">
+      <c r="F44" s="15" t="s">
         <v>211</v>
       </c>
-      <c r="G44" s="13" t="s">
+      <c r="G44" s="15" t="s">
         <v>212</v>
       </c>
-      <c r="H44" s="13" t="s">
+      <c r="H44" s="15" t="s">
         <v>213</v>
       </c>
-      <c r="I44" s="13"/>
-      <c r="J44" s="13" t="s">
+      <c r="I44" s="15"/>
+      <c r="J44" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="K44" s="13" t="s">
+      <c r="K44" s="15" t="s">
         <v>214</v>
       </c>
-      <c r="L44" s="13" t="s">
+      <c r="L44" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="M44" s="13" t="s">
+      <c r="M44" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="N44" s="13" t="s">
+      <c r="N44" s="15" t="s">
         <v>215</v>
       </c>
-      <c r="O44" s="13">
+      <c r="O44" s="15">
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="6:15" ht="19">
-      <c r="F45" s="13" t="s">
+    <row r="45" ht="15.6" spans="6:15">
+      <c r="F45" s="15" t="s">
         <v>216</v>
       </c>
-      <c r="G45" s="13" t="s">
+      <c r="G45" s="15" t="s">
         <v>217</v>
       </c>
-      <c r="H45" s="13" t="s">
+      <c r="H45" s="15" t="s">
         <v>218</v>
       </c>
-      <c r="I45" s="13" t="s">
+      <c r="I45" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="J45" s="13" t="s">
+      <c r="J45" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="K45" s="13" t="s">
+      <c r="K45" s="15" t="s">
         <v>211</v>
       </c>
-      <c r="L45" s="13" t="s">
+      <c r="L45" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="M45" s="13" t="s">
+      <c r="M45" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="N45" s="13" t="s">
+      <c r="N45" s="15" t="s">
         <v>185</v>
       </c>
-      <c r="O45" s="13">
+      <c r="O45" s="15">
         <v>20</v>
       </c>
     </row>
-    <row r="46" spans="6:15" ht="19">
-      <c r="F46" s="13" t="s">
+    <row r="46" ht="15.6" spans="6:15">
+      <c r="F46" s="15" t="s">
         <v>219</v>
       </c>
-      <c r="G46" s="13" t="s">
+      <c r="G46" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="H46" s="13" t="s">
+      <c r="H46" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="I46" s="13"/>
-      <c r="J46" s="13" t="s">
+      <c r="I46" s="15"/>
+      <c r="J46" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="K46" s="13" t="s">
+      <c r="K46" s="15" t="s">
         <v>214</v>
       </c>
-      <c r="L46" s="13" t="s">
+      <c r="L46" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="M46" s="13" t="s">
+      <c r="M46" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="N46" s="13"/>
-      <c r="O46" s="13">
+      <c r="N46" s="15"/>
+      <c r="O46" s="15">
         <v>80</v>
       </c>
     </row>
-    <row r="47" spans="6:15" ht="19">
-      <c r="F47" s="13" t="s">
+    <row r="47" ht="15.6" spans="6:15">
+      <c r="F47" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="G47" s="13" t="s">
+      <c r="G47" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="H47" s="13" t="s">
+      <c r="H47" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="I47" s="13" t="s">
+      <c r="I47" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="J47" s="13" t="s">
+      <c r="J47" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="K47" s="13" t="s">
+      <c r="K47" s="15" t="s">
         <v>219</v>
       </c>
-      <c r="L47" s="13" t="s">
+      <c r="L47" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="M47" s="13" t="s">
+      <c r="M47" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="N47" s="13" t="s">
+      <c r="N47" s="15" t="s">
         <v>221</v>
       </c>
-      <c r="O47" s="13">
+      <c r="O47" s="15">
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="6:15" ht="19">
-      <c r="F48" s="13" t="s">
+    <row r="48" ht="15.6" spans="6:15">
+      <c r="F48" s="15" t="s">
         <v>222</v>
       </c>
-      <c r="G48" s="14" t="s">
+      <c r="G48" s="16" t="s">
         <v>223</v>
       </c>
-      <c r="H48" s="13" t="s">
+      <c r="H48" s="15" t="s">
         <v>224</v>
       </c>
-      <c r="I48" s="13" t="s">
+      <c r="I48" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="J48" s="13" t="s">
+      <c r="J48" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="K48" s="13" t="s">
+      <c r="K48" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="L48" s="13" t="s">
+      <c r="L48" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="M48" s="13" t="s">
+      <c r="M48" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="N48" s="13"/>
-      <c r="O48" s="13">
+      <c r="N48" s="15"/>
+      <c r="O48" s="15">
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="6:15" ht="19">
-      <c r="F49" s="13" t="s">
+    <row r="49" ht="15.6" spans="6:15">
+      <c r="F49" s="15" t="s">
         <v>225</v>
       </c>
-      <c r="G49" s="13" t="s">
+      <c r="G49" s="15" t="s">
         <v>226</v>
       </c>
-      <c r="H49" s="13" t="s">
+      <c r="H49" s="15" t="s">
         <v>227</v>
       </c>
-      <c r="J49" s="13" t="s">
+      <c r="J49" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="K49" s="13" t="s">
+      <c r="K49" s="15" t="s">
         <v>214</v>
       </c>
-      <c r="L49" s="13" t="s">
+      <c r="L49" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="M49" s="13" t="s">
+      <c r="M49" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="O49" s="13">
+      <c r="O49" s="15">
         <v>60</v>
       </c>
     </row>
-    <row r="50" spans="6:15" ht="19">
-      <c r="F50" s="13" t="s">
+    <row r="50" ht="15.6" spans="6:15">
+      <c r="F50" s="15" t="s">
         <v>228</v>
       </c>
-      <c r="G50" s="13" t="s">
+      <c r="G50" s="15" t="s">
         <v>229</v>
       </c>
-      <c r="H50" s="13" t="s">
+      <c r="H50" s="15" t="s">
         <v>230</v>
       </c>
-      <c r="I50" s="13" t="s">
+      <c r="I50" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="J50" s="13" t="s">
+      <c r="J50" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="K50" s="13" t="s">
+      <c r="K50" s="15" t="s">
         <v>225</v>
       </c>
-      <c r="L50" s="13" t="s">
+      <c r="L50" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="M50" s="13" t="s">
+      <c r="M50" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="N50" s="13" t="s">
+      <c r="N50" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="O50" s="13">
+      <c r="O50" s="15">
         <v>10</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="17" type="noConversion"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,常规"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,常规"&amp;12 Page &amp;P</oddFooter>
@@ -4086,24 +4699,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="D7:I162"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="D7:I170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A126" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F162" sqref="F162"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="A145" workbookViewId="0">
+      <selection activeCell="F155" sqref="F155"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="3" width="9" customWidth="1"/>
-    <col min="4" max="4" width="23.796875" customWidth="1"/>
+    <col min="4" max="4" width="23.7962962962963" customWidth="1"/>
     <col min="5" max="5" width="9" customWidth="1"/>
-    <col min="6" max="6" width="60.796875" customWidth="1"/>
-    <col min="7" max="7" width="71.796875" customWidth="1"/>
+    <col min="6" max="6" width="60.7962962962963" customWidth="1"/>
+    <col min="7" max="7" width="71.7962962962963" customWidth="1"/>
     <col min="8" max="1025" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:9" ht="12.75" customHeight="1">
+    <row r="7" ht="12.75" customHeight="1" spans="4:9">
       <c r="D7" s="4" t="s">
         <v>231</v>
       </c>
@@ -4123,7 +4737,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="8" spans="4:9" ht="19">
+    <row r="8" ht="15.6" spans="4:9">
       <c r="D8" s="3"/>
       <c r="F8" s="6" t="s">
         <v>116</v>
@@ -4135,7 +4749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="4:9" ht="19">
+    <row r="9" ht="15.6" spans="6:9">
       <c r="F9" s="6" t="s">
         <v>116</v>
       </c>
@@ -4146,7 +4760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="4:9" ht="19">
+    <row r="10" ht="15.6" spans="6:9">
       <c r="F10" s="6" t="s">
         <v>116</v>
       </c>
@@ -4157,7 +4771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="4:9" ht="19">
+    <row r="11" ht="15.6" spans="6:9">
       <c r="F11" s="6" t="s">
         <v>116</v>
       </c>
@@ -4168,7 +4782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="4:9" ht="19">
+    <row r="12" ht="15.6" spans="6:9">
       <c r="F12" s="6" t="s">
         <v>116</v>
       </c>
@@ -4179,7 +4793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="4:9" ht="19">
+    <row r="13" ht="15.6" spans="6:9">
       <c r="F13" s="6" t="s">
         <v>121</v>
       </c>
@@ -4190,7 +4804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="4:9" ht="19">
+    <row r="14" ht="15.6" spans="6:9">
       <c r="F14" s="6" t="s">
         <v>121</v>
       </c>
@@ -4201,7 +4815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="4:9" ht="19">
+    <row r="15" ht="15.6" spans="6:9">
       <c r="F15" s="6" t="s">
         <v>121</v>
       </c>
@@ -4212,7 +4826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="4:9" ht="19">
+    <row r="16" ht="15.6" spans="6:9">
       <c r="F16" s="6" t="s">
         <v>121</v>
       </c>
@@ -4223,7 +4837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="6:9" ht="19">
+    <row r="17" ht="15.6" spans="6:9">
       <c r="F17" s="6" t="s">
         <v>121</v>
       </c>
@@ -4234,7 +4848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="6:9" ht="19">
+    <row r="18" ht="15.6" spans="6:9">
       <c r="F18" s="6" t="s">
         <v>121</v>
       </c>
@@ -4245,7 +4859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="6:9" ht="19">
+    <row r="19" ht="15.6" spans="6:9">
       <c r="F19" s="6" t="s">
         <v>121</v>
       </c>
@@ -4256,7 +4870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="6:9" ht="19">
+    <row r="20" ht="15.6" spans="6:9">
       <c r="F20" s="6" t="s">
         <v>121</v>
       </c>
@@ -4267,7 +4881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="6:9" ht="19">
+    <row r="21" ht="15.6" spans="6:9">
       <c r="F21" s="6" t="s">
         <v>121</v>
       </c>
@@ -4278,7 +4892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="6:9" ht="19">
+    <row r="22" ht="15.6" spans="6:9">
       <c r="F22" s="6" t="s">
         <v>121</v>
       </c>
@@ -4289,7 +4903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="6:9" ht="19">
+    <row r="23" ht="15.6" spans="6:9">
       <c r="F23" s="6" t="s">
         <v>121</v>
       </c>
@@ -4300,7 +4914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="6:9" ht="19">
+    <row r="24" ht="15.6" spans="6:9">
       <c r="F24" s="6" t="s">
         <v>121</v>
       </c>
@@ -4311,7 +4925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="6:9" ht="19">
+    <row r="25" ht="15.6" spans="6:9">
       <c r="F25" s="6" t="s">
         <v>121</v>
       </c>
@@ -4322,7 +4936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="6:9" ht="19">
+    <row r="26" ht="15.6" spans="6:9">
       <c r="F26" s="6" t="s">
         <v>121</v>
       </c>
@@ -4333,7 +4947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="6:9" ht="19">
+    <row r="27" ht="15.6" spans="6:9">
       <c r="F27" s="6" t="s">
         <v>121</v>
       </c>
@@ -4344,7 +4958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="6:9" ht="19">
+    <row r="28" ht="15.6" spans="6:9">
       <c r="F28" s="6" t="s">
         <v>121</v>
       </c>
@@ -4355,7 +4969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="6:9" ht="19">
+    <row r="29" ht="15.6" spans="6:9">
       <c r="F29" s="6" t="s">
         <v>121</v>
       </c>
@@ -4366,7 +4980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="6:9" ht="19">
+    <row r="30" ht="15.6" spans="6:9">
       <c r="F30" s="6" t="s">
         <v>121</v>
       </c>
@@ -4377,7 +4991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="6:9" ht="19">
+    <row r="31" ht="15.6" spans="6:9">
       <c r="F31" s="6" t="s">
         <v>121</v>
       </c>
@@ -4388,7 +5002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="6:9" ht="19">
+    <row r="32" ht="15.6" spans="6:9">
       <c r="F32" s="6" t="s">
         <v>128</v>
       </c>
@@ -4399,7 +5013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="6:9" ht="19">
+    <row r="33" ht="15.6" spans="6:9">
       <c r="F33" s="6" t="s">
         <v>136</v>
       </c>
@@ -4410,7 +5024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="6:9" ht="19">
+    <row r="34" ht="15.6" spans="6:9">
       <c r="F34" s="6" t="s">
         <v>136</v>
       </c>
@@ -4421,7 +5035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="6:9" ht="19">
+    <row r="35" ht="15.6" spans="6:9">
       <c r="F35" s="6" t="s">
         <v>136</v>
       </c>
@@ -4432,7 +5046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="6:9" ht="19">
+    <row r="36" ht="15.6" spans="6:9">
       <c r="F36" s="6" t="s">
         <v>140</v>
       </c>
@@ -4443,7 +5057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="6:9" ht="19">
+    <row r="37" ht="15.6" spans="6:9">
       <c r="F37" s="6" t="s">
         <v>140</v>
       </c>
@@ -4454,7 +5068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="6:9" ht="19">
+    <row r="38" ht="15.6" spans="6:9">
       <c r="F38" s="6" t="s">
         <v>140</v>
       </c>
@@ -4465,7 +5079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="6:9" ht="19">
+    <row r="39" ht="15.6" spans="6:9">
       <c r="F39" s="6" t="s">
         <v>140</v>
       </c>
@@ -4476,7 +5090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="6:9" ht="19">
+    <row r="40" ht="15.6" spans="6:9">
       <c r="F40" s="6" t="s">
         <v>140</v>
       </c>
@@ -4487,7 +5101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="6:9" ht="19">
+    <row r="41" ht="15.6" spans="6:9">
       <c r="F41" s="6" t="s">
         <v>140</v>
       </c>
@@ -4498,7 +5112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="6:9" ht="19">
+    <row r="42" ht="15.6" spans="6:9">
       <c r="F42" s="6" t="s">
         <v>140</v>
       </c>
@@ -4509,7 +5123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="6:9" ht="19">
+    <row r="43" ht="15.6" spans="6:9">
       <c r="F43" s="6" t="s">
         <v>140</v>
       </c>
@@ -4520,7 +5134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="6:9" ht="19">
+    <row r="44" ht="15.6" spans="6:9">
       <c r="F44" s="6" t="s">
         <v>140</v>
       </c>
@@ -4531,7 +5145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="6:9" ht="19">
+    <row r="45" ht="15.6" spans="6:9">
       <c r="F45" s="6" t="s">
         <v>143</v>
       </c>
@@ -4542,7 +5156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="6:9" ht="19">
+    <row r="46" ht="15.6" spans="6:9">
       <c r="F46" s="6" t="s">
         <v>143</v>
       </c>
@@ -4553,7 +5167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="6:9" ht="19">
+    <row r="47" ht="15.6" spans="6:9">
       <c r="F47" s="6" t="s">
         <v>143</v>
       </c>
@@ -4564,7 +5178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="6:9" ht="19">
+    <row r="48" ht="15.6" spans="6:9">
       <c r="F48" s="6" t="s">
         <v>143</v>
       </c>
@@ -4575,7 +5189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="6:9" ht="19">
+    <row r="49" ht="15.6" spans="6:9">
       <c r="F49" s="6" t="s">
         <v>143</v>
       </c>
@@ -4586,7 +5200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="6:9" ht="19">
+    <row r="50" ht="15.6" spans="6:9">
       <c r="F50" s="6" t="s">
         <v>143</v>
       </c>
@@ -4597,7 +5211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="6:9" ht="19">
+    <row r="51" ht="15.6" spans="6:9">
       <c r="F51" s="6" t="s">
         <v>132</v>
       </c>
@@ -4608,7 +5222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="6:9" ht="19">
+    <row r="52" ht="15.6" spans="6:9">
       <c r="F52" s="6" t="s">
         <v>146</v>
       </c>
@@ -4619,7 +5233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="6:9" ht="19">
+    <row r="53" ht="15.6" spans="6:9">
       <c r="F53" s="6" t="s">
         <v>146</v>
       </c>
@@ -4630,7 +5244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="6:9" ht="19">
+    <row r="54" ht="15.6" spans="6:9">
       <c r="F54" s="6" t="s">
         <v>146</v>
       </c>
@@ -4641,7 +5255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="6:9" ht="19">
+    <row r="55" ht="15.6" spans="6:9">
       <c r="F55" s="6" t="s">
         <v>153</v>
       </c>
@@ -4652,7 +5266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="6:9" ht="19">
+    <row r="56" ht="15.6" spans="6:9">
       <c r="F56" s="6" t="s">
         <v>153</v>
       </c>
@@ -4663,7 +5277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="6:9" ht="19">
+    <row r="57" ht="15.6" spans="6:9">
       <c r="F57" s="6" t="s">
         <v>153</v>
       </c>
@@ -4674,7 +5288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="6:9" ht="19">
+    <row r="58" ht="15.6" spans="6:9">
       <c r="F58" s="6" t="s">
         <v>153</v>
       </c>
@@ -4685,7 +5299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="6:9" ht="19">
+    <row r="59" ht="15.6" spans="6:9">
       <c r="F59" s="6" t="s">
         <v>153</v>
       </c>
@@ -4696,7 +5310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="6:9" ht="19">
+    <row r="60" ht="15.6" spans="6:9">
       <c r="F60" s="6" t="s">
         <v>153</v>
       </c>
@@ -4707,7 +5321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="6:9" ht="19">
+    <row r="61" ht="15.6" spans="6:9">
       <c r="F61" s="6" t="s">
         <v>153</v>
       </c>
@@ -4718,7 +5332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="6:9" ht="19">
+    <row r="62" ht="15.6" spans="6:9">
       <c r="F62" s="6" t="s">
         <v>153</v>
       </c>
@@ -4729,7 +5343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="6:9" ht="19">
+    <row r="63" ht="15.6" spans="6:9">
       <c r="F63" s="6" t="s">
         <v>153</v>
       </c>
@@ -4740,7 +5354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="6:9" ht="19">
+    <row r="64" ht="15.6" spans="6:9">
       <c r="F64" s="6" t="s">
         <v>161</v>
       </c>
@@ -4751,7 +5365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="6:9" ht="19">
+    <row r="65" ht="15.6" spans="6:9">
       <c r="F65" s="6" t="s">
         <v>161</v>
       </c>
@@ -4762,7 +5376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="6:9" ht="19">
+    <row r="66" ht="15.6" spans="6:9">
       <c r="F66" s="6" t="s">
         <v>161</v>
       </c>
@@ -4773,7 +5387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="6:9" ht="19">
+    <row r="67" ht="15.6" spans="6:9">
       <c r="F67" s="6" t="s">
         <v>161</v>
       </c>
@@ -4784,7 +5398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="6:9" ht="19">
+    <row r="68" ht="15.6" spans="6:9">
       <c r="F68" s="6" t="s">
         <v>165</v>
       </c>
@@ -4795,7 +5409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="6:9" ht="19">
+    <row r="69" ht="15.6" spans="6:9">
       <c r="F69" s="6" t="s">
         <v>165</v>
       </c>
@@ -4806,7 +5420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="6:9" ht="19">
+    <row r="70" ht="15.6" spans="6:9">
       <c r="F70" s="6" t="s">
         <v>165</v>
       </c>
@@ -4817,7 +5431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="6:9" ht="19">
+    <row r="71" ht="15.6" spans="6:9">
       <c r="F71" s="6" t="s">
         <v>165</v>
       </c>
@@ -4828,7 +5442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="6:9" ht="19">
+    <row r="72" ht="15.6" spans="6:9">
       <c r="F72" s="6" t="s">
         <v>165</v>
       </c>
@@ -4839,7 +5453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="6:9" ht="19">
+    <row r="73" ht="15.6" spans="6:9">
       <c r="F73" s="6" t="s">
         <v>165</v>
       </c>
@@ -4850,7 +5464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="6:9" ht="19">
+    <row r="74" ht="15.6" spans="6:9">
       <c r="F74" s="6" t="s">
         <v>165</v>
       </c>
@@ -4861,7 +5475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="6:9" ht="19">
+    <row r="75" ht="15.6" spans="6:9">
       <c r="F75" s="6" t="s">
         <v>165</v>
       </c>
@@ -4872,7 +5486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="6:9" ht="19">
+    <row r="76" ht="15.6" spans="6:9">
       <c r="F76" s="6" t="s">
         <v>165</v>
       </c>
@@ -4883,7 +5497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="6:9" ht="19">
+    <row r="77" ht="15.6" spans="6:9">
       <c r="F77" s="6" t="s">
         <v>165</v>
       </c>
@@ -4894,7 +5508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="6:9" ht="19">
+    <row r="78" ht="15.6" spans="6:9">
       <c r="F78" s="6" t="s">
         <v>165</v>
       </c>
@@ -4905,7 +5519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="6:9" ht="19">
+    <row r="79" ht="15.6" spans="6:9">
       <c r="F79" s="6" t="s">
         <v>165</v>
       </c>
@@ -4916,7 +5530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="6:9" ht="19">
+    <row r="80" ht="15.6" spans="6:9">
       <c r="F80" s="6" t="s">
         <v>165</v>
       </c>
@@ -4927,7 +5541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="6:9" ht="19">
+    <row r="81" ht="15.6" spans="6:9">
       <c r="F81" s="6" t="s">
         <v>165</v>
       </c>
@@ -4938,7 +5552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="6:9" ht="19">
+    <row r="82" ht="15.6" spans="6:9">
       <c r="F82" s="6" t="s">
         <v>166</v>
       </c>
@@ -4949,7 +5563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="6:9" ht="19">
+    <row r="83" ht="15.6" spans="6:9">
       <c r="F83" s="6" t="s">
         <v>166</v>
       </c>
@@ -4960,7 +5574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="6:9" ht="19">
+    <row r="84" ht="15.6" spans="6:9">
       <c r="F84" s="6" t="s">
         <v>166</v>
       </c>
@@ -4971,7 +5585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="6:9" ht="19">
+    <row r="85" ht="15.6" spans="6:9">
       <c r="F85" s="6" t="s">
         <v>166</v>
       </c>
@@ -4982,7 +5596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="6:9" ht="19">
+    <row r="86" ht="15.6" spans="6:9">
       <c r="F86" s="6" t="s">
         <v>166</v>
       </c>
@@ -4993,7 +5607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="6:9" ht="19">
+    <row r="87" ht="15.6" spans="6:9">
       <c r="F87" s="6" t="s">
         <v>166</v>
       </c>
@@ -5004,7 +5618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="6:9" ht="19">
+    <row r="88" ht="15.6" spans="6:9">
       <c r="F88" s="6" t="s">
         <v>166</v>
       </c>
@@ -5015,7 +5629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="6:9" ht="19">
+    <row r="89" ht="15.6" spans="6:9">
       <c r="F89" s="6" t="s">
         <v>166</v>
       </c>
@@ -5026,7 +5640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="6:9" ht="19">
+    <row r="90" ht="15.6" spans="6:9">
       <c r="F90" s="6" t="s">
         <v>166</v>
       </c>
@@ -5037,7 +5651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="6:9" ht="19">
+    <row r="91" ht="15.6" spans="6:9">
       <c r="F91" s="6" t="s">
         <v>166</v>
       </c>
@@ -5048,7 +5662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="6:9" ht="19">
+    <row r="92" ht="15.6" spans="6:9">
       <c r="F92" s="6" t="s">
         <v>166</v>
       </c>
@@ -5059,7 +5673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="6:9" ht="19">
+    <row r="93" ht="15.6" spans="6:9">
       <c r="F93" s="6" t="s">
         <v>170</v>
       </c>
@@ -5070,7 +5684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="6:9" ht="19">
+    <row r="94" ht="15.6" spans="6:9">
       <c r="F94" s="6" t="s">
         <v>170</v>
       </c>
@@ -5081,7 +5695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="6:9" ht="19">
+    <row r="95" ht="15.6" spans="6:9">
       <c r="F95" s="6" t="s">
         <v>170</v>
       </c>
@@ -5092,7 +5706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="6:9" ht="19">
+    <row r="96" ht="15.6" spans="6:9">
       <c r="F96" s="6" t="s">
         <v>170</v>
       </c>
@@ -5103,7 +5717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="6:9" ht="19">
+    <row r="97" ht="15.6" spans="6:9">
       <c r="F97" s="6" t="s">
         <v>178</v>
       </c>
@@ -5114,7 +5728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="6:9" ht="19">
+    <row r="98" ht="15.6" spans="6:9">
       <c r="F98" s="6" t="s">
         <v>178</v>
       </c>
@@ -5125,7 +5739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="6:9" ht="19">
+    <row r="99" ht="15.6" spans="6:9">
       <c r="F99" s="6" t="s">
         <v>178</v>
       </c>
@@ -5136,7 +5750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="6:9" ht="19">
+    <row r="100" ht="15.6" spans="6:9">
       <c r="F100" s="6" t="s">
         <v>179</v>
       </c>
@@ -5147,7 +5761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="6:9" ht="19">
+    <row r="101" ht="15.6" spans="6:9">
       <c r="F101" s="6" t="s">
         <v>180</v>
       </c>
@@ -5158,7 +5772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="6:9" ht="19">
+    <row r="102" ht="15.6" spans="6:9">
       <c r="F102" s="6" t="s">
         <v>180</v>
       </c>
@@ -5169,7 +5783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="6:9" ht="19">
+    <row r="103" ht="15.6" spans="6:9">
       <c r="F103" s="6" t="s">
         <v>186</v>
       </c>
@@ -5180,7 +5794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="6:9" ht="19">
+    <row r="104" ht="15.6" spans="6:9">
       <c r="F104" s="6" t="s">
         <v>186</v>
       </c>
@@ -5191,7 +5805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="6:9" ht="19">
+    <row r="105" ht="15.6" spans="6:9">
       <c r="F105" s="6" t="s">
         <v>186</v>
       </c>
@@ -5202,7 +5816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="6:9" ht="19">
+    <row r="106" ht="15.6" spans="6:9">
       <c r="F106" s="6" t="s">
         <v>186</v>
       </c>
@@ -5213,7 +5827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="6:9" ht="19">
+    <row r="107" ht="15.6" spans="6:9">
       <c r="F107" s="6" t="s">
         <v>186</v>
       </c>
@@ -5224,7 +5838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="6:9" ht="19">
+    <row r="108" ht="15.6" spans="6:9">
       <c r="F108" s="6" t="s">
         <v>190</v>
       </c>
@@ -5235,7 +5849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="6:9" ht="19">
+    <row r="109" ht="15.6" spans="6:9">
       <c r="F109" s="6" t="s">
         <v>190</v>
       </c>
@@ -5246,7 +5860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="6:9" ht="19">
+    <row r="110" ht="15.6" spans="6:9">
       <c r="F110" s="6" t="s">
         <v>194</v>
       </c>
@@ -5257,7 +5871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="6:9" ht="19">
+    <row r="111" ht="15.6" spans="6:9">
       <c r="F111" s="6" t="s">
         <v>194</v>
       </c>
@@ -5268,7 +5882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="6:9" ht="19">
+    <row r="112" ht="15.6" spans="6:9">
       <c r="F112" s="6" t="s">
         <v>194</v>
       </c>
@@ -5279,7 +5893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="6:9" ht="19">
+    <row r="113" ht="15.6" spans="6:9">
       <c r="F113" s="6" t="s">
         <v>216</v>
       </c>
@@ -5290,7 +5904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="6:9" ht="19">
+    <row r="114" ht="15.6" spans="6:9">
       <c r="F114" s="6" t="s">
         <v>216</v>
       </c>
@@ -5301,7 +5915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="6:9" ht="19">
+    <row r="115" ht="15.6" spans="6:9">
       <c r="F115" s="6" t="s">
         <v>216</v>
       </c>
@@ -5312,7 +5926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="6:9" ht="19">
+    <row r="116" ht="15.6" spans="6:9">
       <c r="F116" s="6" t="s">
         <v>216</v>
       </c>
@@ -5323,7 +5937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="6:9" ht="19">
+    <row r="117" ht="15.6" spans="6:9">
       <c r="F117" s="6" t="s">
         <v>216</v>
       </c>
@@ -5334,7 +5948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="6:9" ht="19">
+    <row r="118" ht="15.6" spans="6:9">
       <c r="F118" s="6" t="s">
         <v>216</v>
       </c>
@@ -5345,7 +5959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="6:9" ht="19">
+    <row r="119" ht="15.6" spans="6:9">
       <c r="F119" s="6" t="s">
         <v>216</v>
       </c>
@@ -5356,7 +5970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="6:9" ht="19">
+    <row r="120" ht="15.6" spans="6:9">
       <c r="F120" s="6" t="s">
         <v>216</v>
       </c>
@@ -5367,7 +5981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="6:9" ht="19">
+    <row r="121" ht="15.6" spans="6:9">
       <c r="F121" s="6" t="s">
         <v>216</v>
       </c>
@@ -5378,7 +5992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="6:9" ht="19">
+    <row r="122" ht="15.6" spans="6:9">
       <c r="F122" s="6" t="s">
         <v>220</v>
       </c>
@@ -5389,7 +6003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="6:9" ht="19">
+    <row r="123" ht="15.6" spans="6:9">
       <c r="F123" s="6" t="s">
         <v>222</v>
       </c>
@@ -5400,7 +6014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="6:9" ht="19">
+    <row r="124" ht="15.6" spans="6:9">
       <c r="F124" s="6" t="s">
         <v>222</v>
       </c>
@@ -5411,7 +6025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="6:9" ht="19">
+    <row r="125" ht="15.6" spans="6:9">
       <c r="F125" s="6" t="s">
         <v>222</v>
       </c>
@@ -5422,7 +6036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="6:9" ht="19">
+    <row r="126" ht="15.6" spans="6:9">
       <c r="F126" s="6" t="s">
         <v>222</v>
       </c>
@@ -5433,7 +6047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="6:9" ht="19">
+    <row r="127" ht="15.6" spans="6:9">
       <c r="F127" s="6" t="s">
         <v>228</v>
       </c>
@@ -5444,7 +6058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="6:9" ht="19">
+    <row r="128" ht="15.6" spans="6:9">
       <c r="F128" s="6" t="s">
         <v>228</v>
       </c>
@@ -5455,7 +6069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="6:9" ht="19">
+    <row r="129" ht="15.6" spans="6:9">
       <c r="F129" s="6" t="s">
         <v>216</v>
       </c>
@@ -5466,7 +6080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="6:9" ht="19">
+    <row r="130" ht="15.6" spans="6:9">
       <c r="F130" s="6" t="s">
         <v>228</v>
       </c>
@@ -5477,7 +6091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="6:9" ht="19">
+    <row r="131" ht="15.6" spans="6:9">
       <c r="F131" s="6" t="s">
         <v>198</v>
       </c>
@@ -5488,7 +6102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="6:9" ht="19">
+    <row r="132" ht="15.6" spans="6:9">
       <c r="F132" s="6" t="s">
         <v>198</v>
       </c>
@@ -5499,7 +6113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="6:9" ht="19">
+    <row r="133" ht="15.6" spans="6:9">
       <c r="F133" s="6" t="s">
         <v>198</v>
       </c>
@@ -5510,7 +6124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="6:9" ht="19">
+    <row r="134" ht="15.6" spans="6:9">
       <c r="F134" s="6" t="s">
         <v>198</v>
       </c>
@@ -5521,7 +6135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="6:9" ht="19">
+    <row r="135" ht="15.6" spans="6:9">
       <c r="F135" s="6" t="s">
         <v>198</v>
       </c>
@@ -5532,7 +6146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="6:9" ht="19">
+    <row r="136" ht="15.6" spans="6:9">
       <c r="F136" s="6" t="s">
         <v>198</v>
       </c>
@@ -5543,7 +6157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="6:9" ht="19">
+    <row r="137" ht="15.6" spans="6:9">
       <c r="F137" s="6" t="s">
         <v>203</v>
       </c>
@@ -5554,7 +6168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="6:9" ht="19">
+    <row r="138" ht="15.6" spans="6:9">
       <c r="F138" s="6" t="s">
         <v>203</v>
       </c>
@@ -5565,7 +6179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="6:9" ht="19">
+    <row r="139" ht="15.6" spans="6:9">
       <c r="F139" s="6" t="s">
         <v>203</v>
       </c>
@@ -5576,7 +6190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="6:9" ht="19">
+    <row r="140" ht="15.6" spans="6:9">
       <c r="F140" s="6" t="s">
         <v>203</v>
       </c>
@@ -5587,7 +6201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="6:9" ht="19">
+    <row r="141" ht="15.6" spans="6:9">
       <c r="F141" s="6" t="s">
         <v>203</v>
       </c>
@@ -5598,7 +6212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="6:9" ht="19">
+    <row r="142" ht="15.6" spans="6:9">
       <c r="F142" s="6" t="s">
         <v>203</v>
       </c>
@@ -5609,7 +6223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="6:9" ht="19">
+    <row r="143" ht="15.6" spans="6:9">
       <c r="F143" s="6" t="s">
         <v>203</v>
       </c>
@@ -5620,7 +6234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="6:9" ht="19">
+    <row r="144" ht="15.6" spans="6:9">
       <c r="F144" s="6" t="s">
         <v>207</v>
       </c>
@@ -5631,7 +6245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="6:9" ht="19">
+    <row r="145" ht="15.6" spans="6:9">
       <c r="F145" s="6" t="s">
         <v>207</v>
       </c>
@@ -5642,7 +6256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="6:9" ht="19">
+    <row r="146" ht="15.6" spans="6:9">
       <c r="F146" s="6" t="s">
         <v>207</v>
       </c>
@@ -5653,7 +6267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="6:9" ht="19">
+    <row r="147" ht="15.6" spans="6:9">
       <c r="F147" s="6" t="s">
         <v>207</v>
       </c>
@@ -5664,7 +6278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="6:9" ht="19">
+    <row r="148" ht="15.6" spans="6:9">
       <c r="F148" s="6" t="s">
         <v>207</v>
       </c>
@@ -5675,7 +6289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="6:9" ht="19">
+    <row r="149" ht="15.6" spans="6:9">
       <c r="F149" s="6" t="s">
         <v>207</v>
       </c>
@@ -5686,7 +6300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="6:9" ht="19">
+    <row r="150" ht="15.6" spans="6:9">
       <c r="F150" s="6" t="s">
         <v>207</v>
       </c>
@@ -5697,7 +6311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="6:9" ht="19">
+    <row r="151" ht="15.6" spans="6:9">
       <c r="F151" s="6" t="s">
         <v>207</v>
       </c>
@@ -5708,9 +6322,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="6:9" ht="19">
+    <row r="152" ht="15.6" spans="6:9">
       <c r="F152" s="6" t="s">
-        <v>402</v>
+        <v>154</v>
       </c>
       <c r="G152" s="6" t="s">
         <v>42</v>
@@ -5719,108 +6333,108 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="6:9" ht="19">
+    <row r="153" ht="15.6" spans="6:9">
       <c r="F153" s="6" t="s">
         <v>154</v>
       </c>
       <c r="G153" s="6" t="s">
-        <v>401</v>
+        <v>350</v>
       </c>
       <c r="I153">
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="6:9" ht="22">
+    <row r="154" ht="17.4" spans="6:9">
       <c r="F154" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="G154" s="17" t="s">
-        <v>403</v>
+      <c r="G154" s="7" t="s">
+        <v>351</v>
       </c>
       <c r="I154">
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="6:9" ht="22">
+    <row r="155" ht="17.4" spans="6:9">
       <c r="F155" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="G155" s="17" t="s">
-        <v>404</v>
+      <c r="G155" s="7" t="s">
+        <v>352</v>
       </c>
       <c r="I155">
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="6:9" ht="22">
+    <row r="156" ht="17.4" spans="6:9">
       <c r="F156" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="G156" s="18" t="s">
-        <v>405</v>
+      <c r="G156" s="8" t="s">
+        <v>353</v>
       </c>
       <c r="I156">
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="6:9" ht="22">
+    <row r="157" ht="17.4" spans="6:9">
       <c r="F157" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="G157" s="17" t="s">
-        <v>406</v>
+      <c r="G157" s="7" t="s">
+        <v>354</v>
       </c>
       <c r="I157">
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="6:9" ht="22">
+    <row r="158" ht="17.4" spans="6:9">
       <c r="F158" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="G158" s="17" t="s">
-        <v>407</v>
+      <c r="G158" s="7" t="s">
+        <v>355</v>
       </c>
       <c r="I158">
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="6:9" ht="22">
+    <row r="159" ht="17.4" spans="6:9">
       <c r="F159" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="G159" s="17" t="s">
-        <v>408</v>
+      <c r="G159" s="7" t="s">
+        <v>356</v>
       </c>
       <c r="I159">
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="6:9" ht="22">
+    <row r="160" ht="17.4" spans="6:9">
       <c r="F160" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="G160" s="18" t="s">
-        <v>409</v>
+      <c r="G160" s="8" t="s">
+        <v>357</v>
       </c>
       <c r="I160">
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="6:9" ht="22">
+    <row r="161" ht="17.4" spans="6:9">
       <c r="F161" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="G161" s="18" t="s">
-        <v>410</v>
+      <c r="G161" s="8" t="s">
+        <v>358</v>
       </c>
       <c r="I161">
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="6:9" ht="19">
+    <row r="162" ht="15.6" spans="6:9">
       <c r="F162" s="6" t="s">
-        <v>411</v>
+        <v>174</v>
       </c>
       <c r="G162" s="6" t="s">
         <v>85</v>
@@ -5829,10 +6443,68 @@
         <v>1</v>
       </c>
     </row>
+    <row r="163" ht="15.6" spans="6:7">
+      <c r="F163" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="G163" s="6" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="164" ht="15.6" spans="6:7">
+      <c r="F164" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="G164" s="6" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="165" ht="15.6" spans="6:7">
+      <c r="F165" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="G165" s="6" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="166" ht="15.6" spans="6:7">
+      <c r="F166" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="G166" s="6" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="167" ht="15.6" spans="6:7">
+      <c r="F167" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="G167" s="6" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="168" ht="15.6" spans="6:7">
+      <c r="F168" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="G168" s="6" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="169" ht="15.6" spans="6:7">
+      <c r="F169" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="G169" s="6" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="170" ht="15.6" spans="7:7">
+      <c r="G170" s="6"/>
+    </row>
   </sheetData>
-  <phoneticPr fontId="17" type="noConversion"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,常规"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,常规"&amp;12 Page &amp;P</oddFooter>
@@ -5841,249 +6513,249 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="D7:G33"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:XFD28"/>
+      <selection activeCell="A28" sqref="$A28:$XFD28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="6.19921875" customWidth="1"/>
+    <col min="1" max="1" width="6.2037037037037" customWidth="1"/>
     <col min="2" max="2" width="5" customWidth="1"/>
-    <col min="3" max="3" width="7.19921875" customWidth="1"/>
-    <col min="4" max="4" width="25.796875" customWidth="1"/>
-    <col min="5" max="5" width="7.19921875" customWidth="1"/>
-    <col min="6" max="6" width="42.796875" customWidth="1"/>
-    <col min="7" max="7" width="52.796875" customWidth="1"/>
+    <col min="3" max="3" width="7.2037037037037" customWidth="1"/>
+    <col min="4" max="4" width="25.7962962962963" customWidth="1"/>
+    <col min="5" max="5" width="7.2037037037037" customWidth="1"/>
+    <col min="6" max="6" width="42.7962962962963" customWidth="1"/>
+    <col min="7" max="7" width="52.7962962962963" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="4:7">
       <c r="D7" s="4" t="s">
-        <v>350</v>
+        <v>365</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>351</v>
+        <v>366</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="8" spans="4:7" ht="16">
+    <row r="8" ht="15.6" spans="6:7">
       <c r="F8" s="5" t="s">
-        <v>352</v>
+        <v>367</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="4:7" ht="16">
+    <row r="9" ht="15.6" spans="6:7">
       <c r="F9" s="5" t="s">
-        <v>352</v>
+        <v>367</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="4:7" ht="16">
+    <row r="10" ht="15.6" spans="6:7">
       <c r="F10" s="5" t="s">
-        <v>352</v>
+        <v>367</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="4:7" ht="16">
+    <row r="11" ht="15.6" spans="6:7">
       <c r="F11" s="5" t="s">
-        <v>352</v>
+        <v>367</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="4:7" ht="16">
+    <row r="12" ht="15.6" spans="6:7">
       <c r="F12" s="5" t="s">
-        <v>352</v>
+        <v>367</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="4:7" ht="16">
+    <row r="13" ht="15.6" spans="6:7">
       <c r="F13" s="5" t="s">
-        <v>352</v>
+        <v>367</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="4:7" ht="16">
+    <row r="14" ht="15.6" spans="6:7">
       <c r="F14" s="5" t="s">
-        <v>352</v>
+        <v>367</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="4:7" ht="16">
+    <row r="15" ht="15.6" spans="6:7">
       <c r="F15" s="5" t="s">
-        <v>352</v>
+        <v>367</v>
       </c>
       <c r="G15" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="4:7" ht="16">
+    <row r="16" ht="15.6" spans="6:7">
       <c r="F16" s="5" t="s">
-        <v>352</v>
+        <v>367</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="6:7" ht="16">
+    <row r="17" ht="15.6" spans="6:7">
       <c r="F17" s="5" t="s">
-        <v>352</v>
+        <v>367</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="6:7" ht="16">
+    <row r="18" ht="15.6" spans="6:7">
       <c r="F18" s="5" t="s">
-        <v>353</v>
+        <v>368</v>
       </c>
       <c r="G18" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="6:7" ht="16">
+    <row r="19" ht="15.6" spans="6:7">
       <c r="F19" s="5" t="s">
-        <v>353</v>
+        <v>368</v>
       </c>
       <c r="G19" s="5" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="6:7" ht="16">
+    <row r="20" ht="15.6" spans="6:7">
       <c r="F20" s="5" t="s">
-        <v>353</v>
+        <v>368</v>
       </c>
       <c r="G20" s="5" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="6:7" ht="16">
+    <row r="21" ht="15.6" spans="6:7">
       <c r="F21" s="5" t="s">
-        <v>353</v>
+        <v>368</v>
       </c>
       <c r="G21" s="5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="6:7" ht="16">
+    <row r="22" ht="15.6" spans="6:7">
       <c r="F22" s="5" t="s">
-        <v>353</v>
+        <v>368</v>
       </c>
       <c r="G22" s="5" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="6:7" ht="16">
+    <row r="23" ht="15.6" spans="6:7">
       <c r="F23" s="5" t="s">
-        <v>353</v>
+        <v>368</v>
       </c>
       <c r="G23" s="5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="24" spans="6:7" ht="16">
+    <row r="24" ht="15.6" spans="6:7">
       <c r="F24" s="5" t="s">
-        <v>353</v>
+        <v>368</v>
       </c>
       <c r="G24" s="5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="25" spans="6:7" ht="16">
+    <row r="25" ht="15.6" spans="6:7">
       <c r="F25" s="5" t="s">
-        <v>353</v>
+        <v>368</v>
       </c>
       <c r="G25" s="5" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="26" spans="6:7" ht="16">
+    <row r="26" ht="15.6" spans="6:7">
       <c r="F26" s="5" t="s">
-        <v>353</v>
+        <v>368</v>
       </c>
       <c r="G26" s="5" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="27" spans="6:7" ht="16">
+    <row r="27" ht="15.6" spans="6:7">
       <c r="F27" s="5" t="s">
-        <v>353</v>
+        <v>368</v>
       </c>
       <c r="G27" s="5" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="28" spans="6:7" ht="16">
+    <row r="28" ht="15.6" spans="6:7">
       <c r="F28" s="5" t="s">
-        <v>353</v>
+        <v>368</v>
       </c>
       <c r="G28" s="5" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="29" spans="6:7" ht="16">
+    <row r="29" ht="15.6" spans="6:7">
       <c r="F29" s="5" t="s">
-        <v>354</v>
+        <v>369</v>
       </c>
       <c r="G29" s="5" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="30" spans="6:7" ht="16">
+    <row r="30" ht="15.6" spans="6:7">
       <c r="F30" s="5" t="s">
-        <v>354</v>
+        <v>369</v>
       </c>
       <c r="G30" s="5" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="31" spans="6:7" ht="16">
+    <row r="31" ht="15.6" spans="6:7">
       <c r="F31" s="5" t="s">
-        <v>354</v>
+        <v>369</v>
       </c>
       <c r="G31" s="5" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="32" spans="6:7" ht="16">
+    <row r="32" ht="15.6" spans="6:7">
       <c r="F32" s="5" t="s">
-        <v>354</v>
+        <v>369</v>
       </c>
       <c r="G32" s="5" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="33" spans="6:7" ht="16">
+    <row r="33" ht="15.6" spans="6:7">
       <c r="F33" s="5" t="s">
-        <v>355</v>
+        <v>370</v>
       </c>
       <c r="G33" s="5" t="s">
         <v>98</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="17" type="noConversion"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,标准"&amp;12&amp;A</oddHeader>
@@ -6093,47 +6765,49 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="D7:I46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="D6:I46"/>
   <sheetViews>
-    <sheetView topLeftCell="C3" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="C46" sqref="A46:XFD46"/>
+    <sheetView zoomScale="95" zoomScaleNormal="95" topLeftCell="C3" workbookViewId="0">
+      <selection activeCell="C46" sqref="$A46:$XFD46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="3" width="8.796875" customWidth="1"/>
-    <col min="4" max="4" width="27.3984375" customWidth="1"/>
+    <col min="1" max="3" width="8.7962962962963" customWidth="1"/>
+    <col min="4" max="4" width="27.3981481481481" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="23.796875" customWidth="1"/>
+    <col min="6" max="6" width="23.7962962962963" customWidth="1"/>
     <col min="7" max="7" width="48" customWidth="1"/>
-    <col min="8" max="8" width="24.796875" customWidth="1"/>
-    <col min="9" max="1025" width="8.796875" customWidth="1"/>
+    <col min="8" max="8" width="24.7962962962963" customWidth="1"/>
+    <col min="9" max="1025" width="8.7962962962963" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:9" ht="19" customHeight="1">
+    <row r="6" ht="13.95"/>
+    <row r="7" ht="19" customHeight="1" spans="4:9">
       <c r="D7" s="1" t="s">
-        <v>356</v>
+        <v>371</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>357</v>
+        <v>372</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>232</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>358</v>
+        <v>373</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="4:9">
+    <row r="8" spans="6:8">
       <c r="F8" s="2" t="s">
-        <v>359</v>
+        <v>374</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>216</v>
@@ -6142,9 +6816,9 @@
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="4:9">
+    <row r="9" spans="6:8">
       <c r="F9" s="2" t="s">
-        <v>359</v>
+        <v>374</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>220</v>
@@ -6153,9 +6827,9 @@
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="4:9">
+    <row r="10" spans="6:8">
       <c r="F10" s="2" t="s">
-        <v>359</v>
+        <v>374</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>222</v>
@@ -6164,9 +6838,9 @@
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="4:9">
+    <row r="11" spans="6:8">
       <c r="F11" s="2" t="s">
-        <v>359</v>
+        <v>374</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>228</v>
@@ -6175,9 +6849,9 @@
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="4:9">
+    <row r="12" spans="6:8">
       <c r="F12" s="2" t="s">
-        <v>360</v>
+        <v>375</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>216</v>
@@ -6186,9 +6860,9 @@
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="4:9">
+    <row r="13" spans="6:8">
       <c r="F13" s="2" t="s">
-        <v>360</v>
+        <v>375</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>220</v>
@@ -6197,9 +6871,9 @@
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="4:9">
+    <row r="14" spans="6:8">
       <c r="F14" s="2" t="s">
-        <v>360</v>
+        <v>375</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>222</v>
@@ -6208,98 +6882,98 @@
         <v>90</v>
       </c>
     </row>
-    <row r="15" spans="4:9">
+    <row r="15" spans="6:8">
       <c r="F15" s="2" t="s">
-        <v>361</v>
+        <v>376</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>216</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="16" spans="4:9">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="16" spans="6:8">
       <c r="F16" s="2" t="s">
-        <v>361</v>
+        <v>376</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>220</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="17" spans="4:9">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="17" spans="6:8">
       <c r="F17" s="2" t="s">
-        <v>361</v>
+        <v>376</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>222</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="18" spans="4:9">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="18" spans="6:8">
       <c r="F18" s="2" t="s">
-        <v>361</v>
+        <v>376</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>228</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="19" spans="4:9">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="19" spans="6:8">
       <c r="F19" t="s">
-        <v>363</v>
+        <v>378</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>216</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="20" spans="4:9">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="20" spans="6:8">
       <c r="F20" s="3" t="s">
-        <v>363</v>
+        <v>378</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>220</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="21" spans="4:9">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="21" spans="6:8">
       <c r="F21" t="s">
-        <v>363</v>
+        <v>378</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>222</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="22" spans="4:9">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="22" spans="6:8">
       <c r="F22" t="s">
-        <v>363</v>
+        <v>378</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>228</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="23" spans="4:9">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="23" spans="4:8">
       <c r="D23" s="2"/>
       <c r="F23" s="2" t="s">
-        <v>361</v>
+        <v>376</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>116</v>
@@ -6308,9 +6982,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="4:9">
+    <row r="24" spans="6:8">
       <c r="F24" s="2" t="s">
-        <v>361</v>
+        <v>376</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>121</v>
@@ -6319,9 +6993,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="4:9">
+    <row r="25" spans="6:8">
       <c r="F25" s="2" t="s">
-        <v>361</v>
+        <v>376</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>128</v>
@@ -6330,9 +7004,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="4:9">
+    <row r="26" spans="6:8">
       <c r="F26" s="2" t="s">
-        <v>361</v>
+        <v>376</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>132</v>
@@ -6341,9 +7015,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="4:9">
+    <row r="27" spans="6:8">
       <c r="F27" s="2" t="s">
-        <v>361</v>
+        <v>376</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>153</v>
@@ -6352,9 +7026,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="4:9">
+    <row r="28" spans="6:8">
       <c r="F28" s="2" t="s">
-        <v>361</v>
+        <v>376</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>136</v>
@@ -6363,9 +7037,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="4:9">
+    <row r="29" spans="6:8">
       <c r="F29" s="2" t="s">
-        <v>361</v>
+        <v>376</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>140</v>
@@ -6374,9 +7048,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="4:9">
+    <row r="30" spans="6:8">
       <c r="F30" s="2" t="s">
-        <v>361</v>
+        <v>376</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>143</v>
@@ -6385,9 +7059,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="4:9">
+    <row r="31" spans="6:8">
       <c r="F31" s="2" t="s">
-        <v>361</v>
+        <v>376</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>146</v>
@@ -6396,9 +7070,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="4:9">
+    <row r="32" spans="6:9">
       <c r="F32" s="2" t="s">
-        <v>361</v>
+        <v>376</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>149</v>
@@ -6410,20 +7084,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="6:9">
+    <row r="33" spans="6:8">
       <c r="F33" s="2" t="s">
-        <v>361</v>
+        <v>376</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>364</v>
+        <v>379</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="6:9">
+    <row r="34" spans="6:8">
       <c r="F34" s="2" t="s">
-        <v>361</v>
+        <v>376</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>154</v>
@@ -6432,9 +7106,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="6:9">
+    <row r="35" spans="6:8">
       <c r="F35" s="3" t="s">
-        <v>363</v>
+        <v>378</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>116</v>
@@ -6443,9 +7117,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="6:9">
+    <row r="36" spans="6:8">
       <c r="F36" t="s">
-        <v>363</v>
+        <v>378</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>121</v>
@@ -6454,9 +7128,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="6:9">
+    <row r="37" spans="6:8">
       <c r="F37" t="s">
-        <v>363</v>
+        <v>378</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>128</v>
@@ -6465,9 +7139,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="6:9">
+    <row r="38" spans="6:8">
       <c r="F38" t="s">
-        <v>363</v>
+        <v>378</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>132</v>
@@ -6476,9 +7150,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="6:9">
+    <row r="39" spans="6:8">
       <c r="F39" t="s">
-        <v>363</v>
+        <v>378</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>136</v>
@@ -6487,9 +7161,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="6:9">
+    <row r="40" spans="6:8">
       <c r="F40" t="s">
-        <v>363</v>
+        <v>378</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>140</v>
@@ -6498,9 +7172,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="6:9">
+    <row r="41" spans="6:8">
       <c r="F41" t="s">
-        <v>363</v>
+        <v>378</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>143</v>
@@ -6509,9 +7183,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="6:9">
+    <row r="42" spans="6:8">
       <c r="F42" t="s">
-        <v>363</v>
+        <v>378</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>146</v>
@@ -6522,7 +7196,7 @@
     </row>
     <row r="43" spans="6:9">
       <c r="F43" t="s">
-        <v>363</v>
+        <v>378</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>149</v>
@@ -6534,9 +7208,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="6:9">
+    <row r="44" spans="6:8">
       <c r="F44" t="s">
-        <v>363</v>
+        <v>378</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>153</v>
@@ -6545,20 +7219,20 @@
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="6:9">
+    <row r="45" spans="6:8">
       <c r="F45" t="s">
-        <v>363</v>
+        <v>378</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>364</v>
+        <v>379</v>
       </c>
       <c r="H45" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="6:9">
+    <row r="46" spans="6:8">
       <c r="F46" t="s">
-        <v>363</v>
+        <v>378</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>154</v>
@@ -6568,33 +7242,34 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="17" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51041666666666696" footer="0.51041666666666696"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.510416666666667" footer="0.510416666666667"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="D7:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="9.2037037037037" defaultRowHeight="13.2" outlineLevelRow="7"/>
   <cols>
-    <col min="6" max="6" width="18.19921875" customWidth="1"/>
-    <col min="7" max="7" width="15.796875" customWidth="1"/>
+    <col min="6" max="6" width="18.2037037037037" customWidth="1"/>
+    <col min="7" max="7" width="15.7962962962963" customWidth="1"/>
     <col min="8" max="8" width="18" customWidth="1"/>
-    <col min="9" max="9" width="36.3984375" customWidth="1"/>
-    <col min="10" max="10" width="15.19921875" customWidth="1"/>
-    <col min="11" max="11" width="11.19921875" customWidth="1"/>
+    <col min="9" max="9" width="36.3981481481481" customWidth="1"/>
+    <col min="10" max="10" width="15.2037037037037" customWidth="1"/>
+    <col min="11" max="11" width="11.2037037037037" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="4:11">
       <c r="D7" t="s">
-        <v>365</v>
+        <v>380</v>
       </c>
       <c r="E7" t="s">
         <v>1</v>
@@ -6609,235 +7284,237 @@
         <v>5</v>
       </c>
       <c r="I7" t="s">
-        <v>366</v>
+        <v>381</v>
       </c>
       <c r="J7" t="s">
-        <v>367</v>
+        <v>382</v>
       </c>
       <c r="K7" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="8" spans="4:11">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="8" spans="6:11">
       <c r="F8" t="s">
-        <v>369</v>
+        <v>384</v>
       </c>
       <c r="G8" t="s">
-        <v>370</v>
+        <v>385</v>
       </c>
       <c r="H8" t="s">
-        <v>371</v>
+        <v>386</v>
       </c>
       <c r="I8" t="s">
-        <v>372</v>
+        <v>387</v>
       </c>
       <c r="J8" t="s">
-        <v>373</v>
+        <v>388</v>
       </c>
       <c r="K8" t="s">
-        <v>374</v>
+        <v>389</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="D7:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="9.2037037037037" defaultRowHeight="13.2"/>
   <cols>
-    <col min="4" max="4" width="21.3984375" customWidth="1"/>
+    <col min="4" max="4" width="21.3981481481481" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="13.19921875" customWidth="1"/>
-    <col min="7" max="7" width="25.3984375" customWidth="1"/>
-    <col min="8" max="9" width="18.19921875" customWidth="1"/>
+    <col min="6" max="6" width="13.2037037037037" customWidth="1"/>
+    <col min="7" max="7" width="25.3981481481481" customWidth="1"/>
+    <col min="8" max="9" width="18.2037037037037" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="4:9">
       <c r="D7" t="s">
-        <v>375</v>
+        <v>390</v>
       </c>
       <c r="E7" t="s">
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>376</v>
+        <v>391</v>
       </c>
       <c r="G7" t="s">
-        <v>377</v>
+        <v>392</v>
       </c>
       <c r="H7" t="s">
-        <v>378</v>
+        <v>393</v>
       </c>
       <c r="I7" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="8" spans="4:9">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="8" spans="6:9">
       <c r="F8" t="s">
-        <v>369</v>
+        <v>384</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="H8" t="s">
-        <v>380</v>
+        <v>395</v>
       </c>
       <c r="I8" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="9" spans="4:9">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="9" spans="6:9">
       <c r="F9" t="s">
-        <v>369</v>
+        <v>384</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="H9" t="s">
-        <v>381</v>
+        <v>396</v>
       </c>
       <c r="I9" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="10" spans="4:9">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="10" spans="6:9">
       <c r="F10" t="s">
-        <v>369</v>
+        <v>384</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="H10" t="s">
-        <v>383</v>
+        <v>398</v>
       </c>
       <c r="I10" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="11" spans="6:9">
+      <c r="F11" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="11" spans="4:9">
-      <c r="F11" t="s">
-        <v>369</v>
-      </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="H11" t="s">
-        <v>385</v>
+        <v>400</v>
       </c>
       <c r="I11" t="s">
-        <v>374</v>
+        <v>389</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="D7:L9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="9.2037037037037" defaultRowHeight="13.2"/>
   <cols>
-    <col min="4" max="4" width="22.19921875" customWidth="1"/>
-    <col min="6" max="6" width="18.796875" customWidth="1"/>
-    <col min="7" max="7" width="25.796875" customWidth="1"/>
+    <col min="4" max="4" width="22.2037037037037" customWidth="1"/>
+    <col min="6" max="6" width="18.7962962962963" customWidth="1"/>
+    <col min="7" max="7" width="25.7962962962963" customWidth="1"/>
     <col min="8" max="8" width="36" customWidth="1"/>
-    <col min="9" max="9" width="22.19921875" customWidth="1"/>
-    <col min="10" max="10" width="25.796875" customWidth="1"/>
-    <col min="11" max="11" width="19.796875" customWidth="1"/>
+    <col min="9" max="9" width="22.2037037037037" customWidth="1"/>
+    <col min="10" max="10" width="25.7962962962963" customWidth="1"/>
+    <col min="11" max="11" width="19.7962962962963" customWidth="1"/>
     <col min="12" max="12" width="21" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="4:12">
       <c r="D7" t="s">
-        <v>386</v>
+        <v>401</v>
       </c>
       <c r="E7" t="s">
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>376</v>
+        <v>391</v>
       </c>
       <c r="G7" t="s">
-        <v>387</v>
+        <v>402</v>
       </c>
       <c r="H7" t="s">
-        <v>388</v>
+        <v>403</v>
       </c>
       <c r="I7" t="s">
-        <v>389</v>
+        <v>404</v>
       </c>
       <c r="J7" t="s">
-        <v>390</v>
+        <v>405</v>
       </c>
       <c r="K7" t="s">
-        <v>391</v>
+        <v>406</v>
       </c>
       <c r="L7" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="8" spans="4:12">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="8" spans="6:11">
       <c r="F8" t="s">
-        <v>369</v>
+        <v>384</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="H8" t="s">
-        <v>393</v>
+        <v>408</v>
       </c>
       <c r="I8" t="s">
-        <v>394</v>
+        <v>409</v>
       </c>
       <c r="J8" t="s">
-        <v>395</v>
+        <v>410</v>
       </c>
       <c r="K8" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="9" spans="4:12">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="9" spans="6:12">
       <c r="F9" t="s">
-        <v>397</v>
+        <v>412</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>398</v>
+        <v>413</v>
       </c>
       <c r="I9" t="s">
-        <v>399</v>
+        <v>414</v>
       </c>
       <c r="J9" t="s">
-        <v>395</v>
+        <v>410</v>
       </c>
       <c r="K9" t="s">
-        <v>400</v>
+        <v>415</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/src/main/resources/script/meta/micro-service-init-data.xlsx
+++ b/src/main/resources/script/meta/micro-service-init-data.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1121" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1119" uniqueCount="415">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -1130,9 +1130,6 @@
     <t>notify-service.online-count.getCurrentCountPerHour</t>
   </si>
   <si>
-    <t>notify-service.system-announcement.pagingQueryCompleted</t>
-  </si>
-  <si>
     <t>notify-service.mailend-record.countByDate</t>
   </si>
   <si>
@@ -1300,9 +1297,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="39">
@@ -1413,14 +1410,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1433,68 +1430,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -1518,7 +1453,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1526,9 +1483,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1548,6 +1513,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -1555,9 +1521,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1572,13 +1569,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1590,97 +1629,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1698,7 +1659,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1710,31 +1683,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1746,13 +1749,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1781,6 +1778,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1796,15 +1802,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1816,6 +1813,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1849,32 +1870,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1884,10 +1881,10 @@
     <xf numFmtId="42" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1896,133 +1893,133 @@
     <xf numFmtId="41" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3332,7 +3329,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" ht="15.6" spans="4:15">
+    <row r="8" ht="15" spans="4:15">
       <c r="D8" s="3"/>
       <c r="F8" s="9" t="s">
         <v>111</v>
@@ -3361,7 +3358,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" ht="15.6" spans="6:17">
+    <row r="9" ht="15" spans="6:17">
       <c r="F9" s="9" t="s">
         <v>116</v>
       </c>
@@ -3396,7 +3393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" ht="15.6" spans="6:17">
+    <row r="10" ht="15" spans="6:17">
       <c r="F10" s="9" t="s">
         <v>121</v>
       </c>
@@ -3431,7 +3428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" ht="15.6" spans="6:15">
+    <row r="11" ht="15" spans="6:15">
       <c r="F11" s="9" t="s">
         <v>116</v>
       </c>
@@ -3463,7 +3460,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" ht="15.6" spans="6:15">
+    <row r="12" ht="15" spans="6:15">
       <c r="F12" s="9" t="s">
         <v>121</v>
       </c>
@@ -3495,7 +3492,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" ht="15.6" spans="6:15">
+    <row r="13" ht="15" spans="6:15">
       <c r="F13" s="9" t="s">
         <v>125</v>
       </c>
@@ -3523,7 +3520,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" ht="15.6" spans="6:15">
+    <row r="14" ht="15" spans="6:15">
       <c r="F14" s="9" t="s">
         <v>128</v>
       </c>
@@ -3555,7 +3552,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" ht="15.6" spans="6:15">
+    <row r="15" ht="15" spans="6:15">
       <c r="F15" s="9" t="s">
         <v>132</v>
       </c>
@@ -3587,7 +3584,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" ht="15.6" spans="6:15">
+    <row r="16" ht="15" spans="6:15">
       <c r="F16" s="9" t="s">
         <v>136</v>
       </c>
@@ -3647,7 +3644,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" ht="15.6" spans="6:15">
+    <row r="18" ht="15" spans="6:15">
       <c r="F18" s="9" t="s">
         <v>143</v>
       </c>
@@ -3677,7 +3674,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" ht="15.6" spans="6:15">
+    <row r="19" ht="15" spans="6:15">
       <c r="F19" s="9" t="s">
         <v>146</v>
       </c>
@@ -3707,7 +3704,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" ht="15.6" spans="6:17">
+    <row r="20" ht="15" spans="6:17">
       <c r="F20" s="9" t="s">
         <v>149</v>
       </c>
@@ -3742,7 +3739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" ht="15.6" spans="6:15">
+    <row r="21" ht="15" spans="6:15">
       <c r="F21" s="9" t="s">
         <v>153</v>
       </c>
@@ -3806,7 +3803,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" ht="15.6" spans="6:15">
+    <row r="23" ht="15" spans="6:15">
       <c r="F23" s="11" t="s">
         <v>158</v>
       </c>
@@ -3834,7 +3831,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" ht="15.6" spans="6:17">
+    <row r="24" ht="15" spans="6:17">
       <c r="F24" s="11" t="s">
         <v>161</v>
       </c>
@@ -3869,7 +3866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" ht="15.6" spans="6:17">
+    <row r="25" ht="15" spans="6:17">
       <c r="F25" s="11" t="s">
         <v>165</v>
       </c>
@@ -3939,7 +3936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" ht="15.6" spans="6:17">
+    <row r="27" ht="15" spans="6:17">
       <c r="F27" s="11" t="s">
         <v>170</v>
       </c>
@@ -4006,7 +4003,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" ht="15.6" spans="6:15">
+    <row r="29" ht="15" spans="6:15">
       <c r="F29" s="11" t="s">
         <v>161</v>
       </c>
@@ -4038,7 +4035,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" ht="15.6" spans="6:15">
+    <row r="30" ht="15" spans="6:15">
       <c r="F30" s="11" t="s">
         <v>165</v>
       </c>
@@ -4102,7 +4099,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="32" ht="15.6" spans="6:15">
+    <row r="32" ht="15" spans="6:15">
       <c r="F32" s="11" t="s">
         <v>170</v>
       </c>
@@ -4134,7 +4131,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="33" ht="15.6" spans="6:15">
+    <row r="33" ht="15" spans="6:15">
       <c r="F33" s="11" t="s">
         <v>177</v>
       </c>
@@ -4162,7 +4159,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="34" ht="15.6" spans="6:15">
+    <row r="34" ht="15" spans="6:15">
       <c r="F34" s="11" t="s">
         <v>178</v>
       </c>
@@ -4194,7 +4191,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" ht="15.6" spans="6:15">
+    <row r="35" ht="15" spans="6:15">
       <c r="F35" s="11" t="s">
         <v>179</v>
       </c>
@@ -4226,7 +4223,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" ht="15.6" spans="6:15">
+    <row r="36" ht="15" spans="6:15">
       <c r="F36" s="11" t="s">
         <v>180</v>
       </c>
@@ -4256,7 +4253,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" ht="15.6" spans="6:15">
+    <row r="37" ht="15" spans="6:15">
       <c r="F37" s="13" t="s">
         <v>181</v>
       </c>
@@ -4286,7 +4283,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" ht="15.6" spans="6:15">
+    <row r="38" ht="15" spans="6:15">
       <c r="F38" s="13" t="s">
         <v>186</v>
       </c>
@@ -4318,7 +4315,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" ht="15.6" spans="6:15">
+    <row r="39" ht="15" spans="6:15">
       <c r="F39" s="13" t="s">
         <v>190</v>
       </c>
@@ -4350,7 +4347,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="40" ht="15.6" spans="6:15">
+    <row r="40" ht="15" spans="6:15">
       <c r="F40" s="13" t="s">
         <v>194</v>
       </c>
@@ -4478,7 +4475,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="44" ht="15.6" spans="6:15">
+    <row r="44" ht="15" spans="6:15">
       <c r="F44" s="15" t="s">
         <v>211</v>
       </c>
@@ -4508,7 +4505,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" ht="15.6" spans="6:15">
+    <row r="45" ht="15" spans="6:15">
       <c r="F45" s="15" t="s">
         <v>216</v>
       </c>
@@ -4540,7 +4537,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="46" ht="15.6" spans="6:15">
+    <row r="46" ht="15" spans="6:15">
       <c r="F46" s="15" t="s">
         <v>219</v>
       </c>
@@ -4568,7 +4565,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="47" ht="15.6" spans="6:15">
+    <row r="47" ht="15" spans="6:15">
       <c r="F47" s="15" t="s">
         <v>220</v>
       </c>
@@ -4630,7 +4627,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" ht="15.6" spans="6:15">
+    <row r="49" ht="15" spans="6:15">
       <c r="F49" s="15" t="s">
         <v>225</v>
       </c>
@@ -4656,7 +4653,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="50" ht="15.6" spans="6:15">
+    <row r="50" ht="15" spans="6:15">
       <c r="F50" s="15" t="s">
         <v>228</v>
       </c>
@@ -4701,10 +4698,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="D7:I170"/>
+  <dimension ref="D7:I169"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="A145" workbookViewId="0">
-      <selection activeCell="F155" sqref="F155"/>
+      <selection activeCell="G157" sqref="G157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
@@ -4737,7 +4734,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="8" ht="15.6" spans="4:9">
+    <row r="8" ht="15" spans="4:9">
       <c r="D8" s="3"/>
       <c r="F8" s="6" t="s">
         <v>116</v>
@@ -4749,7 +4746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" ht="15.6" spans="6:9">
+    <row r="9" ht="15" spans="6:9">
       <c r="F9" s="6" t="s">
         <v>116</v>
       </c>
@@ -4760,7 +4757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" ht="15.6" spans="6:9">
+    <row r="10" ht="15" spans="6:9">
       <c r="F10" s="6" t="s">
         <v>116</v>
       </c>
@@ -4771,7 +4768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" ht="15.6" spans="6:9">
+    <row r="11" ht="15" spans="6:9">
       <c r="F11" s="6" t="s">
         <v>116</v>
       </c>
@@ -4782,7 +4779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" ht="15.6" spans="6:9">
+    <row r="12" ht="15" spans="6:9">
       <c r="F12" s="6" t="s">
         <v>116</v>
       </c>
@@ -4793,7 +4790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" ht="15.6" spans="6:9">
+    <row r="13" ht="15" spans="6:9">
       <c r="F13" s="6" t="s">
         <v>121</v>
       </c>
@@ -4804,7 +4801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" ht="15.6" spans="6:9">
+    <row r="14" ht="15" spans="6:9">
       <c r="F14" s="6" t="s">
         <v>121</v>
       </c>
@@ -4815,7 +4812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" ht="15.6" spans="6:9">
+    <row r="15" ht="15" spans="6:9">
       <c r="F15" s="6" t="s">
         <v>121</v>
       </c>
@@ -4826,7 +4823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" ht="15.6" spans="6:9">
+    <row r="16" ht="15" spans="6:9">
       <c r="F16" s="6" t="s">
         <v>121</v>
       </c>
@@ -4837,7 +4834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" ht="15.6" spans="6:9">
+    <row r="17" ht="15" spans="6:9">
       <c r="F17" s="6" t="s">
         <v>121</v>
       </c>
@@ -4848,7 +4845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" ht="15.6" spans="6:9">
+    <row r="18" ht="15" spans="6:9">
       <c r="F18" s="6" t="s">
         <v>121</v>
       </c>
@@ -4859,7 +4856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" ht="15.6" spans="6:9">
+    <row r="19" ht="15" spans="6:9">
       <c r="F19" s="6" t="s">
         <v>121</v>
       </c>
@@ -4870,7 +4867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" ht="15.6" spans="6:9">
+    <row r="20" ht="15" spans="6:9">
       <c r="F20" s="6" t="s">
         <v>121</v>
       </c>
@@ -4881,7 +4878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" ht="15.6" spans="6:9">
+    <row r="21" ht="15" spans="6:9">
       <c r="F21" s="6" t="s">
         <v>121</v>
       </c>
@@ -4892,7 +4889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" ht="15.6" spans="6:9">
+    <row r="22" ht="15" spans="6:9">
       <c r="F22" s="6" t="s">
         <v>121</v>
       </c>
@@ -4903,7 +4900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" ht="15.6" spans="6:9">
+    <row r="23" ht="15" spans="6:9">
       <c r="F23" s="6" t="s">
         <v>121</v>
       </c>
@@ -4914,7 +4911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" ht="15.6" spans="6:9">
+    <row r="24" ht="15" spans="6:9">
       <c r="F24" s="6" t="s">
         <v>121</v>
       </c>
@@ -4925,7 +4922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" ht="15.6" spans="6:9">
+    <row r="25" ht="15" spans="6:9">
       <c r="F25" s="6" t="s">
         <v>121</v>
       </c>
@@ -4936,7 +4933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" ht="15.6" spans="6:9">
+    <row r="26" ht="15" spans="6:9">
       <c r="F26" s="6" t="s">
         <v>121</v>
       </c>
@@ -4947,7 +4944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" ht="15.6" spans="6:9">
+    <row r="27" ht="15" spans="6:9">
       <c r="F27" s="6" t="s">
         <v>121</v>
       </c>
@@ -4958,7 +4955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" ht="15.6" spans="6:9">
+    <row r="28" ht="15" spans="6:9">
       <c r="F28" s="6" t="s">
         <v>121</v>
       </c>
@@ -4969,7 +4966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" ht="15.6" spans="6:9">
+    <row r="29" ht="15" spans="6:9">
       <c r="F29" s="6" t="s">
         <v>121</v>
       </c>
@@ -4980,7 +4977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" ht="15.6" spans="6:9">
+    <row r="30" ht="15" spans="6:9">
       <c r="F30" s="6" t="s">
         <v>121</v>
       </c>
@@ -4991,7 +4988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" ht="15.6" spans="6:9">
+    <row r="31" ht="15" spans="6:9">
       <c r="F31" s="6" t="s">
         <v>121</v>
       </c>
@@ -5002,7 +4999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" ht="15.6" spans="6:9">
+    <row r="32" ht="15" spans="6:9">
       <c r="F32" s="6" t="s">
         <v>128</v>
       </c>
@@ -5013,7 +5010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" ht="15.6" spans="6:9">
+    <row r="33" ht="15" spans="6:9">
       <c r="F33" s="6" t="s">
         <v>136</v>
       </c>
@@ -5024,7 +5021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" ht="15.6" spans="6:9">
+    <row r="34" ht="15" spans="6:9">
       <c r="F34" s="6" t="s">
         <v>136</v>
       </c>
@@ -5035,7 +5032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" ht="15.6" spans="6:9">
+    <row r="35" ht="15" spans="6:9">
       <c r="F35" s="6" t="s">
         <v>136</v>
       </c>
@@ -5046,7 +5043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" ht="15.6" spans="6:9">
+    <row r="36" ht="15" spans="6:9">
       <c r="F36" s="6" t="s">
         <v>140</v>
       </c>
@@ -5057,7 +5054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" ht="15.6" spans="6:9">
+    <row r="37" ht="15" spans="6:9">
       <c r="F37" s="6" t="s">
         <v>140</v>
       </c>
@@ -5068,7 +5065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" ht="15.6" spans="6:9">
+    <row r="38" ht="15" spans="6:9">
       <c r="F38" s="6" t="s">
         <v>140</v>
       </c>
@@ -5079,7 +5076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" ht="15.6" spans="6:9">
+    <row r="39" ht="15" spans="6:9">
       <c r="F39" s="6" t="s">
         <v>140</v>
       </c>
@@ -5090,7 +5087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" ht="15.6" spans="6:9">
+    <row r="40" ht="15" spans="6:9">
       <c r="F40" s="6" t="s">
         <v>140</v>
       </c>
@@ -5101,7 +5098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" ht="15.6" spans="6:9">
+    <row r="41" ht="15" spans="6:9">
       <c r="F41" s="6" t="s">
         <v>140</v>
       </c>
@@ -5112,7 +5109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" ht="15.6" spans="6:9">
+    <row r="42" ht="15" spans="6:9">
       <c r="F42" s="6" t="s">
         <v>140</v>
       </c>
@@ -5123,7 +5120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" ht="15.6" spans="6:9">
+    <row r="43" ht="15" spans="6:9">
       <c r="F43" s="6" t="s">
         <v>140</v>
       </c>
@@ -5134,7 +5131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" ht="15.6" spans="6:9">
+    <row r="44" ht="15" spans="6:9">
       <c r="F44" s="6" t="s">
         <v>140</v>
       </c>
@@ -5145,7 +5142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" ht="15.6" spans="6:9">
+    <row r="45" ht="15" spans="6:9">
       <c r="F45" s="6" t="s">
         <v>143</v>
       </c>
@@ -5156,7 +5153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" ht="15.6" spans="6:9">
+    <row r="46" ht="15" spans="6:9">
       <c r="F46" s="6" t="s">
         <v>143</v>
       </c>
@@ -5167,7 +5164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" ht="15.6" spans="6:9">
+    <row r="47" ht="15" spans="6:9">
       <c r="F47" s="6" t="s">
         <v>143</v>
       </c>
@@ -5178,7 +5175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" ht="15.6" spans="6:9">
+    <row r="48" ht="15" spans="6:9">
       <c r="F48" s="6" t="s">
         <v>143</v>
       </c>
@@ -5189,7 +5186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" ht="15.6" spans="6:9">
+    <row r="49" ht="15" spans="6:9">
       <c r="F49" s="6" t="s">
         <v>143</v>
       </c>
@@ -5200,7 +5197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" ht="15.6" spans="6:9">
+    <row r="50" ht="15" spans="6:9">
       <c r="F50" s="6" t="s">
         <v>143</v>
       </c>
@@ -5211,7 +5208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" ht="15.6" spans="6:9">
+    <row r="51" ht="15" spans="6:9">
       <c r="F51" s="6" t="s">
         <v>132</v>
       </c>
@@ -5222,7 +5219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" ht="15.6" spans="6:9">
+    <row r="52" ht="15" spans="6:9">
       <c r="F52" s="6" t="s">
         <v>146</v>
       </c>
@@ -5233,7 +5230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" ht="15.6" spans="6:9">
+    <row r="53" ht="15" spans="6:9">
       <c r="F53" s="6" t="s">
         <v>146</v>
       </c>
@@ -5244,7 +5241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" ht="15.6" spans="6:9">
+    <row r="54" ht="15" spans="6:9">
       <c r="F54" s="6" t="s">
         <v>146</v>
       </c>
@@ -5255,7 +5252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" ht="15.6" spans="6:9">
+    <row r="55" ht="15" spans="6:9">
       <c r="F55" s="6" t="s">
         <v>153</v>
       </c>
@@ -5266,7 +5263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" ht="15.6" spans="6:9">
+    <row r="56" ht="15" spans="6:9">
       <c r="F56" s="6" t="s">
         <v>153</v>
       </c>
@@ -5277,7 +5274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" ht="15.6" spans="6:9">
+    <row r="57" ht="15" spans="6:9">
       <c r="F57" s="6" t="s">
         <v>153</v>
       </c>
@@ -5288,7 +5285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" ht="15.6" spans="6:9">
+    <row r="58" ht="15" spans="6:9">
       <c r="F58" s="6" t="s">
         <v>153</v>
       </c>
@@ -5299,7 +5296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" ht="15.6" spans="6:9">
+    <row r="59" ht="15" spans="6:9">
       <c r="F59" s="6" t="s">
         <v>153</v>
       </c>
@@ -5310,7 +5307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" ht="15.6" spans="6:9">
+    <row r="60" ht="15" spans="6:9">
       <c r="F60" s="6" t="s">
         <v>153</v>
       </c>
@@ -5321,7 +5318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" ht="15.6" spans="6:9">
+    <row r="61" ht="15" spans="6:9">
       <c r="F61" s="6" t="s">
         <v>153</v>
       </c>
@@ -5332,7 +5329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" ht="15.6" spans="6:9">
+    <row r="62" ht="15" spans="6:9">
       <c r="F62" s="6" t="s">
         <v>153</v>
       </c>
@@ -5343,7 +5340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" ht="15.6" spans="6:9">
+    <row r="63" ht="15" spans="6:9">
       <c r="F63" s="6" t="s">
         <v>153</v>
       </c>
@@ -5354,7 +5351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" ht="15.6" spans="6:9">
+    <row r="64" ht="15" spans="6:9">
       <c r="F64" s="6" t="s">
         <v>161</v>
       </c>
@@ -5365,7 +5362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" ht="15.6" spans="6:9">
+    <row r="65" ht="15" spans="6:9">
       <c r="F65" s="6" t="s">
         <v>161</v>
       </c>
@@ -5376,7 +5373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" ht="15.6" spans="6:9">
+    <row r="66" ht="15" spans="6:9">
       <c r="F66" s="6" t="s">
         <v>161</v>
       </c>
@@ -5387,7 +5384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" ht="15.6" spans="6:9">
+    <row r="67" ht="15" spans="6:9">
       <c r="F67" s="6" t="s">
         <v>161</v>
       </c>
@@ -5398,7 +5395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" ht="15.6" spans="6:9">
+    <row r="68" ht="15" spans="6:9">
       <c r="F68" s="6" t="s">
         <v>165</v>
       </c>
@@ -5409,7 +5406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" ht="15.6" spans="6:9">
+    <row r="69" ht="15" spans="6:9">
       <c r="F69" s="6" t="s">
         <v>165</v>
       </c>
@@ -5420,7 +5417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" ht="15.6" spans="6:9">
+    <row r="70" ht="15" spans="6:9">
       <c r="F70" s="6" t="s">
         <v>165</v>
       </c>
@@ -5431,7 +5428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" ht="15.6" spans="6:9">
+    <row r="71" ht="15" spans="6:9">
       <c r="F71" s="6" t="s">
         <v>165</v>
       </c>
@@ -5442,7 +5439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" ht="15.6" spans="6:9">
+    <row r="72" ht="15" spans="6:9">
       <c r="F72" s="6" t="s">
         <v>165</v>
       </c>
@@ -5453,7 +5450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" ht="15.6" spans="6:9">
+    <row r="73" ht="15" spans="6:9">
       <c r="F73" s="6" t="s">
         <v>165</v>
       </c>
@@ -5464,7 +5461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" ht="15.6" spans="6:9">
+    <row r="74" ht="15" spans="6:9">
       <c r="F74" s="6" t="s">
         <v>165</v>
       </c>
@@ -5475,7 +5472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" ht="15.6" spans="6:9">
+    <row r="75" ht="15" spans="6:9">
       <c r="F75" s="6" t="s">
         <v>165</v>
       </c>
@@ -5486,7 +5483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" ht="15.6" spans="6:9">
+    <row r="76" ht="15" spans="6:9">
       <c r="F76" s="6" t="s">
         <v>165</v>
       </c>
@@ -5497,7 +5494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" ht="15.6" spans="6:9">
+    <row r="77" ht="15" spans="6:9">
       <c r="F77" s="6" t="s">
         <v>165</v>
       </c>
@@ -5508,7 +5505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" ht="15.6" spans="6:9">
+    <row r="78" ht="15" spans="6:9">
       <c r="F78" s="6" t="s">
         <v>165</v>
       </c>
@@ -5519,7 +5516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" ht="15.6" spans="6:9">
+    <row r="79" ht="15" spans="6:9">
       <c r="F79" s="6" t="s">
         <v>165</v>
       </c>
@@ -5530,7 +5527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" ht="15.6" spans="6:9">
+    <row r="80" ht="15" spans="6:9">
       <c r="F80" s="6" t="s">
         <v>165</v>
       </c>
@@ -5541,7 +5538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" ht="15.6" spans="6:9">
+    <row r="81" ht="15" spans="6:9">
       <c r="F81" s="6" t="s">
         <v>165</v>
       </c>
@@ -5552,7 +5549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" ht="15.6" spans="6:9">
+    <row r="82" ht="15" spans="6:9">
       <c r="F82" s="6" t="s">
         <v>166</v>
       </c>
@@ -5563,7 +5560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" ht="15.6" spans="6:9">
+    <row r="83" ht="15" spans="6:9">
       <c r="F83" s="6" t="s">
         <v>166</v>
       </c>
@@ -5574,7 +5571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" ht="15.6" spans="6:9">
+    <row r="84" ht="15" spans="6:9">
       <c r="F84" s="6" t="s">
         <v>166</v>
       </c>
@@ -5585,7 +5582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" ht="15.6" spans="6:9">
+    <row r="85" ht="15" spans="6:9">
       <c r="F85" s="6" t="s">
         <v>166</v>
       </c>
@@ -5596,7 +5593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" ht="15.6" spans="6:9">
+    <row r="86" ht="15" spans="6:9">
       <c r="F86" s="6" t="s">
         <v>166</v>
       </c>
@@ -5607,7 +5604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" ht="15.6" spans="6:9">
+    <row r="87" ht="15" spans="6:9">
       <c r="F87" s="6" t="s">
         <v>166</v>
       </c>
@@ -5618,7 +5615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" ht="15.6" spans="6:9">
+    <row r="88" ht="15" spans="6:9">
       <c r="F88" s="6" t="s">
         <v>166</v>
       </c>
@@ -5629,7 +5626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" ht="15.6" spans="6:9">
+    <row r="89" ht="15" spans="6:9">
       <c r="F89" s="6" t="s">
         <v>166</v>
       </c>
@@ -5640,7 +5637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" ht="15.6" spans="6:9">
+    <row r="90" ht="15" spans="6:9">
       <c r="F90" s="6" t="s">
         <v>166</v>
       </c>
@@ -5651,7 +5648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" ht="15.6" spans="6:9">
+    <row r="91" ht="15" spans="6:9">
       <c r="F91" s="6" t="s">
         <v>166</v>
       </c>
@@ -5662,7 +5659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" ht="15.6" spans="6:9">
+    <row r="92" ht="15" spans="6:9">
       <c r="F92" s="6" t="s">
         <v>166</v>
       </c>
@@ -5673,7 +5670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" ht="15.6" spans="6:9">
+    <row r="93" ht="15" spans="6:9">
       <c r="F93" s="6" t="s">
         <v>170</v>
       </c>
@@ -5684,7 +5681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" ht="15.6" spans="6:9">
+    <row r="94" ht="15" spans="6:9">
       <c r="F94" s="6" t="s">
         <v>170</v>
       </c>
@@ -5695,7 +5692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" ht="15.6" spans="6:9">
+    <row r="95" ht="15" spans="6:9">
       <c r="F95" s="6" t="s">
         <v>170</v>
       </c>
@@ -5706,7 +5703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" ht="15.6" spans="6:9">
+    <row r="96" ht="15" spans="6:9">
       <c r="F96" s="6" t="s">
         <v>170</v>
       </c>
@@ -5717,7 +5714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" ht="15.6" spans="6:9">
+    <row r="97" ht="15" spans="6:9">
       <c r="F97" s="6" t="s">
         <v>178</v>
       </c>
@@ -5728,7 +5725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" ht="15.6" spans="6:9">
+    <row r="98" ht="15" spans="6:9">
       <c r="F98" s="6" t="s">
         <v>178</v>
       </c>
@@ -5739,7 +5736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" ht="15.6" spans="6:9">
+    <row r="99" ht="15" spans="6:9">
       <c r="F99" s="6" t="s">
         <v>178</v>
       </c>
@@ -5750,7 +5747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" ht="15.6" spans="6:9">
+    <row r="100" ht="15" spans="6:9">
       <c r="F100" s="6" t="s">
         <v>179</v>
       </c>
@@ -5761,7 +5758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" ht="15.6" spans="6:9">
+    <row r="101" ht="15" spans="6:9">
       <c r="F101" s="6" t="s">
         <v>180</v>
       </c>
@@ -5772,7 +5769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" ht="15.6" spans="6:9">
+    <row r="102" ht="15" spans="6:9">
       <c r="F102" s="6" t="s">
         <v>180</v>
       </c>
@@ -5783,7 +5780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" ht="15.6" spans="6:9">
+    <row r="103" ht="15" spans="6:9">
       <c r="F103" s="6" t="s">
         <v>186</v>
       </c>
@@ -5794,7 +5791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" ht="15.6" spans="6:9">
+    <row r="104" ht="15" spans="6:9">
       <c r="F104" s="6" t="s">
         <v>186</v>
       </c>
@@ -5805,7 +5802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" ht="15.6" spans="6:9">
+    <row r="105" ht="15" spans="6:9">
       <c r="F105" s="6" t="s">
         <v>186</v>
       </c>
@@ -5816,7 +5813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" ht="15.6" spans="6:9">
+    <row r="106" ht="15" spans="6:9">
       <c r="F106" s="6" t="s">
         <v>186</v>
       </c>
@@ -5827,7 +5824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" ht="15.6" spans="6:9">
+    <row r="107" ht="15" spans="6:9">
       <c r="F107" s="6" t="s">
         <v>186</v>
       </c>
@@ -5838,7 +5835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" ht="15.6" spans="6:9">
+    <row r="108" ht="15" spans="6:9">
       <c r="F108" s="6" t="s">
         <v>190</v>
       </c>
@@ -5849,7 +5846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" ht="15.6" spans="6:9">
+    <row r="109" ht="15" spans="6:9">
       <c r="F109" s="6" t="s">
         <v>190</v>
       </c>
@@ -5860,7 +5857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" ht="15.6" spans="6:9">
+    <row r="110" ht="15" spans="6:9">
       <c r="F110" s="6" t="s">
         <v>194</v>
       </c>
@@ -5871,7 +5868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" ht="15.6" spans="6:9">
+    <row r="111" ht="15" spans="6:9">
       <c r="F111" s="6" t="s">
         <v>194</v>
       </c>
@@ -5882,7 +5879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" ht="15.6" spans="6:9">
+    <row r="112" ht="15" spans="6:9">
       <c r="F112" s="6" t="s">
         <v>194</v>
       </c>
@@ -5893,7 +5890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" ht="15.6" spans="6:9">
+    <row r="113" ht="15" spans="6:9">
       <c r="F113" s="6" t="s">
         <v>216</v>
       </c>
@@ -5904,7 +5901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" ht="15.6" spans="6:9">
+    <row r="114" ht="15" spans="6:9">
       <c r="F114" s="6" t="s">
         <v>216</v>
       </c>
@@ -5915,7 +5912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" ht="15.6" spans="6:9">
+    <row r="115" ht="15" spans="6:9">
       <c r="F115" s="6" t="s">
         <v>216</v>
       </c>
@@ -5926,7 +5923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" ht="15.6" spans="6:9">
+    <row r="116" ht="15" spans="6:9">
       <c r="F116" s="6" t="s">
         <v>216</v>
       </c>
@@ -5937,7 +5934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" ht="15.6" spans="6:9">
+    <row r="117" ht="15" spans="6:9">
       <c r="F117" s="6" t="s">
         <v>216</v>
       </c>
@@ -5948,7 +5945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" ht="15.6" spans="6:9">
+    <row r="118" ht="15" spans="6:9">
       <c r="F118" s="6" t="s">
         <v>216</v>
       </c>
@@ -5959,7 +5956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" ht="15.6" spans="6:9">
+    <row r="119" ht="15" spans="6:9">
       <c r="F119" s="6" t="s">
         <v>216</v>
       </c>
@@ -5970,7 +5967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" ht="15.6" spans="6:9">
+    <row r="120" ht="15" spans="6:9">
       <c r="F120" s="6" t="s">
         <v>216</v>
       </c>
@@ -5981,7 +5978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" ht="15.6" spans="6:9">
+    <row r="121" ht="15" spans="6:9">
       <c r="F121" s="6" t="s">
         <v>216</v>
       </c>
@@ -5992,7 +5989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" ht="15.6" spans="6:9">
+    <row r="122" ht="15" spans="6:9">
       <c r="F122" s="6" t="s">
         <v>220</v>
       </c>
@@ -6003,7 +6000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" ht="15.6" spans="6:9">
+    <row r="123" ht="15" spans="6:9">
       <c r="F123" s="6" t="s">
         <v>222</v>
       </c>
@@ -6014,7 +6011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" ht="15.6" spans="6:9">
+    <row r="124" ht="15" spans="6:9">
       <c r="F124" s="6" t="s">
         <v>222</v>
       </c>
@@ -6025,7 +6022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" ht="15.6" spans="6:9">
+    <row r="125" ht="15" spans="6:9">
       <c r="F125" s="6" t="s">
         <v>222</v>
       </c>
@@ -6036,7 +6033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" ht="15.6" spans="6:9">
+    <row r="126" ht="15" spans="6:9">
       <c r="F126" s="6" t="s">
         <v>222</v>
       </c>
@@ -6047,7 +6044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" ht="15.6" spans="6:9">
+    <row r="127" ht="15" spans="6:9">
       <c r="F127" s="6" t="s">
         <v>228</v>
       </c>
@@ -6058,7 +6055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" ht="15.6" spans="6:9">
+    <row r="128" ht="15" spans="6:9">
       <c r="F128" s="6" t="s">
         <v>228</v>
       </c>
@@ -6069,7 +6066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" ht="15.6" spans="6:9">
+    <row r="129" ht="15" spans="6:9">
       <c r="F129" s="6" t="s">
         <v>216</v>
       </c>
@@ -6080,7 +6077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" ht="15.6" spans="6:9">
+    <row r="130" ht="15" spans="6:9">
       <c r="F130" s="6" t="s">
         <v>228</v>
       </c>
@@ -6091,7 +6088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" ht="15.6" spans="6:9">
+    <row r="131" ht="15" spans="6:9">
       <c r="F131" s="6" t="s">
         <v>198</v>
       </c>
@@ -6102,7 +6099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" ht="15.6" spans="6:9">
+    <row r="132" ht="15" spans="6:9">
       <c r="F132" s="6" t="s">
         <v>198</v>
       </c>
@@ -6113,7 +6110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" ht="15.6" spans="6:9">
+    <row r="133" ht="15" spans="6:9">
       <c r="F133" s="6" t="s">
         <v>198</v>
       </c>
@@ -6124,7 +6121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" ht="15.6" spans="6:9">
+    <row r="134" ht="15" spans="6:9">
       <c r="F134" s="6" t="s">
         <v>198</v>
       </c>
@@ -6135,7 +6132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" ht="15.6" spans="6:9">
+    <row r="135" ht="15" spans="6:9">
       <c r="F135" s="6" t="s">
         <v>198</v>
       </c>
@@ -6146,7 +6143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" ht="15.6" spans="6:9">
+    <row r="136" ht="15" spans="6:9">
       <c r="F136" s="6" t="s">
         <v>198</v>
       </c>
@@ -6157,7 +6154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" ht="15.6" spans="6:9">
+    <row r="137" ht="15" spans="6:9">
       <c r="F137" s="6" t="s">
         <v>203</v>
       </c>
@@ -6168,7 +6165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" ht="15.6" spans="6:9">
+    <row r="138" ht="15" spans="6:9">
       <c r="F138" s="6" t="s">
         <v>203</v>
       </c>
@@ -6179,7 +6176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" ht="15.6" spans="6:9">
+    <row r="139" ht="15" spans="6:9">
       <c r="F139" s="6" t="s">
         <v>203</v>
       </c>
@@ -6190,7 +6187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" ht="15.6" spans="6:9">
+    <row r="140" ht="15" spans="6:9">
       <c r="F140" s="6" t="s">
         <v>203</v>
       </c>
@@ -6201,7 +6198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" ht="15.6" spans="6:9">
+    <row r="141" ht="15" spans="6:9">
       <c r="F141" s="6" t="s">
         <v>203</v>
       </c>
@@ -6212,7 +6209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" ht="15.6" spans="6:9">
+    <row r="142" ht="15" spans="6:9">
       <c r="F142" s="6" t="s">
         <v>203</v>
       </c>
@@ -6223,7 +6220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" ht="15.6" spans="6:9">
+    <row r="143" ht="15" spans="6:9">
       <c r="F143" s="6" t="s">
         <v>203</v>
       </c>
@@ -6234,7 +6231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" ht="15.6" spans="6:9">
+    <row r="144" ht="15" spans="6:9">
       <c r="F144" s="6" t="s">
         <v>207</v>
       </c>
@@ -6245,7 +6242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" ht="15.6" spans="6:9">
+    <row r="145" ht="15" spans="6:9">
       <c r="F145" s="6" t="s">
         <v>207</v>
       </c>
@@ -6256,7 +6253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" ht="15.6" spans="6:9">
+    <row r="146" ht="15" spans="6:9">
       <c r="F146" s="6" t="s">
         <v>207</v>
       </c>
@@ -6267,7 +6264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" ht="15.6" spans="6:9">
+    <row r="147" ht="15" spans="6:9">
       <c r="F147" s="6" t="s">
         <v>207</v>
       </c>
@@ -6278,7 +6275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" ht="15.6" spans="6:9">
+    <row r="148" ht="15" spans="6:9">
       <c r="F148" s="6" t="s">
         <v>207</v>
       </c>
@@ -6289,7 +6286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" ht="15.6" spans="6:9">
+    <row r="149" ht="15" spans="6:9">
       <c r="F149" s="6" t="s">
         <v>207</v>
       </c>
@@ -6300,7 +6297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" ht="15.6" spans="6:9">
+    <row r="150" ht="15" spans="6:9">
       <c r="F150" s="6" t="s">
         <v>207</v>
       </c>
@@ -6311,7 +6308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" ht="15.6" spans="6:9">
+    <row r="151" ht="15" spans="6:9">
       <c r="F151" s="6" t="s">
         <v>207</v>
       </c>
@@ -6322,7 +6319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" ht="15.6" spans="6:9">
+    <row r="152" ht="15" spans="6:9">
       <c r="F152" s="6" t="s">
         <v>154</v>
       </c>
@@ -6333,7 +6330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" ht="15.6" spans="6:9">
+    <row r="153" ht="15" spans="6:9">
       <c r="F153" s="6" t="s">
         <v>154</v>
       </c>
@@ -6432,7 +6429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" ht="15.6" spans="6:9">
+    <row r="162" ht="15" spans="6:9">
       <c r="F162" s="6" t="s">
         <v>174</v>
       </c>
@@ -6443,64 +6440,74 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" ht="15.6" spans="6:7">
+    <row r="163" ht="15" spans="6:9">
       <c r="F163" s="6" t="s">
         <v>174</v>
       </c>
       <c r="G163" s="6" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="164" ht="15.6" spans="6:7">
+      <c r="I163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" ht="15" spans="6:9">
       <c r="F164" s="6" t="s">
         <v>174</v>
       </c>
       <c r="G164" s="6" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="165" ht="15.6" spans="6:7">
+      <c r="I164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" ht="15" spans="6:9">
       <c r="F165" s="6" t="s">
         <v>174</v>
       </c>
       <c r="G165" s="6" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="166" ht="15.6" spans="6:7">
+        <v>358</v>
+      </c>
+      <c r="I165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" ht="15" spans="6:9">
       <c r="F166" s="6" t="s">
         <v>174</v>
       </c>
       <c r="G166" s="6" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="167" ht="15.6" spans="6:7">
+        <v>361</v>
+      </c>
+      <c r="I166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" ht="15" spans="6:9">
       <c r="F167" s="6" t="s">
         <v>174</v>
       </c>
       <c r="G167" s="6" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="168" ht="15.6" spans="6:7">
+      <c r="I167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" ht="15" spans="6:9">
       <c r="F168" s="6" t="s">
         <v>174</v>
       </c>
       <c r="G168" s="6" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="169" ht="15.6" spans="6:7">
-      <c r="F169" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="G169" s="6" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="170" ht="15.6" spans="7:7">
-      <c r="G170" s="6"/>
+      <c r="I168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" ht="15" spans="7:7">
+      <c r="G169" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -6534,13 +6541,13 @@
   <sheetData>
     <row r="7" spans="4:7">
       <c r="D7" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>365</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>366</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>233</v>
@@ -6548,7 +6555,7 @@
     </row>
     <row r="8" ht="15.6" spans="6:7">
       <c r="F8" s="5" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>12</v>
@@ -6556,7 +6563,7 @@
     </row>
     <row r="9" ht="15.6" spans="6:7">
       <c r="F9" s="5" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>18</v>
@@ -6564,7 +6571,7 @@
     </row>
     <row r="10" ht="15.6" spans="6:7">
       <c r="F10" s="5" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>21</v>
@@ -6572,7 +6579,7 @@
     </row>
     <row r="11" ht="15.6" spans="6:7">
       <c r="F11" s="5" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>24</v>
@@ -6580,7 +6587,7 @@
     </row>
     <row r="12" ht="15.6" spans="6:7">
       <c r="F12" s="5" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>27</v>
@@ -6588,7 +6595,7 @@
     </row>
     <row r="13" ht="15.6" spans="6:7">
       <c r="F13" s="5" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>30</v>
@@ -6596,7 +6603,7 @@
     </row>
     <row r="14" ht="15.6" spans="6:7">
       <c r="F14" s="5" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>33</v>
@@ -6604,7 +6611,7 @@
     </row>
     <row r="15" ht="15.6" spans="6:7">
       <c r="F15" s="5" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G15" s="5" t="s">
         <v>36</v>
@@ -6612,7 +6619,7 @@
     </row>
     <row r="16" ht="15.6" spans="6:7">
       <c r="F16" s="5" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>39</v>
@@ -6620,7 +6627,7 @@
     </row>
     <row r="17" ht="15.6" spans="6:7">
       <c r="F17" s="5" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>42</v>
@@ -6628,7 +6635,7 @@
     </row>
     <row r="18" ht="15.6" spans="6:7">
       <c r="F18" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G18" s="5" t="s">
         <v>45</v>
@@ -6636,7 +6643,7 @@
     </row>
     <row r="19" ht="15.6" spans="6:7">
       <c r="F19" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G19" s="5" t="s">
         <v>49</v>
@@ -6644,7 +6651,7 @@
     </row>
     <row r="20" ht="15.6" spans="6:7">
       <c r="F20" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G20" s="5" t="s">
         <v>52</v>
@@ -6652,7 +6659,7 @@
     </row>
     <row r="21" ht="15.6" spans="6:7">
       <c r="F21" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G21" s="5" t="s">
         <v>55</v>
@@ -6660,7 +6667,7 @@
     </row>
     <row r="22" ht="15.6" spans="6:7">
       <c r="F22" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G22" s="5" t="s">
         <v>58</v>
@@ -6668,7 +6675,7 @@
     </row>
     <row r="23" ht="15.6" spans="6:7">
       <c r="F23" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G23" s="5" t="s">
         <v>61</v>
@@ -6676,7 +6683,7 @@
     </row>
     <row r="24" ht="15.6" spans="6:7">
       <c r="F24" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G24" s="5" t="s">
         <v>64</v>
@@ -6684,7 +6691,7 @@
     </row>
     <row r="25" ht="15.6" spans="6:7">
       <c r="F25" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G25" s="5" t="s">
         <v>76</v>
@@ -6692,7 +6699,7 @@
     </row>
     <row r="26" ht="15.6" spans="6:7">
       <c r="F26" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G26" s="5" t="s">
         <v>79</v>
@@ -6700,7 +6707,7 @@
     </row>
     <row r="27" ht="15.6" spans="6:7">
       <c r="F27" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G27" s="5" t="s">
         <v>82</v>
@@ -6708,7 +6715,7 @@
     </row>
     <row r="28" ht="15.6" spans="6:7">
       <c r="F28" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G28" s="5" t="s">
         <v>85</v>
@@ -6716,7 +6723,7 @@
     </row>
     <row r="29" ht="15.6" spans="6:7">
       <c r="F29" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G29" s="5" t="s">
         <v>88</v>
@@ -6724,7 +6731,7 @@
     </row>
     <row r="30" ht="15.6" spans="6:7">
       <c r="F30" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G30" s="5" t="s">
         <v>92</v>
@@ -6732,7 +6739,7 @@
     </row>
     <row r="31" ht="15.6" spans="6:7">
       <c r="F31" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G31" s="5" t="s">
         <v>95</v>
@@ -6740,7 +6747,7 @@
     </row>
     <row r="32" ht="15.6" spans="6:7">
       <c r="F32" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G32" s="5" t="s">
         <v>98</v>
@@ -6748,7 +6755,7 @@
     </row>
     <row r="33" ht="15.6" spans="6:7">
       <c r="F33" s="5" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="G33" s="5" t="s">
         <v>98</v>
@@ -6787,19 +6794,19 @@
     <row r="6" ht="13.95"/>
     <row r="7" ht="19" customHeight="1" spans="4:9">
       <c r="D7" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>371</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>372</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>232</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>11</v>
@@ -6807,7 +6814,7 @@
     </row>
     <row r="8" spans="6:8">
       <c r="F8" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>216</v>
@@ -6818,7 +6825,7 @@
     </row>
     <row r="9" spans="6:8">
       <c r="F9" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>220</v>
@@ -6829,7 +6836,7 @@
     </row>
     <row r="10" spans="6:8">
       <c r="F10" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>222</v>
@@ -6840,7 +6847,7 @@
     </row>
     <row r="11" spans="6:8">
       <c r="F11" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>228</v>
@@ -6851,7 +6858,7 @@
     </row>
     <row r="12" spans="6:8">
       <c r="F12" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>216</v>
@@ -6862,7 +6869,7 @@
     </row>
     <row r="13" spans="6:8">
       <c r="F13" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>220</v>
@@ -6873,7 +6880,7 @@
     </row>
     <row r="14" spans="6:8">
       <c r="F14" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>222</v>
@@ -6884,96 +6891,96 @@
     </row>
     <row r="15" spans="6:8">
       <c r="F15" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>216</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="16" spans="6:8">
       <c r="F16" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>220</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="17" spans="6:8">
       <c r="F17" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>222</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="18" spans="6:8">
       <c r="F18" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>228</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="19" spans="6:8">
       <c r="F19" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>216</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="20" spans="6:8">
       <c r="F20" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>220</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="21" spans="6:8">
       <c r="F21" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>222</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="22" spans="6:8">
       <c r="F22" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>228</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="23" spans="4:8">
       <c r="D23" s="2"/>
       <c r="F23" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>116</v>
@@ -6984,7 +6991,7 @@
     </row>
     <row r="24" spans="6:8">
       <c r="F24" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>121</v>
@@ -6995,7 +7002,7 @@
     </row>
     <row r="25" spans="6:8">
       <c r="F25" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>128</v>
@@ -7006,7 +7013,7 @@
     </row>
     <row r="26" spans="6:8">
       <c r="F26" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>132</v>
@@ -7017,7 +7024,7 @@
     </row>
     <row r="27" spans="6:8">
       <c r="F27" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>153</v>
@@ -7028,7 +7035,7 @@
     </row>
     <row r="28" spans="6:8">
       <c r="F28" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>136</v>
@@ -7039,7 +7046,7 @@
     </row>
     <row r="29" spans="6:8">
       <c r="F29" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>140</v>
@@ -7050,7 +7057,7 @@
     </row>
     <row r="30" spans="6:8">
       <c r="F30" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>143</v>
@@ -7061,7 +7068,7 @@
     </row>
     <row r="31" spans="6:8">
       <c r="F31" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>146</v>
@@ -7072,7 +7079,7 @@
     </row>
     <row r="32" spans="6:9">
       <c r="F32" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>149</v>
@@ -7086,10 +7093,10 @@
     </row>
     <row r="33" spans="6:8">
       <c r="F33" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>15</v>
@@ -7097,7 +7104,7 @@
     </row>
     <row r="34" spans="6:8">
       <c r="F34" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>154</v>
@@ -7108,7 +7115,7 @@
     </row>
     <row r="35" spans="6:8">
       <c r="F35" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>116</v>
@@ -7119,7 +7126,7 @@
     </row>
     <row r="36" spans="6:8">
       <c r="F36" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>121</v>
@@ -7130,7 +7137,7 @@
     </row>
     <row r="37" spans="6:8">
       <c r="F37" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>128</v>
@@ -7141,7 +7148,7 @@
     </row>
     <row r="38" spans="6:8">
       <c r="F38" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>132</v>
@@ -7152,7 +7159,7 @@
     </row>
     <row r="39" spans="6:8">
       <c r="F39" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>136</v>
@@ -7163,7 +7170,7 @@
     </row>
     <row r="40" spans="6:8">
       <c r="F40" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>140</v>
@@ -7174,7 +7181,7 @@
     </row>
     <row r="41" spans="6:8">
       <c r="F41" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>143</v>
@@ -7185,7 +7192,7 @@
     </row>
     <row r="42" spans="6:8">
       <c r="F42" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>146</v>
@@ -7196,7 +7203,7 @@
     </row>
     <row r="43" spans="6:9">
       <c r="F43" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>149</v>
@@ -7210,7 +7217,7 @@
     </row>
     <row r="44" spans="6:8">
       <c r="F44" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>153</v>
@@ -7221,10 +7228,10 @@
     </row>
     <row r="45" spans="6:8">
       <c r="F45" t="s">
+        <v>377</v>
+      </c>
+      <c r="G45" s="2" t="s">
         <v>378</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>379</v>
       </c>
       <c r="H45" s="2" t="s">
         <v>15</v>
@@ -7232,7 +7239,7 @@
     </row>
     <row r="46" spans="6:8">
       <c r="F46" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>154</v>
@@ -7269,7 +7276,7 @@
   <sheetData>
     <row r="7" spans="4:11">
       <c r="D7" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E7" t="s">
         <v>1</v>
@@ -7284,33 +7291,33 @@
         <v>5</v>
       </c>
       <c r="I7" t="s">
+        <v>380</v>
+      </c>
+      <c r="J7" t="s">
         <v>381</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>382</v>
-      </c>
-      <c r="K7" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="8" spans="6:11">
       <c r="F8" t="s">
+        <v>383</v>
+      </c>
+      <c r="G8" t="s">
         <v>384</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>385</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>386</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>387</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>388</v>
-      </c>
-      <c r="K8" t="s">
-        <v>389</v>
       </c>
     </row>
   </sheetData>
@@ -7339,78 +7346,78 @@
   <sheetData>
     <row r="7" spans="4:9">
       <c r="D7" t="s">
+        <v>389</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
         <v>390</v>
       </c>
-      <c r="E7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>391</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>392</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>393</v>
-      </c>
-      <c r="I7" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="8" spans="6:9">
       <c r="F8" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="H8" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="I8" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="9" spans="6:9">
       <c r="F9" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="H9" t="s">
+        <v>395</v>
+      </c>
+      <c r="I9" t="s">
         <v>396</v>
-      </c>
-      <c r="I9" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="10" spans="6:9">
       <c r="F10" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="H10" t="s">
+        <v>397</v>
+      </c>
+      <c r="I10" t="s">
         <v>398</v>
-      </c>
-      <c r="I10" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="11" spans="6:9">
       <c r="F11" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="H11" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="I11" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
   </sheetData>
@@ -7442,71 +7449,71 @@
   <sheetData>
     <row r="7" spans="4:12">
       <c r="D7" t="s">
+        <v>400</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>390</v>
+      </c>
+      <c r="G7" t="s">
         <v>401</v>
       </c>
-      <c r="E7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F7" t="s">
-        <v>391</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>402</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>403</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>404</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>405</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>406</v>
-      </c>
-      <c r="L7" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="8" spans="6:11">
       <c r="F8" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="H8" t="s">
+        <v>407</v>
+      </c>
+      <c r="I8" t="s">
         <v>408</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>409</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>410</v>
-      </c>
-      <c r="K8" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="9" spans="6:12">
       <c r="F9" t="s">
+        <v>411</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9" t="s">
         <v>412</v>
       </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>413</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
+        <v>409</v>
+      </c>
+      <c r="K9" t="s">
         <v>414</v>
-      </c>
-      <c r="J9" t="s">
-        <v>410</v>
-      </c>
-      <c r="K9" t="s">
-        <v>415</v>
       </c>
       <c r="L9">
         <v>0</v>

--- a/src/main/resources/script/meta/micro-service-init-data.xlsx
+++ b/src/main/resources/script/meta/micro-service-init-data.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22430"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\base-service\src\main\resources\script\meta\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7B29031-BC6D-4646-BF58-6DC506B58B82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="22056" windowHeight="10020" tabRatio="845" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="845" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
@@ -357,9 +363,6 @@
     <t>ICON</t>
   </si>
   <si>
-    <t>$SORT</t>
-  </si>
-  <si>
     <t>CATEGORY</t>
   </si>
   <si>
@@ -458,7 +461,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="PingFang SC"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>ldap</t>
     </r>
@@ -467,6 +470,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>设置</t>
@@ -1291,18 +1295,16 @@
   <si>
     <t>Number</t>
   </si>
+  <si>
+    <t>SORT</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="39">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="20">
     <font>
       <sz val="10"/>
       <name val="Droid Sans Fallback"/>
@@ -1312,12 +1314,12 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="DejaVu Sans"/>
-      <charset val="134"/>
+      <family val="3"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1327,434 +1329,107 @@
     <font>
       <sz val="10"/>
       <name val="DejaVu Sans"/>
-      <charset val="134"/>
+      <family val="3"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="DengXian"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="PingFang SC"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="14"/>
       <name val="PingFang SC"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="PingFang SC"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="PingFang SC"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF5B9BD5"/>
       <name val="PingFang SC"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF5B9BD5"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFFC000"/>
       <name val="PingFang SC"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="13"/>
       <name val="PingFang SC"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF8F187C"/>
       <name val="PingFang SC"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF8F187C"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="13"/>
       <name val="Helvetica"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1777,251 +1452,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -2046,61 +1479,17 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2358,39 +1747,39 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="D7:O37"/>
   <sheetViews>
-    <sheetView zoomScale="95" zoomScaleNormal="95" topLeftCell="A9" workbookViewId="0">
+    <sheetView topLeftCell="A9" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
       <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="9.2037037037037" customWidth="1"/>
-    <col min="2" max="2" width="9.60185185185185" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" customWidth="1"/>
     <col min="3" max="3" width="9" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
     <col min="5" max="5" width="9" customWidth="1"/>
-    <col min="6" max="6" width="49.2037037037037" customWidth="1"/>
-    <col min="7" max="7" width="37.2037037037037" customWidth="1"/>
+    <col min="6" max="6" width="49.140625" customWidth="1"/>
+    <col min="7" max="7" width="37.140625" customWidth="1"/>
     <col min="8" max="8" width="37" customWidth="1"/>
     <col min="9" max="9" width="19" customWidth="1"/>
-    <col min="10" max="10" width="19.7962962962963" customWidth="1"/>
+    <col min="10" max="10" width="19.85546875" customWidth="1"/>
     <col min="11" max="11" width="19" customWidth="1"/>
-    <col min="12" max="12" width="19.2037037037037" customWidth="1"/>
-    <col min="13" max="13" width="18.7962962962963" customWidth="1"/>
-    <col min="14" max="14" width="19.3981481481481" customWidth="1"/>
+    <col min="12" max="12" width="19.140625" customWidth="1"/>
+    <col min="13" max="13" width="18.85546875" customWidth="1"/>
+    <col min="14" max="14" width="19.42578125" customWidth="1"/>
     <col min="15" max="15" width="19" customWidth="1"/>
     <col min="16" max="1025" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" ht="12.75" customHeight="1" spans="4:15">
+    <row r="7" spans="4:15" ht="12.75" customHeight="1">
       <c r="D7" s="4" t="s">
         <v>0</v>
       </c>
@@ -2428,7 +1817,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="4:14">
+    <row r="8" spans="4:15" ht="12.75">
       <c r="D8" s="3"/>
       <c r="F8" s="2" t="s">
         <v>12</v>
@@ -2458,7 +1847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="6:14">
+    <row r="9" spans="4:15" ht="12.75">
       <c r="F9" s="2" t="s">
         <v>18</v>
       </c>
@@ -2487,7 +1876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="6:14">
+    <row r="10" spans="4:15" ht="12.75">
       <c r="F10" s="2" t="s">
         <v>21</v>
       </c>
@@ -2516,7 +1905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="6:14">
+    <row r="11" spans="4:15" ht="12.75">
       <c r="F11" s="2" t="s">
         <v>24</v>
       </c>
@@ -2545,7 +1934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="6:14">
+    <row r="12" spans="4:15" ht="12.75">
       <c r="F12" s="2" t="s">
         <v>27</v>
       </c>
@@ -2574,7 +1963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="6:14">
+    <row r="13" spans="4:15" ht="12.75">
       <c r="F13" s="2" t="s">
         <v>30</v>
       </c>
@@ -2603,7 +1992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="6:14">
+    <row r="14" spans="4:15" ht="12.75">
       <c r="F14" s="2" t="s">
         <v>33</v>
       </c>
@@ -2632,7 +2021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="6:14">
+    <row r="15" spans="4:15" ht="12.75">
       <c r="F15" s="2" t="s">
         <v>36</v>
       </c>
@@ -2661,7 +2050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="6:14">
+    <row r="16" spans="4:15" ht="12.75">
       <c r="F16" s="2" t="s">
         <v>39</v>
       </c>
@@ -2690,7 +2079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="6:14">
+    <row r="17" spans="6:14" ht="12.75">
       <c r="F17" s="2" t="s">
         <v>42</v>
       </c>
@@ -2719,7 +2108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="6:14">
+    <row r="18" spans="6:14" ht="12.75">
       <c r="F18" s="2" t="s">
         <v>45</v>
       </c>
@@ -2748,7 +2137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="6:14">
+    <row r="19" spans="6:14" ht="12.75">
       <c r="F19" s="2" t="s">
         <v>49</v>
       </c>
@@ -2777,7 +2166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="6:14">
+    <row r="20" spans="6:14" ht="12.75">
       <c r="F20" s="2" t="s">
         <v>52</v>
       </c>
@@ -2806,7 +2195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="6:14">
+    <row r="21" spans="6:14" ht="12.75">
       <c r="F21" s="2" t="s">
         <v>55</v>
       </c>
@@ -2835,7 +2224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="6:14">
+    <row r="22" spans="6:14" ht="12.75">
       <c r="F22" s="2" t="s">
         <v>58</v>
       </c>
@@ -2864,7 +2253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="6:14">
+    <row r="23" spans="6:14" ht="12.75">
       <c r="F23" s="2" t="s">
         <v>61</v>
       </c>
@@ -2893,7 +2282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="6:14">
+    <row r="24" spans="6:14" ht="12.75">
       <c r="F24" s="2" t="s">
         <v>64</v>
       </c>
@@ -2922,7 +2311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="6:14">
+    <row r="25" spans="6:14" ht="12.75">
       <c r="F25" s="2" t="s">
         <v>67</v>
       </c>
@@ -2951,7 +2340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="6:14">
+    <row r="26" spans="6:14" ht="12.75">
       <c r="F26" s="2" t="s">
         <v>70</v>
       </c>
@@ -2980,7 +2369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="6:14">
+    <row r="27" spans="6:14" ht="12.75">
       <c r="F27" s="2" t="s">
         <v>73</v>
       </c>
@@ -3009,7 +2398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="6:14">
+    <row r="28" spans="6:14" ht="12.75">
       <c r="F28" s="2" t="s">
         <v>76</v>
       </c>
@@ -3038,7 +2427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="6:14">
+    <row r="29" spans="6:14" ht="12.75">
       <c r="F29" s="2" t="s">
         <v>79</v>
       </c>
@@ -3067,7 +2456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="6:14">
+    <row r="30" spans="6:14" ht="12.75">
       <c r="F30" s="2" t="s">
         <v>82</v>
       </c>
@@ -3096,7 +2485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="6:14">
+    <row r="31" spans="6:14" ht="12.75">
       <c r="F31" s="2" t="s">
         <v>85</v>
       </c>
@@ -3125,7 +2514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="6:14">
+    <row r="32" spans="6:14" ht="12.75">
       <c r="F32" s="2" t="s">
         <v>88</v>
       </c>
@@ -3154,7 +2543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="6:14">
+    <row r="33" spans="6:14" ht="12.75">
       <c r="F33" s="2" t="s">
         <v>92</v>
       </c>
@@ -3183,7 +2572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="6:14">
+    <row r="34" spans="6:14" ht="12.75">
       <c r="F34" s="2" t="s">
         <v>95</v>
       </c>
@@ -3212,7 +2601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="6:14">
+    <row r="35" spans="6:14" ht="12.75">
       <c r="F35" s="2" t="s">
         <v>98</v>
       </c>
@@ -3241,12 +2630,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="7:7">
+    <row r="37" spans="6:14" ht="12.75">
       <c r="G37" s="2"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="19" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,常规"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,常规"&amp;12 Page &amp;P</oddFooter>
@@ -3255,37 +2645,36 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="D7:Q50"/>
   <sheetViews>
-    <sheetView zoomScale="86" zoomScaleNormal="86" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" topLeftCell="I34" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="6" customWidth="1"/>
-    <col min="3" max="3" width="4.7962962962963" customWidth="1"/>
-    <col min="4" max="4" width="19.3981481481481" customWidth="1"/>
+    <col min="3" max="3" width="4.85546875" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" customWidth="1"/>
     <col min="5" max="5" width="9" customWidth="1"/>
-    <col min="6" max="6" width="72.7962962962963" customWidth="1"/>
-    <col min="7" max="7" width="16.7962962962963" customWidth="1"/>
+    <col min="6" max="6" width="72.85546875" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" customWidth="1"/>
     <col min="8" max="8" width="36" customWidth="1"/>
-    <col min="9" max="9" width="63.7962962962963" customWidth="1"/>
-    <col min="10" max="10" width="18.6018518518519" customWidth="1"/>
-    <col min="11" max="11" width="54.7962962962963" customWidth="1"/>
-    <col min="12" max="12" width="19.2037037037037" customWidth="1"/>
-    <col min="13" max="13" width="14.6018518518519" customWidth="1"/>
-    <col min="14" max="14" width="26.3981481481481" customWidth="1"/>
+    <col min="9" max="9" width="63.85546875" customWidth="1"/>
+    <col min="10" max="10" width="18.5703125" customWidth="1"/>
+    <col min="11" max="11" width="54.85546875" customWidth="1"/>
+    <col min="12" max="12" width="19.140625" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" customWidth="1"/>
+    <col min="14" max="14" width="26.42578125" customWidth="1"/>
     <col min="15" max="15" width="9" customWidth="1"/>
-    <col min="16" max="16" width="12.3981481481481" customWidth="1"/>
-    <col min="17" max="17" width="10.7962962962963" customWidth="1"/>
+    <col min="16" max="16" width="12.42578125" customWidth="1"/>
+    <col min="17" max="17" width="10.85546875" customWidth="1"/>
     <col min="18" max="1025" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" ht="12.75" customHeight="1" spans="4:17">
+    <row r="7" spans="4:17" ht="12.75" customHeight="1">
       <c r="D7" s="4" t="s">
         <v>101</v>
       </c>
@@ -3320,53 +2709,53 @@
         <v>108</v>
       </c>
       <c r="O7" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="P7" s="4" t="s">
         <v>109</v>
-      </c>
-      <c r="P7" s="4" t="s">
-        <v>110</v>
       </c>
       <c r="Q7" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" ht="15" spans="4:15">
+    <row r="8" spans="4:17" ht="15.75">
       <c r="D8" s="3"/>
       <c r="F8" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="G8" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="H8" s="9" t="s">
         <v>112</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>113</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9" t="s">
         <v>14</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L8" s="9" t="s">
         <v>15</v>
       </c>
       <c r="M8" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N8" s="9"/>
       <c r="O8" s="9">
         <v>10</v>
       </c>
     </row>
-    <row r="9" ht="15" spans="6:17">
+    <row r="9" spans="4:17" ht="15.75">
       <c r="F9" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="G9" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="H9" s="9" t="s">
         <v>117</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>118</v>
       </c>
       <c r="I9" s="9" t="s">
         <v>12</v>
@@ -3375,16 +2764,16 @@
         <v>14</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L9" s="9" t="s">
         <v>15</v>
       </c>
       <c r="M9" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="N9" s="9" t="s">
         <v>119</v>
-      </c>
-      <c r="N9" s="9" t="s">
-        <v>120</v>
       </c>
       <c r="O9" s="9">
         <v>10</v>
@@ -3393,15 +2782,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" ht="15" spans="6:17">
+    <row r="10" spans="4:17" ht="15.75">
       <c r="F10" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="G10" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="H10" s="9" t="s">
         <v>122</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>123</v>
       </c>
       <c r="I10" s="9" t="s">
         <v>18</v>
@@ -3410,16 +2799,16 @@
         <v>14</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L10" s="9" t="s">
         <v>15</v>
       </c>
       <c r="M10" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N10" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O10" s="9">
         <v>20</v>
@@ -3428,15 +2817,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" ht="15" spans="6:15">
+    <row r="11" spans="4:17" ht="15.75">
       <c r="F11" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="G11" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="H11" s="9" t="s">
         <v>117</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>118</v>
       </c>
       <c r="I11" s="9" t="s">
         <v>12</v>
@@ -3445,30 +2834,30 @@
         <v>14</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L11" s="9" t="s">
         <v>15</v>
       </c>
       <c r="M11" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="N11" s="9" t="s">
         <v>119</v>
-      </c>
-      <c r="N11" s="9" t="s">
-        <v>120</v>
       </c>
       <c r="O11" s="9">
         <v>20</v>
       </c>
     </row>
-    <row r="12" ht="15" spans="6:15">
+    <row r="12" spans="4:17" ht="15.75">
       <c r="F12" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="G12" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="H12" s="9" t="s">
         <v>122</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>123</v>
       </c>
       <c r="I12" s="9" t="s">
         <v>18</v>
@@ -3477,58 +2866,58 @@
         <v>14</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L12" s="9" t="s">
         <v>15</v>
       </c>
       <c r="M12" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N12" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O12" s="9">
         <v>30</v>
       </c>
     </row>
-    <row r="13" ht="15" spans="6:15">
+    <row r="13" spans="4:17" ht="15.75">
       <c r="F13" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="G13" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="G13" s="9" t="s">
+      <c r="H13" s="9" t="s">
         <v>126</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>127</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9" t="s">
         <v>14</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L13" s="9" t="s">
         <v>15</v>
       </c>
       <c r="M13" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N13" s="9"/>
       <c r="O13" s="9">
         <v>20</v>
       </c>
     </row>
-    <row r="14" ht="15" spans="6:15">
+    <row r="14" spans="4:17" ht="15.75">
       <c r="F14" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="G14" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="G14" s="9" t="s">
+      <c r="H14" s="9" t="s">
         <v>129</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>130</v>
       </c>
       <c r="I14" s="9" t="s">
         <v>21</v>
@@ -3537,30 +2926,30 @@
         <v>14</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L14" s="9" t="s">
         <v>15</v>
       </c>
       <c r="M14" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N14" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O14" s="9">
         <v>10</v>
       </c>
     </row>
-    <row r="15" ht="15" spans="6:15">
+    <row r="15" spans="4:17" ht="15.75">
       <c r="F15" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="G15" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="G15" s="9" t="s">
+      <c r="H15" s="9" t="s">
         <v>133</v>
-      </c>
-      <c r="H15" s="9" t="s">
-        <v>134</v>
       </c>
       <c r="I15" s="9" t="s">
         <v>24</v>
@@ -3569,30 +2958,30 @@
         <v>14</v>
       </c>
       <c r="K15" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L15" s="9" t="s">
         <v>15</v>
       </c>
       <c r="M15" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N15" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O15" s="9">
         <v>20</v>
       </c>
     </row>
-    <row r="16" ht="15" spans="6:15">
+    <row r="16" spans="4:17" ht="15.75">
       <c r="F16" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="G16" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="G16" s="9" t="s">
+      <c r="H16" s="9" t="s">
         <v>137</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>138</v>
       </c>
       <c r="I16" s="9" t="s">
         <v>27</v>
@@ -3601,28 +2990,28 @@
         <v>14</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L16" s="9" t="s">
         <v>15</v>
       </c>
       <c r="M16" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N16" s="9"/>
       <c r="O16" s="9">
         <v>10</v>
       </c>
     </row>
-    <row r="17" ht="15.6" spans="6:15">
+    <row r="17" spans="6:17" ht="15.75">
       <c r="F17" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="G17" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="G17" s="9" t="s">
+      <c r="H17" s="9" t="s">
         <v>141</v>
-      </c>
-      <c r="H17" s="9" t="s">
-        <v>142</v>
       </c>
       <c r="I17" s="9" t="s">
         <v>30</v>
@@ -3631,28 +3020,28 @@
         <v>14</v>
       </c>
       <c r="K17" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L17" s="9" t="s">
         <v>15</v>
       </c>
       <c r="M17" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N17" s="9"/>
       <c r="O17" s="9">
         <v>20</v>
       </c>
     </row>
-    <row r="18" ht="15" spans="6:15">
+    <row r="18" spans="6:17" ht="15.75">
       <c r="F18" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="G18" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="G18" s="9" t="s">
+      <c r="H18" s="9" t="s">
         <v>144</v>
-      </c>
-      <c r="H18" s="9" t="s">
-        <v>145</v>
       </c>
       <c r="I18" s="9" t="s">
         <v>33</v>
@@ -3661,28 +3050,28 @@
         <v>14</v>
       </c>
       <c r="K18" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L18" s="9" t="s">
         <v>15</v>
       </c>
       <c r="M18" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N18" s="9"/>
       <c r="O18" s="9">
         <v>30</v>
       </c>
     </row>
-    <row r="19" ht="15" spans="6:15">
+    <row r="19" spans="6:17" ht="15.75">
       <c r="F19" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G19" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="G19" s="9" t="s">
+      <c r="H19" s="9" t="s">
         <v>147</v>
-      </c>
-      <c r="H19" s="9" t="s">
-        <v>148</v>
       </c>
       <c r="I19" s="9" t="s">
         <v>36</v>
@@ -3691,28 +3080,28 @@
         <v>14</v>
       </c>
       <c r="K19" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L19" s="9" t="s">
         <v>15</v>
       </c>
       <c r="M19" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N19" s="9"/>
       <c r="O19" s="9">
         <v>10</v>
       </c>
     </row>
-    <row r="20" ht="15" spans="6:17">
+    <row r="20" spans="6:17" ht="15.75">
       <c r="F20" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="G20" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="G20" s="9" t="s">
+      <c r="H20" s="9" t="s">
         <v>150</v>
-      </c>
-      <c r="H20" s="9" t="s">
-        <v>151</v>
       </c>
       <c r="I20" s="9" t="s">
         <v>39</v>
@@ -3721,16 +3110,16 @@
         <v>14</v>
       </c>
       <c r="K20" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L20" s="9" t="s">
         <v>15</v>
       </c>
       <c r="M20" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N20" s="9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O20" s="9">
         <v>30</v>
@@ -3739,15 +3128,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" ht="15" spans="6:15">
+    <row r="21" spans="6:17" ht="15.75">
       <c r="F21" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G21" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="H21" s="9" t="s">
         <v>150</v>
-      </c>
-      <c r="H21" s="9" t="s">
-        <v>151</v>
       </c>
       <c r="I21" s="9" t="s">
         <v>39</v>
@@ -3756,30 +3145,30 @@
         <v>14</v>
       </c>
       <c r="K21" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L21" s="9" t="s">
         <v>15</v>
       </c>
       <c r="M21" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N21" s="9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O21" s="9">
         <v>30</v>
       </c>
     </row>
-    <row r="22" ht="15.6" spans="6:15">
+    <row r="22" spans="6:17" ht="15.75">
       <c r="F22" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="G22" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="G22" s="10" t="s">
+      <c r="H22" s="9" t="s">
         <v>155</v>
-      </c>
-      <c r="H22" s="9" t="s">
-        <v>156</v>
       </c>
       <c r="I22" s="9" t="s">
         <v>42</v>
@@ -3788,58 +3177,58 @@
         <v>14</v>
       </c>
       <c r="K22" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L22" s="9" t="s">
         <v>15</v>
       </c>
       <c r="M22" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N22" s="9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O22" s="9">
         <v>10</v>
       </c>
     </row>
-    <row r="23" ht="15" spans="6:15">
+    <row r="23" spans="6:17" ht="15.75">
       <c r="F23" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="H23" s="11" t="s">
         <v>158</v>
-      </c>
-      <c r="G23" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="H23" s="11" t="s">
-        <v>159</v>
       </c>
       <c r="I23" s="11"/>
       <c r="J23" s="11" t="s">
         <v>14</v>
       </c>
       <c r="K23" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L23" s="11" t="s">
         <v>47</v>
       </c>
       <c r="M23" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N23" s="11"/>
       <c r="O23" s="11">
         <v>10</v>
       </c>
     </row>
-    <row r="24" ht="15" spans="6:17">
+    <row r="24" spans="6:17" ht="15.75">
       <c r="F24" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="G24" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="G24" s="11" t="s">
+      <c r="H24" s="11" t="s">
         <v>162</v>
-      </c>
-      <c r="H24" s="11" t="s">
-        <v>163</v>
       </c>
       <c r="I24" s="11" t="s">
         <v>45</v>
@@ -3848,16 +3237,16 @@
         <v>14</v>
       </c>
       <c r="K24" s="11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L24" s="11" t="s">
         <v>47</v>
       </c>
       <c r="M24" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N24" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O24" s="11">
         <v>10</v>
@@ -3866,15 +3255,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" ht="15" spans="6:17">
+    <row r="25" spans="6:17" ht="15.75">
       <c r="F25" s="11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G25" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="H25" s="11" t="s">
         <v>122</v>
-      </c>
-      <c r="H25" s="11" t="s">
-        <v>123</v>
       </c>
       <c r="I25" s="11" t="s">
         <v>49</v>
@@ -3883,16 +3272,16 @@
         <v>14</v>
       </c>
       <c r="K25" s="11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L25" s="11" t="s">
         <v>47</v>
       </c>
       <c r="M25" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N25" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O25" s="11">
         <v>40</v>
@@ -3901,15 +3290,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" ht="15.6" spans="6:17">
+    <row r="26" spans="6:17" ht="15.75">
       <c r="F26" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="G26" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="G26" s="12" t="s">
+      <c r="H26" s="11" t="s">
         <v>167</v>
-      </c>
-      <c r="H26" s="11" t="s">
-        <v>168</v>
       </c>
       <c r="I26" s="11" t="s">
         <v>52</v>
@@ -3918,16 +3307,16 @@
         <v>14</v>
       </c>
       <c r="K26" s="11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L26" s="11" t="s">
         <v>47</v>
       </c>
       <c r="M26" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N26" s="11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O26" s="11">
         <v>50</v>
@@ -3936,15 +3325,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" ht="15" spans="6:17">
+    <row r="27" spans="6:17" ht="15.75">
       <c r="F27" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="G27" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="G27" s="11" t="s">
+      <c r="H27" s="11" t="s">
         <v>171</v>
-      </c>
-      <c r="H27" s="11" t="s">
-        <v>172</v>
       </c>
       <c r="I27" s="11" t="s">
         <v>55</v>
@@ -3953,16 +3342,16 @@
         <v>14</v>
       </c>
       <c r="K27" s="11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L27" s="11" t="s">
         <v>47</v>
       </c>
       <c r="M27" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N27" s="11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O27" s="11">
         <v>60</v>
@@ -3971,15 +3360,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" ht="15.6" spans="6:15">
+    <row r="28" spans="6:17" ht="15.75">
       <c r="F28" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="G28" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="G28" s="12" t="s">
+      <c r="H28" s="11" t="s">
         <v>175</v>
-      </c>
-      <c r="H28" s="11" t="s">
-        <v>176</v>
       </c>
       <c r="I28" s="11" t="s">
         <v>85</v>
@@ -3988,30 +3377,30 @@
         <v>14</v>
       </c>
       <c r="K28" s="11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L28" s="11" t="s">
         <v>47</v>
       </c>
       <c r="M28" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N28" s="11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O28" s="11">
         <v>10</v>
       </c>
     </row>
-    <row r="29" ht="15" spans="6:15">
+    <row r="29" spans="6:17" ht="15.75">
       <c r="F29" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="G29" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="G29" s="11" t="s">
+      <c r="H29" s="11" t="s">
         <v>162</v>
-      </c>
-      <c r="H29" s="11" t="s">
-        <v>163</v>
       </c>
       <c r="I29" s="11" t="s">
         <v>45</v>
@@ -4020,30 +3409,30 @@
         <v>14</v>
       </c>
       <c r="K29" s="11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L29" s="11" t="s">
         <v>47</v>
       </c>
       <c r="M29" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N29" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O29" s="11">
         <v>20</v>
       </c>
     </row>
-    <row r="30" ht="15" spans="6:15">
+    <row r="30" spans="6:17" ht="15.75">
       <c r="F30" s="11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G30" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="H30" s="11" t="s">
         <v>122</v>
-      </c>
-      <c r="H30" s="11" t="s">
-        <v>123</v>
       </c>
       <c r="I30" s="11" t="s">
         <v>49</v>
@@ -4052,30 +3441,30 @@
         <v>14</v>
       </c>
       <c r="K30" s="11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L30" s="11" t="s">
         <v>47</v>
       </c>
       <c r="M30" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N30" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O30" s="11">
         <v>50</v>
       </c>
     </row>
-    <row r="31" ht="15.6" spans="6:15">
+    <row r="31" spans="6:17" ht="15.75">
       <c r="F31" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="G31" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="G31" s="12" t="s">
+      <c r="H31" s="11" t="s">
         <v>167</v>
-      </c>
-      <c r="H31" s="11" t="s">
-        <v>168</v>
       </c>
       <c r="I31" s="11" t="s">
         <v>52</v>
@@ -4084,30 +3473,30 @@
         <v>14</v>
       </c>
       <c r="K31" s="11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L31" s="11" t="s">
         <v>47</v>
       </c>
       <c r="M31" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N31" s="11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O31" s="11">
         <v>60</v>
       </c>
     </row>
-    <row r="32" ht="15" spans="6:15">
+    <row r="32" spans="6:17" ht="15.75">
       <c r="F32" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="G32" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="G32" s="11" t="s">
+      <c r="H32" s="11" t="s">
         <v>171</v>
-      </c>
-      <c r="H32" s="11" t="s">
-        <v>172</v>
       </c>
       <c r="I32" s="11" t="s">
         <v>55</v>
@@ -4116,58 +3505,58 @@
         <v>14</v>
       </c>
       <c r="K32" s="11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L32" s="11" t="s">
         <v>47</v>
       </c>
       <c r="M32" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N32" s="11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O32" s="11">
         <v>70</v>
       </c>
     </row>
-    <row r="33" ht="15" spans="6:15">
+    <row r="33" spans="6:15" ht="15.75">
       <c r="F33" s="11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G33" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="H33" s="11" t="s">
         <v>126</v>
-      </c>
-      <c r="H33" s="11" t="s">
-        <v>127</v>
       </c>
       <c r="I33" s="11"/>
       <c r="J33" s="11" t="s">
         <v>14</v>
       </c>
       <c r="K33" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L33" s="11" t="s">
         <v>47</v>
       </c>
       <c r="M33" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N33" s="11"/>
       <c r="O33" s="11">
         <v>20</v>
       </c>
     </row>
-    <row r="34" ht="15" spans="6:15">
+    <row r="34" spans="6:15" ht="15.75">
       <c r="F34" s="11" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G34" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="H34" s="11" t="s">
         <v>129</v>
-      </c>
-      <c r="H34" s="11" t="s">
-        <v>130</v>
       </c>
       <c r="I34" s="11" t="s">
         <v>58</v>
@@ -4176,30 +3565,30 @@
         <v>14</v>
       </c>
       <c r="K34" s="11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="L34" s="11" t="s">
         <v>47</v>
       </c>
       <c r="M34" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N34" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O34" s="11">
         <v>10</v>
       </c>
     </row>
-    <row r="35" ht="15" spans="6:15">
+    <row r="35" spans="6:15" ht="15.75">
       <c r="F35" s="11" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G35" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="H35" s="11" t="s">
         <v>133</v>
-      </c>
-      <c r="H35" s="11" t="s">
-        <v>134</v>
       </c>
       <c r="I35" s="11" t="s">
         <v>61</v>
@@ -4208,30 +3597,30 @@
         <v>14</v>
       </c>
       <c r="K35" s="11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="L35" s="11" t="s">
         <v>47</v>
       </c>
       <c r="M35" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N35" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O35" s="11">
         <v>20</v>
       </c>
     </row>
-    <row r="36" ht="15" spans="6:15">
+    <row r="36" spans="6:15" ht="15.75">
       <c r="F36" s="11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G36" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="H36" s="11" t="s">
         <v>147</v>
-      </c>
-      <c r="H36" s="11" t="s">
-        <v>148</v>
       </c>
       <c r="I36" s="11" t="s">
         <v>64</v>
@@ -4240,58 +3629,58 @@
         <v>14</v>
       </c>
       <c r="K36" s="11" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="L36" s="11" t="s">
         <v>47</v>
       </c>
       <c r="M36" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N36" s="11"/>
       <c r="O36" s="11">
         <v>10</v>
       </c>
     </row>
-    <row r="37" ht="15" spans="6:15">
+    <row r="37" spans="6:15" ht="15.75">
       <c r="F37" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="G37" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="G37" s="13" t="s">
+      <c r="H37" s="13" t="s">
         <v>182</v>
-      </c>
-      <c r="H37" s="13" t="s">
-        <v>183</v>
       </c>
       <c r="I37" s="13"/>
       <c r="J37" s="13" t="s">
         <v>14</v>
       </c>
       <c r="K37" s="13" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L37" s="13" t="s">
         <v>47</v>
       </c>
       <c r="M37" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N37" s="13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O37" s="13">
         <v>10</v>
       </c>
     </row>
-    <row r="38" ht="15" spans="6:15">
+    <row r="38" spans="6:15" ht="15.75">
       <c r="F38" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="G38" s="13" t="s">
         <v>186</v>
       </c>
-      <c r="G38" s="13" t="s">
+      <c r="H38" s="13" t="s">
         <v>187</v>
-      </c>
-      <c r="H38" s="13" t="s">
-        <v>188</v>
       </c>
       <c r="I38" s="13" t="s">
         <v>67</v>
@@ -4300,30 +3689,30 @@
         <v>14</v>
       </c>
       <c r="K38" s="13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L38" s="13" t="s">
         <v>47</v>
       </c>
       <c r="M38" s="13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N38" s="13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O38" s="13">
         <v>10</v>
       </c>
     </row>
-    <row r="39" ht="15" spans="6:15">
+    <row r="39" spans="6:15" ht="15.75">
       <c r="F39" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="G39" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="G39" s="13" t="s">
+      <c r="H39" s="13" t="s">
         <v>191</v>
-      </c>
-      <c r="H39" s="13" t="s">
-        <v>192</v>
       </c>
       <c r="I39" s="13" t="s">
         <v>70</v>
@@ -4332,30 +3721,30 @@
         <v>14</v>
       </c>
       <c r="K39" s="13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L39" s="13" t="s">
         <v>47</v>
       </c>
       <c r="M39" s="13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N39" s="13" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O39" s="13">
         <v>20</v>
       </c>
     </row>
-    <row r="40" ht="15" spans="6:15">
+    <row r="40" spans="6:15" ht="15.75">
       <c r="F40" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="G40" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="G40" s="13" t="s">
+      <c r="H40" s="13" t="s">
         <v>195</v>
-      </c>
-      <c r="H40" s="13" t="s">
-        <v>196</v>
       </c>
       <c r="I40" s="13" t="s">
         <v>73</v>
@@ -4364,30 +3753,30 @@
         <v>14</v>
       </c>
       <c r="K40" s="13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L40" s="13" t="s">
         <v>47</v>
       </c>
       <c r="M40" s="13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N40" s="13" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O40" s="13">
         <v>30</v>
       </c>
     </row>
-    <row r="41" ht="16.8" spans="6:15">
+    <row r="41" spans="6:15" ht="16.5">
       <c r="F41" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="G41" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="G41" s="14" t="s">
+      <c r="H41" s="14" t="s">
         <v>199</v>
-      </c>
-      <c r="H41" s="14" t="s">
-        <v>200</v>
       </c>
       <c r="I41" s="14" t="s">
         <v>76</v>
@@ -4396,30 +3785,30 @@
         <v>14</v>
       </c>
       <c r="K41" s="14" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="L41" s="14" t="s">
         <v>47</v>
       </c>
       <c r="M41" s="14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N41" s="17" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="O41" s="14">
         <v>50</v>
       </c>
     </row>
-    <row r="42" ht="16.8" spans="6:15">
+    <row r="42" spans="6:15" ht="16.5">
       <c r="F42" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="G42" s="14" t="s">
         <v>203</v>
       </c>
-      <c r="G42" s="14" t="s">
+      <c r="H42" s="14" t="s">
         <v>204</v>
-      </c>
-      <c r="H42" s="14" t="s">
-        <v>205</v>
       </c>
       <c r="I42" s="14" t="s">
         <v>79</v>
@@ -4428,30 +3817,30 @@
         <v>14</v>
       </c>
       <c r="K42" s="14" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="L42" s="14" t="s">
         <v>47</v>
       </c>
       <c r="M42" s="14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N42" s="17" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O42" s="14">
         <v>60</v>
       </c>
     </row>
-    <row r="43" ht="16.8" spans="6:15">
+    <row r="43" spans="6:15" ht="16.5">
       <c r="F43" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="G43" s="14" t="s">
         <v>207</v>
       </c>
-      <c r="G43" s="14" t="s">
+      <c r="H43" s="14" t="s">
         <v>208</v>
-      </c>
-      <c r="H43" s="14" t="s">
-        <v>209</v>
       </c>
       <c r="I43" s="14" t="s">
         <v>82</v>
@@ -4460,60 +3849,60 @@
         <v>14</v>
       </c>
       <c r="K43" s="14" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="L43" s="14" t="s">
         <v>47</v>
       </c>
       <c r="M43" s="14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N43" s="14" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O43" s="14">
         <v>70</v>
       </c>
     </row>
-    <row r="44" ht="15" spans="6:15">
+    <row r="44" spans="6:15" ht="15.75">
       <c r="F44" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="G44" s="15" t="s">
         <v>211</v>
       </c>
-      <c r="G44" s="15" t="s">
+      <c r="H44" s="15" t="s">
         <v>212</v>
-      </c>
-      <c r="H44" s="15" t="s">
-        <v>213</v>
       </c>
       <c r="I44" s="15"/>
       <c r="J44" s="15" t="s">
         <v>14</v>
       </c>
       <c r="K44" s="15" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="L44" s="15" t="s">
         <v>90</v>
       </c>
       <c r="M44" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N44" s="15" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="O44" s="15">
         <v>10</v>
       </c>
     </row>
-    <row r="45" ht="15" spans="6:15">
+    <row r="45" spans="6:15" ht="15.75">
       <c r="F45" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="G45" s="15" t="s">
         <v>216</v>
       </c>
-      <c r="G45" s="15" t="s">
+      <c r="H45" s="15" t="s">
         <v>217</v>
-      </c>
-      <c r="H45" s="15" t="s">
-        <v>218</v>
       </c>
       <c r="I45" s="15" t="s">
         <v>88</v>
@@ -4522,58 +3911,58 @@
         <v>14</v>
       </c>
       <c r="K45" s="15" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="L45" s="15" t="s">
         <v>90</v>
       </c>
       <c r="M45" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N45" s="15" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O45" s="15">
         <v>20</v>
       </c>
     </row>
-    <row r="46" ht="15" spans="6:15">
+    <row r="46" spans="6:15" ht="15.75">
       <c r="F46" s="15" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G46" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="H46" s="15" t="s">
         <v>126</v>
-      </c>
-      <c r="H46" s="15" t="s">
-        <v>127</v>
       </c>
       <c r="I46" s="15"/>
       <c r="J46" s="15" t="s">
         <v>14</v>
       </c>
       <c r="K46" s="15" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="L46" s="15" t="s">
         <v>90</v>
       </c>
       <c r="M46" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N46" s="15"/>
       <c r="O46" s="15">
         <v>80</v>
       </c>
     </row>
-    <row r="47" ht="15" spans="6:15">
+    <row r="47" spans="6:15" ht="15.75">
       <c r="F47" s="15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G47" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="H47" s="15" t="s">
         <v>129</v>
-      </c>
-      <c r="H47" s="15" t="s">
-        <v>130</v>
       </c>
       <c r="I47" s="15" t="s">
         <v>92</v>
@@ -4582,30 +3971,30 @@
         <v>14</v>
       </c>
       <c r="K47" s="15" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="L47" s="15" t="s">
         <v>90</v>
       </c>
       <c r="M47" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N47" s="15" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="O47" s="15">
         <v>10</v>
       </c>
     </row>
-    <row r="48" ht="15.6" spans="6:15">
+    <row r="48" spans="6:15" ht="15.75">
       <c r="F48" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="G48" s="16" t="s">
         <v>222</v>
       </c>
-      <c r="G48" s="16" t="s">
+      <c r="H48" s="15" t="s">
         <v>223</v>
-      </c>
-      <c r="H48" s="15" t="s">
-        <v>224</v>
       </c>
       <c r="I48" s="15" t="s">
         <v>95</v>
@@ -4614,54 +4003,54 @@
         <v>14</v>
       </c>
       <c r="K48" s="15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="L48" s="15" t="s">
         <v>90</v>
       </c>
       <c r="M48" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N48" s="15"/>
       <c r="O48" s="15">
         <v>10</v>
       </c>
     </row>
-    <row r="49" ht="15" spans="6:15">
+    <row r="49" spans="6:15" ht="15.75">
       <c r="F49" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="G49" s="15" t="s">
         <v>225</v>
       </c>
-      <c r="G49" s="15" t="s">
+      <c r="H49" s="15" t="s">
         <v>226</v>
       </c>
-      <c r="H49" s="15" t="s">
-        <v>227</v>
-      </c>
       <c r="J49" s="15" t="s">
         <v>14</v>
       </c>
       <c r="K49" s="15" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="L49" s="15" t="s">
         <v>90</v>
       </c>
       <c r="M49" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O49" s="15">
         <v>60</v>
       </c>
     </row>
-    <row r="50" ht="15" spans="6:15">
+    <row r="50" spans="6:15" ht="15.75">
       <c r="F50" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="G50" s="15" t="s">
         <v>228</v>
       </c>
-      <c r="G50" s="15" t="s">
+      <c r="H50" s="15" t="s">
         <v>229</v>
-      </c>
-      <c r="H50" s="15" t="s">
-        <v>230</v>
       </c>
       <c r="I50" s="15" t="s">
         <v>98</v>
@@ -4670,24 +4059,25 @@
         <v>14</v>
       </c>
       <c r="K50" s="15" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="L50" s="15" t="s">
         <v>90</v>
       </c>
       <c r="M50" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N50" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O50" s="15">
         <v>10</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="19" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,常规"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,常规"&amp;12 Page &amp;P</oddFooter>
@@ -4696,48 +4086,47 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="D7:I169"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="A145" workbookViewId="0">
+    <sheetView topLeftCell="A145" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="G157" sqref="G157"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
     <col min="1" max="3" width="9" customWidth="1"/>
-    <col min="4" max="4" width="23.7962962962963" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" customWidth="1"/>
     <col min="5" max="5" width="9" customWidth="1"/>
-    <col min="6" max="6" width="60.7962962962963" customWidth="1"/>
-    <col min="7" max="7" width="71.7962962962963" customWidth="1"/>
+    <col min="6" max="6" width="60.85546875" customWidth="1"/>
+    <col min="7" max="7" width="71.85546875" customWidth="1"/>
     <col min="8" max="1025" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" ht="12.75" customHeight="1" spans="4:9">
+    <row r="7" spans="4:9" ht="12.75" customHeight="1">
       <c r="D7" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F7" s="4" t="s">
+      <c r="G7" s="4" t="s">
         <v>232</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>233</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I7" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="8" ht="15" spans="4:9">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="8" spans="4:9" ht="15.75">
       <c r="D8" s="3"/>
       <c r="F8" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>12</v>
@@ -4746,53 +4135,53 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" ht="15" spans="6:9">
+    <row r="9" spans="4:9" ht="15.75">
       <c r="F9" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G9" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="4:9" ht="15.75">
+      <c r="F10" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="G10" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" ht="15" spans="6:9">
-      <c r="F10" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="G10" s="6" t="s">
+      <c r="I10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="4:9" ht="15.75">
+      <c r="F11" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="G11" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" ht="15" spans="6:9">
-      <c r="F11" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="G11" s="6" t="s">
+      <c r="I11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="4:9" ht="15.75">
+      <c r="F12" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="G12" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" ht="15" spans="6:9">
-      <c r="F12" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>238</v>
-      </c>
       <c r="I12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" ht="15" spans="6:9">
+    <row r="13" spans="4:9" ht="15.75">
       <c r="F13" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>18</v>
@@ -4801,207 +4190,207 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" ht="15" spans="6:9">
+    <row r="14" spans="4:9" ht="15.75">
       <c r="F14" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G14" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="4:9" ht="15.75">
+      <c r="F15" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="G15" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" ht="15" spans="6:9">
-      <c r="F15" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="G15" s="6" t="s">
+      <c r="I15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="4:9" ht="15.75">
+      <c r="F16" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="6:9" ht="15.75">
+      <c r="F17" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="G17" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" ht="15" spans="6:9">
-      <c r="F16" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" ht="15" spans="6:9">
-      <c r="F17" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="G17" s="6" t="s">
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="6:9" ht="15.75">
+      <c r="F18" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="G18" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" ht="15" spans="6:9">
-      <c r="F18" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="G18" s="6" t="s">
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="6:9" ht="15.75">
+      <c r="F19" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="G19" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" ht="15" spans="6:9">
-      <c r="F19" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="G19" s="6" t="s">
+      <c r="I19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="6:9" ht="15.75">
+      <c r="F20" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="G20" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" ht="15" spans="6:9">
-      <c r="F20" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="G20" s="6" t="s">
+      <c r="I20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="6:9" ht="15.75">
+      <c r="F21" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="G21" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" ht="15" spans="6:9">
-      <c r="F21" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="G21" s="6" t="s">
+      <c r="I21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="6:9" ht="15.75">
+      <c r="F22" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="G22" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" ht="15" spans="6:9">
-      <c r="F22" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="G22" s="6" t="s">
+      <c r="I22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="6:9" ht="15.75">
+      <c r="F23" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="G23" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="I22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" ht="15" spans="6:9">
-      <c r="F23" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="G23" s="6" t="s">
+      <c r="I23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="6:9" ht="15.75">
+      <c r="F24" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="G24" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="I23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" ht="15" spans="6:9">
-      <c r="F24" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="G24" s="6" t="s">
+      <c r="I24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="6:9" ht="15.75">
+      <c r="F25" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="G25" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="I24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" ht="15" spans="6:9">
-      <c r="F25" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="G25" s="6" t="s">
+      <c r="I25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="6:9" ht="15.75">
+      <c r="F26" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="G26" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" ht="15" spans="6:9">
-      <c r="F26" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="G26" s="6" t="s">
+      <c r="I26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="6:9" ht="15.75">
+      <c r="F27" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="G27" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" ht="15" spans="6:9">
-      <c r="F27" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="G27" s="6" t="s">
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="6:9" ht="15.75">
+      <c r="F28" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="G28" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" ht="15" spans="6:9">
-      <c r="F28" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="G28" s="6" t="s">
+      <c r="I28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="6:9" ht="15.75">
+      <c r="F29" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="G29" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="I28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" ht="15" spans="6:9">
-      <c r="F29" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="G29" s="6" t="s">
+      <c r="I29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="6:9" ht="15.75">
+      <c r="F30" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="G30" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" ht="15" spans="6:9">
-      <c r="F30" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="G30" s="6" t="s">
+      <c r="I30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="6:9" ht="15.75">
+      <c r="F31" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="G31" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="I30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" ht="15" spans="6:9">
-      <c r="F31" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="G31" s="6" t="s">
-        <v>255</v>
-      </c>
       <c r="I31">
         <v>0</v>
       </c>
     </row>
-    <row r="32" ht="15" spans="6:9">
+    <row r="32" spans="6:9" ht="15.75">
       <c r="F32" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G32" s="6" t="s">
         <v>21</v>
@@ -5010,9 +4399,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" ht="15" spans="6:9">
+    <row r="33" spans="6:9" ht="15.75">
       <c r="F33" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G33" s="6" t="s">
         <v>27</v>
@@ -5021,31 +4410,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" ht="15" spans="6:9">
+    <row r="34" spans="6:9" ht="15.75">
       <c r="F34" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G34" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="6:9" ht="15.75">
+      <c r="F35" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="G35" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="I34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" ht="15" spans="6:9">
-      <c r="F35" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="G35" s="6" t="s">
-        <v>257</v>
-      </c>
       <c r="I35">
         <v>1</v>
       </c>
     </row>
-    <row r="36" ht="15" spans="6:9">
+    <row r="36" spans="6:9" ht="15.75">
       <c r="F36" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G36" s="6" t="s">
         <v>30</v>
@@ -5054,97 +4443,97 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" ht="15" spans="6:9">
+    <row r="37" spans="6:9" ht="15.75">
       <c r="F37" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G37" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="6:9" ht="15.75">
+      <c r="F38" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="G38" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="I37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" ht="15" spans="6:9">
-      <c r="F38" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="G38" s="6" t="s">
+      <c r="I38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="6:9" ht="15.75">
+      <c r="F39" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="G39" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="I38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" ht="15" spans="6:9">
-      <c r="F39" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="G39" s="6" t="s">
+      <c r="I39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="6:9" ht="15.75">
+      <c r="F40" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="G40" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="I39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" ht="15" spans="6:9">
-      <c r="F40" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="G40" s="6" t="s">
+      <c r="I40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="6:9" ht="15.75">
+      <c r="F41" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="G41" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="I40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" ht="15" spans="6:9">
-      <c r="F41" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="G41" s="6" t="s">
+      <c r="I41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="6:9" ht="15.75">
+      <c r="F42" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="G42" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="I41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" ht="15" spans="6:9">
-      <c r="F42" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="G42" s="6" t="s">
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="6:9" ht="15.75">
+      <c r="F43" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="G43" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="I42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" ht="15" spans="6:9">
-      <c r="F43" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="G43" s="6" t="s">
+      <c r="I43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="6:9" ht="15.75">
+      <c r="F44" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="G44" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="I43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" ht="15" spans="6:9">
-      <c r="F44" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="G44" s="6" t="s">
-        <v>265</v>
-      </c>
       <c r="I44">
         <v>1</v>
       </c>
     </row>
-    <row r="45" ht="15" spans="6:9">
+    <row r="45" spans="6:9" ht="15.75">
       <c r="F45" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G45" s="6" t="s">
         <v>33</v>
@@ -5153,64 +4542,64 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" ht="15" spans="6:9">
+    <row r="46" spans="6:9" ht="15.75">
       <c r="F46" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G46" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="I46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="6:9" ht="15.75">
+      <c r="F47" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="G47" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="I46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" ht="15" spans="6:9">
-      <c r="F47" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="G47" s="6" t="s">
+      <c r="I47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="6:9" ht="15.75">
+      <c r="F48" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="G48" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="I47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" ht="15" spans="6:9">
-      <c r="F48" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="G48" s="6" t="s">
+      <c r="I48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="6:9" ht="15.75">
+      <c r="F49" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="G49" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="I48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" ht="15" spans="6:9">
-      <c r="F49" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="G49" s="6" t="s">
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="6:9" ht="15.75">
+      <c r="F50" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="G50" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="I49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" ht="15" spans="6:9">
-      <c r="F50" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="G50" s="6" t="s">
-        <v>270</v>
-      </c>
       <c r="I50">
         <v>0</v>
       </c>
     </row>
-    <row r="51" ht="15" spans="6:9">
+    <row r="51" spans="6:9" ht="15.75">
       <c r="F51" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G51" s="6" t="s">
         <v>24</v>
@@ -5219,9 +4608,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" ht="15" spans="6:9">
+    <row r="52" spans="6:9" ht="15.75">
       <c r="F52" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G52" s="6" t="s">
         <v>36</v>
@@ -5230,31 +4619,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" ht="15" spans="6:9">
+    <row r="53" spans="6:9" ht="15.75">
       <c r="F53" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I53">
         <v>1</v>
       </c>
     </row>
-    <row r="54" ht="15" spans="6:9">
+    <row r="54" spans="6:9" ht="15.75">
       <c r="F54" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I54">
         <v>0</v>
       </c>
     </row>
-    <row r="55" ht="15" spans="6:9">
+    <row r="55" spans="6:9" ht="15.75">
       <c r="F55" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G55" s="6" t="s">
         <v>39</v>
@@ -5263,97 +4652,97 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" ht="15" spans="6:9">
+    <row r="56" spans="6:9" ht="15.75">
       <c r="F56" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G56" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="6:9" ht="15.75">
+      <c r="F57" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="G57" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="I56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" ht="15" spans="6:9">
-      <c r="F57" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="G57" s="6" t="s">
+      <c r="I57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="6:9" ht="15.75">
+      <c r="F58" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="G58" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="I57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" ht="15" spans="6:9">
-      <c r="F58" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="G58" s="6" t="s">
+      <c r="I58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="6:9" ht="15.75">
+      <c r="F59" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="G59" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="I58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" ht="15" spans="6:9">
-      <c r="F59" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="G59" s="6" t="s">
+      <c r="I59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="6:9" ht="15.75">
+      <c r="F60" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="G60" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="I59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" ht="15" spans="6:9">
-      <c r="F60" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="G60" s="6" t="s">
+      <c r="I60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="6:9" ht="15.75">
+      <c r="F61" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="G61" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="I60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" ht="15" spans="6:9">
-      <c r="F61" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="G61" s="6" t="s">
+      <c r="I61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="6:9" ht="15.75">
+      <c r="F62" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="G62" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="I61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" ht="15" spans="6:9">
-      <c r="F62" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="G62" s="6" t="s">
+      <c r="I62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="6:9" ht="15.75">
+      <c r="F63" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="G63" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="I62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" ht="15" spans="6:9">
-      <c r="F63" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="G63" s="6" t="s">
-        <v>279</v>
-      </c>
       <c r="I63">
         <v>0</v>
       </c>
     </row>
-    <row r="64" ht="15" spans="6:9">
+    <row r="64" spans="6:9" ht="15.75">
       <c r="F64" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G64" s="6" t="s">
         <v>45</v>
@@ -5362,42 +4751,42 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" ht="15" spans="6:9">
+    <row r="65" spans="6:9" ht="15.75">
       <c r="F65" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G65" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="I65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="6:9" ht="15.75">
+      <c r="F66" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="G66" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="I65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" ht="15" spans="6:9">
-      <c r="F66" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="G66" s="6" t="s">
+      <c r="I66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="6:9" ht="15.75">
+      <c r="F67" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="G67" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="I66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" ht="15" spans="6:9">
-      <c r="F67" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="G67" s="6" t="s">
-        <v>282</v>
-      </c>
       <c r="I67">
         <v>0</v>
       </c>
     </row>
-    <row r="68" ht="15" spans="6:9">
+    <row r="68" spans="6:9" ht="15.75">
       <c r="F68" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G68" s="6" t="s">
         <v>49</v>
@@ -5406,152 +4795,152 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" ht="15" spans="6:9">
+    <row r="69" spans="6:9" ht="15.75">
       <c r="F69" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="G69" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="6:9" ht="15.75">
+      <c r="F70" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="G70" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="6:9" ht="15.75">
+      <c r="F71" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="G71" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="6:9" ht="15.75">
+      <c r="F72" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="G72" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="6:9" ht="15.75">
+      <c r="F73" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="G73" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="I73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="6:9" ht="15.75">
+      <c r="F74" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="G74" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="6:9" ht="15.75">
+      <c r="F75" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="G75" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="I75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="6:9" ht="15.75">
+      <c r="F76" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="G76" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="6:9" ht="15.75">
+      <c r="F77" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="G77" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="6:9" ht="15.75">
+      <c r="F78" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="G78" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="6:9" ht="15.75">
+      <c r="F79" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="G79" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="6:9" ht="15.75">
+      <c r="F80" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="G80" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="6:9" ht="15.75">
+      <c r="F81" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="G81" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="6:9" ht="15.75">
+      <c r="F82" s="6" t="s">
         <v>165</v>
-      </c>
-      <c r="G69" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="I69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" ht="15" spans="6:9">
-      <c r="F70" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="G70" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="I70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" ht="15" spans="6:9">
-      <c r="F71" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="G71" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="I71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" ht="15" spans="6:9">
-      <c r="F72" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="G72" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="I72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" ht="15" spans="6:9">
-      <c r="F73" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="G73" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="I73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" ht="15" spans="6:9">
-      <c r="F74" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="G74" s="6" t="s">
-        <v>288</v>
-      </c>
-      <c r="I74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" ht="15" spans="6:9">
-      <c r="F75" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="G75" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="I75">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" ht="15" spans="6:9">
-      <c r="F76" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="G76" s="6" t="s">
-        <v>290</v>
-      </c>
-      <c r="I76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" ht="15" spans="6:9">
-      <c r="F77" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="G77" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="I77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" ht="15" spans="6:9">
-      <c r="F78" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="G78" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="I78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" ht="15" spans="6:9">
-      <c r="F79" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="G79" s="6" t="s">
-        <v>293</v>
-      </c>
-      <c r="I79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" ht="15" spans="6:9">
-      <c r="F80" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="G80" s="6" t="s">
-        <v>294</v>
-      </c>
-      <c r="I80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" ht="15" spans="6:9">
-      <c r="F81" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="G81" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="I81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" ht="15" spans="6:9">
-      <c r="F82" s="6" t="s">
-        <v>166</v>
       </c>
       <c r="G82" s="6" t="s">
         <v>52</v>
@@ -5560,119 +4949,119 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" ht="15" spans="6:9">
+    <row r="83" spans="6:9" ht="15.75">
       <c r="F83" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G83" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="I83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="6:9" ht="15.75">
+      <c r="F84" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="G84" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="I83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" ht="15" spans="6:9">
-      <c r="F84" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="G84" s="6" t="s">
+      <c r="I84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="6:9" ht="15.75">
+      <c r="F85" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="G85" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="I84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" ht="15" spans="6:9">
-      <c r="F85" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="G85" s="6" t="s">
+      <c r="I85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="6:9" ht="15.75">
+      <c r="F86" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="G86" s="6" t="s">
         <v>298</v>
       </c>
-      <c r="I85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" ht="15" spans="6:9">
-      <c r="F86" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="G86" s="6" t="s">
+      <c r="I86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="6:9" ht="15.75">
+      <c r="F87" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="G87" s="6" t="s">
         <v>299</v>
       </c>
-      <c r="I86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" ht="15" spans="6:9">
-      <c r="F87" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="G87" s="6" t="s">
+      <c r="I87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="6:9" ht="15.75">
+      <c r="F88" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="G88" s="6" t="s">
         <v>300</v>
       </c>
-      <c r="I87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" ht="15" spans="6:9">
-      <c r="F88" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="G88" s="6" t="s">
+      <c r="I88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="6:9" ht="15.75">
+      <c r="F89" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="G89" s="6" t="s">
         <v>301</v>
       </c>
-      <c r="I88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" ht="15" spans="6:9">
-      <c r="F89" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="G89" s="6" t="s">
+      <c r="I89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="6:9" ht="15.75">
+      <c r="F90" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="G90" s="6" t="s">
         <v>302</v>
       </c>
-      <c r="I89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" ht="15" spans="6:9">
-      <c r="F90" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="G90" s="6" t="s">
+      <c r="I90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="6:9" ht="15.75">
+      <c r="F91" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="G91" s="6" t="s">
         <v>303</v>
       </c>
-      <c r="I90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" ht="15" spans="6:9">
-      <c r="F91" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="G91" s="6" t="s">
+      <c r="I91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="6:9" ht="15.75">
+      <c r="F92" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="G92" s="6" t="s">
         <v>304</v>
       </c>
-      <c r="I91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" ht="15" spans="6:9">
-      <c r="F92" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="G92" s="6" t="s">
-        <v>305</v>
-      </c>
       <c r="I92">
         <v>0</v>
       </c>
     </row>
-    <row r="93" ht="15" spans="6:9">
+    <row r="93" spans="6:9" ht="15.75">
       <c r="F93" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G93" s="6" t="s">
         <v>55</v>
@@ -5681,42 +5070,42 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" ht="15" spans="6:9">
+    <row r="94" spans="6:9" ht="15.75">
       <c r="F94" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G94" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="I94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="6:9" ht="15.75">
+      <c r="F95" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="G95" s="6" t="s">
         <v>306</v>
       </c>
-      <c r="I94">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" ht="15" spans="6:9">
-      <c r="F95" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="G95" s="6" t="s">
-        <v>307</v>
-      </c>
       <c r="I95">
         <v>1</v>
       </c>
     </row>
-    <row r="96" ht="15" spans="6:9">
+    <row r="96" spans="6:9" ht="15.75">
       <c r="F96" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G96" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I96">
         <v>1</v>
       </c>
     </row>
-    <row r="97" ht="15" spans="6:9">
+    <row r="97" spans="6:9" ht="15.75">
       <c r="F97" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G97" s="6" t="s">
         <v>58</v>
@@ -5725,31 +5114,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" ht="15" spans="6:9">
+    <row r="98" spans="6:9" ht="15.75">
       <c r="F98" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="G98" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="I98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="6:9" ht="15.75">
+      <c r="F99" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="G99" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="I99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="6:9" ht="15.75">
+      <c r="F100" s="6" t="s">
         <v>178</v>
-      </c>
-      <c r="G98" s="6" t="s">
-        <v>308</v>
-      </c>
-      <c r="I98">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" ht="15" spans="6:9">
-      <c r="F99" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="G99" s="6" t="s">
-        <v>309</v>
-      </c>
-      <c r="I99">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" ht="15" spans="6:9">
-      <c r="F100" s="6" t="s">
-        <v>179</v>
       </c>
       <c r="G100" s="6" t="s">
         <v>61</v>
@@ -5758,9 +5147,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" ht="15" spans="6:9">
+    <row r="101" spans="6:9" ht="15.75">
       <c r="F101" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G101" s="6" t="s">
         <v>64</v>
@@ -5769,20 +5158,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" ht="15" spans="6:9">
+    <row r="102" spans="6:9" ht="15.75">
       <c r="F102" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G102" s="6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="I102">
         <v>1</v>
       </c>
     </row>
-    <row r="103" ht="15" spans="6:9">
+    <row r="103" spans="6:9" ht="15.75">
       <c r="F103" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G103" s="6" t="s">
         <v>67</v>
@@ -5791,53 +5180,53 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" ht="15" spans="6:9">
+    <row r="104" spans="6:9" ht="15.75">
       <c r="F104" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G104" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="I104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="6:9" ht="15.75">
+      <c r="F105" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="G105" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="I104">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" ht="15" spans="6:9">
-      <c r="F105" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="G105" s="6" t="s">
+      <c r="I105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="6:9" ht="15.75">
+      <c r="F106" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="G106" s="6" t="s">
         <v>312</v>
       </c>
-      <c r="I105">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" ht="15" spans="6:9">
-      <c r="F106" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="G106" s="6" t="s">
+      <c r="I106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="6:9" ht="15.75">
+      <c r="F107" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="G107" s="6" t="s">
         <v>313</v>
       </c>
-      <c r="I106">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" ht="15" spans="6:9">
-      <c r="F107" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="G107" s="6" t="s">
-        <v>314</v>
-      </c>
       <c r="I107">
         <v>0</v>
       </c>
     </row>
-    <row r="108" ht="15" spans="6:9">
+    <row r="108" spans="6:9" ht="15.75">
       <c r="F108" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G108" s="6" t="s">
         <v>70</v>
@@ -5846,20 +5235,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" ht="15" spans="6:9">
+    <row r="109" spans="6:9" ht="15.75">
       <c r="F109" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G109" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I109">
         <v>1</v>
       </c>
     </row>
-    <row r="110" ht="15" spans="6:9">
+    <row r="110" spans="6:9" ht="15.75">
       <c r="F110" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G110" s="6" t="s">
         <v>73</v>
@@ -5868,31 +5257,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" ht="15" spans="6:9">
+    <row r="111" spans="6:9" ht="15.75">
       <c r="F111" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G111" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="I111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="6:9" ht="15.75">
+      <c r="F112" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="G112" s="6" t="s">
         <v>316</v>
       </c>
-      <c r="I111">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" ht="15" spans="6:9">
-      <c r="F112" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="G112" s="6" t="s">
-        <v>317</v>
-      </c>
       <c r="I112">
         <v>0</v>
       </c>
     </row>
-    <row r="113" ht="15" spans="6:9">
+    <row r="113" spans="6:9" ht="15.75">
       <c r="F113" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G113" s="6" t="s">
         <v>88</v>
@@ -5901,97 +5290,97 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" ht="15" spans="6:9">
+    <row r="114" spans="6:9" ht="15.75">
       <c r="F114" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G114" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="I114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="6:9" ht="15.75">
+      <c r="F115" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="G115" s="6" t="s">
         <v>318</v>
       </c>
-      <c r="I114">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" ht="15" spans="6:9">
-      <c r="F115" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="G115" s="6" t="s">
+      <c r="I115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="6:9" ht="15.75">
+      <c r="F116" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="G116" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="I115">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" ht="15" spans="6:9">
-      <c r="F116" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="G116" s="6" t="s">
+      <c r="I116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="6:9" ht="15.75">
+      <c r="F117" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="G117" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="I116">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" ht="15" spans="6:9">
-      <c r="F117" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="G117" s="6" t="s">
+      <c r="I117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="6:9" ht="15.75">
+      <c r="F118" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="G118" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="I117">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" ht="15" spans="6:9">
-      <c r="F118" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="G118" s="6" t="s">
+      <c r="I118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="6:9" ht="15.75">
+      <c r="F119" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="G119" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="I118">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" ht="15" spans="6:9">
-      <c r="F119" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="G119" s="6" t="s">
+      <c r="I119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="6:9" ht="15.75">
+      <c r="F120" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="G120" s="6" t="s">
         <v>323</v>
       </c>
-      <c r="I119">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" ht="15" spans="6:9">
-      <c r="F120" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="G120" s="6" t="s">
+      <c r="I120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="6:9" ht="15.75">
+      <c r="F121" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="G121" s="6" t="s">
         <v>324</v>
       </c>
-      <c r="I120">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" ht="15" spans="6:9">
-      <c r="F121" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="G121" s="6" t="s">
-        <v>325</v>
-      </c>
       <c r="I121">
         <v>0</v>
       </c>
     </row>
-    <row r="122" ht="15" spans="6:9">
+    <row r="122" spans="6:9" ht="15.75">
       <c r="F122" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G122" s="6" t="s">
         <v>92</v>
@@ -6000,9 +5389,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" ht="15" spans="6:9">
+    <row r="123" spans="6:9" ht="15.75">
       <c r="F123" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G123" s="6" t="s">
         <v>95</v>
@@ -6011,42 +5400,42 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" ht="15" spans="6:9">
+    <row r="124" spans="6:9" ht="15.75">
       <c r="F124" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G124" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="I124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="6:9" ht="15.75">
+      <c r="F125" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="G125" s="6" t="s">
         <v>326</v>
       </c>
-      <c r="I124">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" ht="15" spans="6:9">
-      <c r="F125" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="G125" s="6" t="s">
+      <c r="I125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="6:9" ht="15.75">
+      <c r="F126" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="G126" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="I125">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126" ht="15" spans="6:9">
-      <c r="F126" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="G126" s="6" t="s">
-        <v>328</v>
-      </c>
       <c r="I126">
         <v>0</v>
       </c>
     </row>
-    <row r="127" ht="15" spans="6:9">
+    <row r="127" spans="6:9" ht="15.75">
       <c r="F127" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G127" s="6" t="s">
         <v>98</v>
@@ -6055,42 +5444,42 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" ht="15" spans="6:9">
+    <row r="128" spans="6:9" ht="15.75">
       <c r="F128" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G128" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="I128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="6:9" ht="15.75">
+      <c r="F129" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="G129" s="6" t="s">
         <v>329</v>
       </c>
-      <c r="I128">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" ht="15" spans="6:9">
-      <c r="F129" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="G129" s="6" t="s">
+      <c r="I129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="6:9" ht="15.75">
+      <c r="F130" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="G130" s="6" t="s">
         <v>330</v>
       </c>
-      <c r="I129">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130" ht="15" spans="6:9">
-      <c r="F130" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="G130" s="6" t="s">
-        <v>331</v>
-      </c>
       <c r="I130">
         <v>1</v>
       </c>
     </row>
-    <row r="131" ht="15" spans="6:9">
+    <row r="131" spans="6:9" ht="15.75">
       <c r="F131" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G131" s="6" t="s">
         <v>76</v>
@@ -6099,64 +5488,64 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" ht="15" spans="6:9">
+    <row r="132" spans="6:9" ht="15.75">
       <c r="F132" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G132" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="I132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="6:9" ht="15.75">
+      <c r="F133" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="G133" s="6" t="s">
         <v>332</v>
       </c>
-      <c r="I132">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" ht="15" spans="6:9">
-      <c r="F133" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="G133" s="6" t="s">
+      <c r="I133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="6:9" ht="15.75">
+      <c r="F134" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="G134" s="6" t="s">
         <v>333</v>
       </c>
-      <c r="I133">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" ht="15" spans="6:9">
-      <c r="F134" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="G134" s="6" t="s">
+      <c r="I134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="6:9" ht="15.75">
+      <c r="F135" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="G135" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="I134">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" ht="15" spans="6:9">
-      <c r="F135" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="G135" s="6" t="s">
+      <c r="I135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="6:9" ht="15.75">
+      <c r="F136" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="G136" s="6" t="s">
         <v>335</v>
       </c>
-      <c r="I135">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" ht="15" spans="6:9">
-      <c r="F136" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="G136" s="6" t="s">
-        <v>336</v>
-      </c>
       <c r="I136">
         <v>0</v>
       </c>
     </row>
-    <row r="137" ht="15" spans="6:9">
+    <row r="137" spans="6:9" ht="15.75">
       <c r="F137" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G137" s="6" t="s">
         <v>79</v>
@@ -6165,75 +5554,75 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" ht="15" spans="6:9">
+    <row r="138" spans="6:9" ht="15.75">
       <c r="F138" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G138" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="I138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="6:9" ht="15.75">
+      <c r="F139" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="G139" s="6" t="s">
         <v>337</v>
       </c>
-      <c r="I138">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" ht="15" spans="6:9">
-      <c r="F139" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="G139" s="6" t="s">
+      <c r="I139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="6:9" ht="15.75">
+      <c r="F140" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="G140" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="I139">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" ht="15" spans="6:9">
-      <c r="F140" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="G140" s="6" t="s">
+      <c r="I140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="6:9" ht="15.75">
+      <c r="F141" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="G141" s="6" t="s">
         <v>339</v>
       </c>
-      <c r="I140">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141" ht="15" spans="6:9">
-      <c r="F141" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="G141" s="6" t="s">
+      <c r="I141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="6:9" ht="15.75">
+      <c r="F142" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="G142" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="I141">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142" ht="15" spans="6:9">
-      <c r="F142" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="G142" s="6" t="s">
+      <c r="I142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="6:9" ht="15.75">
+      <c r="F143" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="G143" s="6" t="s">
         <v>341</v>
       </c>
-      <c r="I142">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" ht="15" spans="6:9">
-      <c r="F143" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="G143" s="6" t="s">
-        <v>342</v>
-      </c>
       <c r="I143">
         <v>0</v>
       </c>
     </row>
-    <row r="144" ht="15" spans="6:9">
+    <row r="144" spans="6:9" ht="15.75">
       <c r="F144" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G144" s="6" t="s">
         <v>82</v>
@@ -6242,86 +5631,86 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" ht="15" spans="6:9">
+    <row r="145" spans="6:9" ht="15.75">
       <c r="F145" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G145" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="I145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="6:9" ht="15.75">
+      <c r="F146" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="G146" s="6" t="s">
         <v>343</v>
       </c>
-      <c r="I145">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146" ht="15" spans="6:9">
-      <c r="F146" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="G146" s="6" t="s">
+      <c r="I146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="6:9" ht="15.75">
+      <c r="F147" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="G147" s="6" t="s">
         <v>344</v>
       </c>
-      <c r="I146">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" ht="15" spans="6:9">
-      <c r="F147" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="G147" s="6" t="s">
+      <c r="I147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="6:9" ht="15.75">
+      <c r="F148" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="G148" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="I147">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" ht="15" spans="6:9">
-      <c r="F148" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="G148" s="6" t="s">
+      <c r="I148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="6:9" ht="15.75">
+      <c r="F149" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="G149" s="6" t="s">
         <v>346</v>
       </c>
-      <c r="I148">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" ht="15" spans="6:9">
-      <c r="F149" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="G149" s="6" t="s">
+      <c r="I149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="6:9" ht="15.75">
+      <c r="F150" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="G150" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="I149">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" ht="15" spans="6:9">
-      <c r="F150" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="G150" s="6" t="s">
+      <c r="I150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="6:9" ht="15.75">
+      <c r="F151" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="G151" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="I150">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" ht="15" spans="6:9">
-      <c r="F151" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="G151" s="6" t="s">
-        <v>349</v>
-      </c>
       <c r="I151">
         <v>1</v>
       </c>
     </row>
-    <row r="152" ht="15" spans="6:9">
+    <row r="152" spans="6:9" ht="15.75">
       <c r="F152" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G152" s="6" t="s">
         <v>42</v>
@@ -6330,108 +5719,108 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" ht="15" spans="6:9">
+    <row r="153" spans="6:9" ht="15.75">
       <c r="F153" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G153" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="I153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="6:9" ht="18.75">
+      <c r="F154" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="G154" s="7" t="s">
         <v>350</v>
       </c>
-      <c r="I153">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154" ht="17.4" spans="6:9">
-      <c r="F154" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="G154" s="7" t="s">
+      <c r="I154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="6:9" ht="18.75">
+      <c r="F155" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="G155" s="7" t="s">
         <v>351</v>
       </c>
-      <c r="I154">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155" ht="17.4" spans="6:9">
-      <c r="F155" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="G155" s="7" t="s">
+      <c r="I155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="6:9" ht="18.75">
+      <c r="F156" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="G156" s="8" t="s">
         <v>352</v>
       </c>
-      <c r="I155">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156" ht="17.4" spans="6:9">
-      <c r="F156" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="G156" s="8" t="s">
+      <c r="I156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="6:9" ht="18.75">
+      <c r="F157" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="G157" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="I156">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157" ht="17.4" spans="6:9">
-      <c r="F157" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="G157" s="7" t="s">
+      <c r="I157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="6:9" ht="18.75">
+      <c r="F158" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="G158" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="I157">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158" ht="17.4" spans="6:9">
-      <c r="F158" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="G158" s="7" t="s">
+      <c r="I158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="6:9" ht="18.75">
+      <c r="F159" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="G159" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="I158">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159" ht="17.4" spans="6:9">
-      <c r="F159" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="G159" s="7" t="s">
+      <c r="I159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="6:9" ht="18.75">
+      <c r="F160" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="G160" s="8" t="s">
         <v>356</v>
       </c>
-      <c r="I159">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160" ht="17.4" spans="6:9">
-      <c r="F160" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="G160" s="8" t="s">
+      <c r="I160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="6:9" ht="18.75">
+      <c r="F161" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="G161" s="8" t="s">
         <v>357</v>
       </c>
-      <c r="I160">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161" ht="17.4" spans="6:9">
-      <c r="F161" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="G161" s="8" t="s">
-        <v>358</v>
-      </c>
       <c r="I161">
         <v>1</v>
       </c>
     </row>
-    <row r="162" ht="15" spans="6:9">
+    <row r="162" spans="6:9" ht="15.75">
       <c r="F162" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G162" s="6" t="s">
         <v>85</v>
@@ -6440,78 +5829,79 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" ht="15" spans="6:9">
+    <row r="163" spans="6:9" ht="15.75">
       <c r="F163" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G163" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="I163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="6:9" ht="15.75">
+      <c r="F164" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="G164" s="6" t="s">
         <v>359</v>
       </c>
-      <c r="I163">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164" ht="15" spans="6:9">
-      <c r="F164" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="G164" s="6" t="s">
+      <c r="I164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="6:9" ht="15.75">
+      <c r="F165" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="G165" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="I165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="6:9" ht="15.75">
+      <c r="F166" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="G166" s="6" t="s">
         <v>360</v>
       </c>
-      <c r="I164">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165" ht="15" spans="6:9">
-      <c r="F165" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="G165" s="6" t="s">
-        <v>358</v>
-      </c>
-      <c r="I165">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166" ht="15" spans="6:9">
-      <c r="F166" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="G166" s="6" t="s">
+      <c r="I166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="6:9" ht="15.75">
+      <c r="F167" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="G167" s="6" t="s">
         <v>361</v>
       </c>
-      <c r="I166">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167" ht="15" spans="6:9">
-      <c r="F167" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="G167" s="6" t="s">
+      <c r="I167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="6:9" ht="15.75">
+      <c r="F168" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="G168" s="6" t="s">
         <v>362</v>
       </c>
-      <c r="I167">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168" ht="15" spans="6:9">
-      <c r="F168" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="G168" s="6" t="s">
-        <v>363</v>
-      </c>
       <c r="I168">
         <v>1</v>
       </c>
     </row>
-    <row r="169" ht="15" spans="7:7">
+    <row r="169" spans="6:9" ht="15.75">
       <c r="G169" s="6"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="19" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,常规"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,常规"&amp;12 Page &amp;P</oddFooter>
@@ -6520,249 +5910,249 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="D7:G33"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A28" sqref="$A28:$XFD28"/>
+      <selection activeCell="A28" sqref="A28:XFD28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="6.2037037037037" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
     <col min="2" max="2" width="5" customWidth="1"/>
-    <col min="3" max="3" width="7.2037037037037" customWidth="1"/>
-    <col min="4" max="4" width="25.7962962962963" customWidth="1"/>
-    <col min="5" max="5" width="7.2037037037037" customWidth="1"/>
-    <col min="6" max="6" width="42.7962962962963" customWidth="1"/>
-    <col min="7" max="7" width="52.7962962962963" customWidth="1"/>
+    <col min="3" max="3" width="7.140625" customWidth="1"/>
+    <col min="4" max="4" width="25.85546875" customWidth="1"/>
+    <col min="5" max="5" width="7.140625" customWidth="1"/>
+    <col min="6" max="6" width="42.85546875" customWidth="1"/>
+    <col min="7" max="7" width="52.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:7">
+    <row r="7" spans="4:7" ht="13.5">
       <c r="D7" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>364</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F7" s="4" t="s">
+      <c r="G7" s="4" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="8" spans="4:7" ht="15.75">
+      <c r="F8" s="5" t="s">
         <v>365</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="8" ht="15.6" spans="6:7">
-      <c r="F8" s="5" t="s">
-        <v>366</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" ht="15.6" spans="6:7">
+    <row r="9" spans="4:7" ht="15.75">
       <c r="F9" s="5" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" ht="15.6" spans="6:7">
+    <row r="10" spans="4:7" ht="15.75">
       <c r="F10" s="5" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" ht="15.6" spans="6:7">
+    <row r="11" spans="4:7" ht="15.75">
       <c r="F11" s="5" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" ht="15.6" spans="6:7">
+    <row r="12" spans="4:7" ht="15.75">
       <c r="F12" s="5" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="13" ht="15.6" spans="6:7">
+    <row r="13" spans="4:7" ht="15.75">
       <c r="F13" s="5" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14" ht="15.6" spans="6:7">
+    <row r="14" spans="4:7" ht="15.75">
       <c r="F14" s="5" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="15" ht="15.6" spans="6:7">
+    <row r="15" spans="4:7" ht="15.75">
       <c r="F15" s="5" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G15" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="16" ht="15.6" spans="6:7">
+    <row r="16" spans="4:7" ht="15.75">
       <c r="F16" s="5" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="17" ht="15.6" spans="6:7">
+    <row r="17" spans="6:7" ht="15.75">
       <c r="F17" s="5" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="18" ht="15.6" spans="6:7">
+    <row r="18" spans="6:7" ht="15.75">
       <c r="F18" s="5" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G18" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="19" ht="15.6" spans="6:7">
+    <row r="19" spans="6:7" ht="15.75">
       <c r="F19" s="5" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G19" s="5" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="20" ht="15.6" spans="6:7">
+    <row r="20" spans="6:7" ht="15.75">
       <c r="F20" s="5" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G20" s="5" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="21" ht="15.6" spans="6:7">
+    <row r="21" spans="6:7" ht="15.75">
       <c r="F21" s="5" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G21" s="5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="22" ht="15.6" spans="6:7">
+    <row r="22" spans="6:7" ht="15.75">
       <c r="F22" s="5" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G22" s="5" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="23" ht="15.6" spans="6:7">
+    <row r="23" spans="6:7" ht="15.75">
       <c r="F23" s="5" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G23" s="5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="24" ht="15.6" spans="6:7">
+    <row r="24" spans="6:7" ht="15.75">
       <c r="F24" s="5" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G24" s="5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="25" ht="15.6" spans="6:7">
+    <row r="25" spans="6:7" ht="15.75">
       <c r="F25" s="5" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G25" s="5" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="26" ht="15.6" spans="6:7">
+    <row r="26" spans="6:7" ht="15.75">
       <c r="F26" s="5" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G26" s="5" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="27" ht="15.6" spans="6:7">
+    <row r="27" spans="6:7" ht="15.75">
       <c r="F27" s="5" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G27" s="5" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="28" ht="15.6" spans="6:7">
+    <row r="28" spans="6:7" ht="15.75">
       <c r="F28" s="5" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G28" s="5" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="29" ht="15.6" spans="6:7">
+    <row r="29" spans="6:7" ht="15.75">
       <c r="F29" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G29" s="5" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="30" ht="15.6" spans="6:7">
+    <row r="30" spans="6:7" ht="15.75">
       <c r="F30" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G30" s="5" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="31" ht="15.6" spans="6:7">
+    <row r="31" spans="6:7" ht="15.75">
       <c r="F31" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G31" s="5" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="32" ht="15.6" spans="6:7">
+    <row r="32" spans="6:7" ht="15.75">
       <c r="F32" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G32" s="5" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="33" ht="15.6" spans="6:7">
+    <row r="33" spans="6:7" ht="15.75">
       <c r="F33" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G33" s="5" t="s">
         <v>98</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <phoneticPr fontId="19" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,标准"&amp;12&amp;A</oddHeader>
@@ -6772,317 +6162,315 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="D6:I46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="D7:I46"/>
   <sheetViews>
-    <sheetView zoomScale="95" zoomScaleNormal="95" topLeftCell="C3" workbookViewId="0">
-      <selection activeCell="C46" sqref="$A46:$XFD46"/>
+    <sheetView topLeftCell="C3" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="C46" sqref="A46:XFD46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="3" width="8.7962962962963" customWidth="1"/>
-    <col min="4" max="4" width="27.3981481481481" customWidth="1"/>
+    <col min="1" max="3" width="8.85546875" customWidth="1"/>
+    <col min="4" max="4" width="27.42578125" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="23.7962962962963" customWidth="1"/>
+    <col min="6" max="6" width="23.85546875" customWidth="1"/>
     <col min="7" max="7" width="48" customWidth="1"/>
-    <col min="8" max="8" width="24.7962962962963" customWidth="1"/>
-    <col min="9" max="1025" width="8.7962962962963" customWidth="1"/>
+    <col min="8" max="8" width="24.85546875" customWidth="1"/>
+    <col min="9" max="1025" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" ht="13.95"/>
-    <row r="7" ht="19" customHeight="1" spans="4:9">
+    <row r="7" spans="4:9" ht="18.95" customHeight="1">
       <c r="D7" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>371</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>372</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="6:8">
+    <row r="8" spans="4:9" ht="12.75">
       <c r="F8" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="6:8">
+    <row r="9" spans="4:9" ht="12.75">
       <c r="F9" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="6:8">
+    <row r="10" spans="4:9" ht="12.75">
       <c r="F10" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="6:8">
+    <row r="11" spans="4:9" ht="12.75">
       <c r="F11" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="6:8">
+    <row r="12" spans="4:9" ht="12.75">
       <c r="F12" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="6:8">
+    <row r="13" spans="4:9" ht="12.75">
       <c r="F13" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="6:8">
+    <row r="14" spans="4:9" ht="12.75">
       <c r="F14" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="15" spans="6:8">
+    <row r="15" spans="4:9" ht="12.75">
       <c r="F15" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H15" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="G15" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="H15" s="2" t="s">
+    </row>
+    <row r="16" spans="4:9" ht="12.75">
+      <c r="F16" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="17" spans="4:9" ht="12.75">
+      <c r="F17" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="18" spans="4:9" ht="12.75">
+      <c r="F18" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="19" spans="4:9" ht="12.75">
+      <c r="F19" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="16" spans="6:8">
-      <c r="F16" s="2" t="s">
+      <c r="G19" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H19" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="G16" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="H16" s="2" t="s">
+    </row>
+    <row r="20" spans="4:9" ht="12.75">
+      <c r="F20" s="3" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="17" spans="6:8">
-      <c r="F17" s="2" t="s">
+      <c r="G20" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="H20" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="G17" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="H17" s="2" t="s">
+    </row>
+    <row r="21" spans="4:9" ht="12.75">
+      <c r="F21" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="18" spans="6:8">
-      <c r="F18" s="2" t="s">
+      <c r="G21" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="H21" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="G18" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="H18" s="2" t="s">
+    </row>
+    <row r="22" spans="4:9" ht="12.75">
+      <c r="F22" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="19" spans="6:8">
-      <c r="F19" t="s">
-        <v>377</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="20" spans="6:8">
-      <c r="F20" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="21" spans="6:8">
-      <c r="F21" t="s">
-        <v>377</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="22" spans="6:8">
-      <c r="F22" t="s">
-        <v>377</v>
-      </c>
       <c r="G22" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="23" spans="4:8">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="23" spans="4:9" ht="12.75">
       <c r="D23" s="2"/>
       <c r="F23" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="6:8">
+    <row r="24" spans="4:9" ht="12.75">
       <c r="F24" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="6:8">
+    <row r="25" spans="4:9" ht="12.75">
       <c r="F25" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="6:8">
+    <row r="26" spans="4:9" ht="12.75">
       <c r="F26" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="6:8">
+    <row r="27" spans="4:9" ht="12.75">
       <c r="F27" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="6:8">
+    <row r="28" spans="4:9" ht="12.75">
       <c r="F28" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="6:8">
+    <row r="29" spans="4:9" ht="12.75">
       <c r="F29" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="6:8">
+    <row r="30" spans="4:9" ht="12.75">
       <c r="F30" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="6:8">
+    <row r="31" spans="4:9" ht="12.75">
       <c r="F31" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="6:9">
+    <row r="32" spans="4:9" ht="12.75">
       <c r="F32" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>15</v>
@@ -7091,122 +6479,122 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="6:8">
+    <row r="33" spans="6:9" ht="12.75">
       <c r="F33" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="6:8">
+    <row r="34" spans="6:9" ht="12.75">
       <c r="F34" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="6:8">
+    <row r="35" spans="6:9" ht="12.75">
       <c r="F35" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H35" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="6:8">
+    <row r="36" spans="6:9" ht="12.75">
       <c r="F36" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H36" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="6:8">
+    <row r="37" spans="6:9" ht="12.75">
       <c r="F37" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H37" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="6:8">
+    <row r="38" spans="6:9" ht="12.75">
       <c r="F38" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="6:8">
+    <row r="39" spans="6:9" ht="12.75">
       <c r="F39" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H39" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="6:8">
+    <row r="40" spans="6:9" ht="12.75">
       <c r="F40" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H40" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="6:8">
+    <row r="41" spans="6:9" ht="12.75">
       <c r="F41" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H41" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="6:8">
+    <row r="42" spans="6:9" ht="12.75">
       <c r="F42" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H42" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="6:9">
+    <row r="43" spans="6:9" ht="12.75">
       <c r="F43" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H43" s="2" t="s">
         <v>15</v>
@@ -7215,68 +6603,67 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="6:8">
+    <row r="44" spans="6:9" ht="12.75">
       <c r="F44" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H44" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="6:8">
+    <row r="45" spans="6:9" ht="12.75">
       <c r="F45" t="s">
+        <v>376</v>
+      </c>
+      <c r="G45" s="2" t="s">
         <v>377</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>378</v>
       </c>
       <c r="H45" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="6:8">
+    <row r="46" spans="6:9" ht="12.75">
       <c r="F46" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H46" s="2" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.510416666666667" footer="0.510416666666667"/>
+  <phoneticPr fontId="19" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51041666666666696" footer="0.51041666666666696"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="D7:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.2037037037037" defaultRowHeight="13.2" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12"/>
   <cols>
-    <col min="6" max="6" width="18.2037037037037" customWidth="1"/>
-    <col min="7" max="7" width="15.7962962962963" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" customWidth="1"/>
     <col min="8" max="8" width="18" customWidth="1"/>
-    <col min="9" max="9" width="36.3981481481481" customWidth="1"/>
-    <col min="10" max="10" width="15.2037037037037" customWidth="1"/>
-    <col min="11" max="11" width="11.2037037037037" customWidth="1"/>
+    <col min="9" max="9" width="36.42578125" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" customWidth="1"/>
+    <col min="11" max="11" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="4:11">
       <c r="D7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E7" t="s">
         <v>1</v>
@@ -7291,237 +6678,235 @@
         <v>5</v>
       </c>
       <c r="I7" t="s">
+        <v>379</v>
+      </c>
+      <c r="J7" t="s">
         <v>380</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>381</v>
       </c>
-      <c r="K7" t="s">
+    </row>
+    <row r="8" spans="4:11">
+      <c r="F8" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="8" spans="6:11">
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>383</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>384</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>385</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>386</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>387</v>
       </c>
-      <c r="K8" t="s">
-        <v>388</v>
-      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="D7:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.2037037037037" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12"/>
   <cols>
-    <col min="4" max="4" width="21.3981481481481" customWidth="1"/>
+    <col min="4" max="4" width="21.42578125" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="13.2037037037037" customWidth="1"/>
-    <col min="7" max="7" width="25.3981481481481" customWidth="1"/>
-    <col min="8" max="9" width="18.2037037037037" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" customWidth="1"/>
+    <col min="7" max="7" width="25.42578125" customWidth="1"/>
+    <col min="8" max="9" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="4:9">
       <c r="D7" t="s">
+        <v>388</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
         <v>389</v>
       </c>
-      <c r="E7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>390</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>391</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>392</v>
       </c>
-      <c r="I7" t="s">
+    </row>
+    <row r="8" spans="4:9">
+      <c r="F8" t="s">
+        <v>382</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="8" spans="6:9">
-      <c r="F8" t="s">
-        <v>383</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="9" spans="4:9">
+      <c r="F9" t="s">
+        <v>382</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9" t="s">
         <v>394</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I9" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="10" spans="4:9">
+      <c r="F10" t="s">
+        <v>382</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10" t="s">
+        <v>396</v>
+      </c>
+      <c r="I10" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="11" spans="4:9">
+      <c r="F11" t="s">
+        <v>382</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11" t="s">
+        <v>398</v>
+      </c>
+      <c r="I11" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="9" spans="6:9">
-      <c r="F9" t="s">
-        <v>383</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="H9" t="s">
-        <v>395</v>
-      </c>
-      <c r="I9" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="10" spans="6:9">
-      <c r="F10" t="s">
-        <v>383</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="H10" t="s">
-        <v>397</v>
-      </c>
-      <c r="I10" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="11" spans="6:9">
-      <c r="F11" t="s">
-        <v>383</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="H11" t="s">
-        <v>399</v>
-      </c>
-      <c r="I11" t="s">
-        <v>388</v>
-      </c>
-    </row>
   </sheetData>
+  <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="D7:L9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.2037037037037" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12"/>
   <cols>
-    <col min="4" max="4" width="22.2037037037037" customWidth="1"/>
-    <col min="6" max="6" width="18.7962962962963" customWidth="1"/>
-    <col min="7" max="7" width="25.7962962962963" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" customWidth="1"/>
+    <col min="7" max="7" width="25.85546875" customWidth="1"/>
     <col min="8" max="8" width="36" customWidth="1"/>
-    <col min="9" max="9" width="22.2037037037037" customWidth="1"/>
-    <col min="10" max="10" width="25.7962962962963" customWidth="1"/>
-    <col min="11" max="11" width="19.7962962962963" customWidth="1"/>
+    <col min="9" max="9" width="22.140625" customWidth="1"/>
+    <col min="10" max="10" width="25.85546875" customWidth="1"/>
+    <col min="11" max="11" width="19.85546875" customWidth="1"/>
     <col min="12" max="12" width="21" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="4:12">
       <c r="D7" t="s">
+        <v>399</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>389</v>
+      </c>
+      <c r="G7" t="s">
         <v>400</v>
       </c>
-      <c r="E7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F7" t="s">
-        <v>390</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>401</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>402</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>403</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>404</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>405</v>
       </c>
-      <c r="L7" t="s">
+    </row>
+    <row r="8" spans="4:12">
+      <c r="F8" t="s">
+        <v>382</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="8" spans="6:11">
-      <c r="F8" t="s">
-        <v>383</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>407</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>408</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>409</v>
       </c>
-      <c r="K8" t="s">
+    </row>
+    <row r="9" spans="4:12">
+      <c r="F9" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="9" spans="6:12">
-      <c r="F9" t="s">
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9" t="s">
         <v>411</v>
       </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>412</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
+        <v>408</v>
+      </c>
+      <c r="K9" t="s">
         <v>413</v>
       </c>
-      <c r="J9" t="s">
-        <v>409</v>
-      </c>
-      <c r="K9" t="s">
-        <v>414</v>
-      </c>
       <c r="L9">
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/resources/script/meta/micro-service-init-data.xlsx
+++ b/src/main/resources/script/meta/micro-service-init-data.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22430"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\base-service\src\main\resources\script\meta\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7B29031-BC6D-4646-BF58-6DC506B58B82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="845" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="22056" windowHeight="10020" tabRatio="845" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
@@ -363,6 +357,9 @@
     <t>ICON</t>
   </si>
   <si>
+    <t>SORT</t>
+  </si>
+  <si>
     <t>CATEGORY</t>
   </si>
   <si>
@@ -461,7 +458,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="PingFang SC"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>ldap</t>
     </r>
@@ -470,7 +467,6 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>设置</t>
@@ -1125,7 +1121,7 @@
     <t>base-service.organization.appServerOverview</t>
   </si>
   <si>
-    <t>base-service.operate-log.listMoreOperateLog</t>
+    <t>base-service.organization-operate-log.listMoreOperateLog</t>
   </si>
   <si>
     <t>notify-service.online-count.getCurrentCount</t>
@@ -1294,17 +1290,19 @@
   </si>
   <si>
     <t>Number</t>
-  </si>
-  <si>
-    <t>SORT</t>
-    <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="39">
     <font>
       <sz val="10"/>
       <name val="Droid Sans Fallback"/>
@@ -1314,12 +1312,12 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="DejaVu Sans"/>
-      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1329,107 +1327,434 @@
     <font>
       <sz val="10"/>
       <name val="DejaVu Sans"/>
-      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="DengXian"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="PingFang SC"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="14"/>
       <name val="PingFang SC"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="PingFang SC"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="PingFang SC"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF5B9BD5"/>
       <name val="PingFang SC"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF5B9BD5"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFFC000"/>
       <name val="PingFang SC"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="13"/>
       <name val="PingFang SC"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF8F187C"/>
       <name val="PingFang SC"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF8F187C"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="13"/>
       <name val="Helvetica"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1452,9 +1777,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1479,17 +2046,61 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1747,39 +2358,39 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="D7:O37"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+    <sheetView zoomScale="95" zoomScaleNormal="95" topLeftCell="A9" workbookViewId="0">
       <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" customWidth="1"/>
+    <col min="1" max="1" width="9.13888888888889" customWidth="1"/>
+    <col min="2" max="2" width="9.57407407407407" customWidth="1"/>
     <col min="3" max="3" width="9" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
     <col min="5" max="5" width="9" customWidth="1"/>
-    <col min="6" max="6" width="49.140625" customWidth="1"/>
-    <col min="7" max="7" width="37.140625" customWidth="1"/>
+    <col min="6" max="6" width="49.1388888888889" customWidth="1"/>
+    <col min="7" max="7" width="37.1388888888889" customWidth="1"/>
     <col min="8" max="8" width="37" customWidth="1"/>
     <col min="9" max="9" width="19" customWidth="1"/>
-    <col min="10" max="10" width="19.85546875" customWidth="1"/>
+    <col min="10" max="10" width="19.8518518518519" customWidth="1"/>
     <col min="11" max="11" width="19" customWidth="1"/>
-    <col min="12" max="12" width="19.140625" customWidth="1"/>
-    <col min="13" max="13" width="18.85546875" customWidth="1"/>
-    <col min="14" max="14" width="19.42578125" customWidth="1"/>
+    <col min="12" max="12" width="19.1388888888889" customWidth="1"/>
+    <col min="13" max="13" width="18.8518518518519" customWidth="1"/>
+    <col min="14" max="14" width="19.4259259259259" customWidth="1"/>
     <col min="15" max="15" width="19" customWidth="1"/>
     <col min="16" max="1025" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:15" ht="12.75" customHeight="1">
+    <row r="7" ht="12.75" customHeight="1" spans="4:15">
       <c r="D7" s="4" t="s">
         <v>0</v>
       </c>
@@ -1817,7 +2428,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="4:15" ht="12.75">
+    <row r="8" spans="4:14">
       <c r="D8" s="3"/>
       <c r="F8" s="2" t="s">
         <v>12</v>
@@ -1847,7 +2458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="4:15" ht="12.75">
+    <row r="9" spans="6:14">
       <c r="F9" s="2" t="s">
         <v>18</v>
       </c>
@@ -1876,7 +2487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="4:15" ht="12.75">
+    <row r="10" spans="6:14">
       <c r="F10" s="2" t="s">
         <v>21</v>
       </c>
@@ -1905,7 +2516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="4:15" ht="12.75">
+    <row r="11" spans="6:14">
       <c r="F11" s="2" t="s">
         <v>24</v>
       </c>
@@ -1934,7 +2545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="4:15" ht="12.75">
+    <row r="12" spans="6:14">
       <c r="F12" s="2" t="s">
         <v>27</v>
       </c>
@@ -1963,7 +2574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="4:15" ht="12.75">
+    <row r="13" spans="6:14">
       <c r="F13" s="2" t="s">
         <v>30</v>
       </c>
@@ -1992,7 +2603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="4:15" ht="12.75">
+    <row r="14" spans="6:14">
       <c r="F14" s="2" t="s">
         <v>33</v>
       </c>
@@ -2021,7 +2632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="4:15" ht="12.75">
+    <row r="15" spans="6:14">
       <c r="F15" s="2" t="s">
         <v>36</v>
       </c>
@@ -2050,7 +2661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="4:15" ht="12.75">
+    <row r="16" spans="6:14">
       <c r="F16" s="2" t="s">
         <v>39</v>
       </c>
@@ -2079,7 +2690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="6:14" ht="12.75">
+    <row r="17" spans="6:14">
       <c r="F17" s="2" t="s">
         <v>42</v>
       </c>
@@ -2108,7 +2719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="6:14" ht="12.75">
+    <row r="18" spans="6:14">
       <c r="F18" s="2" t="s">
         <v>45</v>
       </c>
@@ -2137,7 +2748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="6:14" ht="12.75">
+    <row r="19" spans="6:14">
       <c r="F19" s="2" t="s">
         <v>49</v>
       </c>
@@ -2166,7 +2777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="6:14" ht="12.75">
+    <row r="20" spans="6:14">
       <c r="F20" s="2" t="s">
         <v>52</v>
       </c>
@@ -2195,7 +2806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="6:14" ht="12.75">
+    <row r="21" spans="6:14">
       <c r="F21" s="2" t="s">
         <v>55</v>
       </c>
@@ -2224,7 +2835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="6:14" ht="12.75">
+    <row r="22" spans="6:14">
       <c r="F22" s="2" t="s">
         <v>58</v>
       </c>
@@ -2253,7 +2864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="6:14" ht="12.75">
+    <row r="23" spans="6:14">
       <c r="F23" s="2" t="s">
         <v>61</v>
       </c>
@@ -2282,7 +2893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="6:14" ht="12.75">
+    <row r="24" spans="6:14">
       <c r="F24" s="2" t="s">
         <v>64</v>
       </c>
@@ -2311,7 +2922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="6:14" ht="12.75">
+    <row r="25" spans="6:14">
       <c r="F25" s="2" t="s">
         <v>67</v>
       </c>
@@ -2340,7 +2951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="6:14" ht="12.75">
+    <row r="26" spans="6:14">
       <c r="F26" s="2" t="s">
         <v>70</v>
       </c>
@@ -2369,7 +2980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="6:14" ht="12.75">
+    <row r="27" spans="6:14">
       <c r="F27" s="2" t="s">
         <v>73</v>
       </c>
@@ -2398,7 +3009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="6:14" ht="12.75">
+    <row r="28" spans="6:14">
       <c r="F28" s="2" t="s">
         <v>76</v>
       </c>
@@ -2427,7 +3038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="6:14" ht="12.75">
+    <row r="29" spans="6:14">
       <c r="F29" s="2" t="s">
         <v>79</v>
       </c>
@@ -2456,7 +3067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="6:14" ht="12.75">
+    <row r="30" spans="6:14">
       <c r="F30" s="2" t="s">
         <v>82</v>
       </c>
@@ -2485,7 +3096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="6:14" ht="12.75">
+    <row r="31" spans="6:14">
       <c r="F31" s="2" t="s">
         <v>85</v>
       </c>
@@ -2514,7 +3125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="6:14" ht="12.75">
+    <row r="32" spans="6:14">
       <c r="F32" s="2" t="s">
         <v>88</v>
       </c>
@@ -2543,7 +3154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="6:14" ht="12.75">
+    <row r="33" spans="6:14">
       <c r="F33" s="2" t="s">
         <v>92</v>
       </c>
@@ -2572,7 +3183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="6:14" ht="12.75">
+    <row r="34" spans="6:14">
       <c r="F34" s="2" t="s">
         <v>95</v>
       </c>
@@ -2601,7 +3212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="6:14" ht="12.75">
+    <row r="35" spans="6:14">
       <c r="F35" s="2" t="s">
         <v>98</v>
       </c>
@@ -2630,13 +3241,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="6:14" ht="12.75">
+    <row r="37" spans="7:7">
       <c r="G37" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="19" type="noConversion"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,常规"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,常规"&amp;12 Page &amp;P</oddFooter>
@@ -2645,36 +3255,37 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="D7:Q50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I34" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+    <sheetView zoomScale="86" zoomScaleNormal="86" topLeftCell="I34" workbookViewId="0">
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="6" customWidth="1"/>
-    <col min="3" max="3" width="4.85546875" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" customWidth="1"/>
+    <col min="3" max="3" width="4.85185185185185" customWidth="1"/>
+    <col min="4" max="4" width="19.4259259259259" customWidth="1"/>
     <col min="5" max="5" width="9" customWidth="1"/>
-    <col min="6" max="6" width="72.85546875" customWidth="1"/>
-    <col min="7" max="7" width="16.85546875" customWidth="1"/>
+    <col min="6" max="6" width="72.8518518518518" customWidth="1"/>
+    <col min="7" max="7" width="16.8518518518519" customWidth="1"/>
     <col min="8" max="8" width="36" customWidth="1"/>
-    <col min="9" max="9" width="63.85546875" customWidth="1"/>
-    <col min="10" max="10" width="18.5703125" customWidth="1"/>
-    <col min="11" max="11" width="54.85546875" customWidth="1"/>
-    <col min="12" max="12" width="19.140625" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" customWidth="1"/>
-    <col min="14" max="14" width="26.42578125" customWidth="1"/>
+    <col min="9" max="9" width="63.8518518518519" customWidth="1"/>
+    <col min="10" max="10" width="18.5740740740741" customWidth="1"/>
+    <col min="11" max="11" width="54.8518518518519" customWidth="1"/>
+    <col min="12" max="12" width="19.1388888888889" customWidth="1"/>
+    <col min="13" max="13" width="14.5740740740741" customWidth="1"/>
+    <col min="14" max="14" width="26.4259259259259" customWidth="1"/>
     <col min="15" max="15" width="9" customWidth="1"/>
-    <col min="16" max="16" width="12.42578125" customWidth="1"/>
-    <col min="17" max="17" width="10.85546875" customWidth="1"/>
+    <col min="16" max="16" width="12.4259259259259" customWidth="1"/>
+    <col min="17" max="17" width="10.8518518518519" customWidth="1"/>
     <col min="18" max="1025" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:17" ht="12.75" customHeight="1">
+    <row r="7" ht="12.75" customHeight="1" spans="4:17">
       <c r="D7" s="4" t="s">
         <v>101</v>
       </c>
@@ -2709,53 +3320,53 @@
         <v>108</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>414</v>
+        <v>109</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q7" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="4:17" ht="15.75">
+    <row r="8" ht="15.6" spans="4:15">
       <c r="D8" s="3"/>
       <c r="F8" s="9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9" t="s">
         <v>14</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L8" s="9" t="s">
         <v>15</v>
       </c>
       <c r="M8" s="9" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N8" s="9"/>
       <c r="O8" s="9">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="4:17" ht="15.75">
+    <row r="9" ht="15.6" spans="6:17">
       <c r="F9" s="9" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I9" s="9" t="s">
         <v>12</v>
@@ -2764,16 +3375,16 @@
         <v>14</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L9" s="9" t="s">
         <v>15</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N9" s="9" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O9" s="9">
         <v>10</v>
@@ -2782,15 +3393,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="4:17" ht="15.75">
+    <row r="10" ht="15.6" spans="6:17">
       <c r="F10" s="9" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I10" s="9" t="s">
         <v>18</v>
@@ -2799,16 +3410,16 @@
         <v>14</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L10" s="9" t="s">
         <v>15</v>
       </c>
       <c r="M10" s="9" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N10" s="9" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O10" s="9">
         <v>20</v>
@@ -2817,15 +3428,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="4:17" ht="15.75">
+    <row r="11" ht="15.6" spans="6:15">
       <c r="F11" s="9" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I11" s="9" t="s">
         <v>12</v>
@@ -2834,30 +3445,30 @@
         <v>14</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L11" s="9" t="s">
         <v>15</v>
       </c>
       <c r="M11" s="9" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N11" s="9" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O11" s="9">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="4:17" ht="15.75">
+    <row r="12" ht="15.6" spans="6:15">
       <c r="F12" s="9" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I12" s="9" t="s">
         <v>18</v>
@@ -2866,58 +3477,58 @@
         <v>14</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L12" s="9" t="s">
         <v>15</v>
       </c>
       <c r="M12" s="9" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N12" s="9" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O12" s="9">
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="4:17" ht="15.75">
+    <row r="13" ht="15.6" spans="6:15">
       <c r="F13" s="9" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9" t="s">
         <v>14</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L13" s="9" t="s">
         <v>15</v>
       </c>
       <c r="M13" s="9" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N13" s="9"/>
       <c r="O13" s="9">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="4:17" ht="15.75">
+    <row r="14" ht="15.6" spans="6:15">
       <c r="F14" s="9" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I14" s="9" t="s">
         <v>21</v>
@@ -2926,30 +3537,30 @@
         <v>14</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L14" s="9" t="s">
         <v>15</v>
       </c>
       <c r="M14" s="9" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N14" s="9" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O14" s="9">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="4:17" ht="15.75">
+    <row r="15" ht="15.6" spans="6:15">
       <c r="F15" s="9" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I15" s="9" t="s">
         <v>24</v>
@@ -2958,30 +3569,30 @@
         <v>14</v>
       </c>
       <c r="K15" s="9" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L15" s="9" t="s">
         <v>15</v>
       </c>
       <c r="M15" s="9" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N15" s="9" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O15" s="9">
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="4:17" ht="15.75">
+    <row r="16" ht="15.6" spans="6:15">
       <c r="F16" s="9" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I16" s="9" t="s">
         <v>27</v>
@@ -2990,28 +3601,28 @@
         <v>14</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L16" s="9" t="s">
         <v>15</v>
       </c>
       <c r="M16" s="9" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="N16" s="9"/>
       <c r="O16" s="9">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="6:17" ht="15.75">
+    <row r="17" ht="15.6" spans="6:15">
       <c r="F17" s="9" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I17" s="9" t="s">
         <v>30</v>
@@ -3020,28 +3631,28 @@
         <v>14</v>
       </c>
       <c r="K17" s="9" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L17" s="9" t="s">
         <v>15</v>
       </c>
       <c r="M17" s="9" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="N17" s="9"/>
       <c r="O17" s="9">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="6:17" ht="15.75">
+    <row r="18" ht="15.6" spans="6:15">
       <c r="F18" s="9" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I18" s="9" t="s">
         <v>33</v>
@@ -3050,28 +3661,28 @@
         <v>14</v>
       </c>
       <c r="K18" s="9" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L18" s="9" t="s">
         <v>15</v>
       </c>
       <c r="M18" s="9" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="N18" s="9"/>
       <c r="O18" s="9">
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="6:17" ht="15.75">
+    <row r="19" ht="15.6" spans="6:15">
       <c r="F19" s="9" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I19" s="9" t="s">
         <v>36</v>
@@ -3080,28 +3691,28 @@
         <v>14</v>
       </c>
       <c r="K19" s="9" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L19" s="9" t="s">
         <v>15</v>
       </c>
       <c r="M19" s="9" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="N19" s="9"/>
       <c r="O19" s="9">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="6:17" ht="15.75">
+    <row r="20" ht="15.6" spans="6:17">
       <c r="F20" s="9" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I20" s="9" t="s">
         <v>39</v>
@@ -3110,16 +3721,16 @@
         <v>14</v>
       </c>
       <c r="K20" s="9" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L20" s="9" t="s">
         <v>15</v>
       </c>
       <c r="M20" s="9" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N20" s="9" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O20" s="9">
         <v>30</v>
@@ -3128,15 +3739,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="6:17" ht="15.75">
+    <row r="21" ht="15.6" spans="6:15">
       <c r="F21" s="9" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I21" s="9" t="s">
         <v>39</v>
@@ -3145,30 +3756,30 @@
         <v>14</v>
       </c>
       <c r="K21" s="9" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L21" s="9" t="s">
         <v>15</v>
       </c>
       <c r="M21" s="9" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N21" s="9" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O21" s="9">
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="6:17" ht="15.75">
+    <row r="22" ht="15.6" spans="6:15">
       <c r="F22" s="9" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="I22" s="9" t="s">
         <v>42</v>
@@ -3177,58 +3788,58 @@
         <v>14</v>
       </c>
       <c r="K22" s="9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L22" s="9" t="s">
         <v>15</v>
       </c>
       <c r="M22" s="9" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N22" s="9" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O22" s="9">
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="6:17" ht="15.75">
+    <row r="23" ht="15.6" spans="6:15">
       <c r="F23" s="11" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="I23" s="11"/>
       <c r="J23" s="11" t="s">
         <v>14</v>
       </c>
       <c r="K23" s="11" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L23" s="11" t="s">
         <v>47</v>
       </c>
       <c r="M23" s="11" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N23" s="11"/>
       <c r="O23" s="11">
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="6:17" ht="15.75">
+    <row r="24" ht="15.6" spans="6:17">
       <c r="F24" s="11" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="I24" s="11" t="s">
         <v>45</v>
@@ -3237,16 +3848,16 @@
         <v>14</v>
       </c>
       <c r="K24" s="11" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L24" s="11" t="s">
         <v>47</v>
       </c>
       <c r="M24" s="11" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N24" s="11" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O24" s="11">
         <v>10</v>
@@ -3255,15 +3866,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="6:17" ht="15.75">
+    <row r="25" ht="15.6" spans="6:17">
       <c r="F25" s="11" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I25" s="11" t="s">
         <v>49</v>
@@ -3272,16 +3883,16 @@
         <v>14</v>
       </c>
       <c r="K25" s="11" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L25" s="11" t="s">
         <v>47</v>
       </c>
       <c r="M25" s="11" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N25" s="11" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O25" s="11">
         <v>40</v>
@@ -3290,15 +3901,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="6:17" ht="15.75">
+    <row r="26" ht="15.6" spans="6:17">
       <c r="F26" s="11" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G26" s="12" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="I26" s="11" t="s">
         <v>52</v>
@@ -3307,16 +3918,16 @@
         <v>14</v>
       </c>
       <c r="K26" s="11" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L26" s="11" t="s">
         <v>47</v>
       </c>
       <c r="M26" s="11" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N26" s="11" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O26" s="11">
         <v>50</v>
@@ -3325,15 +3936,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="6:17" ht="15.75">
+    <row r="27" ht="15.6" spans="6:17">
       <c r="F27" s="11" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G27" s="11" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I27" s="11" t="s">
         <v>55</v>
@@ -3342,16 +3953,16 @@
         <v>14</v>
       </c>
       <c r="K27" s="11" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L27" s="11" t="s">
         <v>47</v>
       </c>
       <c r="M27" s="11" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N27" s="11" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="O27" s="11">
         <v>60</v>
@@ -3360,15 +3971,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="6:17" ht="15.75">
+    <row r="28" ht="15.6" spans="6:15">
       <c r="F28" s="11" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G28" s="12" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="I28" s="11" t="s">
         <v>85</v>
@@ -3377,30 +3988,30 @@
         <v>14</v>
       </c>
       <c r="K28" s="11" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L28" s="11" t="s">
         <v>47</v>
       </c>
       <c r="M28" s="11" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N28" s="11" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O28" s="11">
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="6:17" ht="15.75">
+    <row r="29" ht="15.6" spans="6:15">
       <c r="F29" s="11" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="I29" s="11" t="s">
         <v>45</v>
@@ -3409,30 +4020,30 @@
         <v>14</v>
       </c>
       <c r="K29" s="11" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L29" s="11" t="s">
         <v>47</v>
       </c>
       <c r="M29" s="11" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N29" s="11" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O29" s="11">
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="6:17" ht="15.75">
+    <row r="30" ht="15.6" spans="6:15">
       <c r="F30" s="11" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I30" s="11" t="s">
         <v>49</v>
@@ -3441,30 +4052,30 @@
         <v>14</v>
       </c>
       <c r="K30" s="11" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L30" s="11" t="s">
         <v>47</v>
       </c>
       <c r="M30" s="11" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N30" s="11" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O30" s="11">
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="6:17" ht="15.75">
+    <row r="31" ht="15.6" spans="6:15">
       <c r="F31" s="11" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G31" s="12" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H31" s="11" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="I31" s="11" t="s">
         <v>52</v>
@@ -3473,30 +4084,30 @@
         <v>14</v>
       </c>
       <c r="K31" s="11" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L31" s="11" t="s">
         <v>47</v>
       </c>
       <c r="M31" s="11" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N31" s="11" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O31" s="11">
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="6:17" ht="15.75">
+    <row r="32" ht="15.6" spans="6:15">
       <c r="F32" s="11" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H32" s="11" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I32" s="11" t="s">
         <v>55</v>
@@ -3505,58 +4116,58 @@
         <v>14</v>
       </c>
       <c r="K32" s="11" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L32" s="11" t="s">
         <v>47</v>
       </c>
       <c r="M32" s="11" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N32" s="11" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="O32" s="11">
         <v>70</v>
       </c>
     </row>
-    <row r="33" spans="6:15" ht="15.75">
+    <row r="33" ht="15.6" spans="6:15">
       <c r="F33" s="11" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H33" s="11" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I33" s="11"/>
       <c r="J33" s="11" t="s">
         <v>14</v>
       </c>
       <c r="K33" s="11" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L33" s="11" t="s">
         <v>47</v>
       </c>
       <c r="M33" s="11" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N33" s="11"/>
       <c r="O33" s="11">
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="6:15" ht="15.75">
+    <row r="34" ht="15.6" spans="6:15">
       <c r="F34" s="11" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I34" s="11" t="s">
         <v>58</v>
@@ -3565,30 +4176,30 @@
         <v>14</v>
       </c>
       <c r="K34" s="11" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L34" s="11" t="s">
         <v>47</v>
       </c>
       <c r="M34" s="11" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N34" s="11" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O34" s="11">
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="6:15" ht="15.75">
+    <row r="35" ht="15.6" spans="6:15">
       <c r="F35" s="11" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H35" s="11" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I35" s="11" t="s">
         <v>61</v>
@@ -3597,30 +4208,30 @@
         <v>14</v>
       </c>
       <c r="K35" s="11" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L35" s="11" t="s">
         <v>47</v>
       </c>
       <c r="M35" s="11" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N35" s="11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O35" s="11">
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="6:15" ht="15.75">
+    <row r="36" ht="15.6" spans="6:15">
       <c r="F36" s="11" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I36" s="11" t="s">
         <v>64</v>
@@ -3629,58 +4240,58 @@
         <v>14</v>
       </c>
       <c r="K36" s="11" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L36" s="11" t="s">
         <v>47</v>
       </c>
       <c r="M36" s="11" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="N36" s="11"/>
       <c r="O36" s="11">
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="6:15" ht="15.75">
+    <row r="37" ht="15.6" spans="6:15">
       <c r="F37" s="13" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G37" s="13" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H37" s="13" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I37" s="13"/>
       <c r="J37" s="13" t="s">
         <v>14</v>
       </c>
       <c r="K37" s="13" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L37" s="13" t="s">
         <v>47</v>
       </c>
       <c r="M37" s="13" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N37" s="13" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="O37" s="13">
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="6:15" ht="15.75">
+    <row r="38" ht="15.6" spans="6:15">
       <c r="F38" s="13" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G38" s="13" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H38" s="13" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I38" s="13" t="s">
         <v>67</v>
@@ -3689,30 +4300,30 @@
         <v>14</v>
       </c>
       <c r="K38" s="13" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L38" s="13" t="s">
         <v>47</v>
       </c>
       <c r="M38" s="13" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N38" s="13" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O38" s="13">
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="6:15" ht="15.75">
+    <row r="39" ht="15.6" spans="6:15">
       <c r="F39" s="13" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G39" s="13" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H39" s="13" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="I39" s="13" t="s">
         <v>70</v>
@@ -3721,30 +4332,30 @@
         <v>14</v>
       </c>
       <c r="K39" s="13" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L39" s="13" t="s">
         <v>47</v>
       </c>
       <c r="M39" s="13" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N39" s="13" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O39" s="13">
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="6:15" ht="15.75">
+    <row r="40" ht="15.6" spans="6:15">
       <c r="F40" s="13" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G40" s="13" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H40" s="13" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="I40" s="13" t="s">
         <v>73</v>
@@ -3753,30 +4364,30 @@
         <v>14</v>
       </c>
       <c r="K40" s="13" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L40" s="13" t="s">
         <v>47</v>
       </c>
       <c r="M40" s="13" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N40" s="13" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="O40" s="13">
         <v>30</v>
       </c>
     </row>
-    <row r="41" spans="6:15" ht="16.5">
+    <row r="41" ht="16.8" spans="6:15">
       <c r="F41" s="14" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G41" s="14" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H41" s="14" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="I41" s="14" t="s">
         <v>76</v>
@@ -3785,30 +4396,30 @@
         <v>14</v>
       </c>
       <c r="K41" s="14" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L41" s="14" t="s">
         <v>47</v>
       </c>
       <c r="M41" s="14" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N41" s="17" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="O41" s="14">
         <v>50</v>
       </c>
     </row>
-    <row r="42" spans="6:15" ht="16.5">
+    <row r="42" ht="16.8" spans="6:15">
       <c r="F42" s="14" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G42" s="14" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H42" s="14" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="I42" s="14" t="s">
         <v>79</v>
@@ -3817,30 +4428,30 @@
         <v>14</v>
       </c>
       <c r="K42" s="14" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L42" s="14" t="s">
         <v>47</v>
       </c>
       <c r="M42" s="14" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N42" s="17" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="O42" s="14">
         <v>60</v>
       </c>
     </row>
-    <row r="43" spans="6:15" ht="16.5">
+    <row r="43" ht="16.8" spans="6:15">
       <c r="F43" s="14" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G43" s="14" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H43" s="14" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="I43" s="14" t="s">
         <v>82</v>
@@ -3849,60 +4460,60 @@
         <v>14</v>
       </c>
       <c r="K43" s="14" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L43" s="14" t="s">
         <v>47</v>
       </c>
       <c r="M43" s="14" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N43" s="14" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O43" s="14">
         <v>70</v>
       </c>
     </row>
-    <row r="44" spans="6:15" ht="15.75">
+    <row r="44" ht="15.6" spans="6:15">
       <c r="F44" s="15" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G44" s="15" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H44" s="15" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I44" s="15"/>
       <c r="J44" s="15" t="s">
         <v>14</v>
       </c>
       <c r="K44" s="15" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L44" s="15" t="s">
         <v>90</v>
       </c>
       <c r="M44" s="15" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N44" s="15" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="O44" s="15">
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="6:15" ht="15.75">
+    <row r="45" ht="15.6" spans="6:15">
       <c r="F45" s="15" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G45" s="15" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H45" s="15" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="I45" s="15" t="s">
         <v>88</v>
@@ -3911,58 +4522,58 @@
         <v>14</v>
       </c>
       <c r="K45" s="15" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L45" s="15" t="s">
         <v>90</v>
       </c>
       <c r="M45" s="15" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N45" s="15" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="O45" s="15">
         <v>20</v>
       </c>
     </row>
-    <row r="46" spans="6:15" ht="15.75">
+    <row r="46" ht="15.6" spans="6:15">
       <c r="F46" s="15" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="G46" s="15" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H46" s="15" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I46" s="15"/>
       <c r="J46" s="15" t="s">
         <v>14</v>
       </c>
       <c r="K46" s="15" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L46" s="15" t="s">
         <v>90</v>
       </c>
       <c r="M46" s="15" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N46" s="15"/>
       <c r="O46" s="15">
         <v>80</v>
       </c>
     </row>
-    <row r="47" spans="6:15" ht="15.75">
+    <row r="47" ht="15.6" spans="6:15">
       <c r="F47" s="15" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G47" s="15" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H47" s="15" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I47" s="15" t="s">
         <v>92</v>
@@ -3971,30 +4582,30 @@
         <v>14</v>
       </c>
       <c r="K47" s="15" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L47" s="15" t="s">
         <v>90</v>
       </c>
       <c r="M47" s="15" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N47" s="15" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O47" s="15">
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="6:15" ht="15.75">
+    <row r="48" ht="15.6" spans="6:15">
       <c r="F48" s="15" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G48" s="16" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H48" s="15" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I48" s="15" t="s">
         <v>95</v>
@@ -4003,54 +4614,54 @@
         <v>14</v>
       </c>
       <c r="K48" s="15" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L48" s="15" t="s">
         <v>90</v>
       </c>
       <c r="M48" s="15" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="N48" s="15"/>
       <c r="O48" s="15">
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="6:15" ht="15.75">
+    <row r="49" ht="15.6" spans="6:15">
       <c r="F49" s="15" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G49" s="15" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H49" s="15" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="J49" s="15" t="s">
         <v>14</v>
       </c>
       <c r="K49" s="15" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L49" s="15" t="s">
         <v>90</v>
       </c>
       <c r="M49" s="15" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O49" s="15">
         <v>60</v>
       </c>
     </row>
-    <row r="50" spans="6:15" ht="15.75">
+    <row r="50" ht="15.6" spans="6:15">
       <c r="F50" s="15" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G50" s="15" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H50" s="15" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="I50" s="15" t="s">
         <v>98</v>
@@ -4059,25 +4670,24 @@
         <v>14</v>
       </c>
       <c r="K50" s="15" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L50" s="15" t="s">
         <v>90</v>
       </c>
       <c r="M50" s="15" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N50" s="15" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O50" s="15">
         <v>10</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="19" type="noConversion"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,常规"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,常规"&amp;12 Page &amp;P</oddFooter>
@@ -4086,47 +4696,48 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="D7:I169"/>
   <sheetViews>
-    <sheetView topLeftCell="A145" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G157" sqref="G157"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="A145" workbookViewId="0">
+      <selection activeCell="G172" sqref="G172"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="3" width="9" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" customWidth="1"/>
+    <col min="4" max="4" width="23.8518518518519" customWidth="1"/>
     <col min="5" max="5" width="9" customWidth="1"/>
-    <col min="6" max="6" width="60.85546875" customWidth="1"/>
-    <col min="7" max="7" width="71.85546875" customWidth="1"/>
+    <col min="6" max="6" width="60.8518518518519" customWidth="1"/>
+    <col min="7" max="7" width="71.8518518518518" customWidth="1"/>
     <col min="8" max="1025" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:9" ht="12.75" customHeight="1">
+    <row r="7" ht="12.75" customHeight="1" spans="4:9">
       <c r="D7" s="4" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I7" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="8" spans="4:9" ht="15.75">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="8" ht="15.6" spans="4:9">
       <c r="D8" s="3"/>
       <c r="F8" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>12</v>
@@ -4135,53 +4746,53 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="4:9" ht="15.75">
+    <row r="9" ht="15.6" spans="6:9">
       <c r="F9" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="4:9" ht="15.75">
+    <row r="10" ht="15.6" spans="6:9">
       <c r="F10" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="4:9" ht="15.75">
+    <row r="11" ht="15.6" spans="6:9">
       <c r="F11" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="4:9" ht="15.75">
+    <row r="12" ht="15.6" spans="6:9">
       <c r="F12" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="4:9" ht="15.75">
+    <row r="13" ht="15.6" spans="6:9">
       <c r="F13" s="6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>18</v>
@@ -4190,207 +4801,207 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="4:9" ht="15.75">
+    <row r="14" ht="15.6" spans="6:9">
       <c r="F14" s="6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="4:9" ht="15.75">
+    <row r="15" ht="15.6" spans="6:9">
       <c r="F15" s="6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="4:9" ht="15.75">
+    <row r="16" ht="15.6" spans="6:9">
       <c r="F16" s="6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="6:9" ht="15.75">
+    <row r="17" ht="15.6" spans="6:9">
       <c r="F17" s="6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="6:9" ht="15.75">
+    <row r="18" ht="15.6" spans="6:9">
       <c r="F18" s="6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="6:9" ht="15.75">
+    <row r="19" ht="15.6" spans="6:9">
       <c r="F19" s="6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="6:9" ht="15.75">
+    <row r="20" ht="15.6" spans="6:9">
       <c r="F20" s="6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="6:9" ht="15.75">
+    <row r="21" ht="15.6" spans="6:9">
       <c r="F21" s="6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="6:9" ht="15.75">
+    <row r="22" ht="15.6" spans="6:9">
       <c r="F22" s="6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="I22">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="6:9" ht="15.75">
+    <row r="23" ht="15.6" spans="6:9">
       <c r="F23" s="6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="I23">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="6:9" ht="15.75">
+    <row r="24" ht="15.6" spans="6:9">
       <c r="F24" s="6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="I24">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="6:9" ht="15.75">
+    <row r="25" ht="15.6" spans="6:9">
       <c r="F25" s="6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="6:9" ht="15.75">
+    <row r="26" ht="15.6" spans="6:9">
       <c r="F26" s="6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="I26">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="6:9" ht="15.75">
+    <row r="27" ht="15.6" spans="6:9">
       <c r="F27" s="6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="6:9" ht="15.75">
+    <row r="28" ht="15.6" spans="6:9">
       <c r="F28" s="6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="I28">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="6:9" ht="15.75">
+    <row r="29" ht="15.6" spans="6:9">
       <c r="F29" s="6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I29">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="6:9" ht="15.75">
+    <row r="30" ht="15.6" spans="6:9">
       <c r="F30" s="6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="I30">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="6:9" ht="15.75">
+    <row r="31" ht="15.6" spans="6:9">
       <c r="F31" s="6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="I31">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="6:9" ht="15.75">
+    <row r="32" ht="15.6" spans="6:9">
       <c r="F32" s="6" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G32" s="6" t="s">
         <v>21</v>
@@ -4399,9 +5010,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="6:9" ht="15.75">
+    <row r="33" ht="15.6" spans="6:9">
       <c r="F33" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G33" s="6" t="s">
         <v>27</v>
@@ -4410,31 +5021,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="6:9" ht="15.75">
+    <row r="34" ht="15.6" spans="6:9">
       <c r="F34" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="I34">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="6:9" ht="15.75">
+    <row r="35" ht="15.6" spans="6:9">
       <c r="F35" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="I35">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="6:9" ht="15.75">
+    <row r="36" ht="15.6" spans="6:9">
       <c r="F36" s="6" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G36" s="6" t="s">
         <v>30</v>
@@ -4443,97 +5054,97 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="6:9" ht="15.75">
+    <row r="37" ht="15.6" spans="6:9">
       <c r="F37" s="6" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="I37">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="6:9" ht="15.75">
+    <row r="38" ht="15.6" spans="6:9">
       <c r="F38" s="6" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="I38">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="6:9" ht="15.75">
+    <row r="39" ht="15.6" spans="6:9">
       <c r="F39" s="6" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I39">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="6:9" ht="15.75">
+    <row r="40" ht="15.6" spans="6:9">
       <c r="F40" s="6" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="I40">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="6:9" ht="15.75">
+    <row r="41" ht="15.6" spans="6:9">
       <c r="F41" s="6" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="I41">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="6:9" ht="15.75">
+    <row r="42" ht="15.6" spans="6:9">
       <c r="F42" s="6" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="I42">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="6:9" ht="15.75">
+    <row r="43" ht="15.6" spans="6:9">
       <c r="F43" s="6" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="I43">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="6:9" ht="15.75">
+    <row r="44" ht="15.6" spans="6:9">
       <c r="F44" s="6" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="I44">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="6:9" ht="15.75">
+    <row r="45" ht="15.6" spans="6:9">
       <c r="F45" s="6" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G45" s="6" t="s">
         <v>33</v>
@@ -4542,64 +5153,64 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="6:9" ht="15.75">
+    <row r="46" ht="15.6" spans="6:9">
       <c r="F46" s="6" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="I46">
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="6:9" ht="15.75">
+    <row r="47" ht="15.6" spans="6:9">
       <c r="F47" s="6" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="I47">
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="6:9" ht="15.75">
+    <row r="48" ht="15.6" spans="6:9">
       <c r="F48" s="6" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I48">
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="6:9" ht="15.75">
+    <row r="49" ht="15.6" spans="6:9">
       <c r="F49" s="6" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="I49">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="6:9" ht="15.75">
+    <row r="50" ht="15.6" spans="6:9">
       <c r="F50" s="6" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="I50">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="6:9" ht="15.75">
+    <row r="51" ht="15.6" spans="6:9">
       <c r="F51" s="6" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G51" s="6" t="s">
         <v>24</v>
@@ -4608,9 +5219,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="6:9" ht="15.75">
+    <row r="52" ht="15.6" spans="6:9">
       <c r="F52" s="6" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G52" s="6" t="s">
         <v>36</v>
@@ -4619,31 +5230,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="6:9" ht="15.75">
+    <row r="53" ht="15.6" spans="6:9">
       <c r="F53" s="6" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="I53">
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="6:9" ht="15.75">
+    <row r="54" ht="15.6" spans="6:9">
       <c r="F54" s="6" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="I54">
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="6:9" ht="15.75">
+    <row r="55" ht="15.6" spans="6:9">
       <c r="F55" s="6" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G55" s="6" t="s">
         <v>39</v>
@@ -4652,97 +5263,97 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="6:9" ht="15.75">
+    <row r="56" ht="15.6" spans="6:9">
       <c r="F56" s="6" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G56" s="6" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="I56">
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="6:9" ht="15.75">
+    <row r="57" ht="15.6" spans="6:9">
       <c r="F57" s="6" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="I57">
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="6:9" ht="15.75">
+    <row r="58" ht="15.6" spans="6:9">
       <c r="F58" s="6" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G58" s="6" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="I58">
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="6:9" ht="15.75">
+    <row r="59" ht="15.6" spans="6:9">
       <c r="F59" s="6" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="I59">
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="6:9" ht="15.75">
+    <row r="60" ht="15.6" spans="6:9">
       <c r="F60" s="6" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="I60">
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="6:9" ht="15.75">
+    <row r="61" ht="15.6" spans="6:9">
       <c r="F61" s="6" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="I61">
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="6:9" ht="15.75">
+    <row r="62" ht="15.6" spans="6:9">
       <c r="F62" s="6" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="I62">
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="6:9" ht="15.75">
+    <row r="63" ht="15.6" spans="6:9">
       <c r="F63" s="6" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G63" s="6" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="I63">
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="6:9" ht="15.75">
+    <row r="64" ht="15.6" spans="6:9">
       <c r="F64" s="6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G64" s="6" t="s">
         <v>45</v>
@@ -4751,42 +5362,42 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="6:9" ht="15.75">
+    <row r="65" ht="15.6" spans="6:9">
       <c r="F65" s="6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="I65">
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="6:9" ht="15.75">
+    <row r="66" ht="15.6" spans="6:9">
       <c r="F66" s="6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="I66">
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="6:9" ht="15.75">
+    <row r="67" ht="15.6" spans="6:9">
       <c r="F67" s="6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="I67">
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="6:9" ht="15.75">
+    <row r="68" ht="15.6" spans="6:9">
       <c r="F68" s="6" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G68" s="6" t="s">
         <v>49</v>
@@ -4795,152 +5406,152 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="6:9" ht="15.75">
+    <row r="69" ht="15.6" spans="6:9">
       <c r="F69" s="6" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="I69">
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="6:9" ht="15.75">
+    <row r="70" ht="15.6" spans="6:9">
       <c r="F70" s="6" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="I70">
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="6:9" ht="15.75">
+    <row r="71" ht="15.6" spans="6:9">
       <c r="F71" s="6" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="I71">
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="6:9" ht="15.75">
+    <row r="72" ht="15.6" spans="6:9">
       <c r="F72" s="6" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G72" s="6" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="I72">
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="6:9" ht="15.75">
+    <row r="73" ht="15.6" spans="6:9">
       <c r="F73" s="6" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="I73">
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="6:9" ht="15.75">
+    <row r="74" ht="15.6" spans="6:9">
       <c r="F74" s="6" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G74" s="6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="I74">
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="6:9" ht="15.75">
+    <row r="75" ht="15.6" spans="6:9">
       <c r="F75" s="6" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G75" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="I75">
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="6:9" ht="15.75">
+    <row r="76" ht="15.6" spans="6:9">
       <c r="F76" s="6" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G76" s="6" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="I76">
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="6:9" ht="15.75">
+    <row r="77" ht="15.6" spans="6:9">
       <c r="F77" s="6" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G77" s="6" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="I77">
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="6:9" ht="15.75">
+    <row r="78" ht="15.6" spans="6:9">
       <c r="F78" s="6" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G78" s="6" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="I78">
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="6:9" ht="15.75">
+    <row r="79" ht="15.6" spans="6:9">
       <c r="F79" s="6" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G79" s="6" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="I79">
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="6:9" ht="15.75">
+    <row r="80" ht="15.6" spans="6:9">
       <c r="F80" s="6" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G80" s="6" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="I80">
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="6:9" ht="15.75">
+    <row r="81" ht="15.6" spans="6:9">
       <c r="F81" s="6" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G81" s="6" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="I81">
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="6:9" ht="15.75">
+    <row r="82" ht="15.6" spans="6:9">
       <c r="F82" s="6" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G82" s="6" t="s">
         <v>52</v>
@@ -4949,119 +5560,119 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="6:9" ht="15.75">
+    <row r="83" ht="15.6" spans="6:9">
       <c r="F83" s="6" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G83" s="6" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="I83">
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="6:9" ht="15.75">
+    <row r="84" ht="15.6" spans="6:9">
       <c r="F84" s="6" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G84" s="6" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="I84">
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="6:9" ht="15.75">
+    <row r="85" ht="15.6" spans="6:9">
       <c r="F85" s="6" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G85" s="6" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="I85">
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="6:9" ht="15.75">
+    <row r="86" ht="15.6" spans="6:9">
       <c r="F86" s="6" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G86" s="6" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="I86">
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="6:9" ht="15.75">
+    <row r="87" ht="15.6" spans="6:9">
       <c r="F87" s="6" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G87" s="6" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="I87">
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="6:9" ht="15.75">
+    <row r="88" ht="15.6" spans="6:9">
       <c r="F88" s="6" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G88" s="6" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="I88">
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="6:9" ht="15.75">
+    <row r="89" ht="15.6" spans="6:9">
       <c r="F89" s="6" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G89" s="6" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="I89">
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="6:9" ht="15.75">
+    <row r="90" ht="15.6" spans="6:9">
       <c r="F90" s="6" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G90" s="6" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="I90">
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="6:9" ht="15.75">
+    <row r="91" ht="15.6" spans="6:9">
       <c r="F91" s="6" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G91" s="6" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="I91">
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="6:9" ht="15.75">
+    <row r="92" ht="15.6" spans="6:9">
       <c r="F92" s="6" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G92" s="6" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="I92">
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="6:9" ht="15.75">
+    <row r="93" ht="15.6" spans="6:9">
       <c r="F93" s="6" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G93" s="6" t="s">
         <v>55</v>
@@ -5070,42 +5681,42 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="6:9" ht="15.75">
+    <row r="94" ht="15.6" spans="6:9">
       <c r="F94" s="6" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G94" s="6" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="I94">
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="6:9" ht="15.75">
+    <row r="95" ht="15.6" spans="6:9">
       <c r="F95" s="6" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G95" s="6" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="I95">
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="6:9" ht="15.75">
+    <row r="96" ht="15.6" spans="6:9">
       <c r="F96" s="6" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G96" s="6" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="I96">
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="6:9" ht="15.75">
+    <row r="97" ht="15.6" spans="6:9">
       <c r="F97" s="6" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G97" s="6" t="s">
         <v>58</v>
@@ -5114,31 +5725,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="6:9" ht="15.75">
+    <row r="98" ht="15.6" spans="6:9">
       <c r="F98" s="6" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G98" s="6" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="I98">
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="6:9" ht="15.75">
+    <row r="99" ht="15.6" spans="6:9">
       <c r="F99" s="6" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G99" s="6" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I99">
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="6:9" ht="15.75">
+    <row r="100" ht="15.6" spans="6:9">
       <c r="F100" s="6" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G100" s="6" t="s">
         <v>61</v>
@@ -5147,9 +5758,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="6:9" ht="15.75">
+    <row r="101" ht="15.6" spans="6:9">
       <c r="F101" s="6" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G101" s="6" t="s">
         <v>64</v>
@@ -5158,20 +5769,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="6:9" ht="15.75">
+    <row r="102" ht="15.6" spans="6:9">
       <c r="F102" s="6" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G102" s="6" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="I102">
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="6:9" ht="15.75">
+    <row r="103" ht="15.6" spans="6:9">
       <c r="F103" s="6" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G103" s="6" t="s">
         <v>67</v>
@@ -5180,53 +5791,53 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="6:9" ht="15.75">
+    <row r="104" ht="15.6" spans="6:9">
       <c r="F104" s="6" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G104" s="6" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="I104">
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="6:9" ht="15.75">
+    <row r="105" ht="15.6" spans="6:9">
       <c r="F105" s="6" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G105" s="6" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="I105">
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="6:9" ht="15.75">
+    <row r="106" ht="15.6" spans="6:9">
       <c r="F106" s="6" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G106" s="6" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="I106">
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="6:9" ht="15.75">
+    <row r="107" ht="15.6" spans="6:9">
       <c r="F107" s="6" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G107" s="6" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="I107">
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="6:9" ht="15.75">
+    <row r="108" ht="15.6" spans="6:9">
       <c r="F108" s="6" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G108" s="6" t="s">
         <v>70</v>
@@ -5235,20 +5846,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="6:9" ht="15.75">
+    <row r="109" ht="15.6" spans="6:9">
       <c r="F109" s="6" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G109" s="6" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="I109">
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="6:9" ht="15.75">
+    <row r="110" ht="15.6" spans="6:9">
       <c r="F110" s="6" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G110" s="6" t="s">
         <v>73</v>
@@ -5257,31 +5868,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="6:9" ht="15.75">
+    <row r="111" ht="15.6" spans="6:9">
       <c r="F111" s="6" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G111" s="6" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="I111">
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="6:9" ht="15.75">
+    <row r="112" ht="15.6" spans="6:9">
       <c r="F112" s="6" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G112" s="6" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="I112">
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="6:9" ht="15.75">
+    <row r="113" ht="15.6" spans="6:9">
       <c r="F113" s="6" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G113" s="6" t="s">
         <v>88</v>
@@ -5290,97 +5901,97 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="6:9" ht="15.75">
+    <row r="114" ht="15.6" spans="6:9">
       <c r="F114" s="6" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G114" s="6" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="I114">
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="6:9" ht="15.75">
+    <row r="115" ht="15.6" spans="6:9">
       <c r="F115" s="6" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G115" s="6" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="I115">
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="6:9" ht="15.75">
+    <row r="116" ht="15.6" spans="6:9">
       <c r="F116" s="6" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G116" s="6" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="I116">
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="6:9" ht="15.75">
+    <row r="117" ht="15.6" spans="6:9">
       <c r="F117" s="6" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G117" s="6" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="I117">
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="6:9" ht="15.75">
+    <row r="118" ht="15.6" spans="6:9">
       <c r="F118" s="6" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G118" s="6" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="I118">
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="6:9" ht="15.75">
+    <row r="119" ht="15.6" spans="6:9">
       <c r="F119" s="6" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G119" s="6" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="I119">
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="6:9" ht="15.75">
+    <row r="120" ht="15.6" spans="6:9">
       <c r="F120" s="6" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G120" s="6" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="I120">
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="6:9" ht="15.75">
+    <row r="121" ht="15.6" spans="6:9">
       <c r="F121" s="6" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G121" s="6" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="I121">
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="6:9" ht="15.75">
+    <row r="122" ht="15.6" spans="6:9">
       <c r="F122" s="6" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G122" s="6" t="s">
         <v>92</v>
@@ -5389,9 +6000,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="6:9" ht="15.75">
+    <row r="123" ht="15.6" spans="6:9">
       <c r="F123" s="6" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G123" s="6" t="s">
         <v>95</v>
@@ -5400,42 +6011,42 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="6:9" ht="15.75">
+    <row r="124" ht="15.6" spans="6:9">
       <c r="F124" s="6" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G124" s="6" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="I124">
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="6:9" ht="15.75">
+    <row r="125" ht="15.6" spans="6:9">
       <c r="F125" s="6" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G125" s="6" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="I125">
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="6:9" ht="15.75">
+    <row r="126" ht="15.6" spans="6:9">
       <c r="F126" s="6" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G126" s="6" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="I126">
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="6:9" ht="15.75">
+    <row r="127" ht="15.6" spans="6:9">
       <c r="F127" s="6" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G127" s="6" t="s">
         <v>98</v>
@@ -5444,42 +6055,42 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="6:9" ht="15.75">
+    <row r="128" ht="15.6" spans="6:9">
       <c r="F128" s="6" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G128" s="6" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="I128">
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="6:9" ht="15.75">
+    <row r="129" ht="15.6" spans="6:9">
       <c r="F129" s="6" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G129" s="6" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="I129">
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="6:9" ht="15.75">
+    <row r="130" ht="15.6" spans="6:9">
       <c r="F130" s="6" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G130" s="6" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="I130">
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="6:9" ht="15.75">
+    <row r="131" ht="15.6" spans="6:9">
       <c r="F131" s="6" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G131" s="6" t="s">
         <v>76</v>
@@ -5488,64 +6099,64 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="6:9" ht="15.75">
+    <row r="132" ht="15.6" spans="6:9">
       <c r="F132" s="6" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G132" s="6" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="I132">
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="6:9" ht="15.75">
+    <row r="133" ht="15.6" spans="6:9">
       <c r="F133" s="6" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G133" s="6" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="I133">
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="6:9" ht="15.75">
+    <row r="134" ht="15.6" spans="6:9">
       <c r="F134" s="6" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G134" s="6" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="I134">
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="6:9" ht="15.75">
+    <row r="135" ht="15.6" spans="6:9">
       <c r="F135" s="6" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G135" s="6" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="I135">
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="6:9" ht="15.75">
+    <row r="136" ht="15.6" spans="6:9">
       <c r="F136" s="6" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G136" s="6" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="I136">
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="6:9" ht="15.75">
+    <row r="137" ht="15.6" spans="6:9">
       <c r="F137" s="6" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G137" s="6" t="s">
         <v>79</v>
@@ -5554,75 +6165,75 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="6:9" ht="15.75">
+    <row r="138" ht="15.6" spans="6:9">
       <c r="F138" s="6" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G138" s="6" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="I138">
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="6:9" ht="15.75">
+    <row r="139" ht="15.6" spans="6:9">
       <c r="F139" s="6" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G139" s="6" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="I139">
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="6:9" ht="15.75">
+    <row r="140" ht="15.6" spans="6:9">
       <c r="F140" s="6" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G140" s="6" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="I140">
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="6:9" ht="15.75">
+    <row r="141" ht="15.6" spans="6:9">
       <c r="F141" s="6" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G141" s="6" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="I141">
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="6:9" ht="15.75">
+    <row r="142" ht="15.6" spans="6:9">
       <c r="F142" s="6" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G142" s="6" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="I142">
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="6:9" ht="15.75">
+    <row r="143" ht="15.6" spans="6:9">
       <c r="F143" s="6" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G143" s="6" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="I143">
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="6:9" ht="15.75">
+    <row r="144" ht="15.6" spans="6:9">
       <c r="F144" s="6" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G144" s="6" t="s">
         <v>82</v>
@@ -5631,86 +6242,86 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="6:9" ht="15.75">
+    <row r="145" ht="15.6" spans="6:9">
       <c r="F145" s="6" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G145" s="6" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="I145">
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="6:9" ht="15.75">
+    <row r="146" ht="15.6" spans="6:9">
       <c r="F146" s="6" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G146" s="6" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="I146">
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="6:9" ht="15.75">
+    <row r="147" ht="15.6" spans="6:9">
       <c r="F147" s="6" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G147" s="6" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="I147">
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="6:9" ht="15.75">
+    <row r="148" ht="15.6" spans="6:9">
       <c r="F148" s="6" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G148" s="6" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="I148">
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="6:9" ht="15.75">
+    <row r="149" ht="15.6" spans="6:9">
       <c r="F149" s="6" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G149" s="6" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="I149">
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="6:9" ht="15.75">
+    <row r="150" ht="15.6" spans="6:9">
       <c r="F150" s="6" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G150" s="6" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="I150">
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="6:9" ht="15.75">
+    <row r="151" ht="15.6" spans="6:9">
       <c r="F151" s="6" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G151" s="6" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="I151">
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="6:9" ht="15.75">
+    <row r="152" ht="15.6" spans="6:9">
       <c r="F152" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G152" s="6" t="s">
         <v>42</v>
@@ -5719,108 +6330,108 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="6:9" ht="15.75">
+    <row r="153" ht="15.6" spans="6:9">
       <c r="F153" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G153" s="6" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="I153">
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="6:9" ht="18.75">
+    <row r="154" ht="17.4" spans="6:9">
       <c r="F154" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G154" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="I154">
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="6:9" ht="18.75">
+    <row r="155" ht="17.4" spans="6:9">
       <c r="F155" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G155" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="I155">
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="6:9" ht="18.75">
+    <row r="156" ht="17.4" spans="6:9">
       <c r="F156" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G156" s="8" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="I156">
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="6:9" ht="18.75">
+    <row r="157" ht="17.4" spans="6:9">
       <c r="F157" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G157" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="I157">
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="6:9" ht="18.75">
+    <row r="158" ht="17.4" spans="6:9">
       <c r="F158" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G158" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="I158">
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="6:9" ht="18.75">
+    <row r="159" ht="17.4" spans="6:9">
       <c r="F159" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G159" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="I159">
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="6:9" ht="18.75">
+    <row r="160" ht="17.4" spans="6:9">
       <c r="F160" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G160" s="8" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="I160">
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="6:9" ht="18.75">
+    <row r="161" ht="17.4" spans="6:9">
       <c r="F161" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G161" s="8" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="I161">
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="6:9" ht="15.75">
+    <row r="162" ht="15.6" spans="6:9">
       <c r="F162" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G162" s="6" t="s">
         <v>85</v>
@@ -5829,79 +6440,78 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="6:9" ht="15.75">
+    <row r="163" ht="15.6" spans="6:9">
       <c r="F163" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G163" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="I163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" ht="15.6" spans="6:9">
+      <c r="F164" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="G164" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="I164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" ht="15.6" spans="6:9">
+      <c r="F165" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="G165" s="6" t="s">
         <v>358</v>
       </c>
-      <c r="I163">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164" spans="6:9" ht="15.75">
-      <c r="F164" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="G164" s="6" t="s">
-        <v>359</v>
-      </c>
-      <c r="I164">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165" spans="6:9" ht="15.75">
-      <c r="F165" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="G165" s="6" t="s">
-        <v>357</v>
-      </c>
       <c r="I165">
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="6:9" ht="15.75">
+    <row r="166" ht="15.6" spans="6:9">
       <c r="F166" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G166" s="6" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="I166">
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="6:9" ht="15.75">
+    <row r="167" ht="15.6" spans="6:9">
       <c r="F167" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G167" s="6" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="I167">
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="6:9" ht="15.75">
+    <row r="168" ht="15.6" spans="6:9">
       <c r="F168" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G168" s="6" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="I168">
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="6:9" ht="15.75">
+    <row r="169" ht="15.6" spans="7:7">
       <c r="G169" s="6"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="19" type="noConversion"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,常规"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,常规"&amp;12 Page &amp;P</oddFooter>
@@ -5910,249 +6520,249 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="D7:G33"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:XFD28"/>
+      <selection activeCell="A28" sqref="$A28:$XFD28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="1" max="1" width="6.13888888888889" customWidth="1"/>
     <col min="2" max="2" width="5" customWidth="1"/>
-    <col min="3" max="3" width="7.140625" customWidth="1"/>
-    <col min="4" max="4" width="25.85546875" customWidth="1"/>
-    <col min="5" max="5" width="7.140625" customWidth="1"/>
-    <col min="6" max="6" width="42.85546875" customWidth="1"/>
-    <col min="7" max="7" width="52.85546875" customWidth="1"/>
+    <col min="3" max="3" width="7.13888888888889" customWidth="1"/>
+    <col min="4" max="4" width="25.8518518518519" customWidth="1"/>
+    <col min="5" max="5" width="7.13888888888889" customWidth="1"/>
+    <col min="6" max="6" width="42.8518518518519" customWidth="1"/>
+    <col min="7" max="7" width="52.8518518518519" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:7" ht="13.5">
+    <row r="7" spans="4:7">
       <c r="D7" s="4" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="8" spans="4:7" ht="15.75">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="8" ht="15.6" spans="6:7">
       <c r="F8" s="5" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="4:7" ht="15.75">
+    <row r="9" ht="15.6" spans="6:7">
       <c r="F9" s="5" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="4:7" ht="15.75">
+    <row r="10" ht="15.6" spans="6:7">
       <c r="F10" s="5" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="4:7" ht="15.75">
+    <row r="11" ht="15.6" spans="6:7">
       <c r="F11" s="5" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="4:7" ht="15.75">
+    <row r="12" ht="15.6" spans="6:7">
       <c r="F12" s="5" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="4:7" ht="15.75">
+    <row r="13" ht="15.6" spans="6:7">
       <c r="F13" s="5" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="4:7" ht="15.75">
+    <row r="14" ht="15.6" spans="6:7">
       <c r="F14" s="5" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="4:7" ht="15.75">
+    <row r="15" ht="15.6" spans="6:7">
       <c r="F15" s="5" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="G15" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="4:7" ht="15.75">
+    <row r="16" ht="15.6" spans="6:7">
       <c r="F16" s="5" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="6:7" ht="15.75">
+    <row r="17" ht="15.6" spans="6:7">
       <c r="F17" s="5" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="6:7" ht="15.75">
+    <row r="18" ht="15.6" spans="6:7">
       <c r="F18" s="5" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="G18" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="6:7" ht="15.75">
+    <row r="19" ht="15.6" spans="6:7">
       <c r="F19" s="5" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="G19" s="5" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="6:7" ht="15.75">
+    <row r="20" ht="15.6" spans="6:7">
       <c r="F20" s="5" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="G20" s="5" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="6:7" ht="15.75">
+    <row r="21" ht="15.6" spans="6:7">
       <c r="F21" s="5" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="G21" s="5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="6:7" ht="15.75">
+    <row r="22" ht="15.6" spans="6:7">
       <c r="F22" s="5" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="G22" s="5" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="6:7" ht="15.75">
+    <row r="23" ht="15.6" spans="6:7">
       <c r="F23" s="5" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="G23" s="5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="24" spans="6:7" ht="15.75">
+    <row r="24" ht="15.6" spans="6:7">
       <c r="F24" s="5" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="G24" s="5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="25" spans="6:7" ht="15.75">
+    <row r="25" ht="15.6" spans="6:7">
       <c r="F25" s="5" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="G25" s="5" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="26" spans="6:7" ht="15.75">
+    <row r="26" ht="15.6" spans="6:7">
       <c r="F26" s="5" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="G26" s="5" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="27" spans="6:7" ht="15.75">
+    <row r="27" ht="15.6" spans="6:7">
       <c r="F27" s="5" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="G27" s="5" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="28" spans="6:7" ht="15.75">
+    <row r="28" ht="15.6" spans="6:7">
       <c r="F28" s="5" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="G28" s="5" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="29" spans="6:7" ht="15.75">
+    <row r="29" ht="15.6" spans="6:7">
       <c r="F29" s="5" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="G29" s="5" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="30" spans="6:7" ht="15.75">
+    <row r="30" ht="15.6" spans="6:7">
       <c r="F30" s="5" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="G30" s="5" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="31" spans="6:7" ht="15.75">
+    <row r="31" ht="15.6" spans="6:7">
       <c r="F31" s="5" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="G31" s="5" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="32" spans="6:7" ht="15.75">
+    <row r="32" ht="15.6" spans="6:7">
       <c r="F32" s="5" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="G32" s="5" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="33" spans="6:7" ht="15.75">
+    <row r="33" ht="15.6" spans="6:7">
       <c r="F33" s="5" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="G33" s="5" t="s">
         <v>98</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="19" type="noConversion"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,标准"&amp;12&amp;A</oddHeader>
@@ -6162,315 +6772,317 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="D7:I46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="D6:I46"/>
   <sheetViews>
-    <sheetView topLeftCell="C3" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="C46" sqref="A46:XFD46"/>
+    <sheetView zoomScale="95" zoomScaleNormal="95" topLeftCell="C3" workbookViewId="0">
+      <selection activeCell="C46" sqref="$A46:$XFD46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="3" width="8.85546875" customWidth="1"/>
-    <col min="4" max="4" width="27.42578125" customWidth="1"/>
+    <col min="1" max="3" width="8.85185185185185" customWidth="1"/>
+    <col min="4" max="4" width="27.4259259259259" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="23.85546875" customWidth="1"/>
+    <col min="6" max="6" width="23.8518518518519" customWidth="1"/>
     <col min="7" max="7" width="48" customWidth="1"/>
-    <col min="8" max="8" width="24.85546875" customWidth="1"/>
-    <col min="9" max="1025" width="8.85546875" customWidth="1"/>
+    <col min="8" max="8" width="24.8518518518519" customWidth="1"/>
+    <col min="9" max="1025" width="8.85185185185185" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:9" ht="18.95" customHeight="1">
+    <row r="6" ht="13.95"/>
+    <row r="7" ht="18.95" customHeight="1" spans="4:9">
       <c r="D7" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="4:9" ht="12.75">
+    <row r="8" spans="6:8">
       <c r="F8" s="2" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="4:9" ht="12.75">
+    <row r="9" spans="6:8">
       <c r="F9" s="2" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="4:9" ht="12.75">
+    <row r="10" spans="6:8">
       <c r="F10" s="2" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="4:9" ht="12.75">
+    <row r="11" spans="6:8">
       <c r="F11" s="2" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="4:9" ht="12.75">
+    <row r="12" spans="6:8">
       <c r="F12" s="2" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="4:9" ht="12.75">
+    <row r="13" spans="6:8">
       <c r="F13" s="2" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="4:9" ht="12.75">
+    <row r="14" spans="6:8">
       <c r="F14" s="2" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="15" spans="4:9" ht="12.75">
+    <row r="15" spans="6:8">
       <c r="F15" s="2" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H15" s="2" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="16" spans="6:8">
+      <c r="F16" s="2" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="16" spans="4:9" ht="12.75">
-      <c r="F16" s="2" t="s">
-        <v>374</v>
-      </c>
       <c r="G16" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H16" s="2" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="17" spans="6:8">
+      <c r="F17" s="2" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="17" spans="4:9" ht="12.75">
-      <c r="F17" s="2" t="s">
-        <v>374</v>
-      </c>
       <c r="G17" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H17" s="2" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="18" spans="6:8">
+      <c r="F18" s="2" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="18" spans="4:9" ht="12.75">
-      <c r="F18" s="2" t="s">
-        <v>374</v>
-      </c>
       <c r="G18" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="19" spans="4:9" ht="12.75">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="19" spans="6:8">
       <c r="F19" t="s">
+        <v>377</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="H19" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="G19" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="20" spans="4:9" ht="12.75">
+    </row>
+    <row r="20" spans="6:8">
       <c r="F20" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="H20" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="G20" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="21" spans="4:9" ht="12.75">
+    </row>
+    <row r="21" spans="6:8">
       <c r="F21" t="s">
+        <v>377</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="H21" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="G21" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="22" spans="4:9" ht="12.75">
+    </row>
+    <row r="22" spans="6:8">
       <c r="F22" t="s">
+        <v>377</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="H22" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="G22" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="23" spans="4:9" ht="12.75">
+    </row>
+    <row r="23" spans="4:8">
       <c r="D23" s="2"/>
       <c r="F23" s="2" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="4:9" ht="12.75">
+    <row r="24" spans="6:8">
       <c r="F24" s="2" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="4:9" ht="12.75">
+    <row r="25" spans="6:8">
       <c r="F25" s="2" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="4:9" ht="12.75">
+    <row r="26" spans="6:8">
       <c r="F26" s="2" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="4:9" ht="12.75">
+    <row r="27" spans="6:8">
       <c r="F27" s="2" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="4:9" ht="12.75">
+    <row r="28" spans="6:8">
       <c r="F28" s="2" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="4:9" ht="12.75">
+    <row r="29" spans="6:8">
       <c r="F29" s="2" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="4:9" ht="12.75">
+    <row r="30" spans="6:8">
       <c r="F30" s="2" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="4:9" ht="12.75">
+    <row r="31" spans="6:8">
       <c r="F31" s="2" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="4:9" ht="12.75">
+    <row r="32" spans="6:9">
       <c r="F32" s="2" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>15</v>
@@ -6479,122 +7091,122 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="6:9" ht="12.75">
+    <row r="33" spans="6:8">
       <c r="F33" s="2" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="6:9" ht="12.75">
+    <row r="34" spans="6:8">
       <c r="F34" s="2" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="6:9" ht="12.75">
+    <row r="35" spans="6:8">
       <c r="F35" s="3" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H35" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="6:9" ht="12.75">
+    <row r="36" spans="6:8">
       <c r="F36" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H36" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="6:9" ht="12.75">
+    <row r="37" spans="6:8">
       <c r="F37" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H37" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="6:9" ht="12.75">
+    <row r="38" spans="6:8">
       <c r="F38" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="6:9" ht="12.75">
+    <row r="39" spans="6:8">
       <c r="F39" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H39" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="6:9" ht="12.75">
+    <row r="40" spans="6:8">
       <c r="F40" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H40" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="6:9" ht="12.75">
+    <row r="41" spans="6:8">
       <c r="F41" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H41" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="6:9" ht="12.75">
+    <row r="42" spans="6:8">
       <c r="F42" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H42" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="6:9" ht="12.75">
+    <row r="43" spans="6:9">
       <c r="F43" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H43" s="2" t="s">
         <v>15</v>
@@ -6603,67 +7215,68 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="6:9" ht="12.75">
+    <row r="44" spans="6:8">
       <c r="F44" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H44" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="6:9" ht="12.75">
+    <row r="45" spans="6:8">
       <c r="F45" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H45" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="6:9" ht="12.75">
+    <row r="46" spans="6:8">
       <c r="F46" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H46" s="2" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="19" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51041666666666696" footer="0.51041666666666696"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.510416666666667" footer="0.510416666666667"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="D7:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="9.13888888888889" defaultRowHeight="13.2" outlineLevelRow="7"/>
   <cols>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.1388888888889" customWidth="1"/>
+    <col min="7" max="7" width="15.8518518518519" customWidth="1"/>
     <col min="8" max="8" width="18" customWidth="1"/>
-    <col min="9" max="9" width="36.42578125" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" customWidth="1"/>
-    <col min="11" max="11" width="11.140625" customWidth="1"/>
+    <col min="9" max="9" width="36.4259259259259" customWidth="1"/>
+    <col min="10" max="10" width="15.1388888888889" customWidth="1"/>
+    <col min="11" max="11" width="11.1388888888889" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="4:11">
       <c r="D7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E7" t="s">
         <v>1</v>
@@ -6678,235 +7291,237 @@
         <v>5</v>
       </c>
       <c r="I7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="J7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="K7" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="8" spans="4:11">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="8" spans="6:11">
       <c r="F8" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="G8" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H8" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="I8" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="J8" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="K8" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="D7:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="9.13888888888889" defaultRowHeight="13.2"/>
   <cols>
-    <col min="4" max="4" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="21.4259259259259" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" customWidth="1"/>
-    <col min="7" max="7" width="25.42578125" customWidth="1"/>
-    <col min="8" max="9" width="18.140625" customWidth="1"/>
+    <col min="6" max="6" width="13.1388888888889" customWidth="1"/>
+    <col min="7" max="7" width="25.4259259259259" customWidth="1"/>
+    <col min="8" max="9" width="18.1388888888889" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="4:9">
       <c r="D7" t="s">
+        <v>389</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>390</v>
+      </c>
+      <c r="G7" t="s">
+        <v>391</v>
+      </c>
+      <c r="H7" t="s">
+        <v>392</v>
+      </c>
+      <c r="I7" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="8" spans="6:9">
+      <c r="F8" t="s">
+        <v>383</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8" t="s">
+        <v>394</v>
+      </c>
+      <c r="I8" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="9" spans="6:9">
+      <c r="F9" t="s">
+        <v>383</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9" t="s">
+        <v>395</v>
+      </c>
+      <c r="I9" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="10" spans="6:9">
+      <c r="F10" t="s">
+        <v>383</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10" t="s">
+        <v>397</v>
+      </c>
+      <c r="I10" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="11" spans="6:9">
+      <c r="F11" t="s">
+        <v>383</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11" t="s">
+        <v>399</v>
+      </c>
+      <c r="I11" t="s">
         <v>388</v>
       </c>
-      <c r="E7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F7" t="s">
-        <v>389</v>
-      </c>
-      <c r="G7" t="s">
-        <v>390</v>
-      </c>
-      <c r="H7" t="s">
-        <v>391</v>
-      </c>
-      <c r="I7" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="8" spans="4:9">
-      <c r="F8" t="s">
-        <v>382</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8" t="s">
-        <v>393</v>
-      </c>
-      <c r="I8" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="9" spans="4:9">
-      <c r="F9" t="s">
-        <v>382</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="H9" t="s">
-        <v>394</v>
-      </c>
-      <c r="I9" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="10" spans="4:9">
-      <c r="F10" t="s">
-        <v>382</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="H10" t="s">
-        <v>396</v>
-      </c>
-      <c r="I10" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="11" spans="4:9">
-      <c r="F11" t="s">
-        <v>382</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="H11" t="s">
-        <v>398</v>
-      </c>
-      <c r="I11" t="s">
-        <v>387</v>
-      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="D7:L9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="9.13888888888889" defaultRowHeight="13.2"/>
   <cols>
-    <col min="4" max="4" width="22.140625" customWidth="1"/>
-    <col min="6" max="6" width="18.85546875" customWidth="1"/>
-    <col min="7" max="7" width="25.85546875" customWidth="1"/>
+    <col min="4" max="4" width="22.1388888888889" customWidth="1"/>
+    <col min="6" max="6" width="18.8518518518519" customWidth="1"/>
+    <col min="7" max="7" width="25.8518518518519" customWidth="1"/>
     <col min="8" max="8" width="36" customWidth="1"/>
-    <col min="9" max="9" width="22.140625" customWidth="1"/>
-    <col min="10" max="10" width="25.85546875" customWidth="1"/>
-    <col min="11" max="11" width="19.85546875" customWidth="1"/>
+    <col min="9" max="9" width="22.1388888888889" customWidth="1"/>
+    <col min="10" max="10" width="25.8518518518519" customWidth="1"/>
+    <col min="11" max="11" width="19.8518518518519" customWidth="1"/>
     <col min="12" max="12" width="21" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="4:12">
       <c r="D7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="E7" t="s">
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="G7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="I7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="J7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="K7" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="L7" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="8" spans="4:12">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="8" spans="6:11">
       <c r="F8" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="H8" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="I8" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="J8" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="K8" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="9" spans="6:12">
+      <c r="F9" t="s">
+        <v>411</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9" t="s">
+        <v>412</v>
+      </c>
+      <c r="I9" t="s">
+        <v>413</v>
+      </c>
+      <c r="J9" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="9" spans="4:12">
-      <c r="F9" t="s">
-        <v>410</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9" t="s">
-        <v>411</v>
-      </c>
-      <c r="I9" t="s">
-        <v>412</v>
-      </c>
-      <c r="J9" t="s">
-        <v>408</v>
-      </c>
       <c r="K9" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/src/main/resources/script/meta/micro-service-init-data.xlsx
+++ b/src/main/resources/script/meta/micro-service-init-data.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1119" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1123" uniqueCount="415">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -1106,7 +1106,7 @@
     <t>base-service.organization-user.countByDate</t>
   </si>
   <si>
-    <t>base-service.organization-project.listProjectsWithLimit</t>
+    <t>base-service.operate-log.listMoreOperateLog</t>
   </si>
   <si>
     <t>base-service.organization-project.countDeployRecords</t>
@@ -1298,9 +1298,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="39">
     <font>
@@ -1409,29 +1409,9 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1453,6 +1433,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -1468,11 +1463,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1481,6 +1497,14 @@
       <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1499,9 +1523,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1522,22 +1545,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
@@ -1545,16 +1552,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1569,7 +1569,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1581,7 +1599,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1593,7 +1671,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1605,55 +1713,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1665,31 +1731,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1701,55 +1749,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1778,11 +1778,56 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1811,36 +1856,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1848,21 +1863,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1878,148 +1878,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3329,7 +3329,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" ht="15.6" spans="4:15">
+    <row r="8" ht="15" spans="4:15">
       <c r="D8" s="3"/>
       <c r="F8" s="9" t="s">
         <v>111</v>
@@ -3358,7 +3358,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" ht="15.6" spans="6:17">
+    <row r="9" ht="15" spans="6:17">
       <c r="F9" s="9" t="s">
         <v>116</v>
       </c>
@@ -3393,7 +3393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" ht="15.6" spans="6:17">
+    <row r="10" ht="15" spans="6:17">
       <c r="F10" s="9" t="s">
         <v>121</v>
       </c>
@@ -3428,7 +3428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" ht="15.6" spans="6:15">
+    <row r="11" ht="15" spans="6:15">
       <c r="F11" s="9" t="s">
         <v>116</v>
       </c>
@@ -3460,7 +3460,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" ht="15.6" spans="6:15">
+    <row r="12" ht="15" spans="6:15">
       <c r="F12" s="9" t="s">
         <v>121</v>
       </c>
@@ -3492,7 +3492,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" ht="15.6" spans="6:15">
+    <row r="13" ht="15" spans="6:15">
       <c r="F13" s="9" t="s">
         <v>125</v>
       </c>
@@ -3520,7 +3520,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" ht="15.6" spans="6:15">
+    <row r="14" ht="15" spans="6:15">
       <c r="F14" s="9" t="s">
         <v>128</v>
       </c>
@@ -3552,7 +3552,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" ht="15.6" spans="6:15">
+    <row r="15" ht="15" spans="6:15">
       <c r="F15" s="9" t="s">
         <v>132</v>
       </c>
@@ -3584,7 +3584,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" ht="15.6" spans="6:15">
+    <row r="16" ht="15" spans="6:15">
       <c r="F16" s="9" t="s">
         <v>136</v>
       </c>
@@ -3644,7 +3644,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" ht="15.6" spans="6:15">
+    <row r="18" ht="15" spans="6:15">
       <c r="F18" s="9" t="s">
         <v>143</v>
       </c>
@@ -3674,7 +3674,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" ht="15.6" spans="6:15">
+    <row r="19" ht="15" spans="6:15">
       <c r="F19" s="9" t="s">
         <v>146</v>
       </c>
@@ -3704,7 +3704,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" ht="15.6" spans="6:17">
+    <row r="20" ht="15" spans="6:17">
       <c r="F20" s="9" t="s">
         <v>149</v>
       </c>
@@ -3739,7 +3739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" ht="15.6" spans="6:15">
+    <row r="21" ht="15" spans="6:15">
       <c r="F21" s="9" t="s">
         <v>153</v>
       </c>
@@ -3803,7 +3803,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" ht="15.6" spans="6:15">
+    <row r="23" ht="15" spans="6:15">
       <c r="F23" s="11" t="s">
         <v>158</v>
       </c>
@@ -3831,7 +3831,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" ht="15.6" spans="6:17">
+    <row r="24" ht="15" spans="6:17">
       <c r="F24" s="11" t="s">
         <v>161</v>
       </c>
@@ -3866,7 +3866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" ht="15.6" spans="6:17">
+    <row r="25" ht="15" spans="6:17">
       <c r="F25" s="11" t="s">
         <v>165</v>
       </c>
@@ -3936,7 +3936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" ht="15.6" spans="6:17">
+    <row r="27" ht="15" spans="6:17">
       <c r="F27" s="11" t="s">
         <v>170</v>
       </c>
@@ -4003,7 +4003,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" ht="15.6" spans="6:15">
+    <row r="29" ht="15" spans="6:15">
       <c r="F29" s="11" t="s">
         <v>161</v>
       </c>
@@ -4035,7 +4035,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" ht="15.6" spans="6:15">
+    <row r="30" ht="15" spans="6:15">
       <c r="F30" s="11" t="s">
         <v>165</v>
       </c>
@@ -4099,7 +4099,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="32" ht="15.6" spans="6:15">
+    <row r="32" ht="15" spans="6:15">
       <c r="F32" s="11" t="s">
         <v>170</v>
       </c>
@@ -4131,7 +4131,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="33" ht="15.6" spans="6:15">
+    <row r="33" ht="15" spans="6:15">
       <c r="F33" s="11" t="s">
         <v>177</v>
       </c>
@@ -4159,7 +4159,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="34" ht="15.6" spans="6:15">
+    <row r="34" ht="15" spans="6:15">
       <c r="F34" s="11" t="s">
         <v>178</v>
       </c>
@@ -4191,7 +4191,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" ht="15.6" spans="6:15">
+    <row r="35" ht="15" spans="6:15">
       <c r="F35" s="11" t="s">
         <v>179</v>
       </c>
@@ -4223,7 +4223,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" ht="15.6" spans="6:15">
+    <row r="36" ht="15" spans="6:15">
       <c r="F36" s="11" t="s">
         <v>180</v>
       </c>
@@ -4253,7 +4253,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" ht="15.6" spans="6:15">
+    <row r="37" ht="15" spans="6:15">
       <c r="F37" s="13" t="s">
         <v>181</v>
       </c>
@@ -4283,7 +4283,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" ht="15.6" spans="6:15">
+    <row r="38" ht="15" spans="6:15">
       <c r="F38" s="13" t="s">
         <v>186</v>
       </c>
@@ -4315,7 +4315,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" ht="15.6" spans="6:15">
+    <row r="39" ht="15" spans="6:15">
       <c r="F39" s="13" t="s">
         <v>190</v>
       </c>
@@ -4347,7 +4347,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="40" ht="15.6" spans="6:15">
+    <row r="40" ht="15" spans="6:15">
       <c r="F40" s="13" t="s">
         <v>194</v>
       </c>
@@ -4475,7 +4475,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="44" ht="15.6" spans="6:15">
+    <row r="44" ht="15" spans="6:15">
       <c r="F44" s="15" t="s">
         <v>211</v>
       </c>
@@ -4505,7 +4505,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" ht="15.6" spans="6:15">
+    <row r="45" ht="15" spans="6:15">
       <c r="F45" s="15" t="s">
         <v>216</v>
       </c>
@@ -4537,7 +4537,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="46" ht="15.6" spans="6:15">
+    <row r="46" ht="15" spans="6:15">
       <c r="F46" s="15" t="s">
         <v>219</v>
       </c>
@@ -4565,7 +4565,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="47" ht="15.6" spans="6:15">
+    <row r="47" ht="15" spans="6:15">
       <c r="F47" s="15" t="s">
         <v>220</v>
       </c>
@@ -4627,7 +4627,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" ht="15.6" spans="6:15">
+    <row r="49" ht="15" spans="6:15">
       <c r="F49" s="15" t="s">
         <v>225</v>
       </c>
@@ -4653,7 +4653,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="50" ht="15.6" spans="6:15">
+    <row r="50" ht="15" spans="6:15">
       <c r="F50" s="15" t="s">
         <v>228</v>
       </c>
@@ -4698,10 +4698,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="D7:I169"/>
+  <dimension ref="D7:I171"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="A145" workbookViewId="0">
-      <selection activeCell="G172" sqref="G172"/>
+      <selection activeCell="F161" sqref="F161:G161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
@@ -4734,7 +4734,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="8" ht="15.6" spans="4:9">
+    <row r="8" ht="15" spans="4:9">
       <c r="D8" s="3"/>
       <c r="F8" s="6" t="s">
         <v>116</v>
@@ -4746,7 +4746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" ht="15.6" spans="6:9">
+    <row r="9" ht="15" spans="6:9">
       <c r="F9" s="6" t="s">
         <v>116</v>
       </c>
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" ht="15.6" spans="6:9">
+    <row r="10" ht="15" spans="6:9">
       <c r="F10" s="6" t="s">
         <v>116</v>
       </c>
@@ -4768,7 +4768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" ht="15.6" spans="6:9">
+    <row r="11" ht="15" spans="6:9">
       <c r="F11" s="6" t="s">
         <v>116</v>
       </c>
@@ -4779,7 +4779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" ht="15.6" spans="6:9">
+    <row r="12" ht="15" spans="6:9">
       <c r="F12" s="6" t="s">
         <v>116</v>
       </c>
@@ -4790,7 +4790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" ht="15.6" spans="6:9">
+    <row r="13" ht="15" spans="6:9">
       <c r="F13" s="6" t="s">
         <v>121</v>
       </c>
@@ -4801,7 +4801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" ht="15.6" spans="6:9">
+    <row r="14" ht="15" spans="6:9">
       <c r="F14" s="6" t="s">
         <v>121</v>
       </c>
@@ -4812,7 +4812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" ht="15.6" spans="6:9">
+    <row r="15" ht="15" spans="6:9">
       <c r="F15" s="6" t="s">
         <v>121</v>
       </c>
@@ -4823,7 +4823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" ht="15.6" spans="6:9">
+    <row r="16" ht="15" spans="6:9">
       <c r="F16" s="6" t="s">
         <v>121</v>
       </c>
@@ -4834,7 +4834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" ht="15.6" spans="6:9">
+    <row r="17" ht="15" spans="6:9">
       <c r="F17" s="6" t="s">
         <v>121</v>
       </c>
@@ -4845,7 +4845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" ht="15.6" spans="6:9">
+    <row r="18" ht="15" spans="6:9">
       <c r="F18" s="6" t="s">
         <v>121</v>
       </c>
@@ -4856,7 +4856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" ht="15.6" spans="6:9">
+    <row r="19" ht="15" spans="6:9">
       <c r="F19" s="6" t="s">
         <v>121</v>
       </c>
@@ -4867,7 +4867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" ht="15.6" spans="6:9">
+    <row r="20" ht="15" spans="6:9">
       <c r="F20" s="6" t="s">
         <v>121</v>
       </c>
@@ -4878,7 +4878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" ht="15.6" spans="6:9">
+    <row r="21" ht="15" spans="6:9">
       <c r="F21" s="6" t="s">
         <v>121</v>
       </c>
@@ -4889,7 +4889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" ht="15.6" spans="6:9">
+    <row r="22" ht="15" spans="6:9">
       <c r="F22" s="6" t="s">
         <v>121</v>
       </c>
@@ -4900,7 +4900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" ht="15.6" spans="6:9">
+    <row r="23" ht="15" spans="6:9">
       <c r="F23" s="6" t="s">
         <v>121</v>
       </c>
@@ -4911,7 +4911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" ht="15.6" spans="6:9">
+    <row r="24" ht="15" spans="6:9">
       <c r="F24" s="6" t="s">
         <v>121</v>
       </c>
@@ -4922,7 +4922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" ht="15.6" spans="6:9">
+    <row r="25" ht="15" spans="6:9">
       <c r="F25" s="6" t="s">
         <v>121</v>
       </c>
@@ -4933,7 +4933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" ht="15.6" spans="6:9">
+    <row r="26" ht="15" spans="6:9">
       <c r="F26" s="6" t="s">
         <v>121</v>
       </c>
@@ -4944,7 +4944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" ht="15.6" spans="6:9">
+    <row r="27" ht="15" spans="6:9">
       <c r="F27" s="6" t="s">
         <v>121</v>
       </c>
@@ -4955,7 +4955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" ht="15.6" spans="6:9">
+    <row r="28" ht="15" spans="6:9">
       <c r="F28" s="6" t="s">
         <v>121</v>
       </c>
@@ -4966,7 +4966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" ht="15.6" spans="6:9">
+    <row r="29" ht="15" spans="6:9">
       <c r="F29" s="6" t="s">
         <v>121</v>
       </c>
@@ -4977,7 +4977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" ht="15.6" spans="6:9">
+    <row r="30" ht="15" spans="6:9">
       <c r="F30" s="6" t="s">
         <v>121</v>
       </c>
@@ -4988,7 +4988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" ht="15.6" spans="6:9">
+    <row r="31" ht="15" spans="6:9">
       <c r="F31" s="6" t="s">
         <v>121</v>
       </c>
@@ -4999,7 +4999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" ht="15.6" spans="6:9">
+    <row r="32" ht="15" spans="6:9">
       <c r="F32" s="6" t="s">
         <v>128</v>
       </c>
@@ -5010,7 +5010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" ht="15.6" spans="6:9">
+    <row r="33" ht="15" spans="6:9">
       <c r="F33" s="6" t="s">
         <v>136</v>
       </c>
@@ -5021,7 +5021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" ht="15.6" spans="6:9">
+    <row r="34" ht="15" spans="6:9">
       <c r="F34" s="6" t="s">
         <v>136</v>
       </c>
@@ -5032,7 +5032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" ht="15.6" spans="6:9">
+    <row r="35" ht="15" spans="6:9">
       <c r="F35" s="6" t="s">
         <v>136</v>
       </c>
@@ -5043,7 +5043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" ht="15.6" spans="6:9">
+    <row r="36" ht="15" spans="6:9">
       <c r="F36" s="6" t="s">
         <v>140</v>
       </c>
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" ht="15.6" spans="6:9">
+    <row r="37" ht="15" spans="6:9">
       <c r="F37" s="6" t="s">
         <v>140</v>
       </c>
@@ -5065,7 +5065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" ht="15.6" spans="6:9">
+    <row r="38" ht="15" spans="6:9">
       <c r="F38" s="6" t="s">
         <v>140</v>
       </c>
@@ -5076,7 +5076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" ht="15.6" spans="6:9">
+    <row r="39" ht="15" spans="6:9">
       <c r="F39" s="6" t="s">
         <v>140</v>
       </c>
@@ -5087,7 +5087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" ht="15.6" spans="6:9">
+    <row r="40" ht="15" spans="6:9">
       <c r="F40" s="6" t="s">
         <v>140</v>
       </c>
@@ -5098,7 +5098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" ht="15.6" spans="6:9">
+    <row r="41" ht="15" spans="6:9">
       <c r="F41" s="6" t="s">
         <v>140</v>
       </c>
@@ -5109,7 +5109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" ht="15.6" spans="6:9">
+    <row r="42" ht="15" spans="6:9">
       <c r="F42" s="6" t="s">
         <v>140</v>
       </c>
@@ -5120,7 +5120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" ht="15.6" spans="6:9">
+    <row r="43" ht="15" spans="6:9">
       <c r="F43" s="6" t="s">
         <v>140</v>
       </c>
@@ -5131,7 +5131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" ht="15.6" spans="6:9">
+    <row r="44" ht="15" spans="6:9">
       <c r="F44" s="6" t="s">
         <v>140</v>
       </c>
@@ -5142,7 +5142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" ht="15.6" spans="6:9">
+    <row r="45" ht="15" spans="6:9">
       <c r="F45" s="6" t="s">
         <v>143</v>
       </c>
@@ -5153,7 +5153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" ht="15.6" spans="6:9">
+    <row r="46" ht="15" spans="6:9">
       <c r="F46" s="6" t="s">
         <v>143</v>
       </c>
@@ -5164,7 +5164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" ht="15.6" spans="6:9">
+    <row r="47" ht="15" spans="6:9">
       <c r="F47" s="6" t="s">
         <v>143</v>
       </c>
@@ -5175,7 +5175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" ht="15.6" spans="6:9">
+    <row r="48" ht="15" spans="6:9">
       <c r="F48" s="6" t="s">
         <v>143</v>
       </c>
@@ -5186,7 +5186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" ht="15.6" spans="6:9">
+    <row r="49" ht="15" spans="6:9">
       <c r="F49" s="6" t="s">
         <v>143</v>
       </c>
@@ -5197,7 +5197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" ht="15.6" spans="6:9">
+    <row r="50" ht="15" spans="6:9">
       <c r="F50" s="6" t="s">
         <v>143</v>
       </c>
@@ -5208,7 +5208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" ht="15.6" spans="6:9">
+    <row r="51" ht="15" spans="6:9">
       <c r="F51" s="6" t="s">
         <v>132</v>
       </c>
@@ -5219,7 +5219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" ht="15.6" spans="6:9">
+    <row r="52" ht="15" spans="6:9">
       <c r="F52" s="6" t="s">
         <v>146</v>
       </c>
@@ -5230,7 +5230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" ht="15.6" spans="6:9">
+    <row r="53" ht="15" spans="6:9">
       <c r="F53" s="6" t="s">
         <v>146</v>
       </c>
@@ -5241,7 +5241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" ht="15.6" spans="6:9">
+    <row r="54" ht="15" spans="6:9">
       <c r="F54" s="6" t="s">
         <v>146</v>
       </c>
@@ -5252,7 +5252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" ht="15.6" spans="6:9">
+    <row r="55" ht="15" spans="6:9">
       <c r="F55" s="6" t="s">
         <v>153</v>
       </c>
@@ -5263,7 +5263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" ht="15.6" spans="6:9">
+    <row r="56" ht="15" spans="6:9">
       <c r="F56" s="6" t="s">
         <v>153</v>
       </c>
@@ -5274,7 +5274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" ht="15.6" spans="6:9">
+    <row r="57" ht="15" spans="6:9">
       <c r="F57" s="6" t="s">
         <v>153</v>
       </c>
@@ -5285,7 +5285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" ht="15.6" spans="6:9">
+    <row r="58" ht="15" spans="6:9">
       <c r="F58" s="6" t="s">
         <v>153</v>
       </c>
@@ -5296,7 +5296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" ht="15.6" spans="6:9">
+    <row r="59" ht="15" spans="6:9">
       <c r="F59" s="6" t="s">
         <v>153</v>
       </c>
@@ -5307,7 +5307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" ht="15.6" spans="6:9">
+    <row r="60" ht="15" spans="6:9">
       <c r="F60" s="6" t="s">
         <v>153</v>
       </c>
@@ -5318,7 +5318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" ht="15.6" spans="6:9">
+    <row r="61" ht="15" spans="6:9">
       <c r="F61" s="6" t="s">
         <v>153</v>
       </c>
@@ -5329,7 +5329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" ht="15.6" spans="6:9">
+    <row r="62" ht="15" spans="6:9">
       <c r="F62" s="6" t="s">
         <v>153</v>
       </c>
@@ -5340,7 +5340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" ht="15.6" spans="6:9">
+    <row r="63" ht="15" spans="6:9">
       <c r="F63" s="6" t="s">
         <v>153</v>
       </c>
@@ -5351,7 +5351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" ht="15.6" spans="6:9">
+    <row r="64" ht="15" spans="6:9">
       <c r="F64" s="6" t="s">
         <v>161</v>
       </c>
@@ -5362,7 +5362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" ht="15.6" spans="6:9">
+    <row r="65" ht="15" spans="6:9">
       <c r="F65" s="6" t="s">
         <v>161</v>
       </c>
@@ -5373,7 +5373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" ht="15.6" spans="6:9">
+    <row r="66" ht="15" spans="6:9">
       <c r="F66" s="6" t="s">
         <v>161</v>
       </c>
@@ -5384,7 +5384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" ht="15.6" spans="6:9">
+    <row r="67" ht="15" spans="6:9">
       <c r="F67" s="6" t="s">
         <v>161</v>
       </c>
@@ -5395,7 +5395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" ht="15.6" spans="6:9">
+    <row r="68" ht="15" spans="6:9">
       <c r="F68" s="6" t="s">
         <v>165</v>
       </c>
@@ -5406,7 +5406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" ht="15.6" spans="6:9">
+    <row r="69" ht="15" spans="6:9">
       <c r="F69" s="6" t="s">
         <v>165</v>
       </c>
@@ -5417,7 +5417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" ht="15.6" spans="6:9">
+    <row r="70" ht="15" spans="6:9">
       <c r="F70" s="6" t="s">
         <v>165</v>
       </c>
@@ -5428,7 +5428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" ht="15.6" spans="6:9">
+    <row r="71" ht="15" spans="6:9">
       <c r="F71" s="6" t="s">
         <v>165</v>
       </c>
@@ -5439,7 +5439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" ht="15.6" spans="6:9">
+    <row r="72" ht="15" spans="6:9">
       <c r="F72" s="6" t="s">
         <v>165</v>
       </c>
@@ -5450,7 +5450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" ht="15.6" spans="6:9">
+    <row r="73" ht="15" spans="6:9">
       <c r="F73" s="6" t="s">
         <v>165</v>
       </c>
@@ -5461,7 +5461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" ht="15.6" spans="6:9">
+    <row r="74" ht="15" spans="6:9">
       <c r="F74" s="6" t="s">
         <v>165</v>
       </c>
@@ -5472,7 +5472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" ht="15.6" spans="6:9">
+    <row r="75" ht="15" spans="6:9">
       <c r="F75" s="6" t="s">
         <v>165</v>
       </c>
@@ -5483,7 +5483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" ht="15.6" spans="6:9">
+    <row r="76" ht="15" spans="6:9">
       <c r="F76" s="6" t="s">
         <v>165</v>
       </c>
@@ -5494,7 +5494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" ht="15.6" spans="6:9">
+    <row r="77" ht="15" spans="6:9">
       <c r="F77" s="6" t="s">
         <v>165</v>
       </c>
@@ -5505,7 +5505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" ht="15.6" spans="6:9">
+    <row r="78" ht="15" spans="6:9">
       <c r="F78" s="6" t="s">
         <v>165</v>
       </c>
@@ -5516,7 +5516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" ht="15.6" spans="6:9">
+    <row r="79" ht="15" spans="6:9">
       <c r="F79" s="6" t="s">
         <v>165</v>
       </c>
@@ -5527,7 +5527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" ht="15.6" spans="6:9">
+    <row r="80" ht="15" spans="6:9">
       <c r="F80" s="6" t="s">
         <v>165</v>
       </c>
@@ -5538,7 +5538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" ht="15.6" spans="6:9">
+    <row r="81" ht="15" spans="6:9">
       <c r="F81" s="6" t="s">
         <v>165</v>
       </c>
@@ -5549,7 +5549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" ht="15.6" spans="6:9">
+    <row r="82" ht="15" spans="6:9">
       <c r="F82" s="6" t="s">
         <v>166</v>
       </c>
@@ -5560,7 +5560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" ht="15.6" spans="6:9">
+    <row r="83" ht="15" spans="6:9">
       <c r="F83" s="6" t="s">
         <v>166</v>
       </c>
@@ -5571,7 +5571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" ht="15.6" spans="6:9">
+    <row r="84" ht="15" spans="6:9">
       <c r="F84" s="6" t="s">
         <v>166</v>
       </c>
@@ -5582,7 +5582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" ht="15.6" spans="6:9">
+    <row r="85" ht="15" spans="6:9">
       <c r="F85" s="6" t="s">
         <v>166</v>
       </c>
@@ -5593,7 +5593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" ht="15.6" spans="6:9">
+    <row r="86" ht="15" spans="6:9">
       <c r="F86" s="6" t="s">
         <v>166</v>
       </c>
@@ -5604,7 +5604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" ht="15.6" spans="6:9">
+    <row r="87" ht="15" spans="6:9">
       <c r="F87" s="6" t="s">
         <v>166</v>
       </c>
@@ -5615,7 +5615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" ht="15.6" spans="6:9">
+    <row r="88" ht="15" spans="6:9">
       <c r="F88" s="6" t="s">
         <v>166</v>
       </c>
@@ -5626,7 +5626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" ht="15.6" spans="6:9">
+    <row r="89" ht="15" spans="6:9">
       <c r="F89" s="6" t="s">
         <v>166</v>
       </c>
@@ -5637,7 +5637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" ht="15.6" spans="6:9">
+    <row r="90" ht="15" spans="6:9">
       <c r="F90" s="6" t="s">
         <v>166</v>
       </c>
@@ -5648,7 +5648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" ht="15.6" spans="6:9">
+    <row r="91" ht="15" spans="6:9">
       <c r="F91" s="6" t="s">
         <v>166</v>
       </c>
@@ -5659,7 +5659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" ht="15.6" spans="6:9">
+    <row r="92" ht="15" spans="6:9">
       <c r="F92" s="6" t="s">
         <v>166</v>
       </c>
@@ -5670,7 +5670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" ht="15.6" spans="6:9">
+    <row r="93" ht="15" spans="6:9">
       <c r="F93" s="6" t="s">
         <v>170</v>
       </c>
@@ -5681,7 +5681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" ht="15.6" spans="6:9">
+    <row r="94" ht="15" spans="6:9">
       <c r="F94" s="6" t="s">
         <v>170</v>
       </c>
@@ -5692,7 +5692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" ht="15.6" spans="6:9">
+    <row r="95" ht="15" spans="6:9">
       <c r="F95" s="6" t="s">
         <v>170</v>
       </c>
@@ -5703,7 +5703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" ht="15.6" spans="6:9">
+    <row r="96" ht="15" spans="6:9">
       <c r="F96" s="6" t="s">
         <v>170</v>
       </c>
@@ -5714,7 +5714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" ht="15.6" spans="6:9">
+    <row r="97" ht="15" spans="6:9">
       <c r="F97" s="6" t="s">
         <v>178</v>
       </c>
@@ -5725,7 +5725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" ht="15.6" spans="6:9">
+    <row r="98" ht="15" spans="6:9">
       <c r="F98" s="6" t="s">
         <v>178</v>
       </c>
@@ -5736,7 +5736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" ht="15.6" spans="6:9">
+    <row r="99" ht="15" spans="6:9">
       <c r="F99" s="6" t="s">
         <v>178</v>
       </c>
@@ -5747,7 +5747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" ht="15.6" spans="6:9">
+    <row r="100" ht="15" spans="6:9">
       <c r="F100" s="6" t="s">
         <v>179</v>
       </c>
@@ -5758,7 +5758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" ht="15.6" spans="6:9">
+    <row r="101" ht="15" spans="6:9">
       <c r="F101" s="6" t="s">
         <v>180</v>
       </c>
@@ -5769,7 +5769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" ht="15.6" spans="6:9">
+    <row r="102" ht="15" spans="6:9">
       <c r="F102" s="6" t="s">
         <v>180</v>
       </c>
@@ -5780,7 +5780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" ht="15.6" spans="6:9">
+    <row r="103" ht="15" spans="6:9">
       <c r="F103" s="6" t="s">
         <v>186</v>
       </c>
@@ -5791,7 +5791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" ht="15.6" spans="6:9">
+    <row r="104" ht="15" spans="6:9">
       <c r="F104" s="6" t="s">
         <v>186</v>
       </c>
@@ -5802,7 +5802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" ht="15.6" spans="6:9">
+    <row r="105" ht="15" spans="6:9">
       <c r="F105" s="6" t="s">
         <v>186</v>
       </c>
@@ -5813,7 +5813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" ht="15.6" spans="6:9">
+    <row r="106" ht="15" spans="6:9">
       <c r="F106" s="6" t="s">
         <v>186</v>
       </c>
@@ -5824,7 +5824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" ht="15.6" spans="6:9">
+    <row r="107" ht="15" spans="6:9">
       <c r="F107" s="6" t="s">
         <v>186</v>
       </c>
@@ -5835,7 +5835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" ht="15.6" spans="6:9">
+    <row r="108" ht="15" spans="6:9">
       <c r="F108" s="6" t="s">
         <v>190</v>
       </c>
@@ -5846,7 +5846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" ht="15.6" spans="6:9">
+    <row r="109" ht="15" spans="6:9">
       <c r="F109" s="6" t="s">
         <v>190</v>
       </c>
@@ -5857,7 +5857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" ht="15.6" spans="6:9">
+    <row r="110" ht="15" spans="6:9">
       <c r="F110" s="6" t="s">
         <v>194</v>
       </c>
@@ -5868,7 +5868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" ht="15.6" spans="6:9">
+    <row r="111" ht="15" spans="6:9">
       <c r="F111" s="6" t="s">
         <v>194</v>
       </c>
@@ -5879,7 +5879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" ht="15.6" spans="6:9">
+    <row r="112" ht="15" spans="6:9">
       <c r="F112" s="6" t="s">
         <v>194</v>
       </c>
@@ -5890,7 +5890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" ht="15.6" spans="6:9">
+    <row r="113" ht="15" spans="6:9">
       <c r="F113" s="6" t="s">
         <v>216</v>
       </c>
@@ -5901,7 +5901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" ht="15.6" spans="6:9">
+    <row r="114" ht="15" spans="6:9">
       <c r="F114" s="6" t="s">
         <v>216</v>
       </c>
@@ -5912,7 +5912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" ht="15.6" spans="6:9">
+    <row r="115" ht="15" spans="6:9">
       <c r="F115" s="6" t="s">
         <v>216</v>
       </c>
@@ -5923,7 +5923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" ht="15.6" spans="6:9">
+    <row r="116" ht="15" spans="6:9">
       <c r="F116" s="6" t="s">
         <v>216</v>
       </c>
@@ -5934,7 +5934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" ht="15.6" spans="6:9">
+    <row r="117" ht="15" spans="6:9">
       <c r="F117" s="6" t="s">
         <v>216</v>
       </c>
@@ -5945,7 +5945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" ht="15.6" spans="6:9">
+    <row r="118" ht="15" spans="6:9">
       <c r="F118" s="6" t="s">
         <v>216</v>
       </c>
@@ -5956,7 +5956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" ht="15.6" spans="6:9">
+    <row r="119" ht="15" spans="6:9">
       <c r="F119" s="6" t="s">
         <v>216</v>
       </c>
@@ -5967,7 +5967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" ht="15.6" spans="6:9">
+    <row r="120" ht="15" spans="6:9">
       <c r="F120" s="6" t="s">
         <v>216</v>
       </c>
@@ -5978,7 +5978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" ht="15.6" spans="6:9">
+    <row r="121" ht="15" spans="6:9">
       <c r="F121" s="6" t="s">
         <v>216</v>
       </c>
@@ -5989,7 +5989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" ht="15.6" spans="6:9">
+    <row r="122" ht="15" spans="6:9">
       <c r="F122" s="6" t="s">
         <v>220</v>
       </c>
@@ -6000,7 +6000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" ht="15.6" spans="6:9">
+    <row r="123" ht="15" spans="6:9">
       <c r="F123" s="6" t="s">
         <v>222</v>
       </c>
@@ -6011,7 +6011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" ht="15.6" spans="6:9">
+    <row r="124" ht="15" spans="6:9">
       <c r="F124" s="6" t="s">
         <v>222</v>
       </c>
@@ -6022,7 +6022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" ht="15.6" spans="6:9">
+    <row r="125" ht="15" spans="6:9">
       <c r="F125" s="6" t="s">
         <v>222</v>
       </c>
@@ -6033,7 +6033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" ht="15.6" spans="6:9">
+    <row r="126" ht="15" spans="6:9">
       <c r="F126" s="6" t="s">
         <v>222</v>
       </c>
@@ -6044,7 +6044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" ht="15.6" spans="6:9">
+    <row r="127" ht="15" spans="6:9">
       <c r="F127" s="6" t="s">
         <v>228</v>
       </c>
@@ -6055,7 +6055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" ht="15.6" spans="6:9">
+    <row r="128" ht="15" spans="6:9">
       <c r="F128" s="6" t="s">
         <v>228</v>
       </c>
@@ -6066,7 +6066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" ht="15.6" spans="6:9">
+    <row r="129" ht="15" spans="6:9">
       <c r="F129" s="6" t="s">
         <v>216</v>
       </c>
@@ -6077,7 +6077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" ht="15.6" spans="6:9">
+    <row r="130" ht="15" spans="6:9">
       <c r="F130" s="6" t="s">
         <v>228</v>
       </c>
@@ -6088,7 +6088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" ht="15.6" spans="6:9">
+    <row r="131" ht="15" spans="6:9">
       <c r="F131" s="6" t="s">
         <v>198</v>
       </c>
@@ -6099,7 +6099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" ht="15.6" spans="6:9">
+    <row r="132" ht="15" spans="6:9">
       <c r="F132" s="6" t="s">
         <v>198</v>
       </c>
@@ -6110,7 +6110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" ht="15.6" spans="6:9">
+    <row r="133" ht="15" spans="6:9">
       <c r="F133" s="6" t="s">
         <v>198</v>
       </c>
@@ -6121,7 +6121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" ht="15.6" spans="6:9">
+    <row r="134" ht="15" spans="6:9">
       <c r="F134" s="6" t="s">
         <v>198</v>
       </c>
@@ -6132,7 +6132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" ht="15.6" spans="6:9">
+    <row r="135" ht="15" spans="6:9">
       <c r="F135" s="6" t="s">
         <v>198</v>
       </c>
@@ -6143,7 +6143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" ht="15.6" spans="6:9">
+    <row r="136" ht="15" spans="6:9">
       <c r="F136" s="6" t="s">
         <v>198</v>
       </c>
@@ -6154,7 +6154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" ht="15.6" spans="6:9">
+    <row r="137" ht="15" spans="6:9">
       <c r="F137" s="6" t="s">
         <v>203</v>
       </c>
@@ -6165,7 +6165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" ht="15.6" spans="6:9">
+    <row r="138" ht="15" spans="6:9">
       <c r="F138" s="6" t="s">
         <v>203</v>
       </c>
@@ -6176,7 +6176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" ht="15.6" spans="6:9">
+    <row r="139" ht="15" spans="6:9">
       <c r="F139" s="6" t="s">
         <v>203</v>
       </c>
@@ -6187,7 +6187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" ht="15.6" spans="6:9">
+    <row r="140" ht="15" spans="6:9">
       <c r="F140" s="6" t="s">
         <v>203</v>
       </c>
@@ -6198,7 +6198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" ht="15.6" spans="6:9">
+    <row r="141" ht="15" spans="6:9">
       <c r="F141" s="6" t="s">
         <v>203</v>
       </c>
@@ -6209,7 +6209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" ht="15.6" spans="6:9">
+    <row r="142" ht="15" spans="6:9">
       <c r="F142" s="6" t="s">
         <v>203</v>
       </c>
@@ -6220,7 +6220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" ht="15.6" spans="6:9">
+    <row r="143" ht="15" spans="6:9">
       <c r="F143" s="6" t="s">
         <v>203</v>
       </c>
@@ -6231,7 +6231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" ht="15.6" spans="6:9">
+    <row r="144" ht="15" spans="6:9">
       <c r="F144" s="6" t="s">
         <v>207</v>
       </c>
@@ -6242,7 +6242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" ht="15.6" spans="6:9">
+    <row r="145" ht="15" spans="6:9">
       <c r="F145" s="6" t="s">
         <v>207</v>
       </c>
@@ -6253,7 +6253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" ht="15.6" spans="6:9">
+    <row r="146" ht="15" spans="6:9">
       <c r="F146" s="6" t="s">
         <v>207</v>
       </c>
@@ -6264,7 +6264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" ht="15.6" spans="6:9">
+    <row r="147" ht="15" spans="6:9">
       <c r="F147" s="6" t="s">
         <v>207</v>
       </c>
@@ -6275,7 +6275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" ht="15.6" spans="6:9">
+    <row r="148" ht="15" spans="6:9">
       <c r="F148" s="6" t="s">
         <v>207</v>
       </c>
@@ -6286,7 +6286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" ht="15.6" spans="6:9">
+    <row r="149" ht="15" spans="6:9">
       <c r="F149" s="6" t="s">
         <v>207</v>
       </c>
@@ -6297,7 +6297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" ht="15.6" spans="6:9">
+    <row r="150" ht="15" spans="6:9">
       <c r="F150" s="6" t="s">
         <v>207</v>
       </c>
@@ -6308,7 +6308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" ht="15.6" spans="6:9">
+    <row r="151" ht="15" spans="6:9">
       <c r="F151" s="6" t="s">
         <v>207</v>
       </c>
@@ -6319,7 +6319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" ht="15.6" spans="6:9">
+    <row r="152" ht="15" spans="6:9">
       <c r="F152" s="6" t="s">
         <v>154</v>
       </c>
@@ -6330,7 +6330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" ht="15.6" spans="6:9">
+    <row r="153" ht="15" spans="6:9">
       <c r="F153" s="6" t="s">
         <v>154</v>
       </c>
@@ -6370,6 +6370,9 @@
       <c r="G156" s="8" t="s">
         <v>353</v>
       </c>
+      <c r="H156">
+        <v>1</v>
+      </c>
       <c r="I156">
         <v>1</v>
       </c>
@@ -6418,96 +6421,118 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" ht="17.4" spans="6:9">
+    <row r="161" ht="17.4" spans="6:7">
       <c r="F161" s="6" t="s">
         <v>154</v>
       </c>
       <c r="G161" s="8" t="s">
         <v>358</v>
       </c>
-      <c r="I161">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162" ht="15.6" spans="6:9">
+    </row>
+    <row r="162" ht="17.4" spans="6:9">
       <c r="F162" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="G162" s="6" t="s">
-        <v>85</v>
+        <v>154</v>
+      </c>
+      <c r="G162" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="H162">
+        <v>1</v>
       </c>
       <c r="I162">
         <v>1</v>
       </c>
     </row>
-    <row r="163" ht="15.6" spans="6:9">
+    <row r="163" ht="15" spans="6:9">
       <c r="F163" s="6" t="s">
         <v>174</v>
       </c>
       <c r="G163" s="6" t="s">
-        <v>359</v>
+        <v>85</v>
       </c>
       <c r="I163">
         <v>1</v>
       </c>
     </row>
-    <row r="164" ht="15.6" spans="6:9">
+    <row r="164" ht="15" spans="6:9">
       <c r="F164" s="6" t="s">
         <v>174</v>
       </c>
       <c r="G164" s="6" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="I164">
         <v>1</v>
       </c>
     </row>
-    <row r="165" ht="15.6" spans="6:9">
+    <row r="165" ht="15" spans="6:9">
       <c r="F165" s="6" t="s">
         <v>174</v>
       </c>
       <c r="G165" s="6" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="I165">
         <v>1</v>
       </c>
     </row>
-    <row r="166" ht="15.6" spans="6:9">
+    <row r="166" ht="15" spans="6:9">
       <c r="F166" s="6" t="s">
         <v>174</v>
       </c>
       <c r="G166" s="6" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="I166">
         <v>1</v>
       </c>
     </row>
-    <row r="167" ht="15.6" spans="6:9">
+    <row r="167" ht="15" spans="6:9">
       <c r="F167" s="6" t="s">
         <v>174</v>
       </c>
       <c r="G167" s="6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="I167">
         <v>1</v>
       </c>
     </row>
-    <row r="168" ht="15.6" spans="6:9">
+    <row r="168" ht="15" spans="6:9">
       <c r="F168" s="6" t="s">
         <v>174</v>
       </c>
       <c r="G168" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="I168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" ht="15" spans="6:9">
+      <c r="F169" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="G169" s="6" t="s">
         <v>363</v>
       </c>
-      <c r="I168">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169" ht="15.6" spans="7:7">
-      <c r="G169" s="6"/>
+      <c r="I169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" ht="15" spans="6:9">
+      <c r="F170" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="G170" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="I170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" ht="15" spans="7:7">
+      <c r="G171" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/src/main/resources/script/meta/micro-service-init-data.xlsx
+++ b/src/main/resources/script/meta/micro-service-init-data.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22430"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\base-service\src\main\resources\script\meta\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D3B1379-CBC8-44BE-A002-F375D2F5B019}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="22056" windowHeight="10020" tabRatio="845" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="845" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
@@ -21,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1123" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1123" uniqueCount="416">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -458,7 +464,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="PingFang SC"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>ldap</t>
     </r>
@@ -467,6 +473,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>设置</t>
@@ -1291,18 +1298,16 @@
   <si>
     <t>Number</t>
   </si>
+  <si>
+    <t>base-service.site-operate-log.listMoreOperateLog</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="39">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="20">
     <font>
       <sz val="10"/>
       <name val="Droid Sans Fallback"/>
@@ -1312,12 +1317,12 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="DejaVu Sans"/>
-      <charset val="134"/>
+      <family val="3"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1327,434 +1332,107 @@
     <font>
       <sz val="10"/>
       <name val="DejaVu Sans"/>
-      <charset val="134"/>
+      <family val="3"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="DengXian"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="PingFang SC"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="14"/>
       <name val="PingFang SC"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="PingFang SC"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="PingFang SC"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF5B9BD5"/>
       <name val="PingFang SC"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF5B9BD5"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFFC000"/>
       <name val="PingFang SC"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="13"/>
       <name val="PingFang SC"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF8F187C"/>
       <name val="PingFang SC"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF8F187C"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="13"/>
       <name val="Helvetica"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1777,251 +1455,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -2046,61 +1482,17 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2358,39 +1750,39 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="D7:O37"/>
   <sheetViews>
-    <sheetView zoomScale="95" zoomScaleNormal="95" topLeftCell="A9" workbookViewId="0">
+    <sheetView topLeftCell="A9" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
       <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="9.13888888888889" customWidth="1"/>
-    <col min="2" max="2" width="9.57407407407407" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" customWidth="1"/>
     <col min="3" max="3" width="9" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
     <col min="5" max="5" width="9" customWidth="1"/>
-    <col min="6" max="6" width="49.1388888888889" customWidth="1"/>
-    <col min="7" max="7" width="37.1388888888889" customWidth="1"/>
+    <col min="6" max="6" width="49.140625" customWidth="1"/>
+    <col min="7" max="7" width="37.140625" customWidth="1"/>
     <col min="8" max="8" width="37" customWidth="1"/>
     <col min="9" max="9" width="19" customWidth="1"/>
-    <col min="10" max="10" width="19.8518518518519" customWidth="1"/>
+    <col min="10" max="10" width="19.85546875" customWidth="1"/>
     <col min="11" max="11" width="19" customWidth="1"/>
-    <col min="12" max="12" width="19.1388888888889" customWidth="1"/>
-    <col min="13" max="13" width="18.8518518518519" customWidth="1"/>
-    <col min="14" max="14" width="19.4259259259259" customWidth="1"/>
+    <col min="12" max="12" width="19.140625" customWidth="1"/>
+    <col min="13" max="13" width="18.85546875" customWidth="1"/>
+    <col min="14" max="14" width="19.42578125" customWidth="1"/>
     <col min="15" max="15" width="19" customWidth="1"/>
     <col min="16" max="1025" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" ht="12.75" customHeight="1" spans="4:15">
+    <row r="7" spans="4:15" ht="12.75" customHeight="1">
       <c r="D7" s="4" t="s">
         <v>0</v>
       </c>
@@ -2428,7 +1820,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="4:14">
+    <row r="8" spans="4:15" ht="12.75">
       <c r="D8" s="3"/>
       <c r="F8" s="2" t="s">
         <v>12</v>
@@ -2458,7 +1850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="6:14">
+    <row r="9" spans="4:15" ht="12.75">
       <c r="F9" s="2" t="s">
         <v>18</v>
       </c>
@@ -2487,7 +1879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="6:14">
+    <row r="10" spans="4:15" ht="12.75">
       <c r="F10" s="2" t="s">
         <v>21</v>
       </c>
@@ -2516,7 +1908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="6:14">
+    <row r="11" spans="4:15" ht="12.75">
       <c r="F11" s="2" t="s">
         <v>24</v>
       </c>
@@ -2545,7 +1937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="6:14">
+    <row r="12" spans="4:15" ht="12.75">
       <c r="F12" s="2" t="s">
         <v>27</v>
       </c>
@@ -2574,7 +1966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="6:14">
+    <row r="13" spans="4:15" ht="12.75">
       <c r="F13" s="2" t="s">
         <v>30</v>
       </c>
@@ -2603,7 +1995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="6:14">
+    <row r="14" spans="4:15" ht="12.75">
       <c r="F14" s="2" t="s">
         <v>33</v>
       </c>
@@ -2632,7 +2024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="6:14">
+    <row r="15" spans="4:15" ht="12.75">
       <c r="F15" s="2" t="s">
         <v>36</v>
       </c>
@@ -2661,7 +2053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="6:14">
+    <row r="16" spans="4:15" ht="12.75">
       <c r="F16" s="2" t="s">
         <v>39</v>
       </c>
@@ -2690,7 +2082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="6:14">
+    <row r="17" spans="6:14" ht="12.75">
       <c r="F17" s="2" t="s">
         <v>42</v>
       </c>
@@ -2719,7 +2111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="6:14">
+    <row r="18" spans="6:14" ht="12.75">
       <c r="F18" s="2" t="s">
         <v>45</v>
       </c>
@@ -2748,7 +2140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="6:14">
+    <row r="19" spans="6:14" ht="12.75">
       <c r="F19" s="2" t="s">
         <v>49</v>
       </c>
@@ -2777,7 +2169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="6:14">
+    <row r="20" spans="6:14" ht="12.75">
       <c r="F20" s="2" t="s">
         <v>52</v>
       </c>
@@ -2806,7 +2198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="6:14">
+    <row r="21" spans="6:14" ht="12.75">
       <c r="F21" s="2" t="s">
         <v>55</v>
       </c>
@@ -2835,7 +2227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="6:14">
+    <row r="22" spans="6:14" ht="12.75">
       <c r="F22" s="2" t="s">
         <v>58</v>
       </c>
@@ -2864,7 +2256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="6:14">
+    <row r="23" spans="6:14" ht="12.75">
       <c r="F23" s="2" t="s">
         <v>61</v>
       </c>
@@ -2893,7 +2285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="6:14">
+    <row r="24" spans="6:14" ht="12.75">
       <c r="F24" s="2" t="s">
         <v>64</v>
       </c>
@@ -2922,7 +2314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="6:14">
+    <row r="25" spans="6:14" ht="12.75">
       <c r="F25" s="2" t="s">
         <v>67</v>
       </c>
@@ -2951,7 +2343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="6:14">
+    <row r="26" spans="6:14" ht="12.75">
       <c r="F26" s="2" t="s">
         <v>70</v>
       </c>
@@ -2980,7 +2372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="6:14">
+    <row r="27" spans="6:14" ht="12.75">
       <c r="F27" s="2" t="s">
         <v>73</v>
       </c>
@@ -3009,7 +2401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="6:14">
+    <row r="28" spans="6:14" ht="12.75">
       <c r="F28" s="2" t="s">
         <v>76</v>
       </c>
@@ -3038,7 +2430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="6:14">
+    <row r="29" spans="6:14" ht="12.75">
       <c r="F29" s="2" t="s">
         <v>79</v>
       </c>
@@ -3067,7 +2459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="6:14">
+    <row r="30" spans="6:14" ht="12.75">
       <c r="F30" s="2" t="s">
         <v>82</v>
       </c>
@@ -3096,7 +2488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="6:14">
+    <row r="31" spans="6:14" ht="12.75">
       <c r="F31" s="2" t="s">
         <v>85</v>
       </c>
@@ -3125,7 +2517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="6:14">
+    <row r="32" spans="6:14" ht="12.75">
       <c r="F32" s="2" t="s">
         <v>88</v>
       </c>
@@ -3154,7 +2546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="6:14">
+    <row r="33" spans="6:14" ht="12.75">
       <c r="F33" s="2" t="s">
         <v>92</v>
       </c>
@@ -3183,7 +2575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="6:14">
+    <row r="34" spans="6:14" ht="12.75">
       <c r="F34" s="2" t="s">
         <v>95</v>
       </c>
@@ -3212,7 +2604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="6:14">
+    <row r="35" spans="6:14" ht="12.75">
       <c r="F35" s="2" t="s">
         <v>98</v>
       </c>
@@ -3241,12 +2633,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="7:7">
+    <row r="37" spans="6:14" ht="12.75">
       <c r="G37" s="2"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="19" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,常规"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,常规"&amp;12 Page &amp;P</oddFooter>
@@ -3255,37 +2648,36 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="D7:Q50"/>
   <sheetViews>
-    <sheetView zoomScale="86" zoomScaleNormal="86" topLeftCell="I34" workbookViewId="0">
+    <sheetView topLeftCell="I34" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="6" customWidth="1"/>
-    <col min="3" max="3" width="4.85185185185185" customWidth="1"/>
-    <col min="4" max="4" width="19.4259259259259" customWidth="1"/>
+    <col min="3" max="3" width="4.85546875" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" customWidth="1"/>
     <col min="5" max="5" width="9" customWidth="1"/>
-    <col min="6" max="6" width="72.8518518518518" customWidth="1"/>
-    <col min="7" max="7" width="16.8518518518519" customWidth="1"/>
+    <col min="6" max="6" width="72.85546875" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" customWidth="1"/>
     <col min="8" max="8" width="36" customWidth="1"/>
-    <col min="9" max="9" width="63.8518518518519" customWidth="1"/>
-    <col min="10" max="10" width="18.5740740740741" customWidth="1"/>
-    <col min="11" max="11" width="54.8518518518519" customWidth="1"/>
-    <col min="12" max="12" width="19.1388888888889" customWidth="1"/>
-    <col min="13" max="13" width="14.5740740740741" customWidth="1"/>
-    <col min="14" max="14" width="26.4259259259259" customWidth="1"/>
+    <col min="9" max="9" width="63.85546875" customWidth="1"/>
+    <col min="10" max="10" width="18.5703125" customWidth="1"/>
+    <col min="11" max="11" width="54.85546875" customWidth="1"/>
+    <col min="12" max="12" width="19.140625" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" customWidth="1"/>
+    <col min="14" max="14" width="26.42578125" customWidth="1"/>
     <col min="15" max="15" width="9" customWidth="1"/>
-    <col min="16" max="16" width="12.4259259259259" customWidth="1"/>
-    <col min="17" max="17" width="10.8518518518519" customWidth="1"/>
+    <col min="16" max="16" width="12.42578125" customWidth="1"/>
+    <col min="17" max="17" width="10.85546875" customWidth="1"/>
     <col min="18" max="1025" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" ht="12.75" customHeight="1" spans="4:17">
+    <row r="7" spans="4:17" ht="12.75" customHeight="1">
       <c r="D7" s="4" t="s">
         <v>101</v>
       </c>
@@ -3329,7 +2721,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" ht="15" spans="4:15">
+    <row r="8" spans="4:17" ht="15.75">
       <c r="D8" s="3"/>
       <c r="F8" s="9" t="s">
         <v>111</v>
@@ -3358,7 +2750,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" ht="15" spans="6:17">
+    <row r="9" spans="4:17" ht="15.75">
       <c r="F9" s="9" t="s">
         <v>116</v>
       </c>
@@ -3393,7 +2785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" ht="15" spans="6:17">
+    <row r="10" spans="4:17" ht="15.75">
       <c r="F10" s="9" t="s">
         <v>121</v>
       </c>
@@ -3428,7 +2820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" ht="15" spans="6:15">
+    <row r="11" spans="4:17" ht="15.75">
       <c r="F11" s="9" t="s">
         <v>116</v>
       </c>
@@ -3460,7 +2852,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" ht="15" spans="6:15">
+    <row r="12" spans="4:17" ht="15.75">
       <c r="F12" s="9" t="s">
         <v>121</v>
       </c>
@@ -3492,7 +2884,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" ht="15" spans="6:15">
+    <row r="13" spans="4:17" ht="15.75">
       <c r="F13" s="9" t="s">
         <v>125</v>
       </c>
@@ -3520,7 +2912,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" ht="15" spans="6:15">
+    <row r="14" spans="4:17" ht="15.75">
       <c r="F14" s="9" t="s">
         <v>128</v>
       </c>
@@ -3552,7 +2944,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" ht="15" spans="6:15">
+    <row r="15" spans="4:17" ht="15.75">
       <c r="F15" s="9" t="s">
         <v>132</v>
       </c>
@@ -3584,7 +2976,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" ht="15" spans="6:15">
+    <row r="16" spans="4:17" ht="15.75">
       <c r="F16" s="9" t="s">
         <v>136</v>
       </c>
@@ -3614,7 +3006,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" ht="15.6" spans="6:15">
+    <row r="17" spans="6:17" ht="15.75">
       <c r="F17" s="9" t="s">
         <v>140</v>
       </c>
@@ -3644,7 +3036,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" ht="15" spans="6:15">
+    <row r="18" spans="6:17" ht="15.75">
       <c r="F18" s="9" t="s">
         <v>143</v>
       </c>
@@ -3674,7 +3066,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" ht="15" spans="6:15">
+    <row r="19" spans="6:17" ht="15.75">
       <c r="F19" s="9" t="s">
         <v>146</v>
       </c>
@@ -3704,7 +3096,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" ht="15" spans="6:17">
+    <row r="20" spans="6:17" ht="15.75">
       <c r="F20" s="9" t="s">
         <v>149</v>
       </c>
@@ -3739,7 +3131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" ht="15" spans="6:15">
+    <row r="21" spans="6:17" ht="15.75">
       <c r="F21" s="9" t="s">
         <v>153</v>
       </c>
@@ -3771,7 +3163,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" ht="15.6" spans="6:15">
+    <row r="22" spans="6:17" ht="15.75">
       <c r="F22" s="9" t="s">
         <v>154</v>
       </c>
@@ -3803,7 +3195,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" ht="15" spans="6:15">
+    <row r="23" spans="6:17" ht="15.75">
       <c r="F23" s="11" t="s">
         <v>158</v>
       </c>
@@ -3831,7 +3223,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" ht="15" spans="6:17">
+    <row r="24" spans="6:17" ht="15.75">
       <c r="F24" s="11" t="s">
         <v>161</v>
       </c>
@@ -3866,7 +3258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" ht="15" spans="6:17">
+    <row r="25" spans="6:17" ht="15.75">
       <c r="F25" s="11" t="s">
         <v>165</v>
       </c>
@@ -3901,7 +3293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" ht="15.6" spans="6:17">
+    <row r="26" spans="6:17" ht="15.75">
       <c r="F26" s="11" t="s">
         <v>166</v>
       </c>
@@ -3936,7 +3328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" ht="15" spans="6:17">
+    <row r="27" spans="6:17" ht="15.75">
       <c r="F27" s="11" t="s">
         <v>170</v>
       </c>
@@ -3971,7 +3363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" ht="15.6" spans="6:15">
+    <row r="28" spans="6:17" ht="15.75">
       <c r="F28" s="11" t="s">
         <v>174</v>
       </c>
@@ -4003,7 +3395,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" ht="15" spans="6:15">
+    <row r="29" spans="6:17" ht="15.75">
       <c r="F29" s="11" t="s">
         <v>161</v>
       </c>
@@ -4035,7 +3427,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" ht="15" spans="6:15">
+    <row r="30" spans="6:17" ht="15.75">
       <c r="F30" s="11" t="s">
         <v>165</v>
       </c>
@@ -4067,7 +3459,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" ht="15.6" spans="6:15">
+    <row r="31" spans="6:17" ht="15.75">
       <c r="F31" s="11" t="s">
         <v>166</v>
       </c>
@@ -4099,7 +3491,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="32" ht="15" spans="6:15">
+    <row r="32" spans="6:17" ht="15.75">
       <c r="F32" s="11" t="s">
         <v>170</v>
       </c>
@@ -4131,7 +3523,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="33" ht="15" spans="6:15">
+    <row r="33" spans="6:15" ht="15.75">
       <c r="F33" s="11" t="s">
         <v>177</v>
       </c>
@@ -4159,7 +3551,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="34" ht="15" spans="6:15">
+    <row r="34" spans="6:15" ht="15.75">
       <c r="F34" s="11" t="s">
         <v>178</v>
       </c>
@@ -4191,7 +3583,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" ht="15" spans="6:15">
+    <row r="35" spans="6:15" ht="15.75">
       <c r="F35" s="11" t="s">
         <v>179</v>
       </c>
@@ -4223,7 +3615,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" ht="15" spans="6:15">
+    <row r="36" spans="6:15" ht="15.75">
       <c r="F36" s="11" t="s">
         <v>180</v>
       </c>
@@ -4253,7 +3645,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" ht="15" spans="6:15">
+    <row r="37" spans="6:15" ht="15.75">
       <c r="F37" s="13" t="s">
         <v>181</v>
       </c>
@@ -4283,7 +3675,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" ht="15" spans="6:15">
+    <row r="38" spans="6:15" ht="15.75">
       <c r="F38" s="13" t="s">
         <v>186</v>
       </c>
@@ -4315,7 +3707,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" ht="15" spans="6:15">
+    <row r="39" spans="6:15" ht="15.75">
       <c r="F39" s="13" t="s">
         <v>190</v>
       </c>
@@ -4347,7 +3739,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="40" ht="15" spans="6:15">
+    <row r="40" spans="6:15" ht="15.75">
       <c r="F40" s="13" t="s">
         <v>194</v>
       </c>
@@ -4379,7 +3771,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="41" ht="16.8" spans="6:15">
+    <row r="41" spans="6:15" ht="16.5">
       <c r="F41" s="14" t="s">
         <v>198</v>
       </c>
@@ -4411,7 +3803,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="42" ht="16.8" spans="6:15">
+    <row r="42" spans="6:15" ht="16.5">
       <c r="F42" s="14" t="s">
         <v>203</v>
       </c>
@@ -4443,7 +3835,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="43" ht="16.8" spans="6:15">
+    <row r="43" spans="6:15" ht="16.5">
       <c r="F43" s="14" t="s">
         <v>207</v>
       </c>
@@ -4475,7 +3867,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="44" ht="15" spans="6:15">
+    <row r="44" spans="6:15" ht="15.75">
       <c r="F44" s="15" t="s">
         <v>211</v>
       </c>
@@ -4505,7 +3897,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" ht="15" spans="6:15">
+    <row r="45" spans="6:15" ht="15.75">
       <c r="F45" s="15" t="s">
         <v>216</v>
       </c>
@@ -4537,7 +3929,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="46" ht="15" spans="6:15">
+    <row r="46" spans="6:15" ht="15.75">
       <c r="F46" s="15" t="s">
         <v>219</v>
       </c>
@@ -4565,7 +3957,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="47" ht="15" spans="6:15">
+    <row r="47" spans="6:15" ht="15.75">
       <c r="F47" s="15" t="s">
         <v>220</v>
       </c>
@@ -4597,7 +3989,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" ht="15.6" spans="6:15">
+    <row r="48" spans="6:15" ht="15.75">
       <c r="F48" s="15" t="s">
         <v>222</v>
       </c>
@@ -4627,7 +4019,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" ht="15" spans="6:15">
+    <row r="49" spans="6:15" ht="15.75">
       <c r="F49" s="15" t="s">
         <v>225</v>
       </c>
@@ -4653,7 +4045,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="50" ht="15" spans="6:15">
+    <row r="50" spans="6:15" ht="15.75">
       <c r="F50" s="15" t="s">
         <v>228</v>
       </c>
@@ -4686,8 +4078,9 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirst